--- a/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="63" uniqueCount="63">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="85">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -203,12 +203,81 @@
   </si>
   <si>
     <t>Nº</t>
+  </si>
+  <si>
+    <t>Croatia Prva HNL</t>
+  </si>
+  <si>
+    <t>2023/2024</t>
+  </si>
+  <si>
+    <t>Dinamo Zagreb</t>
+  </si>
+  <si>
+    <t>Rijeka</t>
+  </si>
+  <si>
+    <t>Osijek</t>
+  </si>
+  <si>
+    <t>Gorica</t>
+  </si>
+  <si>
+    <t>Lokomotiva Zagreb</t>
+  </si>
+  <si>
+    <t>Hajduk Split</t>
+  </si>
+  <si>
+    <t>Rudeš</t>
+  </si>
+  <si>
+    <t>Slaven Koprivnica</t>
+  </si>
+  <si>
+    <t>Varaždin</t>
+  </si>
+  <si>
+    <t>Istra 1961</t>
+  </si>
+  <si>
+    <t>['35']</t>
+  </si>
+  <si>
+    <t>['40', '68', '80', '89']</t>
+  </si>
+  <si>
+    <t>['4', '18', '35', '63', '71', '83']</t>
+  </si>
+  <si>
+    <t>['28']</t>
+  </si>
+  <si>
+    <t>['69']</t>
+  </si>
+  <si>
+    <t>['74', '90+3']</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>['29']</t>
+  </si>
+  <si>
+    <t>['80']</t>
+  </si>
+  <si>
+    <t>['12']</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <numFmts count="1">
+    <numFmt numFmtId="164" formatCode="YYYY-MM-DD HH:MM:SS"/>
+  </numFmts>
   <fonts count="2">
     <font>
       <sz val="11"/>
@@ -261,11 +330,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -560,7 +630,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK1"/>
+  <dimension ref="A1:BK6"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -757,6 +827,961 @@
         <v>61</v>
       </c>
     </row>
+    <row r="2" spans="1:63">
+      <c r="A2" s="1">
+        <v>1</v>
+      </c>
+      <c r="B2">
+        <v>6441691</v>
+      </c>
+      <c r="C2" t="s">
+        <v>63</v>
+      </c>
+      <c r="D2" t="s">
+        <v>64</v>
+      </c>
+      <c r="E2" s="2">
+        <v>45128.625</v>
+      </c>
+      <c r="F2">
+        <v>1</v>
+      </c>
+      <c r="G2" t="s">
+        <v>65</v>
+      </c>
+      <c r="H2" t="s">
+        <v>70</v>
+      </c>
+      <c r="I2">
+        <v>1</v>
+      </c>
+      <c r="J2">
+        <v>0</v>
+      </c>
+      <c r="K2">
+        <v>1</v>
+      </c>
+      <c r="L2">
+        <v>1</v>
+      </c>
+      <c r="M2">
+        <v>2</v>
+      </c>
+      <c r="N2">
+        <v>3</v>
+      </c>
+      <c r="O2" t="s">
+        <v>75</v>
+      </c>
+      <c r="P2" t="s">
+        <v>80</v>
+      </c>
+      <c r="Q2">
+        <v>4</v>
+      </c>
+      <c r="R2">
+        <v>4</v>
+      </c>
+      <c r="S2">
+        <v>8</v>
+      </c>
+      <c r="T2">
+        <v>2.36</v>
+      </c>
+      <c r="U2">
+        <v>2.24</v>
+      </c>
+      <c r="V2">
+        <v>5.18</v>
+      </c>
+      <c r="W2">
+        <v>1.4</v>
+      </c>
+      <c r="X2">
+        <v>2.92</v>
+      </c>
+      <c r="Y2">
+        <v>2.98</v>
+      </c>
+      <c r="Z2">
+        <v>1.39</v>
+      </c>
+      <c r="AA2">
+        <v>6.5</v>
+      </c>
+      <c r="AB2">
+        <v>1.1</v>
+      </c>
+      <c r="AC2">
+        <v>1.66</v>
+      </c>
+      <c r="AD2">
+        <v>3.74</v>
+      </c>
+      <c r="AE2">
+        <v>4.75</v>
+      </c>
+      <c r="AF2">
+        <v>1.06</v>
+      </c>
+      <c r="AG2">
+        <v>8</v>
+      </c>
+      <c r="AH2">
+        <v>1.3</v>
+      </c>
+      <c r="AI2">
+        <v>3.4</v>
+      </c>
+      <c r="AJ2">
+        <v>1.84</v>
+      </c>
+      <c r="AK2">
+        <v>1.89</v>
+      </c>
+      <c r="AL2">
+        <v>1.85</v>
+      </c>
+      <c r="AM2">
+        <v>1.85</v>
+      </c>
+      <c r="AN2">
+        <v>1.13</v>
+      </c>
+      <c r="AO2">
+        <v>1.19</v>
+      </c>
+      <c r="AP2">
+        <v>1.97</v>
+      </c>
+      <c r="AQ2">
+        <v>0</v>
+      </c>
+      <c r="AR2">
+        <v>0</v>
+      </c>
+      <c r="AS2">
+        <v>0</v>
+      </c>
+      <c r="AT2">
+        <v>3</v>
+      </c>
+      <c r="AU2">
+        <v>0</v>
+      </c>
+      <c r="AV2">
+        <v>0</v>
+      </c>
+      <c r="AW2">
+        <v>0</v>
+      </c>
+      <c r="AX2">
+        <v>1.55</v>
+      </c>
+      <c r="AY2">
+        <v>8.4</v>
+      </c>
+      <c r="AZ2">
+        <v>3.04</v>
+      </c>
+      <c r="BA2">
+        <v>1.6</v>
+      </c>
+      <c r="BB2">
+        <v>2.08</v>
+      </c>
+      <c r="BC2">
+        <v>2.8</v>
+      </c>
+      <c r="BD2">
+        <v>3.94</v>
+      </c>
+      <c r="BE2">
+        <v>6.3</v>
+      </c>
+      <c r="BF2">
+        <v>4</v>
+      </c>
+      <c r="BG2">
+        <v>6</v>
+      </c>
+      <c r="BH2">
+        <v>5</v>
+      </c>
+      <c r="BI2">
+        <v>3</v>
+      </c>
+      <c r="BJ2">
+        <v>9</v>
+      </c>
+      <c r="BK2">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="3" spans="1:63">
+      <c r="A3" s="1">
+        <v>2</v>
+      </c>
+      <c r="B3">
+        <v>6441692</v>
+      </c>
+      <c r="C3" t="s">
+        <v>63</v>
+      </c>
+      <c r="D3" t="s">
+        <v>64</v>
+      </c>
+      <c r="E3" s="2">
+        <v>45129.57291666666</v>
+      </c>
+      <c r="F3">
+        <v>1</v>
+      </c>
+      <c r="G3" t="s">
+        <v>66</v>
+      </c>
+      <c r="H3" t="s">
+        <v>71</v>
+      </c>
+      <c r="I3">
+        <v>1</v>
+      </c>
+      <c r="J3">
+        <v>0</v>
+      </c>
+      <c r="K3">
+        <v>1</v>
+      </c>
+      <c r="L3">
+        <v>4</v>
+      </c>
+      <c r="M3">
+        <v>0</v>
+      </c>
+      <c r="N3">
+        <v>4</v>
+      </c>
+      <c r="O3" t="s">
+        <v>76</v>
+      </c>
+      <c r="P3" t="s">
+        <v>81</v>
+      </c>
+      <c r="Q3">
+        <v>10</v>
+      </c>
+      <c r="R3">
+        <v>3</v>
+      </c>
+      <c r="S3">
+        <v>13</v>
+      </c>
+      <c r="T3">
+        <v>1.95</v>
+      </c>
+      <c r="U3">
+        <v>2.3</v>
+      </c>
+      <c r="V3">
+        <v>6.25</v>
+      </c>
+      <c r="W3">
+        <v>1.33</v>
+      </c>
+      <c r="X3">
+        <v>3</v>
+      </c>
+      <c r="Y3">
+        <v>2.7</v>
+      </c>
+      <c r="Z3">
+        <v>1.4</v>
+      </c>
+      <c r="AA3">
+        <v>6.5</v>
+      </c>
+      <c r="AB3">
+        <v>1.08</v>
+      </c>
+      <c r="AC3">
+        <v>1.44</v>
+      </c>
+      <c r="AD3">
+        <v>4.2</v>
+      </c>
+      <c r="AE3">
+        <v>6</v>
+      </c>
+      <c r="AF3">
+        <v>1.01</v>
+      </c>
+      <c r="AG3">
+        <v>11</v>
+      </c>
+      <c r="AH3">
+        <v>1.25</v>
+      </c>
+      <c r="AI3">
+        <v>3.6</v>
+      </c>
+      <c r="AJ3">
+        <v>1.75</v>
+      </c>
+      <c r="AK3">
+        <v>1.95</v>
+      </c>
+      <c r="AL3">
+        <v>1.95</v>
+      </c>
+      <c r="AM3">
+        <v>1.75</v>
+      </c>
+      <c r="AN3">
+        <v>1.1</v>
+      </c>
+      <c r="AO3">
+        <v>1.17</v>
+      </c>
+      <c r="AP3">
+        <v>2.65</v>
+      </c>
+      <c r="AQ3">
+        <v>0</v>
+      </c>
+      <c r="AR3">
+        <v>0</v>
+      </c>
+      <c r="AS3">
+        <v>3</v>
+      </c>
+      <c r="AT3">
+        <v>0</v>
+      </c>
+      <c r="AU3">
+        <v>0</v>
+      </c>
+      <c r="AV3">
+        <v>0</v>
+      </c>
+      <c r="AW3">
+        <v>0</v>
+      </c>
+      <c r="AX3">
+        <v>1.23</v>
+      </c>
+      <c r="AY3">
+        <v>9.5</v>
+      </c>
+      <c r="AZ3">
+        <v>5.18</v>
+      </c>
+      <c r="BA3">
+        <v>1.48</v>
+      </c>
+      <c r="BB3">
+        <v>1.85</v>
+      </c>
+      <c r="BC3">
+        <v>2.44</v>
+      </c>
+      <c r="BD3">
+        <v>3.34</v>
+      </c>
+      <c r="BE3">
+        <v>4.7</v>
+      </c>
+      <c r="BF3">
+        <v>8</v>
+      </c>
+      <c r="BG3">
+        <v>2</v>
+      </c>
+      <c r="BH3">
+        <v>6</v>
+      </c>
+      <c r="BI3">
+        <v>5</v>
+      </c>
+      <c r="BJ3">
+        <v>14</v>
+      </c>
+      <c r="BK3">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="4" spans="1:63">
+      <c r="A4" s="1">
+        <v>3</v>
+      </c>
+      <c r="B4">
+        <v>6441693</v>
+      </c>
+      <c r="C4" t="s">
+        <v>63</v>
+      </c>
+      <c r="D4" t="s">
+        <v>64</v>
+      </c>
+      <c r="E4" s="2">
+        <v>45129.66666666666</v>
+      </c>
+      <c r="F4">
+        <v>1</v>
+      </c>
+      <c r="G4" t="s">
+        <v>67</v>
+      </c>
+      <c r="H4" t="s">
+        <v>72</v>
+      </c>
+      <c r="I4">
+        <v>3</v>
+      </c>
+      <c r="J4">
+        <v>1</v>
+      </c>
+      <c r="K4">
+        <v>4</v>
+      </c>
+      <c r="L4">
+        <v>6</v>
+      </c>
+      <c r="M4">
+        <v>1</v>
+      </c>
+      <c r="N4">
+        <v>7</v>
+      </c>
+      <c r="O4" t="s">
+        <v>77</v>
+      </c>
+      <c r="P4" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q4">
+        <v>6</v>
+      </c>
+      <c r="R4">
+        <v>2</v>
+      </c>
+      <c r="S4">
+        <v>8</v>
+      </c>
+      <c r="T4">
+        <v>2.15</v>
+      </c>
+      <c r="U4">
+        <v>2.1</v>
+      </c>
+      <c r="V4">
+        <v>5.75</v>
+      </c>
+      <c r="W4">
+        <v>1.42</v>
+      </c>
+      <c r="X4">
+        <v>2.6</v>
+      </c>
+      <c r="Y4">
+        <v>3.1</v>
+      </c>
+      <c r="Z4">
+        <v>1.32</v>
+      </c>
+      <c r="AA4">
+        <v>6.8</v>
+      </c>
+      <c r="AB4">
+        <v>1.07</v>
+      </c>
+      <c r="AC4">
+        <v>1.55</v>
+      </c>
+      <c r="AD4">
+        <v>3.65</v>
+      </c>
+      <c r="AE4">
+        <v>5.25</v>
+      </c>
+      <c r="AF4">
+        <v>1.03</v>
+      </c>
+      <c r="AG4">
+        <v>8.5</v>
+      </c>
+      <c r="AH4">
+        <v>1.3</v>
+      </c>
+      <c r="AI4">
+        <v>3.2</v>
+      </c>
+      <c r="AJ4">
+        <v>2</v>
+      </c>
+      <c r="AK4">
+        <v>1.7</v>
+      </c>
+      <c r="AL4">
+        <v>2.1</v>
+      </c>
+      <c r="AM4">
+        <v>1.65</v>
+      </c>
+      <c r="AN4">
+        <v>1.13</v>
+      </c>
+      <c r="AO4">
+        <v>1.22</v>
+      </c>
+      <c r="AP4">
+        <v>2.3</v>
+      </c>
+      <c r="AQ4">
+        <v>0</v>
+      </c>
+      <c r="AR4">
+        <v>0</v>
+      </c>
+      <c r="AS4">
+        <v>3</v>
+      </c>
+      <c r="AT4">
+        <v>0</v>
+      </c>
+      <c r="AU4">
+        <v>0</v>
+      </c>
+      <c r="AV4">
+        <v>0</v>
+      </c>
+      <c r="AW4">
+        <v>0</v>
+      </c>
+      <c r="AX4">
+        <v>1.45</v>
+      </c>
+      <c r="AY4">
+        <v>8</v>
+      </c>
+      <c r="AZ4">
+        <v>3.35</v>
+      </c>
+      <c r="BA4">
+        <v>1.48</v>
+      </c>
+      <c r="BB4">
+        <v>1.79</v>
+      </c>
+      <c r="BC4">
+        <v>2.26</v>
+      </c>
+      <c r="BD4">
+        <v>3.08</v>
+      </c>
+      <c r="BE4">
+        <v>4.6</v>
+      </c>
+      <c r="BF4">
+        <v>11</v>
+      </c>
+      <c r="BG4">
+        <v>2</v>
+      </c>
+      <c r="BH4">
+        <v>8</v>
+      </c>
+      <c r="BI4">
+        <v>6</v>
+      </c>
+      <c r="BJ4">
+        <v>19</v>
+      </c>
+      <c r="BK4">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="5" spans="1:63">
+      <c r="A5" s="1">
+        <v>4</v>
+      </c>
+      <c r="B5">
+        <v>6441689</v>
+      </c>
+      <c r="C5" t="s">
+        <v>63</v>
+      </c>
+      <c r="D5" t="s">
+        <v>64</v>
+      </c>
+      <c r="E5" s="2">
+        <v>45130.57291666666</v>
+      </c>
+      <c r="F5">
+        <v>1</v>
+      </c>
+      <c r="G5" t="s">
+        <v>68</v>
+      </c>
+      <c r="H5" t="s">
+        <v>73</v>
+      </c>
+      <c r="I5">
+        <v>1</v>
+      </c>
+      <c r="J5">
+        <v>0</v>
+      </c>
+      <c r="K5">
+        <v>1</v>
+      </c>
+      <c r="L5">
+        <v>1</v>
+      </c>
+      <c r="M5">
+        <v>1</v>
+      </c>
+      <c r="N5">
+        <v>2</v>
+      </c>
+      <c r="O5" t="s">
+        <v>78</v>
+      </c>
+      <c r="P5" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q5">
+        <v>5</v>
+      </c>
+      <c r="R5">
+        <v>5</v>
+      </c>
+      <c r="S5">
+        <v>10</v>
+      </c>
+      <c r="T5">
+        <v>2.7</v>
+      </c>
+      <c r="U5">
+        <v>2.15</v>
+      </c>
+      <c r="V5">
+        <v>3.4</v>
+      </c>
+      <c r="W5">
+        <v>1.37</v>
+      </c>
+      <c r="X5">
+        <v>3.05</v>
+      </c>
+      <c r="Y5">
+        <v>2.86</v>
+      </c>
+      <c r="Z5">
+        <v>1.41</v>
+      </c>
+      <c r="AA5">
+        <v>6.9</v>
+      </c>
+      <c r="AB5">
+        <v>1.08</v>
+      </c>
+      <c r="AC5">
+        <v>2.1</v>
+      </c>
+      <c r="AD5">
+        <v>3.4</v>
+      </c>
+      <c r="AE5">
+        <v>3.1</v>
+      </c>
+      <c r="AF5">
+        <v>1.04</v>
+      </c>
+      <c r="AG5">
+        <v>12</v>
+      </c>
+      <c r="AH5">
+        <v>1.29</v>
+      </c>
+      <c r="AI5">
+        <v>3.3</v>
+      </c>
+      <c r="AJ5">
+        <v>1.85</v>
+      </c>
+      <c r="AK5">
+        <v>1.85</v>
+      </c>
+      <c r="AL5">
+        <v>1.7</v>
+      </c>
+      <c r="AM5">
+        <v>2.05</v>
+      </c>
+      <c r="AN5">
+        <v>1.28</v>
+      </c>
+      <c r="AO5">
+        <v>1.25</v>
+      </c>
+      <c r="AP5">
+        <v>1.68</v>
+      </c>
+      <c r="AQ5">
+        <v>0</v>
+      </c>
+      <c r="AR5">
+        <v>0</v>
+      </c>
+      <c r="AS5">
+        <v>1</v>
+      </c>
+      <c r="AT5">
+        <v>1</v>
+      </c>
+      <c r="AU5">
+        <v>0</v>
+      </c>
+      <c r="AV5">
+        <v>0</v>
+      </c>
+      <c r="AW5">
+        <v>0</v>
+      </c>
+      <c r="AX5">
+        <v>1.59</v>
+      </c>
+      <c r="AY5">
+        <v>8</v>
+      </c>
+      <c r="AZ5">
+        <v>2.8</v>
+      </c>
+      <c r="BA5">
+        <v>1.34</v>
+      </c>
+      <c r="BB5">
+        <v>1.66</v>
+      </c>
+      <c r="BC5">
+        <v>2.07</v>
+      </c>
+      <c r="BD5">
+        <v>2.8</v>
+      </c>
+      <c r="BE5">
+        <v>3.88</v>
+      </c>
+      <c r="BF5">
+        <v>8</v>
+      </c>
+      <c r="BG5">
+        <v>5</v>
+      </c>
+      <c r="BH5">
+        <v>9</v>
+      </c>
+      <c r="BI5">
+        <v>7</v>
+      </c>
+      <c r="BJ5">
+        <v>17</v>
+      </c>
+      <c r="BK5">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="6" spans="1:63">
+      <c r="A6" s="1">
+        <v>5</v>
+      </c>
+      <c r="B6">
+        <v>6441690</v>
+      </c>
+      <c r="C6" t="s">
+        <v>63</v>
+      </c>
+      <c r="D6" t="s">
+        <v>64</v>
+      </c>
+      <c r="E6" s="2">
+        <v>45130.66666666666</v>
+      </c>
+      <c r="F6">
+        <v>1</v>
+      </c>
+      <c r="G6" t="s">
+        <v>69</v>
+      </c>
+      <c r="H6" t="s">
+        <v>74</v>
+      </c>
+      <c r="I6">
+        <v>0</v>
+      </c>
+      <c r="J6">
+        <v>1</v>
+      </c>
+      <c r="K6">
+        <v>1</v>
+      </c>
+      <c r="L6">
+        <v>1</v>
+      </c>
+      <c r="M6">
+        <v>1</v>
+      </c>
+      <c r="N6">
+        <v>2</v>
+      </c>
+      <c r="O6" t="s">
+        <v>79</v>
+      </c>
+      <c r="P6" t="s">
+        <v>84</v>
+      </c>
+      <c r="Q6">
+        <v>9</v>
+      </c>
+      <c r="R6">
+        <v>3</v>
+      </c>
+      <c r="S6">
+        <v>12</v>
+      </c>
+      <c r="T6">
+        <v>2.55</v>
+      </c>
+      <c r="U6">
+        <v>2</v>
+      </c>
+      <c r="V6">
+        <v>3.88</v>
+      </c>
+      <c r="W6">
+        <v>1.43</v>
+      </c>
+      <c r="X6">
+        <v>2.55</v>
+      </c>
+      <c r="Y6">
+        <v>2.75</v>
+      </c>
+      <c r="Z6">
+        <v>1.4</v>
+      </c>
+      <c r="AA6">
+        <v>6.5</v>
+      </c>
+      <c r="AB6">
+        <v>1.1</v>
+      </c>
+      <c r="AC6">
+        <v>2.01</v>
+      </c>
+      <c r="AD6">
+        <v>3.55</v>
+      </c>
+      <c r="AE6">
+        <v>3.7</v>
+      </c>
+      <c r="AF6">
+        <v>1.06</v>
+      </c>
+      <c r="AG6">
+        <v>9.9</v>
+      </c>
+      <c r="AH6">
+        <v>1.35</v>
+      </c>
+      <c r="AI6">
+        <v>2.96</v>
+      </c>
+      <c r="AJ6">
+        <v>2.07</v>
+      </c>
+      <c r="AK6">
+        <v>1.68</v>
+      </c>
+      <c r="AL6">
+        <v>1.9</v>
+      </c>
+      <c r="AM6">
+        <v>1.8</v>
+      </c>
+      <c r="AN6">
+        <v>1.27</v>
+      </c>
+      <c r="AO6">
+        <v>1.27</v>
+      </c>
+      <c r="AP6">
+        <v>1.78</v>
+      </c>
+      <c r="AQ6">
+        <v>0</v>
+      </c>
+      <c r="AR6">
+        <v>0</v>
+      </c>
+      <c r="AS6">
+        <v>1</v>
+      </c>
+      <c r="AT6">
+        <v>1</v>
+      </c>
+      <c r="AU6">
+        <v>0</v>
+      </c>
+      <c r="AV6">
+        <v>0</v>
+      </c>
+      <c r="AW6">
+        <v>0</v>
+      </c>
+      <c r="AX6">
+        <v>1.55</v>
+      </c>
+      <c r="AY6">
+        <v>8</v>
+      </c>
+      <c r="AZ6">
+        <v>3.02</v>
+      </c>
+      <c r="BA6">
+        <v>1.41</v>
+      </c>
+      <c r="BB6">
+        <v>1.85</v>
+      </c>
+      <c r="BC6">
+        <v>2.17</v>
+      </c>
+      <c r="BD6">
+        <v>2.98</v>
+      </c>
+      <c r="BE6">
+        <v>4.2</v>
+      </c>
+      <c r="BF6">
+        <v>7</v>
+      </c>
+      <c r="BG6">
+        <v>4</v>
+      </c>
+      <c r="BH6">
+        <v>8</v>
+      </c>
+      <c r="BI6">
+        <v>4</v>
+      </c>
+      <c r="BJ6">
+        <v>15</v>
+      </c>
+      <c r="BK6">
+        <v>8</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="85">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -226,21 +226,21 @@
     <t>Lokomotiva Zagreb</t>
   </si>
   <si>
+    <t>Varaždin</t>
+  </si>
+  <si>
+    <t>Istra 1961</t>
+  </si>
+  <si>
+    <t>Rudeš</t>
+  </si>
+  <si>
     <t>Hajduk Split</t>
   </si>
   <si>
-    <t>Rudeš</t>
-  </si>
-  <si>
     <t>Slaven Koprivnica</t>
   </si>
   <si>
-    <t>Varaždin</t>
-  </si>
-  <si>
-    <t>Istra 1961</t>
-  </si>
-  <si>
     <t>['35']</t>
   </si>
   <si>
@@ -256,12 +256,24 @@
     <t>['69']</t>
   </si>
   <si>
+    <t>['5', '28']</t>
+  </si>
+  <si>
+    <t>['90+1']</t>
+  </si>
+  <si>
+    <t>[]</t>
+  </si>
+  <si>
+    <t>['23', '34', '39']</t>
+  </si>
+  <si>
+    <t>['50']</t>
+  </si>
+  <si>
     <t>['74', '90+3']</t>
   </si>
   <si>
-    <t>[]</t>
-  </si>
-  <si>
     <t>['29']</t>
   </si>
   <si>
@@ -269,6 +281,15 @@
   </si>
   <si>
     <t>['12']</t>
+  </si>
+  <si>
+    <t>['81', '86']</t>
+  </si>
+  <si>
+    <t>['6', '57', '69']</t>
+  </si>
+  <si>
+    <t>['43', '76', '83', '88']</t>
   </si>
 </sst>
 </file>
@@ -630,7 +651,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK6"/>
+  <dimension ref="A1:BK11"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -850,7 +871,7 @@
         <v>65</v>
       </c>
       <c r="H2" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
       <c r="I2">
         <v>1</v>
@@ -874,7 +895,7 @@
         <v>75</v>
       </c>
       <c r="P2" t="s">
-        <v>80</v>
+        <v>85</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1041,7 +1062,7 @@
         <v>66</v>
       </c>
       <c r="H3" t="s">
-        <v>71</v>
+        <v>72</v>
       </c>
       <c r="I3">
         <v>1</v>
@@ -1065,7 +1086,7 @@
         <v>76</v>
       </c>
       <c r="P3" t="s">
-        <v>81</v>
+        <v>82</v>
       </c>
       <c r="Q3">
         <v>10</v>
@@ -1232,7 +1253,7 @@
         <v>67</v>
       </c>
       <c r="H4" t="s">
-        <v>72</v>
+        <v>74</v>
       </c>
       <c r="I4">
         <v>3</v>
@@ -1256,7 +1277,7 @@
         <v>77</v>
       </c>
       <c r="P4" t="s">
-        <v>82</v>
+        <v>86</v>
       </c>
       <c r="Q4">
         <v>6</v>
@@ -1346,7 +1367,7 @@
         <v>3</v>
       </c>
       <c r="AT4">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1423,7 +1444,7 @@
         <v>68</v>
       </c>
       <c r="H5" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
       <c r="I5">
         <v>1</v>
@@ -1447,7 +1468,7 @@
         <v>78</v>
       </c>
       <c r="P5" t="s">
-        <v>83</v>
+        <v>87</v>
       </c>
       <c r="Q5">
         <v>5</v>
@@ -1534,7 +1555,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT5">
         <v>1</v>
@@ -1614,7 +1635,7 @@
         <v>69</v>
       </c>
       <c r="H6" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="I6">
         <v>0</v>
@@ -1638,7 +1659,7 @@
         <v>79</v>
       </c>
       <c r="P6" t="s">
-        <v>84</v>
+        <v>88</v>
       </c>
       <c r="Q6">
         <v>9</v>
@@ -1780,6 +1801,961 @@
       </c>
       <c r="BK6">
         <v>8</v>
+      </c>
+    </row>
+    <row r="7" spans="1:63">
+      <c r="A7" s="1">
+        <v>6</v>
+      </c>
+      <c r="B7">
+        <v>6441694</v>
+      </c>
+      <c r="C7" t="s">
+        <v>63</v>
+      </c>
+      <c r="D7" t="s">
+        <v>64</v>
+      </c>
+      <c r="E7" s="2">
+        <v>45135.625</v>
+      </c>
+      <c r="F7">
+        <v>2</v>
+      </c>
+      <c r="G7" t="s">
+        <v>70</v>
+      </c>
+      <c r="H7" t="s">
+        <v>74</v>
+      </c>
+      <c r="I7">
+        <v>2</v>
+      </c>
+      <c r="J7">
+        <v>0</v>
+      </c>
+      <c r="K7">
+        <v>2</v>
+      </c>
+      <c r="L7">
+        <v>2</v>
+      </c>
+      <c r="M7">
+        <v>2</v>
+      </c>
+      <c r="N7">
+        <v>4</v>
+      </c>
+      <c r="O7" t="s">
+        <v>80</v>
+      </c>
+      <c r="P7" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q7">
+        <v>5</v>
+      </c>
+      <c r="R7">
+        <v>5</v>
+      </c>
+      <c r="S7">
+        <v>10</v>
+      </c>
+      <c r="T7">
+        <v>2.64</v>
+      </c>
+      <c r="U7">
+        <v>2.07</v>
+      </c>
+      <c r="V7">
+        <v>4.33</v>
+      </c>
+      <c r="W7">
+        <v>1.44</v>
+      </c>
+      <c r="X7">
+        <v>2.66</v>
+      </c>
+      <c r="Y7">
+        <v>3.1</v>
+      </c>
+      <c r="Z7">
+        <v>1.34</v>
+      </c>
+      <c r="AA7">
+        <v>8.1</v>
+      </c>
+      <c r="AB7">
+        <v>1.06</v>
+      </c>
+      <c r="AC7">
+        <v>2.03</v>
+      </c>
+      <c r="AD7">
+        <v>3.42</v>
+      </c>
+      <c r="AE7">
+        <v>3.68</v>
+      </c>
+      <c r="AF7">
+        <v>1.03</v>
+      </c>
+      <c r="AG7">
+        <v>8</v>
+      </c>
+      <c r="AH7">
+        <v>1.34</v>
+      </c>
+      <c r="AI7">
+        <v>2.93</v>
+      </c>
+      <c r="AJ7">
+        <v>2.14</v>
+      </c>
+      <c r="AK7">
+        <v>1.72</v>
+      </c>
+      <c r="AL7">
+        <v>1.9</v>
+      </c>
+      <c r="AM7">
+        <v>1.84</v>
+      </c>
+      <c r="AN7">
+        <v>1.28</v>
+      </c>
+      <c r="AO7">
+        <v>1.31</v>
+      </c>
+      <c r="AP7">
+        <v>1.78</v>
+      </c>
+      <c r="AQ7">
+        <v>0</v>
+      </c>
+      <c r="AR7">
+        <v>0</v>
+      </c>
+      <c r="AS7">
+        <v>1</v>
+      </c>
+      <c r="AT7">
+        <v>0.5</v>
+      </c>
+      <c r="AU7">
+        <v>0</v>
+      </c>
+      <c r="AV7">
+        <v>1.05</v>
+      </c>
+      <c r="AW7">
+        <v>1.05</v>
+      </c>
+      <c r="AX7">
+        <v>1.74</v>
+      </c>
+      <c r="AY7">
+        <v>8.6</v>
+      </c>
+      <c r="AZ7">
+        <v>2.54</v>
+      </c>
+      <c r="BA7">
+        <v>1.4</v>
+      </c>
+      <c r="BB7">
+        <v>1.74</v>
+      </c>
+      <c r="BC7">
+        <v>2.21</v>
+      </c>
+      <c r="BD7">
+        <v>2.98</v>
+      </c>
+      <c r="BE7">
+        <v>4</v>
+      </c>
+      <c r="BF7">
+        <v>7</v>
+      </c>
+      <c r="BG7">
+        <v>6</v>
+      </c>
+      <c r="BH7">
+        <v>5</v>
+      </c>
+      <c r="BI7">
+        <v>6</v>
+      </c>
+      <c r="BJ7">
+        <v>12</v>
+      </c>
+      <c r="BK7">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="8" spans="1:63">
+      <c r="A8" s="1">
+        <v>7</v>
+      </c>
+      <c r="B8">
+        <v>6441698</v>
+      </c>
+      <c r="C8" t="s">
+        <v>63</v>
+      </c>
+      <c r="D8" t="s">
+        <v>64</v>
+      </c>
+      <c r="E8" s="2">
+        <v>45136.57291666666</v>
+      </c>
+      <c r="F8">
+        <v>2</v>
+      </c>
+      <c r="G8" t="s">
+        <v>68</v>
+      </c>
+      <c r="H8" t="s">
+        <v>69</v>
+      </c>
+      <c r="I8">
+        <v>0</v>
+      </c>
+      <c r="J8">
+        <v>0</v>
+      </c>
+      <c r="K8">
+        <v>0</v>
+      </c>
+      <c r="L8">
+        <v>1</v>
+      </c>
+      <c r="M8">
+        <v>0</v>
+      </c>
+      <c r="N8">
+        <v>1</v>
+      </c>
+      <c r="O8" t="s">
+        <v>81</v>
+      </c>
+      <c r="P8" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q8">
+        <v>5</v>
+      </c>
+      <c r="R8">
+        <v>1</v>
+      </c>
+      <c r="S8">
+        <v>6</v>
+      </c>
+      <c r="T8">
+        <v>2.72</v>
+      </c>
+      <c r="U8">
+        <v>2.18</v>
+      </c>
+      <c r="V8">
+        <v>3.75</v>
+      </c>
+      <c r="W8">
+        <v>1.36</v>
+      </c>
+      <c r="X8">
+        <v>2.99</v>
+      </c>
+      <c r="Y8">
+        <v>2.71</v>
+      </c>
+      <c r="Z8">
+        <v>1.43</v>
+      </c>
+      <c r="AA8">
+        <v>6.65</v>
+      </c>
+      <c r="AB8">
+        <v>1.09</v>
+      </c>
+      <c r="AC8">
+        <v>2.17</v>
+      </c>
+      <c r="AD8">
+        <v>3.54</v>
+      </c>
+      <c r="AE8">
+        <v>3.18</v>
+      </c>
+      <c r="AF8">
+        <v>1.01</v>
+      </c>
+      <c r="AG8">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AH8">
+        <v>1.25</v>
+      </c>
+      <c r="AI8">
+        <v>3.48</v>
+      </c>
+      <c r="AJ8">
+        <v>1.87</v>
+      </c>
+      <c r="AK8">
+        <v>1.95</v>
+      </c>
+      <c r="AL8">
+        <v>1.69</v>
+      </c>
+      <c r="AM8">
+        <v>2.09</v>
+      </c>
+      <c r="AN8">
+        <v>1.35</v>
+      </c>
+      <c r="AO8">
+        <v>1.3</v>
+      </c>
+      <c r="AP8">
+        <v>1.68</v>
+      </c>
+      <c r="AQ8">
+        <v>1</v>
+      </c>
+      <c r="AR8">
+        <v>0</v>
+      </c>
+      <c r="AS8">
+        <v>2</v>
+      </c>
+      <c r="AT8">
+        <v>0</v>
+      </c>
+      <c r="AU8">
+        <v>2.02</v>
+      </c>
+      <c r="AV8">
+        <v>0</v>
+      </c>
+      <c r="AW8">
+        <v>2.02</v>
+      </c>
+      <c r="AX8">
+        <v>1.75</v>
+      </c>
+      <c r="AY8">
+        <v>7.5</v>
+      </c>
+      <c r="AZ8">
+        <v>2.53</v>
+      </c>
+      <c r="BA8">
+        <v>1.31</v>
+      </c>
+      <c r="BB8">
+        <v>1.85</v>
+      </c>
+      <c r="BC8">
+        <v>2.05</v>
+      </c>
+      <c r="BD8">
+        <v>2.65</v>
+      </c>
+      <c r="BE8">
+        <v>3.64</v>
+      </c>
+      <c r="BF8">
+        <v>6</v>
+      </c>
+      <c r="BG8">
+        <v>2</v>
+      </c>
+      <c r="BH8">
+        <v>4</v>
+      </c>
+      <c r="BI8">
+        <v>6</v>
+      </c>
+      <c r="BJ8">
+        <v>10</v>
+      </c>
+      <c r="BK8">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="9" spans="1:63">
+      <c r="A9" s="1">
+        <v>8</v>
+      </c>
+      <c r="B9">
+        <v>6441697</v>
+      </c>
+      <c r="C9" t="s">
+        <v>63</v>
+      </c>
+      <c r="D9" t="s">
+        <v>64</v>
+      </c>
+      <c r="E9" s="2">
+        <v>45136.66666666666</v>
+      </c>
+      <c r="F9">
+        <v>2</v>
+      </c>
+      <c r="G9" t="s">
+        <v>71</v>
+      </c>
+      <c r="H9" t="s">
+        <v>65</v>
+      </c>
+      <c r="I9">
+        <v>0</v>
+      </c>
+      <c r="J9">
+        <v>1</v>
+      </c>
+      <c r="K9">
+        <v>1</v>
+      </c>
+      <c r="L9">
+        <v>0</v>
+      </c>
+      <c r="M9">
+        <v>3</v>
+      </c>
+      <c r="N9">
+        <v>3</v>
+      </c>
+      <c r="O9" t="s">
+        <v>82</v>
+      </c>
+      <c r="P9" t="s">
+        <v>90</v>
+      </c>
+      <c r="Q9">
+        <v>2</v>
+      </c>
+      <c r="R9">
+        <v>4</v>
+      </c>
+      <c r="S9">
+        <v>6</v>
+      </c>
+      <c r="T9">
+        <v>5.85</v>
+      </c>
+      <c r="U9">
+        <v>2.18</v>
+      </c>
+      <c r="V9">
+        <v>2.16</v>
+      </c>
+      <c r="W9">
+        <v>1.41</v>
+      </c>
+      <c r="X9">
+        <v>2.79</v>
+      </c>
+      <c r="Y9">
+        <v>2.95</v>
+      </c>
+      <c r="Z9">
+        <v>1.37</v>
+      </c>
+      <c r="AA9">
+        <v>7.5</v>
+      </c>
+      <c r="AB9">
+        <v>1.07</v>
+      </c>
+      <c r="AC9">
+        <v>5.75</v>
+      </c>
+      <c r="AD9">
+        <v>3.92</v>
+      </c>
+      <c r="AE9">
+        <v>1.59</v>
+      </c>
+      <c r="AF9">
+        <v>1.02</v>
+      </c>
+      <c r="AG9">
+        <v>8.6</v>
+      </c>
+      <c r="AH9">
+        <v>1.31</v>
+      </c>
+      <c r="AI9">
+        <v>3.08</v>
+      </c>
+      <c r="AJ9">
+        <v>2.03</v>
+      </c>
+      <c r="AK9">
+        <v>1.8</v>
+      </c>
+      <c r="AL9">
+        <v>2.02</v>
+      </c>
+      <c r="AM9">
+        <v>1.74</v>
+      </c>
+      <c r="AN9">
+        <v>2.34</v>
+      </c>
+      <c r="AO9">
+        <v>1.25</v>
+      </c>
+      <c r="AP9">
+        <v>1.13</v>
+      </c>
+      <c r="AQ9">
+        <v>0</v>
+      </c>
+      <c r="AR9">
+        <v>0</v>
+      </c>
+      <c r="AS9">
+        <v>0</v>
+      </c>
+      <c r="AT9">
+        <v>3</v>
+      </c>
+      <c r="AU9">
+        <v>0</v>
+      </c>
+      <c r="AV9">
+        <v>0</v>
+      </c>
+      <c r="AW9">
+        <v>0</v>
+      </c>
+      <c r="AX9">
+        <v>3.35</v>
+      </c>
+      <c r="AY9">
+        <v>8</v>
+      </c>
+      <c r="AZ9">
+        <v>1.45</v>
+      </c>
+      <c r="BA9">
+        <v>1.6</v>
+      </c>
+      <c r="BB9">
+        <v>1.98</v>
+      </c>
+      <c r="BC9">
+        <v>2.55</v>
+      </c>
+      <c r="BD9">
+        <v>3.56</v>
+      </c>
+      <c r="BE9">
+        <v>5.6</v>
+      </c>
+      <c r="BF9">
+        <v>4</v>
+      </c>
+      <c r="BG9">
+        <v>5</v>
+      </c>
+      <c r="BH9">
+        <v>1</v>
+      </c>
+      <c r="BI9">
+        <v>3</v>
+      </c>
+      <c r="BJ9">
+        <v>5</v>
+      </c>
+      <c r="BK9">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:63">
+      <c r="A10" s="1">
+        <v>9</v>
+      </c>
+      <c r="B10">
+        <v>6441695</v>
+      </c>
+      <c r="C10" t="s">
+        <v>63</v>
+      </c>
+      <c r="D10" t="s">
+        <v>64</v>
+      </c>
+      <c r="E10" s="2">
+        <v>45137.57291666666</v>
+      </c>
+      <c r="F10">
+        <v>2</v>
+      </c>
+      <c r="G10" t="s">
+        <v>72</v>
+      </c>
+      <c r="H10" t="s">
+        <v>67</v>
+      </c>
+      <c r="I10">
+        <v>3</v>
+      </c>
+      <c r="J10">
+        <v>1</v>
+      </c>
+      <c r="K10">
+        <v>4</v>
+      </c>
+      <c r="L10">
+        <v>3</v>
+      </c>
+      <c r="M10">
+        <v>4</v>
+      </c>
+      <c r="N10">
+        <v>7</v>
+      </c>
+      <c r="O10" t="s">
+        <v>83</v>
+      </c>
+      <c r="P10" t="s">
+        <v>91</v>
+      </c>
+      <c r="Q10">
+        <v>2</v>
+      </c>
+      <c r="R10">
+        <v>8</v>
+      </c>
+      <c r="S10">
+        <v>10</v>
+      </c>
+      <c r="T10">
+        <v>4</v>
+      </c>
+      <c r="U10">
+        <v>2.1</v>
+      </c>
+      <c r="V10">
+        <v>2.88</v>
+      </c>
+      <c r="W10">
+        <v>1.44</v>
+      </c>
+      <c r="X10">
+        <v>2.63</v>
+      </c>
+      <c r="Y10">
+        <v>3</v>
+      </c>
+      <c r="Z10">
+        <v>1.36</v>
+      </c>
+      <c r="AA10">
+        <v>9</v>
+      </c>
+      <c r="AB10">
+        <v>1.07</v>
+      </c>
+      <c r="AC10">
+        <v>3.3</v>
+      </c>
+      <c r="AD10">
+        <v>3.25</v>
+      </c>
+      <c r="AE10">
+        <v>2.05</v>
+      </c>
+      <c r="AF10">
+        <v>1.07</v>
+      </c>
+      <c r="AG10">
+        <v>7.5</v>
+      </c>
+      <c r="AH10">
+        <v>1.36</v>
+      </c>
+      <c r="AI10">
+        <v>3</v>
+      </c>
+      <c r="AJ10">
+        <v>2.01</v>
+      </c>
+      <c r="AK10">
+        <v>1.72</v>
+      </c>
+      <c r="AL10">
+        <v>1.83</v>
+      </c>
+      <c r="AM10">
+        <v>1.83</v>
+      </c>
+      <c r="AN10">
+        <v>1.78</v>
+      </c>
+      <c r="AO10">
+        <v>1.25</v>
+      </c>
+      <c r="AP10">
+        <v>1.25</v>
+      </c>
+      <c r="AQ10">
+        <v>0</v>
+      </c>
+      <c r="AR10">
+        <v>0</v>
+      </c>
+      <c r="AS10">
+        <v>0</v>
+      </c>
+      <c r="AT10">
+        <v>3</v>
+      </c>
+      <c r="AU10">
+        <v>0</v>
+      </c>
+      <c r="AV10">
+        <v>0</v>
+      </c>
+      <c r="AW10">
+        <v>0</v>
+      </c>
+      <c r="AX10">
+        <v>2.53</v>
+      </c>
+      <c r="AY10">
+        <v>7.5</v>
+      </c>
+      <c r="AZ10">
+        <v>1.75</v>
+      </c>
+      <c r="BA10">
+        <v>1.4</v>
+      </c>
+      <c r="BB10">
+        <v>1.72</v>
+      </c>
+      <c r="BC10">
+        <v>2.23</v>
+      </c>
+      <c r="BD10">
+        <v>3</v>
+      </c>
+      <c r="BE10">
+        <v>3.9</v>
+      </c>
+      <c r="BF10">
+        <v>7</v>
+      </c>
+      <c r="BG10">
+        <v>7</v>
+      </c>
+      <c r="BH10">
+        <v>4</v>
+      </c>
+      <c r="BI10">
+        <v>5</v>
+      </c>
+      <c r="BJ10">
+        <v>11</v>
+      </c>
+      <c r="BK10">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="11" spans="1:63">
+      <c r="A11" s="1">
+        <v>10</v>
+      </c>
+      <c r="B11">
+        <v>6441696</v>
+      </c>
+      <c r="C11" t="s">
+        <v>63</v>
+      </c>
+      <c r="D11" t="s">
+        <v>64</v>
+      </c>
+      <c r="E11" s="2">
+        <v>45137.67013888889</v>
+      </c>
+      <c r="F11">
+        <v>2</v>
+      </c>
+      <c r="G11" t="s">
+        <v>73</v>
+      </c>
+      <c r="H11" t="s">
+        <v>66</v>
+      </c>
+      <c r="I11">
+        <v>0</v>
+      </c>
+      <c r="J11">
+        <v>0</v>
+      </c>
+      <c r="K11">
+        <v>0</v>
+      </c>
+      <c r="L11">
+        <v>1</v>
+      </c>
+      <c r="M11">
+        <v>0</v>
+      </c>
+      <c r="N11">
+        <v>1</v>
+      </c>
+      <c r="O11" t="s">
+        <v>84</v>
+      </c>
+      <c r="P11" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q11">
+        <v>2</v>
+      </c>
+      <c r="R11">
+        <v>1</v>
+      </c>
+      <c r="S11">
+        <v>3</v>
+      </c>
+      <c r="T11">
+        <v>2.45</v>
+      </c>
+      <c r="U11">
+        <v>2.2</v>
+      </c>
+      <c r="V11">
+        <v>4</v>
+      </c>
+      <c r="W11">
+        <v>1.35</v>
+      </c>
+      <c r="X11">
+        <v>2.95</v>
+      </c>
+      <c r="Y11">
+        <v>2.65</v>
+      </c>
+      <c r="Z11">
+        <v>1.42</v>
+      </c>
+      <c r="AA11">
+        <v>6.45</v>
+      </c>
+      <c r="AB11">
+        <v>1.09</v>
+      </c>
+      <c r="AC11">
+        <v>1.9</v>
+      </c>
+      <c r="AD11">
+        <v>3.6</v>
+      </c>
+      <c r="AE11">
+        <v>3.75</v>
+      </c>
+      <c r="AF11">
+        <v>1.01</v>
+      </c>
+      <c r="AG11">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AH11">
+        <v>1.25</v>
+      </c>
+      <c r="AI11">
+        <v>3.6</v>
+      </c>
+      <c r="AJ11">
+        <v>1.83</v>
+      </c>
+      <c r="AK11">
+        <v>1.9</v>
+      </c>
+      <c r="AL11">
+        <v>1.74</v>
+      </c>
+      <c r="AM11">
+        <v>2.02</v>
+      </c>
+      <c r="AN11">
+        <v>1.22</v>
+      </c>
+      <c r="AO11">
+        <v>1.22</v>
+      </c>
+      <c r="AP11">
+        <v>1.85</v>
+      </c>
+      <c r="AQ11">
+        <v>0</v>
+      </c>
+      <c r="AR11">
+        <v>0</v>
+      </c>
+      <c r="AS11">
+        <v>3</v>
+      </c>
+      <c r="AT11">
+        <v>0</v>
+      </c>
+      <c r="AU11">
+        <v>0</v>
+      </c>
+      <c r="AV11">
+        <v>0</v>
+      </c>
+      <c r="AW11">
+        <v>0</v>
+      </c>
+      <c r="AX11">
+        <v>1.59</v>
+      </c>
+      <c r="AY11">
+        <v>8</v>
+      </c>
+      <c r="AZ11">
+        <v>2.9</v>
+      </c>
+      <c r="BA11">
+        <v>1.4</v>
+      </c>
+      <c r="BB11">
+        <v>1.88</v>
+      </c>
+      <c r="BC11">
+        <v>2.2</v>
+      </c>
+      <c r="BD11">
+        <v>2.98</v>
+      </c>
+      <c r="BE11">
+        <v>4.3</v>
+      </c>
+      <c r="BF11">
+        <v>7</v>
+      </c>
+      <c r="BG11">
+        <v>0</v>
+      </c>
+      <c r="BH11">
+        <v>7</v>
+      </c>
+      <c r="BI11">
+        <v>6</v>
+      </c>
+      <c r="BJ11">
+        <v>14</v>
+      </c>
+      <c r="BK11">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="123" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="96">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -271,6 +271,12 @@
     <t>['50']</t>
   </si>
   <si>
+    <t>['59', '71', '79']</t>
+  </si>
+  <si>
+    <t>['44', '56', '74']</t>
+  </si>
+  <si>
     <t>['74', '90+3']</t>
   </si>
   <si>
@@ -290,6 +296,12 @@
   </si>
   <si>
     <t>['43', '76', '83', '88']</t>
+  </si>
+  <si>
+    <t>['19', '22', '65']</t>
+  </si>
+  <si>
+    <t>['45', '78']</t>
   </si>
 </sst>
 </file>
@@ -651,7 +663,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK11"/>
+  <dimension ref="A1:BK13"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -895,7 +907,7 @@
         <v>75</v>
       </c>
       <c r="P2" t="s">
-        <v>85</v>
+        <v>87</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1277,7 +1289,7 @@
         <v>77</v>
       </c>
       <c r="P4" t="s">
-        <v>86</v>
+        <v>88</v>
       </c>
       <c r="Q4">
         <v>6</v>
@@ -1468,7 +1480,7 @@
         <v>78</v>
       </c>
       <c r="P5" t="s">
-        <v>87</v>
+        <v>89</v>
       </c>
       <c r="Q5">
         <v>5</v>
@@ -1659,7 +1671,7 @@
         <v>79</v>
       </c>
       <c r="P6" t="s">
-        <v>88</v>
+        <v>90</v>
       </c>
       <c r="Q6">
         <v>9</v>
@@ -1850,7 +1862,7 @@
         <v>80</v>
       </c>
       <c r="P7" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -2232,7 +2244,7 @@
         <v>82</v>
       </c>
       <c r="P9" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="Q9">
         <v>2</v>
@@ -2423,7 +2435,7 @@
         <v>83</v>
       </c>
       <c r="P10" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Q10">
         <v>2</v>
@@ -2756,6 +2768,388 @@
       </c>
       <c r="BK11">
         <v>6</v>
+      </c>
+    </row>
+    <row r="12" spans="1:63">
+      <c r="A12" s="1">
+        <v>11</v>
+      </c>
+      <c r="B12">
+        <v>6441699</v>
+      </c>
+      <c r="C12" t="s">
+        <v>63</v>
+      </c>
+      <c r="D12" t="s">
+        <v>64</v>
+      </c>
+      <c r="E12" s="2">
+        <v>45142.625</v>
+      </c>
+      <c r="F12">
+        <v>3</v>
+      </c>
+      <c r="G12" t="s">
+        <v>69</v>
+      </c>
+      <c r="H12" t="s">
+        <v>70</v>
+      </c>
+      <c r="I12">
+        <v>0</v>
+      </c>
+      <c r="J12">
+        <v>2</v>
+      </c>
+      <c r="K12">
+        <v>2</v>
+      </c>
+      <c r="L12">
+        <v>3</v>
+      </c>
+      <c r="M12">
+        <v>3</v>
+      </c>
+      <c r="N12">
+        <v>6</v>
+      </c>
+      <c r="O12" t="s">
+        <v>85</v>
+      </c>
+      <c r="P12" t="s">
+        <v>94</v>
+      </c>
+      <c r="Q12">
+        <v>7</v>
+      </c>
+      <c r="R12">
+        <v>7</v>
+      </c>
+      <c r="S12">
+        <v>14</v>
+      </c>
+      <c r="T12">
+        <v>2.3</v>
+      </c>
+      <c r="U12">
+        <v>2.25</v>
+      </c>
+      <c r="V12">
+        <v>4.33</v>
+      </c>
+      <c r="W12">
+        <v>1.35</v>
+      </c>
+      <c r="X12">
+        <v>2.95</v>
+      </c>
+      <c r="Y12">
+        <v>2.6</v>
+      </c>
+      <c r="Z12">
+        <v>1.44</v>
+      </c>
+      <c r="AA12">
+        <v>6.45</v>
+      </c>
+      <c r="AB12">
+        <v>1.09</v>
+      </c>
+      <c r="AC12">
+        <v>1.66</v>
+      </c>
+      <c r="AD12">
+        <v>3.93</v>
+      </c>
+      <c r="AE12">
+        <v>4.49</v>
+      </c>
+      <c r="AF12">
+        <v>1.04</v>
+      </c>
+      <c r="AG12">
+        <v>13</v>
+      </c>
+      <c r="AH12">
+        <v>1.25</v>
+      </c>
+      <c r="AI12">
+        <v>3.75</v>
+      </c>
+      <c r="AJ12">
+        <v>1.8</v>
+      </c>
+      <c r="AK12">
+        <v>1.95</v>
+      </c>
+      <c r="AL12">
+        <v>1.75</v>
+      </c>
+      <c r="AM12">
+        <v>2</v>
+      </c>
+      <c r="AN12">
+        <v>1.17</v>
+      </c>
+      <c r="AO12">
+        <v>1.2</v>
+      </c>
+      <c r="AP12">
+        <v>2.05</v>
+      </c>
+      <c r="AQ12">
+        <v>1</v>
+      </c>
+      <c r="AR12">
+        <v>1</v>
+      </c>
+      <c r="AS12">
+        <v>1</v>
+      </c>
+      <c r="AT12">
+        <v>1</v>
+      </c>
+      <c r="AU12">
+        <v>1.99</v>
+      </c>
+      <c r="AV12">
+        <v>1.56</v>
+      </c>
+      <c r="AW12">
+        <v>3.55</v>
+      </c>
+      <c r="AX12">
+        <v>1.41</v>
+      </c>
+      <c r="AY12">
+        <v>6.25</v>
+      </c>
+      <c r="AZ12">
+        <v>3.35</v>
+      </c>
+      <c r="BA12">
+        <v>1.24</v>
+      </c>
+      <c r="BB12">
+        <v>1.47</v>
+      </c>
+      <c r="BC12">
+        <v>1.83</v>
+      </c>
+      <c r="BD12">
+        <v>2.33</v>
+      </c>
+      <c r="BE12">
+        <v>3.08</v>
+      </c>
+      <c r="BF12">
+        <v>3</v>
+      </c>
+      <c r="BG12">
+        <v>7</v>
+      </c>
+      <c r="BH12">
+        <v>4</v>
+      </c>
+      <c r="BI12">
+        <v>5</v>
+      </c>
+      <c r="BJ12">
+        <v>7</v>
+      </c>
+      <c r="BK12">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="13" spans="1:63">
+      <c r="A13" s="1">
+        <v>12</v>
+      </c>
+      <c r="B13">
+        <v>6441703</v>
+      </c>
+      <c r="C13" t="s">
+        <v>63</v>
+      </c>
+      <c r="D13" t="s">
+        <v>64</v>
+      </c>
+      <c r="E13" s="2">
+        <v>45143.57291666666</v>
+      </c>
+      <c r="F13">
+        <v>3</v>
+      </c>
+      <c r="G13" t="s">
+        <v>74</v>
+      </c>
+      <c r="H13" t="s">
+        <v>72</v>
+      </c>
+      <c r="I13">
+        <v>1</v>
+      </c>
+      <c r="J13">
+        <v>1</v>
+      </c>
+      <c r="K13">
+        <v>2</v>
+      </c>
+      <c r="L13">
+        <v>3</v>
+      </c>
+      <c r="M13">
+        <v>2</v>
+      </c>
+      <c r="N13">
+        <v>5</v>
+      </c>
+      <c r="O13" t="s">
+        <v>86</v>
+      </c>
+      <c r="P13" t="s">
+        <v>95</v>
+      </c>
+      <c r="Q13">
+        <v>3</v>
+      </c>
+      <c r="R13">
+        <v>9</v>
+      </c>
+      <c r="S13">
+        <v>12</v>
+      </c>
+      <c r="T13">
+        <v>2.35</v>
+      </c>
+      <c r="U13">
+        <v>2.15</v>
+      </c>
+      <c r="V13">
+        <v>4.5</v>
+      </c>
+      <c r="W13">
+        <v>1.37</v>
+      </c>
+      <c r="X13">
+        <v>2.85</v>
+      </c>
+      <c r="Y13">
+        <v>2.7</v>
+      </c>
+      <c r="Z13">
+        <v>1.41</v>
+      </c>
+      <c r="AA13">
+        <v>6.45</v>
+      </c>
+      <c r="AB13">
+        <v>1.09</v>
+      </c>
+      <c r="AC13">
+        <v>1.75</v>
+      </c>
+      <c r="AD13">
+        <v>3.6</v>
+      </c>
+      <c r="AE13">
+        <v>4.5</v>
+      </c>
+      <c r="AF13">
+        <v>1.05</v>
+      </c>
+      <c r="AG13">
+        <v>9</v>
+      </c>
+      <c r="AH13">
+        <v>1.25</v>
+      </c>
+      <c r="AI13">
+        <v>3.6</v>
+      </c>
+      <c r="AJ13">
+        <v>1.8</v>
+      </c>
+      <c r="AK13">
+        <v>2</v>
+      </c>
+      <c r="AL13">
+        <v>1.75</v>
+      </c>
+      <c r="AM13">
+        <v>2</v>
+      </c>
+      <c r="AN13">
+        <v>1.16</v>
+      </c>
+      <c r="AO13">
+        <v>1.22</v>
+      </c>
+      <c r="AP13">
+        <v>1.9</v>
+      </c>
+      <c r="AQ13">
+        <v>0</v>
+      </c>
+      <c r="AR13">
+        <v>0</v>
+      </c>
+      <c r="AS13">
+        <v>3</v>
+      </c>
+      <c r="AT13">
+        <v>0</v>
+      </c>
+      <c r="AU13">
+        <v>0</v>
+      </c>
+      <c r="AV13">
+        <v>0.82</v>
+      </c>
+      <c r="AW13">
+        <v>0.82</v>
+      </c>
+      <c r="AX13">
+        <v>1.45</v>
+      </c>
+      <c r="AY13">
+        <v>8.5</v>
+      </c>
+      <c r="AZ13">
+        <v>3.33</v>
+      </c>
+      <c r="BA13">
+        <v>1.32</v>
+      </c>
+      <c r="BB13">
+        <v>1.6</v>
+      </c>
+      <c r="BC13">
+        <v>2.05</v>
+      </c>
+      <c r="BD13">
+        <v>2.69</v>
+      </c>
+      <c r="BE13">
+        <v>3.65</v>
+      </c>
+      <c r="BF13">
+        <v>3</v>
+      </c>
+      <c r="BG13">
+        <v>3</v>
+      </c>
+      <c r="BH13">
+        <v>4</v>
+      </c>
+      <c r="BI13">
+        <v>6</v>
+      </c>
+      <c r="BJ13">
+        <v>7</v>
+      </c>
+      <c r="BK13">
+        <v>9</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="135" uniqueCount="96">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="97">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -275,6 +275,9 @@
   </si>
   <si>
     <t>['44', '56', '74']</t>
+  </si>
+  <si>
+    <t>['34', '44', '45+1', '58', '61', '81']</t>
   </si>
   <si>
     <t>['74', '90+3']</t>
@@ -663,7 +666,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK13"/>
+  <dimension ref="A1:BK15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -907,7 +910,7 @@
         <v>75</v>
       </c>
       <c r="P2" t="s">
-        <v>87</v>
+        <v>88</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -994,7 +997,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AT2">
         <v>3</v>
@@ -1289,7 +1292,7 @@
         <v>77</v>
       </c>
       <c r="P4" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q4">
         <v>6</v>
@@ -1480,7 +1483,7 @@
         <v>78</v>
       </c>
       <c r="P5" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q5">
         <v>5</v>
@@ -1671,7 +1674,7 @@
         <v>79</v>
       </c>
       <c r="P6" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Q6">
         <v>9</v>
@@ -1761,7 +1764,7 @@
         <v>1</v>
       </c>
       <c r="AT6">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -1862,7 +1865,7 @@
         <v>80</v>
       </c>
       <c r="P7" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -2244,7 +2247,7 @@
         <v>82</v>
       </c>
       <c r="P9" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q9">
         <v>2</v>
@@ -2435,7 +2438,7 @@
         <v>83</v>
       </c>
       <c r="P10" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q10">
         <v>2</v>
@@ -2817,7 +2820,7 @@
         <v>85</v>
       </c>
       <c r="P12" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q12">
         <v>7</v>
@@ -2943,22 +2946,22 @@
         <v>3.08</v>
       </c>
       <c r="BF12">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="BG12">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BH12">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BI12">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BJ12">
-        <v>7</v>
+        <v>13</v>
       </c>
       <c r="BK12">
-        <v>12</v>
+        <v>15</v>
       </c>
     </row>
     <row r="13" spans="1:63">
@@ -3008,7 +3011,7 @@
         <v>86</v>
       </c>
       <c r="P13" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3134,22 +3137,404 @@
         <v>3.65</v>
       </c>
       <c r="BF13">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BG13">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BH13">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BI13">
         <v>6</v>
       </c>
       <c r="BJ13">
+        <v>11</v>
+      </c>
+      <c r="BK13">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="14" spans="1:63">
+      <c r="A14" s="1">
+        <v>13</v>
+      </c>
+      <c r="B14">
+        <v>6441700</v>
+      </c>
+      <c r="C14" t="s">
+        <v>63</v>
+      </c>
+      <c r="D14" t="s">
+        <v>64</v>
+      </c>
+      <c r="E14" s="2">
+        <v>45143.66666666666</v>
+      </c>
+      <c r="F14">
+        <v>3</v>
+      </c>
+      <c r="G14" t="s">
+        <v>65</v>
+      </c>
+      <c r="H14" t="s">
+        <v>68</v>
+      </c>
+      <c r="I14">
+        <v>0</v>
+      </c>
+      <c r="J14">
+        <v>0</v>
+      </c>
+      <c r="K14">
+        <v>0</v>
+      </c>
+      <c r="L14">
+        <v>0</v>
+      </c>
+      <c r="M14">
+        <v>0</v>
+      </c>
+      <c r="N14">
+        <v>0</v>
+      </c>
+      <c r="O14" t="s">
+        <v>82</v>
+      </c>
+      <c r="P14" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q14">
+        <v>10</v>
+      </c>
+      <c r="R14">
+        <v>0</v>
+      </c>
+      <c r="S14">
+        <v>10</v>
+      </c>
+      <c r="T14">
+        <v>1.66</v>
+      </c>
+      <c r="U14">
+        <v>2.6</v>
+      </c>
+      <c r="V14">
+        <v>8</v>
+      </c>
+      <c r="W14">
+        <v>1.3</v>
+      </c>
+      <c r="X14">
+        <v>3.25</v>
+      </c>
+      <c r="Y14">
+        <v>2.4</v>
+      </c>
+      <c r="Z14">
+        <v>1.51</v>
+      </c>
+      <c r="AA14">
+        <v>5.45</v>
+      </c>
+      <c r="AB14">
+        <v>1.12</v>
+      </c>
+      <c r="AC14">
+        <v>1.25</v>
+      </c>
+      <c r="AD14">
+        <v>5.5</v>
+      </c>
+      <c r="AE14">
+        <v>11</v>
+      </c>
+      <c r="AF14">
+        <v>1.02</v>
+      </c>
+      <c r="AG14">
+        <v>16.5</v>
+      </c>
+      <c r="AH14">
+        <v>1.2</v>
+      </c>
+      <c r="AI14">
+        <v>4.33</v>
+      </c>
+      <c r="AJ14">
+        <v>1.65</v>
+      </c>
+      <c r="AK14">
+        <v>2.15</v>
+      </c>
+      <c r="AL14">
+        <v>2.15</v>
+      </c>
+      <c r="AM14">
+        <v>1.65</v>
+      </c>
+      <c r="AN14">
+        <v>1.04</v>
+      </c>
+      <c r="AO14">
+        <v>1.09</v>
+      </c>
+      <c r="AP14">
+        <v>3.4</v>
+      </c>
+      <c r="AQ14">
+        <v>0</v>
+      </c>
+      <c r="AR14">
+        <v>0</v>
+      </c>
+      <c r="AS14">
+        <v>0.5</v>
+      </c>
+      <c r="AT14">
+        <v>1</v>
+      </c>
+      <c r="AU14">
+        <v>1.29</v>
+      </c>
+      <c r="AV14">
+        <v>0</v>
+      </c>
+      <c r="AW14">
+        <v>1.29</v>
+      </c>
+      <c r="AX14">
+        <v>1.23</v>
+      </c>
+      <c r="AY14">
+        <v>10</v>
+      </c>
+      <c r="AZ14">
+        <v>5.57</v>
+      </c>
+      <c r="BA14">
+        <v>1.53</v>
+      </c>
+      <c r="BB14">
+        <v>1.88</v>
+      </c>
+      <c r="BC14">
+        <v>2.39</v>
+      </c>
+      <c r="BD14">
+        <v>3.28</v>
+      </c>
+      <c r="BE14">
+        <v>4.7</v>
+      </c>
+      <c r="BF14">
+        <v>6</v>
+      </c>
+      <c r="BG14">
+        <v>4</v>
+      </c>
+      <c r="BH14">
+        <v>9</v>
+      </c>
+      <c r="BI14">
+        <v>3</v>
+      </c>
+      <c r="BJ14">
+        <v>15</v>
+      </c>
+      <c r="BK14">
         <v>7</v>
       </c>
-      <c r="BK13">
+    </row>
+    <row r="15" spans="1:63">
+      <c r="A15" s="1">
+        <v>14</v>
+      </c>
+      <c r="B15">
+        <v>6441701</v>
+      </c>
+      <c r="C15" t="s">
+        <v>63</v>
+      </c>
+      <c r="D15" t="s">
+        <v>64</v>
+      </c>
+      <c r="E15" s="2">
+        <v>45144.66666666666</v>
+      </c>
+      <c r="F15">
+        <v>3</v>
+      </c>
+      <c r="G15" t="s">
+        <v>66</v>
+      </c>
+      <c r="H15" t="s">
+        <v>71</v>
+      </c>
+      <c r="I15">
+        <v>3</v>
+      </c>
+      <c r="J15">
+        <v>0</v>
+      </c>
+      <c r="K15">
+        <v>3</v>
+      </c>
+      <c r="L15">
+        <v>6</v>
+      </c>
+      <c r="M15">
+        <v>0</v>
+      </c>
+      <c r="N15">
+        <v>6</v>
+      </c>
+      <c r="O15" t="s">
+        <v>87</v>
+      </c>
+      <c r="P15" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q15">
+        <v>5</v>
+      </c>
+      <c r="R15">
+        <v>1</v>
+      </c>
+      <c r="S15">
+        <v>6</v>
+      </c>
+      <c r="T15">
+        <v>2.15</v>
+      </c>
+      <c r="U15">
+        <v>2.2</v>
+      </c>
+      <c r="V15">
+        <v>5</v>
+      </c>
+      <c r="W15">
+        <v>1.35</v>
+      </c>
+      <c r="X15">
+        <v>2.9</v>
+      </c>
+      <c r="Y15">
+        <v>2.65</v>
+      </c>
+      <c r="Z15">
+        <v>1.42</v>
+      </c>
+      <c r="AA15">
+        <v>6</v>
+      </c>
+      <c r="AB15">
+        <v>1.1</v>
+      </c>
+      <c r="AC15">
+        <v>1.61</v>
+      </c>
+      <c r="AD15">
+        <v>4.03</v>
+      </c>
+      <c r="AE15">
+        <v>5.16</v>
+      </c>
+      <c r="AF15">
+        <v>1.04</v>
+      </c>
+      <c r="AG15">
+        <v>13</v>
+      </c>
+      <c r="AH15">
+        <v>1.25</v>
+      </c>
+      <c r="AI15">
+        <v>3.58</v>
+      </c>
+      <c r="AJ15">
+        <v>1.87</v>
+      </c>
+      <c r="AK15">
+        <v>1.93</v>
+      </c>
+      <c r="AL15">
+        <v>1.82</v>
+      </c>
+      <c r="AM15">
+        <v>1.9</v>
+      </c>
+      <c r="AN15">
+        <v>1.16</v>
+      </c>
+      <c r="AO15">
+        <v>1.22</v>
+      </c>
+      <c r="AP15">
+        <v>2.15</v>
+      </c>
+      <c r="AQ15">
+        <v>3</v>
+      </c>
+      <c r="AR15">
+        <v>1</v>
+      </c>
+      <c r="AS15">
+        <v>3</v>
+      </c>
+      <c r="AT15">
+        <v>0.5</v>
+      </c>
+      <c r="AU15">
+        <v>2.17</v>
+      </c>
+      <c r="AV15">
+        <v>1.04</v>
+      </c>
+      <c r="AW15">
+        <v>3.21</v>
+      </c>
+      <c r="AX15">
+        <v>1.34</v>
+      </c>
+      <c r="AY15">
         <v>9</v>
+      </c>
+      <c r="AZ15">
+        <v>4.09</v>
+      </c>
+      <c r="BA15">
+        <v>1.41</v>
+      </c>
+      <c r="BB15">
+        <v>1.85</v>
+      </c>
+      <c r="BC15">
+        <v>2.04</v>
+      </c>
+      <c r="BD15">
+        <v>2.98</v>
+      </c>
+      <c r="BE15">
+        <v>4.3</v>
+      </c>
+      <c r="BF15">
+        <v>11</v>
+      </c>
+      <c r="BG15">
+        <v>0</v>
+      </c>
+      <c r="BH15">
+        <v>12</v>
+      </c>
+      <c r="BI15">
+        <v>2</v>
+      </c>
+      <c r="BJ15">
+        <v>23</v>
+      </c>
+      <c r="BK15">
+        <v>2</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="147" uniqueCount="97">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="98">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -278,6 +278,9 @@
   </si>
   <si>
     <t>['34', '44', '45+1', '58', '61', '81']</t>
+  </si>
+  <si>
+    <t>['57', '77']</t>
   </si>
   <si>
     <t>['74', '90+3']</t>
@@ -666,7 +669,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK15"/>
+  <dimension ref="A1:BK16"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -910,7 +913,7 @@
         <v>75</v>
       </c>
       <c r="P2" t="s">
-        <v>88</v>
+        <v>89</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1292,7 +1295,7 @@
         <v>77</v>
       </c>
       <c r="P4" t="s">
-        <v>89</v>
+        <v>90</v>
       </c>
       <c r="Q4">
         <v>6</v>
@@ -1483,7 +1486,7 @@
         <v>78</v>
       </c>
       <c r="P5" t="s">
-        <v>90</v>
+        <v>91</v>
       </c>
       <c r="Q5">
         <v>5</v>
@@ -1674,7 +1677,7 @@
         <v>79</v>
       </c>
       <c r="P6" t="s">
-        <v>91</v>
+        <v>92</v>
       </c>
       <c r="Q6">
         <v>9</v>
@@ -1865,7 +1868,7 @@
         <v>80</v>
       </c>
       <c r="P7" t="s">
-        <v>92</v>
+        <v>93</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -1952,7 +1955,7 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AT7">
         <v>0.5</v>
@@ -2247,7 +2250,7 @@
         <v>82</v>
       </c>
       <c r="P9" t="s">
-        <v>93</v>
+        <v>94</v>
       </c>
       <c r="Q9">
         <v>2</v>
@@ -2438,7 +2441,7 @@
         <v>83</v>
       </c>
       <c r="P10" t="s">
-        <v>94</v>
+        <v>95</v>
       </c>
       <c r="Q10">
         <v>2</v>
@@ -2820,7 +2823,7 @@
         <v>85</v>
       </c>
       <c r="P12" t="s">
-        <v>95</v>
+        <v>96</v>
       </c>
       <c r="Q12">
         <v>7</v>
@@ -3011,7 +3014,7 @@
         <v>86</v>
       </c>
       <c r="P13" t="s">
-        <v>96</v>
+        <v>97</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3535,6 +3538,197 @@
       </c>
       <c r="BK15">
         <v>2</v>
+      </c>
+    </row>
+    <row r="16" spans="1:63">
+      <c r="A16" s="1">
+        <v>15</v>
+      </c>
+      <c r="B16">
+        <v>6441704</v>
+      </c>
+      <c r="C16" t="s">
+        <v>63</v>
+      </c>
+      <c r="D16" t="s">
+        <v>64</v>
+      </c>
+      <c r="E16" s="2">
+        <v>45150.625</v>
+      </c>
+      <c r="F16">
+        <v>4</v>
+      </c>
+      <c r="G16" t="s">
+        <v>70</v>
+      </c>
+      <c r="H16" t="s">
+        <v>72</v>
+      </c>
+      <c r="I16">
+        <v>0</v>
+      </c>
+      <c r="J16">
+        <v>0</v>
+      </c>
+      <c r="K16">
+        <v>0</v>
+      </c>
+      <c r="L16">
+        <v>2</v>
+      </c>
+      <c r="M16">
+        <v>0</v>
+      </c>
+      <c r="N16">
+        <v>2</v>
+      </c>
+      <c r="O16" t="s">
+        <v>88</v>
+      </c>
+      <c r="P16" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q16">
+        <v>2</v>
+      </c>
+      <c r="R16">
+        <v>4</v>
+      </c>
+      <c r="S16">
+        <v>6</v>
+      </c>
+      <c r="T16">
+        <v>2.35</v>
+      </c>
+      <c r="U16">
+        <v>2.15</v>
+      </c>
+      <c r="V16">
+        <v>4.5</v>
+      </c>
+      <c r="W16">
+        <v>1.37</v>
+      </c>
+      <c r="X16">
+        <v>2.85</v>
+      </c>
+      <c r="Y16">
+        <v>2.7</v>
+      </c>
+      <c r="Z16">
+        <v>1.41</v>
+      </c>
+      <c r="AA16">
+        <v>6.45</v>
+      </c>
+      <c r="AB16">
+        <v>1.09</v>
+      </c>
+      <c r="AC16">
+        <v>1.78</v>
+      </c>
+      <c r="AD16">
+        <v>3.6</v>
+      </c>
+      <c r="AE16">
+        <v>4.33</v>
+      </c>
+      <c r="AF16">
+        <v>1.04</v>
+      </c>
+      <c r="AG16">
+        <v>12.5</v>
+      </c>
+      <c r="AH16">
+        <v>1.25</v>
+      </c>
+      <c r="AI16">
+        <v>3.6</v>
+      </c>
+      <c r="AJ16">
+        <v>1.83</v>
+      </c>
+      <c r="AK16">
+        <v>1.9</v>
+      </c>
+      <c r="AL16">
+        <v>1.75</v>
+      </c>
+      <c r="AM16">
+        <v>2</v>
+      </c>
+      <c r="AN16">
+        <v>1.16</v>
+      </c>
+      <c r="AO16">
+        <v>1.22</v>
+      </c>
+      <c r="AP16">
+        <v>2</v>
+      </c>
+      <c r="AQ16">
+        <v>1</v>
+      </c>
+      <c r="AR16">
+        <v>0</v>
+      </c>
+      <c r="AS16">
+        <v>2</v>
+      </c>
+      <c r="AT16">
+        <v>0</v>
+      </c>
+      <c r="AU16">
+        <v>1.69</v>
+      </c>
+      <c r="AV16">
+        <v>1.15</v>
+      </c>
+      <c r="AW16">
+        <v>2.84</v>
+      </c>
+      <c r="AX16">
+        <v>1.63</v>
+      </c>
+      <c r="AY16">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AZ16">
+        <v>2.73</v>
+      </c>
+      <c r="BA16">
+        <v>1.39</v>
+      </c>
+      <c r="BB16">
+        <v>1.72</v>
+      </c>
+      <c r="BC16">
+        <v>2.19</v>
+      </c>
+      <c r="BD16">
+        <v>2.93</v>
+      </c>
+      <c r="BE16">
+        <v>4</v>
+      </c>
+      <c r="BF16">
+        <v>6</v>
+      </c>
+      <c r="BG16">
+        <v>2</v>
+      </c>
+      <c r="BH16">
+        <v>4</v>
+      </c>
+      <c r="BI16">
+        <v>4</v>
+      </c>
+      <c r="BJ16">
+        <v>10</v>
+      </c>
+      <c r="BK16">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="153" uniqueCount="98">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="101">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -283,6 +283,12 @@
     <t>['57', '77']</t>
   </si>
   <si>
+    <t>['28', '49', '84', '90+1']</t>
+  </si>
+  <si>
+    <t>['54', '63', '89']</t>
+  </si>
+  <si>
     <t>['74', '90+3']</t>
   </si>
   <si>
@@ -308,6 +314,9 @@
   </si>
   <si>
     <t>['45', '78']</t>
+  </si>
+  <si>
+    <t>['22', '48', '58', '60']</t>
   </si>
 </sst>
 </file>
@@ -669,7 +678,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK16"/>
+  <dimension ref="A1:BK18"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -913,7 +922,7 @@
         <v>75</v>
       </c>
       <c r="P2" t="s">
-        <v>89</v>
+        <v>91</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1295,7 +1304,7 @@
         <v>77</v>
       </c>
       <c r="P4" t="s">
-        <v>90</v>
+        <v>92</v>
       </c>
       <c r="Q4">
         <v>6</v>
@@ -1385,7 +1394,7 @@
         <v>3</v>
       </c>
       <c r="AT4">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1486,7 +1495,7 @@
         <v>78</v>
       </c>
       <c r="P5" t="s">
-        <v>91</v>
+        <v>93</v>
       </c>
       <c r="Q5">
         <v>5</v>
@@ -1677,7 +1686,7 @@
         <v>79</v>
       </c>
       <c r="P6" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
       <c r="Q6">
         <v>9</v>
@@ -1868,7 +1877,7 @@
         <v>80</v>
       </c>
       <c r="P7" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -1958,7 +1967,7 @@
         <v>2</v>
       </c>
       <c r="AT7">
-        <v>0.5</v>
+        <v>0.33</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2250,7 +2259,7 @@
         <v>82</v>
       </c>
       <c r="P9" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q9">
         <v>2</v>
@@ -2337,7 +2346,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>0</v>
+        <v>0.5</v>
       </c>
       <c r="AT9">
         <v>3</v>
@@ -2441,7 +2450,7 @@
         <v>83</v>
       </c>
       <c r="P10" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Q10">
         <v>2</v>
@@ -2531,7 +2540,7 @@
         <v>0</v>
       </c>
       <c r="AT10">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -2823,7 +2832,7 @@
         <v>85</v>
       </c>
       <c r="P12" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Q12">
         <v>7</v>
@@ -3014,7 +3023,7 @@
         <v>86</v>
       </c>
       <c r="P13" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3729,6 +3738,388 @@
       </c>
       <c r="BK16">
         <v>6</v>
+      </c>
+    </row>
+    <row r="17" spans="1:63">
+      <c r="A17" s="1">
+        <v>16</v>
+      </c>
+      <c r="B17">
+        <v>6441706</v>
+      </c>
+      <c r="C17" t="s">
+        <v>63</v>
+      </c>
+      <c r="D17" t="s">
+        <v>64</v>
+      </c>
+      <c r="E17" s="2">
+        <v>45151.57986111111</v>
+      </c>
+      <c r="F17">
+        <v>4</v>
+      </c>
+      <c r="G17" t="s">
+        <v>71</v>
+      </c>
+      <c r="H17" t="s">
+        <v>67</v>
+      </c>
+      <c r="I17">
+        <v>1</v>
+      </c>
+      <c r="J17">
+        <v>1</v>
+      </c>
+      <c r="K17">
+        <v>2</v>
+      </c>
+      <c r="L17">
+        <v>4</v>
+      </c>
+      <c r="M17">
+        <v>4</v>
+      </c>
+      <c r="N17">
+        <v>8</v>
+      </c>
+      <c r="O17" t="s">
+        <v>89</v>
+      </c>
+      <c r="P17" t="s">
+        <v>100</v>
+      </c>
+      <c r="Q17">
+        <v>7</v>
+      </c>
+      <c r="R17">
+        <v>2</v>
+      </c>
+      <c r="S17">
+        <v>9</v>
+      </c>
+      <c r="T17">
+        <v>3.5</v>
+      </c>
+      <c r="U17">
+        <v>2.2</v>
+      </c>
+      <c r="V17">
+        <v>3</v>
+      </c>
+      <c r="W17">
+        <v>1.4</v>
+      </c>
+      <c r="X17">
+        <v>2.75</v>
+      </c>
+      <c r="Y17">
+        <v>2.75</v>
+      </c>
+      <c r="Z17">
+        <v>1.4</v>
+      </c>
+      <c r="AA17">
+        <v>7</v>
+      </c>
+      <c r="AB17">
+        <v>1.08</v>
+      </c>
+      <c r="AC17">
+        <v>2.75</v>
+      </c>
+      <c r="AD17">
+        <v>3.25</v>
+      </c>
+      <c r="AE17">
+        <v>2.25</v>
+      </c>
+      <c r="AF17">
+        <v>1.07</v>
+      </c>
+      <c r="AG17">
+        <v>7.5</v>
+      </c>
+      <c r="AH17">
+        <v>1.33</v>
+      </c>
+      <c r="AI17">
+        <v>3</v>
+      </c>
+      <c r="AJ17">
+        <v>1.9</v>
+      </c>
+      <c r="AK17">
+        <v>1.9</v>
+      </c>
+      <c r="AL17">
+        <v>1.8</v>
+      </c>
+      <c r="AM17">
+        <v>1.91</v>
+      </c>
+      <c r="AN17">
+        <v>1.65</v>
+      </c>
+      <c r="AO17">
+        <v>1.35</v>
+      </c>
+      <c r="AP17">
+        <v>1.22</v>
+      </c>
+      <c r="AQ17">
+        <v>0</v>
+      </c>
+      <c r="AR17">
+        <v>3</v>
+      </c>
+      <c r="AS17">
+        <v>0.5</v>
+      </c>
+      <c r="AT17">
+        <v>2</v>
+      </c>
+      <c r="AU17">
+        <v>0.82</v>
+      </c>
+      <c r="AV17">
+        <v>1.76</v>
+      </c>
+      <c r="AW17">
+        <v>2.58</v>
+      </c>
+      <c r="AX17">
+        <v>2.55</v>
+      </c>
+      <c r="AY17">
+        <v>5.5</v>
+      </c>
+      <c r="AZ17">
+        <v>1.64</v>
+      </c>
+      <c r="BA17">
+        <v>1.48</v>
+      </c>
+      <c r="BB17">
+        <v>2</v>
+      </c>
+      <c r="BC17">
+        <v>2.28</v>
+      </c>
+      <c r="BD17">
+        <v>3.08</v>
+      </c>
+      <c r="BE17">
+        <v>0</v>
+      </c>
+      <c r="BF17">
+        <v>6</v>
+      </c>
+      <c r="BG17">
+        <v>7</v>
+      </c>
+      <c r="BH17">
+        <v>6</v>
+      </c>
+      <c r="BI17">
+        <v>2</v>
+      </c>
+      <c r="BJ17">
+        <v>12</v>
+      </c>
+      <c r="BK17">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="18" spans="1:63">
+      <c r="A18" s="1">
+        <v>17</v>
+      </c>
+      <c r="B18">
+        <v>6441705</v>
+      </c>
+      <c r="C18" t="s">
+        <v>63</v>
+      </c>
+      <c r="D18" t="s">
+        <v>64</v>
+      </c>
+      <c r="E18" s="2">
+        <v>45151.67013888889</v>
+      </c>
+      <c r="F18">
+        <v>4</v>
+      </c>
+      <c r="G18" t="s">
+        <v>73</v>
+      </c>
+      <c r="H18" t="s">
+        <v>74</v>
+      </c>
+      <c r="I18">
+        <v>0</v>
+      </c>
+      <c r="J18">
+        <v>0</v>
+      </c>
+      <c r="K18">
+        <v>0</v>
+      </c>
+      <c r="L18">
+        <v>3</v>
+      </c>
+      <c r="M18">
+        <v>0</v>
+      </c>
+      <c r="N18">
+        <v>3</v>
+      </c>
+      <c r="O18" t="s">
+        <v>90</v>
+      </c>
+      <c r="P18" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q18">
+        <v>4</v>
+      </c>
+      <c r="R18">
+        <v>2</v>
+      </c>
+      <c r="S18">
+        <v>6</v>
+      </c>
+      <c r="T18">
+        <v>1.7</v>
+      </c>
+      <c r="U18">
+        <v>2.5</v>
+      </c>
+      <c r="V18">
+        <v>8</v>
+      </c>
+      <c r="W18">
+        <v>1.33</v>
+      </c>
+      <c r="X18">
+        <v>3.05</v>
+      </c>
+      <c r="Y18">
+        <v>2.5</v>
+      </c>
+      <c r="Z18">
+        <v>1.47</v>
+      </c>
+      <c r="AA18">
+        <v>5.95</v>
+      </c>
+      <c r="AB18">
+        <v>1.1</v>
+      </c>
+      <c r="AC18">
+        <v>1.25</v>
+      </c>
+      <c r="AD18">
+        <v>5.5</v>
+      </c>
+      <c r="AE18">
+        <v>11</v>
+      </c>
+      <c r="AF18">
+        <v>1.04</v>
+      </c>
+      <c r="AG18">
+        <v>10</v>
+      </c>
+      <c r="AH18">
+        <v>1.22</v>
+      </c>
+      <c r="AI18">
+        <v>4</v>
+      </c>
+      <c r="AJ18">
+        <v>1.72</v>
+      </c>
+      <c r="AK18">
+        <v>2.05</v>
+      </c>
+      <c r="AL18">
+        <v>2.09</v>
+      </c>
+      <c r="AM18">
+        <v>1.71</v>
+      </c>
+      <c r="AN18">
+        <v>1.04</v>
+      </c>
+      <c r="AO18">
+        <v>1.13</v>
+      </c>
+      <c r="AP18">
+        <v>3.8</v>
+      </c>
+      <c r="AQ18">
+        <v>3</v>
+      </c>
+      <c r="AR18">
+        <v>0.5</v>
+      </c>
+      <c r="AS18">
+        <v>3</v>
+      </c>
+      <c r="AT18">
+        <v>0.33</v>
+      </c>
+      <c r="AU18">
+        <v>1.98</v>
+      </c>
+      <c r="AV18">
+        <v>1.34</v>
+      </c>
+      <c r="AW18">
+        <v>3.32</v>
+      </c>
+      <c r="AX18">
+        <v>1.15</v>
+      </c>
+      <c r="AY18">
+        <v>7</v>
+      </c>
+      <c r="AZ18">
+        <v>5.75</v>
+      </c>
+      <c r="BA18">
+        <v>1.43</v>
+      </c>
+      <c r="BB18">
+        <v>1.93</v>
+      </c>
+      <c r="BC18">
+        <v>2.23</v>
+      </c>
+      <c r="BD18">
+        <v>3.04</v>
+      </c>
+      <c r="BE18">
+        <v>4.8</v>
+      </c>
+      <c r="BF18">
+        <v>9</v>
+      </c>
+      <c r="BG18">
+        <v>6</v>
+      </c>
+      <c r="BH18">
+        <v>6</v>
+      </c>
+      <c r="BI18">
+        <v>4</v>
+      </c>
+      <c r="BJ18">
+        <v>15</v>
+      </c>
+      <c r="BK18">
+        <v>10</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="165" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="106">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -289,12 +289,18 @@
     <t>['54', '63', '89']</t>
   </si>
   <si>
+    <t>['12', '23']</t>
+  </si>
+  <si>
+    <t>['29']</t>
+  </si>
+  <si>
+    <t>['38', '78']</t>
+  </si>
+  <si>
     <t>['74', '90+3']</t>
   </si>
   <si>
-    <t>['29']</t>
-  </si>
-  <si>
     <t>['80']</t>
   </si>
   <si>
@@ -317,6 +323,15 @@
   </si>
   <si>
     <t>['22', '48', '58', '60']</t>
+  </si>
+  <si>
+    <t>['38', '84']</t>
+  </si>
+  <si>
+    <t>['4', '15']</t>
+  </si>
+  <si>
+    <t>['6']</t>
   </si>
 </sst>
 </file>
@@ -678,7 +693,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK18"/>
+  <dimension ref="A1:BK22"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -922,7 +937,7 @@
         <v>75</v>
       </c>
       <c r="P2" t="s">
-        <v>91</v>
+        <v>94</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1495,7 +1510,7 @@
         <v>78</v>
       </c>
       <c r="P5" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="Q5">
         <v>5</v>
@@ -1686,7 +1701,7 @@
         <v>79</v>
       </c>
       <c r="P6" t="s">
-        <v>94</v>
+        <v>96</v>
       </c>
       <c r="Q6">
         <v>9</v>
@@ -1776,7 +1791,7 @@
         <v>1</v>
       </c>
       <c r="AT6">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -1877,7 +1892,7 @@
         <v>80</v>
       </c>
       <c r="P7" t="s">
-        <v>95</v>
+        <v>97</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -2259,7 +2274,7 @@
         <v>82</v>
       </c>
       <c r="P9" t="s">
-        <v>96</v>
+        <v>98</v>
       </c>
       <c r="Q9">
         <v>2</v>
@@ -2450,7 +2465,7 @@
         <v>83</v>
       </c>
       <c r="P10" t="s">
-        <v>97</v>
+        <v>99</v>
       </c>
       <c r="Q10">
         <v>2</v>
@@ -2832,7 +2847,7 @@
         <v>85</v>
       </c>
       <c r="P12" t="s">
-        <v>98</v>
+        <v>100</v>
       </c>
       <c r="Q12">
         <v>7</v>
@@ -3023,7 +3038,7 @@
         <v>86</v>
       </c>
       <c r="P13" t="s">
-        <v>99</v>
+        <v>101</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3110,7 +3125,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT13">
         <v>0</v>
@@ -3304,7 +3319,7 @@
         <v>0.5</v>
       </c>
       <c r="AT14">
-        <v>1</v>
+        <v>0.5</v>
       </c>
       <c r="AU14">
         <v>1.29</v>
@@ -3495,7 +3510,7 @@
         <v>3</v>
       </c>
       <c r="AT15">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AU15">
         <v>2.17</v>
@@ -3787,7 +3802,7 @@
         <v>89</v>
       </c>
       <c r="P17" t="s">
-        <v>100</v>
+        <v>102</v>
       </c>
       <c r="Q17">
         <v>7</v>
@@ -4119,6 +4134,770 @@
         <v>15</v>
       </c>
       <c r="BK18">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="19" spans="1:63">
+      <c r="A19" s="1">
+        <v>18</v>
+      </c>
+      <c r="B19">
+        <v>6441712</v>
+      </c>
+      <c r="C19" t="s">
+        <v>63</v>
+      </c>
+      <c r="D19" t="s">
+        <v>64</v>
+      </c>
+      <c r="E19" s="2">
+        <v>45157.5625</v>
+      </c>
+      <c r="F19">
+        <v>5</v>
+      </c>
+      <c r="G19" t="s">
+        <v>74</v>
+      </c>
+      <c r="H19" t="s">
+        <v>71</v>
+      </c>
+      <c r="I19">
+        <v>2</v>
+      </c>
+      <c r="J19">
+        <v>1</v>
+      </c>
+      <c r="K19">
+        <v>3</v>
+      </c>
+      <c r="L19">
+        <v>2</v>
+      </c>
+      <c r="M19">
+        <v>2</v>
+      </c>
+      <c r="N19">
+        <v>4</v>
+      </c>
+      <c r="O19" t="s">
+        <v>91</v>
+      </c>
+      <c r="P19" t="s">
+        <v>103</v>
+      </c>
+      <c r="Q19">
+        <v>2</v>
+      </c>
+      <c r="R19">
+        <v>3</v>
+      </c>
+      <c r="S19">
+        <v>5</v>
+      </c>
+      <c r="T19">
+        <v>3.1</v>
+      </c>
+      <c r="U19">
+        <v>2</v>
+      </c>
+      <c r="V19">
+        <v>3.5</v>
+      </c>
+      <c r="W19">
+        <v>1.47</v>
+      </c>
+      <c r="X19">
+        <v>2.5</v>
+      </c>
+      <c r="Y19">
+        <v>3.05</v>
+      </c>
+      <c r="Z19">
+        <v>1.33</v>
+      </c>
+      <c r="AA19">
+        <v>7.9</v>
+      </c>
+      <c r="AB19">
+        <v>1.05</v>
+      </c>
+      <c r="AC19">
+        <v>2.5</v>
+      </c>
+      <c r="AD19">
+        <v>3.1</v>
+      </c>
+      <c r="AE19">
+        <v>2.85</v>
+      </c>
+      <c r="AF19">
+        <v>1.08</v>
+      </c>
+      <c r="AG19">
+        <v>7</v>
+      </c>
+      <c r="AH19">
+        <v>1.36</v>
+      </c>
+      <c r="AI19">
+        <v>3</v>
+      </c>
+      <c r="AJ19">
+        <v>2.1</v>
+      </c>
+      <c r="AK19">
+        <v>1.7</v>
+      </c>
+      <c r="AL19">
+        <v>1.83</v>
+      </c>
+      <c r="AM19">
+        <v>1.95</v>
+      </c>
+      <c r="AN19">
+        <v>1.4</v>
+      </c>
+      <c r="AO19">
+        <v>1.28</v>
+      </c>
+      <c r="AP19">
+        <v>1.5</v>
+      </c>
+      <c r="AQ19">
+        <v>3</v>
+      </c>
+      <c r="AR19">
+        <v>0.5</v>
+      </c>
+      <c r="AS19">
+        <v>2</v>
+      </c>
+      <c r="AT19">
+        <v>0.67</v>
+      </c>
+      <c r="AU19">
+        <v>1.39</v>
+      </c>
+      <c r="AV19">
+        <v>0.67</v>
+      </c>
+      <c r="AW19">
+        <v>2.06</v>
+      </c>
+      <c r="AX19">
+        <v>1.75</v>
+      </c>
+      <c r="AY19">
+        <v>7.5</v>
+      </c>
+      <c r="AZ19">
+        <v>2.53</v>
+      </c>
+      <c r="BA19">
+        <v>1.51</v>
+      </c>
+      <c r="BB19">
+        <v>1.95</v>
+      </c>
+      <c r="BC19">
+        <v>2.35</v>
+      </c>
+      <c r="BD19">
+        <v>3.28</v>
+      </c>
+      <c r="BE19">
+        <v>4.7</v>
+      </c>
+      <c r="BF19">
+        <v>3</v>
+      </c>
+      <c r="BG19">
+        <v>8</v>
+      </c>
+      <c r="BH19">
+        <v>1</v>
+      </c>
+      <c r="BI19">
+        <v>6</v>
+      </c>
+      <c r="BJ19">
+        <v>4</v>
+      </c>
+      <c r="BK19">
+        <v>14</v>
+      </c>
+    </row>
+    <row r="20" spans="1:63">
+      <c r="A20" s="1">
+        <v>19</v>
+      </c>
+      <c r="B20">
+        <v>6441713</v>
+      </c>
+      <c r="C20" t="s">
+        <v>63</v>
+      </c>
+      <c r="D20" t="s">
+        <v>64</v>
+      </c>
+      <c r="E20" s="2">
+        <v>45158.57638888889</v>
+      </c>
+      <c r="F20">
+        <v>5</v>
+      </c>
+      <c r="G20" t="s">
+        <v>72</v>
+      </c>
+      <c r="H20" t="s">
+        <v>73</v>
+      </c>
+      <c r="I20">
+        <v>0</v>
+      </c>
+      <c r="J20">
+        <v>2</v>
+      </c>
+      <c r="K20">
+        <v>2</v>
+      </c>
+      <c r="L20">
+        <v>0</v>
+      </c>
+      <c r="M20">
+        <v>2</v>
+      </c>
+      <c r="N20">
+        <v>2</v>
+      </c>
+      <c r="O20" t="s">
+        <v>82</v>
+      </c>
+      <c r="P20" t="s">
+        <v>104</v>
+      </c>
+      <c r="Q20">
+        <v>11</v>
+      </c>
+      <c r="R20">
+        <v>2</v>
+      </c>
+      <c r="S20">
+        <v>13</v>
+      </c>
+      <c r="T20">
+        <v>7</v>
+      </c>
+      <c r="U20">
+        <v>2.45</v>
+      </c>
+      <c r="V20">
+        <v>1.78</v>
+      </c>
+      <c r="W20">
+        <v>1.33</v>
+      </c>
+      <c r="X20">
+        <v>3.05</v>
+      </c>
+      <c r="Y20">
+        <v>2.5</v>
+      </c>
+      <c r="Z20">
+        <v>1.47</v>
+      </c>
+      <c r="AA20">
+        <v>5.95</v>
+      </c>
+      <c r="AB20">
+        <v>1.1</v>
+      </c>
+      <c r="AC20">
+        <v>8.5</v>
+      </c>
+      <c r="AD20">
+        <v>4.5</v>
+      </c>
+      <c r="AE20">
+        <v>1.38</v>
+      </c>
+      <c r="AF20">
+        <v>1.04</v>
+      </c>
+      <c r="AG20">
+        <v>10</v>
+      </c>
+      <c r="AH20">
+        <v>1.22</v>
+      </c>
+      <c r="AI20">
+        <v>4</v>
+      </c>
+      <c r="AJ20">
+        <v>1.75</v>
+      </c>
+      <c r="AK20">
+        <v>2</v>
+      </c>
+      <c r="AL20">
+        <v>2.1</v>
+      </c>
+      <c r="AM20">
+        <v>1.7</v>
+      </c>
+      <c r="AN20">
+        <v>3.2</v>
+      </c>
+      <c r="AO20">
+        <v>1.12</v>
+      </c>
+      <c r="AP20">
+        <v>1.03</v>
+      </c>
+      <c r="AQ20">
+        <v>0</v>
+      </c>
+      <c r="AR20">
+        <v>3</v>
+      </c>
+      <c r="AS20">
+        <v>0</v>
+      </c>
+      <c r="AT20">
+        <v>3</v>
+      </c>
+      <c r="AU20">
+        <v>1.48</v>
+      </c>
+      <c r="AV20">
+        <v>1.36</v>
+      </c>
+      <c r="AW20">
+        <v>2.84</v>
+      </c>
+      <c r="AX20">
+        <v>5.15</v>
+      </c>
+      <c r="AY20">
+        <v>10</v>
+      </c>
+      <c r="AZ20">
+        <v>1.23</v>
+      </c>
+      <c r="BA20">
+        <v>1.43</v>
+      </c>
+      <c r="BB20">
+        <v>1.73</v>
+      </c>
+      <c r="BC20">
+        <v>2.2</v>
+      </c>
+      <c r="BD20">
+        <v>2.9</v>
+      </c>
+      <c r="BE20">
+        <v>4.1</v>
+      </c>
+      <c r="BF20">
+        <v>6</v>
+      </c>
+      <c r="BG20">
+        <v>6</v>
+      </c>
+      <c r="BH20">
+        <v>5</v>
+      </c>
+      <c r="BI20">
+        <v>4</v>
+      </c>
+      <c r="BJ20">
+        <v>11</v>
+      </c>
+      <c r="BK20">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="21" spans="1:63">
+      <c r="A21" s="1">
+        <v>20</v>
+      </c>
+      <c r="B21">
+        <v>6441711</v>
+      </c>
+      <c r="C21" t="s">
+        <v>63</v>
+      </c>
+      <c r="D21" t="s">
+        <v>64</v>
+      </c>
+      <c r="E21" s="2">
+        <v>45158.66666666666</v>
+      </c>
+      <c r="F21">
+        <v>5</v>
+      </c>
+      <c r="G21" t="s">
+        <v>67</v>
+      </c>
+      <c r="H21" t="s">
+        <v>68</v>
+      </c>
+      <c r="I21">
+        <v>1</v>
+      </c>
+      <c r="J21">
+        <v>0</v>
+      </c>
+      <c r="K21">
+        <v>1</v>
+      </c>
+      <c r="L21">
+        <v>1</v>
+      </c>
+      <c r="M21">
+        <v>0</v>
+      </c>
+      <c r="N21">
+        <v>1</v>
+      </c>
+      <c r="O21" t="s">
+        <v>92</v>
+      </c>
+      <c r="P21" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q21">
+        <v>2</v>
+      </c>
+      <c r="R21">
+        <v>1</v>
+      </c>
+      <c r="S21">
+        <v>3</v>
+      </c>
+      <c r="T21">
+        <v>2.38</v>
+      </c>
+      <c r="U21">
+        <v>2.1</v>
+      </c>
+      <c r="V21">
+        <v>4.33</v>
+      </c>
+      <c r="W21">
+        <v>1.37</v>
+      </c>
+      <c r="X21">
+        <v>2.85</v>
+      </c>
+      <c r="Y21">
+        <v>2.7</v>
+      </c>
+      <c r="Z21">
+        <v>1.41</v>
+      </c>
+      <c r="AA21">
+        <v>6.45</v>
+      </c>
+      <c r="AB21">
+        <v>1.09</v>
+      </c>
+      <c r="AC21">
+        <v>1.73</v>
+      </c>
+      <c r="AD21">
+        <v>3.6</v>
+      </c>
+      <c r="AE21">
+        <v>4.2</v>
+      </c>
+      <c r="AF21">
+        <v>1.06</v>
+      </c>
+      <c r="AG21">
+        <v>8</v>
+      </c>
+      <c r="AH21">
+        <v>1.25</v>
+      </c>
+      <c r="AI21">
+        <v>3.6</v>
+      </c>
+      <c r="AJ21">
+        <v>1.8</v>
+      </c>
+      <c r="AK21">
+        <v>1.91</v>
+      </c>
+      <c r="AL21">
+        <v>1.8</v>
+      </c>
+      <c r="AM21">
+        <v>1.95</v>
+      </c>
+      <c r="AN21">
+        <v>1.18</v>
+      </c>
+      <c r="AO21">
+        <v>1.25</v>
+      </c>
+      <c r="AP21">
+        <v>2.05</v>
+      </c>
+      <c r="AQ21">
+        <v>3</v>
+      </c>
+      <c r="AR21">
+        <v>1</v>
+      </c>
+      <c r="AS21">
+        <v>3</v>
+      </c>
+      <c r="AT21">
+        <v>0.5</v>
+      </c>
+      <c r="AU21">
+        <v>2.38</v>
+      </c>
+      <c r="AV21">
+        <v>1.01</v>
+      </c>
+      <c r="AW21">
+        <v>3.39</v>
+      </c>
+      <c r="AX21">
+        <v>1.59</v>
+      </c>
+      <c r="AY21">
+        <v>8</v>
+      </c>
+      <c r="AZ21">
+        <v>2.9</v>
+      </c>
+      <c r="BA21">
+        <v>1.39</v>
+      </c>
+      <c r="BB21">
+        <v>1.93</v>
+      </c>
+      <c r="BC21">
+        <v>2.16</v>
+      </c>
+      <c r="BD21">
+        <v>2.91</v>
+      </c>
+      <c r="BE21">
+        <v>4.1</v>
+      </c>
+      <c r="BF21">
+        <v>5</v>
+      </c>
+      <c r="BG21">
+        <v>4</v>
+      </c>
+      <c r="BH21">
+        <v>9</v>
+      </c>
+      <c r="BI21">
+        <v>8</v>
+      </c>
+      <c r="BJ21">
+        <v>14</v>
+      </c>
+      <c r="BK21">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="22" spans="1:63">
+      <c r="A22" s="1">
+        <v>21</v>
+      </c>
+      <c r="B22">
+        <v>6441710</v>
+      </c>
+      <c r="C22" t="s">
+        <v>63</v>
+      </c>
+      <c r="D22" t="s">
+        <v>64</v>
+      </c>
+      <c r="E22" s="2">
+        <v>45158.67013888889</v>
+      </c>
+      <c r="F22">
+        <v>5</v>
+      </c>
+      <c r="G22" t="s">
+        <v>66</v>
+      </c>
+      <c r="H22" t="s">
+        <v>69</v>
+      </c>
+      <c r="I22">
+        <v>1</v>
+      </c>
+      <c r="J22">
+        <v>1</v>
+      </c>
+      <c r="K22">
+        <v>2</v>
+      </c>
+      <c r="L22">
+        <v>2</v>
+      </c>
+      <c r="M22">
+        <v>1</v>
+      </c>
+      <c r="N22">
+        <v>3</v>
+      </c>
+      <c r="O22" t="s">
+        <v>93</v>
+      </c>
+      <c r="P22" t="s">
+        <v>105</v>
+      </c>
+      <c r="Q22">
+        <v>8</v>
+      </c>
+      <c r="R22">
+        <v>5</v>
+      </c>
+      <c r="S22">
+        <v>13</v>
+      </c>
+      <c r="T22">
+        <v>2.15</v>
+      </c>
+      <c r="U22">
+        <v>2.3</v>
+      </c>
+      <c r="V22">
+        <v>4.75</v>
+      </c>
+      <c r="W22">
+        <v>1.33</v>
+      </c>
+      <c r="X22">
+        <v>3.05</v>
+      </c>
+      <c r="Y22">
+        <v>2.55</v>
+      </c>
+      <c r="Z22">
+        <v>1.45</v>
+      </c>
+      <c r="AA22">
+        <v>6</v>
+      </c>
+      <c r="AB22">
+        <v>1.1</v>
+      </c>
+      <c r="AC22">
+        <v>1.65</v>
+      </c>
+      <c r="AD22">
+        <v>4.1</v>
+      </c>
+      <c r="AE22">
+        <v>4.89</v>
+      </c>
+      <c r="AF22">
+        <v>1.03</v>
+      </c>
+      <c r="AG22">
+        <v>13.75</v>
+      </c>
+      <c r="AH22">
+        <v>1.25</v>
+      </c>
+      <c r="AI22">
+        <v>3.6</v>
+      </c>
+      <c r="AJ22">
+        <v>1.73</v>
+      </c>
+      <c r="AK22">
+        <v>2</v>
+      </c>
+      <c r="AL22">
+        <v>1.75</v>
+      </c>
+      <c r="AM22">
+        <v>1.95</v>
+      </c>
+      <c r="AN22">
+        <v>1.12</v>
+      </c>
+      <c r="AO22">
+        <v>1.18</v>
+      </c>
+      <c r="AP22">
+        <v>2.25</v>
+      </c>
+      <c r="AQ22">
+        <v>3</v>
+      </c>
+      <c r="AR22">
+        <v>0</v>
+      </c>
+      <c r="AS22">
+        <v>3</v>
+      </c>
+      <c r="AT22">
+        <v>0</v>
+      </c>
+      <c r="AU22">
+        <v>2.49</v>
+      </c>
+      <c r="AV22">
+        <v>1.12</v>
+      </c>
+      <c r="AW22">
+        <v>3.61</v>
+      </c>
+      <c r="AX22">
+        <v>1.37</v>
+      </c>
+      <c r="AY22">
+        <v>9</v>
+      </c>
+      <c r="AZ22">
+        <v>3.83</v>
+      </c>
+      <c r="BA22">
+        <v>1.32</v>
+      </c>
+      <c r="BB22">
+        <v>1.64</v>
+      </c>
+      <c r="BC22">
+        <v>2.07</v>
+      </c>
+      <c r="BD22">
+        <v>2.34</v>
+      </c>
+      <c r="BE22">
+        <v>3.65</v>
+      </c>
+      <c r="BF22">
+        <v>12</v>
+      </c>
+      <c r="BG22">
+        <v>4</v>
+      </c>
+      <c r="BH22">
+        <v>11</v>
+      </c>
+      <c r="BI22">
+        <v>6</v>
+      </c>
+      <c r="BJ22">
+        <v>23</v>
+      </c>
+      <c r="BK22">
         <v>10</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="189" uniqueCount="106">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="112">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -298,6 +298,15 @@
     <t>['38', '78']</t>
   </si>
   <si>
+    <t>['45+4', '51']</t>
+  </si>
+  <si>
+    <t>['36']</t>
+  </si>
+  <si>
+    <t>['62', '90+6']</t>
+  </si>
+  <si>
     <t>['74', '90+3']</t>
   </si>
   <si>
@@ -332,6 +341,15 @@
   </si>
   <si>
     <t>['6']</t>
+  </si>
+  <si>
+    <t>['50', '54']</t>
+  </si>
+  <si>
+    <t>['29', '86']</t>
+  </si>
+  <si>
+    <t>['31', '90+3']</t>
   </si>
 </sst>
 </file>
@@ -693,7 +711,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK22"/>
+  <dimension ref="A1:BK26"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -937,7 +955,7 @@
         <v>75</v>
       </c>
       <c r="P2" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1218,7 +1236,7 @@
         <v>3</v>
       </c>
       <c r="AT3">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AU3">
         <v>0</v>
@@ -1409,7 +1427,7 @@
         <v>3</v>
       </c>
       <c r="AT4">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AU4">
         <v>0</v>
@@ -1510,7 +1528,7 @@
         <v>78</v>
       </c>
       <c r="P5" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="Q5">
         <v>5</v>
@@ -1597,7 +1615,7 @@
         <v>0</v>
       </c>
       <c r="AS5">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT5">
         <v>1</v>
@@ -1701,7 +1719,7 @@
         <v>79</v>
       </c>
       <c r="P6" t="s">
-        <v>96</v>
+        <v>99</v>
       </c>
       <c r="Q6">
         <v>9</v>
@@ -1892,7 +1910,7 @@
         <v>80</v>
       </c>
       <c r="P7" t="s">
-        <v>97</v>
+        <v>100</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -1979,10 +1997,10 @@
         <v>0</v>
       </c>
       <c r="AS7">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AT7">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AU7">
         <v>0</v>
@@ -2170,7 +2188,7 @@
         <v>0</v>
       </c>
       <c r="AS8">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AT8">
         <v>0</v>
@@ -2274,7 +2292,7 @@
         <v>82</v>
       </c>
       <c r="P9" t="s">
-        <v>98</v>
+        <v>101</v>
       </c>
       <c r="Q9">
         <v>2</v>
@@ -2361,7 +2379,7 @@
         <v>0</v>
       </c>
       <c r="AS9">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AT9">
         <v>3</v>
@@ -2465,7 +2483,7 @@
         <v>83</v>
       </c>
       <c r="P10" t="s">
-        <v>99</v>
+        <v>102</v>
       </c>
       <c r="Q10">
         <v>2</v>
@@ -2555,7 +2573,7 @@
         <v>0</v>
       </c>
       <c r="AT10">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU10">
         <v>0</v>
@@ -2847,7 +2865,7 @@
         <v>85</v>
       </c>
       <c r="P12" t="s">
-        <v>100</v>
+        <v>103</v>
       </c>
       <c r="Q12">
         <v>7</v>
@@ -3038,7 +3056,7 @@
         <v>86</v>
       </c>
       <c r="P13" t="s">
-        <v>101</v>
+        <v>104</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3128,7 +3146,7 @@
         <v>2</v>
       </c>
       <c r="AT13">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AU13">
         <v>0</v>
@@ -3698,10 +3716,10 @@
         <v>0</v>
       </c>
       <c r="AS16">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AT16">
-        <v>0</v>
+        <v>0.25</v>
       </c>
       <c r="AU16">
         <v>1.69</v>
@@ -3802,7 +3820,7 @@
         <v>89</v>
       </c>
       <c r="P17" t="s">
-        <v>102</v>
+        <v>105</v>
       </c>
       <c r="Q17">
         <v>7</v>
@@ -3889,10 +3907,10 @@
         <v>3</v>
       </c>
       <c r="AS17">
-        <v>0.5</v>
+        <v>0.67</v>
       </c>
       <c r="AT17">
-        <v>2</v>
+        <v>1.67</v>
       </c>
       <c r="AU17">
         <v>0.82</v>
@@ -4083,7 +4101,7 @@
         <v>3</v>
       </c>
       <c r="AT18">
-        <v>0.33</v>
+        <v>0.5</v>
       </c>
       <c r="AU18">
         <v>1.98</v>
@@ -4184,7 +4202,7 @@
         <v>91</v>
       </c>
       <c r="P19" t="s">
-        <v>103</v>
+        <v>106</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -4375,7 +4393,7 @@
         <v>82</v>
       </c>
       <c r="P20" t="s">
-        <v>104</v>
+        <v>107</v>
       </c>
       <c r="Q20">
         <v>11</v>
@@ -4757,7 +4775,7 @@
         <v>93</v>
       </c>
       <c r="P22" t="s">
-        <v>105</v>
+        <v>108</v>
       </c>
       <c r="Q22">
         <v>8</v>
@@ -4899,6 +4917,770 @@
       </c>
       <c r="BK22">
         <v>10</v>
+      </c>
+    </row>
+    <row r="23" spans="1:63">
+      <c r="A23" s="1">
+        <v>22</v>
+      </c>
+      <c r="B23">
+        <v>6441716</v>
+      </c>
+      <c r="C23" t="s">
+        <v>63</v>
+      </c>
+      <c r="D23" t="s">
+        <v>64</v>
+      </c>
+      <c r="E23" s="2">
+        <v>45163.625</v>
+      </c>
+      <c r="F23">
+        <v>6</v>
+      </c>
+      <c r="G23" t="s">
+        <v>68</v>
+      </c>
+      <c r="H23" t="s">
+        <v>74</v>
+      </c>
+      <c r="I23">
+        <v>1</v>
+      </c>
+      <c r="J23">
+        <v>0</v>
+      </c>
+      <c r="K23">
+        <v>1</v>
+      </c>
+      <c r="L23">
+        <v>2</v>
+      </c>
+      <c r="M23">
+        <v>2</v>
+      </c>
+      <c r="N23">
+        <v>4</v>
+      </c>
+      <c r="O23" t="s">
+        <v>94</v>
+      </c>
+      <c r="P23" t="s">
+        <v>109</v>
+      </c>
+      <c r="Q23">
+        <v>1</v>
+      </c>
+      <c r="R23">
+        <v>4</v>
+      </c>
+      <c r="S23">
+        <v>5</v>
+      </c>
+      <c r="T23">
+        <v>2.29</v>
+      </c>
+      <c r="U23">
+        <v>2.17</v>
+      </c>
+      <c r="V23">
+        <v>5.35</v>
+      </c>
+      <c r="W23">
+        <v>1.41</v>
+      </c>
+      <c r="X23">
+        <v>2.79</v>
+      </c>
+      <c r="Y23">
+        <v>2.91</v>
+      </c>
+      <c r="Z23">
+        <v>1.38</v>
+      </c>
+      <c r="AA23">
+        <v>7.4</v>
+      </c>
+      <c r="AB23">
+        <v>1.07</v>
+      </c>
+      <c r="AC23">
+        <v>1.64</v>
+      </c>
+      <c r="AD23">
+        <v>3.75</v>
+      </c>
+      <c r="AE23">
+        <v>4.85</v>
+      </c>
+      <c r="AF23">
+        <v>1.02</v>
+      </c>
+      <c r="AG23">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="AH23">
+        <v>1.33</v>
+      </c>
+      <c r="AI23">
+        <v>3.2</v>
+      </c>
+      <c r="AJ23">
+        <v>1.92</v>
+      </c>
+      <c r="AK23">
+        <v>1.81</v>
+      </c>
+      <c r="AL23">
+        <v>1.9</v>
+      </c>
+      <c r="AM23">
+        <v>1.86</v>
+      </c>
+      <c r="AN23">
+        <v>1.18</v>
+      </c>
+      <c r="AO23">
+        <v>1.27</v>
+      </c>
+      <c r="AP23">
+        <v>2.12</v>
+      </c>
+      <c r="AQ23">
+        <v>2</v>
+      </c>
+      <c r="AR23">
+        <v>0.33</v>
+      </c>
+      <c r="AS23">
+        <v>1.67</v>
+      </c>
+      <c r="AT23">
+        <v>0.5</v>
+      </c>
+      <c r="AU23">
+        <v>1.73</v>
+      </c>
+      <c r="AV23">
+        <v>1.32</v>
+      </c>
+      <c r="AW23">
+        <v>3.05</v>
+      </c>
+      <c r="AX23">
+        <v>1.45</v>
+      </c>
+      <c r="AY23">
+        <v>8.5</v>
+      </c>
+      <c r="AZ23">
+        <v>3.33</v>
+      </c>
+      <c r="BA23">
+        <v>1.44</v>
+      </c>
+      <c r="BB23">
+        <v>1.9</v>
+      </c>
+      <c r="BC23">
+        <v>2.34</v>
+      </c>
+      <c r="BD23">
+        <v>3.18</v>
+      </c>
+      <c r="BE23">
+        <v>4.4</v>
+      </c>
+      <c r="BF23">
+        <v>7</v>
+      </c>
+      <c r="BG23">
+        <v>4</v>
+      </c>
+      <c r="BH23">
+        <v>4</v>
+      </c>
+      <c r="BI23">
+        <v>2</v>
+      </c>
+      <c r="BJ23">
+        <v>11</v>
+      </c>
+      <c r="BK23">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="24" spans="1:63">
+      <c r="A24" s="1">
+        <v>23</v>
+      </c>
+      <c r="B24">
+        <v>6441714</v>
+      </c>
+      <c r="C24" t="s">
+        <v>63</v>
+      </c>
+      <c r="D24" t="s">
+        <v>64</v>
+      </c>
+      <c r="E24" s="2">
+        <v>45164.58333333334</v>
+      </c>
+      <c r="F24">
+        <v>6</v>
+      </c>
+      <c r="G24" t="s">
+        <v>70</v>
+      </c>
+      <c r="H24" t="s">
+        <v>73</v>
+      </c>
+      <c r="I24">
+        <v>1</v>
+      </c>
+      <c r="J24">
+        <v>1</v>
+      </c>
+      <c r="K24">
+        <v>2</v>
+      </c>
+      <c r="L24">
+        <v>1</v>
+      </c>
+      <c r="M24">
+        <v>2</v>
+      </c>
+      <c r="N24">
+        <v>3</v>
+      </c>
+      <c r="O24" t="s">
+        <v>95</v>
+      </c>
+      <c r="P24" t="s">
+        <v>110</v>
+      </c>
+      <c r="Q24">
+        <v>7</v>
+      </c>
+      <c r="R24">
+        <v>8</v>
+      </c>
+      <c r="S24">
+        <v>15</v>
+      </c>
+      <c r="T24">
+        <v>4.5</v>
+      </c>
+      <c r="U24">
+        <v>2.25</v>
+      </c>
+      <c r="V24">
+        <v>2.25</v>
+      </c>
+      <c r="W24">
+        <v>1.33</v>
+      </c>
+      <c r="X24">
+        <v>3.05</v>
+      </c>
+      <c r="Y24">
+        <v>2.55</v>
+      </c>
+      <c r="Z24">
+        <v>1.46</v>
+      </c>
+      <c r="AA24">
+        <v>5.95</v>
+      </c>
+      <c r="AB24">
+        <v>1.1</v>
+      </c>
+      <c r="AC24">
+        <v>4.33</v>
+      </c>
+      <c r="AD24">
+        <v>3.75</v>
+      </c>
+      <c r="AE24">
+        <v>1.75</v>
+      </c>
+      <c r="AF24">
+        <v>1.04</v>
+      </c>
+      <c r="AG24">
+        <v>10</v>
+      </c>
+      <c r="AH24">
+        <v>1.22</v>
+      </c>
+      <c r="AI24">
+        <v>4</v>
+      </c>
+      <c r="AJ24">
+        <v>1.75</v>
+      </c>
+      <c r="AK24">
+        <v>2.05</v>
+      </c>
+      <c r="AL24">
+        <v>1.7</v>
+      </c>
+      <c r="AM24">
+        <v>2.1</v>
+      </c>
+      <c r="AN24">
+        <v>2.05</v>
+      </c>
+      <c r="AO24">
+        <v>1.2</v>
+      </c>
+      <c r="AP24">
+        <v>1.2</v>
+      </c>
+      <c r="AQ24">
+        <v>2</v>
+      </c>
+      <c r="AR24">
+        <v>3</v>
+      </c>
+      <c r="AS24">
+        <v>1.33</v>
+      </c>
+      <c r="AT24">
+        <v>3</v>
+      </c>
+      <c r="AU24">
+        <v>1.61</v>
+      </c>
+      <c r="AV24">
+        <v>1.34</v>
+      </c>
+      <c r="AW24">
+        <v>2.95</v>
+      </c>
+      <c r="AX24">
+        <v>3.17</v>
+      </c>
+      <c r="AY24">
+        <v>8</v>
+      </c>
+      <c r="AZ24">
+        <v>1.51</v>
+      </c>
+      <c r="BA24">
+        <v>1.34</v>
+      </c>
+      <c r="BB24">
+        <v>1.8</v>
+      </c>
+      <c r="BC24">
+        <v>2.1</v>
+      </c>
+      <c r="BD24">
+        <v>2.8</v>
+      </c>
+      <c r="BE24">
+        <v>3.88</v>
+      </c>
+      <c r="BF24">
+        <v>4</v>
+      </c>
+      <c r="BG24">
+        <v>7</v>
+      </c>
+      <c r="BH24">
+        <v>5</v>
+      </c>
+      <c r="BI24">
+        <v>4</v>
+      </c>
+      <c r="BJ24">
+        <v>9</v>
+      </c>
+      <c r="BK24">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="25" spans="1:63">
+      <c r="A25" s="1">
+        <v>24</v>
+      </c>
+      <c r="B25">
+        <v>6441717</v>
+      </c>
+      <c r="C25" t="s">
+        <v>63</v>
+      </c>
+      <c r="D25" t="s">
+        <v>64</v>
+      </c>
+      <c r="E25" s="2">
+        <v>45164.67013888889</v>
+      </c>
+      <c r="F25">
+        <v>6</v>
+      </c>
+      <c r="G25" t="s">
+        <v>69</v>
+      </c>
+      <c r="H25" t="s">
+        <v>67</v>
+      </c>
+      <c r="I25">
+        <v>0</v>
+      </c>
+      <c r="J25">
+        <v>1</v>
+      </c>
+      <c r="K25">
+        <v>1</v>
+      </c>
+      <c r="L25">
+        <v>2</v>
+      </c>
+      <c r="M25">
+        <v>2</v>
+      </c>
+      <c r="N25">
+        <v>4</v>
+      </c>
+      <c r="O25" t="s">
+        <v>96</v>
+      </c>
+      <c r="P25" t="s">
+        <v>111</v>
+      </c>
+      <c r="Q25">
+        <v>6</v>
+      </c>
+      <c r="R25">
+        <v>7</v>
+      </c>
+      <c r="S25">
+        <v>13</v>
+      </c>
+      <c r="T25">
+        <v>3.1</v>
+      </c>
+      <c r="U25">
+        <v>2.1</v>
+      </c>
+      <c r="V25">
+        <v>3.2</v>
+      </c>
+      <c r="W25">
+        <v>1.4</v>
+      </c>
+      <c r="X25">
+        <v>2.75</v>
+      </c>
+      <c r="Y25">
+        <v>2.8</v>
+      </c>
+      <c r="Z25">
+        <v>1.39</v>
+      </c>
+      <c r="AA25">
+        <v>6.95</v>
+      </c>
+      <c r="AB25">
+        <v>1.07</v>
+      </c>
+      <c r="AC25">
+        <v>2.55</v>
+      </c>
+      <c r="AD25">
+        <v>3.3</v>
+      </c>
+      <c r="AE25">
+        <v>2.65</v>
+      </c>
+      <c r="AF25">
+        <v>1.02</v>
+      </c>
+      <c r="AG25">
+        <v>9.1</v>
+      </c>
+      <c r="AH25">
+        <v>1.3</v>
+      </c>
+      <c r="AI25">
+        <v>3.3</v>
+      </c>
+      <c r="AJ25">
+        <v>1.9</v>
+      </c>
+      <c r="AK25">
+        <v>1.83</v>
+      </c>
+      <c r="AL25">
+        <v>1.72</v>
+      </c>
+      <c r="AM25">
+        <v>2.05</v>
+      </c>
+      <c r="AN25">
+        <v>1.4</v>
+      </c>
+      <c r="AO25">
+        <v>1.25</v>
+      </c>
+      <c r="AP25">
+        <v>1.5</v>
+      </c>
+      <c r="AQ25">
+        <v>1</v>
+      </c>
+      <c r="AR25">
+        <v>2</v>
+      </c>
+      <c r="AS25">
+        <v>1</v>
+      </c>
+      <c r="AT25">
+        <v>1.67</v>
+      </c>
+      <c r="AU25">
+        <v>1.89</v>
+      </c>
+      <c r="AV25">
+        <v>1.56</v>
+      </c>
+      <c r="AW25">
+        <v>3.45</v>
+      </c>
+      <c r="AX25">
+        <v>1.91</v>
+      </c>
+      <c r="AY25">
+        <v>7.5</v>
+      </c>
+      <c r="AZ25">
+        <v>2.2</v>
+      </c>
+      <c r="BA25">
+        <v>1.32</v>
+      </c>
+      <c r="BB25">
+        <v>1.65</v>
+      </c>
+      <c r="BC25">
+        <v>2.04</v>
+      </c>
+      <c r="BD25">
+        <v>2.69</v>
+      </c>
+      <c r="BE25">
+        <v>3.65</v>
+      </c>
+      <c r="BF25">
+        <v>6</v>
+      </c>
+      <c r="BG25">
+        <v>10</v>
+      </c>
+      <c r="BH25">
+        <v>7</v>
+      </c>
+      <c r="BI25">
+        <v>2</v>
+      </c>
+      <c r="BJ25">
+        <v>13</v>
+      </c>
+      <c r="BK25">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="26" spans="1:63">
+      <c r="A26" s="1">
+        <v>25</v>
+      </c>
+      <c r="B26">
+        <v>6441715</v>
+      </c>
+      <c r="C26" t="s">
+        <v>63</v>
+      </c>
+      <c r="D26" t="s">
+        <v>64</v>
+      </c>
+      <c r="E26" s="2">
+        <v>45165.5625</v>
+      </c>
+      <c r="F26">
+        <v>6</v>
+      </c>
+      <c r="G26" t="s">
+        <v>71</v>
+      </c>
+      <c r="H26" t="s">
+        <v>72</v>
+      </c>
+      <c r="I26">
+        <v>0</v>
+      </c>
+      <c r="J26">
+        <v>0</v>
+      </c>
+      <c r="K26">
+        <v>0</v>
+      </c>
+      <c r="L26">
+        <v>0</v>
+      </c>
+      <c r="M26">
+        <v>0</v>
+      </c>
+      <c r="N26">
+        <v>0</v>
+      </c>
+      <c r="O26" t="s">
+        <v>82</v>
+      </c>
+      <c r="P26" t="s">
+        <v>82</v>
+      </c>
+      <c r="Q26">
+        <v>6</v>
+      </c>
+      <c r="R26">
+        <v>6</v>
+      </c>
+      <c r="S26">
+        <v>12</v>
+      </c>
+      <c r="T26">
+        <v>2.4</v>
+      </c>
+      <c r="U26">
+        <v>2.2</v>
+      </c>
+      <c r="V26">
+        <v>4.2</v>
+      </c>
+      <c r="W26">
+        <v>1.35</v>
+      </c>
+      <c r="X26">
+        <v>2.95</v>
+      </c>
+      <c r="Y26">
+        <v>2.6</v>
+      </c>
+      <c r="Z26">
+        <v>1.44</v>
+      </c>
+      <c r="AA26">
+        <v>6</v>
+      </c>
+      <c r="AB26">
+        <v>1.1</v>
+      </c>
+      <c r="AC26">
+        <v>1.86</v>
+      </c>
+      <c r="AD26">
+        <v>3.82</v>
+      </c>
+      <c r="AE26">
+        <v>3.93</v>
+      </c>
+      <c r="AF26">
+        <v>1.04</v>
+      </c>
+      <c r="AG26">
+        <v>8.5</v>
+      </c>
+      <c r="AH26">
+        <v>1.25</v>
+      </c>
+      <c r="AI26">
+        <v>3.75</v>
+      </c>
+      <c r="AJ26">
+        <v>1.75</v>
+      </c>
+      <c r="AK26">
+        <v>2</v>
+      </c>
+      <c r="AL26">
+        <v>1.68</v>
+      </c>
+      <c r="AM26">
+        <v>2.1</v>
+      </c>
+      <c r="AN26">
+        <v>1.2</v>
+      </c>
+      <c r="AO26">
+        <v>1.22</v>
+      </c>
+      <c r="AP26">
+        <v>1.9</v>
+      </c>
+      <c r="AQ26">
+        <v>0.5</v>
+      </c>
+      <c r="AR26">
+        <v>0</v>
+      </c>
+      <c r="AS26">
+        <v>0.67</v>
+      </c>
+      <c r="AT26">
+        <v>0.25</v>
+      </c>
+      <c r="AU26">
+        <v>1.3</v>
+      </c>
+      <c r="AV26">
+        <v>1.11</v>
+      </c>
+      <c r="AW26">
+        <v>2.41</v>
+      </c>
+      <c r="AX26">
+        <v>1.62</v>
+      </c>
+      <c r="AY26">
+        <v>7.7</v>
+      </c>
+      <c r="AZ26">
+        <v>2.91</v>
+      </c>
+      <c r="BA26">
+        <v>1.48</v>
+      </c>
+      <c r="BB26">
+        <v>1.95</v>
+      </c>
+      <c r="BC26">
+        <v>2.5</v>
+      </c>
+      <c r="BD26">
+        <v>3.5</v>
+      </c>
+      <c r="BE26">
+        <v>5.1</v>
+      </c>
+      <c r="BF26">
+        <v>7</v>
+      </c>
+      <c r="BG26">
+        <v>5</v>
+      </c>
+      <c r="BH26">
+        <v>4</v>
+      </c>
+      <c r="BI26">
+        <v>2</v>
+      </c>
+      <c r="BJ26">
+        <v>11</v>
+      </c>
+      <c r="BK26">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="213" uniqueCount="112">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="114">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -307,6 +307,9 @@
     <t>['62', '90+6']</t>
   </si>
   <si>
+    <t>['37', '84']</t>
+  </si>
+  <si>
     <t>['74', '90+3']</t>
   </si>
   <si>
@@ -350,6 +353,9 @@
   </si>
   <si>
     <t>['31', '90+3']</t>
+  </si>
+  <si>
+    <t>['89']</t>
   </si>
 </sst>
 </file>
@@ -711,7 +717,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK26"/>
+  <dimension ref="A1:BK27"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -955,7 +961,7 @@
         <v>75</v>
       </c>
       <c r="P2" t="s">
-        <v>97</v>
+        <v>98</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1042,7 +1048,7 @@
         <v>0</v>
       </c>
       <c r="AS2">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT2">
         <v>3</v>
@@ -1528,7 +1534,7 @@
         <v>78</v>
       </c>
       <c r="P5" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q5">
         <v>5</v>
@@ -1719,7 +1725,7 @@
         <v>79</v>
       </c>
       <c r="P6" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q6">
         <v>9</v>
@@ -1910,7 +1916,7 @@
         <v>80</v>
       </c>
       <c r="P7" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -2292,7 +2298,7 @@
         <v>82</v>
       </c>
       <c r="P9" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q9">
         <v>2</v>
@@ -2483,7 +2489,7 @@
         <v>83</v>
       </c>
       <c r="P10" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q10">
         <v>2</v>
@@ -2865,7 +2871,7 @@
         <v>85</v>
       </c>
       <c r="P12" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q12">
         <v>7</v>
@@ -3056,7 +3062,7 @@
         <v>86</v>
       </c>
       <c r="P13" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3334,7 +3340,7 @@
         <v>0</v>
       </c>
       <c r="AS14">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AT14">
         <v>0.5</v>
@@ -3820,7 +3826,7 @@
         <v>89</v>
       </c>
       <c r="P17" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q17">
         <v>7</v>
@@ -4202,7 +4208,7 @@
         <v>91</v>
       </c>
       <c r="P19" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -4393,7 +4399,7 @@
         <v>82</v>
       </c>
       <c r="P20" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q20">
         <v>11</v>
@@ -4775,7 +4781,7 @@
         <v>93</v>
       </c>
       <c r="P22" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q22">
         <v>8</v>
@@ -4966,7 +4972,7 @@
         <v>94</v>
       </c>
       <c r="P23" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q23">
         <v>1</v>
@@ -5157,7 +5163,7 @@
         <v>95</v>
       </c>
       <c r="P24" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q24">
         <v>7</v>
@@ -5283,22 +5289,22 @@
         <v>3.88</v>
       </c>
       <c r="BF24">
+        <v>5</v>
+      </c>
+      <c r="BG24">
+        <v>9</v>
+      </c>
+      <c r="BH24">
         <v>4</v>
       </c>
-      <c r="BG24">
-        <v>7</v>
-      </c>
-      <c r="BH24">
-        <v>5</v>
-      </c>
       <c r="BI24">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BJ24">
         <v>9</v>
       </c>
       <c r="BK24">
-        <v>11</v>
+        <v>15</v>
       </c>
     </row>
     <row r="25" spans="1:63">
@@ -5348,7 +5354,7 @@
         <v>96</v>
       </c>
       <c r="P25" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q25">
         <v>6</v>
@@ -5668,19 +5674,210 @@
         <v>7</v>
       </c>
       <c r="BG26">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BH26">
+        <v>3</v>
+      </c>
+      <c r="BI26">
+        <v>3</v>
+      </c>
+      <c r="BJ26">
+        <v>10</v>
+      </c>
+      <c r="BK26">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="27" spans="1:63">
+      <c r="A27" s="1">
+        <v>26</v>
+      </c>
+      <c r="B27">
+        <v>6441718</v>
+      </c>
+      <c r="C27" t="s">
+        <v>63</v>
+      </c>
+      <c r="D27" t="s">
+        <v>64</v>
+      </c>
+      <c r="E27" s="2">
+        <v>45165.67013888889</v>
+      </c>
+      <c r="F27">
+        <v>6</v>
+      </c>
+      <c r="G27" t="s">
+        <v>65</v>
+      </c>
+      <c r="H27" t="s">
+        <v>66</v>
+      </c>
+      <c r="I27">
+        <v>1</v>
+      </c>
+      <c r="J27">
+        <v>0</v>
+      </c>
+      <c r="K27">
+        <v>1</v>
+      </c>
+      <c r="L27">
+        <v>2</v>
+      </c>
+      <c r="M27">
+        <v>1</v>
+      </c>
+      <c r="N27">
+        <v>3</v>
+      </c>
+      <c r="O27" t="s">
+        <v>97</v>
+      </c>
+      <c r="P27" t="s">
+        <v>113</v>
+      </c>
+      <c r="Q27">
+        <v>3</v>
+      </c>
+      <c r="R27">
+        <v>3</v>
+      </c>
+      <c r="S27">
+        <v>6</v>
+      </c>
+      <c r="T27">
+        <v>2.14</v>
+      </c>
+      <c r="U27">
+        <v>2.35</v>
+      </c>
+      <c r="V27">
+        <v>5.81</v>
+      </c>
+      <c r="W27">
+        <v>1.36</v>
+      </c>
+      <c r="X27">
+        <v>3.08</v>
+      </c>
+      <c r="Y27">
+        <v>2.84</v>
+      </c>
+      <c r="Z27">
+        <v>1.42</v>
+      </c>
+      <c r="AA27">
+        <v>6.6</v>
+      </c>
+      <c r="AB27">
+        <v>1.09</v>
+      </c>
+      <c r="AC27">
+        <v>1.58</v>
+      </c>
+      <c r="AD27">
+        <v>4.15</v>
+      </c>
+      <c r="AE27">
+        <v>5.55</v>
+      </c>
+      <c r="AF27">
+        <v>1.01</v>
+      </c>
+      <c r="AG27">
+        <v>9.9</v>
+      </c>
+      <c r="AH27">
+        <v>1.27</v>
+      </c>
+      <c r="AI27">
+        <v>3.65</v>
+      </c>
+      <c r="AJ27">
+        <v>1.85</v>
+      </c>
+      <c r="AK27">
+        <v>1.94</v>
+      </c>
+      <c r="AL27">
+        <v>1.87</v>
+      </c>
+      <c r="AM27">
+        <v>1.87</v>
+      </c>
+      <c r="AN27">
+        <v>1.14</v>
+      </c>
+      <c r="AO27">
+        <v>1.23</v>
+      </c>
+      <c r="AP27">
+        <v>2.41</v>
+      </c>
+      <c r="AQ27">
+        <v>0.5</v>
+      </c>
+      <c r="AR27">
+        <v>0</v>
+      </c>
+      <c r="AS27">
+        <v>1.33</v>
+      </c>
+      <c r="AT27">
+        <v>0</v>
+      </c>
+      <c r="AU27">
+        <v>1.7</v>
+      </c>
+      <c r="AV27">
+        <v>0.62</v>
+      </c>
+      <c r="AW27">
+        <v>2.32</v>
+      </c>
+      <c r="AX27">
+        <v>1.28</v>
+      </c>
+      <c r="AY27">
+        <v>6.25</v>
+      </c>
+      <c r="AZ27">
         <v>4</v>
       </c>
-      <c r="BI26">
-        <v>2</v>
-      </c>
-      <c r="BJ26">
-        <v>11</v>
-      </c>
-      <c r="BK26">
+      <c r="BA27">
+        <v>1.48</v>
+      </c>
+      <c r="BB27">
+        <v>1.95</v>
+      </c>
+      <c r="BC27">
+        <v>2.32</v>
+      </c>
+      <c r="BD27">
+        <v>3.08</v>
+      </c>
+      <c r="BE27">
+        <v>4.4</v>
+      </c>
+      <c r="BF27">
         <v>7</v>
+      </c>
+      <c r="BG27">
+        <v>3</v>
+      </c>
+      <c r="BH27">
+        <v>7</v>
+      </c>
+      <c r="BI27">
+        <v>1</v>
+      </c>
+      <c r="BJ27">
+        <v>14</v>
+      </c>
+      <c r="BK27">
+        <v>4</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="219" uniqueCount="114">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="119">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -310,6 +310,9 @@
     <t>['37', '84']</t>
   </si>
   <si>
+    <t>['17', '85']</t>
+  </si>
+  <si>
     <t>['74', '90+3']</t>
   </si>
   <si>
@@ -356,6 +359,18 @@
   </si>
   <si>
     <t>['89']</t>
+  </si>
+  <si>
+    <t>['65']</t>
+  </si>
+  <si>
+    <t>['16', '24']</t>
+  </si>
+  <si>
+    <t>['90+11']</t>
+  </si>
+  <si>
+    <t>['69', '73']</t>
   </si>
 </sst>
 </file>
@@ -717,7 +732,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK27"/>
+  <dimension ref="A1:BK31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -961,7 +976,7 @@
         <v>75</v>
       </c>
       <c r="P2" t="s">
-        <v>98</v>
+        <v>99</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1239,7 +1254,7 @@
         <v>0</v>
       </c>
       <c r="AS3">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AT3">
         <v>0.25</v>
@@ -1534,7 +1549,7 @@
         <v>78</v>
       </c>
       <c r="P5" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q5">
         <v>5</v>
@@ -1725,7 +1740,7 @@
         <v>79</v>
       </c>
       <c r="P6" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q6">
         <v>9</v>
@@ -1815,7 +1830,7 @@
         <v>1</v>
       </c>
       <c r="AT6">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AU6">
         <v>0</v>
@@ -1916,7 +1931,7 @@
         <v>80</v>
       </c>
       <c r="P7" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -2197,7 +2212,7 @@
         <v>1.67</v>
       </c>
       <c r="AT8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU8">
         <v>2.02</v>
@@ -2298,7 +2313,7 @@
         <v>82</v>
       </c>
       <c r="P9" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q9">
         <v>2</v>
@@ -2489,7 +2504,7 @@
         <v>83</v>
       </c>
       <c r="P10" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q10">
         <v>2</v>
@@ -2767,7 +2782,7 @@
         <v>0</v>
       </c>
       <c r="AS11">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT11">
         <v>0</v>
@@ -2871,7 +2886,7 @@
         <v>85</v>
       </c>
       <c r="P12" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q12">
         <v>7</v>
@@ -3062,7 +3077,7 @@
         <v>86</v>
       </c>
       <c r="P13" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3149,7 +3164,7 @@
         <v>0</v>
       </c>
       <c r="AS13">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AT13">
         <v>0.25</v>
@@ -3343,7 +3358,7 @@
         <v>1.33</v>
       </c>
       <c r="AT14">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU14">
         <v>1.29</v>
@@ -3531,10 +3546,10 @@
         <v>1</v>
       </c>
       <c r="AS15">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AT15">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AU15">
         <v>2.17</v>
@@ -3826,7 +3841,7 @@
         <v>89</v>
       </c>
       <c r="P17" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q17">
         <v>7</v>
@@ -4104,7 +4119,7 @@
         <v>0.5</v>
       </c>
       <c r="AS18">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT18">
         <v>0.5</v>
@@ -4208,7 +4223,7 @@
         <v>91</v>
       </c>
       <c r="P19" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -4295,10 +4310,10 @@
         <v>0.5</v>
       </c>
       <c r="AS19">
-        <v>2</v>
+        <v>1.33</v>
       </c>
       <c r="AT19">
-        <v>0.67</v>
+        <v>1.25</v>
       </c>
       <c r="AU19">
         <v>1.39</v>
@@ -4399,7 +4414,7 @@
         <v>82</v>
       </c>
       <c r="P20" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q20">
         <v>11</v>
@@ -4680,7 +4695,7 @@
         <v>3</v>
       </c>
       <c r="AT21">
-        <v>0.5</v>
+        <v>1.33</v>
       </c>
       <c r="AU21">
         <v>2.38</v>
@@ -4781,7 +4796,7 @@
         <v>93</v>
       </c>
       <c r="P22" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q22">
         <v>8</v>
@@ -4868,10 +4883,10 @@
         <v>0</v>
       </c>
       <c r="AS22">
-        <v>3</v>
+        <v>2.5</v>
       </c>
       <c r="AT22">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU22">
         <v>2.49</v>
@@ -4972,7 +4987,7 @@
         <v>94</v>
       </c>
       <c r="P23" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q23">
         <v>1</v>
@@ -5163,7 +5178,7 @@
         <v>95</v>
       </c>
       <c r="P24" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q24">
         <v>7</v>
@@ -5354,7 +5369,7 @@
         <v>96</v>
       </c>
       <c r="P25" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q25">
         <v>6</v>
@@ -5736,7 +5751,7 @@
         <v>97</v>
       </c>
       <c r="P27" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q27">
         <v>3</v>
@@ -5878,6 +5893,770 @@
       </c>
       <c r="BK27">
         <v>4</v>
+      </c>
+    </row>
+    <row r="28" spans="1:63">
+      <c r="A28" s="1">
+        <v>27</v>
+      </c>
+      <c r="B28">
+        <v>6441721</v>
+      </c>
+      <c r="C28" t="s">
+        <v>63</v>
+      </c>
+      <c r="D28" t="s">
+        <v>64</v>
+      </c>
+      <c r="E28" s="2">
+        <v>45170.625</v>
+      </c>
+      <c r="F28">
+        <v>7</v>
+      </c>
+      <c r="G28" t="s">
+        <v>74</v>
+      </c>
+      <c r="H28" t="s">
+        <v>69</v>
+      </c>
+      <c r="I28">
+        <v>0</v>
+      </c>
+      <c r="J28">
+        <v>0</v>
+      </c>
+      <c r="K28">
+        <v>0</v>
+      </c>
+      <c r="L28">
+        <v>0</v>
+      </c>
+      <c r="M28">
+        <v>1</v>
+      </c>
+      <c r="N28">
+        <v>1</v>
+      </c>
+      <c r="O28" t="s">
+        <v>82</v>
+      </c>
+      <c r="P28" t="s">
+        <v>115</v>
+      </c>
+      <c r="Q28">
+        <v>7</v>
+      </c>
+      <c r="R28">
+        <v>5</v>
+      </c>
+      <c r="S28">
+        <v>12</v>
+      </c>
+      <c r="T28">
+        <v>3.4</v>
+      </c>
+      <c r="U28">
+        <v>2.05</v>
+      </c>
+      <c r="V28">
+        <v>2.9</v>
+      </c>
+      <c r="W28">
+        <v>1.4</v>
+      </c>
+      <c r="X28">
+        <v>2.75</v>
+      </c>
+      <c r="Y28">
+        <v>2.75</v>
+      </c>
+      <c r="Z28">
+        <v>1.4</v>
+      </c>
+      <c r="AA28">
+        <v>7</v>
+      </c>
+      <c r="AB28">
+        <v>1.08</v>
+      </c>
+      <c r="AC28">
+        <v>2.86</v>
+      </c>
+      <c r="AD28">
+        <v>3.24</v>
+      </c>
+      <c r="AE28">
+        <v>2.35</v>
+      </c>
+      <c r="AF28">
+        <v>1.06</v>
+      </c>
+      <c r="AG28">
+        <v>8</v>
+      </c>
+      <c r="AH28">
+        <v>1.33</v>
+      </c>
+      <c r="AI28">
+        <v>3.25</v>
+      </c>
+      <c r="AJ28">
+        <v>1.99</v>
+      </c>
+      <c r="AK28">
+        <v>1.76</v>
+      </c>
+      <c r="AL28">
+        <v>1.8</v>
+      </c>
+      <c r="AM28">
+        <v>1.91</v>
+      </c>
+      <c r="AN28">
+        <v>1.5</v>
+      </c>
+      <c r="AO28">
+        <v>1.3</v>
+      </c>
+      <c r="AP28">
+        <v>1.4</v>
+      </c>
+      <c r="AQ28">
+        <v>2</v>
+      </c>
+      <c r="AR28">
+        <v>0</v>
+      </c>
+      <c r="AS28">
+        <v>1.33</v>
+      </c>
+      <c r="AT28">
+        <v>1</v>
+      </c>
+      <c r="AU28">
+        <v>1.1</v>
+      </c>
+      <c r="AV28">
+        <v>1.25</v>
+      </c>
+      <c r="AW28">
+        <v>2.35</v>
+      </c>
+      <c r="AX28">
+        <v>2.1</v>
+      </c>
+      <c r="AY28">
+        <v>7.5</v>
+      </c>
+      <c r="AZ28">
+        <v>1.95</v>
+      </c>
+      <c r="BA28">
+        <v>1.32</v>
+      </c>
+      <c r="BB28">
+        <v>1.6</v>
+      </c>
+      <c r="BC28">
+        <v>2.05</v>
+      </c>
+      <c r="BD28">
+        <v>2.69</v>
+      </c>
+      <c r="BE28">
+        <v>3.65</v>
+      </c>
+      <c r="BF28">
+        <v>0</v>
+      </c>
+      <c r="BG28">
+        <v>5</v>
+      </c>
+      <c r="BH28">
+        <v>9</v>
+      </c>
+      <c r="BI28">
+        <v>7</v>
+      </c>
+      <c r="BJ28">
+        <v>9</v>
+      </c>
+      <c r="BK28">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="29" spans="1:63">
+      <c r="A29" s="1">
+        <v>28</v>
+      </c>
+      <c r="B29">
+        <v>6441722</v>
+      </c>
+      <c r="C29" t="s">
+        <v>63</v>
+      </c>
+      <c r="D29" t="s">
+        <v>64</v>
+      </c>
+      <c r="E29" s="2">
+        <v>45171.58333333334</v>
+      </c>
+      <c r="F29">
+        <v>7</v>
+      </c>
+      <c r="G29" t="s">
+        <v>72</v>
+      </c>
+      <c r="H29" t="s">
+        <v>68</v>
+      </c>
+      <c r="I29">
+        <v>0</v>
+      </c>
+      <c r="J29">
+        <v>2</v>
+      </c>
+      <c r="K29">
+        <v>2</v>
+      </c>
+      <c r="L29">
+        <v>0</v>
+      </c>
+      <c r="M29">
+        <v>2</v>
+      </c>
+      <c r="N29">
+        <v>2</v>
+      </c>
+      <c r="O29" t="s">
+        <v>82</v>
+      </c>
+      <c r="P29" t="s">
+        <v>116</v>
+      </c>
+      <c r="Q29">
+        <v>3</v>
+      </c>
+      <c r="R29">
+        <v>5</v>
+      </c>
+      <c r="S29">
+        <v>8</v>
+      </c>
+      <c r="T29">
+        <v>3.5</v>
+      </c>
+      <c r="U29">
+        <v>2.1</v>
+      </c>
+      <c r="V29">
+        <v>2.85</v>
+      </c>
+      <c r="W29">
+        <v>1.4</v>
+      </c>
+      <c r="X29">
+        <v>2.75</v>
+      </c>
+      <c r="Y29">
+        <v>2.8</v>
+      </c>
+      <c r="Z29">
+        <v>1.39</v>
+      </c>
+      <c r="AA29">
+        <v>6.95</v>
+      </c>
+      <c r="AB29">
+        <v>1.07</v>
+      </c>
+      <c r="AC29">
+        <v>2.95</v>
+      </c>
+      <c r="AD29">
+        <v>3.4</v>
+      </c>
+      <c r="AE29">
+        <v>2.3</v>
+      </c>
+      <c r="AF29">
+        <v>1.06</v>
+      </c>
+      <c r="AG29">
+        <v>8</v>
+      </c>
+      <c r="AH29">
+        <v>1.3</v>
+      </c>
+      <c r="AI29">
+        <v>3.3</v>
+      </c>
+      <c r="AJ29">
+        <v>1.9</v>
+      </c>
+      <c r="AK29">
+        <v>1.83</v>
+      </c>
+      <c r="AL29">
+        <v>1.72</v>
+      </c>
+      <c r="AM29">
+        <v>2.05</v>
+      </c>
+      <c r="AN29">
+        <v>1.6</v>
+      </c>
+      <c r="AO29">
+        <v>1.25</v>
+      </c>
+      <c r="AP29">
+        <v>1.38</v>
+      </c>
+      <c r="AQ29">
+        <v>0</v>
+      </c>
+      <c r="AR29">
+        <v>0.5</v>
+      </c>
+      <c r="AS29">
+        <v>0</v>
+      </c>
+      <c r="AT29">
+        <v>1.33</v>
+      </c>
+      <c r="AU29">
+        <v>1.5</v>
+      </c>
+      <c r="AV29">
+        <v>1.28</v>
+      </c>
+      <c r="AW29">
+        <v>2.78</v>
+      </c>
+      <c r="AX29">
+        <v>2.2</v>
+      </c>
+      <c r="AY29">
+        <v>8</v>
+      </c>
+      <c r="AZ29">
+        <v>1.91</v>
+      </c>
+      <c r="BA29">
+        <v>1.31</v>
+      </c>
+      <c r="BB29">
+        <v>1.59</v>
+      </c>
+      <c r="BC29">
+        <v>2.02</v>
+      </c>
+      <c r="BD29">
+        <v>2.65</v>
+      </c>
+      <c r="BE29">
+        <v>3.65</v>
+      </c>
+      <c r="BF29">
+        <v>8</v>
+      </c>
+      <c r="BG29">
+        <v>6</v>
+      </c>
+      <c r="BH29">
+        <v>3</v>
+      </c>
+      <c r="BI29">
+        <v>3</v>
+      </c>
+      <c r="BJ29">
+        <v>11</v>
+      </c>
+      <c r="BK29">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="30" spans="1:63">
+      <c r="A30" s="1">
+        <v>29</v>
+      </c>
+      <c r="B30">
+        <v>6441723</v>
+      </c>
+      <c r="C30" t="s">
+        <v>63</v>
+      </c>
+      <c r="D30" t="s">
+        <v>64</v>
+      </c>
+      <c r="E30" s="2">
+        <v>45171.67013888889</v>
+      </c>
+      <c r="F30">
+        <v>7</v>
+      </c>
+      <c r="G30" t="s">
+        <v>73</v>
+      </c>
+      <c r="H30" t="s">
+        <v>71</v>
+      </c>
+      <c r="I30">
+        <v>0</v>
+      </c>
+      <c r="J30">
+        <v>0</v>
+      </c>
+      <c r="K30">
+        <v>0</v>
+      </c>
+      <c r="L30">
+        <v>0</v>
+      </c>
+      <c r="M30">
+        <v>1</v>
+      </c>
+      <c r="N30">
+        <v>1</v>
+      </c>
+      <c r="O30" t="s">
+        <v>82</v>
+      </c>
+      <c r="P30" t="s">
+        <v>117</v>
+      </c>
+      <c r="Q30">
+        <v>6</v>
+      </c>
+      <c r="R30">
+        <v>4</v>
+      </c>
+      <c r="S30">
+        <v>10</v>
+      </c>
+      <c r="T30">
+        <v>1.67</v>
+      </c>
+      <c r="U30">
+        <v>2.5</v>
+      </c>
+      <c r="V30">
+        <v>8</v>
+      </c>
+      <c r="W30">
+        <v>1.3</v>
+      </c>
+      <c r="X30">
+        <v>3.4</v>
+      </c>
+      <c r="Y30">
+        <v>2.3</v>
+      </c>
+      <c r="Z30">
+        <v>1.57</v>
+      </c>
+      <c r="AA30">
+        <v>5</v>
+      </c>
+      <c r="AB30">
+        <v>1.14</v>
+      </c>
+      <c r="AC30">
+        <v>1.25</v>
+      </c>
+      <c r="AD30">
+        <v>5.15</v>
+      </c>
+      <c r="AE30">
+        <v>8.550000000000001</v>
+      </c>
+      <c r="AF30">
+        <v>1.03</v>
+      </c>
+      <c r="AG30">
+        <v>11</v>
+      </c>
+      <c r="AH30">
+        <v>1.2</v>
+      </c>
+      <c r="AI30">
+        <v>4.33</v>
+      </c>
+      <c r="AJ30">
+        <v>1.6</v>
+      </c>
+      <c r="AK30">
+        <v>2.25</v>
+      </c>
+      <c r="AL30">
+        <v>2.1</v>
+      </c>
+      <c r="AM30">
+        <v>1.67</v>
+      </c>
+      <c r="AN30">
+        <v>1.05</v>
+      </c>
+      <c r="AO30">
+        <v>1.12</v>
+      </c>
+      <c r="AP30">
+        <v>3.5</v>
+      </c>
+      <c r="AQ30">
+        <v>3</v>
+      </c>
+      <c r="AR30">
+        <v>0.67</v>
+      </c>
+      <c r="AS30">
+        <v>2</v>
+      </c>
+      <c r="AT30">
+        <v>1.25</v>
+      </c>
+      <c r="AU30">
+        <v>2.07</v>
+      </c>
+      <c r="AV30">
+        <v>1.12</v>
+      </c>
+      <c r="AW30">
+        <v>3.19</v>
+      </c>
+      <c r="AX30">
+        <v>1.21</v>
+      </c>
+      <c r="AY30">
+        <v>10</v>
+      </c>
+      <c r="AZ30">
+        <v>5.65</v>
+      </c>
+      <c r="BA30">
+        <v>1.48</v>
+      </c>
+      <c r="BB30">
+        <v>1.8</v>
+      </c>
+      <c r="BC30">
+        <v>2.24</v>
+      </c>
+      <c r="BD30">
+        <v>3.2</v>
+      </c>
+      <c r="BE30">
+        <v>4.4</v>
+      </c>
+      <c r="BF30">
+        <v>4</v>
+      </c>
+      <c r="BG30">
+        <v>3</v>
+      </c>
+      <c r="BH30">
+        <v>5</v>
+      </c>
+      <c r="BI30">
+        <v>4</v>
+      </c>
+      <c r="BJ30">
+        <v>9</v>
+      </c>
+      <c r="BK30">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="31" spans="1:63">
+      <c r="A31" s="1">
+        <v>30</v>
+      </c>
+      <c r="B31">
+        <v>6441719</v>
+      </c>
+      <c r="C31" t="s">
+        <v>63</v>
+      </c>
+      <c r="D31" t="s">
+        <v>64</v>
+      </c>
+      <c r="E31" s="2">
+        <v>45172.5625</v>
+      </c>
+      <c r="F31">
+        <v>7</v>
+      </c>
+      <c r="G31" t="s">
+        <v>66</v>
+      </c>
+      <c r="H31" t="s">
+        <v>70</v>
+      </c>
+      <c r="I31">
+        <v>1</v>
+      </c>
+      <c r="J31">
+        <v>0</v>
+      </c>
+      <c r="K31">
+        <v>1</v>
+      </c>
+      <c r="L31">
+        <v>2</v>
+      </c>
+      <c r="M31">
+        <v>2</v>
+      </c>
+      <c r="N31">
+        <v>4</v>
+      </c>
+      <c r="O31" t="s">
+        <v>98</v>
+      </c>
+      <c r="P31" t="s">
+        <v>118</v>
+      </c>
+      <c r="Q31">
+        <v>10</v>
+      </c>
+      <c r="R31">
+        <v>2</v>
+      </c>
+      <c r="S31">
+        <v>12</v>
+      </c>
+      <c r="T31">
+        <v>2</v>
+      </c>
+      <c r="U31">
+        <v>2.45</v>
+      </c>
+      <c r="V31">
+        <v>5</v>
+      </c>
+      <c r="W31">
+        <v>1.3</v>
+      </c>
+      <c r="X31">
+        <v>3.4</v>
+      </c>
+      <c r="Y31">
+        <v>2.3</v>
+      </c>
+      <c r="Z31">
+        <v>1.57</v>
+      </c>
+      <c r="AA31">
+        <v>5</v>
+      </c>
+      <c r="AB31">
+        <v>1.14</v>
+      </c>
+      <c r="AC31">
+        <v>1.5</v>
+      </c>
+      <c r="AD31">
+        <v>4.5</v>
+      </c>
+      <c r="AE31">
+        <v>5.5</v>
+      </c>
+      <c r="AF31">
+        <v>1.02</v>
+      </c>
+      <c r="AG31">
+        <v>10</v>
+      </c>
+      <c r="AH31">
+        <v>1.2</v>
+      </c>
+      <c r="AI31">
+        <v>4</v>
+      </c>
+      <c r="AJ31">
+        <v>1.6</v>
+      </c>
+      <c r="AK31">
+        <v>2.2</v>
+      </c>
+      <c r="AL31">
+        <v>1.8</v>
+      </c>
+      <c r="AM31">
+        <v>1.91</v>
+      </c>
+      <c r="AN31">
+        <v>1.09</v>
+      </c>
+      <c r="AO31">
+        <v>1.16</v>
+      </c>
+      <c r="AP31">
+        <v>2.55</v>
+      </c>
+      <c r="AQ31">
+        <v>3</v>
+      </c>
+      <c r="AR31">
+        <v>1</v>
+      </c>
+      <c r="AS31">
+        <v>2.5</v>
+      </c>
+      <c r="AT31">
+        <v>1</v>
+      </c>
+      <c r="AU31">
+        <v>2.62</v>
+      </c>
+      <c r="AV31">
+        <v>1.75</v>
+      </c>
+      <c r="AW31">
+        <v>4.37</v>
+      </c>
+      <c r="AX31">
+        <v>1.31</v>
+      </c>
+      <c r="AY31">
+        <v>9.5</v>
+      </c>
+      <c r="AZ31">
+        <v>4.41</v>
+      </c>
+      <c r="BA31">
+        <v>1.23</v>
+      </c>
+      <c r="BB31">
+        <v>1.54</v>
+      </c>
+      <c r="BC31">
+        <v>1.85</v>
+      </c>
+      <c r="BD31">
+        <v>2.24</v>
+      </c>
+      <c r="BE31">
+        <v>2.98</v>
+      </c>
+      <c r="BF31">
+        <v>2</v>
+      </c>
+      <c r="BG31">
+        <v>2</v>
+      </c>
+      <c r="BH31">
+        <v>8</v>
+      </c>
+      <c r="BI31">
+        <v>3</v>
+      </c>
+      <c r="BJ31">
+        <v>10</v>
+      </c>
+      <c r="BK31">
+        <v>5</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="243" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="249" uniqueCount="121">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -313,6 +313,9 @@
     <t>['17', '85']</t>
   </si>
   <si>
+    <t>['7', '46']</t>
+  </si>
+  <si>
     <t>['74', '90+3']</t>
   </si>
   <si>
@@ -371,6 +374,9 @@
   </si>
   <si>
     <t>['69', '73']</t>
+  </si>
+  <si>
+    <t>['70', '87', '90+9']</t>
   </si>
 </sst>
 </file>
@@ -732,7 +738,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BK31"/>
+  <dimension ref="A1:BK32"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -976,7 +982,7 @@
         <v>75</v>
       </c>
       <c r="P2" t="s">
-        <v>99</v>
+        <v>100</v>
       </c>
       <c r="Q2">
         <v>4</v>
@@ -1445,7 +1451,7 @@
         <v>0</v>
       </c>
       <c r="AS4">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT4">
         <v>0.5</v>
@@ -1549,7 +1555,7 @@
         <v>78</v>
       </c>
       <c r="P5" t="s">
-        <v>100</v>
+        <v>101</v>
       </c>
       <c r="Q5">
         <v>5</v>
@@ -1740,7 +1746,7 @@
         <v>79</v>
       </c>
       <c r="P6" t="s">
-        <v>101</v>
+        <v>102</v>
       </c>
       <c r="Q6">
         <v>9</v>
@@ -1931,7 +1937,7 @@
         <v>80</v>
       </c>
       <c r="P7" t="s">
-        <v>102</v>
+        <v>103</v>
       </c>
       <c r="Q7">
         <v>5</v>
@@ -2313,7 +2319,7 @@
         <v>82</v>
       </c>
       <c r="P9" t="s">
-        <v>103</v>
+        <v>104</v>
       </c>
       <c r="Q9">
         <v>2</v>
@@ -2504,7 +2510,7 @@
         <v>83</v>
       </c>
       <c r="P10" t="s">
-        <v>104</v>
+        <v>105</v>
       </c>
       <c r="Q10">
         <v>2</v>
@@ -2886,7 +2892,7 @@
         <v>85</v>
       </c>
       <c r="P12" t="s">
-        <v>105</v>
+        <v>106</v>
       </c>
       <c r="Q12">
         <v>7</v>
@@ -3077,7 +3083,7 @@
         <v>86</v>
       </c>
       <c r="P13" t="s">
-        <v>106</v>
+        <v>107</v>
       </c>
       <c r="Q13">
         <v>3</v>
@@ -3841,7 +3847,7 @@
         <v>89</v>
       </c>
       <c r="P17" t="s">
-        <v>107</v>
+        <v>108</v>
       </c>
       <c r="Q17">
         <v>7</v>
@@ -4223,7 +4229,7 @@
         <v>91</v>
       </c>
       <c r="P19" t="s">
-        <v>108</v>
+        <v>109</v>
       </c>
       <c r="Q19">
         <v>2</v>
@@ -4414,7 +4420,7 @@
         <v>82</v>
       </c>
       <c r="P20" t="s">
-        <v>109</v>
+        <v>110</v>
       </c>
       <c r="Q20">
         <v>11</v>
@@ -4692,7 +4698,7 @@
         <v>1</v>
       </c>
       <c r="AS21">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AT21">
         <v>1.33</v>
@@ -4796,7 +4802,7 @@
         <v>93</v>
       </c>
       <c r="P22" t="s">
-        <v>110</v>
+        <v>111</v>
       </c>
       <c r="Q22">
         <v>8</v>
@@ -4987,7 +4993,7 @@
         <v>94</v>
       </c>
       <c r="P23" t="s">
-        <v>111</v>
+        <v>112</v>
       </c>
       <c r="Q23">
         <v>1</v>
@@ -5178,7 +5184,7 @@
         <v>95</v>
       </c>
       <c r="P24" t="s">
-        <v>112</v>
+        <v>113</v>
       </c>
       <c r="Q24">
         <v>7</v>
@@ -5369,7 +5375,7 @@
         <v>96</v>
       </c>
       <c r="P25" t="s">
-        <v>113</v>
+        <v>114</v>
       </c>
       <c r="Q25">
         <v>6</v>
@@ -5751,7 +5757,7 @@
         <v>97</v>
       </c>
       <c r="P27" t="s">
-        <v>114</v>
+        <v>115</v>
       </c>
       <c r="Q27">
         <v>3</v>
@@ -5942,7 +5948,7 @@
         <v>82</v>
       </c>
       <c r="P28" t="s">
-        <v>115</v>
+        <v>116</v>
       </c>
       <c r="Q28">
         <v>7</v>
@@ -6133,7 +6139,7 @@
         <v>82</v>
       </c>
       <c r="P29" t="s">
-        <v>116</v>
+        <v>117</v>
       </c>
       <c r="Q29">
         <v>3</v>
@@ -6259,22 +6265,22 @@
         <v>3.65</v>
       </c>
       <c r="BF29">
+        <v>9</v>
+      </c>
+      <c r="BG29">
         <v>8</v>
       </c>
-      <c r="BG29">
-        <v>6</v>
-      </c>
       <c r="BH29">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="BI29">
         <v>3</v>
       </c>
       <c r="BJ29">
+        <v>14</v>
+      </c>
+      <c r="BK29">
         <v>11</v>
-      </c>
-      <c r="BK29">
-        <v>9</v>
       </c>
     </row>
     <row r="30" spans="1:63">
@@ -6324,7 +6330,7 @@
         <v>82</v>
       </c>
       <c r="P30" t="s">
-        <v>117</v>
+        <v>118</v>
       </c>
       <c r="Q30">
         <v>6</v>
@@ -6515,16 +6521,16 @@
         <v>98</v>
       </c>
       <c r="P31" t="s">
-        <v>118</v>
+        <v>119</v>
       </c>
       <c r="Q31">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="R31">
         <v>2</v>
       </c>
       <c r="S31">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="T31">
         <v>2</v>
@@ -6641,22 +6647,213 @@
         <v>2.98</v>
       </c>
       <c r="BF31">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="BG31">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="BH31">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BI31">
+        <v>2</v>
+      </c>
+      <c r="BJ31">
+        <v>16</v>
+      </c>
+      <c r="BK31">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="32" spans="1:63">
+      <c r="A32" s="1">
+        <v>31</v>
+      </c>
+      <c r="B32">
+        <v>6441720</v>
+      </c>
+      <c r="C32" t="s">
+        <v>63</v>
+      </c>
+      <c r="D32" t="s">
+        <v>64</v>
+      </c>
+      <c r="E32" s="2">
+        <v>45172.67013888889</v>
+      </c>
+      <c r="F32">
+        <v>7</v>
+      </c>
+      <c r="G32" t="s">
+        <v>67</v>
+      </c>
+      <c r="H32" t="s">
+        <v>65</v>
+      </c>
+      <c r="I32">
+        <v>1</v>
+      </c>
+      <c r="J32">
+        <v>0</v>
+      </c>
+      <c r="K32">
+        <v>1</v>
+      </c>
+      <c r="L32">
+        <v>2</v>
+      </c>
+      <c r="M32">
         <v>3</v>
       </c>
-      <c r="BJ31">
-        <v>10</v>
-      </c>
-      <c r="BK31">
+      <c r="N32">
         <v>5</v>
+      </c>
+      <c r="O32" t="s">
+        <v>99</v>
+      </c>
+      <c r="P32" t="s">
+        <v>120</v>
+      </c>
+      <c r="Q32">
+        <v>5</v>
+      </c>
+      <c r="R32">
+        <v>9</v>
+      </c>
+      <c r="S32">
+        <v>14</v>
+      </c>
+      <c r="T32">
+        <v>4.75</v>
+      </c>
+      <c r="U32">
+        <v>2.15</v>
+      </c>
+      <c r="V32">
+        <v>2.3</v>
+      </c>
+      <c r="W32">
+        <v>1.39</v>
+      </c>
+      <c r="X32">
+        <v>2.88</v>
+      </c>
+      <c r="Y32">
+        <v>2.82</v>
+      </c>
+      <c r="Z32">
+        <v>1.4</v>
+      </c>
+      <c r="AA32">
+        <v>7.1</v>
+      </c>
+      <c r="AB32">
+        <v>1.08</v>
+      </c>
+      <c r="AC32">
+        <v>4.5</v>
+      </c>
+      <c r="AD32">
+        <v>3.6</v>
+      </c>
+      <c r="AE32">
+        <v>1.75</v>
+      </c>
+      <c r="AF32">
+        <v>1.02</v>
+      </c>
+      <c r="AG32">
+        <v>9.5</v>
+      </c>
+      <c r="AH32">
+        <v>1.25</v>
+      </c>
+      <c r="AI32">
+        <v>3.5</v>
+      </c>
+      <c r="AJ32">
+        <v>1.85</v>
+      </c>
+      <c r="AK32">
+        <v>1.83</v>
+      </c>
+      <c r="AL32">
+        <v>1.78</v>
+      </c>
+      <c r="AM32">
+        <v>1.9</v>
+      </c>
+      <c r="AN32">
+        <v>2.05</v>
+      </c>
+      <c r="AO32">
+        <v>1.22</v>
+      </c>
+      <c r="AP32">
+        <v>1.18</v>
+      </c>
+      <c r="AQ32">
+        <v>3</v>
+      </c>
+      <c r="AR32">
+        <v>3</v>
+      </c>
+      <c r="AS32">
+        <v>2</v>
+      </c>
+      <c r="AT32">
+        <v>3</v>
+      </c>
+      <c r="AU32">
+        <v>2.06</v>
+      </c>
+      <c r="AV32">
+        <v>1.42</v>
+      </c>
+      <c r="AW32">
+        <v>3.48</v>
+      </c>
+      <c r="AX32">
+        <v>2.33</v>
+      </c>
+      <c r="AY32">
+        <v>7.5</v>
+      </c>
+      <c r="AZ32">
+        <v>1.85</v>
+      </c>
+      <c r="BA32">
+        <v>1.52</v>
+      </c>
+      <c r="BB32">
+        <v>1.88</v>
+      </c>
+      <c r="BC32">
+        <v>2.37</v>
+      </c>
+      <c r="BD32">
+        <v>3.42</v>
+      </c>
+      <c r="BE32">
+        <v>4.7</v>
+      </c>
+      <c r="BF32">
+        <v>5</v>
+      </c>
+      <c r="BG32">
+        <v>11</v>
+      </c>
+      <c r="BH32">
+        <v>6</v>
+      </c>
+      <c r="BI32">
+        <v>6</v>
+      </c>
+      <c r="BJ32">
+        <v>11</v>
+      </c>
+      <c r="BK32">
+        <v>17</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK34"/>
+  <dimension ref="A1:BK37"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -903,7 +903,7 @@
         <v>1.75</v>
       </c>
       <c r="AT2" t="n">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AU2" t="n">
         <v>0</v>
@@ -1103,7 +1103,7 @@
         <v>0</v>
       </c>
       <c r="AS3" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT3" t="n">
         <v>0.2</v>
@@ -1509,7 +1509,7 @@
         <v>0</v>
       </c>
       <c r="AS5" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AT5" t="n">
         <v>1</v>
@@ -1715,7 +1715,7 @@
         <v>1.5</v>
       </c>
       <c r="AT6" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AU6" t="n">
         <v>0</v>
@@ -1915,7 +1915,7 @@
         <v>0</v>
       </c>
       <c r="AS7" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT7" t="n">
         <v>0.4</v>
@@ -2118,7 +2118,7 @@
         <v>0</v>
       </c>
       <c r="AS8" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AT8" t="n">
         <v>1</v>
@@ -2527,7 +2527,7 @@
         <v>0</v>
       </c>
       <c r="AT10" t="n">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AU10" t="n">
         <v>0</v>
@@ -3539,10 +3539,10 @@
         <v>1</v>
       </c>
       <c r="AS15" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT15" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AU15" t="n">
         <v>2.17</v>
@@ -3742,7 +3742,7 @@
         <v>0</v>
       </c>
       <c r="AS16" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT16" t="n">
         <v>0.2</v>
@@ -3948,7 +3948,7 @@
         <v>0.67</v>
       </c>
       <c r="AT17" t="n">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AU17" t="n">
         <v>0.82</v>
@@ -4354,7 +4354,7 @@
         <v>1.33</v>
       </c>
       <c r="AT19" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AU19" t="n">
         <v>1.39</v>
@@ -4557,7 +4557,7 @@
         <v>0</v>
       </c>
       <c r="AT20" t="n">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AU20" t="n">
         <v>1.48</v>
@@ -4960,7 +4960,7 @@
         <v>0</v>
       </c>
       <c r="AS22" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT22" t="n">
         <v>1</v>
@@ -5163,7 +5163,7 @@
         <v>0.33</v>
       </c>
       <c r="AS23" t="n">
-        <v>1.67</v>
+        <v>2</v>
       </c>
       <c r="AT23" t="n">
         <v>0.4</v>
@@ -5366,10 +5366,10 @@
         <v>3</v>
       </c>
       <c r="AS24" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AT24" t="n">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AU24" t="n">
         <v>1.61</v>
@@ -5572,7 +5572,7 @@
         <v>1.5</v>
       </c>
       <c r="AT25" t="n">
-        <v>1.67</v>
+        <v>1.25</v>
       </c>
       <c r="AU25" t="n">
         <v>1.89</v>
@@ -6587,7 +6587,7 @@
         <v>2</v>
       </c>
       <c r="AT30" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AU30" t="n">
         <v>2.07</v>
@@ -6787,7 +6787,7 @@
         <v>1</v>
       </c>
       <c r="AS31" t="n">
-        <v>2.5</v>
+        <v>2.6</v>
       </c>
       <c r="AT31" t="n">
         <v>1</v>
@@ -7232,22 +7232,22 @@
         <v>3.65</v>
       </c>
       <c r="BF33" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BG33" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="BH33" t="n">
+        <v>10</v>
+      </c>
+      <c r="BI33" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ33" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK33" t="n">
         <v>8</v>
-      </c>
-      <c r="BI33" t="n">
-        <v>5</v>
-      </c>
-      <c r="BJ33" t="n">
-        <v>10</v>
-      </c>
-      <c r="BK33" t="n">
-        <v>10</v>
       </c>
     </row>
     <row r="34">
@@ -7435,10 +7435,10 @@
         <v>4</v>
       </c>
       <c r="BF34" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BG34" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="BH34" t="n">
         <v>9</v>
@@ -7447,9 +7447,618 @@
         <v>3</v>
       </c>
       <c r="BJ34" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BK34" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="35">
+      <c r="A35" s="1" t="n">
+        <v>34</v>
+      </c>
+      <c r="B35" t="n">
+        <v>6441728</v>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D35" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E35" s="2" t="n">
+        <v>45185.60416666666</v>
+      </c>
+      <c r="F35" t="n">
+        <v>8</v>
+      </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>Rijeka</t>
+        </is>
+      </c>
+      <c r="H35" t="inlineStr">
+        <is>
+          <t>Osijek</t>
+        </is>
+      </c>
+      <c r="I35" t="n">
+        <v>0</v>
+      </c>
+      <c r="J35" t="n">
+        <v>0</v>
+      </c>
+      <c r="K35" t="n">
+        <v>0</v>
+      </c>
+      <c r="L35" t="n">
+        <v>2</v>
+      </c>
+      <c r="M35" t="n">
+        <v>1</v>
+      </c>
+      <c r="N35" t="n">
+        <v>3</v>
+      </c>
+      <c r="O35" t="inlineStr">
+        <is>
+          <t>['47', '55']</t>
+        </is>
+      </c>
+      <c r="P35" t="inlineStr">
+        <is>
+          <t>['85']</t>
+        </is>
+      </c>
+      <c r="Q35" t="n">
+        <v>5</v>
+      </c>
+      <c r="R35" t="n">
+        <v>3</v>
+      </c>
+      <c r="S35" t="n">
+        <v>8</v>
+      </c>
+      <c r="T35" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="U35" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V35" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="W35" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X35" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y35" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z35" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA35" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB35" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC35" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AD35" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AE35" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AF35" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AG35" t="n">
+        <v>11.5</v>
+      </c>
+      <c r="AH35" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI35" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AJ35" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK35" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL35" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AM35" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AN35" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AO35" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP35" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AQ35" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AR35" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AS35" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AT35" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AU35" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AV35" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AW35" t="n">
+        <v>4.16</v>
+      </c>
+      <c r="AX35" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AY35" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ35" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BA35" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BB35" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BC35" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD35" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BE35" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BF35" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG35" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH35" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI35" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ35" t="n">
+        <v>18</v>
+      </c>
+      <c r="BK35" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="36">
+      <c r="A36" s="1" t="n">
+        <v>35</v>
+      </c>
+      <c r="B36" t="n">
+        <v>6441725</v>
+      </c>
+      <c r="C36" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D36" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E36" s="2" t="n">
+        <v>45186.5</v>
+      </c>
+      <c r="F36" t="n">
+        <v>8</v>
+      </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>Gorica</t>
+        </is>
+      </c>
+      <c r="H36" t="inlineStr">
+        <is>
+          <t>Hajduk Split</t>
+        </is>
+      </c>
+      <c r="I36" t="n">
+        <v>0</v>
+      </c>
+      <c r="J36" t="n">
+        <v>0</v>
+      </c>
+      <c r="K36" t="n">
+        <v>0</v>
+      </c>
+      <c r="L36" t="n">
+        <v>2</v>
+      </c>
+      <c r="M36" t="n">
+        <v>1</v>
+      </c>
+      <c r="N36" t="n">
+        <v>3</v>
+      </c>
+      <c r="O36" t="inlineStr">
+        <is>
+          <t>['86', '90+2']</t>
+        </is>
+      </c>
+      <c r="P36" t="inlineStr">
+        <is>
+          <t>['62']</t>
+        </is>
+      </c>
+      <c r="Q36" t="n">
+        <v>4</v>
+      </c>
+      <c r="R36" t="n">
+        <v>6</v>
+      </c>
+      <c r="S36" t="n">
+        <v>10</v>
+      </c>
+      <c r="T36" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="U36" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V36" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="W36" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X36" t="n">
+        <v>3</v>
+      </c>
+      <c r="Y36" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="Z36" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA36" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB36" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC36" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AD36" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AE36" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AF36" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG36" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH36" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI36" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ36" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK36" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL36" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM36" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN36" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AO36" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AP36" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AQ36" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR36" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS36" t="n">
+        <v>2</v>
+      </c>
+      <c r="AT36" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AU36" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AV36" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AW36" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AX36" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AY36" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ36" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BA36" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BB36" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BC36" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BD36" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BE36" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BF36" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG36" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH36" t="n">
+        <v>5</v>
+      </c>
+      <c r="BI36" t="n">
+        <v>3</v>
+      </c>
+      <c r="BJ36" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK36" t="n">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="37">
+      <c r="A37" s="1" t="n">
+        <v>36</v>
+      </c>
+      <c r="B37" t="n">
+        <v>6441724</v>
+      </c>
+      <c r="C37" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D37" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E37" s="2" t="n">
+        <v>45186.59375</v>
+      </c>
+      <c r="F37" t="n">
+        <v>8</v>
+      </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>Varaždin</t>
+        </is>
+      </c>
+      <c r="H37" t="inlineStr">
+        <is>
+          <t>Istra 1961</t>
+        </is>
+      </c>
+      <c r="I37" t="n">
+        <v>0</v>
+      </c>
+      <c r="J37" t="n">
+        <v>0</v>
+      </c>
+      <c r="K37" t="n">
+        <v>0</v>
+      </c>
+      <c r="L37" t="n">
+        <v>1</v>
+      </c>
+      <c r="M37" t="n">
+        <v>0</v>
+      </c>
+      <c r="N37" t="n">
+        <v>1</v>
+      </c>
+      <c r="O37" t="inlineStr">
+        <is>
+          <t>['74']</t>
+        </is>
+      </c>
+      <c r="P37" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q37" t="n">
+        <v>3</v>
+      </c>
+      <c r="R37" t="n">
+        <v>0</v>
+      </c>
+      <c r="S37" t="n">
+        <v>3</v>
+      </c>
+      <c r="T37" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="U37" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="V37" t="n">
+        <v>4</v>
+      </c>
+      <c r="W37" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X37" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Y37" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="Z37" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA37" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB37" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AC37" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AD37" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AE37" t="n">
+        <v>4</v>
+      </c>
+      <c r="AF37" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AG37" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH37" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AI37" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AJ37" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK37" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AL37" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AM37" t="n">
+        <v>2</v>
+      </c>
+      <c r="AN37" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO37" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AP37" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AQ37" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR37" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS37" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT37" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU37" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AV37" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AW37" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AX37" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AY37" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ37" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BA37" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BB37" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BC37" t="n">
+        <v>2</v>
+      </c>
+      <c r="BD37" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BE37" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BF37" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG37" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH37" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI37" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ37" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK37" t="n">
         <v>8</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK37"/>
+  <dimension ref="A1:BK39"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1306,7 +1306,7 @@
         <v>0</v>
       </c>
       <c r="AS4" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT4" t="n">
         <v>0.4</v>
@@ -2321,7 +2321,7 @@
         <v>0</v>
       </c>
       <c r="AS9" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AT9" t="n">
         <v>3</v>
@@ -3339,7 +3339,7 @@
         <v>1.75</v>
       </c>
       <c r="AT14" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU14" t="n">
         <v>1.29</v>
@@ -3945,7 +3945,7 @@
         <v>3</v>
       </c>
       <c r="AS17" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AT17" t="n">
         <v>1.25</v>
@@ -4757,10 +4757,10 @@
         <v>1</v>
       </c>
       <c r="AS21" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT21" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU21" t="n">
         <v>2.38</v>
@@ -5772,7 +5772,7 @@
         <v>0</v>
       </c>
       <c r="AS26" t="n">
-        <v>0.67</v>
+        <v>0.5</v>
       </c>
       <c r="AT26" t="n">
         <v>0.2</v>
@@ -6384,7 +6384,7 @@
         <v>0</v>
       </c>
       <c r="AT29" t="n">
-        <v>1.33</v>
+        <v>1.75</v>
       </c>
       <c r="AU29" t="n">
         <v>1.5</v>
@@ -6990,7 +6990,7 @@
         <v>3</v>
       </c>
       <c r="AS32" t="n">
-        <v>2</v>
+        <v>1.75</v>
       </c>
       <c r="AT32" t="n">
         <v>3</v>
@@ -8060,6 +8060,412 @@
       </c>
       <c r="BK37" t="n">
         <v>8</v>
+      </c>
+    </row>
+    <row r="38">
+      <c r="A38" s="1" t="n">
+        <v>37</v>
+      </c>
+      <c r="B38" t="n">
+        <v>6441729</v>
+      </c>
+      <c r="C38" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D38" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E38" s="2" t="n">
+        <v>45191.54166666666</v>
+      </c>
+      <c r="F38" t="n">
+        <v>9</v>
+      </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>Osijek</t>
+        </is>
+      </c>
+      <c r="H38" t="inlineStr">
+        <is>
+          <t>Varaždin</t>
+        </is>
+      </c>
+      <c r="I38" t="n">
+        <v>0</v>
+      </c>
+      <c r="J38" t="n">
+        <v>1</v>
+      </c>
+      <c r="K38" t="n">
+        <v>1</v>
+      </c>
+      <c r="L38" t="n">
+        <v>1</v>
+      </c>
+      <c r="M38" t="n">
+        <v>1</v>
+      </c>
+      <c r="N38" t="n">
+        <v>2</v>
+      </c>
+      <c r="O38" t="inlineStr">
+        <is>
+          <t>['54']</t>
+        </is>
+      </c>
+      <c r="P38" t="inlineStr">
+        <is>
+          <t>['14']</t>
+        </is>
+      </c>
+      <c r="Q38" t="n">
+        <v>14</v>
+      </c>
+      <c r="R38" t="n">
+        <v>1</v>
+      </c>
+      <c r="S38" t="n">
+        <v>15</v>
+      </c>
+      <c r="T38" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="U38" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="V38" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="W38" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X38" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y38" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="Z38" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AA38" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="AB38" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC38" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AD38" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AE38" t="n">
+        <v>5</v>
+      </c>
+      <c r="AF38" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AG38" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AH38" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AI38" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AJ38" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AK38" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AL38" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AM38" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN38" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AO38" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AP38" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AQ38" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS38" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT38" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU38" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AV38" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AW38" t="n">
+        <v>3.38</v>
+      </c>
+      <c r="AX38" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AY38" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="AZ38" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BA38" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BB38" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BC38" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BD38" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BE38" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF38" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG38" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH38" t="n">
+        <v>11</v>
+      </c>
+      <c r="BI38" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ38" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK38" t="n">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="39">
+      <c r="A39" s="1" t="n">
+        <v>38</v>
+      </c>
+      <c r="B39" t="n">
+        <v>6441733</v>
+      </c>
+      <c r="C39" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D39" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E39" s="2" t="n">
+        <v>45192.5</v>
+      </c>
+      <c r="F39" t="n">
+        <v>9</v>
+      </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>Istra 1961</t>
+        </is>
+      </c>
+      <c r="H39" t="inlineStr">
+        <is>
+          <t>Gorica</t>
+        </is>
+      </c>
+      <c r="I39" t="n">
+        <v>0</v>
+      </c>
+      <c r="J39" t="n">
+        <v>1</v>
+      </c>
+      <c r="K39" t="n">
+        <v>1</v>
+      </c>
+      <c r="L39" t="n">
+        <v>0</v>
+      </c>
+      <c r="M39" t="n">
+        <v>1</v>
+      </c>
+      <c r="N39" t="n">
+        <v>1</v>
+      </c>
+      <c r="O39" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P39" t="inlineStr">
+        <is>
+          <t>['36']</t>
+        </is>
+      </c>
+      <c r="Q39" t="n">
+        <v>6</v>
+      </c>
+      <c r="R39" t="n">
+        <v>1</v>
+      </c>
+      <c r="S39" t="n">
+        <v>7</v>
+      </c>
+      <c r="T39" t="n">
+        <v>3</v>
+      </c>
+      <c r="U39" t="n">
+        <v>2.06</v>
+      </c>
+      <c r="V39" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="W39" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X39" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="Y39" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="Z39" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA39" t="n">
+        <v>8</v>
+      </c>
+      <c r="AB39" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AC39" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AD39" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="AE39" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AF39" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG39" t="n">
+        <v>8</v>
+      </c>
+      <c r="AH39" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AI39" t="n">
+        <v>2.96</v>
+      </c>
+      <c r="AJ39" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="AK39" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AL39" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AM39" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AN39" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO39" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP39" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AQ39" t="n">
+        <v>0.67</v>
+      </c>
+      <c r="AR39" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AS39" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AT39" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AU39" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AV39" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AW39" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="AX39" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AY39" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AZ39" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BA39" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BB39" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BC39" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BD39" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BE39" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BF39" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG39" t="n">
+        <v>2</v>
+      </c>
+      <c r="BH39" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI39" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ39" t="n">
+        <v>13</v>
+      </c>
+      <c r="BK39" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BK39"/>
+  <dimension ref="A1:BK42"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2121,7 +2121,7 @@
         <v>2</v>
       </c>
       <c r="AT8" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU8" t="n">
         <v>2.02</v>
@@ -2727,10 +2727,10 @@
         <v>0</v>
       </c>
       <c r="AS11" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AT11" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU11" t="n">
         <v>0</v>
@@ -3133,7 +3133,7 @@
         <v>0</v>
       </c>
       <c r="AS13" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AT13" t="n">
         <v>0.2</v>
@@ -4148,7 +4148,7 @@
         <v>0.5</v>
       </c>
       <c r="AS18" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AT18" t="n">
         <v>0.4</v>
@@ -4351,7 +4351,7 @@
         <v>0.5</v>
       </c>
       <c r="AS19" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AT19" t="n">
         <v>1</v>
@@ -4963,7 +4963,7 @@
         <v>2.6</v>
       </c>
       <c r="AT22" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU22" t="n">
         <v>2.49</v>
@@ -5978,7 +5978,7 @@
         <v>1.75</v>
       </c>
       <c r="AT27" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AU27" t="n">
         <v>1.7</v>
@@ -6178,10 +6178,10 @@
         <v>0</v>
       </c>
       <c r="AS28" t="n">
-        <v>1.33</v>
+        <v>1</v>
       </c>
       <c r="AT28" t="n">
-        <v>1</v>
+        <v>0.75</v>
       </c>
       <c r="AU28" t="n">
         <v>1.1</v>
@@ -6584,7 +6584,7 @@
         <v>0.67</v>
       </c>
       <c r="AS30" t="n">
-        <v>2</v>
+        <v>2.25</v>
       </c>
       <c r="AT30" t="n">
         <v>1</v>
@@ -8247,22 +8247,22 @@
         <v>3.2</v>
       </c>
       <c r="BF38" t="n">
+        <v>6</v>
+      </c>
+      <c r="BG38" t="n">
         <v>4</v>
       </c>
-      <c r="BG38" t="n">
-        <v>2</v>
-      </c>
       <c r="BH38" t="n">
-        <v>11</v>
+        <v>6</v>
       </c>
       <c r="BI38" t="n">
         <v>2</v>
       </c>
       <c r="BJ38" t="n">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="BK38" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
     </row>
     <row r="39">
@@ -8450,10 +8450,10 @@
         <v>5.5</v>
       </c>
       <c r="BF39" t="n">
-        <v>7</v>
+        <v>4</v>
       </c>
       <c r="BG39" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BH39" t="n">
         <v>6</v>
@@ -8462,10 +8462,619 @@
         <v>4</v>
       </c>
       <c r="BJ39" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="BK39" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="40">
+      <c r="A40" s="1" t="n">
+        <v>39</v>
+      </c>
+      <c r="B40" t="n">
+        <v>6441732</v>
+      </c>
+      <c r="C40" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D40" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E40" s="2" t="n">
+        <v>45192.59375</v>
+      </c>
+      <c r="F40" t="n">
+        <v>9</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>Hajduk Split</t>
+        </is>
+      </c>
+      <c r="H40" t="inlineStr">
+        <is>
+          <t>Lokomotiva Zagreb</t>
+        </is>
+      </c>
+      <c r="I40" t="n">
+        <v>0</v>
+      </c>
+      <c r="J40" t="n">
+        <v>0</v>
+      </c>
+      <c r="K40" t="n">
+        <v>0</v>
+      </c>
+      <c r="L40" t="n">
+        <v>1</v>
+      </c>
+      <c r="M40" t="n">
+        <v>0</v>
+      </c>
+      <c r="N40" t="n">
+        <v>1</v>
+      </c>
+      <c r="O40" t="inlineStr">
+        <is>
+          <t>['76']</t>
+        </is>
+      </c>
+      <c r="P40" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q40" t="n">
+        <v>7</v>
+      </c>
+      <c r="R40" t="n">
+        <v>5</v>
+      </c>
+      <c r="S40" t="n">
+        <v>12</v>
+      </c>
+      <c r="T40" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="U40" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="V40" t="n">
+        <v>7.62</v>
+      </c>
+      <c r="W40" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="X40" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="Y40" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="Z40" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AA40" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="AB40" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AC40" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AD40" t="n">
+        <v>5</v>
+      </c>
+      <c r="AE40" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="AF40" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG40" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH40" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI40" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ40" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AK40" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AL40" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AM40" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN40" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AO40" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AP40" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AQ40" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR40" t="n">
+        <v>1</v>
+      </c>
+      <c r="AS40" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AT40" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AU40" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AV40" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AW40" t="n">
+        <v>3.21</v>
+      </c>
+      <c r="AX40" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AY40" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AZ40" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="BA40" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BB40" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BC40" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BD40" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE40" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BF40" t="n">
+        <v>7</v>
+      </c>
+      <c r="BG40" t="n">
+        <v>3</v>
+      </c>
+      <c r="BH40" t="n">
+        <v>8</v>
+      </c>
+      <c r="BI40" t="n">
+        <v>4</v>
+      </c>
+      <c r="BJ40" t="n">
+        <v>15</v>
+      </c>
+      <c r="BK40" t="n">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="41">
+      <c r="A41" s="1" t="n">
+        <v>40</v>
+      </c>
+      <c r="B41" t="n">
+        <v>6441730</v>
+      </c>
+      <c r="C41" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D41" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E41" s="2" t="n">
+        <v>45193.5</v>
+      </c>
+      <c r="F41" t="n">
+        <v>9</v>
+      </c>
+      <c r="G41" t="inlineStr">
+        <is>
+          <t>Slaven Koprivnica</t>
+        </is>
+      </c>
+      <c r="H41" t="inlineStr">
+        <is>
+          <t>Rijeka</t>
+        </is>
+      </c>
+      <c r="I41" t="n">
+        <v>0</v>
+      </c>
+      <c r="J41" t="n">
+        <v>1</v>
+      </c>
+      <c r="K41" t="n">
+        <v>1</v>
+      </c>
+      <c r="L41" t="n">
+        <v>0</v>
+      </c>
+      <c r="M41" t="n">
+        <v>1</v>
+      </c>
+      <c r="N41" t="n">
+        <v>1</v>
+      </c>
+      <c r="O41" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P41" t="inlineStr">
+        <is>
+          <t>['39']</t>
+        </is>
+      </c>
+      <c r="Q41" t="n">
+        <v>8</v>
+      </c>
+      <c r="R41" t="n">
+        <v>8</v>
+      </c>
+      <c r="S41" t="n">
+        <v>16</v>
+      </c>
+      <c r="T41" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="U41" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="V41" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="W41" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X41" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="Y41" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="Z41" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AA41" t="n">
         <v>6</v>
+      </c>
+      <c r="AB41" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AC41" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AD41" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AE41" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AF41" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AG41" t="n">
+        <v>9</v>
+      </c>
+      <c r="AH41" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AI41" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AJ41" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AK41" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL41" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AM41" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AN41" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AO41" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP41" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AQ41" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR41" t="n">
+        <v>0</v>
+      </c>
+      <c r="AS41" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT41" t="n">
+        <v>1</v>
+      </c>
+      <c r="AU41" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AV41" t="n">
+        <v>0.73</v>
+      </c>
+      <c r="AW41" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AX41" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AY41" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ41" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BA41" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BB41" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BC41" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BD41" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BE41" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BF41" t="n">
+        <v>3</v>
+      </c>
+      <c r="BG41" t="n">
+        <v>4</v>
+      </c>
+      <c r="BH41" t="n">
+        <v>6</v>
+      </c>
+      <c r="BI41" t="n">
+        <v>6</v>
+      </c>
+      <c r="BJ41" t="n">
+        <v>9</v>
+      </c>
+      <c r="BK41" t="n">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="42">
+      <c r="A42" s="1" t="n">
+        <v>41</v>
+      </c>
+      <c r="B42" t="n">
+        <v>6441731</v>
+      </c>
+      <c r="C42" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D42" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E42" s="2" t="n">
+        <v>45193.59375</v>
+      </c>
+      <c r="F42" t="n">
+        <v>9</v>
+      </c>
+      <c r="G42" t="inlineStr">
+        <is>
+          <t>Rudeš</t>
+        </is>
+      </c>
+      <c r="H42" t="inlineStr">
+        <is>
+          <t>Dinamo Zagreb</t>
+        </is>
+      </c>
+      <c r="I42" t="n">
+        <v>0</v>
+      </c>
+      <c r="J42" t="n">
+        <v>2</v>
+      </c>
+      <c r="K42" t="n">
+        <v>2</v>
+      </c>
+      <c r="L42" t="n">
+        <v>1</v>
+      </c>
+      <c r="M42" t="n">
+        <v>5</v>
+      </c>
+      <c r="N42" t="n">
+        <v>6</v>
+      </c>
+      <c r="O42" t="inlineStr">
+        <is>
+          <t>['83']</t>
+        </is>
+      </c>
+      <c r="P42" t="inlineStr">
+        <is>
+          <t>['27', '38', '48', '53', '58']</t>
+        </is>
+      </c>
+      <c r="Q42" t="n">
+        <v>1</v>
+      </c>
+      <c r="R42" t="n">
+        <v>3</v>
+      </c>
+      <c r="S42" t="n">
+        <v>4</v>
+      </c>
+      <c r="T42" t="n">
+        <v>8</v>
+      </c>
+      <c r="U42" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="V42" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="W42" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="X42" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="Y42" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="Z42" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="AA42" t="n">
+        <v>5.35</v>
+      </c>
+      <c r="AB42" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AC42" t="n">
+        <v>12</v>
+      </c>
+      <c r="AD42" t="n">
+        <v>6</v>
+      </c>
+      <c r="AE42" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF42" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AG42" t="n">
+        <v>11</v>
+      </c>
+      <c r="AH42" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AI42" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AJ42" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK42" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AL42" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AM42" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AN42" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AO42" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AP42" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AQ42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AR42" t="n">
+        <v>3</v>
+      </c>
+      <c r="AS42" t="n">
+        <v>0</v>
+      </c>
+      <c r="AT42" t="n">
+        <v>3</v>
+      </c>
+      <c r="AU42" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AV42" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AW42" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="AX42" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="AY42" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ42" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BA42" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BB42" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BC42" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="BD42" t="n">
+        <v>3</v>
+      </c>
+      <c r="BE42" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BF42" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG42" t="n">
+        <v>9</v>
+      </c>
+      <c r="BH42" t="n">
+        <v>1</v>
+      </c>
+      <c r="BI42" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ42" t="n">
+        <v>3</v>
+      </c>
+      <c r="BK42" t="n">
+        <v>11</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ42"/>
+  <dimension ref="A1:AZ44"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1686,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ7" t="n">
         <v>0.4</v>
@@ -2199,7 +2199,7 @@
         <v>0</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -2706,7 +2706,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ13" t="n">
         <v>0.2</v>
@@ -2879,7 +2879,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR14" t="n">
         <v>1.29</v>
@@ -3216,7 +3216,7 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ16" t="n">
         <v>0.2</v>
@@ -3389,7 +3389,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR17" t="n">
         <v>0.82</v>
@@ -3726,7 +3726,7 @@
         <v>0.5</v>
       </c>
       <c r="AP19" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ19" t="n">
         <v>1</v>
@@ -4069,7 +4069,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR21" t="n">
         <v>2.38</v>
@@ -4576,7 +4576,7 @@
         <v>3</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ24" t="n">
         <v>2.25</v>
@@ -4749,7 +4749,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR25" t="n">
         <v>1.89</v>
@@ -5256,7 +5256,7 @@
         <v>0</v>
       </c>
       <c r="AP28" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ28" t="n">
         <v>0.75</v>
@@ -5429,7 +5429,7 @@
         <v>0</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR29" t="n">
         <v>1.5</v>
@@ -6449,7 +6449,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ35" t="n">
-        <v>1.25</v>
+        <v>1</v>
       </c>
       <c r="AR35" t="n">
         <v>2.48</v>
@@ -6786,7 +6786,7 @@
         <v>1.25</v>
       </c>
       <c r="AP37" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ37" t="n">
         <v>1</v>
@@ -7129,7 +7129,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1.75</v>
+        <v>1.4</v>
       </c>
       <c r="AR39" t="n">
         <v>1.41</v>
@@ -7466,7 +7466,7 @@
         <v>0</v>
       </c>
       <c r="AP41" t="n">
-        <v>1</v>
+        <v>1.4</v>
       </c>
       <c r="AQ41" t="n">
         <v>1</v>
@@ -7667,6 +7667,346 @@
       </c>
       <c r="AZ42" t="n">
         <v>11</v>
+      </c>
+    </row>
+    <row r="43">
+      <c r="A43" s="1" t="n">
+        <v>42</v>
+      </c>
+      <c r="B43" t="n">
+        <v>6441734</v>
+      </c>
+      <c r="C43" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D43" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E43" s="2" t="n">
+        <v>45199.5</v>
+      </c>
+      <c r="F43" t="n">
+        <v>10</v>
+      </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>Varaždin</t>
+        </is>
+      </c>
+      <c r="H43" t="inlineStr">
+        <is>
+          <t>Gorica</t>
+        </is>
+      </c>
+      <c r="I43" t="n">
+        <v>1</v>
+      </c>
+      <c r="J43" t="n">
+        <v>0</v>
+      </c>
+      <c r="K43" t="n">
+        <v>1</v>
+      </c>
+      <c r="L43" t="n">
+        <v>1</v>
+      </c>
+      <c r="M43" t="n">
+        <v>0</v>
+      </c>
+      <c r="N43" t="n">
+        <v>1</v>
+      </c>
+      <c r="O43" t="inlineStr">
+        <is>
+          <t>['26']</t>
+        </is>
+      </c>
+      <c r="P43" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q43" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="R43" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="S43" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="T43" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U43" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="V43" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W43" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X43" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y43" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z43" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AA43" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AB43" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="AC43" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD43" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE43" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AF43" t="n">
+        <v>3</v>
+      </c>
+      <c r="AG43" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AH43" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AI43" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ43" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK43" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL43" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM43" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AN43" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AO43" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AP43" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ43" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR43" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AS43" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT43" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AU43" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV43" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW43" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX43" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY43" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ43" t="n">
+        <v>12</v>
+      </c>
+    </row>
+    <row r="44">
+      <c r="A44" s="1" t="n">
+        <v>43</v>
+      </c>
+      <c r="B44" t="n">
+        <v>6441738</v>
+      </c>
+      <c r="C44" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D44" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E44" s="2" t="n">
+        <v>45199.59375</v>
+      </c>
+      <c r="F44" t="n">
+        <v>10</v>
+      </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>Slaven Koprivnica</t>
+        </is>
+      </c>
+      <c r="H44" t="inlineStr">
+        <is>
+          <t>Osijek</t>
+        </is>
+      </c>
+      <c r="I44" t="n">
+        <v>0</v>
+      </c>
+      <c r="J44" t="n">
+        <v>0</v>
+      </c>
+      <c r="K44" t="n">
+        <v>0</v>
+      </c>
+      <c r="L44" t="n">
+        <v>1</v>
+      </c>
+      <c r="M44" t="n">
+        <v>0</v>
+      </c>
+      <c r="N44" t="n">
+        <v>1</v>
+      </c>
+      <c r="O44" t="inlineStr">
+        <is>
+          <t>['54']</t>
+        </is>
+      </c>
+      <c r="P44" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q44" t="n">
+        <v>4.28</v>
+      </c>
+      <c r="R44" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="S44" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="T44" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U44" t="n">
+        <v>3</v>
+      </c>
+      <c r="V44" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="W44" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X44" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y44" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z44" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="AA44" t="n">
+        <v>3.43</v>
+      </c>
+      <c r="AB44" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AC44" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD44" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE44" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF44" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AG44" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AH44" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AI44" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ44" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK44" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AL44" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM44" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AN44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO44" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AP44" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ44" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR44" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AS44" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AT44" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="AU44" t="n">
+        <v>10</v>
+      </c>
+      <c r="AV44" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW44" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX44" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY44" t="n">
+        <v>15</v>
+      </c>
+      <c r="AZ44" t="n">
+        <v>7</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ44"/>
+  <dimension ref="A1:AZ46"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -2029,7 +2029,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ9" t="n">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -2366,10 +2366,10 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3556,7 +3556,7 @@
         <v>0.5</v>
       </c>
       <c r="AP18" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ18" t="n">
         <v>0.4</v>
@@ -5089,7 +5089,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR27" t="n">
         <v>1.7</v>
@@ -5596,7 +5596,7 @@
         <v>0.67</v>
       </c>
       <c r="AP30" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ30" t="n">
         <v>1</v>
@@ -5939,7 +5939,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ32" t="n">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AR32" t="n">
         <v>2.06</v>
@@ -7296,7 +7296,7 @@
         <v>1</v>
       </c>
       <c r="AP40" t="n">
-        <v>2.25</v>
+        <v>2.4</v>
       </c>
       <c r="AQ40" t="n">
         <v>0.75</v>
@@ -7469,7 +7469,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ41" t="n">
-        <v>1</v>
+        <v>1.5</v>
       </c>
       <c r="AR41" t="n">
         <v>1.05</v>
@@ -7639,7 +7639,7 @@
         <v>0</v>
       </c>
       <c r="AQ42" t="n">
-        <v>3</v>
+        <v>2.25</v>
       </c>
       <c r="AR42" t="n">
         <v>1.73</v>
@@ -7821,22 +7821,22 @@
         <v>2.8</v>
       </c>
       <c r="AU43" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV43" t="n">
         <v>7</v>
       </c>
       <c r="AW43" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX43" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY43" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AZ43" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
     </row>
     <row r="44">
@@ -8007,6 +8007,346 @@
       </c>
       <c r="AZ44" t="n">
         <v>7</v>
+      </c>
+    </row>
+    <row r="45">
+      <c r="A45" s="1" t="n">
+        <v>44</v>
+      </c>
+      <c r="B45" t="n">
+        <v>6441737</v>
+      </c>
+      <c r="C45" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D45" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E45" s="2" t="n">
+        <v>45200.42708333334</v>
+      </c>
+      <c r="F45" t="n">
+        <v>10</v>
+      </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>Rudeš</t>
+        </is>
+      </c>
+      <c r="H45" t="inlineStr">
+        <is>
+          <t>Rijeka</t>
+        </is>
+      </c>
+      <c r="I45" t="n">
+        <v>0</v>
+      </c>
+      <c r="J45" t="n">
+        <v>1</v>
+      </c>
+      <c r="K45" t="n">
+        <v>1</v>
+      </c>
+      <c r="L45" t="n">
+        <v>1</v>
+      </c>
+      <c r="M45" t="n">
+        <v>2</v>
+      </c>
+      <c r="N45" t="n">
+        <v>3</v>
+      </c>
+      <c r="O45" t="inlineStr">
+        <is>
+          <t>['90']</t>
+        </is>
+      </c>
+      <c r="P45" t="inlineStr">
+        <is>
+          <t>['12', '79']</t>
+        </is>
+      </c>
+      <c r="Q45" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="R45" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="S45" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="T45" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U45" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V45" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W45" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X45" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y45" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Z45" t="n">
+        <v>5.69</v>
+      </c>
+      <c r="AA45" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="AB45" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AC45" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD45" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE45" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF45" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG45" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AH45" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AI45" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AJ45" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK45" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AL45" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM45" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AN45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO45" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP45" t="n">
+        <v>0</v>
+      </c>
+      <c r="AQ45" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR45" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AS45" t="n">
+        <v>0.97</v>
+      </c>
+      <c r="AT45" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AU45" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV45" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW45" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX45" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY45" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ45" t="n">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="46">
+      <c r="A46" s="1" t="n">
+        <v>45</v>
+      </c>
+      <c r="B46" t="n">
+        <v>6441736</v>
+      </c>
+      <c r="C46" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D46" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E46" s="2" t="n">
+        <v>45200.54166666666</v>
+      </c>
+      <c r="F46" t="n">
+        <v>10</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>Hajduk Split</t>
+        </is>
+      </c>
+      <c r="H46" t="inlineStr">
+        <is>
+          <t>Dinamo Zagreb</t>
+        </is>
+      </c>
+      <c r="I46" t="n">
+        <v>0</v>
+      </c>
+      <c r="J46" t="n">
+        <v>0</v>
+      </c>
+      <c r="K46" t="n">
+        <v>0</v>
+      </c>
+      <c r="L46" t="n">
+        <v>1</v>
+      </c>
+      <c r="M46" t="n">
+        <v>0</v>
+      </c>
+      <c r="N46" t="n">
+        <v>1</v>
+      </c>
+      <c r="O46" t="inlineStr">
+        <is>
+          <t>['59']</t>
+        </is>
+      </c>
+      <c r="P46" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q46" t="n">
+        <v>3.52</v>
+      </c>
+      <c r="R46" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="S46" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="T46" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U46" t="n">
+        <v>2.99</v>
+      </c>
+      <c r="V46" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="W46" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X46" t="n">
+        <v>6.65</v>
+      </c>
+      <c r="Y46" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z46" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AA46" t="n">
+        <v>3.37</v>
+      </c>
+      <c r="AB46" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AC46" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD46" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE46" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF46" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AG46" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AH46" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AI46" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ46" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK46" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL46" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM46" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AN46" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AO46" t="n">
+        <v>3</v>
+      </c>
+      <c r="AP46" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AQ46" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AR46" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AS46" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AT46" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="AU46" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV46" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW46" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX46" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY46" t="n">
+        <v>3</v>
+      </c>
+      <c r="AZ46" t="n">
+        <v>6</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ46"/>
+  <dimension ref="A1:AZ47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1859,7 +1859,7 @@
         <v>2</v>
       </c>
       <c r="AQ8" t="n">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR8" t="n">
         <v>2.02</v>
@@ -2026,7 +2026,7 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AQ9" t="n">
         <v>2.25</v>
@@ -3386,7 +3386,7 @@
         <v>3</v>
       </c>
       <c r="AP17" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AQ17" t="n">
         <v>1</v>
@@ -4239,7 +4239,7 @@
         <v>2.6</v>
       </c>
       <c r="AQ22" t="n">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR22" t="n">
         <v>2.49</v>
@@ -4916,7 +4916,7 @@
         <v>0</v>
       </c>
       <c r="AP26" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AQ26" t="n">
         <v>0.2</v>
@@ -5259,7 +5259,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ28" t="n">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR28" t="n">
         <v>1.1</v>
@@ -7126,7 +7126,7 @@
         <v>1.33</v>
       </c>
       <c r="AP39" t="n">
-        <v>0.5</v>
+        <v>0.4</v>
       </c>
       <c r="AQ39" t="n">
         <v>1.4</v>
@@ -7299,7 +7299,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ40" t="n">
-        <v>0.75</v>
+        <v>1.2</v>
       </c>
       <c r="AR40" t="n">
         <v>1.89</v>
@@ -7991,19 +7991,19 @@
         <v>2.63</v>
       </c>
       <c r="AU44" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AV44" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW44" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX44" t="n">
         <v>4</v>
       </c>
-      <c r="AW44" t="n">
-        <v>5</v>
-      </c>
-      <c r="AX44" t="n">
-        <v>3</v>
-      </c>
       <c r="AY44" t="n">
-        <v>15</v>
+        <v>16</v>
       </c>
       <c r="AZ44" t="n">
         <v>7</v>
@@ -8331,22 +8331,192 @@
         <v>3.83</v>
       </c>
       <c r="AU46" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="AV46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW46" t="n">
         <v>1</v>
       </c>
       <c r="AX46" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY46" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AZ46" t="n">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="47">
+      <c r="A47" s="1" t="n">
+        <v>46</v>
+      </c>
+      <c r="B47" t="n">
+        <v>6441735</v>
+      </c>
+      <c r="C47" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D47" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E47" s="2" t="n">
+        <v>45201.54166666666</v>
+      </c>
+      <c r="F47" t="n">
+        <v>10</v>
+      </c>
+      <c r="G47" t="inlineStr">
+        <is>
+          <t>Istra 1961</t>
+        </is>
+      </c>
+      <c r="H47" t="inlineStr">
+        <is>
+          <t>Lokomotiva Zagreb</t>
+        </is>
+      </c>
+      <c r="I47" t="n">
+        <v>0</v>
+      </c>
+      <c r="J47" t="n">
+        <v>2</v>
+      </c>
+      <c r="K47" t="n">
+        <v>2</v>
+      </c>
+      <c r="L47" t="n">
+        <v>0</v>
+      </c>
+      <c r="M47" t="n">
+        <v>4</v>
+      </c>
+      <c r="N47" t="n">
+        <v>4</v>
+      </c>
+      <c r="O47" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P47" t="inlineStr">
+        <is>
+          <t>['22', '30', '83', '90+2']</t>
+        </is>
+      </c>
+      <c r="Q47" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="R47" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S47" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T47" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U47" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="V47" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="W47" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X47" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Y47" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z47" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AA47" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AB47" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AC47" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD47" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE47" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF47" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG47" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AH47" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AI47" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ47" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK47" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AL47" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM47" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AN47" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AO47" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AP47" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AQ47" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR47" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AS47" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AT47" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AU47" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV47" t="n">
         <v>6</v>
+      </c>
+      <c r="AW47" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX47" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY47" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ47" t="n">
+        <v>13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AZ47"/>
+  <dimension ref="A1:BP47"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -698,6 +698,86 @@
           <t>Shots_A</t>
         </is>
       </c>
+      <c r="BA1" s="1" t="inlineStr">
+        <is>
+          <t>Corners_H_FT</t>
+        </is>
+      </c>
+      <c r="BB1" s="1" t="inlineStr">
+        <is>
+          <t>Corners_A_FT</t>
+        </is>
+      </c>
+      <c r="BC1" s="1" t="inlineStr">
+        <is>
+          <t>TotalCorners_FT</t>
+        </is>
+      </c>
+      <c r="BD1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_H</t>
+        </is>
+      </c>
+      <c r="BE1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_D</t>
+        </is>
+      </c>
+      <c r="BF1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_A</t>
+        </is>
+      </c>
+      <c r="BG1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Over75</t>
+        </is>
+      </c>
+      <c r="BH1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Under75</t>
+        </is>
+      </c>
+      <c r="BI1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Over85</t>
+        </is>
+      </c>
+      <c r="BJ1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Under85</t>
+        </is>
+      </c>
+      <c r="BK1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Over95</t>
+        </is>
+      </c>
+      <c r="BL1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Under95</t>
+        </is>
+      </c>
+      <c r="BM1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Over105</t>
+        </is>
+      </c>
+      <c r="BN1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Under105</t>
+        </is>
+      </c>
+      <c r="BO1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Over115</t>
+        </is>
+      </c>
+      <c r="BP1" s="1" t="inlineStr">
+        <is>
+          <t>Odd_Corners_Under115</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" s="1" t="n">
@@ -868,6 +948,54 @@
       <c r="AZ2" t="n">
         <v>9</v>
       </c>
+      <c r="BA2" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB2" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC2" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD2" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BE2" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="BF2" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BG2" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BH2" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BI2" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BJ2" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BK2" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BL2" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BM2" t="n">
+        <v>3.94</v>
+      </c>
+      <c r="BN2" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BO2" t="n">
+        <v>6.3</v>
+      </c>
+      <c r="BP2" t="n">
+        <v>1.12</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="n">
@@ -1037,6 +1165,54 @@
       </c>
       <c r="AZ3" t="n">
         <v>7</v>
+      </c>
+      <c r="BA3" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB3" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC3" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD3" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BE3" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF3" t="n">
+        <v>5.18</v>
+      </c>
+      <c r="BG3" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BH3" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BI3" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BJ3" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BK3" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BL3" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BM3" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BN3" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BO3" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BP3" t="n">
+        <v>1.15</v>
       </c>
     </row>
     <row r="4">
@@ -1208,6 +1384,54 @@
       <c r="AZ4" t="n">
         <v>8</v>
       </c>
+      <c r="BA4" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB4" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC4" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD4" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BE4" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF4" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BG4" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BH4" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BI4" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BJ4" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK4" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="BL4" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BM4" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BN4" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BO4" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BP4" t="n">
+        <v>1.19</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="n">
@@ -1378,6 +1602,54 @@
       <c r="AZ5" t="n">
         <v>12</v>
       </c>
+      <c r="BA5" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB5" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC5" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD5" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BE5" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF5" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BG5" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BH5" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BI5" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BJ5" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="BK5" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BL5" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BM5" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BN5" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BO5" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="BP5" t="n">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="n">
@@ -1548,6 +1820,54 @@
       <c r="AZ6" t="n">
         <v>8</v>
       </c>
+      <c r="BA6" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB6" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC6" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD6" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BE6" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF6" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="BG6" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BH6" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="BI6" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BJ6" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BK6" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BL6" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BM6" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BN6" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BO6" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BP6" t="n">
+        <v>1.21</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="n">
@@ -1718,6 +2038,54 @@
       <c r="AZ7" t="n">
         <v>12</v>
       </c>
+      <c r="BA7" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB7" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC7" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD7" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BE7" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="BF7" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="BG7" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BH7" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="BI7" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BJ7" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BK7" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BL7" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BM7" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BN7" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BO7" t="n">
+        <v>4</v>
+      </c>
+      <c r="BP7" t="n">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="n">
@@ -1888,6 +2256,54 @@
       <c r="AZ8" t="n">
         <v>8</v>
       </c>
+      <c r="BA8" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB8" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC8" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD8" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE8" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF8" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BG8" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BH8" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BI8" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BJ8" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BK8" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BL8" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BM8" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BN8" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BO8" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="BP8" t="n">
+        <v>1.22</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="n">
@@ -2058,6 +2474,54 @@
       <c r="AZ9" t="n">
         <v>8</v>
       </c>
+      <c r="BA9" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB9" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC9" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD9" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BE9" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF9" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BG9" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BH9" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BI9" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BJ9" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="BK9" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BL9" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BM9" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BN9" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BO9" t="n">
+        <v>5.6</v>
+      </c>
+      <c r="BP9" t="n">
+        <v>1.14</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="n">
@@ -2228,6 +2692,54 @@
       <c r="AZ10" t="n">
         <v>12</v>
       </c>
+      <c r="BA10" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB10" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC10" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD10" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BE10" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF10" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BG10" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BH10" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BI10" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BJ10" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK10" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BL10" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BM10" t="n">
+        <v>3</v>
+      </c>
+      <c r="BN10" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BO10" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BP10" t="n">
+        <v>1.22</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="n">
@@ -2398,6 +2910,54 @@
       <c r="AZ11" t="n">
         <v>6</v>
       </c>
+      <c r="BA11" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB11" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC11" t="n">
+        <v>3</v>
+      </c>
+      <c r="BD11" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BE11" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF11" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BG11" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BH11" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="BI11" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BJ11" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BK11" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BL11" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BM11" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BN11" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BO11" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BP11" t="n">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="n">
@@ -2568,6 +3128,54 @@
       <c r="AZ12" t="n">
         <v>15</v>
       </c>
+      <c r="BA12" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB12" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC12" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD12" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BE12" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="BF12" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BG12" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH12" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BI12" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BJ12" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BK12" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BL12" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BM12" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BN12" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BO12" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BP12" t="n">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="n">
@@ -2738,6 +3346,54 @@
       <c r="AZ13" t="n">
         <v>11</v>
       </c>
+      <c r="BA13" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB13" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC13" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD13" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BE13" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF13" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="BG13" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BH13" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BI13" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BJ13" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BK13" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BL13" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BM13" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="BN13" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BO13" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BP13" t="n">
+        <v>1.22</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="n">
@@ -2908,6 +3564,54 @@
       <c r="AZ14" t="n">
         <v>7</v>
       </c>
+      <c r="BA14" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB14" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC14" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD14" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BE14" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF14" t="n">
+        <v>5.57</v>
+      </c>
+      <c r="BG14" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BH14" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BI14" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BJ14" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BK14" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BL14" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BM14" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BN14" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BO14" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BP14" t="n">
+        <v>1.15</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="n">
@@ -3078,6 +3782,54 @@
       <c r="AZ15" t="n">
         <v>2</v>
       </c>
+      <c r="BA15" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB15" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC15" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD15" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BE15" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF15" t="n">
+        <v>4.09</v>
+      </c>
+      <c r="BG15" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BH15" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="BI15" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BJ15" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BK15" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BL15" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BM15" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BN15" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BO15" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BP15" t="n">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="n">
@@ -3248,6 +4000,54 @@
       <c r="AZ16" t="n">
         <v>6</v>
       </c>
+      <c r="BA16" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB16" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC16" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD16" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BE16" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="BF16" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="BG16" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BH16" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="BI16" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BJ16" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BK16" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BL16" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BM16" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BN16" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BO16" t="n">
+        <v>4</v>
+      </c>
+      <c r="BP16" t="n">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="n">
@@ -3418,6 +4218,54 @@
       <c r="AZ17" t="n">
         <v>9</v>
       </c>
+      <c r="BA17" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB17" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC17" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD17" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BE17" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BF17" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BG17" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BH17" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BI17" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ17" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BK17" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BL17" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BM17" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BN17" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BO17" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP17" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="n">
@@ -3588,6 +4436,54 @@
       <c r="AZ18" t="n">
         <v>10</v>
       </c>
+      <c r="BA18" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB18" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC18" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD18" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="BE18" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF18" t="n">
+        <v>5.75</v>
+      </c>
+      <c r="BG18" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BH18" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BI18" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BJ18" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BK18" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BL18" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BM18" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BN18" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BO18" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BP18" t="n">
+        <v>1.15</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="n">
@@ -3758,6 +4654,54 @@
       <c r="AZ19" t="n">
         <v>14</v>
       </c>
+      <c r="BA19" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE19" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF19" t="n">
+        <v>2.53</v>
+      </c>
+      <c r="BG19" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BH19" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="BI19" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BJ19" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BK19" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BL19" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BM19" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BN19" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BO19" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BP19" t="n">
+        <v>1.15</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="n">
@@ -3928,6 +4872,54 @@
       <c r="AZ20" t="n">
         <v>10</v>
       </c>
+      <c r="BA20" t="n">
+        <v>11</v>
+      </c>
+      <c r="BB20" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC20" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD20" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="BE20" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF20" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BG20" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BH20" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BI20" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BJ20" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK20" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BL20" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BM20" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BN20" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BO20" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BP20" t="n">
+        <v>1.19</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="n">
@@ -4098,6 +5090,54 @@
       <c r="AZ21" t="n">
         <v>12</v>
       </c>
+      <c r="BA21" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB21" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC21" t="n">
+        <v>3</v>
+      </c>
+      <c r="BD21" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BE21" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF21" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BG21" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BH21" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="BI21" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BJ21" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BK21" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BL21" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BM21" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="BN21" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BO21" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BP21" t="n">
+        <v>1.19</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" s="1" t="n">
@@ -4268,6 +5308,54 @@
       <c r="AZ22" t="n">
         <v>10</v>
       </c>
+      <c r="BA22" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB22" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC22" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD22" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BE22" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF22" t="n">
+        <v>3.83</v>
+      </c>
+      <c r="BG22" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BH22" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BI22" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BJ22" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BK22" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BL22" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BM22" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BN22" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BO22" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BP22" t="n">
+        <v>1.22</v>
+      </c>
     </row>
     <row r="23">
       <c r="A23" s="1" t="n">
@@ -4438,6 +5526,54 @@
       <c r="AZ23" t="n">
         <v>6</v>
       </c>
+      <c r="BA23" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB23" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC23" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD23" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BE23" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF23" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="BG23" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BH23" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="BI23" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BJ23" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BK23" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BL23" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BM23" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="BN23" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BO23" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BP23" t="n">
+        <v>1.17</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" s="1" t="n">
@@ -4608,6 +5744,54 @@
       <c r="AZ24" t="n">
         <v>15</v>
       </c>
+      <c r="BA24" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB24" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC24" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD24" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="BE24" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF24" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BG24" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BH24" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BI24" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BJ24" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK24" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BL24" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="BM24" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BN24" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BO24" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="BP24" t="n">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="25">
       <c r="A25" s="1" t="n">
@@ -4778,6 +5962,54 @@
       <c r="AZ25" t="n">
         <v>12</v>
       </c>
+      <c r="BA25" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB25" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC25" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD25" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE25" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF25" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BG25" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BH25" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BI25" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BJ25" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BK25" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BL25" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BM25" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="BN25" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BO25" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BP25" t="n">
+        <v>1.22</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" s="1" t="n">
@@ -4948,6 +6180,54 @@
       <c r="AZ26" t="n">
         <v>9</v>
       </c>
+      <c r="BA26" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB26" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC26" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD26" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BE26" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="BF26" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="BG26" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BH26" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BI26" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BJ26" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BK26" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BL26" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BM26" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BN26" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BO26" t="n">
+        <v>5.1</v>
+      </c>
+      <c r="BP26" t="n">
+        <v>1.15</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" s="1" t="n">
@@ -5118,6 +6398,54 @@
       <c r="AZ27" t="n">
         <v>4</v>
       </c>
+      <c r="BA27" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB27" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC27" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD27" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BE27" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="BF27" t="n">
+        <v>4</v>
+      </c>
+      <c r="BG27" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BH27" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="BI27" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BJ27" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BK27" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BL27" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BM27" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BN27" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BO27" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BP27" t="n">
+        <v>1.17</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" s="1" t="n">
@@ -5288,6 +6616,54 @@
       <c r="AZ28" t="n">
         <v>12</v>
       </c>
+      <c r="BA28" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB28" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC28" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD28" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE28" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF28" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BG28" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BH28" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BI28" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BJ28" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BK28" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BL28" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BM28" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="BN28" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BO28" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BP28" t="n">
+        <v>1.22</v>
+      </c>
     </row>
     <row r="29">
       <c r="A29" s="1" t="n">
@@ -5458,6 +6834,54 @@
       <c r="AZ29" t="n">
         <v>11</v>
       </c>
+      <c r="BA29" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB29" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC29" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD29" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BE29" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF29" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BG29" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BH29" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BI29" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BJ29" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BK29" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BL29" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BM29" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BN29" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BO29" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BP29" t="n">
+        <v>1.22</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" s="1" t="n">
@@ -5628,6 +7052,54 @@
       <c r="AZ30" t="n">
         <v>7</v>
       </c>
+      <c r="BA30" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB30" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC30" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD30" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BE30" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF30" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="BG30" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BH30" t="n">
+        <v>2.58</v>
+      </c>
+      <c r="BI30" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BJ30" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK30" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="BL30" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BM30" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BN30" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BO30" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BP30" t="n">
+        <v>1.17</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" s="1" t="n">
@@ -5798,6 +7270,54 @@
       <c r="AZ31" t="n">
         <v>6</v>
       </c>
+      <c r="BA31" t="n">
+        <v>12</v>
+      </c>
+      <c r="BB31" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC31" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD31" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BE31" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF31" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="BG31" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BH31" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BI31" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BJ31" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BK31" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BL31" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM31" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="BN31" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BO31" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BP31" t="n">
+        <v>1.32</v>
+      </c>
     </row>
     <row r="32">
       <c r="A32" s="1" t="n">
@@ -5968,6 +7488,54 @@
       <c r="AZ32" t="n">
         <v>17</v>
       </c>
+      <c r="BA32" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB32" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC32" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD32" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BE32" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF32" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BG32" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BH32" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BI32" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BJ32" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BK32" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BL32" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BM32" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BN32" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BO32" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BP32" t="n">
+        <v>1.15</v>
+      </c>
     </row>
     <row r="33">
       <c r="A33" s="1" t="n">
@@ -6138,6 +7706,54 @@
       <c r="AZ33" t="n">
         <v>8</v>
       </c>
+      <c r="BA33" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB33" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC33" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD33" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BE33" t="n">
+        <v>9.300000000000001</v>
+      </c>
+      <c r="BF33" t="n">
+        <v>3.22</v>
+      </c>
+      <c r="BG33" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BH33" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BI33" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BJ33" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BK33" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BL33" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BM33" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="BN33" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BO33" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BP33" t="n">
+        <v>1.22</v>
+      </c>
     </row>
     <row r="34">
       <c r="A34" s="1" t="n">
@@ -6308,6 +7924,54 @@
       <c r="AZ34" t="n">
         <v>7</v>
       </c>
+      <c r="BA34" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB34" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC34" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD34" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BE34" t="n">
+        <v>11</v>
+      </c>
+      <c r="BF34" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="BG34" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BH34" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="BI34" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BJ34" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BK34" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BL34" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BM34" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BN34" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO34" t="n">
+        <v>4</v>
+      </c>
+      <c r="BP34" t="n">
+        <v>1.2</v>
+      </c>
     </row>
     <row r="35">
       <c r="A35" s="1" t="n">
@@ -6478,6 +8142,54 @@
       <c r="AZ35" t="n">
         <v>6</v>
       </c>
+      <c r="BA35" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB35" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC35" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD35" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BE35" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF35" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BG35" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BH35" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BI35" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="BJ35" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BK35" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BL35" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BM35" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BN35" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BO35" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BP35" t="n">
+        <v>1.22</v>
+      </c>
     </row>
     <row r="36">
       <c r="A36" s="1" t="n">
@@ -6648,6 +8360,54 @@
       <c r="AZ36" t="n">
         <v>6</v>
       </c>
+      <c r="BA36" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB36" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC36" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD36" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BE36" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF36" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BG36" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BH36" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BI36" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BJ36" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BK36" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BL36" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BM36" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BN36" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BO36" t="n">
+        <v>4.7</v>
+      </c>
+      <c r="BP36" t="n">
+        <v>1.15</v>
+      </c>
     </row>
     <row r="37">
       <c r="A37" s="1" t="n">
@@ -6818,6 +8578,54 @@
       <c r="AZ37" t="n">
         <v>8</v>
       </c>
+      <c r="BA37" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB37" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC37" t="n">
+        <v>3</v>
+      </c>
+      <c r="BD37" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BE37" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF37" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="BG37" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BH37" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BI37" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BJ37" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BK37" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL37" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BM37" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BN37" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BO37" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BP37" t="n">
+        <v>1.26</v>
+      </c>
     </row>
     <row r="38">
       <c r="A38" s="1" t="n">
@@ -6988,6 +8796,54 @@
       <c r="AZ38" t="n">
         <v>6</v>
       </c>
+      <c r="BA38" t="n">
+        <v>14</v>
+      </c>
+      <c r="BB38" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC38" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD38" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BE38" t="n">
+        <v>9.699999999999999</v>
+      </c>
+      <c r="BF38" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BG38" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BH38" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BI38" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BJ38" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BK38" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="BL38" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BM38" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="BN38" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BO38" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP38" t="n">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="39">
       <c r="A39" s="1" t="n">
@@ -7158,6 +9014,54 @@
       <c r="AZ39" t="n">
         <v>7</v>
       </c>
+      <c r="BA39" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB39" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC39" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD39" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE39" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF39" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BG39" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BH39" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BI39" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BJ39" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BK39" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BL39" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BM39" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BN39" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BO39" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="BP39" t="n">
+        <v>1.11</v>
+      </c>
     </row>
     <row r="40">
       <c r="A40" s="1" t="n">
@@ -7328,6 +9232,54 @@
       <c r="AZ40" t="n">
         <v>7</v>
       </c>
+      <c r="BA40" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB40" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC40" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD40" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BE40" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF40" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="BG40" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BH40" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI40" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BJ40" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BK40" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BL40" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BM40" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BN40" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BO40" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP40" t="n">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="41">
       <c r="A41" s="1" t="n">
@@ -7498,6 +9450,54 @@
       <c r="AZ41" t="n">
         <v>10</v>
       </c>
+      <c r="BA41" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB41" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC41" t="n">
+        <v>16</v>
+      </c>
+      <c r="BD41" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="BE41" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF41" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BG41" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BH41" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BI41" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BJ41" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BK41" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BL41" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BM41" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BN41" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BO41" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BP41" t="n">
+        <v>1.29</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" s="1" t="n">
@@ -7668,6 +9668,54 @@
       <c r="AZ42" t="n">
         <v>11</v>
       </c>
+      <c r="BA42" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB42" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC42" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD42" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="BE42" t="n">
+        <v>11</v>
+      </c>
+      <c r="BF42" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BG42" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BH42" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BI42" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BJ42" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK42" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="BL42" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BM42" t="n">
+        <v>3</v>
+      </c>
+      <c r="BN42" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BO42" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="BP42" t="n">
+        <v>1.19</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" s="1" t="n">
@@ -7838,6 +9886,54 @@
       <c r="AZ43" t="n">
         <v>13</v>
       </c>
+      <c r="BA43" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB43" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC43" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD43" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE43" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF43" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BG43" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BH43" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BI43" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BJ43" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BK43" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BL43" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BM43" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BN43" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BO43" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="BP43" t="n">
+        <v>1.19</v>
+      </c>
     </row>
     <row r="44">
       <c r="A44" s="1" t="n">
@@ -8008,6 +10104,54 @@
       <c r="AZ44" t="n">
         <v>7</v>
       </c>
+      <c r="BA44" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB44" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC44" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD44" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BE44" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF44" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BG44" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BH44" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BI44" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BJ44" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BK44" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BL44" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BM44" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BN44" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BO44" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BP44" t="n">
+        <v>1.29</v>
+      </c>
     </row>
     <row r="45">
       <c r="A45" s="1" t="n">
@@ -8178,6 +10322,54 @@
       <c r="AZ45" t="n">
         <v>13</v>
       </c>
+      <c r="BA45" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB45" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC45" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD45" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="BE45" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF45" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BG45" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH45" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BI45" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BJ45" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BK45" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BL45" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BM45" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BN45" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BO45" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BP45" t="n">
+        <v>1.3</v>
+      </c>
     </row>
     <row r="46">
       <c r="A46" s="1" t="n">
@@ -8348,6 +10540,54 @@
       <c r="AZ46" t="n">
         <v>8</v>
       </c>
+      <c r="BA46" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB46" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC46" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD46" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BE46" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF46" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BG46" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BH46" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BI46" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BJ46" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BK46" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BL46" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BM46" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BN46" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BO46" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="BP46" t="n">
+        <v>1.15</v>
+      </c>
     </row>
     <row r="47">
       <c r="A47" s="1" t="n">
@@ -8501,10 +10741,10 @@
         <v>2.67</v>
       </c>
       <c r="AU47" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AV47" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AW47" t="n">
         <v>5</v>
@@ -8513,10 +10753,58 @@
         <v>7</v>
       </c>
       <c r="AY47" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="AZ47" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA47" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB47" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC47" t="n">
         <v>13</v>
+      </c>
+      <c r="BD47" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE47" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF47" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BG47" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BH47" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="BI47" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BJ47" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BK47" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BL47" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BM47" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BN47" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BO47" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BP47" t="n">
+        <v>1.19</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP47"/>
+  <dimension ref="A1:BP52"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,10 +916,10 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ2" t="n">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1134,10 +1134,10 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ4" t="n">
         <v>0.4</v>
@@ -1573,7 +1573,7 @@
         <v>2</v>
       </c>
       <c r="AQ5" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -1788,10 +1788,10 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -3096,10 +3096,10 @@
         <v>1</v>
       </c>
       <c r="AP12" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ12" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR12" t="n">
         <v>1.99</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -3532,10 +3532,10 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR14" t="n">
         <v>1.29</v>
@@ -3750,10 +3750,10 @@
         <v>1</v>
       </c>
       <c r="AP15" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR15" t="n">
         <v>2.17</v>
@@ -3971,7 +3971,7 @@
         <v>2</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR16" t="n">
         <v>1.69</v>
@@ -4622,10 +4622,10 @@
         <v>0.5</v>
       </c>
       <c r="AP19" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR19" t="n">
         <v>1.39</v>
@@ -4843,7 +4843,7 @@
         <v>0</v>
       </c>
       <c r="AQ20" t="n">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AR20" t="n">
         <v>1.48</v>
@@ -5058,10 +5058,10 @@
         <v>1</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR21" t="n">
         <v>2.38</v>
@@ -5276,7 +5276,7 @@
         <v>0</v>
       </c>
       <c r="AP22" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ22" t="n">
         <v>1.2</v>
@@ -5715,7 +5715,7 @@
         <v>2</v>
       </c>
       <c r="AQ24" t="n">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AR24" t="n">
         <v>1.61</v>
@@ -5930,7 +5930,7 @@
         <v>2</v>
       </c>
       <c r="AP25" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ25" t="n">
         <v>1</v>
@@ -6151,7 +6151,7 @@
         <v>0.4</v>
       </c>
       <c r="AQ26" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR26" t="n">
         <v>1.3</v>
@@ -6366,7 +6366,7 @@
         <v>0</v>
       </c>
       <c r="AP27" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ27" t="n">
         <v>1.5</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AP28" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ28" t="n">
         <v>1.2</v>
@@ -6805,7 +6805,7 @@
         <v>0</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR29" t="n">
         <v>1.5</v>
@@ -7023,7 +7023,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR30" t="n">
         <v>2.07</v>
@@ -7238,10 +7238,10 @@
         <v>1</v>
       </c>
       <c r="AP31" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ31" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR31" t="n">
         <v>2.62</v>
@@ -7456,7 +7456,7 @@
         <v>3</v>
       </c>
       <c r="AP32" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ32" t="n">
         <v>2.25</v>
@@ -7674,10 +7674,10 @@
         <v>0.25</v>
       </c>
       <c r="AP33" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ33" t="n">
-        <v>0.2</v>
+        <v>0.17</v>
       </c>
       <c r="AR33" t="n">
         <v>1.8</v>
@@ -7892,7 +7892,7 @@
         <v>0.5</v>
       </c>
       <c r="AP34" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ34" t="n">
         <v>0.4</v>
@@ -8110,7 +8110,7 @@
         <v>1.67</v>
       </c>
       <c r="AP35" t="n">
-        <v>2.6</v>
+        <v>2.67</v>
       </c>
       <c r="AQ35" t="n">
         <v>1</v>
@@ -8331,7 +8331,7 @@
         <v>2</v>
       </c>
       <c r="AQ36" t="n">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AR36" t="n">
         <v>1.66</v>
@@ -8549,7 +8549,7 @@
         <v>2</v>
       </c>
       <c r="AQ37" t="n">
-        <v>1</v>
+        <v>0.83</v>
       </c>
       <c r="AR37" t="n">
         <v>1.58</v>
@@ -8764,10 +8764,10 @@
         <v>1</v>
       </c>
       <c r="AP38" t="n">
-        <v>1.75</v>
+        <v>2</v>
       </c>
       <c r="AQ38" t="n">
-        <v>1</v>
+        <v>0.8</v>
       </c>
       <c r="AR38" t="n">
         <v>1.91</v>
@@ -8985,7 +8985,7 @@
         <v>0.4</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR39" t="n">
         <v>1.41</v>
@@ -9418,7 +9418,7 @@
         <v>0</v>
       </c>
       <c r="AP41" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ41" t="n">
         <v>1.5</v>
@@ -9857,7 +9857,7 @@
         <v>2</v>
       </c>
       <c r="AQ43" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR43" t="n">
         <v>1.51</v>
@@ -10072,7 +10072,7 @@
         <v>1.25</v>
       </c>
       <c r="AP44" t="n">
-        <v>1.4</v>
+        <v>1.67</v>
       </c>
       <c r="AQ44" t="n">
         <v>1</v>
@@ -10805,6 +10805,1096 @@
       </c>
       <c r="BP47" t="n">
         <v>1.19</v>
+      </c>
+    </row>
+    <row r="48">
+      <c r="A48" s="1" t="n">
+        <v>47</v>
+      </c>
+      <c r="B48" t="n">
+        <v>6441739</v>
+      </c>
+      <c r="C48" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D48" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E48" s="2" t="n">
+        <v>45205.54166666666</v>
+      </c>
+      <c r="F48" t="n">
+        <v>11</v>
+      </c>
+      <c r="G48" t="inlineStr">
+        <is>
+          <t>Slaven Koprivnica</t>
+        </is>
+      </c>
+      <c r="H48" t="inlineStr">
+        <is>
+          <t>Varaždin</t>
+        </is>
+      </c>
+      <c r="I48" t="n">
+        <v>2</v>
+      </c>
+      <c r="J48" t="n">
+        <v>2</v>
+      </c>
+      <c r="K48" t="n">
+        <v>4</v>
+      </c>
+      <c r="L48" t="n">
+        <v>3</v>
+      </c>
+      <c r="M48" t="n">
+        <v>2</v>
+      </c>
+      <c r="N48" t="n">
+        <v>5</v>
+      </c>
+      <c r="O48" t="inlineStr">
+        <is>
+          <t>['16', '18', '82']</t>
+        </is>
+      </c>
+      <c r="P48" t="inlineStr">
+        <is>
+          <t>['31', '38']</t>
+        </is>
+      </c>
+      <c r="Q48" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="R48" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S48" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="T48" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U48" t="n">
+        <v>3</v>
+      </c>
+      <c r="V48" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W48" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X48" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y48" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z48" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AA48" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AB48" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AC48" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD48" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE48" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF48" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AG48" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AH48" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AI48" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AJ48" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK48" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AL48" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM48" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AN48" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO48" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP48" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ48" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AR48" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AS48" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AT48" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AU48" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV48" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW48" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX48" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY48" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ48" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA48" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB48" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC48" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD48" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BE48" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF48" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BG48" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH48" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BI48" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BJ48" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BK48" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BL48" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM48" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BN48" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BO48" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BP48" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="49">
+      <c r="A49" s="1" t="n">
+        <v>48</v>
+      </c>
+      <c r="B49" t="n">
+        <v>6441740</v>
+      </c>
+      <c r="C49" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D49" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E49" s="2" t="n">
+        <v>45206.45833333334</v>
+      </c>
+      <c r="F49" t="n">
+        <v>11</v>
+      </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>Osijek</t>
+        </is>
+      </c>
+      <c r="H49" t="inlineStr">
+        <is>
+          <t>Rudeš</t>
+        </is>
+      </c>
+      <c r="I49" t="n">
+        <v>1</v>
+      </c>
+      <c r="J49" t="n">
+        <v>0</v>
+      </c>
+      <c r="K49" t="n">
+        <v>1</v>
+      </c>
+      <c r="L49" t="n">
+        <v>3</v>
+      </c>
+      <c r="M49" t="n">
+        <v>0</v>
+      </c>
+      <c r="N49" t="n">
+        <v>3</v>
+      </c>
+      <c r="O49" t="inlineStr">
+        <is>
+          <t>['45+1', '80', '90+5']</t>
+        </is>
+      </c>
+      <c r="P49" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q49" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="R49" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="S49" t="n">
+        <v>6</v>
+      </c>
+      <c r="T49" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="U49" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="V49" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="W49" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="X49" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="Y49" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Z49" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA49" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB49" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AC49" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD49" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE49" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AF49" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AG49" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AH49" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AI49" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AJ49" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AK49" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AL49" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AM49" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AN49" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AO49" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="AP49" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ49" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AR49" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AS49" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AT49" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AU49" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV49" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW49" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX49" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY49" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ49" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA49" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB49" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC49" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD49" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BE49" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF49" t="n">
+        <v>4.65</v>
+      </c>
+      <c r="BG49" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BH49" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BI49" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BJ49" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BK49" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BL49" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BM49" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BN49" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BO49" t="n">
+        <v>3</v>
+      </c>
+      <c r="BP49" t="n">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="50">
+      <c r="A50" s="1" t="n">
+        <v>49</v>
+      </c>
+      <c r="B50" t="n">
+        <v>6441741</v>
+      </c>
+      <c r="C50" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D50" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E50" s="2" t="n">
+        <v>45206.5625</v>
+      </c>
+      <c r="F50" t="n">
+        <v>11</v>
+      </c>
+      <c r="G50" t="inlineStr">
+        <is>
+          <t>Rijeka</t>
+        </is>
+      </c>
+      <c r="H50" t="inlineStr">
+        <is>
+          <t>Hajduk Split</t>
+        </is>
+      </c>
+      <c r="I50" t="n">
+        <v>0</v>
+      </c>
+      <c r="J50" t="n">
+        <v>0</v>
+      </c>
+      <c r="K50" t="n">
+        <v>0</v>
+      </c>
+      <c r="L50" t="n">
+        <v>1</v>
+      </c>
+      <c r="M50" t="n">
+        <v>0</v>
+      </c>
+      <c r="N50" t="n">
+        <v>1</v>
+      </c>
+      <c r="O50" t="inlineStr">
+        <is>
+          <t>['63']</t>
+        </is>
+      </c>
+      <c r="P50" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q50" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="R50" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S50" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="T50" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="U50" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="V50" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="W50" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X50" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Y50" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z50" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AA50" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB50" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AC50" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD50" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE50" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF50" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG50" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH50" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AI50" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ50" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK50" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL50" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM50" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AN50" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="AO50" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AP50" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AQ50" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AR50" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AS50" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AT50" t="n">
+        <v>3.89</v>
+      </c>
+      <c r="AU50" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV50" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW50" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX50" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY50" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ50" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA50" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB50" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC50" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD50" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BE50" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF50" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BG50" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BH50" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BI50" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BJ50" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BK50" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL50" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="BM50" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="BN50" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BO50" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP50" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="51">
+      <c r="A51" s="1" t="n">
+        <v>50</v>
+      </c>
+      <c r="B51" t="n">
+        <v>6441743</v>
+      </c>
+      <c r="C51" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D51" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E51" s="2" t="n">
+        <v>45207.41666666666</v>
+      </c>
+      <c r="F51" t="n">
+        <v>11</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>Lokomotiva Zagreb</t>
+        </is>
+      </c>
+      <c r="H51" t="inlineStr">
+        <is>
+          <t>Gorica</t>
+        </is>
+      </c>
+      <c r="I51" t="n">
+        <v>0</v>
+      </c>
+      <c r="J51" t="n">
+        <v>0</v>
+      </c>
+      <c r="K51" t="n">
+        <v>0</v>
+      </c>
+      <c r="L51" t="n">
+        <v>1</v>
+      </c>
+      <c r="M51" t="n">
+        <v>1</v>
+      </c>
+      <c r="N51" t="n">
+        <v>2</v>
+      </c>
+      <c r="O51" t="inlineStr">
+        <is>
+          <t>['51']</t>
+        </is>
+      </c>
+      <c r="P51" t="inlineStr">
+        <is>
+          <t>['77']</t>
+        </is>
+      </c>
+      <c r="Q51" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="R51" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S51" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T51" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="U51" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="V51" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W51" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X51" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y51" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z51" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AA51" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB51" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AC51" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD51" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE51" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF51" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AG51" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH51" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AI51" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AJ51" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK51" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AL51" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM51" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AN51" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO51" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AP51" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ51" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR51" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AS51" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AT51" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AU51" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV51" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW51" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX51" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY51" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ51" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA51" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB51" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC51" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD51" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BE51" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF51" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BG51" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BH51" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BI51" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BJ51" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BK51" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BL51" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BM51" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BN51" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BO51" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BP51" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="52">
+      <c r="A52" s="1" t="n">
+        <v>51</v>
+      </c>
+      <c r="B52" t="n">
+        <v>6441742</v>
+      </c>
+      <c r="C52" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D52" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E52" s="2" t="n">
+        <v>45207.51041666666</v>
+      </c>
+      <c r="F52" t="n">
+        <v>11</v>
+      </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>Dinamo Zagreb</t>
+        </is>
+      </c>
+      <c r="H52" t="inlineStr">
+        <is>
+          <t>Istra 1961</t>
+        </is>
+      </c>
+      <c r="I52" t="n">
+        <v>1</v>
+      </c>
+      <c r="J52" t="n">
+        <v>0</v>
+      </c>
+      <c r="K52" t="n">
+        <v>1</v>
+      </c>
+      <c r="L52" t="n">
+        <v>3</v>
+      </c>
+      <c r="M52" t="n">
+        <v>0</v>
+      </c>
+      <c r="N52" t="n">
+        <v>3</v>
+      </c>
+      <c r="O52" t="inlineStr">
+        <is>
+          <t>['15', '59', '67']</t>
+        </is>
+      </c>
+      <c r="P52" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q52" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="R52" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="S52" t="n">
+        <v>11</v>
+      </c>
+      <c r="T52" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="U52" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="V52" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="W52" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="X52" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="Y52" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z52" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AA52" t="n">
+        <v>7</v>
+      </c>
+      <c r="AB52" t="n">
+        <v>19</v>
+      </c>
+      <c r="AC52" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD52" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE52" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AF52" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AG52" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AH52" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AI52" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ52" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AK52" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AL52" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AM52" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AN52" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AO52" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP52" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ52" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AR52" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AS52" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AT52" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="AU52" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV52" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW52" t="n">
+        <v>10</v>
+      </c>
+      <c r="AX52" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY52" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ52" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA52" t="n">
+        <v>10</v>
+      </c>
+      <c r="BB52" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC52" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD52" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="BE52" t="n">
+        <v>12</v>
+      </c>
+      <c r="BF52" t="n">
+        <v>8.699999999999999</v>
+      </c>
+      <c r="BG52" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BH52" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BI52" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="BJ52" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BK52" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BL52" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BM52" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BN52" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BO52" t="n">
+        <v>5.3</v>
+      </c>
+      <c r="BP52" t="n">
+        <v>1.12</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
@@ -11395,22 +11395,22 @@
         <v>3.89</v>
       </c>
       <c r="AU50" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV50" t="n">
         <v>3</v>
       </c>
       <c r="AW50" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX50" t="n">
         <v>5</v>
-      </c>
-      <c r="AX50" t="n">
-        <v>4</v>
       </c>
       <c r="AY50" t="n">
         <v>8</v>
       </c>
       <c r="AZ50" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA50" t="n">
         <v>7</v>
@@ -11613,22 +11613,22 @@
         <v>3.09</v>
       </c>
       <c r="AU51" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV51" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW51" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX51" t="n">
         <v>3</v>
       </c>
-      <c r="AV51" t="n">
-        <v>5</v>
-      </c>
-      <c r="AW51" t="n">
-        <v>6</v>
-      </c>
-      <c r="AX51" t="n">
-        <v>2</v>
-      </c>
       <c r="AY51" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ51" t="n">
         <v>9</v>
-      </c>
-      <c r="AZ51" t="n">
-        <v>7</v>
       </c>
       <c r="BA51" t="n">
         <v>4</v>
@@ -11831,22 +11831,22 @@
         <v>2.91</v>
       </c>
       <c r="AU52" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV52" t="n">
         <v>2</v>
       </c>
       <c r="AW52" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AX52" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="AY52" t="n">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="AZ52" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="BA52" t="n">
         <v>10</v>

--- a/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>

--- a/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP52"/>
+  <dimension ref="A1:BP53"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1355,7 +1355,7 @@
         <v>2</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -2009,7 +2009,7 @@
         <v>2</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="AQ10" t="n">
         <v>1</v>
@@ -4407,7 +4407,7 @@
         <v>2.4</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AR18" t="n">
         <v>1.98</v>
@@ -4840,7 +4840,7 @@
         <v>3</v>
       </c>
       <c r="AP20" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="AQ20" t="n">
         <v>1.8</v>
@@ -5497,7 +5497,7 @@
         <v>2</v>
       </c>
       <c r="AQ23" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AR23" t="n">
         <v>1.73</v>
@@ -6802,7 +6802,7 @@
         <v>0.5</v>
       </c>
       <c r="AP29" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="AQ29" t="n">
         <v>1.33</v>
@@ -7895,7 +7895,7 @@
         <v>2</v>
       </c>
       <c r="AQ34" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AR34" t="n">
         <v>1.83</v>
@@ -9636,7 +9636,7 @@
         <v>3</v>
       </c>
       <c r="AP42" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="AQ42" t="n">
         <v>2.25</v>
@@ -10290,7 +10290,7 @@
         <v>1</v>
       </c>
       <c r="AP45" t="n">
-        <v>0</v>
+        <v>0.17</v>
       </c>
       <c r="AQ45" t="n">
         <v>1.5</v>
@@ -11895,6 +11895,224 @@
       </c>
       <c r="BP52" t="n">
         <v>1.12</v>
+      </c>
+    </row>
+    <row r="53">
+      <c r="A53" s="1" t="n">
+        <v>52</v>
+      </c>
+      <c r="B53" t="n">
+        <v>6441748</v>
+      </c>
+      <c r="C53" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D53" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E53" s="2" t="n">
+        <v>45219.54166666666</v>
+      </c>
+      <c r="F53" t="n">
+        <v>12</v>
+      </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>Rudeš</t>
+        </is>
+      </c>
+      <c r="H53" t="inlineStr">
+        <is>
+          <t>Slaven Koprivnica</t>
+        </is>
+      </c>
+      <c r="I53" t="n">
+        <v>0</v>
+      </c>
+      <c r="J53" t="n">
+        <v>0</v>
+      </c>
+      <c r="K53" t="n">
+        <v>0</v>
+      </c>
+      <c r="L53" t="n">
+        <v>0</v>
+      </c>
+      <c r="M53" t="n">
+        <v>0</v>
+      </c>
+      <c r="N53" t="n">
+        <v>0</v>
+      </c>
+      <c r="O53" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P53" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q53" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="R53" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S53" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T53" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U53" t="n">
+        <v>3</v>
+      </c>
+      <c r="V53" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W53" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X53" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y53" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z53" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AA53" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AB53" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="AC53" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD53" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE53" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF53" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AG53" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AH53" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AI53" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ53" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK53" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AL53" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM53" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AN53" t="n">
+        <v>0</v>
+      </c>
+      <c r="AO53" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AP53" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AQ53" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AR53" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS53" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AT53" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AU53" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV53" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW53" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX53" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY53" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ53" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA53" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB53" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC53" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD53" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE53" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF53" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BG53" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BH53" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BI53" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BJ53" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="BK53" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BL53" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BM53" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BN53" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BO53" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BP53" t="n">
+        <v>1.29</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP53"/>
+  <dimension ref="A1:BP57"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ5" t="n">
         <v>0.8</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ7" t="n">
         <v>0.5</v>
@@ -2224,10 +2224,10 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AR8" t="n">
         <v>2.02</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AQ9" t="n">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -2663,7 +2663,7 @@
         <v>0.17</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -2878,10 +2878,10 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3968,7 +3968,7 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ16" t="n">
         <v>0.17</v>
@@ -4186,10 +4186,10 @@
         <v>3</v>
       </c>
       <c r="AP17" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR17" t="n">
         <v>0.82</v>
@@ -4404,7 +4404,7 @@
         <v>0.5</v>
       </c>
       <c r="AP18" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ18" t="n">
         <v>0.5</v>
@@ -5279,7 +5279,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AR22" t="n">
         <v>2.49</v>
@@ -5494,7 +5494,7 @@
         <v>0.33</v>
       </c>
       <c r="AP23" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ23" t="n">
         <v>0.5</v>
@@ -5712,7 +5712,7 @@
         <v>3</v>
       </c>
       <c r="AP24" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ24" t="n">
         <v>1.8</v>
@@ -5933,7 +5933,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR25" t="n">
         <v>1.89</v>
@@ -6148,7 +6148,7 @@
         <v>0</v>
       </c>
       <c r="AP26" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AQ26" t="n">
         <v>0.17</v>
@@ -6369,7 +6369,7 @@
         <v>2</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR27" t="n">
         <v>1.7</v>
@@ -6587,7 +6587,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AR28" t="n">
         <v>1.1</v>
@@ -7020,7 +7020,7 @@
         <v>0.67</v>
       </c>
       <c r="AP30" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ30" t="n">
         <v>0.83</v>
@@ -7459,7 +7459,7 @@
         <v>2</v>
       </c>
       <c r="AQ32" t="n">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AR32" t="n">
         <v>2.06</v>
@@ -8113,7 +8113,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ35" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR35" t="n">
         <v>2.48</v>
@@ -8328,7 +8328,7 @@
         <v>3</v>
       </c>
       <c r="AP36" t="n">
-        <v>2</v>
+        <v>2.2</v>
       </c>
       <c r="AQ36" t="n">
         <v>1.8</v>
@@ -8546,7 +8546,7 @@
         <v>1.25</v>
       </c>
       <c r="AP37" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ37" t="n">
         <v>0.83</v>
@@ -8982,7 +8982,7 @@
         <v>1.33</v>
       </c>
       <c r="AP39" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AQ39" t="n">
         <v>1.33</v>
@@ -9200,10 +9200,10 @@
         <v>1</v>
       </c>
       <c r="AP40" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ40" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AR40" t="n">
         <v>1.89</v>
@@ -9421,7 +9421,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ41" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR41" t="n">
         <v>1.05</v>
@@ -9639,7 +9639,7 @@
         <v>0.17</v>
       </c>
       <c r="AQ42" t="n">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AR42" t="n">
         <v>1.73</v>
@@ -9854,7 +9854,7 @@
         <v>1.75</v>
       </c>
       <c r="AP43" t="n">
-        <v>2</v>
+        <v>1.83</v>
       </c>
       <c r="AQ43" t="n">
         <v>1.33</v>
@@ -10075,7 +10075,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ44" t="n">
-        <v>1</v>
+        <v>1.33</v>
       </c>
       <c r="AR44" t="n">
         <v>1.11</v>
@@ -10293,7 +10293,7 @@
         <v>0.17</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AR45" t="n">
         <v>1.46</v>
@@ -10508,10 +10508,10 @@
         <v>3</v>
       </c>
       <c r="AP46" t="n">
-        <v>2.4</v>
+        <v>2</v>
       </c>
       <c r="AQ46" t="n">
-        <v>2.25</v>
+        <v>1.8</v>
       </c>
       <c r="AR46" t="n">
         <v>1.9</v>
@@ -10726,10 +10726,10 @@
         <v>0.75</v>
       </c>
       <c r="AP47" t="n">
-        <v>0.4</v>
+        <v>0.5</v>
       </c>
       <c r="AQ47" t="n">
-        <v>1.2</v>
+        <v>1.17</v>
       </c>
       <c r="AR47" t="n">
         <v>1.43</v>
@@ -12055,25 +12055,25 @@
         <v>6</v>
       </c>
       <c r="AW53" t="n">
-        <v>1</v>
+        <v>5</v>
       </c>
       <c r="AX53" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY53" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AZ53" t="n">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="BA53" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="BB53" t="n">
         <v>9</v>
       </c>
       <c r="BC53" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BD53" t="n">
         <v>1.95</v>
@@ -12113,6 +12113,878 @@
       </c>
       <c r="BP53" t="n">
         <v>1.29</v>
+      </c>
+    </row>
+    <row r="54">
+      <c r="A54" s="1" t="n">
+        <v>53</v>
+      </c>
+      <c r="B54" t="n">
+        <v>6441744</v>
+      </c>
+      <c r="C54" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D54" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E54" s="2" t="n">
+        <v>45220.45833333334</v>
+      </c>
+      <c r="F54" t="n">
+        <v>12</v>
+      </c>
+      <c r="G54" t="inlineStr">
+        <is>
+          <t>Varaždin</t>
+        </is>
+      </c>
+      <c r="H54" t="inlineStr">
+        <is>
+          <t>Lokomotiva Zagreb</t>
+        </is>
+      </c>
+      <c r="I54" t="n">
+        <v>0</v>
+      </c>
+      <c r="J54" t="n">
+        <v>0</v>
+      </c>
+      <c r="K54" t="n">
+        <v>0</v>
+      </c>
+      <c r="L54" t="n">
+        <v>0</v>
+      </c>
+      <c r="M54" t="n">
+        <v>0</v>
+      </c>
+      <c r="N54" t="n">
+        <v>0</v>
+      </c>
+      <c r="O54" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P54" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q54" t="n">
+        <v>3</v>
+      </c>
+      <c r="R54" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S54" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="T54" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U54" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V54" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W54" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X54" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y54" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z54" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AA54" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="AB54" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AC54" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD54" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE54" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF54" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AG54" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AH54" t="n">
+        <v>1.79</v>
+      </c>
+      <c r="AI54" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AJ54" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK54" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL54" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM54" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN54" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO54" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP54" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AQ54" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AR54" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AS54" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AT54" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AU54" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV54" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW54" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX54" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY54" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ54" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA54" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB54" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC54" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD54" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE54" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF54" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BG54" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BH54" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BI54" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BJ54" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BK54" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BL54" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BM54" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="BN54" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BO54" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BP54" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="55">
+      <c r="A55" s="1" t="n">
+        <v>54</v>
+      </c>
+      <c r="B55" t="n">
+        <v>6441745</v>
+      </c>
+      <c r="C55" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D55" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E55" s="2" t="n">
+        <v>45220.54861111111</v>
+      </c>
+      <c r="F55" t="n">
+        <v>12</v>
+      </c>
+      <c r="G55" t="inlineStr">
+        <is>
+          <t>Gorica</t>
+        </is>
+      </c>
+      <c r="H55" t="inlineStr">
+        <is>
+          <t>Dinamo Zagreb</t>
+        </is>
+      </c>
+      <c r="I55" t="n">
+        <v>0</v>
+      </c>
+      <c r="J55" t="n">
+        <v>0</v>
+      </c>
+      <c r="K55" t="n">
+        <v>0</v>
+      </c>
+      <c r="L55" t="n">
+        <v>2</v>
+      </c>
+      <c r="M55" t="n">
+        <v>1</v>
+      </c>
+      <c r="N55" t="n">
+        <v>3</v>
+      </c>
+      <c r="O55" t="inlineStr">
+        <is>
+          <t>['70', '90+2']</t>
+        </is>
+      </c>
+      <c r="P55" t="inlineStr">
+        <is>
+          <t>['63']</t>
+        </is>
+      </c>
+      <c r="Q55" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="R55" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S55" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="T55" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U55" t="n">
+        <v>3</v>
+      </c>
+      <c r="V55" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W55" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X55" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y55" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z55" t="n">
+        <v>5.88</v>
+      </c>
+      <c r="AA55" t="n">
+        <v>4.06</v>
+      </c>
+      <c r="AB55" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AC55" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD55" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE55" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF55" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AG55" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AH55" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AI55" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ55" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK55" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AL55" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AM55" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AN55" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO55" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AP55" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AQ55" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AR55" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AS55" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AT55" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AU55" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV55" t="n">
+        <v>10</v>
+      </c>
+      <c r="AW55" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX55" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY55" t="n">
+        <v>3</v>
+      </c>
+      <c r="AZ55" t="n">
+        <v>21</v>
+      </c>
+      <c r="BA55" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB55" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC55" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD55" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="BE55" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF55" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BG55" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BH55" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BI55" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ55" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BK55" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BL55" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BM55" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BN55" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BO55" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP55" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="56">
+      <c r="A56" s="1" t="n">
+        <v>55</v>
+      </c>
+      <c r="B56" t="n">
+        <v>6441746</v>
+      </c>
+      <c r="C56" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D56" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E56" s="2" t="n">
+        <v>45221.41666666666</v>
+      </c>
+      <c r="F56" t="n">
+        <v>12</v>
+      </c>
+      <c r="G56" t="inlineStr">
+        <is>
+          <t>Istra 1961</t>
+        </is>
+      </c>
+      <c r="H56" t="inlineStr">
+        <is>
+          <t>Rijeka</t>
+        </is>
+      </c>
+      <c r="I56" t="n">
+        <v>0</v>
+      </c>
+      <c r="J56" t="n">
+        <v>1</v>
+      </c>
+      <c r="K56" t="n">
+        <v>1</v>
+      </c>
+      <c r="L56" t="n">
+        <v>1</v>
+      </c>
+      <c r="M56" t="n">
+        <v>1</v>
+      </c>
+      <c r="N56" t="n">
+        <v>2</v>
+      </c>
+      <c r="O56" t="inlineStr">
+        <is>
+          <t>['48']</t>
+        </is>
+      </c>
+      <c r="P56" t="inlineStr">
+        <is>
+          <t>['21']</t>
+        </is>
+      </c>
+      <c r="Q56" t="n">
+        <v>5</v>
+      </c>
+      <c r="R56" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S56" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="T56" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U56" t="n">
+        <v>3</v>
+      </c>
+      <c r="V56" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W56" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X56" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y56" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z56" t="n">
+        <v>4.71</v>
+      </c>
+      <c r="AA56" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB56" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AC56" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD56" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE56" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF56" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AG56" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AH56" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI56" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ56" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK56" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AL56" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AM56" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AN56" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="AO56" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AP56" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AQ56" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AR56" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AS56" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AT56" t="n">
+        <v>2.56</v>
+      </c>
+      <c r="AU56" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV56" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW56" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX56" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY56" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ56" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA56" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB56" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC56" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD56" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="BE56" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF56" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BG56" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BH56" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BI56" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BJ56" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BK56" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BL56" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BM56" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BN56" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BO56" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="BP56" t="n">
+        <v>1.17</v>
+      </c>
+    </row>
+    <row r="57">
+      <c r="A57" s="1" t="n">
+        <v>56</v>
+      </c>
+      <c r="B57" t="n">
+        <v>6441747</v>
+      </c>
+      <c r="C57" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D57" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E57" s="2" t="n">
+        <v>45221.54166666666</v>
+      </c>
+      <c r="F57" t="n">
+        <v>12</v>
+      </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>Hajduk Split</t>
+        </is>
+      </c>
+      <c r="H57" t="inlineStr">
+        <is>
+          <t>Osijek</t>
+        </is>
+      </c>
+      <c r="I57" t="n">
+        <v>0</v>
+      </c>
+      <c r="J57" t="n">
+        <v>0</v>
+      </c>
+      <c r="K57" t="n">
+        <v>0</v>
+      </c>
+      <c r="L57" t="n">
+        <v>0</v>
+      </c>
+      <c r="M57" t="n">
+        <v>2</v>
+      </c>
+      <c r="N57" t="n">
+        <v>2</v>
+      </c>
+      <c r="O57" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P57" t="inlineStr">
+        <is>
+          <t>['46', '74']</t>
+        </is>
+      </c>
+      <c r="Q57" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R57" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S57" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T57" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U57" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V57" t="n">
+        <v>3</v>
+      </c>
+      <c r="W57" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X57" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y57" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z57" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AA57" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AB57" t="n">
+        <v>4.85</v>
+      </c>
+      <c r="AC57" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD57" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE57" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF57" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AG57" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AH57" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AI57" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ57" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK57" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AL57" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM57" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AN57" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AO57" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP57" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ57" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR57" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AS57" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AT57" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AU57" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV57" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW57" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX57" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY57" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ57" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA57" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB57" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC57" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD57" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BE57" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF57" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="BG57" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BH57" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BI57" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BJ57" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BK57" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BL57" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BM57" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BN57" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BO57" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BP57" t="n">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
@@ -12485,22 +12485,22 @@
         <v>3.35</v>
       </c>
       <c r="AU55" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV55" t="n">
         <v>10</v>
       </c>
       <c r="AW55" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX55" t="n">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="AY55" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AZ55" t="n">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="BA55" t="n">
         <v>2</v>
@@ -12709,13 +12709,13 @@
         <v>8</v>
       </c>
       <c r="AW56" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX56" t="n">
         <v>4</v>
       </c>
       <c r="AY56" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ56" t="n">
         <v>12</v>
@@ -12921,31 +12921,31 @@
         <v>3.17</v>
       </c>
       <c r="AU57" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AV57" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW57" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX57" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY57" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ57" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA57" t="n">
         <v>3</v>
       </c>
-      <c r="AW57" t="n">
-        <v>7</v>
-      </c>
-      <c r="AX57" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY57" t="n">
-        <v>7</v>
-      </c>
-      <c r="AZ57" t="n">
-        <v>4</v>
-      </c>
-      <c r="BA57" t="n">
-        <v>2</v>
-      </c>
       <c r="BB57" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="BC57" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BD57" t="n">
         <v>1.41</v>

--- a/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP57"/>
+  <dimension ref="A1:BP58"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,7 +919,7 @@
         <v>2</v>
       </c>
       <c r="AQ2" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ13" t="n">
         <v>0.17</v>
@@ -4622,7 +4622,7 @@
         <v>0.5</v>
       </c>
       <c r="AP19" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ19" t="n">
         <v>0.83</v>
@@ -4843,7 +4843,7 @@
         <v>0.17</v>
       </c>
       <c r="AQ20" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR20" t="n">
         <v>1.48</v>
@@ -5715,7 +5715,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ24" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR24" t="n">
         <v>1.61</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AP28" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ28" t="n">
         <v>1.17</v>
@@ -8331,7 +8331,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ36" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR36" t="n">
         <v>1.66</v>
@@ -9418,7 +9418,7 @@
         <v>0</v>
       </c>
       <c r="AP41" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ41" t="n">
         <v>1.4</v>
@@ -10072,7 +10072,7 @@
         <v>1.25</v>
       </c>
       <c r="AP44" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ44" t="n">
         <v>1.33</v>
@@ -10944,7 +10944,7 @@
         <v>1</v>
       </c>
       <c r="AP48" t="n">
-        <v>1.67</v>
+        <v>1.43</v>
       </c>
       <c r="AQ48" t="n">
         <v>0.8</v>
@@ -11383,7 +11383,7 @@
         <v>2.67</v>
       </c>
       <c r="AQ50" t="n">
-        <v>1.8</v>
+        <v>2</v>
       </c>
       <c r="AR50" t="n">
         <v>2.42</v>
@@ -12985,6 +12985,224 @@
       </c>
       <c r="BP57" t="n">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="58">
+      <c r="A58" s="1" t="n">
+        <v>57</v>
+      </c>
+      <c r="B58" t="n">
+        <v>6441750</v>
+      </c>
+      <c r="C58" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D58" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E58" s="2" t="n">
+        <v>45226.54166666666</v>
+      </c>
+      <c r="F58" t="n">
+        <v>13</v>
+      </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>Slaven Koprivnica</t>
+        </is>
+      </c>
+      <c r="H58" t="inlineStr">
+        <is>
+          <t>Hajduk Split</t>
+        </is>
+      </c>
+      <c r="I58" t="n">
+        <v>0</v>
+      </c>
+      <c r="J58" t="n">
+        <v>1</v>
+      </c>
+      <c r="K58" t="n">
+        <v>1</v>
+      </c>
+      <c r="L58" t="n">
+        <v>0</v>
+      </c>
+      <c r="M58" t="n">
+        <v>1</v>
+      </c>
+      <c r="N58" t="n">
+        <v>1</v>
+      </c>
+      <c r="O58" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P58" t="inlineStr">
+        <is>
+          <t>['44']</t>
+        </is>
+      </c>
+      <c r="Q58" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="R58" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S58" t="n">
+        <v>2</v>
+      </c>
+      <c r="T58" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U58" t="n">
+        <v>3</v>
+      </c>
+      <c r="V58" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="W58" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X58" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y58" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z58" t="n">
+        <v>5.61</v>
+      </c>
+      <c r="AA58" t="n">
+        <v>3.98</v>
+      </c>
+      <c r="AB58" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AC58" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD58" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE58" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AF58" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AG58" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AH58" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AI58" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ58" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK58" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AL58" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM58" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AN58" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AO58" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AP58" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AQ58" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR58" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AS58" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AT58" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="AU58" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV58" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW58" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX58" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY58" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ58" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA58" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB58" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC58" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD58" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="BE58" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="BF58" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BG58" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BH58" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="BI58" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BJ58" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BK58" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BL58" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BM58" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BN58" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BO58" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BP58" t="n">
+        <v>1.27</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
@@ -13142,19 +13142,19 @@
         <v>4</v>
       </c>
       <c r="AV58" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW58" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX58" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY58" t="n">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="AZ58" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="BA58" t="n">
         <v>5</v>

--- a/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP58"/>
+  <dimension ref="A1:BP62"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ2" t="n">
         <v>2</v>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ3" t="n">
         <v>0.17</v>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ4" t="n">
         <v>0.5</v>
@@ -1573,7 +1573,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -1791,7 +1791,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2227,7 +2227,7 @@
         <v>2.2</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR8" t="n">
         <v>2.02</v>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.17</v>
+        <v>0.29</v>
       </c>
       <c r="AQ10" t="n">
         <v>1.33</v>
@@ -3099,7 +3099,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR12" t="n">
         <v>1.99</v>
@@ -3532,10 +3532,10 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR14" t="n">
         <v>1.29</v>
@@ -3750,10 +3750,10 @@
         <v>1</v>
       </c>
       <c r="AP15" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR15" t="n">
         <v>2.17</v>
@@ -4625,7 +4625,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR19" t="n">
         <v>1.39</v>
@@ -4840,7 +4840,7 @@
         <v>3</v>
       </c>
       <c r="AP20" t="n">
-        <v>0.17</v>
+        <v>0.29</v>
       </c>
       <c r="AQ20" t="n">
         <v>2</v>
@@ -5058,10 +5058,10 @@
         <v>1</v>
       </c>
       <c r="AP21" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR21" t="n">
         <v>2.38</v>
@@ -5276,10 +5276,10 @@
         <v>0</v>
       </c>
       <c r="AP22" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR22" t="n">
         <v>2.49</v>
@@ -6366,7 +6366,7 @@
         <v>0</v>
       </c>
       <c r="AP27" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ27" t="n">
         <v>1.4</v>
@@ -6587,7 +6587,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR28" t="n">
         <v>1.1</v>
@@ -6802,10 +6802,10 @@
         <v>0.5</v>
       </c>
       <c r="AP29" t="n">
-        <v>0.17</v>
+        <v>0.29</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR29" t="n">
         <v>1.5</v>
@@ -7023,7 +7023,7 @@
         <v>2</v>
       </c>
       <c r="AQ30" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR30" t="n">
         <v>2.07</v>
@@ -7238,10 +7238,10 @@
         <v>1</v>
       </c>
       <c r="AP31" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ31" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR31" t="n">
         <v>2.62</v>
@@ -7456,7 +7456,7 @@
         <v>3</v>
       </c>
       <c r="AP32" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ32" t="n">
         <v>1.8</v>
@@ -7892,7 +7892,7 @@
         <v>0.5</v>
       </c>
       <c r="AP34" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ34" t="n">
         <v>0.5</v>
@@ -8110,7 +8110,7 @@
         <v>1.67</v>
       </c>
       <c r="AP35" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ35" t="n">
         <v>1.33</v>
@@ -8549,7 +8549,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ37" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR37" t="n">
         <v>1.58</v>
@@ -8764,10 +8764,10 @@
         <v>1</v>
       </c>
       <c r="AP38" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ38" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR38" t="n">
         <v>1.91</v>
@@ -8985,7 +8985,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR39" t="n">
         <v>1.41</v>
@@ -9203,7 +9203,7 @@
         <v>2</v>
       </c>
       <c r="AQ40" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR40" t="n">
         <v>1.89</v>
@@ -9636,7 +9636,7 @@
         <v>3</v>
       </c>
       <c r="AP42" t="n">
-        <v>0.17</v>
+        <v>0.29</v>
       </c>
       <c r="AQ42" t="n">
         <v>1.8</v>
@@ -9857,7 +9857,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ43" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR43" t="n">
         <v>1.51</v>
@@ -10290,7 +10290,7 @@
         <v>1</v>
       </c>
       <c r="AP45" t="n">
-        <v>0.17</v>
+        <v>0.29</v>
       </c>
       <c r="AQ45" t="n">
         <v>1.4</v>
@@ -10729,7 +10729,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ47" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR47" t="n">
         <v>1.43</v>
@@ -10947,7 +10947,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ48" t="n">
-        <v>0.8</v>
+        <v>0.83</v>
       </c>
       <c r="AR48" t="n">
         <v>1.31</v>
@@ -11162,7 +11162,7 @@
         <v>0.2</v>
       </c>
       <c r="AP49" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ49" t="n">
         <v>0.17</v>
@@ -11380,7 +11380,7 @@
         <v>2.25</v>
       </c>
       <c r="AP50" t="n">
-        <v>2.67</v>
+        <v>2.71</v>
       </c>
       <c r="AQ50" t="n">
         <v>2</v>
@@ -11601,7 +11601,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ51" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR51" t="n">
         <v>1.71</v>
@@ -11816,10 +11816,10 @@
         <v>1</v>
       </c>
       <c r="AP52" t="n">
-        <v>2</v>
+        <v>2.17</v>
       </c>
       <c r="AQ52" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR52" t="n">
         <v>1.85</v>
@@ -12034,7 +12034,7 @@
         <v>0.4</v>
       </c>
       <c r="AP53" t="n">
-        <v>0.17</v>
+        <v>0.29</v>
       </c>
       <c r="AQ53" t="n">
         <v>0.5</v>
@@ -12255,7 +12255,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ54" t="n">
-        <v>1.17</v>
+        <v>1</v>
       </c>
       <c r="AR54" t="n">
         <v>1.48</v>
@@ -13203,6 +13203,878 @@
       </c>
       <c r="BP58" t="n">
         <v>1.27</v>
+      </c>
+    </row>
+    <row r="59">
+      <c r="A59" s="1" t="n">
+        <v>58</v>
+      </c>
+      <c r="B59" t="n">
+        <v>6441749</v>
+      </c>
+      <c r="C59" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D59" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E59" s="2" t="n">
+        <v>45227.45833333334</v>
+      </c>
+      <c r="F59" t="n">
+        <v>13</v>
+      </c>
+      <c r="G59" t="inlineStr">
+        <is>
+          <t>Rudeš</t>
+        </is>
+      </c>
+      <c r="H59" t="inlineStr">
+        <is>
+          <t>Varaždin</t>
+        </is>
+      </c>
+      <c r="I59" t="n">
+        <v>0</v>
+      </c>
+      <c r="J59" t="n">
+        <v>0</v>
+      </c>
+      <c r="K59" t="n">
+        <v>0</v>
+      </c>
+      <c r="L59" t="n">
+        <v>0</v>
+      </c>
+      <c r="M59" t="n">
+        <v>0</v>
+      </c>
+      <c r="N59" t="n">
+        <v>0</v>
+      </c>
+      <c r="O59" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P59" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q59" t="n">
+        <v>3.66</v>
+      </c>
+      <c r="R59" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="S59" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="T59" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U59" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="V59" t="n">
+        <v>2.82</v>
+      </c>
+      <c r="W59" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X59" t="n">
+        <v>6.8</v>
+      </c>
+      <c r="Y59" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z59" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AA59" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB59" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AC59" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD59" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE59" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AF59" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AG59" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AH59" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AI59" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AJ59" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK59" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AL59" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM59" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AN59" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AO59" t="n">
+        <v>0.8</v>
+      </c>
+      <c r="AP59" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AQ59" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AR59" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS59" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AT59" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AU59" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV59" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW59" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX59" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY59" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ59" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA59" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB59" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC59" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD59" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE59" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF59" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BG59" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BH59" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BI59" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BJ59" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BK59" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BL59" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BM59" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BN59" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BO59" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BP59" t="n">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="60">
+      <c r="A60" s="1" t="n">
+        <v>59</v>
+      </c>
+      <c r="B60" t="n">
+        <v>6441751</v>
+      </c>
+      <c r="C60" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D60" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E60" s="2" t="n">
+        <v>45227.54861111111</v>
+      </c>
+      <c r="F60" t="n">
+        <v>13</v>
+      </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>Osijek</t>
+        </is>
+      </c>
+      <c r="H60" t="inlineStr">
+        <is>
+          <t>Istra 1961</t>
+        </is>
+      </c>
+      <c r="I60" t="n">
+        <v>0</v>
+      </c>
+      <c r="J60" t="n">
+        <v>0</v>
+      </c>
+      <c r="K60" t="n">
+        <v>0</v>
+      </c>
+      <c r="L60" t="n">
+        <v>3</v>
+      </c>
+      <c r="M60" t="n">
+        <v>1</v>
+      </c>
+      <c r="N60" t="n">
+        <v>4</v>
+      </c>
+      <c r="O60" t="inlineStr">
+        <is>
+          <t>['47', '86', '90+4']</t>
+        </is>
+      </c>
+      <c r="P60" t="inlineStr">
+        <is>
+          <t>['90+7']</t>
+        </is>
+      </c>
+      <c r="Q60" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R60" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S60" t="n">
+        <v>5</v>
+      </c>
+      <c r="T60" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="U60" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="V60" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="W60" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X60" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y60" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z60" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AA60" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AB60" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AC60" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD60" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE60" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF60" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AG60" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AH60" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI60" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ60" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK60" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AL60" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AM60" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AN60" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO60" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AP60" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AQ60" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AR60" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AS60" t="n">
+        <v>0.98</v>
+      </c>
+      <c r="AT60" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AU60" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV60" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW60" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX60" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY60" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ60" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA60" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB60" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC60" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD60" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BE60" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF60" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="BG60" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BH60" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BI60" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BJ60" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK60" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BL60" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BM60" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BN60" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BO60" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BP60" t="n">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="61">
+      <c r="A61" s="1" t="n">
+        <v>60</v>
+      </c>
+      <c r="B61" t="n">
+        <v>6441752</v>
+      </c>
+      <c r="C61" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D61" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E61" s="2" t="n">
+        <v>45228.45833333334</v>
+      </c>
+      <c r="F61" t="n">
+        <v>13</v>
+      </c>
+      <c r="G61" t="inlineStr">
+        <is>
+          <t>Rijeka</t>
+        </is>
+      </c>
+      <c r="H61" t="inlineStr">
+        <is>
+          <t>Gorica</t>
+        </is>
+      </c>
+      <c r="I61" t="n">
+        <v>1</v>
+      </c>
+      <c r="J61" t="n">
+        <v>0</v>
+      </c>
+      <c r="K61" t="n">
+        <v>1</v>
+      </c>
+      <c r="L61" t="n">
+        <v>1</v>
+      </c>
+      <c r="M61" t="n">
+        <v>0</v>
+      </c>
+      <c r="N61" t="n">
+        <v>1</v>
+      </c>
+      <c r="O61" t="inlineStr">
+        <is>
+          <t>['7']</t>
+        </is>
+      </c>
+      <c r="P61" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q61" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R61" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S61" t="n">
+        <v>5</v>
+      </c>
+      <c r="T61" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="U61" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="V61" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W61" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X61" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y61" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z61" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AA61" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB61" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AC61" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD61" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE61" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF61" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AG61" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AH61" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AI61" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ61" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK61" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AL61" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AM61" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="AN61" t="n">
+        <v>2.67</v>
+      </c>
+      <c r="AO61" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP61" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AQ61" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AR61" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AS61" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AT61" t="n">
+        <v>3.63</v>
+      </c>
+      <c r="AU61" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV61" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW61" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX61" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY61" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ61" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA61" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB61" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC61" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD61" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BE61" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF61" t="n">
+        <v>4.41</v>
+      </c>
+      <c r="BG61" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BH61" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BI61" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BJ61" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BK61" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="BL61" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BM61" t="n">
+        <v>2.46</v>
+      </c>
+      <c r="BN61" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BO61" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BP61" t="n">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="62">
+      <c r="A62" s="1" t="n">
+        <v>61</v>
+      </c>
+      <c r="B62" t="n">
+        <v>6441753</v>
+      </c>
+      <c r="C62" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D62" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E62" s="2" t="n">
+        <v>45228.54861111111</v>
+      </c>
+      <c r="F62" t="n">
+        <v>13</v>
+      </c>
+      <c r="G62" t="inlineStr">
+        <is>
+          <t>Dinamo Zagreb</t>
+        </is>
+      </c>
+      <c r="H62" t="inlineStr">
+        <is>
+          <t>Lokomotiva Zagreb</t>
+        </is>
+      </c>
+      <c r="I62" t="n">
+        <v>0</v>
+      </c>
+      <c r="J62" t="n">
+        <v>1</v>
+      </c>
+      <c r="K62" t="n">
+        <v>1</v>
+      </c>
+      <c r="L62" t="n">
+        <v>2</v>
+      </c>
+      <c r="M62" t="n">
+        <v>1</v>
+      </c>
+      <c r="N62" t="n">
+        <v>3</v>
+      </c>
+      <c r="O62" t="inlineStr">
+        <is>
+          <t>['90+4', '90+7']</t>
+        </is>
+      </c>
+      <c r="P62" t="inlineStr">
+        <is>
+          <t>['4']</t>
+        </is>
+      </c>
+      <c r="Q62" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="R62" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="S62" t="n">
+        <v>8.93</v>
+      </c>
+      <c r="T62" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="U62" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="V62" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="W62" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X62" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="Y62" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Z62" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AA62" t="n">
+        <v>5.83</v>
+      </c>
+      <c r="AB62" t="n">
+        <v>10.82</v>
+      </c>
+      <c r="AC62" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD62" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE62" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AF62" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AG62" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AH62" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AI62" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AJ62" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AK62" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AL62" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AM62" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AN62" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO62" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AP62" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AQ62" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR62" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AS62" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AT62" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="AU62" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV62" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW62" t="n">
+        <v>12</v>
+      </c>
+      <c r="AX62" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY62" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ62" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA62" t="n">
+        <v>11</v>
+      </c>
+      <c r="BB62" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC62" t="n">
+        <v>15</v>
+      </c>
+      <c r="BD62" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BE62" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF62" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="BG62" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BH62" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BI62" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BJ62" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="BK62" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BL62" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BM62" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="BN62" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BO62" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BP62" t="n">
+        <v>1.26</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
@@ -13575,10 +13575,10 @@
         <v>2.97</v>
       </c>
       <c r="AU60" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="AV60" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AW60" t="n">
         <v>4</v>
@@ -13587,10 +13587,10 @@
         <v>2</v>
       </c>
       <c r="AY60" t="n">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="AZ60" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="BA60" t="n">
         <v>7</v>
@@ -13793,31 +13793,31 @@
         <v>3.63</v>
       </c>
       <c r="AU61" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV61" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW61" t="n">
         <v>8</v>
-      </c>
-      <c r="AV61" t="n">
-        <v>3</v>
-      </c>
-      <c r="AW61" t="n">
-        <v>6</v>
       </c>
       <c r="AX61" t="n">
         <v>4</v>
       </c>
       <c r="AY61" t="n">
-        <v>14</v>
+        <v>17</v>
       </c>
       <c r="AZ61" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA61" t="n">
         <v>4</v>
       </c>
       <c r="BB61" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC61" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="BD61" t="n">
         <v>1.31</v>
@@ -14011,22 +14011,22 @@
         <v>3.39</v>
       </c>
       <c r="AU62" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AV62" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AW62" t="n">
-        <v>12</v>
+        <v>8</v>
       </c>
       <c r="AX62" t="n">
         <v>4</v>
       </c>
       <c r="AY62" t="n">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="AZ62" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA62" t="n">
         <v>11</v>

--- a/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP62"/>
+  <dimension ref="A1:BP65"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1137,7 +1137,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ5" t="n">
         <v>0.83</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ6" t="n">
         <v>0.71</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ8" t="n">
         <v>1</v>
@@ -2663,7 +2663,7 @@
         <v>0.29</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -2878,10 +2878,10 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3096,7 +3096,7 @@
         <v>1</v>
       </c>
       <c r="AP12" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ12" t="n">
         <v>0.83</v>
@@ -3317,7 +3317,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -3971,7 +3971,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR16" t="n">
         <v>1.69</v>
@@ -4189,7 +4189,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR17" t="n">
         <v>0.82</v>
@@ -4404,7 +4404,7 @@
         <v>0.5</v>
       </c>
       <c r="AP18" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ18" t="n">
         <v>0.5</v>
@@ -5494,7 +5494,7 @@
         <v>0.33</v>
       </c>
       <c r="AP23" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ23" t="n">
         <v>0.5</v>
@@ -5930,10 +5930,10 @@
         <v>2</v>
       </c>
       <c r="AP25" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR25" t="n">
         <v>1.89</v>
@@ -6151,7 +6151,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ26" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR26" t="n">
         <v>1.3</v>
@@ -6369,7 +6369,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR27" t="n">
         <v>1.7</v>
@@ -7020,7 +7020,7 @@
         <v>0.67</v>
       </c>
       <c r="AP30" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ30" t="n">
         <v>0.71</v>
@@ -7674,10 +7674,10 @@
         <v>0.25</v>
       </c>
       <c r="AP33" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ33" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR33" t="n">
         <v>1.8</v>
@@ -8113,7 +8113,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ35" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR35" t="n">
         <v>2.48</v>
@@ -8328,7 +8328,7 @@
         <v>3</v>
       </c>
       <c r="AP36" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ36" t="n">
         <v>2</v>
@@ -9200,7 +9200,7 @@
         <v>1</v>
       </c>
       <c r="AP40" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ40" t="n">
         <v>1</v>
@@ -9421,7 +9421,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ41" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR41" t="n">
         <v>1.05</v>
@@ -10075,7 +10075,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ44" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR44" t="n">
         <v>1.11</v>
@@ -10293,7 +10293,7 @@
         <v>0.29</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR45" t="n">
         <v>1.46</v>
@@ -10508,7 +10508,7 @@
         <v>3</v>
       </c>
       <c r="AP46" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ46" t="n">
         <v>1.8</v>
@@ -11165,7 +11165,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ49" t="n">
-        <v>0.17</v>
+        <v>0.14</v>
       </c>
       <c r="AR49" t="n">
         <v>1.93</v>
@@ -11598,7 +11598,7 @@
         <v>1.4</v>
       </c>
       <c r="AP51" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AQ51" t="n">
         <v>1.14</v>
@@ -12470,7 +12470,7 @@
         <v>2.25</v>
       </c>
       <c r="AP55" t="n">
-        <v>2.2</v>
+        <v>2.33</v>
       </c>
       <c r="AQ55" t="n">
         <v>1.8</v>
@@ -12691,7 +12691,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ56" t="n">
-        <v>1.4</v>
+        <v>1.33</v>
       </c>
       <c r="AR56" t="n">
         <v>1.41</v>
@@ -12906,10 +12906,10 @@
         <v>1</v>
       </c>
       <c r="AP57" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AQ57" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AR57" t="n">
         <v>1.76</v>
@@ -14074,6 +14074,660 @@
         <v>3.5</v>
       </c>
       <c r="BP62" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="63">
+      <c r="A63" s="1" t="n">
+        <v>62</v>
+      </c>
+      <c r="B63" t="n">
+        <v>6441755</v>
+      </c>
+      <c r="C63" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D63" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E63" s="2" t="n">
+        <v>45233.58333333334</v>
+      </c>
+      <c r="F63" t="n">
+        <v>14</v>
+      </c>
+      <c r="G63" t="inlineStr">
+        <is>
+          <t>Lokomotiva Zagreb</t>
+        </is>
+      </c>
+      <c r="H63" t="inlineStr">
+        <is>
+          <t>Rijeka</t>
+        </is>
+      </c>
+      <c r="I63" t="n">
+        <v>1</v>
+      </c>
+      <c r="J63" t="n">
+        <v>1</v>
+      </c>
+      <c r="K63" t="n">
+        <v>2</v>
+      </c>
+      <c r="L63" t="n">
+        <v>1</v>
+      </c>
+      <c r="M63" t="n">
+        <v>1</v>
+      </c>
+      <c r="N63" t="n">
+        <v>2</v>
+      </c>
+      <c r="O63" t="inlineStr">
+        <is>
+          <t>['27']</t>
+        </is>
+      </c>
+      <c r="P63" t="inlineStr">
+        <is>
+          <t>['43']</t>
+        </is>
+      </c>
+      <c r="Q63" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="R63" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S63" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="T63" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="U63" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="V63" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="W63" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X63" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Y63" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z63" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AA63" t="n">
+        <v>3.19</v>
+      </c>
+      <c r="AB63" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AC63" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD63" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE63" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF63" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AG63" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AH63" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AI63" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ63" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK63" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL63" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM63" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AN63" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO63" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AP63" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ63" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AR63" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AS63" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AT63" t="n">
+        <v>2.97</v>
+      </c>
+      <c r="AU63" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV63" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW63" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX63" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY63" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ63" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA63" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB63" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC63" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD63" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BE63" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF63" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BG63" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BH63" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BI63" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BJ63" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BK63" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL63" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BM63" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BN63" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BO63" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BP63" t="n">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="64">
+      <c r="A64" s="1" t="n">
+        <v>63</v>
+      </c>
+      <c r="B64" t="n">
+        <v>6441756</v>
+      </c>
+      <c r="C64" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D64" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E64" s="2" t="n">
+        <v>45234.5</v>
+      </c>
+      <c r="F64" t="n">
+        <v>14</v>
+      </c>
+      <c r="G64" t="inlineStr">
+        <is>
+          <t>Gorica</t>
+        </is>
+      </c>
+      <c r="H64" t="inlineStr">
+        <is>
+          <t>Osijek</t>
+        </is>
+      </c>
+      <c r="I64" t="n">
+        <v>1</v>
+      </c>
+      <c r="J64" t="n">
+        <v>0</v>
+      </c>
+      <c r="K64" t="n">
+        <v>1</v>
+      </c>
+      <c r="L64" t="n">
+        <v>3</v>
+      </c>
+      <c r="M64" t="n">
+        <v>0</v>
+      </c>
+      <c r="N64" t="n">
+        <v>3</v>
+      </c>
+      <c r="O64" t="inlineStr">
+        <is>
+          <t>['45+2', '82', '87']</t>
+        </is>
+      </c>
+      <c r="P64" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q64" t="n">
+        <v>3.72</v>
+      </c>
+      <c r="R64" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S64" t="n">
+        <v>3.06</v>
+      </c>
+      <c r="T64" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U64" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V64" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W64" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X64" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y64" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z64" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AA64" t="n">
+        <v>3.24</v>
+      </c>
+      <c r="AB64" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AC64" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD64" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE64" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF64" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AG64" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AH64" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AI64" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AJ64" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="AK64" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AL64" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM64" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AN64" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AO64" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP64" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AQ64" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AR64" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AS64" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AT64" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AU64" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV64" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW64" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX64" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY64" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ64" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA64" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB64" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC64" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD64" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BE64" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF64" t="n">
+        <v>2</v>
+      </c>
+      <c r="BG64" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BH64" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="BI64" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BJ64" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BK64" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BL64" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="BM64" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BN64" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BO64" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BP64" t="n">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="65">
+      <c r="A65" s="1" t="n">
+        <v>64</v>
+      </c>
+      <c r="B65" t="n">
+        <v>6441758</v>
+      </c>
+      <c r="C65" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D65" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E65" s="2" t="n">
+        <v>45234.59027777778</v>
+      </c>
+      <c r="F65" t="n">
+        <v>14</v>
+      </c>
+      <c r="G65" t="inlineStr">
+        <is>
+          <t>Hajduk Split</t>
+        </is>
+      </c>
+      <c r="H65" t="inlineStr">
+        <is>
+          <t>Rudeš</t>
+        </is>
+      </c>
+      <c r="I65" t="n">
+        <v>0</v>
+      </c>
+      <c r="J65" t="n">
+        <v>0</v>
+      </c>
+      <c r="K65" t="n">
+        <v>0</v>
+      </c>
+      <c r="L65" t="n">
+        <v>1</v>
+      </c>
+      <c r="M65" t="n">
+        <v>0</v>
+      </c>
+      <c r="N65" t="n">
+        <v>1</v>
+      </c>
+      <c r="O65" t="inlineStr">
+        <is>
+          <t>['47']</t>
+        </is>
+      </c>
+      <c r="P65" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q65" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="R65" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="S65" t="n">
+        <v>10</v>
+      </c>
+      <c r="T65" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="U65" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="V65" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="W65" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="X65" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="Y65" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Z65" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AA65" t="n">
+        <v>6.7</v>
+      </c>
+      <c r="AB65" t="n">
+        <v>13.1</v>
+      </c>
+      <c r="AC65" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD65" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE65" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AF65" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AG65" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AH65" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AI65" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AJ65" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AK65" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AL65" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AM65" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AN65" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO65" t="n">
+        <v>0.17</v>
+      </c>
+      <c r="AP65" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AQ65" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AR65" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AS65" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AT65" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="AU65" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV65" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW65" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX65" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY65" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ65" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA65" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB65" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC65" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD65" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BE65" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF65" t="n">
+        <v>5.73</v>
+      </c>
+      <c r="BG65" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BH65" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BI65" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BJ65" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BK65" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BL65" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="BM65" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BN65" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BO65" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BP65" t="n">
         <v>1.26</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP65"/>
+  <dimension ref="A1:BP67"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1355,7 +1355,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -2006,10 +2006,10 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -3968,7 +3968,7 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ16" t="n">
         <v>0.14</v>
@@ -4186,7 +4186,7 @@
         <v>3</v>
       </c>
       <c r="AP17" t="n">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AQ17" t="n">
         <v>1.14</v>
@@ -4407,7 +4407,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR18" t="n">
         <v>1.98</v>
@@ -5497,7 +5497,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ23" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR23" t="n">
         <v>1.73</v>
@@ -5712,7 +5712,7 @@
         <v>3</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ24" t="n">
         <v>2</v>
@@ -6148,7 +6148,7 @@
         <v>0</v>
       </c>
       <c r="AP26" t="n">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AQ26" t="n">
         <v>0.14</v>
@@ -7459,7 +7459,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR32" t="n">
         <v>2.06</v>
@@ -7895,7 +7895,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ34" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR34" t="n">
         <v>1.83</v>
@@ -8546,7 +8546,7 @@
         <v>1.25</v>
       </c>
       <c r="AP37" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ37" t="n">
         <v>0.71</v>
@@ -8982,7 +8982,7 @@
         <v>1.33</v>
       </c>
       <c r="AP39" t="n">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AQ39" t="n">
         <v>1.14</v>
@@ -9639,7 +9639,7 @@
         <v>0.29</v>
       </c>
       <c r="AQ42" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR42" t="n">
         <v>1.73</v>
@@ -9854,7 +9854,7 @@
         <v>1.75</v>
       </c>
       <c r="AP43" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ43" t="n">
         <v>1.14</v>
@@ -10511,7 +10511,7 @@
         <v>2.14</v>
       </c>
       <c r="AQ46" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR46" t="n">
         <v>1.9</v>
@@ -10726,7 +10726,7 @@
         <v>0.75</v>
       </c>
       <c r="AP47" t="n">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AQ47" t="n">
         <v>1</v>
@@ -12037,7 +12037,7 @@
         <v>0.29</v>
       </c>
       <c r="AQ53" t="n">
-        <v>0.5</v>
+        <v>0.43</v>
       </c>
       <c r="AR53" t="n">
         <v>1.4</v>
@@ -12252,7 +12252,7 @@
         <v>1.2</v>
       </c>
       <c r="AP54" t="n">
-        <v>1.83</v>
+        <v>1.71</v>
       </c>
       <c r="AQ54" t="n">
         <v>1</v>
@@ -12473,7 +12473,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ55" t="n">
-        <v>1.8</v>
+        <v>1.67</v>
       </c>
       <c r="AR55" t="n">
         <v>1.6</v>
@@ -12688,7 +12688,7 @@
         <v>1.5</v>
       </c>
       <c r="AP56" t="n">
-        <v>0.5</v>
+        <v>0.86</v>
       </c>
       <c r="AQ56" t="n">
         <v>1.33</v>
@@ -14232,19 +14232,19 @@
         <v>4</v>
       </c>
       <c r="AV63" t="n">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AW63" t="n">
         <v>1</v>
       </c>
       <c r="AX63" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY63" t="n">
         <v>5</v>
       </c>
       <c r="AZ63" t="n">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="BA63" t="n">
         <v>3</v>
@@ -14453,13 +14453,13 @@
         <v>2</v>
       </c>
       <c r="AW64" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX64" t="n">
         <v>6</v>
       </c>
       <c r="AY64" t="n">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ64" t="n">
         <v>8</v>
@@ -14668,19 +14668,19 @@
         <v>3</v>
       </c>
       <c r="AV65" t="n">
-        <v>2</v>
+        <v>0</v>
       </c>
       <c r="AW65" t="n">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AX65" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="AY65" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="AZ65" t="n">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="BA65" t="n">
         <v>4</v>
@@ -14729,6 +14729,442 @@
       </c>
       <c r="BP65" t="n">
         <v>1.26</v>
+      </c>
+    </row>
+    <row r="66">
+      <c r="A66" s="1" t="n">
+        <v>65</v>
+      </c>
+      <c r="B66" t="n">
+        <v>6441754</v>
+      </c>
+      <c r="C66" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D66" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E66" s="2" t="n">
+        <v>45235.45833333334</v>
+      </c>
+      <c r="F66" t="n">
+        <v>14</v>
+      </c>
+      <c r="G66" t="inlineStr">
+        <is>
+          <t>Varaždin</t>
+        </is>
+      </c>
+      <c r="H66" t="inlineStr">
+        <is>
+          <t>Dinamo Zagreb</t>
+        </is>
+      </c>
+      <c r="I66" t="n">
+        <v>0</v>
+      </c>
+      <c r="J66" t="n">
+        <v>0</v>
+      </c>
+      <c r="K66" t="n">
+        <v>0</v>
+      </c>
+      <c r="L66" t="n">
+        <v>1</v>
+      </c>
+      <c r="M66" t="n">
+        <v>1</v>
+      </c>
+      <c r="N66" t="n">
+        <v>2</v>
+      </c>
+      <c r="O66" t="inlineStr">
+        <is>
+          <t>['53']</t>
+        </is>
+      </c>
+      <c r="P66" t="inlineStr">
+        <is>
+          <t>['90+4']</t>
+        </is>
+      </c>
+      <c r="Q66" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="R66" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S66" t="n">
+        <v>2</v>
+      </c>
+      <c r="T66" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U66" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V66" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W66" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X66" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y66" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z66" t="n">
+        <v>6</v>
+      </c>
+      <c r="AA66" t="n">
+        <v>4.13</v>
+      </c>
+      <c r="AB66" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AC66" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD66" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="AE66" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF66" t="n">
+        <v>3.86</v>
+      </c>
+      <c r="AG66" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AH66" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AI66" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ66" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK66" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AL66" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AM66" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AN66" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AO66" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AP66" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AQ66" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR66" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS66" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AT66" t="n">
+        <v>3.44</v>
+      </c>
+      <c r="AU66" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV66" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW66" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX66" t="n">
+        <v>11</v>
+      </c>
+      <c r="AY66" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ66" t="n">
+        <v>16</v>
+      </c>
+      <c r="BA66" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB66" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC66" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD66" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="BE66" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF66" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BG66" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BH66" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="BI66" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BJ66" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK66" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BL66" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="BM66" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="BN66" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BO66" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BP66" t="n">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="67">
+      <c r="A67" s="1" t="n">
+        <v>66</v>
+      </c>
+      <c r="B67" t="n">
+        <v>6441757</v>
+      </c>
+      <c r="C67" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D67" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E67" s="2" t="n">
+        <v>45235.54861111111</v>
+      </c>
+      <c r="F67" t="n">
+        <v>14</v>
+      </c>
+      <c r="G67" t="inlineStr">
+        <is>
+          <t>Istra 1961</t>
+        </is>
+      </c>
+      <c r="H67" t="inlineStr">
+        <is>
+          <t>Slaven Koprivnica</t>
+        </is>
+      </c>
+      <c r="I67" t="n">
+        <v>1</v>
+      </c>
+      <c r="J67" t="n">
+        <v>0</v>
+      </c>
+      <c r="K67" t="n">
+        <v>1</v>
+      </c>
+      <c r="L67" t="n">
+        <v>2</v>
+      </c>
+      <c r="M67" t="n">
+        <v>0</v>
+      </c>
+      <c r="N67" t="n">
+        <v>2</v>
+      </c>
+      <c r="O67" t="inlineStr">
+        <is>
+          <t>['8', '90+1']</t>
+        </is>
+      </c>
+      <c r="P67" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q67" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="R67" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S67" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T67" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U67" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V67" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W67" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X67" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y67" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z67" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AA67" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB67" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AC67" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD67" t="n">
+        <v>8.1</v>
+      </c>
+      <c r="AE67" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF67" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="AG67" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AH67" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AI67" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ67" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK67" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL67" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM67" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN67" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AO67" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="AP67" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AQ67" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AR67" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="AS67" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT67" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AU67" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV67" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW67" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX67" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY67" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ67" t="n">
+        <v>12</v>
+      </c>
+      <c r="BA67" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB67" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC67" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD67" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BE67" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF67" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BG67" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BH67" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BI67" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BJ67" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BK67" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BL67" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BM67" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BN67" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BO67" t="n">
+        <v>4</v>
+      </c>
+      <c r="BP67" t="n">
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP67"/>
+  <dimension ref="A1:BP68"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,7 +919,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ2" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ4" t="n">
         <v>0.43</v>
@@ -4843,7 +4843,7 @@
         <v>0.29</v>
       </c>
       <c r="AQ20" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR20" t="n">
         <v>1.48</v>
@@ -5058,7 +5058,7 @@
         <v>1</v>
       </c>
       <c r="AP21" t="n">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ21" t="n">
         <v>1.14</v>
@@ -5715,7 +5715,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ24" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR24" t="n">
         <v>1.61</v>
@@ -7456,7 +7456,7 @@
         <v>3</v>
       </c>
       <c r="AP32" t="n">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ32" t="n">
         <v>1.67</v>
@@ -8331,7 +8331,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ36" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR36" t="n">
         <v>1.66</v>
@@ -8764,7 +8764,7 @@
         <v>1</v>
       </c>
       <c r="AP38" t="n">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ38" t="n">
         <v>0.83</v>
@@ -11162,7 +11162,7 @@
         <v>0.2</v>
       </c>
       <c r="AP49" t="n">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ49" t="n">
         <v>0.14</v>
@@ -11383,7 +11383,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ50" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR50" t="n">
         <v>2.42</v>
@@ -13127,7 +13127,7 @@
         <v>1.43</v>
       </c>
       <c r="AQ58" t="n">
-        <v>2</v>
+        <v>2.14</v>
       </c>
       <c r="AR58" t="n">
         <v>1.37</v>
@@ -13560,7 +13560,7 @@
         <v>0.83</v>
       </c>
       <c r="AP60" t="n">
-        <v>2.17</v>
+        <v>1.86</v>
       </c>
       <c r="AQ60" t="n">
         <v>0.71</v>
@@ -15165,6 +15165,224 @@
       </c>
       <c r="BP67" t="n">
         <v>1.21</v>
+      </c>
+    </row>
+    <row r="68">
+      <c r="A68" s="1" t="n">
+        <v>67</v>
+      </c>
+      <c r="B68" t="n">
+        <v>6441702</v>
+      </c>
+      <c r="C68" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D68" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E68" s="2" t="n">
+        <v>45238.54166666666</v>
+      </c>
+      <c r="F68" t="n">
+        <v>3</v>
+      </c>
+      <c r="G68" t="inlineStr">
+        <is>
+          <t>Osijek</t>
+        </is>
+      </c>
+      <c r="H68" t="inlineStr">
+        <is>
+          <t>Hajduk Split</t>
+        </is>
+      </c>
+      <c r="I68" t="n">
+        <v>0</v>
+      </c>
+      <c r="J68" t="n">
+        <v>1</v>
+      </c>
+      <c r="K68" t="n">
+        <v>1</v>
+      </c>
+      <c r="L68" t="n">
+        <v>0</v>
+      </c>
+      <c r="M68" t="n">
+        <v>1</v>
+      </c>
+      <c r="N68" t="n">
+        <v>1</v>
+      </c>
+      <c r="O68" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P68" t="inlineStr">
+        <is>
+          <t>['42']</t>
+        </is>
+      </c>
+      <c r="Q68" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R68" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S68" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T68" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="U68" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="V68" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W68" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X68" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="Y68" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z68" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="AA68" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="AB68" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="AC68" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD68" t="n">
+        <v>8.6</v>
+      </c>
+      <c r="AE68" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF68" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="AG68" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AH68" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AI68" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AJ68" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK68" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL68" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM68" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AN68" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AO68" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP68" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AQ68" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AR68" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AS68" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AT68" t="n">
+        <v>3.49</v>
+      </c>
+      <c r="AU68" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV68" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW68" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX68" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY68" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ68" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA68" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB68" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC68" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD68" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE68" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF68" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BG68" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BH68" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BI68" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BJ68" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BK68" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BL68" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BM68" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BN68" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BO68" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BP68" t="n">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP68"/>
+  <dimension ref="A1:BP69"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ13" t="n">
         <v>0.14</v>
@@ -3535,7 +3535,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR14" t="n">
         <v>1.29</v>
@@ -4622,7 +4622,7 @@
         <v>0.5</v>
       </c>
       <c r="AP19" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ19" t="n">
         <v>0.71</v>
@@ -5061,7 +5061,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR21" t="n">
         <v>2.38</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AP28" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ28" t="n">
         <v>1</v>
@@ -6805,7 +6805,7 @@
         <v>0.29</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR29" t="n">
         <v>1.5</v>
@@ -8985,7 +8985,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR39" t="n">
         <v>1.41</v>
@@ -9418,7 +9418,7 @@
         <v>0</v>
       </c>
       <c r="AP41" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ41" t="n">
         <v>1.33</v>
@@ -9857,7 +9857,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ43" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR43" t="n">
         <v>1.51</v>
@@ -10072,7 +10072,7 @@
         <v>1.25</v>
       </c>
       <c r="AP44" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ44" t="n">
         <v>1.14</v>
@@ -10944,7 +10944,7 @@
         <v>1</v>
       </c>
       <c r="AP48" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ48" t="n">
         <v>0.83</v>
@@ -11601,7 +11601,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ51" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR51" t="n">
         <v>1.71</v>
@@ -13124,7 +13124,7 @@
         <v>1.8</v>
       </c>
       <c r="AP58" t="n">
-        <v>1.43</v>
+        <v>1.38</v>
       </c>
       <c r="AQ58" t="n">
         <v>2.14</v>
@@ -13781,7 +13781,7 @@
         <v>2.71</v>
       </c>
       <c r="AQ61" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AR61" t="n">
         <v>2.24</v>
@@ -15383,6 +15383,224 @@
       </c>
       <c r="BP68" t="n">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="69">
+      <c r="A69" s="1" t="n">
+        <v>68</v>
+      </c>
+      <c r="B69" t="n">
+        <v>6441761</v>
+      </c>
+      <c r="C69" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D69" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E69" s="2" t="n">
+        <v>45240.58333333334</v>
+      </c>
+      <c r="F69" t="n">
+        <v>15</v>
+      </c>
+      <c r="G69" t="inlineStr">
+        <is>
+          <t>Slaven Koprivnica</t>
+        </is>
+      </c>
+      <c r="H69" t="inlineStr">
+        <is>
+          <t>Gorica</t>
+        </is>
+      </c>
+      <c r="I69" t="n">
+        <v>0</v>
+      </c>
+      <c r="J69" t="n">
+        <v>0</v>
+      </c>
+      <c r="K69" t="n">
+        <v>0</v>
+      </c>
+      <c r="L69" t="n">
+        <v>0</v>
+      </c>
+      <c r="M69" t="n">
+        <v>0</v>
+      </c>
+      <c r="N69" t="n">
+        <v>0</v>
+      </c>
+      <c r="O69" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P69" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q69" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R69" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S69" t="n">
+        <v>3</v>
+      </c>
+      <c r="T69" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="U69" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="V69" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="W69" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X69" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Y69" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z69" t="n">
+        <v>3</v>
+      </c>
+      <c r="AA69" t="n">
+        <v>3.09</v>
+      </c>
+      <c r="AB69" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="AC69" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD69" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE69" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF69" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AG69" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AH69" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AI69" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ69" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK69" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AL69" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM69" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AN69" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AO69" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AP69" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AQ69" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AR69" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS69" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AT69" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU69" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV69" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW69" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX69" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY69" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ69" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA69" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB69" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC69" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD69" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE69" t="n">
+        <v>7</v>
+      </c>
+      <c r="BF69" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BG69" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BH69" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BI69" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BJ69" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BK69" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BL69" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BM69" t="n">
+        <v>3.95</v>
+      </c>
+      <c r="BN69" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="BO69" t="n">
+        <v>5</v>
+      </c>
+      <c r="BP69" t="n">
+        <v>1.13</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP69"/>
+  <dimension ref="A1:BP73"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AQ3" t="n">
         <v>0.14</v>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ4" t="n">
         <v>0.43</v>
@@ -1573,7 +1573,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -1791,7 +1791,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2445,7 +2445,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AQ10" t="n">
         <v>1.14</v>
@@ -2878,7 +2878,7 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ11" t="n">
         <v>1.33</v>
@@ -3099,7 +3099,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR12" t="n">
         <v>1.99</v>
@@ -3750,10 +3750,10 @@
         <v>1</v>
       </c>
       <c r="AP15" t="n">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR15" t="n">
         <v>2.17</v>
@@ -4404,7 +4404,7 @@
         <v>0.5</v>
       </c>
       <c r="AP18" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ18" t="n">
         <v>0.43</v>
@@ -4625,7 +4625,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR19" t="n">
         <v>1.39</v>
@@ -4840,7 +4840,7 @@
         <v>3</v>
       </c>
       <c r="AP20" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AQ20" t="n">
         <v>2.14</v>
@@ -5058,7 +5058,7 @@
         <v>1</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ21" t="n">
         <v>1.13</v>
@@ -5276,7 +5276,7 @@
         <v>0</v>
       </c>
       <c r="AP22" t="n">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AQ22" t="n">
         <v>1</v>
@@ -6802,7 +6802,7 @@
         <v>0.5</v>
       </c>
       <c r="AP29" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AQ29" t="n">
         <v>1.13</v>
@@ -7020,10 +7020,10 @@
         <v>0.67</v>
       </c>
       <c r="AP30" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ30" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR30" t="n">
         <v>2.07</v>
@@ -7238,10 +7238,10 @@
         <v>1</v>
       </c>
       <c r="AP31" t="n">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AQ31" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR31" t="n">
         <v>2.62</v>
@@ -7456,10 +7456,10 @@
         <v>3</v>
       </c>
       <c r="AP32" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR32" t="n">
         <v>2.06</v>
@@ -8110,7 +8110,7 @@
         <v>1.67</v>
       </c>
       <c r="AP35" t="n">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AQ35" t="n">
         <v>1.14</v>
@@ -8549,7 +8549,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ37" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR37" t="n">
         <v>1.58</v>
@@ -8764,10 +8764,10 @@
         <v>1</v>
       </c>
       <c r="AP38" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ38" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR38" t="n">
         <v>1.91</v>
@@ -9200,7 +9200,7 @@
         <v>1</v>
       </c>
       <c r="AP40" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ40" t="n">
         <v>1</v>
@@ -9636,10 +9636,10 @@
         <v>3</v>
       </c>
       <c r="AP42" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AQ42" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR42" t="n">
         <v>1.73</v>
@@ -10290,7 +10290,7 @@
         <v>1</v>
       </c>
       <c r="AP45" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AQ45" t="n">
         <v>1.33</v>
@@ -10508,10 +10508,10 @@
         <v>3</v>
       </c>
       <c r="AP46" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ46" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR46" t="n">
         <v>1.9</v>
@@ -10947,7 +10947,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ48" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR48" t="n">
         <v>1.31</v>
@@ -11162,7 +11162,7 @@
         <v>0.2</v>
       </c>
       <c r="AP49" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ49" t="n">
         <v>0.14</v>
@@ -11380,7 +11380,7 @@
         <v>2.25</v>
       </c>
       <c r="AP50" t="n">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AQ50" t="n">
         <v>2.14</v>
@@ -11819,7 +11819,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ52" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR52" t="n">
         <v>1.85</v>
@@ -12034,7 +12034,7 @@
         <v>0.4</v>
       </c>
       <c r="AP53" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AQ53" t="n">
         <v>0.43</v>
@@ -12473,7 +12473,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ55" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR55" t="n">
         <v>1.6</v>
@@ -12906,7 +12906,7 @@
         <v>1</v>
       </c>
       <c r="AP57" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ57" t="n">
         <v>1.14</v>
@@ -13342,10 +13342,10 @@
         <v>0.8</v>
       </c>
       <c r="AP59" t="n">
-        <v>0.29</v>
+        <v>0.25</v>
       </c>
       <c r="AQ59" t="n">
-        <v>0.83</v>
+        <v>0.71</v>
       </c>
       <c r="AR59" t="n">
         <v>1.4</v>
@@ -13560,10 +13560,10 @@
         <v>0.83</v>
       </c>
       <c r="AP60" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ60" t="n">
-        <v>0.71</v>
+        <v>1</v>
       </c>
       <c r="AR60" t="n">
         <v>1.99</v>
@@ -13778,7 +13778,7 @@
         <v>1.33</v>
       </c>
       <c r="AP61" t="n">
-        <v>2.71</v>
+        <v>2.5</v>
       </c>
       <c r="AQ61" t="n">
         <v>1.13</v>
@@ -14650,7 +14650,7 @@
         <v>0.17</v>
       </c>
       <c r="AP65" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AQ65" t="n">
         <v>0.14</v>
@@ -14871,7 +14871,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ66" t="n">
-        <v>1.67</v>
+        <v>1.57</v>
       </c>
       <c r="AR66" t="n">
         <v>1.5</v>
@@ -15304,7 +15304,7 @@
         <v>2</v>
       </c>
       <c r="AP68" t="n">
-        <v>1.86</v>
+        <v>1.75</v>
       </c>
       <c r="AQ68" t="n">
         <v>2.14</v>
@@ -15601,6 +15601,878 @@
       </c>
       <c r="BP69" t="n">
         <v>1.13</v>
+      </c>
+    </row>
+    <row r="70">
+      <c r="A70" s="1" t="n">
+        <v>69</v>
+      </c>
+      <c r="B70" t="n">
+        <v>6441760</v>
+      </c>
+      <c r="C70" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D70" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E70" s="2" t="n">
+        <v>45241.5</v>
+      </c>
+      <c r="F70" t="n">
+        <v>15</v>
+      </c>
+      <c r="G70" t="inlineStr">
+        <is>
+          <t>Rudeš</t>
+        </is>
+      </c>
+      <c r="H70" t="inlineStr">
+        <is>
+          <t>Istra 1961</t>
+        </is>
+      </c>
+      <c r="I70" t="n">
+        <v>0</v>
+      </c>
+      <c r="J70" t="n">
+        <v>3</v>
+      </c>
+      <c r="K70" t="n">
+        <v>3</v>
+      </c>
+      <c r="L70" t="n">
+        <v>0</v>
+      </c>
+      <c r="M70" t="n">
+        <v>4</v>
+      </c>
+      <c r="N70" t="n">
+        <v>4</v>
+      </c>
+      <c r="O70" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P70" t="inlineStr">
+        <is>
+          <t>['14', '26', '45+3', '57']</t>
+        </is>
+      </c>
+      <c r="Q70" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="R70" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S70" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="T70" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U70" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V70" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="W70" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="X70" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="Y70" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z70" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AA70" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB70" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AC70" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD70" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE70" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF70" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AG70" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AH70" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AI70" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AJ70" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AK70" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AL70" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM70" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AN70" t="n">
+        <v>0.29</v>
+      </c>
+      <c r="AO70" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AP70" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AQ70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR70" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AS70" t="n">
+        <v>1</v>
+      </c>
+      <c r="AT70" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AU70" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV70" t="n">
+        <v>10</v>
+      </c>
+      <c r="AW70" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX70" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY70" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ70" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA70" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB70" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC70" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD70" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE70" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF70" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BG70" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BH70" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BI70" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BJ70" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BK70" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="BL70" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BM70" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BN70" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BO70" t="n">
+        <v>3.96</v>
+      </c>
+      <c r="BP70" t="n">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="71">
+      <c r="A71" s="1" t="n">
+        <v>70</v>
+      </c>
+      <c r="B71" t="n">
+        <v>6441762</v>
+      </c>
+      <c r="C71" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D71" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E71" s="2" t="n">
+        <v>45241.59027777778</v>
+      </c>
+      <c r="F71" t="n">
+        <v>15</v>
+      </c>
+      <c r="G71" t="inlineStr">
+        <is>
+          <t>Osijek</t>
+        </is>
+      </c>
+      <c r="H71" t="inlineStr">
+        <is>
+          <t>Lokomotiva Zagreb</t>
+        </is>
+      </c>
+      <c r="I71" t="n">
+        <v>0</v>
+      </c>
+      <c r="J71" t="n">
+        <v>1</v>
+      </c>
+      <c r="K71" t="n">
+        <v>1</v>
+      </c>
+      <c r="L71" t="n">
+        <v>1</v>
+      </c>
+      <c r="M71" t="n">
+        <v>1</v>
+      </c>
+      <c r="N71" t="n">
+        <v>2</v>
+      </c>
+      <c r="O71" t="inlineStr">
+        <is>
+          <t>['87']</t>
+        </is>
+      </c>
+      <c r="P71" t="inlineStr">
+        <is>
+          <t>['10']</t>
+        </is>
+      </c>
+      <c r="Q71" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R71" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="S71" t="n">
+        <v>4.54</v>
+      </c>
+      <c r="T71" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U71" t="n">
+        <v>3</v>
+      </c>
+      <c r="V71" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="W71" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X71" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y71" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z71" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AA71" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB71" t="n">
+        <v>3.54</v>
+      </c>
+      <c r="AC71" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD71" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE71" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF71" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AG71" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AH71" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI71" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AJ71" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AK71" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AL71" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="AM71" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AN71" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AO71" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP71" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AQ71" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR71" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AS71" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AT71" t="n">
+        <v>3.41</v>
+      </c>
+      <c r="AU71" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV71" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW71" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX71" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY71" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ71" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA71" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB71" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC71" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD71" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BE71" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF71" t="n">
+        <v>2.92</v>
+      </c>
+      <c r="BG71" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH71" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BI71" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BJ71" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="BK71" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BL71" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BM71" t="n">
+        <v>2.34</v>
+      </c>
+      <c r="BN71" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BO71" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BP71" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="72">
+      <c r="A72" s="1" t="n">
+        <v>71</v>
+      </c>
+      <c r="B72" t="n">
+        <v>6441759</v>
+      </c>
+      <c r="C72" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D72" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E72" s="2" t="n">
+        <v>45242.52083333334</v>
+      </c>
+      <c r="F72" t="n">
+        <v>15</v>
+      </c>
+      <c r="G72" t="inlineStr">
+        <is>
+          <t>Hajduk Split</t>
+        </is>
+      </c>
+      <c r="H72" t="inlineStr">
+        <is>
+          <t>Varaždin</t>
+        </is>
+      </c>
+      <c r="I72" t="n">
+        <v>2</v>
+      </c>
+      <c r="J72" t="n">
+        <v>0</v>
+      </c>
+      <c r="K72" t="n">
+        <v>2</v>
+      </c>
+      <c r="L72" t="n">
+        <v>3</v>
+      </c>
+      <c r="M72" t="n">
+        <v>1</v>
+      </c>
+      <c r="N72" t="n">
+        <v>4</v>
+      </c>
+      <c r="O72" t="inlineStr">
+        <is>
+          <t>['35', '38', '66']</t>
+        </is>
+      </c>
+      <c r="P72" t="inlineStr">
+        <is>
+          <t>['83']</t>
+        </is>
+      </c>
+      <c r="Q72" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="R72" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="S72" t="n">
+        <v>7.9</v>
+      </c>
+      <c r="T72" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U72" t="n">
+        <v>3</v>
+      </c>
+      <c r="V72" t="n">
+        <v>2.68</v>
+      </c>
+      <c r="W72" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X72" t="n">
+        <v>6.55</v>
+      </c>
+      <c r="Y72" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z72" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AA72" t="n">
+        <v>4.9</v>
+      </c>
+      <c r="AB72" t="n">
+        <v>8.800000000000001</v>
+      </c>
+      <c r="AC72" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AD72" t="n">
+        <v>9.9</v>
+      </c>
+      <c r="AE72" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AF72" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AG72" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AH72" t="n">
+        <v>1.96</v>
+      </c>
+      <c r="AI72" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AJ72" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AK72" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AL72" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AM72" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="AN72" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AO72" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AP72" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AQ72" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AR72" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AS72" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AT72" t="n">
+        <v>3.01</v>
+      </c>
+      <c r="AU72" t="n">
+        <v>15</v>
+      </c>
+      <c r="AV72" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW72" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX72" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY72" t="n">
+        <v>21</v>
+      </c>
+      <c r="AZ72" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA72" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB72" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC72" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD72" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="BE72" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF72" t="n">
+        <v>5.65</v>
+      </c>
+      <c r="BG72" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BH72" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BI72" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BJ72" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="BK72" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BL72" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BM72" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="BN72" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BO72" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BP72" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="73">
+      <c r="A73" s="1" t="n">
+        <v>72</v>
+      </c>
+      <c r="B73" t="n">
+        <v>6441763</v>
+      </c>
+      <c r="C73" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D73" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E73" s="2" t="n">
+        <v>45242.625</v>
+      </c>
+      <c r="F73" t="n">
+        <v>15</v>
+      </c>
+      <c r="G73" t="inlineStr">
+        <is>
+          <t>Rijeka</t>
+        </is>
+      </c>
+      <c r="H73" t="inlineStr">
+        <is>
+          <t>Dinamo Zagreb</t>
+        </is>
+      </c>
+      <c r="I73" t="n">
+        <v>0</v>
+      </c>
+      <c r="J73" t="n">
+        <v>1</v>
+      </c>
+      <c r="K73" t="n">
+        <v>1</v>
+      </c>
+      <c r="L73" t="n">
+        <v>2</v>
+      </c>
+      <c r="M73" t="n">
+        <v>2</v>
+      </c>
+      <c r="N73" t="n">
+        <v>4</v>
+      </c>
+      <c r="O73" t="inlineStr">
+        <is>
+          <t>['53', '88']</t>
+        </is>
+      </c>
+      <c r="P73" t="inlineStr">
+        <is>
+          <t>['41', '81']</t>
+        </is>
+      </c>
+      <c r="Q73" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="R73" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S73" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="T73" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="U73" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="V73" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="W73" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X73" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="Y73" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z73" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="AA73" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB73" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="AC73" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD73" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE73" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF73" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AG73" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AH73" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AI73" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AJ73" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AK73" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL73" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM73" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AN73" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="AO73" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AP73" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AQ73" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AR73" t="n">
+        <v>2.26</v>
+      </c>
+      <c r="AS73" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AT73" t="n">
+        <v>4.14</v>
+      </c>
+      <c r="AU73" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV73" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW73" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX73" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY73" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ73" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA73" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB73" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC73" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD73" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BE73" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF73" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BG73" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BH73" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="BI73" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BJ73" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BK73" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="BL73" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BM73" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BN73" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BO73" t="n">
+        <v>4</v>
+      </c>
+      <c r="BP73" t="n">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP73"/>
+  <dimension ref="A1:BP74"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1355,7 +1355,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ6" t="n">
         <v>1</v>
@@ -2009,7 +2009,7 @@
         <v>1.71</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -3096,7 +3096,7 @@
         <v>1</v>
       </c>
       <c r="AP12" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ12" t="n">
         <v>0.71</v>
@@ -4407,7 +4407,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR18" t="n">
         <v>1.98</v>
@@ -5497,7 +5497,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ23" t="n">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR23" t="n">
         <v>1.73</v>
@@ -5930,7 +5930,7 @@
         <v>2</v>
       </c>
       <c r="AP25" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ25" t="n">
         <v>1.14</v>
@@ -7674,7 +7674,7 @@
         <v>0.25</v>
       </c>
       <c r="AP33" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ33" t="n">
         <v>0.14</v>
@@ -7895,7 +7895,7 @@
         <v>2.17</v>
       </c>
       <c r="AQ34" t="n">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR34" t="n">
         <v>1.83</v>
@@ -11598,7 +11598,7 @@
         <v>1.4</v>
       </c>
       <c r="AP51" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ51" t="n">
         <v>1.13</v>
@@ -12037,7 +12037,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ53" t="n">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR53" t="n">
         <v>1.4</v>
@@ -14214,7 +14214,7 @@
         <v>1.4</v>
       </c>
       <c r="AP63" t="n">
-        <v>1.33</v>
+        <v>1.14</v>
       </c>
       <c r="AQ63" t="n">
         <v>1.33</v>
@@ -15089,7 +15089,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ67" t="n">
-        <v>0.43</v>
+        <v>0.75</v>
       </c>
       <c r="AR67" t="n">
         <v>1.32</v>
@@ -16473,6 +16473,224 @@
       </c>
       <c r="BP73" t="n">
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="74">
+      <c r="A74" s="1" t="n">
+        <v>73</v>
+      </c>
+      <c r="B74" t="n">
+        <v>6441766</v>
+      </c>
+      <c r="C74" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D74" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E74" s="2" t="n">
+        <v>45254.58333333334</v>
+      </c>
+      <c r="F74" t="n">
+        <v>16</v>
+      </c>
+      <c r="G74" t="inlineStr">
+        <is>
+          <t>Lokomotiva Zagreb</t>
+        </is>
+      </c>
+      <c r="H74" t="inlineStr">
+        <is>
+          <t>Slaven Koprivnica</t>
+        </is>
+      </c>
+      <c r="I74" t="n">
+        <v>1</v>
+      </c>
+      <c r="J74" t="n">
+        <v>2</v>
+      </c>
+      <c r="K74" t="n">
+        <v>3</v>
+      </c>
+      <c r="L74" t="n">
+        <v>1</v>
+      </c>
+      <c r="M74" t="n">
+        <v>3</v>
+      </c>
+      <c r="N74" t="n">
+        <v>4</v>
+      </c>
+      <c r="O74" t="inlineStr">
+        <is>
+          <t>['24']</t>
+        </is>
+      </c>
+      <c r="P74" t="inlineStr">
+        <is>
+          <t>['14', '38', '90+3']</t>
+        </is>
+      </c>
+      <c r="Q74" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R74" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S74" t="n">
+        <v>5</v>
+      </c>
+      <c r="T74" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U74" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V74" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W74" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X74" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y74" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z74" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AA74" t="n">
+        <v>3.68</v>
+      </c>
+      <c r="AB74" t="n">
+        <v>4.47</v>
+      </c>
+      <c r="AC74" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD74" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE74" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF74" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AG74" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AH74" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AI74" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ74" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK74" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AL74" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM74" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AN74" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO74" t="n">
+        <v>0.43</v>
+      </c>
+      <c r="AP74" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AQ74" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AR74" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AS74" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AT74" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="AU74" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV74" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW74" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX74" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY74" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ74" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA74" t="n">
+        <v>11</v>
+      </c>
+      <c r="BB74" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC74" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD74" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BE74" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF74" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BG74" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH74" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BI74" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BJ74" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="BK74" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BL74" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BM74" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BN74" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BO74" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BP74" t="n">
+        <v>1.36</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP74"/>
+  <dimension ref="A1:BP76"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ2" t="n">
         <v>2.14</v>
@@ -2006,7 +2006,7 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ7" t="n">
         <v>0.75</v>
@@ -2663,7 +2663,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -2881,7 +2881,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ14" t="n">
         <v>1.13</v>
@@ -3968,7 +3968,7 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ16" t="n">
         <v>0.14</v>
@@ -4189,7 +4189,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ17" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR17" t="n">
         <v>0.82</v>
@@ -5712,7 +5712,7 @@
         <v>3</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ24" t="n">
         <v>2.14</v>
@@ -5933,7 +5933,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR25" t="n">
         <v>1.89</v>
@@ -6366,10 +6366,10 @@
         <v>0</v>
       </c>
       <c r="AP27" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR27" t="n">
         <v>1.7</v>
@@ -7892,7 +7892,7 @@
         <v>0.5</v>
       </c>
       <c r="AP34" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ34" t="n">
         <v>0.75</v>
@@ -8113,7 +8113,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ35" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR35" t="n">
         <v>2.48</v>
@@ -8546,7 +8546,7 @@
         <v>1.25</v>
       </c>
       <c r="AP37" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ37" t="n">
         <v>1</v>
@@ -9421,7 +9421,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ41" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR41" t="n">
         <v>1.05</v>
@@ -9854,7 +9854,7 @@
         <v>1.75</v>
       </c>
       <c r="AP43" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ43" t="n">
         <v>1.13</v>
@@ -10075,7 +10075,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ44" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR44" t="n">
         <v>1.11</v>
@@ -10293,7 +10293,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR45" t="n">
         <v>1.46</v>
@@ -11816,7 +11816,7 @@
         <v>1</v>
       </c>
       <c r="AP52" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ52" t="n">
         <v>1</v>
@@ -12252,7 +12252,7 @@
         <v>1.2</v>
       </c>
       <c r="AP54" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ54" t="n">
         <v>1</v>
@@ -12691,7 +12691,7 @@
         <v>0.86</v>
       </c>
       <c r="AQ56" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR56" t="n">
         <v>1.41</v>
@@ -12909,7 +12909,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ57" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR57" t="n">
         <v>1.76</v>
@@ -13996,7 +13996,7 @@
         <v>1.17</v>
       </c>
       <c r="AP62" t="n">
-        <v>2.17</v>
+        <v>2.29</v>
       </c>
       <c r="AQ62" t="n">
         <v>1</v>
@@ -14217,7 +14217,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ63" t="n">
-        <v>1.33</v>
+        <v>1.57</v>
       </c>
       <c r="AR63" t="n">
         <v>1.67</v>
@@ -14435,7 +14435,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ64" t="n">
-        <v>1.14</v>
+        <v>1</v>
       </c>
       <c r="AR64" t="n">
         <v>1.49</v>
@@ -14868,7 +14868,7 @@
         <v>1.8</v>
       </c>
       <c r="AP66" t="n">
-        <v>1.71</v>
+        <v>1.5</v>
       </c>
       <c r="AQ66" t="n">
         <v>1.57</v>
@@ -16627,22 +16627,22 @@
         <v>2.78</v>
       </c>
       <c r="AU74" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AV74" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AW74" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AX74" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AY74" t="n">
-        <v>16</v>
+        <v>18</v>
       </c>
       <c r="AZ74" t="n">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="BA74" t="n">
         <v>11</v>
@@ -16691,6 +16691,442 @@
       </c>
       <c r="BP74" t="n">
         <v>1.36</v>
+      </c>
+    </row>
+    <row r="75">
+      <c r="A75" s="1" t="n">
+        <v>74</v>
+      </c>
+      <c r="B75" t="n">
+        <v>6441764</v>
+      </c>
+      <c r="C75" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D75" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E75" s="2" t="n">
+        <v>45255.45833333334</v>
+      </c>
+      <c r="F75" t="n">
+        <v>16</v>
+      </c>
+      <c r="G75" t="inlineStr">
+        <is>
+          <t>Varaždin</t>
+        </is>
+      </c>
+      <c r="H75" t="inlineStr">
+        <is>
+          <t>Rijeka</t>
+        </is>
+      </c>
+      <c r="I75" t="n">
+        <v>0</v>
+      </c>
+      <c r="J75" t="n">
+        <v>1</v>
+      </c>
+      <c r="K75" t="n">
+        <v>1</v>
+      </c>
+      <c r="L75" t="n">
+        <v>0</v>
+      </c>
+      <c r="M75" t="n">
+        <v>2</v>
+      </c>
+      <c r="N75" t="n">
+        <v>2</v>
+      </c>
+      <c r="O75" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P75" t="inlineStr">
+        <is>
+          <t>['13', '53']</t>
+        </is>
+      </c>
+      <c r="Q75" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="R75" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S75" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="T75" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U75" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V75" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W75" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X75" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y75" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z75" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="AA75" t="n">
+        <v>3.45</v>
+      </c>
+      <c r="AB75" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AC75" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD75" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE75" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF75" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AG75" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AH75" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AI75" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ75" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK75" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="AL75" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM75" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AN75" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="AO75" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AP75" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ75" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AR75" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS75" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AT75" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AU75" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV75" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW75" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX75" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY75" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ75" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA75" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB75" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC75" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD75" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="BE75" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF75" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BG75" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH75" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BI75" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BJ75" t="n">
+        <v>2.48</v>
+      </c>
+      <c r="BK75" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BL75" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BM75" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BN75" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BO75" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BP75" t="n">
+        <v>1.35</v>
+      </c>
+    </row>
+    <row r="76">
+      <c r="A76" s="1" t="n">
+        <v>75</v>
+      </c>
+      <c r="B76" t="n">
+        <v>6441765</v>
+      </c>
+      <c r="C76" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D76" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E76" s="2" t="n">
+        <v>45255.5625</v>
+      </c>
+      <c r="F76" t="n">
+        <v>16</v>
+      </c>
+      <c r="G76" t="inlineStr">
+        <is>
+          <t>Dinamo Zagreb</t>
+        </is>
+      </c>
+      <c r="H76" t="inlineStr">
+        <is>
+          <t>Osijek</t>
+        </is>
+      </c>
+      <c r="I76" t="n">
+        <v>1</v>
+      </c>
+      <c r="J76" t="n">
+        <v>0</v>
+      </c>
+      <c r="K76" t="n">
+        <v>1</v>
+      </c>
+      <c r="L76" t="n">
+        <v>2</v>
+      </c>
+      <c r="M76" t="n">
+        <v>1</v>
+      </c>
+      <c r="N76" t="n">
+        <v>3</v>
+      </c>
+      <c r="O76" t="inlineStr">
+        <is>
+          <t>['24', '90']</t>
+        </is>
+      </c>
+      <c r="P76" t="inlineStr">
+        <is>
+          <t>['75']</t>
+        </is>
+      </c>
+      <c r="Q76" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="R76" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="S76" t="n">
+        <v>7</v>
+      </c>
+      <c r="T76" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U76" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V76" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W76" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X76" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y76" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z76" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AA76" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="AB76" t="n">
+        <v>6.9</v>
+      </c>
+      <c r="AC76" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD76" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE76" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF76" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG76" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AH76" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AI76" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ76" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK76" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AL76" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AM76" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AN76" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AO76" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AP76" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AQ76" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR76" t="n">
+        <v>2.04</v>
+      </c>
+      <c r="AS76" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AT76" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AU76" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV76" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW76" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX76" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY76" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ76" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA76" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB76" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC76" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD76" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BE76" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF76" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="BG76" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BH76" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BI76" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BJ76" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BK76" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BL76" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BM76" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BN76" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BO76" t="n">
+        <v>4.6</v>
+      </c>
+      <c r="BP76" t="n">
+        <v>1.16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP76"/>
+  <dimension ref="A1:BP78"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,7 +919,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ2" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1137,7 +1137,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ5" t="n">
         <v>0.71</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ8" t="n">
         <v>1</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ9" t="n">
         <v>1.57</v>
@@ -3317,7 +3317,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -3971,7 +3971,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR16" t="n">
         <v>1.69</v>
@@ -4186,7 +4186,7 @@
         <v>3</v>
       </c>
       <c r="AP17" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ17" t="n">
         <v>1</v>
@@ -4843,7 +4843,7 @@
         <v>0.25</v>
       </c>
       <c r="AQ20" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AR20" t="n">
         <v>1.48</v>
@@ -5494,7 +5494,7 @@
         <v>0.33</v>
       </c>
       <c r="AP23" t="n">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ23" t="n">
         <v>0.75</v>
@@ -5715,7 +5715,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ24" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AR24" t="n">
         <v>1.61</v>
@@ -6148,10 +6148,10 @@
         <v>0</v>
       </c>
       <c r="AP26" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ26" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR26" t="n">
         <v>1.3</v>
@@ -7677,7 +7677,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ33" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR33" t="n">
         <v>1.8</v>
@@ -8328,10 +8328,10 @@
         <v>3</v>
       </c>
       <c r="AP36" t="n">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ36" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AR36" t="n">
         <v>1.66</v>
@@ -8982,7 +8982,7 @@
         <v>1.33</v>
       </c>
       <c r="AP39" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ39" t="n">
         <v>1.13</v>
@@ -10726,7 +10726,7 @@
         <v>0.75</v>
       </c>
       <c r="AP47" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ47" t="n">
         <v>1</v>
@@ -11165,7 +11165,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ49" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR49" t="n">
         <v>1.93</v>
@@ -11383,7 +11383,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ50" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AR50" t="n">
         <v>2.42</v>
@@ -12470,7 +12470,7 @@
         <v>2.25</v>
       </c>
       <c r="AP55" t="n">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ55" t="n">
         <v>1.57</v>
@@ -12688,7 +12688,7 @@
         <v>1.5</v>
       </c>
       <c r="AP56" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ56" t="n">
         <v>1.57</v>
@@ -13127,7 +13127,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ58" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AR58" t="n">
         <v>1.37</v>
@@ -14432,7 +14432,7 @@
         <v>1.33</v>
       </c>
       <c r="AP64" t="n">
-        <v>2.33</v>
+        <v>2.43</v>
       </c>
       <c r="AQ64" t="n">
         <v>1</v>
@@ -14653,7 +14653,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ65" t="n">
-        <v>0.14</v>
+        <v>0.13</v>
       </c>
       <c r="AR65" t="n">
         <v>1.7</v>
@@ -15086,7 +15086,7 @@
         <v>0.5</v>
       </c>
       <c r="AP67" t="n">
-        <v>0.86</v>
+        <v>0.75</v>
       </c>
       <c r="AQ67" t="n">
         <v>0.75</v>
@@ -15307,7 +15307,7 @@
         <v>1.75</v>
       </c>
       <c r="AQ68" t="n">
-        <v>2.14</v>
+        <v>2.25</v>
       </c>
       <c r="AR68" t="n">
         <v>2.03</v>
@@ -16627,22 +16627,22 @@
         <v>2.78</v>
       </c>
       <c r="AU74" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AV74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AW74" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="AX74" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AY74" t="n">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="AZ74" t="n">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="BA74" t="n">
         <v>11</v>
@@ -16848,19 +16848,19 @@
         <v>4</v>
       </c>
       <c r="AV75" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW75" t="n">
         <v>5</v>
       </c>
-      <c r="AW75" t="n">
-        <v>4</v>
-      </c>
       <c r="AX75" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AY75" t="n">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="AZ75" t="n">
-        <v>13</v>
+        <v>15</v>
       </c>
       <c r="BA75" t="n">
         <v>3</v>
@@ -17063,22 +17063,22 @@
         <v>3.34</v>
       </c>
       <c r="AU76" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="AV76" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW76" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX76" t="n">
         <v>3</v>
       </c>
-      <c r="AW76" t="n">
-        <v>4</v>
-      </c>
-      <c r="AX76" t="n">
-        <v>2</v>
-      </c>
       <c r="AY76" t="n">
+        <v>11</v>
+      </c>
+      <c r="AZ76" t="n">
         <v>8</v>
-      </c>
-      <c r="AZ76" t="n">
-        <v>5</v>
       </c>
       <c r="BA76" t="n">
         <v>3</v>
@@ -17127,6 +17127,442 @@
       </c>
       <c r="BP76" t="n">
         <v>1.16</v>
+      </c>
+    </row>
+    <row r="77">
+      <c r="A77" s="1" t="n">
+        <v>76</v>
+      </c>
+      <c r="B77" t="n">
+        <v>6441768</v>
+      </c>
+      <c r="C77" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D77" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E77" s="2" t="n">
+        <v>45256.45833333334</v>
+      </c>
+      <c r="F77" t="n">
+        <v>16</v>
+      </c>
+      <c r="G77" t="inlineStr">
+        <is>
+          <t>Istra 1961</t>
+        </is>
+      </c>
+      <c r="H77" t="inlineStr">
+        <is>
+          <t>Hajduk Split</t>
+        </is>
+      </c>
+      <c r="I77" t="n">
+        <v>0</v>
+      </c>
+      <c r="J77" t="n">
+        <v>1</v>
+      </c>
+      <c r="K77" t="n">
+        <v>1</v>
+      </c>
+      <c r="L77" t="n">
+        <v>0</v>
+      </c>
+      <c r="M77" t="n">
+        <v>2</v>
+      </c>
+      <c r="N77" t="n">
+        <v>2</v>
+      </c>
+      <c r="O77" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P77" t="inlineStr">
+        <is>
+          <t>['16', '90']</t>
+        </is>
+      </c>
+      <c r="Q77" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="R77" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S77" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="T77" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U77" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V77" t="n">
+        <v>3</v>
+      </c>
+      <c r="W77" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X77" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y77" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z77" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AA77" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AB77" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AC77" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD77" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE77" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF77" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AG77" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH77" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AI77" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ77" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK77" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AL77" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AM77" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AN77" t="n">
+        <v>0.86</v>
+      </c>
+      <c r="AO77" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="AP77" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AQ77" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AR77" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AS77" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AT77" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AU77" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV77" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW77" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX77" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY77" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ77" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA77" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB77" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC77" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD77" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="BE77" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF77" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BG77" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BH77" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BI77" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BJ77" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BK77" t="n">
+        <v>2.27</v>
+      </c>
+      <c r="BL77" t="n">
+        <v>1.56</v>
+      </c>
+      <c r="BM77" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BN77" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BO77" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP77" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="78">
+      <c r="A78" s="1" t="n">
+        <v>77</v>
+      </c>
+      <c r="B78" t="n">
+        <v>6441767</v>
+      </c>
+      <c r="C78" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D78" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E78" s="2" t="n">
+        <v>45256.54861111111</v>
+      </c>
+      <c r="F78" t="n">
+        <v>16</v>
+      </c>
+      <c r="G78" t="inlineStr">
+        <is>
+          <t>Gorica</t>
+        </is>
+      </c>
+      <c r="H78" t="inlineStr">
+        <is>
+          <t>Rudeš</t>
+        </is>
+      </c>
+      <c r="I78" t="n">
+        <v>3</v>
+      </c>
+      <c r="J78" t="n">
+        <v>0</v>
+      </c>
+      <c r="K78" t="n">
+        <v>3</v>
+      </c>
+      <c r="L78" t="n">
+        <v>3</v>
+      </c>
+      <c r="M78" t="n">
+        <v>0</v>
+      </c>
+      <c r="N78" t="n">
+        <v>3</v>
+      </c>
+      <c r="O78" t="inlineStr">
+        <is>
+          <t>['16', '36', '45+3']</t>
+        </is>
+      </c>
+      <c r="P78" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q78" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R78" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S78" t="n">
+        <v>6</v>
+      </c>
+      <c r="T78" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U78" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V78" t="n">
+        <v>3</v>
+      </c>
+      <c r="W78" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X78" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y78" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z78" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AA78" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AB78" t="n">
+        <v>5.45</v>
+      </c>
+      <c r="AC78" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD78" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE78" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF78" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AG78" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AH78" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AI78" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ78" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK78" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AL78" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AM78" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AN78" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AO78" t="n">
+        <v>0.14</v>
+      </c>
+      <c r="AP78" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AQ78" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AR78" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AS78" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AT78" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="AU78" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV78" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW78" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX78" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY78" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ78" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA78" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB78" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC78" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD78" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BE78" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF78" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="BG78" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BH78" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="BI78" t="n">
+        <v>2</v>
+      </c>
+      <c r="BJ78" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BK78" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BL78" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BM78" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BN78" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BO78" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP78" t="n">
+        <v>0</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
@@ -17284,19 +17284,19 @@
         <v>0</v>
       </c>
       <c r="AV77" t="n">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AW77" t="n">
         <v>5</v>
       </c>
       <c r="AX77" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY77" t="n">
         <v>5</v>
       </c>
       <c r="AZ77" t="n">
-        <v>9</v>
+        <v>6</v>
       </c>
       <c r="BA77" t="n">
         <v>5</v>
@@ -17499,22 +17499,22 @@
         <v>2.51</v>
       </c>
       <c r="AU78" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AV78" t="n">
         <v>3</v>
       </c>
       <c r="AW78" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AX78" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AY78" t="n">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="AZ78" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="BA78" t="n">
         <v>4</v>

--- a/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
@@ -17284,19 +17284,19 @@
         <v>0</v>
       </c>
       <c r="AV77" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AW77" t="n">
         <v>5</v>
       </c>
       <c r="AX77" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY77" t="n">
         <v>5</v>
       </c>
       <c r="AZ77" t="n">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BA77" t="n">
         <v>5</v>
@@ -17499,22 +17499,22 @@
         <v>2.51</v>
       </c>
       <c r="AU78" t="n">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AV78" t="n">
         <v>3</v>
       </c>
       <c r="AW78" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX78" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AY78" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="AZ78" t="n">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="BA78" t="n">
         <v>4</v>

--- a/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP78"/>
+  <dimension ref="A1:BP83"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ4" t="n">
         <v>0.75</v>
@@ -1573,7 +1573,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -2660,7 +2660,7 @@
         <v>0</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AQ10" t="n">
         <v>1</v>
@@ -2878,10 +2878,10 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3099,7 +3099,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR12" t="n">
         <v>1.99</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ13" t="n">
         <v>0.13</v>
@@ -3535,7 +3535,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR14" t="n">
         <v>1.29</v>
@@ -4186,7 +4186,7 @@
         <v>3</v>
       </c>
       <c r="AP17" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ17" t="n">
         <v>1</v>
@@ -4404,7 +4404,7 @@
         <v>0.5</v>
       </c>
       <c r="AP18" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ18" t="n">
         <v>0.75</v>
@@ -4622,7 +4622,7 @@
         <v>0.5</v>
       </c>
       <c r="AP19" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ19" t="n">
         <v>1</v>
@@ -4840,7 +4840,7 @@
         <v>3</v>
       </c>
       <c r="AP20" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AQ20" t="n">
         <v>2.25</v>
@@ -5058,10 +5058,10 @@
         <v>1</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR21" t="n">
         <v>2.38</v>
@@ -6148,7 +6148,7 @@
         <v>0</v>
       </c>
       <c r="AP26" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ26" t="n">
         <v>0.13</v>
@@ -6369,7 +6369,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR27" t="n">
         <v>1.7</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AP28" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ28" t="n">
         <v>1</v>
@@ -6802,10 +6802,10 @@
         <v>0.5</v>
       </c>
       <c r="AP29" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR29" t="n">
         <v>1.5</v>
@@ -7020,7 +7020,7 @@
         <v>0.67</v>
       </c>
       <c r="AP30" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ30" t="n">
         <v>1</v>
@@ -7241,7 +7241,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ31" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR31" t="n">
         <v>2.62</v>
@@ -7456,10 +7456,10 @@
         <v>3</v>
       </c>
       <c r="AP32" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ32" t="n">
         <v>1.75</v>
-      </c>
-      <c r="AQ32" t="n">
-        <v>1.57</v>
       </c>
       <c r="AR32" t="n">
         <v>2.06</v>
@@ -8764,10 +8764,10 @@
         <v>1</v>
       </c>
       <c r="AP38" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ38" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR38" t="n">
         <v>1.91</v>
@@ -8982,10 +8982,10 @@
         <v>1.33</v>
       </c>
       <c r="AP39" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR39" t="n">
         <v>1.41</v>
@@ -9200,7 +9200,7 @@
         <v>1</v>
       </c>
       <c r="AP40" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ40" t="n">
         <v>1</v>
@@ -9418,10 +9418,10 @@
         <v>0</v>
       </c>
       <c r="AP41" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ41" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR41" t="n">
         <v>1.05</v>
@@ -9636,10 +9636,10 @@
         <v>3</v>
       </c>
       <c r="AP42" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AQ42" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR42" t="n">
         <v>1.73</v>
@@ -9857,7 +9857,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ43" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR43" t="n">
         <v>1.51</v>
@@ -10072,7 +10072,7 @@
         <v>1.25</v>
       </c>
       <c r="AP44" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ44" t="n">
         <v>1</v>
@@ -10290,10 +10290,10 @@
         <v>1</v>
       </c>
       <c r="AP45" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR45" t="n">
         <v>1.46</v>
@@ -10508,10 +10508,10 @@
         <v>3</v>
       </c>
       <c r="AP46" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ46" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR46" t="n">
         <v>1.9</v>
@@ -10726,7 +10726,7 @@
         <v>0.75</v>
       </c>
       <c r="AP47" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ47" t="n">
         <v>1</v>
@@ -10944,10 +10944,10 @@
         <v>1</v>
       </c>
       <c r="AP48" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ48" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR48" t="n">
         <v>1.31</v>
@@ -11162,7 +11162,7 @@
         <v>0.2</v>
       </c>
       <c r="AP49" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ49" t="n">
         <v>0.13</v>
@@ -11601,7 +11601,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ51" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR51" t="n">
         <v>1.71</v>
@@ -12034,7 +12034,7 @@
         <v>0.4</v>
       </c>
       <c r="AP53" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AQ53" t="n">
         <v>0.75</v>
@@ -12473,7 +12473,7 @@
         <v>2.43</v>
       </c>
       <c r="AQ55" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR55" t="n">
         <v>1.6</v>
@@ -12688,10 +12688,10 @@
         <v>1.5</v>
       </c>
       <c r="AP56" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ56" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR56" t="n">
         <v>1.41</v>
@@ -12906,7 +12906,7 @@
         <v>1</v>
       </c>
       <c r="AP57" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ57" t="n">
         <v>1</v>
@@ -13124,7 +13124,7 @@
         <v>1.8</v>
       </c>
       <c r="AP58" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ58" t="n">
         <v>2.25</v>
@@ -13342,10 +13342,10 @@
         <v>0.8</v>
       </c>
       <c r="AP59" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AQ59" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR59" t="n">
         <v>1.4</v>
@@ -13560,7 +13560,7 @@
         <v>0.83</v>
       </c>
       <c r="AP60" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ60" t="n">
         <v>1</v>
@@ -13781,7 +13781,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ61" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR61" t="n">
         <v>2.24</v>
@@ -14217,7 +14217,7 @@
         <v>1.14</v>
       </c>
       <c r="AQ63" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR63" t="n">
         <v>1.67</v>
@@ -14650,7 +14650,7 @@
         <v>0.17</v>
       </c>
       <c r="AP65" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ65" t="n">
         <v>0.13</v>
@@ -14871,7 +14871,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ66" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR66" t="n">
         <v>1.5</v>
@@ -15086,7 +15086,7 @@
         <v>0.5</v>
       </c>
       <c r="AP67" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ67" t="n">
         <v>0.75</v>
@@ -15304,7 +15304,7 @@
         <v>2</v>
       </c>
       <c r="AP68" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ68" t="n">
         <v>2.25</v>
@@ -15522,10 +15522,10 @@
         <v>1.14</v>
       </c>
       <c r="AP69" t="n">
-        <v>1.38</v>
+        <v>1.22</v>
       </c>
       <c r="AQ69" t="n">
-        <v>1.13</v>
+        <v>1</v>
       </c>
       <c r="AR69" t="n">
         <v>1.4</v>
@@ -15740,7 +15740,7 @@
         <v>0.71</v>
       </c>
       <c r="AP70" t="n">
-        <v>0.25</v>
+        <v>0.33</v>
       </c>
       <c r="AQ70" t="n">
         <v>1</v>
@@ -15958,7 +15958,7 @@
         <v>1</v>
       </c>
       <c r="AP71" t="n">
-        <v>1.75</v>
+        <v>1.67</v>
       </c>
       <c r="AQ71" t="n">
         <v>1</v>
@@ -16176,10 +16176,10 @@
         <v>0.83</v>
       </c>
       <c r="AP72" t="n">
-        <v>2.25</v>
+        <v>2.33</v>
       </c>
       <c r="AQ72" t="n">
-        <v>0.71</v>
+        <v>0.63</v>
       </c>
       <c r="AR72" t="n">
         <v>1.58</v>
@@ -16397,7 +16397,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ73" t="n">
-        <v>1.57</v>
+        <v>1.75</v>
       </c>
       <c r="AR73" t="n">
         <v>2.26</v>
@@ -16833,7 +16833,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ75" t="n">
-        <v>1.57</v>
+        <v>1.5</v>
       </c>
       <c r="AR75" t="n">
         <v>1.4</v>
@@ -17266,7 +17266,7 @@
         <v>2.14</v>
       </c>
       <c r="AP77" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AQ77" t="n">
         <v>2.25</v>
@@ -17563,6 +17563,1096 @@
       </c>
       <c r="BP78" t="n">
         <v>0</v>
+      </c>
+    </row>
+    <row r="79">
+      <c r="A79" s="1" t="n">
+        <v>78</v>
+      </c>
+      <c r="B79" t="n">
+        <v>6441769</v>
+      </c>
+      <c r="C79" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D79" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E79" s="2" t="n">
+        <v>45261.54166666666</v>
+      </c>
+      <c r="F79" t="n">
+        <v>17</v>
+      </c>
+      <c r="G79" t="inlineStr">
+        <is>
+          <t>Istra 1961</t>
+        </is>
+      </c>
+      <c r="H79" t="inlineStr">
+        <is>
+          <t>Varaždin</t>
+        </is>
+      </c>
+      <c r="I79" t="n">
+        <v>1</v>
+      </c>
+      <c r="J79" t="n">
+        <v>0</v>
+      </c>
+      <c r="K79" t="n">
+        <v>1</v>
+      </c>
+      <c r="L79" t="n">
+        <v>2</v>
+      </c>
+      <c r="M79" t="n">
+        <v>0</v>
+      </c>
+      <c r="N79" t="n">
+        <v>2</v>
+      </c>
+      <c r="O79" t="inlineStr">
+        <is>
+          <t>['45+4', '66']</t>
+        </is>
+      </c>
+      <c r="P79" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q79" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="R79" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S79" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="T79" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="U79" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="V79" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="W79" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X79" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="Y79" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z79" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AA79" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="AB79" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="AC79" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD79" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE79" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF79" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AG79" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AH79" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AI79" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AJ79" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK79" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AL79" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM79" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AN79" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AO79" t="n">
+        <v>0.71</v>
+      </c>
+      <c r="AP79" t="n">
+        <v>1</v>
+      </c>
+      <c r="AQ79" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AR79" t="n">
+        <v>1.21</v>
+      </c>
+      <c r="AS79" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AT79" t="n">
+        <v>2.59</v>
+      </c>
+      <c r="AU79" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV79" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW79" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX79" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY79" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ79" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA79" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB79" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC79" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD79" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="BE79" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF79" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BG79" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BH79" t="n">
+        <v>2.76</v>
+      </c>
+      <c r="BI79" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="BJ79" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BK79" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BL79" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BM79" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BN79" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BO79" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="BP79" t="n">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="80">
+      <c r="A80" s="1" t="n">
+        <v>79</v>
+      </c>
+      <c r="B80" t="n">
+        <v>6441773</v>
+      </c>
+      <c r="C80" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D80" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E80" s="2" t="n">
+        <v>45262.45833333334</v>
+      </c>
+      <c r="F80" t="n">
+        <v>17</v>
+      </c>
+      <c r="G80" t="inlineStr">
+        <is>
+          <t>Osijek</t>
+        </is>
+      </c>
+      <c r="H80" t="inlineStr">
+        <is>
+          <t>Rijeka</t>
+        </is>
+      </c>
+      <c r="I80" t="n">
+        <v>0</v>
+      </c>
+      <c r="J80" t="n">
+        <v>0</v>
+      </c>
+      <c r="K80" t="n">
+        <v>0</v>
+      </c>
+      <c r="L80" t="n">
+        <v>0</v>
+      </c>
+      <c r="M80" t="n">
+        <v>0</v>
+      </c>
+      <c r="N80" t="n">
+        <v>0</v>
+      </c>
+      <c r="O80" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P80" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q80" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="R80" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S80" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="T80" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U80" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V80" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="W80" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X80" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y80" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z80" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="AA80" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB80" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AC80" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD80" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE80" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF80" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AG80" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AH80" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI80" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AJ80" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AK80" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AL80" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM80" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AN80" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AO80" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AP80" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AQ80" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AR80" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AS80" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AT80" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="AU80" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV80" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW80" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX80" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY80" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ80" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA80" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB80" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC80" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD80" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BE80" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="BF80" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BG80" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BH80" t="n">
+        <v>2.72</v>
+      </c>
+      <c r="BI80" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="BJ80" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="BK80" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="BL80" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BM80" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BN80" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BO80" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP80" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="81">
+      <c r="A81" s="1" t="n">
+        <v>80</v>
+      </c>
+      <c r="B81" t="n">
+        <v>6441770</v>
+      </c>
+      <c r="C81" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D81" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E81" s="2" t="n">
+        <v>45262.5625</v>
+      </c>
+      <c r="F81" t="n">
+        <v>17</v>
+      </c>
+      <c r="G81" t="inlineStr">
+        <is>
+          <t>Hajduk Split</t>
+        </is>
+      </c>
+      <c r="H81" t="inlineStr">
+        <is>
+          <t>Gorica</t>
+        </is>
+      </c>
+      <c r="I81" t="n">
+        <v>1</v>
+      </c>
+      <c r="J81" t="n">
+        <v>0</v>
+      </c>
+      <c r="K81" t="n">
+        <v>1</v>
+      </c>
+      <c r="L81" t="n">
+        <v>3</v>
+      </c>
+      <c r="M81" t="n">
+        <v>0</v>
+      </c>
+      <c r="N81" t="n">
+        <v>3</v>
+      </c>
+      <c r="O81" t="inlineStr">
+        <is>
+          <t>['20', '64', '69']</t>
+        </is>
+      </c>
+      <c r="P81" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q81" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R81" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S81" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="T81" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U81" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V81" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W81" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X81" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y81" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z81" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AA81" t="n">
+        <v>4.44</v>
+      </c>
+      <c r="AB81" t="n">
+        <v>8.02</v>
+      </c>
+      <c r="AC81" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD81" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE81" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF81" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AG81" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AH81" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AI81" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AJ81" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK81" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AL81" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AM81" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AN81" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AO81" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AP81" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AQ81" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR81" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AS81" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT81" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AU81" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV81" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW81" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX81" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY81" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ81" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA81" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB81" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC81" t="n">
+        <v>14</v>
+      </c>
+      <c r="BD81" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BE81" t="n">
+        <v>10.2</v>
+      </c>
+      <c r="BF81" t="n">
+        <v>4.99</v>
+      </c>
+      <c r="BG81" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BH81" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BI81" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BJ81" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BK81" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BL81" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BM81" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BN81" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BO81" t="n">
+        <v>0</v>
+      </c>
+      <c r="BP81" t="n">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="82">
+      <c r="A82" s="1" t="n">
+        <v>81</v>
+      </c>
+      <c r="B82" t="n">
+        <v>6441771</v>
+      </c>
+      <c r="C82" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D82" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E82" s="2" t="n">
+        <v>45263.45833333334</v>
+      </c>
+      <c r="F82" t="n">
+        <v>17</v>
+      </c>
+      <c r="G82" t="inlineStr">
+        <is>
+          <t>Rudeš</t>
+        </is>
+      </c>
+      <c r="H82" t="inlineStr">
+        <is>
+          <t>Lokomotiva Zagreb</t>
+        </is>
+      </c>
+      <c r="I82" t="n">
+        <v>0</v>
+      </c>
+      <c r="J82" t="n">
+        <v>0</v>
+      </c>
+      <c r="K82" t="n">
+        <v>0</v>
+      </c>
+      <c r="L82" t="n">
+        <v>0</v>
+      </c>
+      <c r="M82" t="n">
+        <v>0</v>
+      </c>
+      <c r="N82" t="n">
+        <v>0</v>
+      </c>
+      <c r="O82" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P82" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q82" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R82" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S82" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="T82" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U82" t="n">
+        <v>3</v>
+      </c>
+      <c r="V82" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W82" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X82" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y82" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z82" t="n">
+        <v>3.03</v>
+      </c>
+      <c r="AA82" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AB82" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AC82" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD82" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE82" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF82" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AG82" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AH82" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AI82" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ82" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK82" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AL82" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM82" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AN82" t="n">
+        <v>0.25</v>
+      </c>
+      <c r="AO82" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP82" t="n">
+        <v>0.33</v>
+      </c>
+      <c r="AQ82" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR82" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AS82" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AT82" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="AU82" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV82" t="n">
+        <v>10</v>
+      </c>
+      <c r="AW82" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX82" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY82" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ82" t="n">
+        <v>15</v>
+      </c>
+      <c r="BA82" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB82" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC82" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD82" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BE82" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF82" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BG82" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH82" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BI82" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BJ82" t="n">
+        <v>2.49</v>
+      </c>
+      <c r="BK82" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BL82" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BM82" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BN82" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BO82" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BP82" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="83">
+      <c r="A83" s="1" t="n">
+        <v>82</v>
+      </c>
+      <c r="B83" t="n">
+        <v>6441772</v>
+      </c>
+      <c r="C83" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D83" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E83" s="2" t="n">
+        <v>45264.54166666666</v>
+      </c>
+      <c r="F83" t="n">
+        <v>17</v>
+      </c>
+      <c r="G83" t="inlineStr">
+        <is>
+          <t>Slaven Koprivnica</t>
+        </is>
+      </c>
+      <c r="H83" t="inlineStr">
+        <is>
+          <t>Dinamo Zagreb</t>
+        </is>
+      </c>
+      <c r="I83" t="n">
+        <v>0</v>
+      </c>
+      <c r="J83" t="n">
+        <v>1</v>
+      </c>
+      <c r="K83" t="n">
+        <v>1</v>
+      </c>
+      <c r="L83" t="n">
+        <v>0</v>
+      </c>
+      <c r="M83" t="n">
+        <v>2</v>
+      </c>
+      <c r="N83" t="n">
+        <v>2</v>
+      </c>
+      <c r="O83" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P83" t="inlineStr">
+        <is>
+          <t>['21', '79']</t>
+        </is>
+      </c>
+      <c r="Q83" t="n">
+        <v>8</v>
+      </c>
+      <c r="R83" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S83" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="T83" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U83" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V83" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W83" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X83" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y83" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z83" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="AA83" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="AB83" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AC83" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD83" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE83" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF83" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AG83" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AH83" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AI83" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AJ83" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK83" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AL83" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AM83" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AN83" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AO83" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AP83" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AQ83" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR83" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="AS83" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AT83" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AU83" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV83" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW83" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX83" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY83" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ83" t="n">
+        <v>11</v>
+      </c>
+      <c r="BA83" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB83" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC83" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD83" t="n">
+        <v>3.73</v>
+      </c>
+      <c r="BE83" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF83" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="BG83" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BH83" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="BI83" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BJ83" t="n">
+        <v>2</v>
+      </c>
+      <c r="BK83" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BL83" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BM83" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BN83" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BO83" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BP83" t="n">
+        <v>1.22</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
@@ -18589,22 +18589,22 @@
         <v>3.28</v>
       </c>
       <c r="AU83" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV83" t="n">
+        <v>10</v>
+      </c>
+      <c r="AW83" t="n">
         <v>4</v>
       </c>
-      <c r="AV83" t="n">
-        <v>9</v>
-      </c>
-      <c r="AW83" t="n">
-        <v>2</v>
-      </c>
       <c r="AX83" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY83" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AZ83" t="n">
-        <v>11</v>
+        <v>13</v>
       </c>
       <c r="BA83" t="n">
         <v>2</v>

--- a/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP83"/>
+  <dimension ref="A1:BP85"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -919,7 +919,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ2" t="n">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AQ5" t="n">
         <v>0.63</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ6" t="n">
         <v>1</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AQ8" t="n">
         <v>1</v>
@@ -3096,7 +3096,7 @@
         <v>1</v>
       </c>
       <c r="AP12" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ12" t="n">
         <v>0.63</v>
@@ -4843,7 +4843,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ20" t="n">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AR20" t="n">
         <v>1.48</v>
@@ -5494,7 +5494,7 @@
         <v>0.33</v>
       </c>
       <c r="AP23" t="n">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AQ23" t="n">
         <v>0.75</v>
@@ -5715,7 +5715,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ24" t="n">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AR24" t="n">
         <v>1.61</v>
@@ -5930,7 +5930,7 @@
         <v>2</v>
       </c>
       <c r="AP25" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ25" t="n">
         <v>1</v>
@@ -7674,7 +7674,7 @@
         <v>0.25</v>
       </c>
       <c r="AP33" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ33" t="n">
         <v>0.13</v>
@@ -8328,10 +8328,10 @@
         <v>3</v>
       </c>
       <c r="AP36" t="n">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AQ36" t="n">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AR36" t="n">
         <v>1.66</v>
@@ -11383,7 +11383,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ50" t="n">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AR50" t="n">
         <v>2.42</v>
@@ -11598,7 +11598,7 @@
         <v>1.4</v>
       </c>
       <c r="AP51" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ51" t="n">
         <v>1</v>
@@ -12470,7 +12470,7 @@
         <v>2.25</v>
       </c>
       <c r="AP55" t="n">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AQ55" t="n">
         <v>1.75</v>
@@ -13127,7 +13127,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ58" t="n">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AR58" t="n">
         <v>1.37</v>
@@ -14214,7 +14214,7 @@
         <v>1.4</v>
       </c>
       <c r="AP63" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ63" t="n">
         <v>1.5</v>
@@ -14432,7 +14432,7 @@
         <v>1.33</v>
       </c>
       <c r="AP64" t="n">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AQ64" t="n">
         <v>1</v>
@@ -15307,7 +15307,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ68" t="n">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AR68" t="n">
         <v>2.03</v>
@@ -16612,7 +16612,7 @@
         <v>0.43</v>
       </c>
       <c r="AP74" t="n">
-        <v>1.14</v>
+        <v>1.13</v>
       </c>
       <c r="AQ74" t="n">
         <v>0.75</v>
@@ -17269,7 +17269,7 @@
         <v>1</v>
       </c>
       <c r="AQ77" t="n">
-        <v>2.25</v>
+        <v>2.11</v>
       </c>
       <c r="AR77" t="n">
         <v>1.28</v>
@@ -17484,7 +17484,7 @@
         <v>0.14</v>
       </c>
       <c r="AP78" t="n">
-        <v>2.43</v>
+        <v>2.25</v>
       </c>
       <c r="AQ78" t="n">
         <v>0.13</v>
@@ -18653,6 +18653,442 @@
       </c>
       <c r="BP83" t="n">
         <v>1.22</v>
+      </c>
+    </row>
+    <row r="84">
+      <c r="A84" s="1" t="n">
+        <v>83</v>
+      </c>
+      <c r="B84" t="n">
+        <v>6441777</v>
+      </c>
+      <c r="C84" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D84" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E84" s="2" t="n">
+        <v>45268.5625</v>
+      </c>
+      <c r="F84" t="n">
+        <v>18</v>
+      </c>
+      <c r="G84" t="inlineStr">
+        <is>
+          <t>Lokomotiva Zagreb</t>
+        </is>
+      </c>
+      <c r="H84" t="inlineStr">
+        <is>
+          <t>Hajduk Split</t>
+        </is>
+      </c>
+      <c r="I84" t="n">
+        <v>1</v>
+      </c>
+      <c r="J84" t="n">
+        <v>0</v>
+      </c>
+      <c r="K84" t="n">
+        <v>1</v>
+      </c>
+      <c r="L84" t="n">
+        <v>1</v>
+      </c>
+      <c r="M84" t="n">
+        <v>1</v>
+      </c>
+      <c r="N84" t="n">
+        <v>2</v>
+      </c>
+      <c r="O84" t="inlineStr">
+        <is>
+          <t>['25']</t>
+        </is>
+      </c>
+      <c r="P84" t="inlineStr">
+        <is>
+          <t>['75']</t>
+        </is>
+      </c>
+      <c r="Q84" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="R84" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S84" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="T84" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="U84" t="n">
+        <v>2.91</v>
+      </c>
+      <c r="V84" t="n">
+        <v>2.78</v>
+      </c>
+      <c r="W84" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="X84" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y84" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z84" t="n">
+        <v>4.93</v>
+      </c>
+      <c r="AA84" t="n">
+        <v>3.71</v>
+      </c>
+      <c r="AB84" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AC84" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD84" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE84" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AF84" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AG84" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AH84" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AI84" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AJ84" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK84" t="n">
+        <v>2</v>
+      </c>
+      <c r="AL84" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AM84" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AN84" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AO84" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AP84" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AQ84" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AR84" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AS84" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AT84" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AU84" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV84" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW84" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX84" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY84" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ84" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA84" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB84" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC84" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD84" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="BE84" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF84" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BG84" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="BH84" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="BI84" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BJ84" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BK84" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="BL84" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BM84" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BN84" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BO84" t="n">
+        <v>3.18</v>
+      </c>
+      <c r="BP84" t="n">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="85">
+      <c r="A85" s="1" t="n">
+        <v>84</v>
+      </c>
+      <c r="B85" t="n">
+        <v>6441778</v>
+      </c>
+      <c r="C85" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D85" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E85" s="2" t="n">
+        <v>45269.45138888889</v>
+      </c>
+      <c r="F85" t="n">
+        <v>18</v>
+      </c>
+      <c r="G85" t="inlineStr">
+        <is>
+          <t>Gorica</t>
+        </is>
+      </c>
+      <c r="H85" t="inlineStr">
+        <is>
+          <t>Istra 1961</t>
+        </is>
+      </c>
+      <c r="I85" t="n">
+        <v>0</v>
+      </c>
+      <c r="J85" t="n">
+        <v>0</v>
+      </c>
+      <c r="K85" t="n">
+        <v>0</v>
+      </c>
+      <c r="L85" t="n">
+        <v>0</v>
+      </c>
+      <c r="M85" t="n">
+        <v>0</v>
+      </c>
+      <c r="N85" t="n">
+        <v>0</v>
+      </c>
+      <c r="O85" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P85" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q85" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="R85" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="S85" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="T85" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="U85" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="V85" t="n">
+        <v>3</v>
+      </c>
+      <c r="W85" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="X85" t="n">
+        <v>7.7</v>
+      </c>
+      <c r="Y85" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z85" t="n">
+        <v>1.74</v>
+      </c>
+      <c r="AA85" t="n">
+        <v>3.51</v>
+      </c>
+      <c r="AB85" t="n">
+        <v>4.58</v>
+      </c>
+      <c r="AC85" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD85" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="AE85" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AF85" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AG85" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH85" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AI85" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AJ85" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AK85" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="AL85" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM85" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="AN85" t="n">
+        <v>2.43</v>
+      </c>
+      <c r="AO85" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP85" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AQ85" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR85" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="AS85" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AT85" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AU85" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV85" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW85" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX85" t="n">
+        <v>12</v>
+      </c>
+      <c r="AY85" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ85" t="n">
+        <v>19</v>
+      </c>
+      <c r="BA85" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB85" t="n">
+        <v>10</v>
+      </c>
+      <c r="BC85" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD85" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BE85" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF85" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BG85" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BH85" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BI85" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BJ85" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BK85" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BL85" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BM85" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BN85" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BO85" t="n">
+        <v>4</v>
+      </c>
+      <c r="BP85" t="n">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP85"/>
+  <dimension ref="A1:BP88"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ2" t="n">
         <v>2.11</v>
@@ -1134,10 +1134,10 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>2.5</v>
+        <v>2.22</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1355,7 +1355,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -2006,10 +2006,10 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -3317,7 +3317,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ14" t="n">
         <v>1</v>
@@ -3750,7 +3750,7 @@
         <v>1</v>
       </c>
       <c r="AP15" t="n">
-        <v>2.5</v>
+        <v>2.22</v>
       </c>
       <c r="AQ15" t="n">
         <v>1</v>
@@ -3968,10 +3968,10 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AR16" t="n">
         <v>1.69</v>
@@ -4407,7 +4407,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR18" t="n">
         <v>1.98</v>
@@ -5276,7 +5276,7 @@
         <v>0</v>
       </c>
       <c r="AP22" t="n">
-        <v>2.5</v>
+        <v>2.22</v>
       </c>
       <c r="AQ22" t="n">
         <v>1</v>
@@ -5497,7 +5497,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ23" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR23" t="n">
         <v>1.73</v>
@@ -5712,7 +5712,7 @@
         <v>3</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ24" t="n">
         <v>2.11</v>
@@ -6151,7 +6151,7 @@
         <v>1</v>
       </c>
       <c r="AQ26" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AR26" t="n">
         <v>1.3</v>
@@ -6366,7 +6366,7 @@
         <v>0</v>
       </c>
       <c r="AP27" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ27" t="n">
         <v>1.5</v>
@@ -7238,7 +7238,7 @@
         <v>1</v>
       </c>
       <c r="AP31" t="n">
-        <v>2.5</v>
+        <v>2.22</v>
       </c>
       <c r="AQ31" t="n">
         <v>0.63</v>
@@ -7677,7 +7677,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ33" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AR33" t="n">
         <v>1.8</v>
@@ -7892,10 +7892,10 @@
         <v>0.5</v>
       </c>
       <c r="AP34" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ34" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR34" t="n">
         <v>1.83</v>
@@ -8110,7 +8110,7 @@
         <v>1.67</v>
       </c>
       <c r="AP35" t="n">
-        <v>2.5</v>
+        <v>2.22</v>
       </c>
       <c r="AQ35" t="n">
         <v>1</v>
@@ -8546,7 +8546,7 @@
         <v>1.25</v>
       </c>
       <c r="AP37" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ37" t="n">
         <v>1</v>
@@ -9854,7 +9854,7 @@
         <v>1.75</v>
       </c>
       <c r="AP43" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ43" t="n">
         <v>1</v>
@@ -11165,7 +11165,7 @@
         <v>1.67</v>
       </c>
       <c r="AQ49" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AR49" t="n">
         <v>1.93</v>
@@ -11380,7 +11380,7 @@
         <v>2.25</v>
       </c>
       <c r="AP50" t="n">
-        <v>2.5</v>
+        <v>2.22</v>
       </c>
       <c r="AQ50" t="n">
         <v>2.11</v>
@@ -11816,7 +11816,7 @@
         <v>1</v>
       </c>
       <c r="AP52" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ52" t="n">
         <v>1</v>
@@ -12037,7 +12037,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ53" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR53" t="n">
         <v>1.4</v>
@@ -12252,7 +12252,7 @@
         <v>1.2</v>
       </c>
       <c r="AP54" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ54" t="n">
         <v>1</v>
@@ -13778,7 +13778,7 @@
         <v>1.33</v>
       </c>
       <c r="AP61" t="n">
-        <v>2.5</v>
+        <v>2.22</v>
       </c>
       <c r="AQ61" t="n">
         <v>1</v>
@@ -13996,7 +13996,7 @@
         <v>1.17</v>
       </c>
       <c r="AP62" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ62" t="n">
         <v>1</v>
@@ -14653,7 +14653,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ65" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AR65" t="n">
         <v>1.7</v>
@@ -14868,7 +14868,7 @@
         <v>1.8</v>
       </c>
       <c r="AP66" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ66" t="n">
         <v>1.75</v>
@@ -15089,7 +15089,7 @@
         <v>1</v>
       </c>
       <c r="AQ67" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR67" t="n">
         <v>1.32</v>
@@ -16394,7 +16394,7 @@
         <v>1.67</v>
       </c>
       <c r="AP73" t="n">
-        <v>2.5</v>
+        <v>2.22</v>
       </c>
       <c r="AQ73" t="n">
         <v>1.75</v>
@@ -16615,7 +16615,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ74" t="n">
-        <v>0.75</v>
+        <v>1</v>
       </c>
       <c r="AR74" t="n">
         <v>1.5</v>
@@ -16830,7 +16830,7 @@
         <v>1.33</v>
       </c>
       <c r="AP75" t="n">
-        <v>1.5</v>
+        <v>1.44</v>
       </c>
       <c r="AQ75" t="n">
         <v>1.5</v>
@@ -17048,7 +17048,7 @@
         <v>1.14</v>
       </c>
       <c r="AP76" t="n">
-        <v>2.29</v>
+        <v>2.38</v>
       </c>
       <c r="AQ76" t="n">
         <v>1</v>
@@ -17487,7 +17487,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ78" t="n">
-        <v>0.13</v>
+        <v>0.11</v>
       </c>
       <c r="AR78" t="n">
         <v>1.49</v>
@@ -18810,19 +18810,19 @@
         <v>6</v>
       </c>
       <c r="AV84" t="n">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AW84" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="AX84" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AY84" t="n">
-        <v>10</v>
+        <v>8</v>
       </c>
       <c r="AZ84" t="n">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BA84" t="n">
         <v>4</v>
@@ -19028,19 +19028,19 @@
         <v>0</v>
       </c>
       <c r="AV85" t="n">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AW85" t="n">
         <v>5</v>
       </c>
       <c r="AX85" t="n">
-        <v>12</v>
+        <v>16</v>
       </c>
       <c r="AY85" t="n">
         <v>5</v>
       </c>
       <c r="AZ85" t="n">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="BA85" t="n">
         <v>1</v>
@@ -19089,6 +19089,660 @@
       </c>
       <c r="BP85" t="n">
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="86">
+      <c r="A86" s="1" t="n">
+        <v>85</v>
+      </c>
+      <c r="B86" t="n">
+        <v>6441776</v>
+      </c>
+      <c r="C86" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D86" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E86" s="2" t="n">
+        <v>45269.54166666666</v>
+      </c>
+      <c r="F86" t="n">
+        <v>18</v>
+      </c>
+      <c r="G86" t="inlineStr">
+        <is>
+          <t>Dinamo Zagreb</t>
+        </is>
+      </c>
+      <c r="H86" t="inlineStr">
+        <is>
+          <t>Rudeš</t>
+        </is>
+      </c>
+      <c r="I86" t="n">
+        <v>0</v>
+      </c>
+      <c r="J86" t="n">
+        <v>0</v>
+      </c>
+      <c r="K86" t="n">
+        <v>0</v>
+      </c>
+      <c r="L86" t="n">
+        <v>1</v>
+      </c>
+      <c r="M86" t="n">
+        <v>0</v>
+      </c>
+      <c r="N86" t="n">
+        <v>1</v>
+      </c>
+      <c r="O86" t="inlineStr">
+        <is>
+          <t>['76']</t>
+        </is>
+      </c>
+      <c r="P86" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q86" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="R86" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="S86" t="n">
+        <v>13</v>
+      </c>
+      <c r="T86" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="U86" t="n">
+        <v>4</v>
+      </c>
+      <c r="V86" t="n">
+        <v>2</v>
+      </c>
+      <c r="W86" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="X86" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="Y86" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="Z86" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AA86" t="n">
+        <v>9.1</v>
+      </c>
+      <c r="AB86" t="n">
+        <v>21</v>
+      </c>
+      <c r="AC86" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD86" t="n">
+        <v>15</v>
+      </c>
+      <c r="AE86" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AF86" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AG86" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AH86" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AI86" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AJ86" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AK86" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AL86" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AM86" t="n">
+        <v>7</v>
+      </c>
+      <c r="AN86" t="n">
+        <v>2.29</v>
+      </c>
+      <c r="AO86" t="n">
+        <v>0.13</v>
+      </c>
+      <c r="AP86" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AQ86" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AR86" t="n">
+        <v>2</v>
+      </c>
+      <c r="AS86" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AT86" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="AU86" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV86" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW86" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX86" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY86" t="n">
+        <v>13</v>
+      </c>
+      <c r="AZ86" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA86" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB86" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC86" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD86" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="BE86" t="n">
+        <v>12</v>
+      </c>
+      <c r="BF86" t="n">
+        <v>7.6</v>
+      </c>
+      <c r="BG86" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BH86" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BI86" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="BJ86" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BK86" t="n">
+        <v>2.01</v>
+      </c>
+      <c r="BL86" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="BM86" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BN86" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BO86" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="BP86" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="87">
+      <c r="A87" s="1" t="n">
+        <v>86</v>
+      </c>
+      <c r="B87" t="n">
+        <v>6441774</v>
+      </c>
+      <c r="C87" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D87" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E87" s="2" t="n">
+        <v>45270.45833333334</v>
+      </c>
+      <c r="F87" t="n">
+        <v>18</v>
+      </c>
+      <c r="G87" t="inlineStr">
+        <is>
+          <t>Varaždin</t>
+        </is>
+      </c>
+      <c r="H87" t="inlineStr">
+        <is>
+          <t>Osijek</t>
+        </is>
+      </c>
+      <c r="I87" t="n">
+        <v>1</v>
+      </c>
+      <c r="J87" t="n">
+        <v>1</v>
+      </c>
+      <c r="K87" t="n">
+        <v>2</v>
+      </c>
+      <c r="L87" t="n">
+        <v>2</v>
+      </c>
+      <c r="M87" t="n">
+        <v>2</v>
+      </c>
+      <c r="N87" t="n">
+        <v>4</v>
+      </c>
+      <c r="O87" t="inlineStr">
+        <is>
+          <t>['38', '69']</t>
+        </is>
+      </c>
+      <c r="P87" t="inlineStr">
+        <is>
+          <t>['6', '90+2']</t>
+        </is>
+      </c>
+      <c r="Q87" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R87" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S87" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="T87" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U87" t="n">
+        <v>3</v>
+      </c>
+      <c r="V87" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W87" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X87" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y87" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z87" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AA87" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="AB87" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AC87" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD87" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE87" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF87" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AG87" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="AH87" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AI87" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AJ87" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK87" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AL87" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM87" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AN87" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO87" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP87" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AQ87" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR87" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AS87" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT87" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="AU87" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV87" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW87" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX87" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY87" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ87" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA87" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB87" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC87" t="n">
+        <v>3</v>
+      </c>
+      <c r="BD87" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BE87" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF87" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BG87" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BH87" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BI87" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BJ87" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BK87" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="BL87" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BM87" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BN87" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BO87" t="n">
+        <v>3.65</v>
+      </c>
+      <c r="BP87" t="n">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="88">
+      <c r="A88" s="1" t="n">
+        <v>87</v>
+      </c>
+      <c r="B88" t="n">
+        <v>6441775</v>
+      </c>
+      <c r="C88" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D88" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E88" s="2" t="n">
+        <v>45270.54861111111</v>
+      </c>
+      <c r="F88" t="n">
+        <v>18</v>
+      </c>
+      <c r="G88" t="inlineStr">
+        <is>
+          <t>Rijeka</t>
+        </is>
+      </c>
+      <c r="H88" t="inlineStr">
+        <is>
+          <t>Slaven Koprivnica</t>
+        </is>
+      </c>
+      <c r="I88" t="n">
+        <v>0</v>
+      </c>
+      <c r="J88" t="n">
+        <v>1</v>
+      </c>
+      <c r="K88" t="n">
+        <v>1</v>
+      </c>
+      <c r="L88" t="n">
+        <v>2</v>
+      </c>
+      <c r="M88" t="n">
+        <v>4</v>
+      </c>
+      <c r="N88" t="n">
+        <v>6</v>
+      </c>
+      <c r="O88" t="inlineStr">
+        <is>
+          <t>['78', '89']</t>
+        </is>
+      </c>
+      <c r="P88" t="inlineStr">
+        <is>
+          <t>['45+2', '70', '76', '85']</t>
+        </is>
+      </c>
+      <c r="Q88" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R88" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="S88" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="T88" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U88" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V88" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W88" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X88" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y88" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Z88" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA88" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB88" t="n">
+        <v>10</v>
+      </c>
+      <c r="AC88" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD88" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE88" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF88" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AG88" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AH88" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AI88" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AJ88" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AK88" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AL88" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AM88" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AN88" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="AO88" t="n">
+        <v>0.75</v>
+      </c>
+      <c r="AP88" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AQ88" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR88" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="AS88" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT88" t="n">
+        <v>3.53</v>
+      </c>
+      <c r="AU88" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW88" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX88" t="n">
+        <v>0</v>
+      </c>
+      <c r="AY88" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ88" t="n">
+        <v>0</v>
+      </c>
+      <c r="BA88" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB88" t="n">
+        <v>0</v>
+      </c>
+      <c r="BC88" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD88" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BE88" t="n">
+        <v>11</v>
+      </c>
+      <c r="BF88" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="BG88" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH88" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BI88" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BJ88" t="n">
+        <v>2.39</v>
+      </c>
+      <c r="BK88" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BL88" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BM88" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BN88" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BO88" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BP88" t="n">
+        <v>1.27</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
@@ -19246,13 +19246,13 @@
         <v>6</v>
       </c>
       <c r="AV86" t="n">
-        <v>5</v>
+        <v>4</v>
       </c>
       <c r="AW86" t="n">
         <v>7</v>
       </c>
       <c r="AX86" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AY86" t="n">
         <v>13</v>
@@ -19461,31 +19461,31 @@
         <v>2.65</v>
       </c>
       <c r="AU87" t="n">
+        <v>7</v>
+      </c>
+      <c r="AV87" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW87" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX87" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY87" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ87" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA87" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB87" t="n">
         <v>4</v>
       </c>
-      <c r="AV87" t="n">
-        <v>4</v>
-      </c>
-      <c r="AW87" t="n">
-        <v>2</v>
-      </c>
-      <c r="AX87" t="n">
-        <v>1</v>
-      </c>
-      <c r="AY87" t="n">
+      <c r="BC87" t="n">
         <v>6</v>
-      </c>
-      <c r="AZ87" t="n">
-        <v>5</v>
-      </c>
-      <c r="BA87" t="n">
-        <v>1</v>
-      </c>
-      <c r="BB87" t="n">
-        <v>2</v>
-      </c>
-      <c r="BC87" t="n">
-        <v>3</v>
       </c>
       <c r="BD87" t="n">
         <v>2.52</v>
@@ -19679,22 +19679,22 @@
         <v>3.53</v>
       </c>
       <c r="AU88" t="n">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AV88" t="n">
-        <v>0</v>
+        <v>5</v>
       </c>
       <c r="AW88" t="n">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="AX88" t="n">
-        <v>0</v>
+        <v>2</v>
       </c>
       <c r="AY88" t="n">
-        <v>9</v>
+        <v>15</v>
       </c>
       <c r="AZ88" t="n">
-        <v>0</v>
+        <v>7</v>
       </c>
       <c r="BA88" t="n">
         <v>4</v>

--- a/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP88"/>
+  <dimension ref="A1:BP92"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1134,10 +1134,10 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1352,10 +1352,10 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1570,10 +1570,10 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -1788,10 +1788,10 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ6" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2009,7 +2009,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ8" t="n">
         <v>1</v>
@@ -3096,10 +3096,10 @@
         <v>1</v>
       </c>
       <c r="AP12" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR12" t="n">
         <v>1.99</v>
@@ -3317,7 +3317,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -3750,10 +3750,10 @@
         <v>1</v>
       </c>
       <c r="AP15" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ15" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR15" t="n">
         <v>2.17</v>
@@ -3971,7 +3971,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AR16" t="n">
         <v>1.69</v>
@@ -4407,7 +4407,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR18" t="n">
         <v>1.98</v>
@@ -4625,7 +4625,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ19" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR19" t="n">
         <v>1.39</v>
@@ -5058,7 +5058,7 @@
         <v>1</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ21" t="n">
         <v>1</v>
@@ -5276,7 +5276,7 @@
         <v>0</v>
       </c>
       <c r="AP22" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ22" t="n">
         <v>1</v>
@@ -5494,10 +5494,10 @@
         <v>0.33</v>
       </c>
       <c r="AP23" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ23" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR23" t="n">
         <v>1.73</v>
@@ -5930,7 +5930,7 @@
         <v>2</v>
       </c>
       <c r="AP25" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ25" t="n">
         <v>1</v>
@@ -6151,7 +6151,7 @@
         <v>1</v>
       </c>
       <c r="AQ26" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AR26" t="n">
         <v>1.3</v>
@@ -7023,7 +7023,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ30" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR30" t="n">
         <v>2.07</v>
@@ -7238,10 +7238,10 @@
         <v>1</v>
       </c>
       <c r="AP31" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ31" t="n">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR31" t="n">
         <v>2.62</v>
@@ -7456,7 +7456,7 @@
         <v>3</v>
       </c>
       <c r="AP32" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ32" t="n">
         <v>1.75</v>
@@ -7674,10 +7674,10 @@
         <v>0.25</v>
       </c>
       <c r="AP33" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ33" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AR33" t="n">
         <v>1.8</v>
@@ -7895,7 +7895,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ34" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR34" t="n">
         <v>1.83</v>
@@ -8110,7 +8110,7 @@
         <v>1.67</v>
       </c>
       <c r="AP35" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ35" t="n">
         <v>1</v>
@@ -8328,7 +8328,7 @@
         <v>3</v>
       </c>
       <c r="AP36" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ36" t="n">
         <v>2.11</v>
@@ -8549,7 +8549,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ37" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR37" t="n">
         <v>1.58</v>
@@ -8764,10 +8764,10 @@
         <v>1</v>
       </c>
       <c r="AP38" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ38" t="n">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR38" t="n">
         <v>1.91</v>
@@ -10947,7 +10947,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ48" t="n">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR48" t="n">
         <v>1.31</v>
@@ -11162,10 +11162,10 @@
         <v>0.2</v>
       </c>
       <c r="AP49" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ49" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AR49" t="n">
         <v>1.93</v>
@@ -11380,7 +11380,7 @@
         <v>2.25</v>
       </c>
       <c r="AP50" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ50" t="n">
         <v>2.11</v>
@@ -11598,7 +11598,7 @@
         <v>1.4</v>
       </c>
       <c r="AP51" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ51" t="n">
         <v>1</v>
@@ -11819,7 +11819,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ52" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR52" t="n">
         <v>1.85</v>
@@ -12037,7 +12037,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ53" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR53" t="n">
         <v>1.4</v>
@@ -12470,7 +12470,7 @@
         <v>2.25</v>
       </c>
       <c r="AP55" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ55" t="n">
         <v>1.75</v>
@@ -13345,7 +13345,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ59" t="n">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR59" t="n">
         <v>1.4</v>
@@ -13560,10 +13560,10 @@
         <v>0.83</v>
       </c>
       <c r="AP60" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ60" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR60" t="n">
         <v>1.99</v>
@@ -13778,7 +13778,7 @@
         <v>1.33</v>
       </c>
       <c r="AP61" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ61" t="n">
         <v>1</v>
@@ -14214,7 +14214,7 @@
         <v>1.4</v>
       </c>
       <c r="AP63" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ63" t="n">
         <v>1.5</v>
@@ -14432,7 +14432,7 @@
         <v>1.33</v>
       </c>
       <c r="AP64" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ64" t="n">
         <v>1</v>
@@ -14653,7 +14653,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ65" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AR65" t="n">
         <v>1.7</v>
@@ -15089,7 +15089,7 @@
         <v>1</v>
       </c>
       <c r="AQ67" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR67" t="n">
         <v>1.32</v>
@@ -15304,7 +15304,7 @@
         <v>2</v>
       </c>
       <c r="AP68" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ68" t="n">
         <v>2.11</v>
@@ -15743,7 +15743,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ70" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR70" t="n">
         <v>1.43</v>
@@ -15958,7 +15958,7 @@
         <v>1</v>
       </c>
       <c r="AP71" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ71" t="n">
         <v>1</v>
@@ -16179,7 +16179,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ72" t="n">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR72" t="n">
         <v>1.58</v>
@@ -16394,7 +16394,7 @@
         <v>1.67</v>
       </c>
       <c r="AP73" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ73" t="n">
         <v>1.75</v>
@@ -16612,10 +16612,10 @@
         <v>0.43</v>
       </c>
       <c r="AP74" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ74" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR74" t="n">
         <v>1.5</v>
@@ -17484,10 +17484,10 @@
         <v>0.14</v>
       </c>
       <c r="AP78" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ78" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AR78" t="n">
         <v>1.49</v>
@@ -17705,7 +17705,7 @@
         <v>1</v>
       </c>
       <c r="AQ79" t="n">
-        <v>0.63</v>
+        <v>0.89</v>
       </c>
       <c r="AR79" t="n">
         <v>1.21</v>
@@ -17920,7 +17920,7 @@
         <v>1.57</v>
       </c>
       <c r="AP80" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AQ80" t="n">
         <v>1.5</v>
@@ -18792,7 +18792,7 @@
         <v>2.25</v>
       </c>
       <c r="AP84" t="n">
-        <v>1.13</v>
+        <v>1.33</v>
       </c>
       <c r="AQ84" t="n">
         <v>2.11</v>
@@ -19010,10 +19010,10 @@
         <v>1</v>
       </c>
       <c r="AP85" t="n">
-        <v>2.25</v>
+        <v>2</v>
       </c>
       <c r="AQ85" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR85" t="n">
         <v>1.52</v>
@@ -19231,7 +19231,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ86" t="n">
-        <v>0.11</v>
+        <v>0.1</v>
       </c>
       <c r="AR86" t="n">
         <v>2</v>
@@ -19664,10 +19664,10 @@
         <v>0.75</v>
       </c>
       <c r="AP88" t="n">
-        <v>2.22</v>
+        <v>2.3</v>
       </c>
       <c r="AQ88" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR88" t="n">
         <v>2.24</v>
@@ -19743,6 +19743,878 @@
       </c>
       <c r="BP88" t="n">
         <v>1.27</v>
+      </c>
+    </row>
+    <row r="89">
+      <c r="A89" s="1" t="n">
+        <v>88</v>
+      </c>
+      <c r="B89" t="n">
+        <v>6441779</v>
+      </c>
+      <c r="C89" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D89" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E89" s="2" t="n">
+        <v>45275.54166666666</v>
+      </c>
+      <c r="F89" t="n">
+        <v>19</v>
+      </c>
+      <c r="G89" t="inlineStr">
+        <is>
+          <t>Gorica</t>
+        </is>
+      </c>
+      <c r="H89" t="inlineStr">
+        <is>
+          <t>Varaždin</t>
+        </is>
+      </c>
+      <c r="I89" t="n">
+        <v>0</v>
+      </c>
+      <c r="J89" t="n">
+        <v>0</v>
+      </c>
+      <c r="K89" t="n">
+        <v>0</v>
+      </c>
+      <c r="L89" t="n">
+        <v>1</v>
+      </c>
+      <c r="M89" t="n">
+        <v>3</v>
+      </c>
+      <c r="N89" t="n">
+        <v>4</v>
+      </c>
+      <c r="O89" t="inlineStr">
+        <is>
+          <t>['80']</t>
+        </is>
+      </c>
+      <c r="P89" t="inlineStr">
+        <is>
+          <t>['59', '72', '73']</t>
+        </is>
+      </c>
+      <c r="Q89" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="R89" t="n">
+        <v>2</v>
+      </c>
+      <c r="S89" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="T89" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U89" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="V89" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W89" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X89" t="n">
+        <v>8</v>
+      </c>
+      <c r="Y89" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z89" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="AA89" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="AB89" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="AC89" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD89" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE89" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AF89" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AG89" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AH89" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AI89" t="n">
+        <v>2</v>
+      </c>
+      <c r="AJ89" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AK89" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL89" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM89" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AN89" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AO89" t="n">
+        <v>0.63</v>
+      </c>
+      <c r="AP89" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ89" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AR89" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AS89" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AT89" t="n">
+        <v>2.74</v>
+      </c>
+      <c r="AU89" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV89" t="n">
+        <v>13</v>
+      </c>
+      <c r="AW89" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX89" t="n">
+        <v>7</v>
+      </c>
+      <c r="AY89" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ89" t="n">
+        <v>20</v>
+      </c>
+      <c r="BA89" t="n">
+        <v>0</v>
+      </c>
+      <c r="BB89" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC89" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD89" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="BE89" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF89" t="n">
+        <v>3.02</v>
+      </c>
+      <c r="BG89" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BH89" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BI89" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BJ89" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BK89" t="n">
+        <v>2.14</v>
+      </c>
+      <c r="BL89" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BM89" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BN89" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BO89" t="n">
+        <v>4</v>
+      </c>
+      <c r="BP89" t="n">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="90">
+      <c r="A90" s="1" t="n">
+        <v>89</v>
+      </c>
+      <c r="B90" t="n">
+        <v>6441780</v>
+      </c>
+      <c r="C90" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D90" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E90" s="2" t="n">
+        <v>45276.45138888889</v>
+      </c>
+      <c r="F90" t="n">
+        <v>19</v>
+      </c>
+      <c r="G90" t="inlineStr">
+        <is>
+          <t>Lokomotiva Zagreb</t>
+        </is>
+      </c>
+      <c r="H90" t="inlineStr">
+        <is>
+          <t>Istra 1961</t>
+        </is>
+      </c>
+      <c r="I90" t="n">
+        <v>1</v>
+      </c>
+      <c r="J90" t="n">
+        <v>0</v>
+      </c>
+      <c r="K90" t="n">
+        <v>1</v>
+      </c>
+      <c r="L90" t="n">
+        <v>3</v>
+      </c>
+      <c r="M90" t="n">
+        <v>0</v>
+      </c>
+      <c r="N90" t="n">
+        <v>3</v>
+      </c>
+      <c r="O90" t="inlineStr">
+        <is>
+          <t>['43', '61', '90+2']</t>
+        </is>
+      </c>
+      <c r="P90" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q90" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="R90" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S90" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="T90" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U90" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V90" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W90" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X90" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y90" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z90" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AA90" t="n">
+        <v>3.62</v>
+      </c>
+      <c r="AB90" t="n">
+        <v>3.82</v>
+      </c>
+      <c r="AC90" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD90" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE90" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AF90" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AG90" t="n">
+        <v>2.02</v>
+      </c>
+      <c r="AH90" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AI90" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AJ90" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK90" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AL90" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AM90" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AN90" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AO90" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP90" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AQ90" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AR90" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AS90" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AT90" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AU90" t="n">
+        <v>11</v>
+      </c>
+      <c r="AV90" t="n">
+        <v>9</v>
+      </c>
+      <c r="AW90" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX90" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY90" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ90" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA90" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB90" t="n">
+        <v>7</v>
+      </c>
+      <c r="BC90" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD90" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BE90" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF90" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="BG90" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH90" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BI90" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BJ90" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BK90" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BL90" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BM90" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BN90" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BO90" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BP90" t="n">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="91">
+      <c r="A91" s="1" t="n">
+        <v>90</v>
+      </c>
+      <c r="B91" t="n">
+        <v>6441782</v>
+      </c>
+      <c r="C91" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D91" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E91" s="2" t="n">
+        <v>45276.54166666666</v>
+      </c>
+      <c r="F91" t="n">
+        <v>19</v>
+      </c>
+      <c r="G91" t="inlineStr">
+        <is>
+          <t>Rijeka</t>
+        </is>
+      </c>
+      <c r="H91" t="inlineStr">
+        <is>
+          <t>Rudeš</t>
+        </is>
+      </c>
+      <c r="I91" t="n">
+        <v>1</v>
+      </c>
+      <c r="J91" t="n">
+        <v>0</v>
+      </c>
+      <c r="K91" t="n">
+        <v>1</v>
+      </c>
+      <c r="L91" t="n">
+        <v>3</v>
+      </c>
+      <c r="M91" t="n">
+        <v>0</v>
+      </c>
+      <c r="N91" t="n">
+        <v>3</v>
+      </c>
+      <c r="O91" t="inlineStr">
+        <is>
+          <t>['14', '63', '74']</t>
+        </is>
+      </c>
+      <c r="P91" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q91" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="R91" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="S91" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="T91" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="U91" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="V91" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="W91" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="X91" t="n">
+        <v>4.95</v>
+      </c>
+      <c r="Y91" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z91" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AA91" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AB91" t="n">
+        <v>13</v>
+      </c>
+      <c r="AC91" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AD91" t="n">
+        <v>21</v>
+      </c>
+      <c r="AE91" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AF91" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AG91" t="n">
+        <v>1.55</v>
+      </c>
+      <c r="AH91" t="n">
+        <v>2.4</v>
+      </c>
+      <c r="AI91" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AJ91" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AK91" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AL91" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AM91" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AN91" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AO91" t="n">
+        <v>0.11</v>
+      </c>
+      <c r="AP91" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AQ91" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AR91" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AS91" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AT91" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AU91" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV91" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW91" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX91" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY91" t="n">
+        <v>19</v>
+      </c>
+      <c r="AZ91" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA91" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB91" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC91" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD91" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="BE91" t="n">
+        <v>11</v>
+      </c>
+      <c r="BF91" t="n">
+        <v>7.08</v>
+      </c>
+      <c r="BG91" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH91" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BI91" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BJ91" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BK91" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BL91" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BM91" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="BN91" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BO91" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BP91" t="n">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="92">
+      <c r="A92" s="1" t="n">
+        <v>91</v>
+      </c>
+      <c r="B92" t="n">
+        <v>6441783</v>
+      </c>
+      <c r="C92" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D92" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E92" s="2" t="n">
+        <v>45277.4375</v>
+      </c>
+      <c r="F92" t="n">
+        <v>19</v>
+      </c>
+      <c r="G92" t="inlineStr">
+        <is>
+          <t>Osijek</t>
+        </is>
+      </c>
+      <c r="H92" t="inlineStr">
+        <is>
+          <t>Slaven Koprivnica</t>
+        </is>
+      </c>
+      <c r="I92" t="n">
+        <v>2</v>
+      </c>
+      <c r="J92" t="n">
+        <v>0</v>
+      </c>
+      <c r="K92" t="n">
+        <v>2</v>
+      </c>
+      <c r="L92" t="n">
+        <v>4</v>
+      </c>
+      <c r="M92" t="n">
+        <v>1</v>
+      </c>
+      <c r="N92" t="n">
+        <v>5</v>
+      </c>
+      <c r="O92" t="inlineStr">
+        <is>
+          <t>['17', '32', '49', '88']</t>
+        </is>
+      </c>
+      <c r="P92" t="inlineStr">
+        <is>
+          <t>['66']</t>
+        </is>
+      </c>
+      <c r="Q92" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="R92" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S92" t="n">
+        <v>6</v>
+      </c>
+      <c r="T92" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U92" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V92" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W92" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X92" t="n">
+        <v>9</v>
+      </c>
+      <c r="Y92" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z92" t="n">
+        <v>1.61</v>
+      </c>
+      <c r="AA92" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="AB92" t="n">
+        <v>5.05</v>
+      </c>
+      <c r="AC92" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD92" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE92" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF92" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AG92" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH92" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AI92" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AJ92" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AK92" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AL92" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM92" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN92" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AO92" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP92" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ92" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AR92" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AS92" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AT92" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="AU92" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV92" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW92" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX92" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY92" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ92" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA92" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB92" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC92" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD92" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BE92" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF92" t="n">
+        <v>3.16</v>
+      </c>
+      <c r="BG92" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BH92" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BI92" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BJ92" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BK92" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="BL92" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="BM92" t="n">
+        <v>2.52</v>
+      </c>
+      <c r="BN92" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="BO92" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BP92" t="n">
+        <v>1.24</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP92"/>
+  <dimension ref="A1:BP93"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,10 +916,10 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AQ2" t="n">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AQ14" t="n">
         <v>1</v>
@@ -4843,7 +4843,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ20" t="n">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AR20" t="n">
         <v>1.48</v>
@@ -5715,7 +5715,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ24" t="n">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AR24" t="n">
         <v>1.61</v>
@@ -6366,7 +6366,7 @@
         <v>0</v>
       </c>
       <c r="AP27" t="n">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AQ27" t="n">
         <v>1.5</v>
@@ -7892,7 +7892,7 @@
         <v>0.5</v>
       </c>
       <c r="AP34" t="n">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AQ34" t="n">
         <v>0.9</v>
@@ -8331,7 +8331,7 @@
         <v>2</v>
       </c>
       <c r="AQ36" t="n">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AR36" t="n">
         <v>1.66</v>
@@ -11383,7 +11383,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ50" t="n">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AR50" t="n">
         <v>2.42</v>
@@ -11816,7 +11816,7 @@
         <v>1</v>
       </c>
       <c r="AP52" t="n">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AQ52" t="n">
         <v>0.9</v>
@@ -13127,7 +13127,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ58" t="n">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AR58" t="n">
         <v>1.37</v>
@@ -13996,7 +13996,7 @@
         <v>1.17</v>
       </c>
       <c r="AP62" t="n">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AQ62" t="n">
         <v>1</v>
@@ -15307,7 +15307,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ68" t="n">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AR68" t="n">
         <v>2.03</v>
@@ -17048,7 +17048,7 @@
         <v>1.14</v>
       </c>
       <c r="AP76" t="n">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AQ76" t="n">
         <v>1</v>
@@ -17269,7 +17269,7 @@
         <v>1</v>
       </c>
       <c r="AQ77" t="n">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AR77" t="n">
         <v>1.28</v>
@@ -18795,7 +18795,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ84" t="n">
-        <v>2.11</v>
+        <v>2</v>
       </c>
       <c r="AR84" t="n">
         <v>1.62</v>
@@ -19228,7 +19228,7 @@
         <v>0.13</v>
       </c>
       <c r="AP86" t="n">
-        <v>2.38</v>
+        <v>2.22</v>
       </c>
       <c r="AQ86" t="n">
         <v>0.1</v>
@@ -20551,22 +20551,22 @@
         <v>3.16</v>
       </c>
       <c r="AU92" t="n">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AV92" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW92" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX92" t="n">
         <v>4</v>
       </c>
-      <c r="AW92" t="n">
-        <v>8</v>
-      </c>
-      <c r="AX92" t="n">
-        <v>5</v>
-      </c>
       <c r="AY92" t="n">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="AZ92" t="n">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="BA92" t="n">
         <v>7</v>
@@ -20615,6 +20615,224 @@
       </c>
       <c r="BP92" t="n">
         <v>1.24</v>
+      </c>
+    </row>
+    <row r="93">
+      <c r="A93" s="1" t="n">
+        <v>92</v>
+      </c>
+      <c r="B93" t="n">
+        <v>6441781</v>
+      </c>
+      <c r="C93" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D93" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E93" s="2" t="n">
+        <v>45277.55208333334</v>
+      </c>
+      <c r="F93" t="n">
+        <v>19</v>
+      </c>
+      <c r="G93" t="inlineStr">
+        <is>
+          <t>Dinamo Zagreb</t>
+        </is>
+      </c>
+      <c r="H93" t="inlineStr">
+        <is>
+          <t>Hajduk Split</t>
+        </is>
+      </c>
+      <c r="I93" t="n">
+        <v>0</v>
+      </c>
+      <c r="J93" t="n">
+        <v>0</v>
+      </c>
+      <c r="K93" t="n">
+        <v>0</v>
+      </c>
+      <c r="L93" t="n">
+        <v>0</v>
+      </c>
+      <c r="M93" t="n">
+        <v>0</v>
+      </c>
+      <c r="N93" t="n">
+        <v>0</v>
+      </c>
+      <c r="O93" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P93" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q93" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R93" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S93" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="T93" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="U93" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="V93" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="W93" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X93" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Y93" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z93" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AA93" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AB93" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AC93" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD93" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE93" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF93" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AG93" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AH93" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AI93" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AJ93" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK93" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AL93" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM93" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AN93" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AO93" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="AP93" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AQ93" t="n">
+        <v>2</v>
+      </c>
+      <c r="AR93" t="n">
+        <v>1.97</v>
+      </c>
+      <c r="AS93" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="AT93" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="AU93" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV93" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW93" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX93" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY93" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ93" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA93" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB93" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC93" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD93" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BE93" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF93" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BG93" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BH93" t="n">
+        <v>2.69</v>
+      </c>
+      <c r="BI93" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="BJ93" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BK93" t="n">
+        <v>2.24</v>
+      </c>
+      <c r="BL93" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BM93" t="n">
+        <v>2.98</v>
+      </c>
+      <c r="BN93" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BO93" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BP93" t="n">
+        <v>1.19</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
@@ -20775,13 +20775,13 @@
         <v>0</v>
       </c>
       <c r="AW93" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX93" t="n">
         <v>3</v>
       </c>
       <c r="AY93" t="n">
-        <v>9</v>
+        <v>10</v>
       </c>
       <c r="AZ93" t="n">
         <v>3</v>

--- a/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP93"/>
+  <dimension ref="A1:BP95"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,7 +916,7 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AQ2" t="n">
         <v>2</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ5" t="n">
         <v>0.89</v>
@@ -2224,10 +2224,10 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR8" t="n">
         <v>2.02</v>
@@ -2881,7 +2881,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AQ14" t="n">
         <v>1</v>
@@ -5279,7 +5279,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR22" t="n">
         <v>2.49</v>
@@ -5494,7 +5494,7 @@
         <v>0.33</v>
       </c>
       <c r="AP23" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ23" t="n">
         <v>0.9</v>
@@ -6366,10 +6366,10 @@
         <v>0</v>
       </c>
       <c r="AP27" t="n">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR27" t="n">
         <v>1.7</v>
@@ -6587,7 +6587,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR28" t="n">
         <v>1.1</v>
@@ -7892,7 +7892,7 @@
         <v>0.5</v>
       </c>
       <c r="AP34" t="n">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AQ34" t="n">
         <v>0.9</v>
@@ -8328,7 +8328,7 @@
         <v>3</v>
       </c>
       <c r="AP36" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ36" t="n">
         <v>2</v>
@@ -9203,7 +9203,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ40" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR40" t="n">
         <v>1.89</v>
@@ -9421,7 +9421,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ41" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR41" t="n">
         <v>1.05</v>
@@ -10293,7 +10293,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR45" t="n">
         <v>1.46</v>
@@ -10729,7 +10729,7 @@
         <v>1</v>
       </c>
       <c r="AQ47" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR47" t="n">
         <v>1.43</v>
@@ -11816,7 +11816,7 @@
         <v>1</v>
       </c>
       <c r="AP52" t="n">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AQ52" t="n">
         <v>0.9</v>
@@ -12255,7 +12255,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ54" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR54" t="n">
         <v>1.48</v>
@@ -12470,7 +12470,7 @@
         <v>2.25</v>
       </c>
       <c r="AP55" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ55" t="n">
         <v>1.75</v>
@@ -12691,7 +12691,7 @@
         <v>1</v>
       </c>
       <c r="AQ56" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR56" t="n">
         <v>1.41</v>
@@ -13996,10 +13996,10 @@
         <v>1.17</v>
       </c>
       <c r="AP62" t="n">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AQ62" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR62" t="n">
         <v>1.89</v>
@@ -14217,7 +14217,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ63" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR63" t="n">
         <v>1.67</v>
@@ -14432,7 +14432,7 @@
         <v>1.33</v>
       </c>
       <c r="AP64" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ64" t="n">
         <v>1</v>
@@ -15961,7 +15961,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ71" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR71" t="n">
         <v>1.96</v>
@@ -16833,7 +16833,7 @@
         <v>1.44</v>
       </c>
       <c r="AQ75" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR75" t="n">
         <v>1.4</v>
@@ -17048,7 +17048,7 @@
         <v>1.14</v>
       </c>
       <c r="AP76" t="n">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AQ76" t="n">
         <v>1</v>
@@ -17484,7 +17484,7 @@
         <v>0.14</v>
       </c>
       <c r="AP78" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ78" t="n">
         <v>0.1</v>
@@ -17923,7 +17923,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ80" t="n">
-        <v>1.5</v>
+        <v>1.67</v>
       </c>
       <c r="AR80" t="n">
         <v>1.97</v>
@@ -18359,7 +18359,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ82" t="n">
-        <v>1</v>
+        <v>1.2</v>
       </c>
       <c r="AR82" t="n">
         <v>1.42</v>
@@ -19010,7 +19010,7 @@
         <v>1</v>
       </c>
       <c r="AP85" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ85" t="n">
         <v>0.9</v>
@@ -19228,7 +19228,7 @@
         <v>0.13</v>
       </c>
       <c r="AP86" t="n">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AQ86" t="n">
         <v>0.1</v>
@@ -19882,7 +19882,7 @@
         <v>0.63</v>
       </c>
       <c r="AP89" t="n">
-        <v>2</v>
+        <v>1.8</v>
       </c>
       <c r="AQ89" t="n">
         <v>0.89</v>
@@ -20754,7 +20754,7 @@
         <v>2.11</v>
       </c>
       <c r="AP93" t="n">
-        <v>2.22</v>
+        <v>2</v>
       </c>
       <c r="AQ93" t="n">
         <v>2</v>
@@ -20833,6 +20833,442 @@
       </c>
       <c r="BP93" t="n">
         <v>1.19</v>
+      </c>
+    </row>
+    <row r="94">
+      <c r="A94" s="1" t="n">
+        <v>93</v>
+      </c>
+      <c r="B94" t="n">
+        <v>6441843</v>
+      </c>
+      <c r="C94" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D94" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E94" s="2" t="n">
+        <v>45314.54166666666</v>
+      </c>
+      <c r="F94" t="n">
+        <v>4</v>
+      </c>
+      <c r="G94" t="inlineStr">
+        <is>
+          <t>Dinamo Zagreb</t>
+        </is>
+      </c>
+      <c r="H94" t="inlineStr">
+        <is>
+          <t>Lokomotiva Zagreb</t>
+        </is>
+      </c>
+      <c r="I94" t="n">
+        <v>0</v>
+      </c>
+      <c r="J94" t="n">
+        <v>2</v>
+      </c>
+      <c r="K94" t="n">
+        <v>2</v>
+      </c>
+      <c r="L94" t="n">
+        <v>0</v>
+      </c>
+      <c r="M94" t="n">
+        <v>3</v>
+      </c>
+      <c r="N94" t="n">
+        <v>3</v>
+      </c>
+      <c r="O94" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P94" t="inlineStr">
+        <is>
+          <t>['5', '7', '87']</t>
+        </is>
+      </c>
+      <c r="Q94" t="n">
+        <v>1.71</v>
+      </c>
+      <c r="R94" t="n">
+        <v>2.51</v>
+      </c>
+      <c r="S94" t="n">
+        <v>8.199999999999999</v>
+      </c>
+      <c r="T94" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U94" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V94" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W94" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="X94" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="Y94" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z94" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AA94" t="n">
+        <v>6</v>
+      </c>
+      <c r="AB94" t="n">
+        <v>12</v>
+      </c>
+      <c r="AC94" t="n">
+        <v>1</v>
+      </c>
+      <c r="AD94" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE94" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF94" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG94" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AH94" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AI94" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AJ94" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AK94" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AL94" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AM94" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AN94" t="n">
+        <v>2.22</v>
+      </c>
+      <c r="AO94" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP94" t="n">
+        <v>2</v>
+      </c>
+      <c r="AQ94" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AR94" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AS94" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AT94" t="n">
+        <v>3.39</v>
+      </c>
+      <c r="AU94" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV94" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW94" t="n">
+        <v>13</v>
+      </c>
+      <c r="AX94" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY94" t="n">
+        <v>18</v>
+      </c>
+      <c r="AZ94" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA94" t="n">
+        <v>12</v>
+      </c>
+      <c r="BB94" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC94" t="n">
+        <v>13</v>
+      </c>
+      <c r="BD94" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="BE94" t="n">
+        <v>11</v>
+      </c>
+      <c r="BF94" t="n">
+        <v>5.15</v>
+      </c>
+      <c r="BG94" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BH94" t="n">
+        <v>3.04</v>
+      </c>
+      <c r="BI94" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BJ94" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="BK94" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BL94" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BM94" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BN94" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BO94" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="BP94" t="n">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="95">
+      <c r="A95" s="1" t="n">
+        <v>94</v>
+      </c>
+      <c r="B95" t="n">
+        <v>6441707</v>
+      </c>
+      <c r="C95" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D95" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E95" s="2" t="n">
+        <v>45315.54166666666</v>
+      </c>
+      <c r="F95" t="n">
+        <v>4</v>
+      </c>
+      <c r="G95" t="inlineStr">
+        <is>
+          <t>Gorica</t>
+        </is>
+      </c>
+      <c r="H95" t="inlineStr">
+        <is>
+          <t>Rijeka</t>
+        </is>
+      </c>
+      <c r="I95" t="n">
+        <v>2</v>
+      </c>
+      <c r="J95" t="n">
+        <v>1</v>
+      </c>
+      <c r="K95" t="n">
+        <v>3</v>
+      </c>
+      <c r="L95" t="n">
+        <v>2</v>
+      </c>
+      <c r="M95" t="n">
+        <v>3</v>
+      </c>
+      <c r="N95" t="n">
+        <v>5</v>
+      </c>
+      <c r="O95" t="inlineStr">
+        <is>
+          <t>['3', '25']</t>
+        </is>
+      </c>
+      <c r="P95" t="inlineStr">
+        <is>
+          <t>['35', '53', '89']</t>
+        </is>
+      </c>
+      <c r="Q95" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="R95" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S95" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="T95" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U95" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V95" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W95" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X95" t="n">
+        <v>6.25</v>
+      </c>
+      <c r="Y95" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z95" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="AA95" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AB95" t="n">
+        <v>2.16</v>
+      </c>
+      <c r="AC95" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD95" t="n">
+        <v>11.75</v>
+      </c>
+      <c r="AE95" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AF95" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AG95" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AH95" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AI95" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AJ95" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK95" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AL95" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AM95" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AN95" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO95" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AP95" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AQ95" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AR95" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AS95" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AT95" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="AU95" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV95" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW95" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX95" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY95" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ95" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA95" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB95" t="n">
+        <v>8</v>
+      </c>
+      <c r="BC95" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD95" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BE95" t="n">
+        <v>5.25</v>
+      </c>
+      <c r="BF95" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BG95" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BH95" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="BI95" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BJ95" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BK95" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BL95" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BM95" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BN95" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BO95" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="BP95" t="n">
+        <v>1.16</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP95"/>
+  <dimension ref="A1:BP100"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1137,7 +1137,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1352,10 +1352,10 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ4" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ5" t="n">
         <v>0.89</v>
@@ -2006,10 +2006,10 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ7" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2224,10 +2224,10 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR8" t="n">
         <v>2.02</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -2878,10 +2878,10 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3317,7 +3317,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -3968,10 +3968,10 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AR16" t="n">
         <v>1.69</v>
@@ -4186,7 +4186,7 @@
         <v>3</v>
       </c>
       <c r="AP17" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ17" t="n">
         <v>1</v>
@@ -4404,10 +4404,10 @@
         <v>0.5</v>
       </c>
       <c r="AP18" t="n">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AQ18" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR18" t="n">
         <v>1.98</v>
@@ -5058,7 +5058,7 @@
         <v>1</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ21" t="n">
         <v>1</v>
@@ -5279,7 +5279,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR22" t="n">
         <v>2.49</v>
@@ -5494,10 +5494,10 @@
         <v>0.33</v>
       </c>
       <c r="AP23" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ23" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR23" t="n">
         <v>1.73</v>
@@ -5712,7 +5712,7 @@
         <v>3</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ24" t="n">
         <v>2</v>
@@ -6148,10 +6148,10 @@
         <v>0</v>
       </c>
       <c r="AP26" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ26" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AR26" t="n">
         <v>1.3</v>
@@ -6369,7 +6369,7 @@
         <v>2</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR27" t="n">
         <v>1.7</v>
@@ -6587,7 +6587,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR28" t="n">
         <v>1.1</v>
@@ -7020,7 +7020,7 @@
         <v>0.67</v>
       </c>
       <c r="AP30" t="n">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AQ30" t="n">
         <v>0.9</v>
@@ -7456,10 +7456,10 @@
         <v>3</v>
       </c>
       <c r="AP32" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR32" t="n">
         <v>2.06</v>
@@ -7677,7 +7677,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ33" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AR33" t="n">
         <v>1.8</v>
@@ -7895,7 +7895,7 @@
         <v>2</v>
       </c>
       <c r="AQ34" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR34" t="n">
         <v>1.83</v>
@@ -8328,7 +8328,7 @@
         <v>3</v>
       </c>
       <c r="AP36" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ36" t="n">
         <v>2</v>
@@ -8546,7 +8546,7 @@
         <v>1.25</v>
       </c>
       <c r="AP37" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ37" t="n">
         <v>0.9</v>
@@ -8764,7 +8764,7 @@
         <v>1</v>
       </c>
       <c r="AP38" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ38" t="n">
         <v>0.89</v>
@@ -8982,7 +8982,7 @@
         <v>1.33</v>
       </c>
       <c r="AP39" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ39" t="n">
         <v>1</v>
@@ -9200,10 +9200,10 @@
         <v>1</v>
       </c>
       <c r="AP40" t="n">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AQ40" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR40" t="n">
         <v>1.89</v>
@@ -9421,7 +9421,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ41" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR41" t="n">
         <v>1.05</v>
@@ -9639,7 +9639,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ42" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR42" t="n">
         <v>1.73</v>
@@ -9854,7 +9854,7 @@
         <v>1.75</v>
       </c>
       <c r="AP43" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ43" t="n">
         <v>1</v>
@@ -10293,7 +10293,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR45" t="n">
         <v>1.46</v>
@@ -10508,10 +10508,10 @@
         <v>3</v>
       </c>
       <c r="AP46" t="n">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AQ46" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR46" t="n">
         <v>1.9</v>
@@ -10726,10 +10726,10 @@
         <v>0.75</v>
       </c>
       <c r="AP47" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ47" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR47" t="n">
         <v>1.43</v>
@@ -11162,10 +11162,10 @@
         <v>0.2</v>
       </c>
       <c r="AP49" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ49" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AR49" t="n">
         <v>1.93</v>
@@ -12037,7 +12037,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ53" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR53" t="n">
         <v>1.4</v>
@@ -12252,10 +12252,10 @@
         <v>1.2</v>
       </c>
       <c r="AP54" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ54" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR54" t="n">
         <v>1.48</v>
@@ -12470,10 +12470,10 @@
         <v>2.25</v>
       </c>
       <c r="AP55" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ55" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR55" t="n">
         <v>1.6</v>
@@ -12688,10 +12688,10 @@
         <v>1.5</v>
       </c>
       <c r="AP56" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ56" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR56" t="n">
         <v>1.41</v>
@@ -12906,7 +12906,7 @@
         <v>1</v>
       </c>
       <c r="AP57" t="n">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AQ57" t="n">
         <v>1</v>
@@ -13560,7 +13560,7 @@
         <v>0.83</v>
       </c>
       <c r="AP60" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ60" t="n">
         <v>0.9</v>
@@ -13999,7 +13999,7 @@
         <v>2</v>
       </c>
       <c r="AQ62" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR62" t="n">
         <v>1.89</v>
@@ -14217,7 +14217,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ63" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR63" t="n">
         <v>1.67</v>
@@ -14432,7 +14432,7 @@
         <v>1.33</v>
       </c>
       <c r="AP64" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ64" t="n">
         <v>1</v>
@@ -14650,10 +14650,10 @@
         <v>0.17</v>
       </c>
       <c r="AP65" t="n">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AQ65" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AR65" t="n">
         <v>1.7</v>
@@ -14868,10 +14868,10 @@
         <v>1.8</v>
       </c>
       <c r="AP66" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ66" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR66" t="n">
         <v>1.5</v>
@@ -15086,10 +15086,10 @@
         <v>0.5</v>
       </c>
       <c r="AP67" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ67" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR67" t="n">
         <v>1.32</v>
@@ -15304,7 +15304,7 @@
         <v>2</v>
       </c>
       <c r="AP68" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ68" t="n">
         <v>2</v>
@@ -15958,10 +15958,10 @@
         <v>1</v>
       </c>
       <c r="AP71" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ71" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR71" t="n">
         <v>1.96</v>
@@ -16176,7 +16176,7 @@
         <v>0.83</v>
       </c>
       <c r="AP72" t="n">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AQ72" t="n">
         <v>0.89</v>
@@ -16397,7 +16397,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ73" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR73" t="n">
         <v>2.26</v>
@@ -16615,7 +16615,7 @@
         <v>1.33</v>
       </c>
       <c r="AQ74" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR74" t="n">
         <v>1.5</v>
@@ -16830,10 +16830,10 @@
         <v>1.33</v>
       </c>
       <c r="AP75" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ75" t="n">
-        <v>1.67</v>
+        <v>1.8</v>
       </c>
       <c r="AR75" t="n">
         <v>1.4</v>
@@ -17266,7 +17266,7 @@
         <v>2.14</v>
       </c>
       <c r="AP77" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ77" t="n">
         <v>2</v>
@@ -17484,10 +17484,10 @@
         <v>0.14</v>
       </c>
       <c r="AP78" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ78" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AR78" t="n">
         <v>1.49</v>
@@ -17702,7 +17702,7 @@
         <v>0.71</v>
       </c>
       <c r="AP79" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AQ79" t="n">
         <v>0.89</v>
@@ -17920,10 +17920,10 @@
         <v>1.57</v>
       </c>
       <c r="AP80" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AQ80" t="n">
         <v>1.8</v>
-      </c>
-      <c r="AQ80" t="n">
-        <v>1.67</v>
       </c>
       <c r="AR80" t="n">
         <v>1.97</v>
@@ -18138,7 +18138,7 @@
         <v>1.13</v>
       </c>
       <c r="AP81" t="n">
-        <v>2.33</v>
+        <v>2.1</v>
       </c>
       <c r="AQ81" t="n">
         <v>1</v>
@@ -18359,7 +18359,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ82" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR82" t="n">
         <v>1.42</v>
@@ -18577,7 +18577,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ83" t="n">
-        <v>1.75</v>
+        <v>1.89</v>
       </c>
       <c r="AR83" t="n">
         <v>1.43</v>
@@ -19010,7 +19010,7 @@
         <v>1</v>
       </c>
       <c r="AP85" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ85" t="n">
         <v>0.9</v>
@@ -19231,7 +19231,7 @@
         <v>2</v>
       </c>
       <c r="AQ86" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AR86" t="n">
         <v>2</v>
@@ -19446,7 +19446,7 @@
         <v>1</v>
       </c>
       <c r="AP87" t="n">
-        <v>1.44</v>
+        <v>1.3</v>
       </c>
       <c r="AQ87" t="n">
         <v>1</v>
@@ -19667,7 +19667,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ88" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR88" t="n">
         <v>2.24</v>
@@ -19882,7 +19882,7 @@
         <v>0.63</v>
       </c>
       <c r="AP89" t="n">
-        <v>1.8</v>
+        <v>1.64</v>
       </c>
       <c r="AQ89" t="n">
         <v>0.89</v>
@@ -20321,7 +20321,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ91" t="n">
-        <v>0.1</v>
+        <v>0.09</v>
       </c>
       <c r="AR91" t="n">
         <v>2.23</v>
@@ -20536,10 +20536,10 @@
         <v>1</v>
       </c>
       <c r="AP92" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AQ92" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AR92" t="n">
         <v>1.89</v>
@@ -20975,7 +20975,7 @@
         <v>2</v>
       </c>
       <c r="AQ94" t="n">
-        <v>1.2</v>
+        <v>1.36</v>
       </c>
       <c r="AR94" t="n">
         <v>1.9</v>
@@ -21190,10 +21190,10 @@
         <v>1.5</v>
       </c>
       <c r="AP95" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AQ95" t="n">
         <v>1.8</v>
-      </c>
-      <c r="AQ95" t="n">
-        <v>1.67</v>
       </c>
       <c r="AR95" t="n">
         <v>1.36</v>
@@ -21205,22 +21205,22 @@
         <v>2.75</v>
       </c>
       <c r="AU95" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AV95" t="n">
+        <v>10</v>
+      </c>
+      <c r="AW95" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX95" t="n">
         <v>6</v>
       </c>
-      <c r="AW95" t="n">
-        <v>2</v>
-      </c>
-      <c r="AX95" t="n">
-        <v>8</v>
-      </c>
       <c r="AY95" t="n">
-        <v>6</v>
+        <v>5</v>
       </c>
       <c r="AZ95" t="n">
-        <v>14</v>
+        <v>16</v>
       </c>
       <c r="BA95" t="n">
         <v>3</v>
@@ -21269,6 +21269,1096 @@
       </c>
       <c r="BP95" t="n">
         <v>1.16</v>
+      </c>
+    </row>
+    <row r="96">
+      <c r="A96" s="1" t="n">
+        <v>95</v>
+      </c>
+      <c r="B96" t="n">
+        <v>6441784</v>
+      </c>
+      <c r="C96" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D96" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E96" s="2" t="n">
+        <v>45317.54166666666</v>
+      </c>
+      <c r="F96" t="n">
+        <v>20</v>
+      </c>
+      <c r="G96" t="inlineStr">
+        <is>
+          <t>Varaždin</t>
+        </is>
+      </c>
+      <c r="H96" t="inlineStr">
+        <is>
+          <t>Slaven Koprivnica</t>
+        </is>
+      </c>
+      <c r="I96" t="n">
+        <v>1</v>
+      </c>
+      <c r="J96" t="n">
+        <v>1</v>
+      </c>
+      <c r="K96" t="n">
+        <v>2</v>
+      </c>
+      <c r="L96" t="n">
+        <v>1</v>
+      </c>
+      <c r="M96" t="n">
+        <v>2</v>
+      </c>
+      <c r="N96" t="n">
+        <v>3</v>
+      </c>
+      <c r="O96" t="inlineStr">
+        <is>
+          <t>['45+4']</t>
+        </is>
+      </c>
+      <c r="P96" t="inlineStr">
+        <is>
+          <t>['21', '87']</t>
+        </is>
+      </c>
+      <c r="Q96" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R96" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S96" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="T96" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="U96" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="V96" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W96" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X96" t="n">
+        <v>7</v>
+      </c>
+      <c r="Y96" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="Z96" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AA96" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="AB96" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="AC96" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD96" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE96" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF96" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AG96" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AH96" t="n">
+        <v>1.76</v>
+      </c>
+      <c r="AI96" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ96" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK96" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AL96" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM96" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AN96" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="AO96" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AP96" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AQ96" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AR96" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="AS96" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AT96" t="n">
+        <v>2.61</v>
+      </c>
+      <c r="AU96" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV96" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW96" t="n">
+        <v>11</v>
+      </c>
+      <c r="AX96" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY96" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ96" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA96" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB96" t="n">
+        <v>5</v>
+      </c>
+      <c r="BC96" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD96" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="BE96" t="n">
+        <v>8.4</v>
+      </c>
+      <c r="BF96" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="BG96" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BH96" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="BI96" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BJ96" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BK96" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BL96" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BM96" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BN96" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BO96" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BP96" t="n">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="97">
+      <c r="A97" s="1" t="n">
+        <v>96</v>
+      </c>
+      <c r="B97" t="n">
+        <v>6441830</v>
+      </c>
+      <c r="C97" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D97" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E97" s="2" t="n">
+        <v>45318.45138888889</v>
+      </c>
+      <c r="F97" t="n">
+        <v>20</v>
+      </c>
+      <c r="G97" t="inlineStr">
+        <is>
+          <t>Osijek</t>
+        </is>
+      </c>
+      <c r="H97" t="inlineStr">
+        <is>
+          <t>Rudeš</t>
+        </is>
+      </c>
+      <c r="I97" t="n">
+        <v>2</v>
+      </c>
+      <c r="J97" t="n">
+        <v>0</v>
+      </c>
+      <c r="K97" t="n">
+        <v>2</v>
+      </c>
+      <c r="L97" t="n">
+        <v>2</v>
+      </c>
+      <c r="M97" t="n">
+        <v>0</v>
+      </c>
+      <c r="N97" t="n">
+        <v>2</v>
+      </c>
+      <c r="O97" t="inlineStr">
+        <is>
+          <t>['14', '26']</t>
+        </is>
+      </c>
+      <c r="P97" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q97" t="n">
+        <v>1.87</v>
+      </c>
+      <c r="R97" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S97" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="T97" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="U97" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="V97" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="W97" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="X97" t="n">
+        <v>6.4</v>
+      </c>
+      <c r="Y97" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z97" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AA97" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AB97" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC97" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD97" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE97" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF97" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AG97" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AH97" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AI97" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AJ97" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AK97" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AL97" t="n">
+        <v>1.15</v>
+      </c>
+      <c r="AM97" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AN97" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AO97" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="AP97" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AQ97" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AR97" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AS97" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AT97" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AU97" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV97" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW97" t="n">
+        <v>8</v>
+      </c>
+      <c r="AX97" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY97" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ97" t="n">
+        <v>10</v>
+      </c>
+      <c r="BA97" t="n">
+        <v>7</v>
+      </c>
+      <c r="BB97" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC97" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD97" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BE97" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF97" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="BG97" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BH97" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BI97" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BJ97" t="n">
+        <v>2.28</v>
+      </c>
+      <c r="BK97" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BL97" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BM97" t="n">
+        <v>2.54</v>
+      </c>
+      <c r="BN97" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BO97" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BP97" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="98">
+      <c r="A98" s="1" t="n">
+        <v>97</v>
+      </c>
+      <c r="B98" t="n">
+        <v>6441787</v>
+      </c>
+      <c r="C98" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D98" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E98" s="2" t="n">
+        <v>45318.54166666666</v>
+      </c>
+      <c r="F98" t="n">
+        <v>20</v>
+      </c>
+      <c r="G98" t="inlineStr">
+        <is>
+          <t>Istra 1961</t>
+        </is>
+      </c>
+      <c r="H98" t="inlineStr">
+        <is>
+          <t>Dinamo Zagreb</t>
+        </is>
+      </c>
+      <c r="I98" t="n">
+        <v>0</v>
+      </c>
+      <c r="J98" t="n">
+        <v>1</v>
+      </c>
+      <c r="K98" t="n">
+        <v>1</v>
+      </c>
+      <c r="L98" t="n">
+        <v>0</v>
+      </c>
+      <c r="M98" t="n">
+        <v>1</v>
+      </c>
+      <c r="N98" t="n">
+        <v>1</v>
+      </c>
+      <c r="O98" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P98" t="inlineStr">
+        <is>
+          <t>['36']</t>
+        </is>
+      </c>
+      <c r="Q98" t="n">
+        <v>6</v>
+      </c>
+      <c r="R98" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S98" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="T98" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U98" t="n">
+        <v>3</v>
+      </c>
+      <c r="V98" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W98" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X98" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y98" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z98" t="n">
+        <v>5.97</v>
+      </c>
+      <c r="AA98" t="n">
+        <v>4.07</v>
+      </c>
+      <c r="AB98" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AC98" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD98" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE98" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF98" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG98" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AH98" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI98" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ98" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK98" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AL98" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM98" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AN98" t="n">
+        <v>1</v>
+      </c>
+      <c r="AO98" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AP98" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AQ98" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AR98" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AS98" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AT98" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="AU98" t="n">
+        <v>0</v>
+      </c>
+      <c r="AV98" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW98" t="n">
+        <v>3</v>
+      </c>
+      <c r="AX98" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY98" t="n">
+        <v>3</v>
+      </c>
+      <c r="AZ98" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA98" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB98" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC98" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD98" t="n">
+        <v>4.43</v>
+      </c>
+      <c r="BE98" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF98" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BG98" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BH98" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BI98" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BJ98" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="BK98" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BL98" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="BM98" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BN98" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BO98" t="n">
+        <v>4</v>
+      </c>
+      <c r="BP98" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="99">
+      <c r="A99" s="1" t="n">
+        <v>98</v>
+      </c>
+      <c r="B99" t="n">
+        <v>6441788</v>
+      </c>
+      <c r="C99" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D99" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E99" s="2" t="n">
+        <v>45319.45833333334</v>
+      </c>
+      <c r="F99" t="n">
+        <v>20</v>
+      </c>
+      <c r="G99" t="inlineStr">
+        <is>
+          <t>Gorica</t>
+        </is>
+      </c>
+      <c r="H99" t="inlineStr">
+        <is>
+          <t>Lokomotiva Zagreb</t>
+        </is>
+      </c>
+      <c r="I99" t="n">
+        <v>1</v>
+      </c>
+      <c r="J99" t="n">
+        <v>1</v>
+      </c>
+      <c r="K99" t="n">
+        <v>2</v>
+      </c>
+      <c r="L99" t="n">
+        <v>1</v>
+      </c>
+      <c r="M99" t="n">
+        <v>2</v>
+      </c>
+      <c r="N99" t="n">
+        <v>3</v>
+      </c>
+      <c r="O99" t="inlineStr">
+        <is>
+          <t>['19']</t>
+        </is>
+      </c>
+      <c r="P99" t="inlineStr">
+        <is>
+          <t>['15', '51']</t>
+        </is>
+      </c>
+      <c r="Q99" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="R99" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S99" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T99" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="U99" t="n">
+        <v>2.63</v>
+      </c>
+      <c r="V99" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="W99" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="X99" t="n">
+        <v>10</v>
+      </c>
+      <c r="Y99" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z99" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AA99" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="AB99" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AC99" t="n">
+        <v>1.08</v>
+      </c>
+      <c r="AD99" t="n">
+        <v>7</v>
+      </c>
+      <c r="AE99" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF99" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AG99" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AH99" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="AI99" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ99" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AK99" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AL99" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM99" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AN99" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AO99" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AP99" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AQ99" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AR99" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="AS99" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AT99" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="AU99" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV99" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW99" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX99" t="n">
+        <v>8</v>
+      </c>
+      <c r="AY99" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ99" t="n">
+        <v>16</v>
+      </c>
+      <c r="BA99" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB99" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC99" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD99" t="n">
+        <v>2</v>
+      </c>
+      <c r="BE99" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF99" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BG99" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BH99" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="BI99" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BJ99" t="n">
+        <v>2.08</v>
+      </c>
+      <c r="BK99" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BL99" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="BM99" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BN99" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BO99" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BP99" t="n">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="100">
+      <c r="A100" s="1" t="n">
+        <v>99</v>
+      </c>
+      <c r="B100" t="n">
+        <v>6441786</v>
+      </c>
+      <c r="C100" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D100" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E100" s="2" t="n">
+        <v>45319.57291666666</v>
+      </c>
+      <c r="F100" t="n">
+        <v>20</v>
+      </c>
+      <c r="G100" t="inlineStr">
+        <is>
+          <t>Hajduk Split</t>
+        </is>
+      </c>
+      <c r="H100" t="inlineStr">
+        <is>
+          <t>Rijeka</t>
+        </is>
+      </c>
+      <c r="I100" t="n">
+        <v>1</v>
+      </c>
+      <c r="J100" t="n">
+        <v>0</v>
+      </c>
+      <c r="K100" t="n">
+        <v>1</v>
+      </c>
+      <c r="L100" t="n">
+        <v>1</v>
+      </c>
+      <c r="M100" t="n">
+        <v>2</v>
+      </c>
+      <c r="N100" t="n">
+        <v>3</v>
+      </c>
+      <c r="O100" t="inlineStr">
+        <is>
+          <t>['15']</t>
+        </is>
+      </c>
+      <c r="P100" t="inlineStr">
+        <is>
+          <t>['55', '75']</t>
+        </is>
+      </c>
+      <c r="Q100" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="R100" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S100" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="T100" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U100" t="n">
+        <v>3</v>
+      </c>
+      <c r="V100" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="W100" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="X100" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y100" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z100" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AA100" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB100" t="n">
+        <v>4.2</v>
+      </c>
+      <c r="AC100" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD100" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE100" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF100" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AG100" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AH100" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AI100" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ100" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK100" t="n">
+        <v>1.16</v>
+      </c>
+      <c r="AL100" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM100" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AN100" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="AO100" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="AP100" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AQ100" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AR100" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AS100" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="AT100" t="n">
+        <v>3.23</v>
+      </c>
+      <c r="AU100" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV100" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW100" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX100" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY100" t="n">
+        <v>4</v>
+      </c>
+      <c r="AZ100" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA100" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB100" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC100" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD100" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BE100" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF100" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BG100" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BH100" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BI100" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BJ100" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BK100" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="BL100" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="BM100" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="BN100" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BO100" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BP100" t="n">
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
@@ -22295,22 +22295,22 @@
         <v>3.23</v>
       </c>
       <c r="AU100" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV100" t="n">
+        <v>6</v>
+      </c>
+      <c r="AW100" t="n">
         <v>3</v>
       </c>
-      <c r="AV100" t="n">
+      <c r="AX100" t="n">
         <v>4</v>
       </c>
-      <c r="AW100" t="n">
-        <v>1</v>
-      </c>
-      <c r="AX100" t="n">
-        <v>3</v>
-      </c>
       <c r="AY100" t="n">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AZ100" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="BA100" t="n">
         <v>4</v>

--- a/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP100"/>
+  <dimension ref="A1:BP101"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1573,7 +1573,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ5" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR5" t="n">
         <v>0</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ6" t="n">
         <v>0.9</v>
@@ -3096,10 +3096,10 @@
         <v>1</v>
       </c>
       <c r="AP12" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ12" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR12" t="n">
         <v>1.99</v>
@@ -5930,7 +5930,7 @@
         <v>2</v>
       </c>
       <c r="AP25" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ25" t="n">
         <v>1</v>
@@ -7241,7 +7241,7 @@
         <v>2.3</v>
       </c>
       <c r="AQ31" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR31" t="n">
         <v>2.62</v>
@@ -7674,7 +7674,7 @@
         <v>0.25</v>
       </c>
       <c r="AP33" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ33" t="n">
         <v>0.09</v>
@@ -8767,7 +8767,7 @@
         <v>1.91</v>
       </c>
       <c r="AQ38" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR38" t="n">
         <v>1.91</v>
@@ -10947,7 +10947,7 @@
         <v>1.22</v>
       </c>
       <c r="AQ48" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR48" t="n">
         <v>1.31</v>
@@ -11598,7 +11598,7 @@
         <v>1.4</v>
       </c>
       <c r="AP51" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ51" t="n">
         <v>1</v>
@@ -13345,7 +13345,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ59" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR59" t="n">
         <v>1.4</v>
@@ -14214,7 +14214,7 @@
         <v>1.4</v>
       </c>
       <c r="AP63" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ63" t="n">
         <v>1.8</v>
@@ -16179,7 +16179,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ72" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR72" t="n">
         <v>1.58</v>
@@ -16612,7 +16612,7 @@
         <v>0.43</v>
       </c>
       <c r="AP74" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ74" t="n">
         <v>1.09</v>
@@ -17705,7 +17705,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ79" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR79" t="n">
         <v>1.21</v>
@@ -18792,7 +18792,7 @@
         <v>2.25</v>
       </c>
       <c r="AP84" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ84" t="n">
         <v>2</v>
@@ -19885,7 +19885,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ89" t="n">
-        <v>0.89</v>
+        <v>0.9</v>
       </c>
       <c r="AR89" t="n">
         <v>1.39</v>
@@ -20100,7 +20100,7 @@
         <v>1</v>
       </c>
       <c r="AP90" t="n">
-        <v>1.33</v>
+        <v>1.3</v>
       </c>
       <c r="AQ90" t="n">
         <v>0.9</v>
@@ -22359,6 +22359,224 @@
       </c>
       <c r="BP100" t="n">
         <v>1.21</v>
+      </c>
+    </row>
+    <row r="101">
+      <c r="A101" s="1" t="n">
+        <v>100</v>
+      </c>
+      <c r="B101" t="n">
+        <v>6441789</v>
+      </c>
+      <c r="C101" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D101" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E101" s="2" t="n">
+        <v>45324.54166666666</v>
+      </c>
+      <c r="F101" t="n">
+        <v>21</v>
+      </c>
+      <c r="G101" t="inlineStr">
+        <is>
+          <t>Lokomotiva Zagreb</t>
+        </is>
+      </c>
+      <c r="H101" t="inlineStr">
+        <is>
+          <t>Varaždin</t>
+        </is>
+      </c>
+      <c r="I101" t="n">
+        <v>0</v>
+      </c>
+      <c r="J101" t="n">
+        <v>0</v>
+      </c>
+      <c r="K101" t="n">
+        <v>0</v>
+      </c>
+      <c r="L101" t="n">
+        <v>0</v>
+      </c>
+      <c r="M101" t="n">
+        <v>0</v>
+      </c>
+      <c r="N101" t="n">
+        <v>0</v>
+      </c>
+      <c r="O101" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P101" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q101" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="R101" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S101" t="n">
+        <v>4</v>
+      </c>
+      <c r="T101" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U101" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V101" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W101" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X101" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y101" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z101" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AA101" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB101" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AC101" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD101" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE101" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF101" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AG101" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AH101" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AI101" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="AJ101" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK101" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AL101" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM101" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN101" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AO101" t="n">
+        <v>0.89</v>
+      </c>
+      <c r="AP101" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AQ101" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AR101" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AS101" t="n">
+        <v>1.49</v>
+      </c>
+      <c r="AT101" t="n">
+        <v>3.11</v>
+      </c>
+      <c r="AU101" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV101" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW101" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX101" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY101" t="n">
+        <v>8</v>
+      </c>
+      <c r="AZ101" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA101" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB101" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC101" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD101" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BE101" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF101" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BG101" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BH101" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI101" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BJ101" t="n">
+        <v>2.37</v>
+      </c>
+      <c r="BK101" t="n">
+        <v>2</v>
+      </c>
+      <c r="BL101" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="BM101" t="n">
+        <v>2.47</v>
+      </c>
+      <c r="BN101" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="BO101" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="BP101" t="n">
+        <v>1.28</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP101"/>
+  <dimension ref="A1:BP105"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,10 +916,10 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ2" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1134,10 +1134,10 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1352,7 +1352,7 @@
         <v>0</v>
       </c>
       <c r="AP4" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AQ4" t="n">
         <v>1.09</v>
@@ -1791,7 +1791,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -3314,10 +3314,10 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -3532,10 +3532,10 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ14" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR14" t="n">
         <v>1.29</v>
@@ -3750,10 +3750,10 @@
         <v>1</v>
       </c>
       <c r="AP15" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR15" t="n">
         <v>2.17</v>
@@ -3971,7 +3971,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AR16" t="n">
         <v>1.69</v>
@@ -4622,10 +4622,10 @@
         <v>0.5</v>
       </c>
       <c r="AP19" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR19" t="n">
         <v>1.39</v>
@@ -4843,7 +4843,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ20" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AR20" t="n">
         <v>1.48</v>
@@ -5058,10 +5058,10 @@
         <v>1</v>
       </c>
       <c r="AP21" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AQ21" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR21" t="n">
         <v>2.38</v>
@@ -5276,7 +5276,7 @@
         <v>0</v>
       </c>
       <c r="AP22" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ22" t="n">
         <v>1.36</v>
@@ -5715,7 +5715,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ24" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AR24" t="n">
         <v>1.61</v>
@@ -6151,7 +6151,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ26" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AR26" t="n">
         <v>1.3</v>
@@ -6366,7 +6366,7 @@
         <v>0</v>
       </c>
       <c r="AP27" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ27" t="n">
         <v>1.8</v>
@@ -6584,7 +6584,7 @@
         <v>0</v>
       </c>
       <c r="AP28" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ28" t="n">
         <v>1.36</v>
@@ -6805,7 +6805,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ29" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR29" t="n">
         <v>1.5</v>
@@ -7023,7 +7023,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ30" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR30" t="n">
         <v>2.07</v>
@@ -7238,7 +7238,7 @@
         <v>1</v>
       </c>
       <c r="AP31" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ31" t="n">
         <v>0.9</v>
@@ -7456,7 +7456,7 @@
         <v>3</v>
       </c>
       <c r="AP32" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AQ32" t="n">
         <v>1.89</v>
@@ -7677,7 +7677,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ33" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AR33" t="n">
         <v>1.8</v>
@@ -7892,7 +7892,7 @@
         <v>0.5</v>
       </c>
       <c r="AP34" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ34" t="n">
         <v>1.09</v>
@@ -8110,7 +8110,7 @@
         <v>1.67</v>
       </c>
       <c r="AP35" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ35" t="n">
         <v>1</v>
@@ -8331,7 +8331,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ36" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AR36" t="n">
         <v>1.66</v>
@@ -8549,7 +8549,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ37" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR37" t="n">
         <v>1.58</v>
@@ -8764,7 +8764,7 @@
         <v>1</v>
       </c>
       <c r="AP38" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AQ38" t="n">
         <v>0.9</v>
@@ -8985,7 +8985,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ39" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR39" t="n">
         <v>1.41</v>
@@ -9418,7 +9418,7 @@
         <v>0</v>
       </c>
       <c r="AP41" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ41" t="n">
         <v>1.8</v>
@@ -9857,7 +9857,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ43" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR43" t="n">
         <v>1.51</v>
@@ -10072,7 +10072,7 @@
         <v>1.25</v>
       </c>
       <c r="AP44" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ44" t="n">
         <v>1</v>
@@ -10944,7 +10944,7 @@
         <v>1</v>
       </c>
       <c r="AP48" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ48" t="n">
         <v>0.9</v>
@@ -11162,10 +11162,10 @@
         <v>0.2</v>
       </c>
       <c r="AP49" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AQ49" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AR49" t="n">
         <v>1.93</v>
@@ -11380,10 +11380,10 @@
         <v>2.25</v>
       </c>
       <c r="AP50" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ50" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AR50" t="n">
         <v>2.42</v>
@@ -11601,7 +11601,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ51" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR51" t="n">
         <v>1.71</v>
@@ -11816,10 +11816,10 @@
         <v>1</v>
       </c>
       <c r="AP52" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ52" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR52" t="n">
         <v>1.85</v>
@@ -13124,10 +13124,10 @@
         <v>1.8</v>
       </c>
       <c r="AP58" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ58" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AR58" t="n">
         <v>1.37</v>
@@ -13560,10 +13560,10 @@
         <v>0.83</v>
       </c>
       <c r="AP60" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AQ60" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR60" t="n">
         <v>1.99</v>
@@ -13778,10 +13778,10 @@
         <v>1.33</v>
       </c>
       <c r="AP61" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ61" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR61" t="n">
         <v>2.24</v>
@@ -13996,7 +13996,7 @@
         <v>1.17</v>
       </c>
       <c r="AP62" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ62" t="n">
         <v>1.36</v>
@@ -14653,7 +14653,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ65" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AR65" t="n">
         <v>1.7</v>
@@ -15304,10 +15304,10 @@
         <v>2</v>
       </c>
       <c r="AP68" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AQ68" t="n">
         <v>1.91</v>
-      </c>
-      <c r="AQ68" t="n">
-        <v>2</v>
       </c>
       <c r="AR68" t="n">
         <v>2.03</v>
@@ -15522,10 +15522,10 @@
         <v>1.14</v>
       </c>
       <c r="AP69" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ69" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR69" t="n">
         <v>1.4</v>
@@ -15743,7 +15743,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ70" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR70" t="n">
         <v>1.43</v>
@@ -15958,7 +15958,7 @@
         <v>1</v>
       </c>
       <c r="AP71" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AQ71" t="n">
         <v>1.36</v>
@@ -16394,7 +16394,7 @@
         <v>1.67</v>
       </c>
       <c r="AP73" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ73" t="n">
         <v>1.89</v>
@@ -17048,7 +17048,7 @@
         <v>1.14</v>
       </c>
       <c r="AP76" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ76" t="n">
         <v>1</v>
@@ -17269,7 +17269,7 @@
         <v>0.9</v>
       </c>
       <c r="AQ77" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AR77" t="n">
         <v>1.28</v>
@@ -17487,7 +17487,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ78" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AR78" t="n">
         <v>1.49</v>
@@ -17920,7 +17920,7 @@
         <v>1.57</v>
       </c>
       <c r="AP80" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AQ80" t="n">
         <v>1.8</v>
@@ -18141,7 +18141,7 @@
         <v>2.1</v>
       </c>
       <c r="AQ81" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR81" t="n">
         <v>1.74</v>
@@ -18574,7 +18574,7 @@
         <v>1.57</v>
       </c>
       <c r="AP83" t="n">
-        <v>1.22</v>
+        <v>1.4</v>
       </c>
       <c r="AQ83" t="n">
         <v>1.89</v>
@@ -18795,7 +18795,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ84" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AR84" t="n">
         <v>1.62</v>
@@ -19013,7 +19013,7 @@
         <v>1.64</v>
       </c>
       <c r="AQ85" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR85" t="n">
         <v>1.52</v>
@@ -19228,10 +19228,10 @@
         <v>0.13</v>
       </c>
       <c r="AP86" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ86" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AR86" t="n">
         <v>2</v>
@@ -19664,7 +19664,7 @@
         <v>0.75</v>
       </c>
       <c r="AP88" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ88" t="n">
         <v>1.09</v>
@@ -20103,7 +20103,7 @@
         <v>1.3</v>
       </c>
       <c r="AQ90" t="n">
-        <v>0.9</v>
+        <v>0.82</v>
       </c>
       <c r="AR90" t="n">
         <v>1.58</v>
@@ -20318,10 +20318,10 @@
         <v>0.11</v>
       </c>
       <c r="AP91" t="n">
-        <v>2.3</v>
+        <v>2.36</v>
       </c>
       <c r="AQ91" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AR91" t="n">
         <v>2.23</v>
@@ -20536,7 +20536,7 @@
         <v>1</v>
       </c>
       <c r="AP92" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AQ92" t="n">
         <v>1.09</v>
@@ -20754,10 +20754,10 @@
         <v>2.11</v>
       </c>
       <c r="AP93" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ93" t="n">
-        <v>2</v>
+        <v>1.91</v>
       </c>
       <c r="AR93" t="n">
         <v>1.97</v>
@@ -20972,7 +20972,7 @@
         <v>1</v>
       </c>
       <c r="AP94" t="n">
-        <v>2</v>
+        <v>2.09</v>
       </c>
       <c r="AQ94" t="n">
         <v>1.36</v>
@@ -21626,10 +21626,10 @@
         <v>0.1</v>
       </c>
       <c r="AP97" t="n">
-        <v>1.91</v>
+        <v>1.83</v>
       </c>
       <c r="AQ97" t="n">
-        <v>0.09</v>
+        <v>0.08</v>
       </c>
       <c r="AR97" t="n">
         <v>1.88</v>
@@ -22576,6 +22576,878 @@
         <v>3.4</v>
       </c>
       <c r="BP101" t="n">
+        <v>1.28</v>
+      </c>
+    </row>
+    <row r="102">
+      <c r="A102" s="1" t="n">
+        <v>101</v>
+      </c>
+      <c r="B102" t="n">
+        <v>6441793</v>
+      </c>
+      <c r="C102" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D102" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E102" s="2" t="n">
+        <v>45325.45138888889</v>
+      </c>
+      <c r="F102" t="n">
+        <v>21</v>
+      </c>
+      <c r="G102" t="inlineStr">
+        <is>
+          <t>Slaven Koprivnica</t>
+        </is>
+      </c>
+      <c r="H102" t="inlineStr">
+        <is>
+          <t>Rudeš</t>
+        </is>
+      </c>
+      <c r="I102" t="n">
+        <v>1</v>
+      </c>
+      <c r="J102" t="n">
+        <v>0</v>
+      </c>
+      <c r="K102" t="n">
+        <v>1</v>
+      </c>
+      <c r="L102" t="n">
+        <v>4</v>
+      </c>
+      <c r="M102" t="n">
+        <v>0</v>
+      </c>
+      <c r="N102" t="n">
+        <v>4</v>
+      </c>
+      <c r="O102" t="inlineStr">
+        <is>
+          <t>['39', '49', '63', '72']</t>
+        </is>
+      </c>
+      <c r="P102" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q102" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="R102" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S102" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="T102" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="U102" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="V102" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="W102" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X102" t="n">
+        <v>7.25</v>
+      </c>
+      <c r="Y102" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z102" t="n">
+        <v>1.54</v>
+      </c>
+      <c r="AA102" t="n">
+        <v>3.85</v>
+      </c>
+      <c r="AB102" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AC102" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD102" t="n">
+        <v>12</v>
+      </c>
+      <c r="AE102" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AF102" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AG102" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AH102" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="AI102" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AJ102" t="n">
+        <v>1.84</v>
+      </c>
+      <c r="AK102" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AL102" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM102" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AN102" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AO102" t="n">
+        <v>0.09</v>
+      </c>
+      <c r="AP102" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AQ102" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AR102" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="AS102" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AT102" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="AU102" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV102" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW102" t="n">
+        <v>9</v>
+      </c>
+      <c r="AX102" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY102" t="n">
+        <v>17</v>
+      </c>
+      <c r="AZ102" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA102" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB102" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC102" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD102" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BE102" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF102" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="BG102" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BH102" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BI102" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BJ102" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BK102" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BL102" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BM102" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BN102" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BO102" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BP102" t="n">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="103">
+      <c r="A103" s="1" t="n">
+        <v>102</v>
+      </c>
+      <c r="B103" t="n">
+        <v>6441792</v>
+      </c>
+      <c r="C103" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D103" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E103" s="2" t="n">
+        <v>45325.5625</v>
+      </c>
+      <c r="F103" t="n">
+        <v>21</v>
+      </c>
+      <c r="G103" t="inlineStr">
+        <is>
+          <t>Osijek</t>
+        </is>
+      </c>
+      <c r="H103" t="inlineStr">
+        <is>
+          <t>Hajduk Split</t>
+        </is>
+      </c>
+      <c r="I103" t="n">
+        <v>0</v>
+      </c>
+      <c r="J103" t="n">
+        <v>0</v>
+      </c>
+      <c r="K103" t="n">
+        <v>0</v>
+      </c>
+      <c r="L103" t="n">
+        <v>1</v>
+      </c>
+      <c r="M103" t="n">
+        <v>1</v>
+      </c>
+      <c r="N103" t="n">
+        <v>2</v>
+      </c>
+      <c r="O103" t="inlineStr">
+        <is>
+          <t>['72']</t>
+        </is>
+      </c>
+      <c r="P103" t="inlineStr">
+        <is>
+          <t>['57']</t>
+        </is>
+      </c>
+      <c r="Q103" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="R103" t="n">
+        <v>2</v>
+      </c>
+      <c r="S103" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="T103" t="n">
+        <v>1.48</v>
+      </c>
+      <c r="U103" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="V103" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="W103" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="X103" t="n">
+        <v>9.25</v>
+      </c>
+      <c r="Y103" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z103" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AA103" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AB103" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="AC103" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD103" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="AE103" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AF103" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="AG103" t="n">
+        <v>2.12</v>
+      </c>
+      <c r="AH103" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AI103" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ103" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK103" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AL103" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM103" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AN103" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AO103" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP103" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AQ103" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AR103" t="n">
+        <v>1.86</v>
+      </c>
+      <c r="AS103" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="AT103" t="n">
+        <v>3.27</v>
+      </c>
+      <c r="AU103" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV103" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW103" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX103" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY103" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ103" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA103" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB103" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC103" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD103" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BE103" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF103" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BG103" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BH103" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BI103" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BJ103" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BK103" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="BL103" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="BM103" t="n">
+        <v>3.05</v>
+      </c>
+      <c r="BN103" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BO103" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BP103" t="n">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="104">
+      <c r="A104" s="1" t="n">
+        <v>103</v>
+      </c>
+      <c r="B104" t="n">
+        <v>6441791</v>
+      </c>
+      <c r="C104" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D104" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E104" s="2" t="n">
+        <v>45326.45833333334</v>
+      </c>
+      <c r="F104" t="n">
+        <v>21</v>
+      </c>
+      <c r="G104" t="inlineStr">
+        <is>
+          <t>Rijeka</t>
+        </is>
+      </c>
+      <c r="H104" t="inlineStr">
+        <is>
+          <t>Istra 1961</t>
+        </is>
+      </c>
+      <c r="I104" t="n">
+        <v>2</v>
+      </c>
+      <c r="J104" t="n">
+        <v>0</v>
+      </c>
+      <c r="K104" t="n">
+        <v>2</v>
+      </c>
+      <c r="L104" t="n">
+        <v>3</v>
+      </c>
+      <c r="M104" t="n">
+        <v>0</v>
+      </c>
+      <c r="N104" t="n">
+        <v>3</v>
+      </c>
+      <c r="O104" t="inlineStr">
+        <is>
+          <t>['10', '34', '74']</t>
+        </is>
+      </c>
+      <c r="P104" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q104" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R104" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="S104" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="T104" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U104" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="V104" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="W104" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="X104" t="n">
+        <v>5</v>
+      </c>
+      <c r="Y104" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="Z104" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AA104" t="n">
+        <v>5</v>
+      </c>
+      <c r="AB104" t="n">
+        <v>8</v>
+      </c>
+      <c r="AC104" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD104" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE104" t="n">
+        <v>1.17</v>
+      </c>
+      <c r="AF104" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AG104" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="AH104" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AI104" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AJ104" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK104" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AL104" t="n">
+        <v>1.13</v>
+      </c>
+      <c r="AM104" t="n">
+        <v>3.56</v>
+      </c>
+      <c r="AN104" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AO104" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AP104" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AQ104" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AR104" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AS104" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AT104" t="n">
+        <v>3.64</v>
+      </c>
+      <c r="AU104" t="n">
+        <v>8</v>
+      </c>
+      <c r="AV104" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW104" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX104" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY104" t="n">
+        <v>14</v>
+      </c>
+      <c r="AZ104" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA104" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB104" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC104" t="n">
+        <v>5</v>
+      </c>
+      <c r="BD104" t="n">
+        <v>1.19</v>
+      </c>
+      <c r="BE104" t="n">
+        <v>11</v>
+      </c>
+      <c r="BF104" t="n">
+        <v>5.67</v>
+      </c>
+      <c r="BG104" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="BH104" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BI104" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="BJ104" t="n">
+        <v>2.41</v>
+      </c>
+      <c r="BK104" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BL104" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BM104" t="n">
+        <v>2.44</v>
+      </c>
+      <c r="BN104" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BO104" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BP104" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="105">
+      <c r="A105" s="1" t="n">
+        <v>104</v>
+      </c>
+      <c r="B105" t="n">
+        <v>6441790</v>
+      </c>
+      <c r="C105" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D105" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E105" s="2" t="n">
+        <v>45326.55208333334</v>
+      </c>
+      <c r="F105" t="n">
+        <v>21</v>
+      </c>
+      <c r="G105" t="inlineStr">
+        <is>
+          <t>Dinamo Zagreb</t>
+        </is>
+      </c>
+      <c r="H105" t="inlineStr">
+        <is>
+          <t>Gorica</t>
+        </is>
+      </c>
+      <c r="I105" t="n">
+        <v>1</v>
+      </c>
+      <c r="J105" t="n">
+        <v>0</v>
+      </c>
+      <c r="K105" t="n">
+        <v>1</v>
+      </c>
+      <c r="L105" t="n">
+        <v>2</v>
+      </c>
+      <c r="M105" t="n">
+        <v>0</v>
+      </c>
+      <c r="N105" t="n">
+        <v>2</v>
+      </c>
+      <c r="O105" t="inlineStr">
+        <is>
+          <t>['33', '73']</t>
+        </is>
+      </c>
+      <c r="P105" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q105" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="R105" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="S105" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="T105" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="U105" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="V105" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="W105" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X105" t="n">
+        <v>5.8</v>
+      </c>
+      <c r="Y105" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z105" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="AA105" t="n">
+        <v>5.2</v>
+      </c>
+      <c r="AB105" t="n">
+        <v>10.75</v>
+      </c>
+      <c r="AC105" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AD105" t="n">
+        <v>14</v>
+      </c>
+      <c r="AE105" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF105" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AG105" t="n">
+        <v>1.78</v>
+      </c>
+      <c r="AH105" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AI105" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AJ105" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AK105" t="n">
+        <v>1.01</v>
+      </c>
+      <c r="AL105" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="AM105" t="n">
+        <v>4.45</v>
+      </c>
+      <c r="AN105" t="n">
+        <v>2</v>
+      </c>
+      <c r="AO105" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP105" t="n">
+        <v>2.09</v>
+      </c>
+      <c r="AQ105" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AR105" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AS105" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AT105" t="n">
+        <v>3.17</v>
+      </c>
+      <c r="AU105" t="n">
+        <v>17</v>
+      </c>
+      <c r="AV105" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW105" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX105" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY105" t="n">
+        <v>22</v>
+      </c>
+      <c r="AZ105" t="n">
+        <v>4</v>
+      </c>
+      <c r="BA105" t="n">
+        <v>16</v>
+      </c>
+      <c r="BB105" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC105" t="n">
+        <v>18</v>
+      </c>
+      <c r="BD105" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BE105" t="n">
+        <v>9.5</v>
+      </c>
+      <c r="BF105" t="n">
+        <v>4.67</v>
+      </c>
+      <c r="BG105" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="BH105" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="BI105" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BJ105" t="n">
+        <v>1.93</v>
+      </c>
+      <c r="BK105" t="n">
+        <v>1.99</v>
+      </c>
+      <c r="BL105" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="BM105" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="BN105" t="n">
+        <v>1.44</v>
+      </c>
+      <c r="BO105" t="n">
+        <v>3.35</v>
+      </c>
+      <c r="BP105" t="n">
         <v>1.28</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
@@ -1,13 +1,13 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <workbookProtection/>
   <bookViews>
     <workbookView visibility="visible" minimized="0" showHorizontalScroll="1" showVerticalScroll="1" showSheetTabs="1" tabRatio="600" firstSheet="0" activeTab="0" autoFilterDateGrouping="1"/>
   </bookViews>
   <sheets>
-    <sheet name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="Sheet1" sheetId="1" state="visible" r:id="rId1"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -22949,22 +22949,22 @@
         <v>3.27</v>
       </c>
       <c r="AU103" t="n">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV103" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AW103" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AX103" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY103" t="n">
+        <v>12</v>
+      </c>
+      <c r="AZ103" t="n">
         <v>9</v>
-      </c>
-      <c r="AZ103" t="n">
-        <v>5</v>
       </c>
       <c r="BA103" t="n">
         <v>3</v>
@@ -23173,16 +23173,16 @@
         <v>0</v>
       </c>
       <c r="AW104" t="n">
-        <v>6</v>
+        <v>4</v>
       </c>
       <c r="AX104" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="AY104" t="n">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="AZ104" t="n">
-        <v>3</v>
+        <v>0</v>
       </c>
       <c r="BA104" t="n">
         <v>3</v>
@@ -23388,7 +23388,7 @@
         <v>17</v>
       </c>
       <c r="AV105" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AW105" t="n">
         <v>5</v>
@@ -23400,7 +23400,7 @@
         <v>22</v>
       </c>
       <c r="AZ105" t="n">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="BA105" t="n">
         <v>16</v>

--- a/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP105"/>
+  <dimension ref="A1:BP110"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1355,7 +1355,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ5" t="n">
         <v>0.9</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ6" t="n">
         <v>0.82</v>
@@ -2006,10 +2006,10 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ8" t="n">
         <v>1.36</v>
@@ -2442,10 +2442,10 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AQ9" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AR9" t="n">
         <v>0</v>
@@ -2663,7 +2663,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ10" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -2878,10 +2878,10 @@
         <v>0</v>
       </c>
       <c r="AP11" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3096,7 +3096,7 @@
         <v>1</v>
       </c>
       <c r="AP12" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ12" t="n">
         <v>0.9</v>
@@ -3968,7 +3968,7 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ16" t="n">
         <v>0.08</v>
@@ -4186,10 +4186,10 @@
         <v>3</v>
       </c>
       <c r="AP17" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AQ17" t="n">
         <v>0.9</v>
-      </c>
-      <c r="AQ17" t="n">
-        <v>1</v>
       </c>
       <c r="AR17" t="n">
         <v>0.82</v>
@@ -4404,10 +4404,10 @@
         <v>0.5</v>
       </c>
       <c r="AP18" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR18" t="n">
         <v>1.98</v>
@@ -5494,10 +5494,10 @@
         <v>0.33</v>
       </c>
       <c r="AP23" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ23" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR23" t="n">
         <v>1.73</v>
@@ -5712,7 +5712,7 @@
         <v>3</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ24" t="n">
         <v>1.91</v>
@@ -5930,10 +5930,10 @@
         <v>2</v>
       </c>
       <c r="AP25" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ25" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR25" t="n">
         <v>1.89</v>
@@ -6148,7 +6148,7 @@
         <v>0</v>
       </c>
       <c r="AP26" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AQ26" t="n">
         <v>0.08</v>
@@ -6369,7 +6369,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AR27" t="n">
         <v>1.7</v>
@@ -7020,7 +7020,7 @@
         <v>0.67</v>
       </c>
       <c r="AP30" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ30" t="n">
         <v>0.82</v>
@@ -7459,7 +7459,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ32" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AR32" t="n">
         <v>2.06</v>
@@ -7674,7 +7674,7 @@
         <v>0.25</v>
       </c>
       <c r="AP33" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ33" t="n">
         <v>0.08</v>
@@ -7895,7 +7895,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ34" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR34" t="n">
         <v>1.83</v>
@@ -8113,7 +8113,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ35" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR35" t="n">
         <v>2.48</v>
@@ -8328,7 +8328,7 @@
         <v>3</v>
       </c>
       <c r="AP36" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ36" t="n">
         <v>1.91</v>
@@ -8546,7 +8546,7 @@
         <v>1.25</v>
       </c>
       <c r="AP37" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ37" t="n">
         <v>0.82</v>
@@ -8982,7 +8982,7 @@
         <v>1.33</v>
       </c>
       <c r="AP39" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AQ39" t="n">
         <v>0.9</v>
@@ -9200,7 +9200,7 @@
         <v>1</v>
       </c>
       <c r="AP40" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ40" t="n">
         <v>1.36</v>
@@ -9421,7 +9421,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ41" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AR41" t="n">
         <v>1.05</v>
@@ -9639,7 +9639,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ42" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AR42" t="n">
         <v>1.73</v>
@@ -9854,7 +9854,7 @@
         <v>1.75</v>
       </c>
       <c r="AP43" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ43" t="n">
         <v>0.9</v>
@@ -10075,7 +10075,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ44" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR44" t="n">
         <v>1.11</v>
@@ -10293,7 +10293,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AR45" t="n">
         <v>1.46</v>
@@ -10508,10 +10508,10 @@
         <v>3</v>
       </c>
       <c r="AP46" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ46" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AR46" t="n">
         <v>1.9</v>
@@ -10726,7 +10726,7 @@
         <v>0.75</v>
       </c>
       <c r="AP47" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AQ47" t="n">
         <v>1.36</v>
@@ -11598,7 +11598,7 @@
         <v>1.4</v>
       </c>
       <c r="AP51" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ51" t="n">
         <v>0.9</v>
@@ -12037,7 +12037,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ53" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR53" t="n">
         <v>1.4</v>
@@ -12252,7 +12252,7 @@
         <v>1.2</v>
       </c>
       <c r="AP54" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ54" t="n">
         <v>1.36</v>
@@ -12470,10 +12470,10 @@
         <v>2.25</v>
       </c>
       <c r="AP55" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ55" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AR55" t="n">
         <v>1.6</v>
@@ -12688,10 +12688,10 @@
         <v>1.5</v>
       </c>
       <c r="AP56" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AQ56" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AR56" t="n">
         <v>1.41</v>
@@ -12906,10 +12906,10 @@
         <v>1</v>
       </c>
       <c r="AP57" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ57" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR57" t="n">
         <v>1.76</v>
@@ -14214,10 +14214,10 @@
         <v>1.4</v>
       </c>
       <c r="AP63" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ63" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AR63" t="n">
         <v>1.67</v>
@@ -14432,10 +14432,10 @@
         <v>1.33</v>
       </c>
       <c r="AP64" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ64" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR64" t="n">
         <v>1.49</v>
@@ -14650,7 +14650,7 @@
         <v>0.17</v>
       </c>
       <c r="AP65" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ65" t="n">
         <v>0.08</v>
@@ -14868,10 +14868,10 @@
         <v>1.8</v>
       </c>
       <c r="AP66" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ66" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AR66" t="n">
         <v>1.5</v>
@@ -15086,10 +15086,10 @@
         <v>0.5</v>
       </c>
       <c r="AP67" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AQ67" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR67" t="n">
         <v>1.32</v>
@@ -16176,7 +16176,7 @@
         <v>0.83</v>
       </c>
       <c r="AP72" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ72" t="n">
         <v>0.9</v>
@@ -16397,7 +16397,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ73" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AR73" t="n">
         <v>2.26</v>
@@ -16612,10 +16612,10 @@
         <v>0.43</v>
       </c>
       <c r="AP74" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ74" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR74" t="n">
         <v>1.5</v>
@@ -16830,10 +16830,10 @@
         <v>1.33</v>
       </c>
       <c r="AP75" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ75" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AR75" t="n">
         <v>1.4</v>
@@ -17051,7 +17051,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ76" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR76" t="n">
         <v>2.04</v>
@@ -17266,7 +17266,7 @@
         <v>2.14</v>
       </c>
       <c r="AP77" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AQ77" t="n">
         <v>1.91</v>
@@ -17484,7 +17484,7 @@
         <v>0.14</v>
       </c>
       <c r="AP78" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ78" t="n">
         <v>0.08</v>
@@ -17702,7 +17702,7 @@
         <v>0.71</v>
       </c>
       <c r="AP79" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AQ79" t="n">
         <v>0.9</v>
@@ -17923,7 +17923,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ80" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AR80" t="n">
         <v>1.97</v>
@@ -18138,7 +18138,7 @@
         <v>1.13</v>
       </c>
       <c r="AP81" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ81" t="n">
         <v>0.9</v>
@@ -18577,7 +18577,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ83" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AR83" t="n">
         <v>1.43</v>
@@ -18792,7 +18792,7 @@
         <v>2.25</v>
       </c>
       <c r="AP84" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ84" t="n">
         <v>1.91</v>
@@ -19010,7 +19010,7 @@
         <v>1</v>
       </c>
       <c r="AP85" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ85" t="n">
         <v>0.82</v>
@@ -19446,10 +19446,10 @@
         <v>1</v>
       </c>
       <c r="AP87" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ87" t="n">
-        <v>1</v>
+        <v>0.9</v>
       </c>
       <c r="AR87" t="n">
         <v>1.36</v>
@@ -19667,7 +19667,7 @@
         <v>2.36</v>
       </c>
       <c r="AQ88" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR88" t="n">
         <v>2.24</v>
@@ -19882,7 +19882,7 @@
         <v>0.63</v>
       </c>
       <c r="AP89" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ89" t="n">
         <v>0.9</v>
@@ -20100,7 +20100,7 @@
         <v>1</v>
       </c>
       <c r="AP90" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ90" t="n">
         <v>0.82</v>
@@ -20539,7 +20539,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ92" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR92" t="n">
         <v>1.89</v>
@@ -21190,10 +21190,10 @@
         <v>1.5</v>
       </c>
       <c r="AP95" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ95" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AR95" t="n">
         <v>1.36</v>
@@ -21408,10 +21408,10 @@
         <v>0.9</v>
       </c>
       <c r="AP96" t="n">
-        <v>1.3</v>
+        <v>1.45</v>
       </c>
       <c r="AQ96" t="n">
-        <v>1.09</v>
+        <v>1</v>
       </c>
       <c r="AR96" t="n">
         <v>1.37</v>
@@ -21844,10 +21844,10 @@
         <v>1.75</v>
       </c>
       <c r="AP98" t="n">
-        <v>0.9</v>
+        <v>1.09</v>
       </c>
       <c r="AQ98" t="n">
-        <v>1.89</v>
+        <v>1.8</v>
       </c>
       <c r="AR98" t="n">
         <v>1.2</v>
@@ -22062,7 +22062,7 @@
         <v>1.2</v>
       </c>
       <c r="AP99" t="n">
-        <v>1.64</v>
+        <v>1.5</v>
       </c>
       <c r="AQ99" t="n">
         <v>1.36</v>
@@ -22280,10 +22280,10 @@
         <v>1.67</v>
       </c>
       <c r="AP100" t="n">
-        <v>2.1</v>
+        <v>2.18</v>
       </c>
       <c r="AQ100" t="n">
-        <v>1.8</v>
+        <v>1.91</v>
       </c>
       <c r="AR100" t="n">
         <v>1.75</v>
@@ -22498,7 +22498,7 @@
         <v>0.89</v>
       </c>
       <c r="AP101" t="n">
-        <v>1.3</v>
+        <v>1.27</v>
       </c>
       <c r="AQ101" t="n">
         <v>0.9</v>
@@ -23449,6 +23449,1096 @@
       </c>
       <c r="BP105" t="n">
         <v>1.28</v>
+      </c>
+    </row>
+    <row r="106">
+      <c r="A106" s="1" t="n">
+        <v>105</v>
+      </c>
+      <c r="B106" t="n">
+        <v>6441794</v>
+      </c>
+      <c r="C106" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D106" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E106" s="2" t="n">
+        <v>45331.54166666666</v>
+      </c>
+      <c r="F106" t="n">
+        <v>22</v>
+      </c>
+      <c r="G106" t="inlineStr">
+        <is>
+          <t>Varaždin</t>
+        </is>
+      </c>
+      <c r="H106" t="inlineStr">
+        <is>
+          <t>Rudeš</t>
+        </is>
+      </c>
+      <c r="I106" t="n">
+        <v>0</v>
+      </c>
+      <c r="J106" t="n">
+        <v>0</v>
+      </c>
+      <c r="K106" t="n">
+        <v>0</v>
+      </c>
+      <c r="L106" t="n">
+        <v>1</v>
+      </c>
+      <c r="M106" t="n">
+        <v>0</v>
+      </c>
+      <c r="N106" t="n">
+        <v>1</v>
+      </c>
+      <c r="O106" t="inlineStr">
+        <is>
+          <t>['67']</t>
+        </is>
+      </c>
+      <c r="P106" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q106" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="R106" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="S106" t="n">
+        <v>4.8</v>
+      </c>
+      <c r="T106" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U106" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V106" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W106" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X106" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y106" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Z106" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AA106" t="n">
+        <v>3.88</v>
+      </c>
+      <c r="AB106" t="n">
+        <v>5.22</v>
+      </c>
+      <c r="AC106" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD106" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE106" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF106" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AG106" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AH106" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="AI106" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ106" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AK106" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AL106" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM106" t="n">
+        <v>2.38</v>
+      </c>
+      <c r="AN106" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO106" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AP106" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AQ106" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AR106" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="AS106" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AT106" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AU106" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV106" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW106" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX106" t="n">
+        <v>1</v>
+      </c>
+      <c r="AY106" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ106" t="n">
+        <v>3</v>
+      </c>
+      <c r="BA106" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB106" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC106" t="n">
+        <v>7</v>
+      </c>
+      <c r="BD106" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BE106" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF106" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BG106" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH106" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BI106" t="n">
+        <v>1.51</v>
+      </c>
+      <c r="BJ106" t="n">
+        <v>2.32</v>
+      </c>
+      <c r="BK106" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BL106" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BM106" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="BN106" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="BO106" t="n">
+        <v>3.34</v>
+      </c>
+      <c r="BP106" t="n">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="107">
+      <c r="A107" s="1" t="n">
+        <v>106</v>
+      </c>
+      <c r="B107" t="n">
+        <v>6441796</v>
+      </c>
+      <c r="C107" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D107" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E107" s="2" t="n">
+        <v>45332.45833333334</v>
+      </c>
+      <c r="F107" t="n">
+        <v>22</v>
+      </c>
+      <c r="G107" t="inlineStr">
+        <is>
+          <t>Istra 1961</t>
+        </is>
+      </c>
+      <c r="H107" t="inlineStr">
+        <is>
+          <t>Osijek</t>
+        </is>
+      </c>
+      <c r="I107" t="n">
+        <v>1</v>
+      </c>
+      <c r="J107" t="n">
+        <v>0</v>
+      </c>
+      <c r="K107" t="n">
+        <v>1</v>
+      </c>
+      <c r="L107" t="n">
+        <v>1</v>
+      </c>
+      <c r="M107" t="n">
+        <v>0</v>
+      </c>
+      <c r="N107" t="n">
+        <v>1</v>
+      </c>
+      <c r="O107" t="inlineStr">
+        <is>
+          <t>['43']</t>
+        </is>
+      </c>
+      <c r="P107" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q107" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="R107" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="S107" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="T107" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="U107" t="n">
+        <v>2.7</v>
+      </c>
+      <c r="V107" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="W107" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="X107" t="n">
+        <v>7.4</v>
+      </c>
+      <c r="Y107" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="Z107" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="AA107" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB107" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AC107" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD107" t="n">
+        <v>10.5</v>
+      </c>
+      <c r="AE107" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AF107" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="AG107" t="n">
+        <v>2</v>
+      </c>
+      <c r="AH107" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AI107" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AJ107" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AK107" t="n">
+        <v>1.68</v>
+      </c>
+      <c r="AL107" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM107" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AN107" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AO107" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP107" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AQ107" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AR107" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AS107" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AT107" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AU107" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV107" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW107" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX107" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY107" t="n">
+        <v>2</v>
+      </c>
+      <c r="AZ107" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA107" t="n">
+        <v>2</v>
+      </c>
+      <c r="BB107" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC107" t="n">
+        <v>6</v>
+      </c>
+      <c r="BD107" t="n">
+        <v>2.33</v>
+      </c>
+      <c r="BE107" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF107" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BG107" t="n">
+        <v>1.24</v>
+      </c>
+      <c r="BH107" t="n">
+        <v>3.48</v>
+      </c>
+      <c r="BI107" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BJ107" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BK107" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="BL107" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BM107" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="BN107" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BO107" t="n">
+        <v>3.08</v>
+      </c>
+      <c r="BP107" t="n">
+        <v>1.3</v>
+      </c>
+    </row>
+    <row r="108">
+      <c r="A108" s="1" t="n">
+        <v>107</v>
+      </c>
+      <c r="B108" t="n">
+        <v>6441798</v>
+      </c>
+      <c r="C108" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D108" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E108" s="2" t="n">
+        <v>45332.54861111111</v>
+      </c>
+      <c r="F108" t="n">
+        <v>22</v>
+      </c>
+      <c r="G108" t="inlineStr">
+        <is>
+          <t>Lokomotiva Zagreb</t>
+        </is>
+      </c>
+      <c r="H108" t="inlineStr">
+        <is>
+          <t>Dinamo Zagreb</t>
+        </is>
+      </c>
+      <c r="I108" t="n">
+        <v>2</v>
+      </c>
+      <c r="J108" t="n">
+        <v>2</v>
+      </c>
+      <c r="K108" t="n">
+        <v>4</v>
+      </c>
+      <c r="L108" t="n">
+        <v>2</v>
+      </c>
+      <c r="M108" t="n">
+        <v>2</v>
+      </c>
+      <c r="N108" t="n">
+        <v>4</v>
+      </c>
+      <c r="O108" t="inlineStr">
+        <is>
+          <t>['18', '45+5']</t>
+        </is>
+      </c>
+      <c r="P108" t="inlineStr">
+        <is>
+          <t>['40', '45+8']</t>
+        </is>
+      </c>
+      <c r="Q108" t="n">
+        <v>5</v>
+      </c>
+      <c r="R108" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S108" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="T108" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U108" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V108" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="W108" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X108" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="Y108" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z108" t="n">
+        <v>5</v>
+      </c>
+      <c r="AA108" t="n">
+        <v>4</v>
+      </c>
+      <c r="AB108" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="AC108" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD108" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE108" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF108" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AG108" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AH108" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AI108" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ108" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AK108" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="AL108" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM108" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="AN108" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AO108" t="n">
+        <v>1.89</v>
+      </c>
+      <c r="AP108" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AQ108" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AR108" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="AS108" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AT108" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AU108" t="n">
+        <v>6</v>
+      </c>
+      <c r="AV108" t="n">
+        <v>7</v>
+      </c>
+      <c r="AW108" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX108" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY108" t="n">
+        <v>7</v>
+      </c>
+      <c r="AZ108" t="n">
+        <v>17</v>
+      </c>
+      <c r="BA108" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB108" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC108" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD108" t="n">
+        <v>3.59</v>
+      </c>
+      <c r="BE108" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF108" t="n">
+        <v>1.41</v>
+      </c>
+      <c r="BG108" t="n">
+        <v>1.38</v>
+      </c>
+      <c r="BH108" t="n">
+        <v>2.71</v>
+      </c>
+      <c r="BI108" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BJ108" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BK108" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="BL108" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BM108" t="n">
+        <v>2.93</v>
+      </c>
+      <c r="BN108" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BO108" t="n">
+        <v>3.9</v>
+      </c>
+      <c r="BP108" t="n">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="109">
+      <c r="A109" s="1" t="n">
+        <v>108</v>
+      </c>
+      <c r="B109" t="n">
+        <v>6441795</v>
+      </c>
+      <c r="C109" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D109" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E109" s="2" t="n">
+        <v>45333.45833333334</v>
+      </c>
+      <c r="F109" t="n">
+        <v>22</v>
+      </c>
+      <c r="G109" t="inlineStr">
+        <is>
+          <t>Hajduk Split</t>
+        </is>
+      </c>
+      <c r="H109" t="inlineStr">
+        <is>
+          <t>Slaven Koprivnica</t>
+        </is>
+      </c>
+      <c r="I109" t="n">
+        <v>1</v>
+      </c>
+      <c r="J109" t="n">
+        <v>0</v>
+      </c>
+      <c r="K109" t="n">
+        <v>1</v>
+      </c>
+      <c r="L109" t="n">
+        <v>4</v>
+      </c>
+      <c r="M109" t="n">
+        <v>0</v>
+      </c>
+      <c r="N109" t="n">
+        <v>4</v>
+      </c>
+      <c r="O109" t="inlineStr">
+        <is>
+          <t>['45+2', '48', '51', '67']</t>
+        </is>
+      </c>
+      <c r="P109" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q109" t="n">
+        <v>1.73</v>
+      </c>
+      <c r="R109" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="S109" t="n">
+        <v>11</v>
+      </c>
+      <c r="T109" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="U109" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V109" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W109" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="X109" t="n">
+        <v>5.95</v>
+      </c>
+      <c r="Y109" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z109" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AA109" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="AB109" t="n">
+        <v>11</v>
+      </c>
+      <c r="AC109" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD109" t="n">
+        <v>10</v>
+      </c>
+      <c r="AE109" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AF109" t="n">
+        <v>4</v>
+      </c>
+      <c r="AG109" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AH109" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AI109" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="AJ109" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="AK109" t="n">
+        <v>1.02</v>
+      </c>
+      <c r="AL109" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AM109" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AN109" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AO109" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AP109" t="n">
+        <v>2.18</v>
+      </c>
+      <c r="AQ109" t="n">
+        <v>1</v>
+      </c>
+      <c r="AR109" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AS109" t="n">
+        <v>1.23</v>
+      </c>
+      <c r="AT109" t="n">
+        <v>2.89</v>
+      </c>
+      <c r="AU109" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV109" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW109" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX109" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY109" t="n">
+        <v>6</v>
+      </c>
+      <c r="AZ109" t="n">
+        <v>9</v>
+      </c>
+      <c r="BA109" t="n">
+        <v>9</v>
+      </c>
+      <c r="BB109" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC109" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD109" t="n">
+        <v>1.26</v>
+      </c>
+      <c r="BE109" t="n">
+        <v>10</v>
+      </c>
+      <c r="BF109" t="n">
+        <v>4.86</v>
+      </c>
+      <c r="BG109" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="BH109" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BI109" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="BJ109" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BK109" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BL109" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BM109" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="BN109" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="BO109" t="n">
+        <v>3.28</v>
+      </c>
+      <c r="BP109" t="n">
+        <v>1.27</v>
+      </c>
+    </row>
+    <row r="110">
+      <c r="A110" s="1" t="n">
+        <v>109</v>
+      </c>
+      <c r="B110" t="n">
+        <v>6441797</v>
+      </c>
+      <c r="C110" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D110" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E110" s="2" t="n">
+        <v>45333.54861111111</v>
+      </c>
+      <c r="F110" t="n">
+        <v>22</v>
+      </c>
+      <c r="G110" t="inlineStr">
+        <is>
+          <t>Gorica</t>
+        </is>
+      </c>
+      <c r="H110" t="inlineStr">
+        <is>
+          <t>Rijeka</t>
+        </is>
+      </c>
+      <c r="I110" t="n">
+        <v>0</v>
+      </c>
+      <c r="J110" t="n">
+        <v>0</v>
+      </c>
+      <c r="K110" t="n">
+        <v>0</v>
+      </c>
+      <c r="L110" t="n">
+        <v>0</v>
+      </c>
+      <c r="M110" t="n">
+        <v>2</v>
+      </c>
+      <c r="N110" t="n">
+        <v>2</v>
+      </c>
+      <c r="O110" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="P110" t="inlineStr">
+        <is>
+          <t>['66', '75']</t>
+        </is>
+      </c>
+      <c r="Q110" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="R110" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S110" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="T110" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U110" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V110" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W110" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X110" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="Y110" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z110" t="n">
+        <v>4.75</v>
+      </c>
+      <c r="AA110" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB110" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AC110" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD110" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE110" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF110" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AG110" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AH110" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AI110" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AJ110" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AK110" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL110" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM110" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AN110" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="AO110" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AP110" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AQ110" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AR110" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AS110" t="n">
+        <v>1.46</v>
+      </c>
+      <c r="AT110" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AU110" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV110" t="n">
+        <v>2</v>
+      </c>
+      <c r="AW110" t="n">
+        <v>1</v>
+      </c>
+      <c r="AX110" t="n">
+        <v>6</v>
+      </c>
+      <c r="AY110" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ110" t="n">
+        <v>8</v>
+      </c>
+      <c r="BA110" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB110" t="n">
+        <v>1</v>
+      </c>
+      <c r="BC110" t="n">
+        <v>4</v>
+      </c>
+      <c r="BD110" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="BE110" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF110" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BG110" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BH110" t="n">
+        <v>2.84</v>
+      </c>
+      <c r="BI110" t="n">
+        <v>1.64</v>
+      </c>
+      <c r="BJ110" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BK110" t="n">
+        <v>2.11</v>
+      </c>
+      <c r="BL110" t="n">
+        <v>1.65</v>
+      </c>
+      <c r="BM110" t="n">
+        <v>2.79</v>
+      </c>
+      <c r="BN110" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BO110" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="BP110" t="n">
+        <v>1.19</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
@@ -23821,22 +23821,22 @@
         <v>2.42</v>
       </c>
       <c r="AU107" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AV107" t="n">
         <v>3</v>
       </c>
       <c r="AW107" t="n">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="AX107" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AY107" t="n">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AZ107" t="n">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BA107" t="n">
         <v>2</v>
@@ -24039,19 +24039,19 @@
         <v>3.4</v>
       </c>
       <c r="AU108" t="n">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV108" t="n">
         <v>7</v>
       </c>
       <c r="AW108" t="n">
-        <v>1</v>
+        <v>3</v>
       </c>
       <c r="AX108" t="n">
         <v>10</v>
       </c>
       <c r="AY108" t="n">
-        <v>7</v>
+        <v>10</v>
       </c>
       <c r="AZ108" t="n">
         <v>17</v>
@@ -24257,22 +24257,22 @@
         <v>2.89</v>
       </c>
       <c r="AU109" t="n">
-        <v>5</v>
+        <v>9</v>
       </c>
       <c r="AV109" t="n">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AW109" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="AX109" t="n">
         <v>6</v>
       </c>
       <c r="AY109" t="n">
-        <v>6</v>
+        <v>11</v>
       </c>
       <c r="AZ109" t="n">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="BA109" t="n">
         <v>9</v>
@@ -24475,31 +24475,31 @@
         <v>2.73</v>
       </c>
       <c r="AU110" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV110" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW110" t="n">
         <v>4</v>
-      </c>
-      <c r="AV110" t="n">
-        <v>2</v>
-      </c>
-      <c r="AW110" t="n">
-        <v>1</v>
       </c>
       <c r="AX110" t="n">
         <v>6</v>
       </c>
       <c r="AY110" t="n">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AZ110" t="n">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA110" t="n">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BB110" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="BC110" t="n">
-        <v>4</v>
+        <v>6</v>
       </c>
       <c r="BD110" t="n">
         <v>3.33</v>

--- a/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP110"/>
+  <dimension ref="A1:BP112"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -1134,7 +1134,7 @@
         <v>0</v>
       </c>
       <c r="AP3" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AQ3" t="n">
         <v>0.08</v>
@@ -1791,7 +1791,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ6" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR6" t="n">
         <v>0</v>
@@ -2227,7 +2227,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ8" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR8" t="n">
         <v>2.02</v>
@@ -3314,7 +3314,7 @@
         <v>0</v>
       </c>
       <c r="AP13" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ13" t="n">
         <v>0.08</v>
@@ -3750,10 +3750,10 @@
         <v>1</v>
       </c>
       <c r="AP15" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AQ15" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR15" t="n">
         <v>2.17</v>
@@ -4622,10 +4622,10 @@
         <v>0.5</v>
       </c>
       <c r="AP19" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ19" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR19" t="n">
         <v>1.39</v>
@@ -5276,10 +5276,10 @@
         <v>0</v>
       </c>
       <c r="AP22" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AQ22" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR22" t="n">
         <v>2.49</v>
@@ -6584,10 +6584,10 @@
         <v>0</v>
       </c>
       <c r="AP28" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ28" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR28" t="n">
         <v>1.1</v>
@@ -7023,7 +7023,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ30" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR30" t="n">
         <v>2.07</v>
@@ -7238,7 +7238,7 @@
         <v>1</v>
       </c>
       <c r="AP31" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AQ31" t="n">
         <v>0.9</v>
@@ -8110,7 +8110,7 @@
         <v>1.67</v>
       </c>
       <c r="AP35" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AQ35" t="n">
         <v>0.9</v>
@@ -8549,7 +8549,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ37" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR37" t="n">
         <v>1.58</v>
@@ -9203,7 +9203,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ40" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR40" t="n">
         <v>1.89</v>
@@ -9418,7 +9418,7 @@
         <v>0</v>
       </c>
       <c r="AP41" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ41" t="n">
         <v>1.91</v>
@@ -10072,7 +10072,7 @@
         <v>1.25</v>
       </c>
       <c r="AP44" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ44" t="n">
         <v>0.9</v>
@@ -10729,7 +10729,7 @@
         <v>1.09</v>
       </c>
       <c r="AQ47" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR47" t="n">
         <v>1.43</v>
@@ -10944,7 +10944,7 @@
         <v>1</v>
       </c>
       <c r="AP48" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ48" t="n">
         <v>0.9</v>
@@ -11380,7 +11380,7 @@
         <v>2.25</v>
       </c>
       <c r="AP50" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AQ50" t="n">
         <v>1.91</v>
@@ -11819,7 +11819,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ52" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR52" t="n">
         <v>1.85</v>
@@ -12255,7 +12255,7 @@
         <v>1.45</v>
       </c>
       <c r="AQ54" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR54" t="n">
         <v>1.48</v>
@@ -13124,7 +13124,7 @@
         <v>1.8</v>
       </c>
       <c r="AP58" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ58" t="n">
         <v>1.91</v>
@@ -13563,7 +13563,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ60" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR60" t="n">
         <v>1.99</v>
@@ -13778,7 +13778,7 @@
         <v>1.33</v>
       </c>
       <c r="AP61" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AQ61" t="n">
         <v>0.9</v>
@@ -13999,7 +13999,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ62" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR62" t="n">
         <v>1.89</v>
@@ -15522,7 +15522,7 @@
         <v>1.14</v>
       </c>
       <c r="AP69" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ69" t="n">
         <v>0.9</v>
@@ -15743,7 +15743,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ70" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR70" t="n">
         <v>1.43</v>
@@ -15961,7 +15961,7 @@
         <v>1.83</v>
       </c>
       <c r="AQ71" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR71" t="n">
         <v>1.96</v>
@@ -16394,7 +16394,7 @@
         <v>1.67</v>
       </c>
       <c r="AP73" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AQ73" t="n">
         <v>1.8</v>
@@ -18359,7 +18359,7 @@
         <v>0.33</v>
       </c>
       <c r="AQ82" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR82" t="n">
         <v>1.42</v>
@@ -18574,7 +18574,7 @@
         <v>1.57</v>
       </c>
       <c r="AP83" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ83" t="n">
         <v>1.8</v>
@@ -19013,7 +19013,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ85" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR85" t="n">
         <v>1.52</v>
@@ -19664,7 +19664,7 @@
         <v>0.75</v>
       </c>
       <c r="AP88" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AQ88" t="n">
         <v>1</v>
@@ -20103,7 +20103,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ90" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR90" t="n">
         <v>1.58</v>
@@ -20318,7 +20318,7 @@
         <v>0.11</v>
       </c>
       <c r="AP91" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AQ91" t="n">
         <v>0.08</v>
@@ -20975,7 +20975,7 @@
         <v>2.09</v>
       </c>
       <c r="AQ94" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR94" t="n">
         <v>1.9</v>
@@ -22065,7 +22065,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ99" t="n">
-        <v>1.36</v>
+        <v>1.25</v>
       </c>
       <c r="AR99" t="n">
         <v>1.31</v>
@@ -22716,7 +22716,7 @@
         <v>0.09</v>
       </c>
       <c r="AP102" t="n">
-        <v>1.4</v>
+        <v>1.36</v>
       </c>
       <c r="AQ102" t="n">
         <v>0.08</v>
@@ -23152,10 +23152,10 @@
         <v>0.9</v>
       </c>
       <c r="AP104" t="n">
-        <v>2.36</v>
+        <v>2.42</v>
       </c>
       <c r="AQ104" t="n">
-        <v>0.82</v>
+        <v>0.83</v>
       </c>
       <c r="AR104" t="n">
         <v>2.25</v>
@@ -24539,6 +24539,442 @@
       </c>
       <c r="BP110" t="n">
         <v>1.19</v>
+      </c>
+    </row>
+    <row r="111">
+      <c r="A111" s="1" t="n">
+        <v>110</v>
+      </c>
+      <c r="B111" t="n">
+        <v>6441802</v>
+      </c>
+      <c r="C111" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D111" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E111" s="2" t="n">
+        <v>45338.54166666666</v>
+      </c>
+      <c r="F111" t="n">
+        <v>23</v>
+      </c>
+      <c r="G111" t="inlineStr">
+        <is>
+          <t>Slaven Koprivnica</t>
+        </is>
+      </c>
+      <c r="H111" t="inlineStr">
+        <is>
+          <t>Istra 1961</t>
+        </is>
+      </c>
+      <c r="I111" t="n">
+        <v>0</v>
+      </c>
+      <c r="J111" t="n">
+        <v>1</v>
+      </c>
+      <c r="K111" t="n">
+        <v>1</v>
+      </c>
+      <c r="L111" t="n">
+        <v>1</v>
+      </c>
+      <c r="M111" t="n">
+        <v>1</v>
+      </c>
+      <c r="N111" t="n">
+        <v>2</v>
+      </c>
+      <c r="O111" t="inlineStr">
+        <is>
+          <t>['54']</t>
+        </is>
+      </c>
+      <c r="P111" t="inlineStr">
+        <is>
+          <t>['38']</t>
+        </is>
+      </c>
+      <c r="Q111" t="n">
+        <v>2.6</v>
+      </c>
+      <c r="R111" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S111" t="n">
+        <v>4</v>
+      </c>
+      <c r="T111" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U111" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V111" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W111" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X111" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="Y111" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z111" t="n">
+        <v>1.94</v>
+      </c>
+      <c r="AA111" t="n">
+        <v>3.07</v>
+      </c>
+      <c r="AB111" t="n">
+        <v>3.33</v>
+      </c>
+      <c r="AC111" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD111" t="n">
+        <v>11</v>
+      </c>
+      <c r="AE111" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AF111" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AG111" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AH111" t="n">
+        <v>1.77</v>
+      </c>
+      <c r="AI111" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AJ111" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK111" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AL111" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AM111" t="n">
+        <v>1.72</v>
+      </c>
+      <c r="AN111" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AO111" t="n">
+        <v>0.82</v>
+      </c>
+      <c r="AP111" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AQ111" t="n">
+        <v>0.83</v>
+      </c>
+      <c r="AR111" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AS111" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AT111" t="n">
+        <v>2.73</v>
+      </c>
+      <c r="AU111" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV111" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW111" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX111" t="n">
+        <v>2</v>
+      </c>
+      <c r="AY111" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ111" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA111" t="n">
+        <v>5</v>
+      </c>
+      <c r="BB111" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC111" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD111" t="n">
+        <v>1.69</v>
+      </c>
+      <c r="BE111" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF111" t="n">
+        <v>2.64</v>
+      </c>
+      <c r="BG111" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="BH111" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BI111" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BJ111" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BK111" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BL111" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BM111" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BN111" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BO111" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BP111" t="n">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="112">
+      <c r="A112" s="1" t="n">
+        <v>111</v>
+      </c>
+      <c r="B112" t="n">
+        <v>6441800</v>
+      </c>
+      <c r="C112" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D112" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E112" s="2" t="n">
+        <v>45339.45833333334</v>
+      </c>
+      <c r="F112" t="n">
+        <v>23</v>
+      </c>
+      <c r="G112" t="inlineStr">
+        <is>
+          <t>Rijeka</t>
+        </is>
+      </c>
+      <c r="H112" t="inlineStr">
+        <is>
+          <t>Lokomotiva Zagreb</t>
+        </is>
+      </c>
+      <c r="I112" t="n">
+        <v>2</v>
+      </c>
+      <c r="J112" t="n">
+        <v>0</v>
+      </c>
+      <c r="K112" t="n">
+        <v>2</v>
+      </c>
+      <c r="L112" t="n">
+        <v>4</v>
+      </c>
+      <c r="M112" t="n">
+        <v>0</v>
+      </c>
+      <c r="N112" t="n">
+        <v>4</v>
+      </c>
+      <c r="O112" t="inlineStr">
+        <is>
+          <t>['9', '31', '85', '90+1']</t>
+        </is>
+      </c>
+      <c r="P112" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q112" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="R112" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="S112" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="T112" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U112" t="n">
+        <v>3</v>
+      </c>
+      <c r="V112" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="W112" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="X112" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y112" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Z112" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AA112" t="n">
+        <v>4.12</v>
+      </c>
+      <c r="AB112" t="n">
+        <v>6.86</v>
+      </c>
+      <c r="AC112" t="n">
+        <v>1.04</v>
+      </c>
+      <c r="AD112" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE112" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF112" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="AG112" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AH112" t="n">
+        <v>2</v>
+      </c>
+      <c r="AI112" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AJ112" t="n">
+        <v>1.81</v>
+      </c>
+      <c r="AK112" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AL112" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="AM112" t="n">
+        <v>3</v>
+      </c>
+      <c r="AN112" t="n">
+        <v>2.36</v>
+      </c>
+      <c r="AO112" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="AP112" t="n">
+        <v>2.42</v>
+      </c>
+      <c r="AQ112" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AR112" t="n">
+        <v>2.21</v>
+      </c>
+      <c r="AS112" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AT112" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="AU112" t="n">
+        <v>9</v>
+      </c>
+      <c r="AV112" t="n">
+        <v>0</v>
+      </c>
+      <c r="AW112" t="n">
+        <v>7</v>
+      </c>
+      <c r="AX112" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY112" t="n">
+        <v>16</v>
+      </c>
+      <c r="AZ112" t="n">
+        <v>5</v>
+      </c>
+      <c r="BA112" t="n">
+        <v>3</v>
+      </c>
+      <c r="BB112" t="n">
+        <v>6</v>
+      </c>
+      <c r="BC112" t="n">
+        <v>9</v>
+      </c>
+      <c r="BD112" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BE112" t="n">
+        <v>11</v>
+      </c>
+      <c r="BF112" t="n">
+        <v>6.16</v>
+      </c>
+      <c r="BG112" t="n">
+        <v>1.32</v>
+      </c>
+      <c r="BH112" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="BI112" t="n">
+        <v>1.6</v>
+      </c>
+      <c r="BJ112" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="BK112" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BL112" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BM112" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="BN112" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="BO112" t="n">
+        <v>3.74</v>
+      </c>
+      <c r="BP112" t="n">
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
@@ -429,7 +429,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:BP115"/>
+  <dimension ref="A1:BP120"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -916,10 +916,10 @@
         <v>0</v>
       </c>
       <c r="AP2" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ2" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AR2" t="n">
         <v>0</v>
@@ -1137,7 +1137,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ3" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AR3" t="n">
         <v>0</v>
@@ -1355,7 +1355,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ4" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR4" t="n">
         <v>0</v>
@@ -1570,7 +1570,7 @@
         <v>0</v>
       </c>
       <c r="AP5" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ5" t="n">
         <v>0.82</v>
@@ -1788,7 +1788,7 @@
         <v>0</v>
       </c>
       <c r="AP6" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ6" t="n">
         <v>0.83</v>
@@ -2006,10 +2006,10 @@
         <v>0</v>
       </c>
       <c r="AP7" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ7" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR7" t="n">
         <v>0</v>
@@ -2224,7 +2224,7 @@
         <v>0</v>
       </c>
       <c r="AP8" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ8" t="n">
         <v>1.25</v>
@@ -2442,7 +2442,7 @@
         <v>0</v>
       </c>
       <c r="AP9" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AQ9" t="n">
         <v>1.8</v>
@@ -2663,7 +2663,7 @@
         <v>0.3</v>
       </c>
       <c r="AQ10" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AR10" t="n">
         <v>0</v>
@@ -2881,7 +2881,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ11" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AR11" t="n">
         <v>0</v>
@@ -3096,7 +3096,7 @@
         <v>1</v>
       </c>
       <c r="AP12" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ12" t="n">
         <v>0.82</v>
@@ -3317,7 +3317,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ13" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AR13" t="n">
         <v>0</v>
@@ -3532,7 +3532,7 @@
         <v>0</v>
       </c>
       <c r="AP14" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ14" t="n">
         <v>0.82</v>
@@ -3968,10 +3968,10 @@
         <v>0</v>
       </c>
       <c r="AP16" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ16" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AR16" t="n">
         <v>1.69</v>
@@ -4186,10 +4186,10 @@
         <v>3</v>
       </c>
       <c r="AP17" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AQ17" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AR17" t="n">
         <v>0.82</v>
@@ -4407,7 +4407,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ18" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR18" t="n">
         <v>1.98</v>
@@ -4843,7 +4843,7 @@
         <v>0.3</v>
       </c>
       <c r="AQ20" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AR20" t="n">
         <v>1.48</v>
@@ -5494,10 +5494,10 @@
         <v>0.33</v>
       </c>
       <c r="AP23" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ23" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR23" t="n">
         <v>1.73</v>
@@ -5712,10 +5712,10 @@
         <v>3</v>
       </c>
       <c r="AP24" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ24" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AR24" t="n">
         <v>1.61</v>
@@ -5930,10 +5930,10 @@
         <v>2</v>
       </c>
       <c r="AP25" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ25" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AR25" t="n">
         <v>1.89</v>
@@ -6148,10 +6148,10 @@
         <v>0</v>
       </c>
       <c r="AP26" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AQ26" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AR26" t="n">
         <v>1.3</v>
@@ -6366,10 +6366,10 @@
         <v>0</v>
       </c>
       <c r="AP27" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ27" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AR27" t="n">
         <v>1.7</v>
@@ -7674,10 +7674,10 @@
         <v>0.25</v>
       </c>
       <c r="AP33" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ33" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AR33" t="n">
         <v>1.8</v>
@@ -7892,10 +7892,10 @@
         <v>0.5</v>
       </c>
       <c r="AP34" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ34" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR34" t="n">
         <v>1.83</v>
@@ -8113,7 +8113,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ35" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AR35" t="n">
         <v>2.48</v>
@@ -8328,10 +8328,10 @@
         <v>3</v>
       </c>
       <c r="AP36" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ36" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AR36" t="n">
         <v>1.66</v>
@@ -8546,7 +8546,7 @@
         <v>1.25</v>
       </c>
       <c r="AP37" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ37" t="n">
         <v>0.83</v>
@@ -8982,7 +8982,7 @@
         <v>1.33</v>
       </c>
       <c r="AP39" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AQ39" t="n">
         <v>0.82</v>
@@ -9421,7 +9421,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ41" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AR41" t="n">
         <v>1.05</v>
@@ -9854,7 +9854,7 @@
         <v>1.75</v>
       </c>
       <c r="AP43" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ43" t="n">
         <v>0.82</v>
@@ -10075,7 +10075,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ44" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AR44" t="n">
         <v>1.11</v>
@@ -10293,7 +10293,7 @@
         <v>0.3</v>
       </c>
       <c r="AQ45" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AR45" t="n">
         <v>1.46</v>
@@ -10726,7 +10726,7 @@
         <v>0.75</v>
       </c>
       <c r="AP47" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AQ47" t="n">
         <v>1.25</v>
@@ -11165,7 +11165,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ49" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AR49" t="n">
         <v>1.93</v>
@@ -11383,7 +11383,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ50" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AR50" t="n">
         <v>2.42</v>
@@ -11598,7 +11598,7 @@
         <v>1.4</v>
       </c>
       <c r="AP51" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ51" t="n">
         <v>0.82</v>
@@ -11816,7 +11816,7 @@
         <v>1</v>
       </c>
       <c r="AP52" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ52" t="n">
         <v>0.83</v>
@@ -12037,7 +12037,7 @@
         <v>0.3</v>
       </c>
       <c r="AQ53" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR53" t="n">
         <v>1.4</v>
@@ -12252,7 +12252,7 @@
         <v>1.2</v>
       </c>
       <c r="AP54" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ54" t="n">
         <v>1.25</v>
@@ -12470,7 +12470,7 @@
         <v>2.25</v>
       </c>
       <c r="AP55" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ55" t="n">
         <v>1.8</v>
@@ -12688,10 +12688,10 @@
         <v>1.5</v>
       </c>
       <c r="AP56" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AQ56" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AR56" t="n">
         <v>1.41</v>
@@ -12909,7 +12909,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ57" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AR57" t="n">
         <v>1.76</v>
@@ -13127,7 +13127,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ58" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AR58" t="n">
         <v>1.37</v>
@@ -13996,7 +13996,7 @@
         <v>1.17</v>
       </c>
       <c r="AP62" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ62" t="n">
         <v>1.25</v>
@@ -14214,10 +14214,10 @@
         <v>1.4</v>
       </c>
       <c r="AP63" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ63" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AR63" t="n">
         <v>1.67</v>
@@ -14432,10 +14432,10 @@
         <v>1.33</v>
       </c>
       <c r="AP64" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ64" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AR64" t="n">
         <v>1.49</v>
@@ -14653,7 +14653,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ65" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AR65" t="n">
         <v>1.7</v>
@@ -14868,7 +14868,7 @@
         <v>1.8</v>
       </c>
       <c r="AP66" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ66" t="n">
         <v>1.8</v>
@@ -15086,10 +15086,10 @@
         <v>0.5</v>
       </c>
       <c r="AP67" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AQ67" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR67" t="n">
         <v>1.32</v>
@@ -15307,7 +15307,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ68" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AR68" t="n">
         <v>2.03</v>
@@ -16612,10 +16612,10 @@
         <v>0.43</v>
       </c>
       <c r="AP74" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ74" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR74" t="n">
         <v>1.5</v>
@@ -16830,10 +16830,10 @@
         <v>1.33</v>
       </c>
       <c r="AP75" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ75" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AR75" t="n">
         <v>1.4</v>
@@ -17048,10 +17048,10 @@
         <v>1.14</v>
       </c>
       <c r="AP76" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ76" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AR76" t="n">
         <v>2.04</v>
@@ -17266,10 +17266,10 @@
         <v>2.14</v>
       </c>
       <c r="AP77" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AQ77" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AR77" t="n">
         <v>1.28</v>
@@ -17484,10 +17484,10 @@
         <v>0.14</v>
       </c>
       <c r="AP78" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ78" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AR78" t="n">
         <v>1.49</v>
@@ -17702,7 +17702,7 @@
         <v>0.71</v>
       </c>
       <c r="AP79" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AQ79" t="n">
         <v>0.82</v>
@@ -17923,7 +17923,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ80" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AR80" t="n">
         <v>1.97</v>
@@ -18792,10 +18792,10 @@
         <v>2.25</v>
       </c>
       <c r="AP84" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ84" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AR84" t="n">
         <v>1.62</v>
@@ -19010,7 +19010,7 @@
         <v>1</v>
       </c>
       <c r="AP85" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ85" t="n">
         <v>0.83</v>
@@ -19228,10 +19228,10 @@
         <v>0.13</v>
       </c>
       <c r="AP86" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ86" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AR86" t="n">
         <v>2</v>
@@ -19446,10 +19446,10 @@
         <v>1</v>
       </c>
       <c r="AP87" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ87" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AR87" t="n">
         <v>1.36</v>
@@ -19667,7 +19667,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ88" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR88" t="n">
         <v>2.24</v>
@@ -19882,7 +19882,7 @@
         <v>0.63</v>
       </c>
       <c r="AP89" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ89" t="n">
         <v>0.82</v>
@@ -20100,7 +20100,7 @@
         <v>1</v>
       </c>
       <c r="AP90" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ90" t="n">
         <v>0.83</v>
@@ -20321,7 +20321,7 @@
         <v>2.42</v>
       </c>
       <c r="AQ91" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AR91" t="n">
         <v>2.23</v>
@@ -20539,7 +20539,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ92" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR92" t="n">
         <v>1.89</v>
@@ -20754,10 +20754,10 @@
         <v>2.11</v>
       </c>
       <c r="AP93" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ93" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AR93" t="n">
         <v>1.97</v>
@@ -20972,7 +20972,7 @@
         <v>1</v>
       </c>
       <c r="AP94" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ94" t="n">
         <v>1.25</v>
@@ -21190,10 +21190,10 @@
         <v>1.5</v>
       </c>
       <c r="AP95" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ95" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AR95" t="n">
         <v>1.36</v>
@@ -21408,10 +21408,10 @@
         <v>0.9</v>
       </c>
       <c r="AP96" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ96" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR96" t="n">
         <v>1.37</v>
@@ -21629,7 +21629,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ97" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AR97" t="n">
         <v>1.88</v>
@@ -21844,7 +21844,7 @@
         <v>1.75</v>
       </c>
       <c r="AP98" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AQ98" t="n">
         <v>1.8</v>
@@ -22062,7 +22062,7 @@
         <v>1.2</v>
       </c>
       <c r="AP99" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ99" t="n">
         <v>1.25</v>
@@ -22283,7 +22283,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ100" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AR100" t="n">
         <v>1.75</v>
@@ -22498,7 +22498,7 @@
         <v>0.89</v>
       </c>
       <c r="AP101" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ101" t="n">
         <v>0.82</v>
@@ -22719,7 +22719,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ102" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AR102" t="n">
         <v>1.38</v>
@@ -22937,7 +22937,7 @@
         <v>1.92</v>
       </c>
       <c r="AQ103" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AR103" t="n">
         <v>1.86</v>
@@ -23370,7 +23370,7 @@
         <v>1</v>
       </c>
       <c r="AP105" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ105" t="n">
         <v>0.82</v>
@@ -23588,10 +23588,10 @@
         <v>0.08</v>
       </c>
       <c r="AP106" t="n">
-        <v>1.45</v>
+        <v>1.42</v>
       </c>
       <c r="AQ106" t="n">
-        <v>0.08</v>
+        <v>0.07000000000000001</v>
       </c>
       <c r="AR106" t="n">
         <v>1.39</v>
@@ -23806,10 +23806,10 @@
         <v>1</v>
       </c>
       <c r="AP107" t="n">
-        <v>1.09</v>
+        <v>1.25</v>
       </c>
       <c r="AQ107" t="n">
-        <v>0.9</v>
+        <v>0.91</v>
       </c>
       <c r="AR107" t="n">
         <v>1.14</v>
@@ -24024,7 +24024,7 @@
         <v>1.89</v>
       </c>
       <c r="AP108" t="n">
-        <v>1.27</v>
+        <v>1.25</v>
       </c>
       <c r="AQ108" t="n">
         <v>1.8</v>
@@ -24245,7 +24245,7 @@
         <v>2.18</v>
       </c>
       <c r="AQ109" t="n">
-        <v>1</v>
+        <v>0.92</v>
       </c>
       <c r="AR109" t="n">
         <v>1.66</v>
@@ -24460,10 +24460,10 @@
         <v>1.8</v>
       </c>
       <c r="AP110" t="n">
-        <v>1.5</v>
+        <v>1.62</v>
       </c>
       <c r="AQ110" t="n">
-        <v>1.91</v>
+        <v>1.75</v>
       </c>
       <c r="AR110" t="n">
         <v>1.27</v>
@@ -25117,7 +25117,7 @@
         <v>0.3</v>
       </c>
       <c r="AQ113" t="n">
-        <v>2</v>
+        <v>1.92</v>
       </c>
       <c r="AR113" t="n">
         <v>1.45</v>
@@ -25550,7 +25550,7 @@
         <v>0.9</v>
       </c>
       <c r="AP115" t="n">
-        <v>2.17</v>
+        <v>2.23</v>
       </c>
       <c r="AQ115" t="n">
         <v>0.82</v>
@@ -25628,6 +25628,1096 @@
         <v>3.84</v>
       </c>
       <c r="BP115" t="n">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="116">
+      <c r="A116" s="1" t="n">
+        <v>115</v>
+      </c>
+      <c r="B116" t="n">
+        <v>6441807</v>
+      </c>
+      <c r="C116" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D116" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E116" s="2" t="n">
+        <v>45345.54166666666</v>
+      </c>
+      <c r="F116" t="n">
+        <v>24</v>
+      </c>
+      <c r="G116" t="inlineStr">
+        <is>
+          <t>Lokomotiva Zagreb</t>
+        </is>
+      </c>
+      <c r="H116" t="inlineStr">
+        <is>
+          <t>Osijek</t>
+        </is>
+      </c>
+      <c r="I116" t="n">
+        <v>1</v>
+      </c>
+      <c r="J116" t="n">
+        <v>0</v>
+      </c>
+      <c r="K116" t="n">
+        <v>1</v>
+      </c>
+      <c r="L116" t="n">
+        <v>1</v>
+      </c>
+      <c r="M116" t="n">
+        <v>1</v>
+      </c>
+      <c r="N116" t="n">
+        <v>2</v>
+      </c>
+      <c r="O116" t="inlineStr">
+        <is>
+          <t>['31']</t>
+        </is>
+      </c>
+      <c r="P116" t="inlineStr">
+        <is>
+          <t>['90+4']</t>
+        </is>
+      </c>
+      <c r="Q116" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="R116" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S116" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="T116" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="U116" t="n">
+        <v>3.25</v>
+      </c>
+      <c r="V116" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W116" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X116" t="n">
+        <v>5.5</v>
+      </c>
+      <c r="Y116" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="Z116" t="n">
+        <v>2.19</v>
+      </c>
+      <c r="AA116" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AB116" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="AC116" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD116" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE116" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF116" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="AG116" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AH116" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AI116" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AJ116" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AK116" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AL116" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="AM116" t="n">
+        <v>1.53</v>
+      </c>
+      <c r="AN116" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AO116" t="n">
+        <v>0.9</v>
+      </c>
+      <c r="AP116" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AQ116" t="n">
+        <v>0.91</v>
+      </c>
+      <c r="AR116" t="n">
+        <v>1.58</v>
+      </c>
+      <c r="AS116" t="n">
+        <v>1.27</v>
+      </c>
+      <c r="AT116" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="AU116" t="n">
+        <v>3</v>
+      </c>
+      <c r="AV116" t="n">
+        <v>5</v>
+      </c>
+      <c r="AW116" t="n">
+        <v>2</v>
+      </c>
+      <c r="AX116" t="n">
+        <v>9</v>
+      </c>
+      <c r="AY116" t="n">
+        <v>5</v>
+      </c>
+      <c r="AZ116" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA116" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB116" t="n">
+        <v>9</v>
+      </c>
+      <c r="BC116" t="n">
+        <v>10</v>
+      </c>
+      <c r="BD116" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE116" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF116" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BG116" t="n">
+        <v>1.31</v>
+      </c>
+      <c r="BH116" t="n">
+        <v>3.15</v>
+      </c>
+      <c r="BI116" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BJ116" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BK116" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BL116" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BM116" t="n">
+        <v>2.77</v>
+      </c>
+      <c r="BN116" t="n">
+        <v>1.39</v>
+      </c>
+      <c r="BO116" t="n">
+        <v>3.92</v>
+      </c>
+      <c r="BP116" t="n">
+        <v>1.19</v>
+      </c>
+    </row>
+    <row r="117">
+      <c r="A117" s="1" t="n">
+        <v>116</v>
+      </c>
+      <c r="B117" t="n">
+        <v>6441804</v>
+      </c>
+      <c r="C117" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D117" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E117" s="2" t="n">
+        <v>45346.45833333334</v>
+      </c>
+      <c r="F117" t="n">
+        <v>24</v>
+      </c>
+      <c r="G117" t="inlineStr">
+        <is>
+          <t>Varaždin</t>
+        </is>
+      </c>
+      <c r="H117" t="inlineStr">
+        <is>
+          <t>Hajduk Split</t>
+        </is>
+      </c>
+      <c r="I117" t="n">
+        <v>1</v>
+      </c>
+      <c r="J117" t="n">
+        <v>0</v>
+      </c>
+      <c r="K117" t="n">
+        <v>1</v>
+      </c>
+      <c r="L117" t="n">
+        <v>1</v>
+      </c>
+      <c r="M117" t="n">
+        <v>1</v>
+      </c>
+      <c r="N117" t="n">
+        <v>2</v>
+      </c>
+      <c r="O117" t="inlineStr">
+        <is>
+          <t>['40']</t>
+        </is>
+      </c>
+      <c r="P117" t="inlineStr">
+        <is>
+          <t>['66']</t>
+        </is>
+      </c>
+      <c r="Q117" t="n">
+        <v>4.4</v>
+      </c>
+      <c r="R117" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="S117" t="n">
+        <v>2.3</v>
+      </c>
+      <c r="T117" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U117" t="n">
+        <v>3</v>
+      </c>
+      <c r="V117" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="W117" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="X117" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="Y117" t="n">
+        <v>1.1</v>
+      </c>
+      <c r="Z117" t="n">
+        <v>4.5</v>
+      </c>
+      <c r="AA117" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB117" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AC117" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="AD117" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="AE117" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF117" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AG117" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AH117" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AI117" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AJ117" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK117" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AL117" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AM117" t="n">
+        <v>1.14</v>
+      </c>
+      <c r="AN117" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="AO117" t="n">
+        <v>2</v>
+      </c>
+      <c r="AP117" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="AQ117" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="AR117" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AS117" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AT117" t="n">
+        <v>2.87</v>
+      </c>
+      <c r="AU117" t="n">
+        <v>2</v>
+      </c>
+      <c r="AV117" t="n">
+        <v>8</v>
+      </c>
+      <c r="AW117" t="n">
+        <v>0</v>
+      </c>
+      <c r="AX117" t="n">
+        <v>5</v>
+      </c>
+      <c r="AY117" t="n">
+        <v>2</v>
+      </c>
+      <c r="AZ117" t="n">
+        <v>13</v>
+      </c>
+      <c r="BA117" t="n">
+        <v>1</v>
+      </c>
+      <c r="BB117" t="n">
+        <v>11</v>
+      </c>
+      <c r="BC117" t="n">
+        <v>12</v>
+      </c>
+      <c r="BD117" t="n">
+        <v>3.29</v>
+      </c>
+      <c r="BE117" t="n">
+        <v>8.5</v>
+      </c>
+      <c r="BF117" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BG117" t="n">
+        <v>1.34</v>
+      </c>
+      <c r="BH117" t="n">
+        <v>3</v>
+      </c>
+      <c r="BI117" t="n">
+        <v>1.67</v>
+      </c>
+      <c r="BJ117" t="n">
+        <v>2.07</v>
+      </c>
+      <c r="BK117" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BL117" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BM117" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BN117" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BO117" t="n">
+        <v>3.7</v>
+      </c>
+      <c r="BP117" t="n">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="118">
+      <c r="A118" s="1" t="n">
+        <v>117</v>
+      </c>
+      <c r="B118" t="n">
+        <v>6441805</v>
+      </c>
+      <c r="C118" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D118" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E118" s="2" t="n">
+        <v>45346.54861111111</v>
+      </c>
+      <c r="F118" t="n">
+        <v>24</v>
+      </c>
+      <c r="G118" t="inlineStr">
+        <is>
+          <t>Istra 1961</t>
+        </is>
+      </c>
+      <c r="H118" t="inlineStr">
+        <is>
+          <t>Rudeš</t>
+        </is>
+      </c>
+      <c r="I118" t="n">
+        <v>1</v>
+      </c>
+      <c r="J118" t="n">
+        <v>1</v>
+      </c>
+      <c r="K118" t="n">
+        <v>2</v>
+      </c>
+      <c r="L118" t="n">
+        <v>2</v>
+      </c>
+      <c r="M118" t="n">
+        <v>1</v>
+      </c>
+      <c r="N118" t="n">
+        <v>3</v>
+      </c>
+      <c r="O118" t="inlineStr">
+        <is>
+          <t>['22', '78']</t>
+        </is>
+      </c>
+      <c r="P118" t="inlineStr">
+        <is>
+          <t>['6']</t>
+        </is>
+      </c>
+      <c r="Q118" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="R118" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="S118" t="n">
+        <v>6</v>
+      </c>
+      <c r="T118" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="U118" t="n">
+        <v>3</v>
+      </c>
+      <c r="V118" t="n">
+        <v>2.5</v>
+      </c>
+      <c r="W118" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="X118" t="n">
+        <v>6</v>
+      </c>
+      <c r="Y118" t="n">
+        <v>1.11</v>
+      </c>
+      <c r="Z118" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="AA118" t="n">
+        <v>4.33</v>
+      </c>
+      <c r="AB118" t="n">
+        <v>6.5</v>
+      </c>
+      <c r="AC118" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD118" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE118" t="n">
+        <v>1.29</v>
+      </c>
+      <c r="AF118" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AG118" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AH118" t="n">
+        <v>2.05</v>
+      </c>
+      <c r="AI118" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AJ118" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AK118" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AL118" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AM118" t="n">
+        <v>2.88</v>
+      </c>
+      <c r="AN118" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="AO118" t="n">
+        <v>0.08</v>
+      </c>
+      <c r="AP118" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AQ118" t="n">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AR118" t="n">
+        <v>1.12</v>
+      </c>
+      <c r="AS118" t="n">
+        <v>1.03</v>
+      </c>
+      <c r="AT118" t="n">
+        <v>2.15</v>
+      </c>
+      <c r="AU118" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV118" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW118" t="n">
+        <v>6</v>
+      </c>
+      <c r="AX118" t="n">
+        <v>4</v>
+      </c>
+      <c r="AY118" t="n">
+        <v>10</v>
+      </c>
+      <c r="AZ118" t="n">
+        <v>7</v>
+      </c>
+      <c r="BA118" t="n">
+        <v>8</v>
+      </c>
+      <c r="BB118" t="n">
+        <v>3</v>
+      </c>
+      <c r="BC118" t="n">
+        <v>11</v>
+      </c>
+      <c r="BD118" t="n">
+        <v>1.45</v>
+      </c>
+      <c r="BE118" t="n">
+        <v>9</v>
+      </c>
+      <c r="BF118" t="n">
+        <v>3.32</v>
+      </c>
+      <c r="BG118" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="BH118" t="n">
+        <v>4.1</v>
+      </c>
+      <c r="BI118" t="n">
+        <v>1.88</v>
+      </c>
+      <c r="BJ118" t="n">
+        <v>1.92</v>
+      </c>
+      <c r="BK118" t="n">
+        <v>1.57</v>
+      </c>
+      <c r="BL118" t="n">
+        <v>2.25</v>
+      </c>
+      <c r="BM118" t="n">
+        <v>2.03</v>
+      </c>
+      <c r="BN118" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="BO118" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BP118" t="n">
+        <v>1.43</v>
+      </c>
+    </row>
+    <row r="119">
+      <c r="A119" s="1" t="n">
+        <v>118</v>
+      </c>
+      <c r="B119" t="n">
+        <v>6441808</v>
+      </c>
+      <c r="C119" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D119" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E119" s="2" t="n">
+        <v>45347.45833333334</v>
+      </c>
+      <c r="F119" t="n">
+        <v>24</v>
+      </c>
+      <c r="G119" t="inlineStr">
+        <is>
+          <t>Dinamo Zagreb</t>
+        </is>
+      </c>
+      <c r="H119" t="inlineStr">
+        <is>
+          <t>Rijeka</t>
+        </is>
+      </c>
+      <c r="I119" t="n">
+        <v>0</v>
+      </c>
+      <c r="J119" t="n">
+        <v>0</v>
+      </c>
+      <c r="K119" t="n">
+        <v>0</v>
+      </c>
+      <c r="L119" t="n">
+        <v>1</v>
+      </c>
+      <c r="M119" t="n">
+        <v>0</v>
+      </c>
+      <c r="N119" t="n">
+        <v>1</v>
+      </c>
+      <c r="O119" t="inlineStr">
+        <is>
+          <t>['90+5']</t>
+        </is>
+      </c>
+      <c r="P119" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q119" t="n">
+        <v>2.55</v>
+      </c>
+      <c r="R119" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="S119" t="n">
+        <v>3.75</v>
+      </c>
+      <c r="T119" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="U119" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="V119" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="W119" t="n">
+        <v>1.42</v>
+      </c>
+      <c r="X119" t="n">
+        <v>6.45</v>
+      </c>
+      <c r="Y119" t="n">
+        <v>1.09</v>
+      </c>
+      <c r="Z119" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AA119" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AB119" t="n">
+        <v>3.5</v>
+      </c>
+      <c r="AC119" t="n">
+        <v>1.05</v>
+      </c>
+      <c r="AD119" t="n">
+        <v>9</v>
+      </c>
+      <c r="AE119" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AF119" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="AG119" t="n">
+        <v>1.83</v>
+      </c>
+      <c r="AH119" t="n">
+        <v>1.9</v>
+      </c>
+      <c r="AI119" t="n">
+        <v>1.7</v>
+      </c>
+      <c r="AJ119" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="AK119" t="n">
+        <v>1.28</v>
+      </c>
+      <c r="AL119" t="n">
+        <v>1.22</v>
+      </c>
+      <c r="AM119" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AN119" t="n">
+        <v>2.17</v>
+      </c>
+      <c r="AO119" t="n">
+        <v>1.91</v>
+      </c>
+      <c r="AP119" t="n">
+        <v>2.23</v>
+      </c>
+      <c r="AQ119" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AR119" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AS119" t="n">
+        <v>1.47</v>
+      </c>
+      <c r="AT119" t="n">
+        <v>3.42</v>
+      </c>
+      <c r="AU119" t="n">
+        <v>4</v>
+      </c>
+      <c r="AV119" t="n">
+        <v>3</v>
+      </c>
+      <c r="AW119" t="n">
+        <v>5</v>
+      </c>
+      <c r="AX119" t="n">
+        <v>3</v>
+      </c>
+      <c r="AY119" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ119" t="n">
+        <v>6</v>
+      </c>
+      <c r="BA119" t="n">
+        <v>6</v>
+      </c>
+      <c r="BB119" t="n">
+        <v>2</v>
+      </c>
+      <c r="BC119" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD119" t="n">
+        <v>1.59</v>
+      </c>
+      <c r="BE119" t="n">
+        <v>8</v>
+      </c>
+      <c r="BF119" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="BG119" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="BH119" t="n">
+        <v>2.95</v>
+      </c>
+      <c r="BI119" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BJ119" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BK119" t="n">
+        <v>2.13</v>
+      </c>
+      <c r="BL119" t="n">
+        <v>1.63</v>
+      </c>
+      <c r="BM119" t="n">
+        <v>2.9</v>
+      </c>
+      <c r="BN119" t="n">
+        <v>1.36</v>
+      </c>
+      <c r="BO119" t="n">
+        <v>3.8</v>
+      </c>
+      <c r="BP119" t="n">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="120">
+      <c r="A120" s="1" t="n">
+        <v>119</v>
+      </c>
+      <c r="B120" t="n">
+        <v>6441806</v>
+      </c>
+      <c r="C120" t="inlineStr">
+        <is>
+          <t>Croatia Prva HNL</t>
+        </is>
+      </c>
+      <c r="D120" t="inlineStr">
+        <is>
+          <t>2023/2024</t>
+        </is>
+      </c>
+      <c r="E120" s="2" t="n">
+        <v>45347.5625</v>
+      </c>
+      <c r="F120" t="n">
+        <v>24</v>
+      </c>
+      <c r="G120" t="inlineStr">
+        <is>
+          <t>Gorica</t>
+        </is>
+      </c>
+      <c r="H120" t="inlineStr">
+        <is>
+          <t>Slaven Koprivnica</t>
+        </is>
+      </c>
+      <c r="I120" t="n">
+        <v>0</v>
+      </c>
+      <c r="J120" t="n">
+        <v>0</v>
+      </c>
+      <c r="K120" t="n">
+        <v>0</v>
+      </c>
+      <c r="L120" t="n">
+        <v>1</v>
+      </c>
+      <c r="M120" t="n">
+        <v>0</v>
+      </c>
+      <c r="N120" t="n">
+        <v>1</v>
+      </c>
+      <c r="O120" t="inlineStr">
+        <is>
+          <t>['59']</t>
+        </is>
+      </c>
+      <c r="P120" t="inlineStr">
+        <is>
+          <t>[]</t>
+        </is>
+      </c>
+      <c r="Q120" t="n">
+        <v>2.8</v>
+      </c>
+      <c r="R120" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="S120" t="n">
+        <v>3.6</v>
+      </c>
+      <c r="T120" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="U120" t="n">
+        <v>2.75</v>
+      </c>
+      <c r="V120" t="n">
+        <v>2.85</v>
+      </c>
+      <c r="W120" t="n">
+        <v>1.37</v>
+      </c>
+      <c r="X120" t="n">
+        <v>6.95</v>
+      </c>
+      <c r="Y120" t="n">
+        <v>1.07</v>
+      </c>
+      <c r="Z120" t="n">
+        <v>2.2</v>
+      </c>
+      <c r="AA120" t="n">
+        <v>3.4</v>
+      </c>
+      <c r="AB120" t="n">
+        <v>3.1</v>
+      </c>
+      <c r="AC120" t="n">
+        <v>1.06</v>
+      </c>
+      <c r="AD120" t="n">
+        <v>8</v>
+      </c>
+      <c r="AE120" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="AF120" t="n">
+        <v>3.3</v>
+      </c>
+      <c r="AG120" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="AH120" t="n">
+        <v>1.8</v>
+      </c>
+      <c r="AI120" t="n">
+        <v>1.75</v>
+      </c>
+      <c r="AJ120" t="n">
+        <v>2</v>
+      </c>
+      <c r="AK120" t="n">
+        <v>1.35</v>
+      </c>
+      <c r="AL120" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AM120" t="n">
+        <v>1.66</v>
+      </c>
+      <c r="AN120" t="n">
+        <v>1.5</v>
+      </c>
+      <c r="AO120" t="n">
+        <v>1</v>
+      </c>
+      <c r="AP120" t="n">
+        <v>1.62</v>
+      </c>
+      <c r="AQ120" t="n">
+        <v>0.92</v>
+      </c>
+      <c r="AR120" t="n">
+        <v>1.25</v>
+      </c>
+      <c r="AS120" t="n">
+        <v>1.2</v>
+      </c>
+      <c r="AT120" t="n">
+        <v>2.45</v>
+      </c>
+      <c r="AU120" t="n">
+        <v>5</v>
+      </c>
+      <c r="AV120" t="n">
+        <v>4</v>
+      </c>
+      <c r="AW120" t="n">
+        <v>4</v>
+      </c>
+      <c r="AX120" t="n">
+        <v>10</v>
+      </c>
+      <c r="AY120" t="n">
+        <v>9</v>
+      </c>
+      <c r="AZ120" t="n">
+        <v>14</v>
+      </c>
+      <c r="BA120" t="n">
+        <v>4</v>
+      </c>
+      <c r="BB120" t="n">
+        <v>4</v>
+      </c>
+      <c r="BC120" t="n">
+        <v>8</v>
+      </c>
+      <c r="BD120" t="n">
+        <v>1.95</v>
+      </c>
+      <c r="BE120" t="n">
+        <v>7.5</v>
+      </c>
+      <c r="BF120" t="n">
+        <v>2.1</v>
+      </c>
+      <c r="BG120" t="n">
+        <v>1.43</v>
+      </c>
+      <c r="BH120" t="n">
+        <v>2.62</v>
+      </c>
+      <c r="BI120" t="n">
+        <v>1.82</v>
+      </c>
+      <c r="BJ120" t="n">
+        <v>1.98</v>
+      </c>
+      <c r="BK120" t="n">
+        <v>2.35</v>
+      </c>
+      <c r="BL120" t="n">
+        <v>1.52</v>
+      </c>
+      <c r="BM120" t="n">
+        <v>3.2</v>
+      </c>
+      <c r="BN120" t="n">
+        <v>1.3</v>
+      </c>
+      <c r="BO120" t="n">
+        <v>4.3</v>
+      </c>
+      <c r="BP120" t="n">
         <v>1.2</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="818" uniqueCount="229">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="231">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -526,6 +526,9 @@
     <t>['16', '30']</t>
   </si>
   <si>
+    <t>['57', '71', '79']</t>
+  </si>
+  <si>
     <t>['74', '90+3']</t>
   </si>
   <si>
@@ -701,6 +704,9 @@
   </si>
   <si>
     <t>['43', '83']</t>
+  </si>
+  <si>
+    <t>['22', '31', '41']</t>
   </si>
 </sst>
 </file>
@@ -1062,7 +1068,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP126"/>
+  <dimension ref="A1:BP128"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1321,7 +1327,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>170</v>
+        <v>171</v>
       </c>
       <c r="Q2">
         <v>2.36</v>
@@ -1402,7 +1408,7 @@
         <v>2.23</v>
       </c>
       <c r="AQ2">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -2017,7 +2023,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ5">
         <v>0.75</v>
@@ -2145,7 +2151,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>171</v>
+        <v>172</v>
       </c>
       <c r="Q6">
         <v>2.55</v>
@@ -2223,7 +2229,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ6">
         <v>0.79</v>
@@ -2351,7 +2357,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>172</v>
+        <v>173</v>
       </c>
       <c r="Q7">
         <v>2.64</v>
@@ -2635,7 +2641,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ8">
         <v>1.38</v>
@@ -2763,7 +2769,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q9">
         <v>5.85</v>
@@ -2969,7 +2975,7 @@
         <v>88</v>
       </c>
       <c r="P10" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -3381,7 +3387,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3459,7 +3465,7 @@
         <v>1</v>
       </c>
       <c r="AP12">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ12">
         <v>0.75</v>
@@ -3587,7 +3593,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q13">
         <v>2.35</v>
@@ -4411,7 +4417,7 @@
         <v>94</v>
       </c>
       <c r="P17" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q17">
         <v>3.5</v>
@@ -4823,7 +4829,7 @@
         <v>96</v>
       </c>
       <c r="P19" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q19">
         <v>3.1</v>
@@ -5029,7 +5035,7 @@
         <v>87</v>
       </c>
       <c r="P20" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q20">
         <v>7</v>
@@ -5110,7 +5116,7 @@
         <v>0.55</v>
       </c>
       <c r="AQ20">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR20">
         <v>1.48</v>
@@ -5441,7 +5447,7 @@
         <v>98</v>
       </c>
       <c r="P22" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q22">
         <v>2.15</v>
@@ -5647,7 +5653,7 @@
         <v>99</v>
       </c>
       <c r="P23" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q23">
         <v>2.29</v>
@@ -5725,7 +5731,7 @@
         <v>0.33</v>
       </c>
       <c r="AP23">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ23">
         <v>0.92</v>
@@ -5853,7 +5859,7 @@
         <v>100</v>
       </c>
       <c r="P24" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q24">
         <v>4.5</v>
@@ -5934,7 +5940,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ24">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR24">
         <v>1.61</v>
@@ -6059,7 +6065,7 @@
         <v>101</v>
       </c>
       <c r="P25" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q25">
         <v>3.1</v>
@@ -6137,7 +6143,7 @@
         <v>2</v>
       </c>
       <c r="AP25">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ25">
         <v>0.91</v>
@@ -6471,7 +6477,7 @@
         <v>102</v>
       </c>
       <c r="P27" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q27">
         <v>2.14</v>
@@ -6677,7 +6683,7 @@
         <v>87</v>
       </c>
       <c r="P28" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q28">
         <v>3.4</v>
@@ -6883,7 +6889,7 @@
         <v>87</v>
       </c>
       <c r="P29" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q29">
         <v>3.5</v>
@@ -7089,7 +7095,7 @@
         <v>87</v>
       </c>
       <c r="P30" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q30">
         <v>1.67</v>
@@ -7295,7 +7301,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q31">
         <v>2</v>
@@ -7501,7 +7507,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q32">
         <v>4.75</v>
@@ -7785,7 +7791,7 @@
         <v>0.25</v>
       </c>
       <c r="AP33">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ33">
         <v>0.07000000000000001</v>
@@ -8119,7 +8125,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q35">
         <v>2.75</v>
@@ -8325,7 +8331,7 @@
         <v>108</v>
       </c>
       <c r="P36" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q36">
         <v>4.5</v>
@@ -8403,10 +8409,10 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ36">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR36">
         <v>1.66</v>
@@ -8737,7 +8743,7 @@
         <v>110</v>
       </c>
       <c r="P38" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q38">
         <v>2.1</v>
@@ -9561,7 +9567,7 @@
         <v>112</v>
       </c>
       <c r="P42" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q42">
         <v>8</v>
@@ -10179,7 +10185,7 @@
         <v>114</v>
       </c>
       <c r="P45" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q45">
         <v>5.75</v>
@@ -10591,7 +10597,7 @@
         <v>87</v>
       </c>
       <c r="P47" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q47">
         <v>3.2</v>
@@ -10797,7 +10803,7 @@
         <v>116</v>
       </c>
       <c r="P48" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q48">
         <v>2.9</v>
@@ -11290,7 +11296,7 @@
         <v>2.46</v>
       </c>
       <c r="AQ50">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR50">
         <v>2.42</v>
@@ -11415,7 +11421,7 @@
         <v>119</v>
       </c>
       <c r="P51" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q51">
         <v>2.9</v>
@@ -11493,7 +11499,7 @@
         <v>1.4</v>
       </c>
       <c r="AP51">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ51">
         <v>0.75</v>
@@ -12317,7 +12323,7 @@
         <v>2.25</v>
       </c>
       <c r="AP55">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ55">
         <v>1.73</v>
@@ -12445,7 +12451,7 @@
         <v>122</v>
       </c>
       <c r="P56" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -12651,7 +12657,7 @@
         <v>87</v>
       </c>
       <c r="P57" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q57">
         <v>2.25</v>
@@ -12857,7 +12863,7 @@
         <v>87</v>
       </c>
       <c r="P58" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q58">
         <v>5.8</v>
@@ -12938,7 +12944,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ58">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR58">
         <v>1.37</v>
@@ -13269,7 +13275,7 @@
         <v>123</v>
       </c>
       <c r="P60" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q60">
         <v>2.1</v>
@@ -13681,7 +13687,7 @@
         <v>125</v>
       </c>
       <c r="P62" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q62">
         <v>1.68</v>
@@ -13965,7 +13971,7 @@
         <v>1.4</v>
       </c>
       <c r="AP63">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ63">
         <v>1.75</v>
@@ -14171,7 +14177,7 @@
         <v>1.33</v>
       </c>
       <c r="AP64">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ64">
         <v>0.91</v>
@@ -14505,7 +14511,7 @@
         <v>129</v>
       </c>
       <c r="P66" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q66">
         <v>6.5</v>
@@ -14917,7 +14923,7 @@
         <v>87</v>
       </c>
       <c r="P68" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q68">
         <v>3.1</v>
@@ -14998,7 +15004,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ68">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR68">
         <v>2.03</v>
@@ -15329,7 +15335,7 @@
         <v>87</v>
       </c>
       <c r="P70" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q70">
         <v>3.4</v>
@@ -15535,7 +15541,7 @@
         <v>131</v>
       </c>
       <c r="P71" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q71">
         <v>2.4</v>
@@ -15947,7 +15953,7 @@
         <v>133</v>
       </c>
       <c r="P73" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q73">
         <v>3.3</v>
@@ -16153,7 +16159,7 @@
         <v>134</v>
       </c>
       <c r="P74" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q74">
         <v>2.2</v>
@@ -16231,7 +16237,7 @@
         <v>0.43</v>
       </c>
       <c r="AP74">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ74">
         <v>0.92</v>
@@ -16359,7 +16365,7 @@
         <v>87</v>
       </c>
       <c r="P75" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q75">
         <v>4.5</v>
@@ -16565,7 +16571,7 @@
         <v>135</v>
       </c>
       <c r="P76" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q76">
         <v>1.91</v>
@@ -16771,7 +16777,7 @@
         <v>87</v>
       </c>
       <c r="P77" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q77">
         <v>6.5</v>
@@ -16852,7 +16858,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ77">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR77">
         <v>1.28</v>
@@ -17055,7 +17061,7 @@
         <v>0.14</v>
       </c>
       <c r="AP78">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ78">
         <v>0.07000000000000001</v>
@@ -18007,7 +18013,7 @@
         <v>87</v>
       </c>
       <c r="P83" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q83">
         <v>8</v>
@@ -18213,7 +18219,7 @@
         <v>139</v>
       </c>
       <c r="P84" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q84">
         <v>5.2</v>
@@ -18291,10 +18297,10 @@
         <v>2.25</v>
       </c>
       <c r="AP84">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ84">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR84">
         <v>1.62</v>
@@ -18497,7 +18503,7 @@
         <v>1</v>
       </c>
       <c r="AP85">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ85">
         <v>0.79</v>
@@ -18831,7 +18837,7 @@
         <v>140</v>
       </c>
       <c r="P87" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q87">
         <v>3.75</v>
@@ -19037,7 +19043,7 @@
         <v>141</v>
       </c>
       <c r="P88" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q88">
         <v>1.73</v>
@@ -19243,7 +19249,7 @@
         <v>142</v>
       </c>
       <c r="P89" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q89">
         <v>2.5</v>
@@ -19321,7 +19327,7 @@
         <v>0.63</v>
       </c>
       <c r="AP89">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ89">
         <v>0.75</v>
@@ -19527,7 +19533,7 @@
         <v>1</v>
       </c>
       <c r="AP90">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ90">
         <v>0.79</v>
@@ -19861,7 +19867,7 @@
         <v>145</v>
       </c>
       <c r="P92" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q92">
         <v>2.25</v>
@@ -20148,7 +20154,7 @@
         <v>2.23</v>
       </c>
       <c r="AQ93">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR93">
         <v>1.97</v>
@@ -20273,7 +20279,7 @@
         <v>87</v>
       </c>
       <c r="P94" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q94">
         <v>1.71</v>
@@ -20479,7 +20485,7 @@
         <v>146</v>
       </c>
       <c r="P95" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q95">
         <v>3.6</v>
@@ -20557,7 +20563,7 @@
         <v>1.5</v>
       </c>
       <c r="AP95">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ95">
         <v>1.75</v>
@@ -20685,7 +20691,7 @@
         <v>147</v>
       </c>
       <c r="P96" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q96">
         <v>2.6</v>
@@ -21303,7 +21309,7 @@
         <v>149</v>
       </c>
       <c r="P99" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q99">
         <v>3.1</v>
@@ -21381,7 +21387,7 @@
         <v>1.2</v>
       </c>
       <c r="AP99">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ99">
         <v>1.38</v>
@@ -21509,7 +21515,7 @@
         <v>150</v>
       </c>
       <c r="P100" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q100">
         <v>2.2</v>
@@ -21793,7 +21799,7 @@
         <v>0.89</v>
       </c>
       <c r="AP101">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ101">
         <v>0.75</v>
@@ -22127,7 +22133,7 @@
         <v>152</v>
       </c>
       <c r="P103" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q103">
         <v>3.9</v>
@@ -22208,7 +22214,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ103">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR103">
         <v>1.86</v>
@@ -23157,7 +23163,7 @@
         <v>157</v>
       </c>
       <c r="P108" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q108">
         <v>5</v>
@@ -23235,7 +23241,7 @@
         <v>1.89</v>
       </c>
       <c r="AP108">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ108">
         <v>1.73</v>
@@ -23569,7 +23575,7 @@
         <v>87</v>
       </c>
       <c r="P110" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q110">
         <v>4.75</v>
@@ -23647,7 +23653,7 @@
         <v>1.8</v>
       </c>
       <c r="AP110">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ110">
         <v>1.75</v>
@@ -23775,7 +23781,7 @@
         <v>110</v>
       </c>
       <c r="P111" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q111">
         <v>2.6</v>
@@ -24187,7 +24193,7 @@
         <v>87</v>
       </c>
       <c r="P113" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q113">
         <v>9</v>
@@ -24268,7 +24274,7 @@
         <v>0.55</v>
       </c>
       <c r="AQ113">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR113">
         <v>1.45</v>
@@ -24805,7 +24811,7 @@
         <v>162</v>
       </c>
       <c r="P116" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q116">
         <v>2.8</v>
@@ -24883,7 +24889,7 @@
         <v>0.9</v>
       </c>
       <c r="AP116">
-        <v>1.25</v>
+        <v>1.38</v>
       </c>
       <c r="AQ116">
         <v>0.91</v>
@@ -25011,7 +25017,7 @@
         <v>163</v>
       </c>
       <c r="P117" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q117">
         <v>4.4</v>
@@ -25092,7 +25098,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ117">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR117">
         <v>1.4</v>
@@ -25217,7 +25223,7 @@
         <v>164</v>
       </c>
       <c r="P118" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q118">
         <v>1.95</v>
@@ -25707,7 +25713,7 @@
         <v>1</v>
       </c>
       <c r="AP120">
-        <v>1.62</v>
+        <v>1.5</v>
       </c>
       <c r="AQ120">
         <v>0.92</v>
@@ -25835,7 +25841,7 @@
         <v>166</v>
       </c>
       <c r="P121" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q121">
         <v>3.3</v>
@@ -26453,7 +26459,7 @@
         <v>113</v>
       </c>
       <c r="P124" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q124">
         <v>4.2</v>
@@ -26865,7 +26871,7 @@
         <v>169</v>
       </c>
       <c r="P126" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q126">
         <v>2.6</v>
@@ -26958,31 +26964,31 @@
         <v>2.51</v>
       </c>
       <c r="AU126">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AV126">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AW126">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AX126">
-        <v>5</v>
+        <v>7</v>
       </c>
       <c r="AY126">
         <v>6</v>
       </c>
       <c r="AZ126">
-        <v>9</v>
+        <v>12</v>
       </c>
       <c r="BA126">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="BB126">
         <v>4</v>
       </c>
       <c r="BC126">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BD126">
         <v>1.75</v>
@@ -27022,6 +27028,418 @@
       </c>
       <c r="BP126">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="127" spans="1:68">
+      <c r="A127" s="1">
+        <v>126</v>
+      </c>
+      <c r="B127">
+        <v>6441816</v>
+      </c>
+      <c r="C127" t="s">
+        <v>68</v>
+      </c>
+      <c r="D127" t="s">
+        <v>69</v>
+      </c>
+      <c r="E127" s="2">
+        <v>45360.45833333334</v>
+      </c>
+      <c r="F127">
+        <v>26</v>
+      </c>
+      <c r="G127" t="s">
+        <v>74</v>
+      </c>
+      <c r="H127" t="s">
+        <v>77</v>
+      </c>
+      <c r="I127">
+        <v>0</v>
+      </c>
+      <c r="J127">
+        <v>0</v>
+      </c>
+      <c r="K127">
+        <v>0</v>
+      </c>
+      <c r="L127">
+        <v>3</v>
+      </c>
+      <c r="M127">
+        <v>0</v>
+      </c>
+      <c r="N127">
+        <v>3</v>
+      </c>
+      <c r="O127" t="s">
+        <v>170</v>
+      </c>
+      <c r="P127" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q127">
+        <v>1.78</v>
+      </c>
+      <c r="R127">
+        <v>2.35</v>
+      </c>
+      <c r="S127">
+        <v>8</v>
+      </c>
+      <c r="T127">
+        <v>1.37</v>
+      </c>
+      <c r="U127">
+        <v>2.85</v>
+      </c>
+      <c r="V127">
+        <v>2.7</v>
+      </c>
+      <c r="W127">
+        <v>1.41</v>
+      </c>
+      <c r="X127">
+        <v>6.45</v>
+      </c>
+      <c r="Y127">
+        <v>1.09</v>
+      </c>
+      <c r="Z127">
+        <v>1.3</v>
+      </c>
+      <c r="AA127">
+        <v>5</v>
+      </c>
+      <c r="AB127">
+        <v>10</v>
+      </c>
+      <c r="AC127">
+        <v>1.05</v>
+      </c>
+      <c r="AD127">
+        <v>9</v>
+      </c>
+      <c r="AE127">
+        <v>1.25</v>
+      </c>
+      <c r="AF127">
+        <v>3.6</v>
+      </c>
+      <c r="AG127">
+        <v>1.85</v>
+      </c>
+      <c r="AH127">
+        <v>1.9</v>
+      </c>
+      <c r="AI127">
+        <v>2.3</v>
+      </c>
+      <c r="AJ127">
+        <v>1.57</v>
+      </c>
+      <c r="AK127">
+        <v>1.03</v>
+      </c>
+      <c r="AL127">
+        <v>1.18</v>
+      </c>
+      <c r="AM127">
+        <v>3.7</v>
+      </c>
+      <c r="AN127">
+        <v>1.25</v>
+      </c>
+      <c r="AO127">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AP127">
+        <v>1.38</v>
+      </c>
+      <c r="AQ127">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AR127">
+        <v>1.53</v>
+      </c>
+      <c r="AS127">
+        <v>1.04</v>
+      </c>
+      <c r="AT127">
+        <v>2.57</v>
+      </c>
+      <c r="AU127">
+        <v>9</v>
+      </c>
+      <c r="AV127">
+        <v>2</v>
+      </c>
+      <c r="AW127">
+        <v>4</v>
+      </c>
+      <c r="AX127">
+        <v>7</v>
+      </c>
+      <c r="AY127">
+        <v>13</v>
+      </c>
+      <c r="AZ127">
+        <v>9</v>
+      </c>
+      <c r="BA127">
+        <v>6</v>
+      </c>
+      <c r="BB127">
+        <v>5</v>
+      </c>
+      <c r="BC127">
+        <v>11</v>
+      </c>
+      <c r="BD127">
+        <v>1.34</v>
+      </c>
+      <c r="BE127">
+        <v>9</v>
+      </c>
+      <c r="BF127">
+        <v>4.09</v>
+      </c>
+      <c r="BG127">
+        <v>1.35</v>
+      </c>
+      <c r="BH127">
+        <v>2.84</v>
+      </c>
+      <c r="BI127">
+        <v>1.65</v>
+      </c>
+      <c r="BJ127">
+        <v>2.11</v>
+      </c>
+      <c r="BK127">
+        <v>2.07</v>
+      </c>
+      <c r="BL127">
+        <v>1.64</v>
+      </c>
+      <c r="BM127">
+        <v>2.79</v>
+      </c>
+      <c r="BN127">
+        <v>1.36</v>
+      </c>
+      <c r="BO127">
+        <v>3.6</v>
+      </c>
+      <c r="BP127">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="128" spans="1:68">
+      <c r="A128" s="1">
+        <v>127</v>
+      </c>
+      <c r="B128">
+        <v>6441815</v>
+      </c>
+      <c r="C128" t="s">
+        <v>68</v>
+      </c>
+      <c r="D128" t="s">
+        <v>69</v>
+      </c>
+      <c r="E128" s="2">
+        <v>45360.54861111111</v>
+      </c>
+      <c r="F128">
+        <v>26</v>
+      </c>
+      <c r="G128" t="s">
+        <v>73</v>
+      </c>
+      <c r="H128" t="s">
+        <v>78</v>
+      </c>
+      <c r="I128">
+        <v>0</v>
+      </c>
+      <c r="J128">
+        <v>3</v>
+      </c>
+      <c r="K128">
+        <v>3</v>
+      </c>
+      <c r="L128">
+        <v>0</v>
+      </c>
+      <c r="M128">
+        <v>3</v>
+      </c>
+      <c r="N128">
+        <v>3</v>
+      </c>
+      <c r="O128" t="s">
+        <v>87</v>
+      </c>
+      <c r="P128" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q128">
+        <v>6</v>
+      </c>
+      <c r="R128">
+        <v>2.1</v>
+      </c>
+      <c r="S128">
+        <v>2.15</v>
+      </c>
+      <c r="T128">
+        <v>1.46</v>
+      </c>
+      <c r="U128">
+        <v>2.55</v>
+      </c>
+      <c r="V128">
+        <v>3.05</v>
+      </c>
+      <c r="W128">
+        <v>1.33</v>
+      </c>
+      <c r="X128">
+        <v>7.9</v>
+      </c>
+      <c r="Y128">
+        <v>1.05</v>
+      </c>
+      <c r="Z128">
+        <v>6.5</v>
+      </c>
+      <c r="AA128">
+        <v>3.75</v>
+      </c>
+      <c r="AB128">
+        <v>1.55</v>
+      </c>
+      <c r="AC128">
+        <v>1.07</v>
+      </c>
+      <c r="AD128">
+        <v>7.5</v>
+      </c>
+      <c r="AE128">
+        <v>1.36</v>
+      </c>
+      <c r="AF128">
+        <v>2.95</v>
+      </c>
+      <c r="AG128">
+        <v>2.15</v>
+      </c>
+      <c r="AH128">
+        <v>1.66</v>
+      </c>
+      <c r="AI128">
+        <v>2.2</v>
+      </c>
+      <c r="AJ128">
+        <v>1.62</v>
+      </c>
+      <c r="AK128">
+        <v>2.38</v>
+      </c>
+      <c r="AL128">
+        <v>1.25</v>
+      </c>
+      <c r="AM128">
+        <v>1.08</v>
+      </c>
+      <c r="AN128">
+        <v>1.62</v>
+      </c>
+      <c r="AO128">
+        <v>1.92</v>
+      </c>
+      <c r="AP128">
+        <v>1.5</v>
+      </c>
+      <c r="AQ128">
+        <v>2</v>
+      </c>
+      <c r="AR128">
+        <v>1.25</v>
+      </c>
+      <c r="AS128">
+        <v>1.5</v>
+      </c>
+      <c r="AT128">
+        <v>2.75</v>
+      </c>
+      <c r="AU128">
+        <v>4</v>
+      </c>
+      <c r="AV128">
+        <v>6</v>
+      </c>
+      <c r="AW128">
+        <v>8</v>
+      </c>
+      <c r="AX128">
+        <v>4</v>
+      </c>
+      <c r="AY128">
+        <v>12</v>
+      </c>
+      <c r="AZ128">
+        <v>10</v>
+      </c>
+      <c r="BA128">
+        <v>5</v>
+      </c>
+      <c r="BB128">
+        <v>3</v>
+      </c>
+      <c r="BC128">
+        <v>8</v>
+      </c>
+      <c r="BD128">
+        <v>3.83</v>
+      </c>
+      <c r="BE128">
+        <v>9</v>
+      </c>
+      <c r="BF128">
+        <v>1.37</v>
+      </c>
+      <c r="BG128">
+        <v>1.34</v>
+      </c>
+      <c r="BH128">
+        <v>2.88</v>
+      </c>
+      <c r="BI128">
+        <v>1.8</v>
+      </c>
+      <c r="BJ128">
+        <v>2</v>
+      </c>
+      <c r="BK128">
+        <v>2</v>
+      </c>
+      <c r="BL128">
+        <v>1.79</v>
+      </c>
+      <c r="BM128">
+        <v>2.54</v>
+      </c>
+      <c r="BN128">
+        <v>1.49</v>
+      </c>
+      <c r="BO128">
+        <v>3.84</v>
+      </c>
+      <c r="BP128">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="830" uniqueCount="231">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="234">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -529,6 +529,12 @@
     <t>['57', '71', '79']</t>
   </si>
   <si>
+    <t>['21', '23', '62']</t>
+  </si>
+  <si>
+    <t>['7', '18', '70', '82', '90+3']</t>
+  </si>
+  <si>
     <t>['74', '90+3']</t>
   </si>
   <si>
@@ -707,6 +713,9 @@
   </si>
   <si>
     <t>['22', '31', '41']</t>
+  </si>
+  <si>
+    <t>['22', '59']</t>
   </si>
 </sst>
 </file>
@@ -1068,7 +1077,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP128"/>
+  <dimension ref="A1:BP130"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1327,7 +1336,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>171</v>
+        <v>173</v>
       </c>
       <c r="Q2">
         <v>2.36</v>
@@ -1405,7 +1414,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AQ2">
         <v>2</v>
@@ -1611,7 +1620,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AQ3">
         <v>0.07000000000000001</v>
@@ -1820,7 +1829,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ4">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2151,7 +2160,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>172</v>
+        <v>174</v>
       </c>
       <c r="Q6">
         <v>2.55</v>
@@ -2357,7 +2366,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
       <c r="Q7">
         <v>2.64</v>
@@ -2438,7 +2447,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ7">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2769,7 +2778,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="Q9">
         <v>5.85</v>
@@ -2975,7 +2984,7 @@
         <v>88</v>
       </c>
       <c r="P10" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -3056,7 +3065,7 @@
         <v>0.55</v>
       </c>
       <c r="AQ10">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3387,7 +3396,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3593,7 +3602,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q13">
         <v>2.35</v>
@@ -3877,7 +3886,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AQ14">
         <v>0.75</v>
@@ -4083,7 +4092,7 @@
         <v>1</v>
       </c>
       <c r="AP15">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AQ15">
         <v>0.79</v>
@@ -4417,7 +4426,7 @@
         <v>94</v>
       </c>
       <c r="P17" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q17">
         <v>3.5</v>
@@ -4498,7 +4507,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ17">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR17">
         <v>0.82</v>
@@ -4704,7 +4713,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ18">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR18">
         <v>1.98</v>
@@ -4829,7 +4838,7 @@
         <v>96</v>
       </c>
       <c r="P19" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q19">
         <v>3.1</v>
@@ -5035,7 +5044,7 @@
         <v>87</v>
       </c>
       <c r="P20" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q20">
         <v>7</v>
@@ -5447,7 +5456,7 @@
         <v>98</v>
       </c>
       <c r="P22" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q22">
         <v>2.15</v>
@@ -5525,7 +5534,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AQ22">
         <v>1.38</v>
@@ -5653,7 +5662,7 @@
         <v>99</v>
       </c>
       <c r="P23" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q23">
         <v>2.29</v>
@@ -5734,7 +5743,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ23">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR23">
         <v>1.73</v>
@@ -5859,7 +5868,7 @@
         <v>100</v>
       </c>
       <c r="P24" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q24">
         <v>4.5</v>
@@ -6065,7 +6074,7 @@
         <v>101</v>
       </c>
       <c r="P25" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q25">
         <v>3.1</v>
@@ -6146,7 +6155,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ25">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR25">
         <v>1.89</v>
@@ -6477,7 +6486,7 @@
         <v>102</v>
       </c>
       <c r="P27" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q27">
         <v>2.14</v>
@@ -6555,7 +6564,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AQ27">
         <v>1.75</v>
@@ -6683,7 +6692,7 @@
         <v>87</v>
       </c>
       <c r="P28" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q28">
         <v>3.4</v>
@@ -6889,7 +6898,7 @@
         <v>87</v>
       </c>
       <c r="P29" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q29">
         <v>3.5</v>
@@ -7095,7 +7104,7 @@
         <v>87</v>
       </c>
       <c r="P30" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q30">
         <v>1.67</v>
@@ -7301,7 +7310,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q31">
         <v>2</v>
@@ -7379,7 +7388,7 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AQ31">
         <v>0.75</v>
@@ -7507,7 +7516,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q32">
         <v>4.75</v>
@@ -7997,10 +8006,10 @@
         <v>0.5</v>
       </c>
       <c r="AP34">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AQ34">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR34">
         <v>1.83</v>
@@ -8125,7 +8134,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q35">
         <v>2.75</v>
@@ -8203,10 +8212,10 @@
         <v>1.67</v>
       </c>
       <c r="AP35">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AQ35">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR35">
         <v>2.48</v>
@@ -8331,7 +8340,7 @@
         <v>108</v>
       </c>
       <c r="P36" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q36">
         <v>4.5</v>
@@ -8743,7 +8752,7 @@
         <v>110</v>
       </c>
       <c r="P38" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q38">
         <v>2.1</v>
@@ -9567,7 +9576,7 @@
         <v>112</v>
       </c>
       <c r="P42" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q42">
         <v>8</v>
@@ -10060,7 +10069,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ44">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR44">
         <v>1.11</v>
@@ -10185,7 +10194,7 @@
         <v>114</v>
       </c>
       <c r="P45" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q45">
         <v>5.75</v>
@@ -10597,7 +10606,7 @@
         <v>87</v>
       </c>
       <c r="P47" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q47">
         <v>3.2</v>
@@ -10803,7 +10812,7 @@
         <v>116</v>
       </c>
       <c r="P48" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q48">
         <v>2.9</v>
@@ -11293,7 +11302,7 @@
         <v>2.25</v>
       </c>
       <c r="AP50">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AQ50">
         <v>2</v>
@@ -11421,7 +11430,7 @@
         <v>119</v>
       </c>
       <c r="P51" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q51">
         <v>2.9</v>
@@ -11705,7 +11714,7 @@
         <v>1</v>
       </c>
       <c r="AP52">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AQ52">
         <v>0.79</v>
@@ -11914,7 +11923,7 @@
         <v>0.55</v>
       </c>
       <c r="AQ53">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR53">
         <v>1.4</v>
@@ -12451,7 +12460,7 @@
         <v>122</v>
       </c>
       <c r="P56" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -12657,7 +12666,7 @@
         <v>87</v>
       </c>
       <c r="P57" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q57">
         <v>2.25</v>
@@ -12738,7 +12747,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ57">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR57">
         <v>1.76</v>
@@ -12863,7 +12872,7 @@
         <v>87</v>
       </c>
       <c r="P58" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q58">
         <v>5.8</v>
@@ -13275,7 +13284,7 @@
         <v>123</v>
       </c>
       <c r="P60" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q60">
         <v>2.1</v>
@@ -13559,7 +13568,7 @@
         <v>1.33</v>
       </c>
       <c r="AP61">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AQ61">
         <v>0.75</v>
@@ -13687,7 +13696,7 @@
         <v>125</v>
       </c>
       <c r="P62" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q62">
         <v>1.68</v>
@@ -13765,7 +13774,7 @@
         <v>1.17</v>
       </c>
       <c r="AP62">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AQ62">
         <v>1.38</v>
@@ -14180,7 +14189,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ64">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR64">
         <v>1.49</v>
@@ -14511,7 +14520,7 @@
         <v>129</v>
       </c>
       <c r="P66" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q66">
         <v>6.5</v>
@@ -14798,7 +14807,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ67">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR67">
         <v>1.32</v>
@@ -14923,7 +14932,7 @@
         <v>87</v>
       </c>
       <c r="P68" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q68">
         <v>3.1</v>
@@ -15335,7 +15344,7 @@
         <v>87</v>
       </c>
       <c r="P70" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q70">
         <v>3.4</v>
@@ -15541,7 +15550,7 @@
         <v>131</v>
       </c>
       <c r="P71" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q71">
         <v>2.4</v>
@@ -15953,7 +15962,7 @@
         <v>133</v>
       </c>
       <c r="P73" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q73">
         <v>3.3</v>
@@ -16031,7 +16040,7 @@
         <v>1.67</v>
       </c>
       <c r="AP73">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AQ73">
         <v>1.73</v>
@@ -16159,7 +16168,7 @@
         <v>134</v>
       </c>
       <c r="P74" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q74">
         <v>2.2</v>
@@ -16240,7 +16249,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ74">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR74">
         <v>1.5</v>
@@ -16365,7 +16374,7 @@
         <v>87</v>
       </c>
       <c r="P75" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q75">
         <v>4.5</v>
@@ -16571,7 +16580,7 @@
         <v>135</v>
       </c>
       <c r="P76" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q76">
         <v>1.91</v>
@@ -16649,10 +16658,10 @@
         <v>1.14</v>
       </c>
       <c r="AP76">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AQ76">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR76">
         <v>2.04</v>
@@ -16777,7 +16786,7 @@
         <v>87</v>
       </c>
       <c r="P77" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q77">
         <v>6.5</v>
@@ -18013,7 +18022,7 @@
         <v>87</v>
       </c>
       <c r="P83" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q83">
         <v>8</v>
@@ -18219,7 +18228,7 @@
         <v>139</v>
       </c>
       <c r="P84" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q84">
         <v>5.2</v>
@@ -18709,7 +18718,7 @@
         <v>0.13</v>
       </c>
       <c r="AP86">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AQ86">
         <v>0.07000000000000001</v>
@@ -18837,7 +18846,7 @@
         <v>140</v>
       </c>
       <c r="P87" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q87">
         <v>3.75</v>
@@ -18918,7 +18927,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ87">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR87">
         <v>1.36</v>
@@ -19043,7 +19052,7 @@
         <v>141</v>
       </c>
       <c r="P88" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q88">
         <v>1.73</v>
@@ -19121,10 +19130,10 @@
         <v>0.75</v>
       </c>
       <c r="AP88">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AQ88">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR88">
         <v>2.24</v>
@@ -19249,7 +19258,7 @@
         <v>142</v>
       </c>
       <c r="P89" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q89">
         <v>2.5</v>
@@ -19739,7 +19748,7 @@
         <v>0.11</v>
       </c>
       <c r="AP91">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AQ91">
         <v>0.07000000000000001</v>
@@ -19867,7 +19876,7 @@
         <v>145</v>
       </c>
       <c r="P92" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q92">
         <v>2.25</v>
@@ -19948,7 +19957,7 @@
         <v>1.86</v>
       </c>
       <c r="AQ92">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR92">
         <v>1.89</v>
@@ -20151,7 +20160,7 @@
         <v>2.11</v>
       </c>
       <c r="AP93">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AQ93">
         <v>2</v>
@@ -20279,7 +20288,7 @@
         <v>87</v>
       </c>
       <c r="P94" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q94">
         <v>1.71</v>
@@ -20357,7 +20366,7 @@
         <v>1</v>
       </c>
       <c r="AP94">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AQ94">
         <v>1.38</v>
@@ -20485,7 +20494,7 @@
         <v>146</v>
       </c>
       <c r="P95" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q95">
         <v>3.6</v>
@@ -20691,7 +20700,7 @@
         <v>147</v>
       </c>
       <c r="P96" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q96">
         <v>2.6</v>
@@ -20772,7 +20781,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ96">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR96">
         <v>1.37</v>
@@ -21309,7 +21318,7 @@
         <v>149</v>
       </c>
       <c r="P99" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q99">
         <v>3.1</v>
@@ -21515,7 +21524,7 @@
         <v>150</v>
       </c>
       <c r="P100" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q100">
         <v>2.2</v>
@@ -22133,7 +22142,7 @@
         <v>152</v>
       </c>
       <c r="P103" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q103">
         <v>3.9</v>
@@ -22417,7 +22426,7 @@
         <v>0.9</v>
       </c>
       <c r="AP104">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AQ104">
         <v>0.79</v>
@@ -22623,7 +22632,7 @@
         <v>1</v>
       </c>
       <c r="AP105">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AQ105">
         <v>0.75</v>
@@ -23038,7 +23047,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ107">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR107">
         <v>1.14</v>
@@ -23163,7 +23172,7 @@
         <v>157</v>
       </c>
       <c r="P108" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q108">
         <v>5</v>
@@ -23450,7 +23459,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ109">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR109">
         <v>1.66</v>
@@ -23575,7 +23584,7 @@
         <v>87</v>
       </c>
       <c r="P110" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q110">
         <v>4.75</v>
@@ -23781,7 +23790,7 @@
         <v>110</v>
       </c>
       <c r="P111" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q111">
         <v>2.6</v>
@@ -24065,7 +24074,7 @@
         <v>1.36</v>
       </c>
       <c r="AP112">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AQ112">
         <v>1.38</v>
@@ -24193,7 +24202,7 @@
         <v>87</v>
       </c>
       <c r="P113" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q113">
         <v>9</v>
@@ -24683,7 +24692,7 @@
         <v>0.9</v>
       </c>
       <c r="AP115">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AQ115">
         <v>0.75</v>
@@ -24811,7 +24820,7 @@
         <v>162</v>
       </c>
       <c r="P116" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q116">
         <v>2.8</v>
@@ -24892,7 +24901,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ116">
-        <v>0.91</v>
+        <v>0.83</v>
       </c>
       <c r="AR116">
         <v>1.58</v>
@@ -25017,7 +25026,7 @@
         <v>163</v>
       </c>
       <c r="P117" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q117">
         <v>4.4</v>
@@ -25223,7 +25232,7 @@
         <v>164</v>
       </c>
       <c r="P118" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q118">
         <v>1.95</v>
@@ -25507,7 +25516,7 @@
         <v>1.91</v>
       </c>
       <c r="AP119">
-        <v>2.23</v>
+        <v>2.29</v>
       </c>
       <c r="AQ119">
         <v>1.75</v>
@@ -25716,7 +25725,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ120">
-        <v>0.92</v>
+        <v>0.86</v>
       </c>
       <c r="AR120">
         <v>1.25</v>
@@ -25841,7 +25850,7 @@
         <v>166</v>
       </c>
       <c r="P121" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q121">
         <v>3.3</v>
@@ -26331,7 +26340,7 @@
         <v>0.82</v>
       </c>
       <c r="AP123">
-        <v>2.46</v>
+        <v>2.5</v>
       </c>
       <c r="AQ123">
         <v>0.75</v>
@@ -26459,7 +26468,7 @@
         <v>113</v>
       </c>
       <c r="P124" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q124">
         <v>4.2</v>
@@ -26871,7 +26880,7 @@
         <v>169</v>
       </c>
       <c r="P126" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q126">
         <v>2.6</v>
@@ -27283,7 +27292,7 @@
         <v>87</v>
       </c>
       <c r="P128" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q128">
         <v>6</v>
@@ -27440,6 +27449,418 @@
       </c>
       <c r="BP128">
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="129" spans="1:68">
+      <c r="A129" s="1">
+        <v>128</v>
+      </c>
+      <c r="B129">
+        <v>6441818</v>
+      </c>
+      <c r="C129" t="s">
+        <v>68</v>
+      </c>
+      <c r="D129" t="s">
+        <v>69</v>
+      </c>
+      <c r="E129" s="2">
+        <v>45361.45833333334</v>
+      </c>
+      <c r="F129">
+        <v>26</v>
+      </c>
+      <c r="G129" t="s">
+        <v>71</v>
+      </c>
+      <c r="H129" t="s">
+        <v>72</v>
+      </c>
+      <c r="I129">
+        <v>2</v>
+      </c>
+      <c r="J129">
+        <v>0</v>
+      </c>
+      <c r="K129">
+        <v>2</v>
+      </c>
+      <c r="L129">
+        <v>3</v>
+      </c>
+      <c r="M129">
+        <v>0</v>
+      </c>
+      <c r="N129">
+        <v>3</v>
+      </c>
+      <c r="O129" t="s">
+        <v>171</v>
+      </c>
+      <c r="P129" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q129">
+        <v>2.05</v>
+      </c>
+      <c r="R129">
+        <v>2.3</v>
+      </c>
+      <c r="S129">
+        <v>5</v>
+      </c>
+      <c r="T129">
+        <v>1.33</v>
+      </c>
+      <c r="U129">
+        <v>3.25</v>
+      </c>
+      <c r="V129">
+        <v>2.6</v>
+      </c>
+      <c r="W129">
+        <v>1.45</v>
+      </c>
+      <c r="X129">
+        <v>5.5</v>
+      </c>
+      <c r="Y129">
+        <v>1.12</v>
+      </c>
+      <c r="Z129">
+        <v>1.53</v>
+      </c>
+      <c r="AA129">
+        <v>4</v>
+      </c>
+      <c r="AB129">
+        <v>5.5</v>
+      </c>
+      <c r="AC129">
+        <v>1.05</v>
+      </c>
+      <c r="AD129">
+        <v>9</v>
+      </c>
+      <c r="AE129">
+        <v>1.25</v>
+      </c>
+      <c r="AF129">
+        <v>3.75</v>
+      </c>
+      <c r="AG129">
+        <v>1.75</v>
+      </c>
+      <c r="AH129">
+        <v>2</v>
+      </c>
+      <c r="AI129">
+        <v>1.83</v>
+      </c>
+      <c r="AJ129">
+        <v>1.9</v>
+      </c>
+      <c r="AK129">
+        <v>1.09</v>
+      </c>
+      <c r="AL129">
+        <v>1.17</v>
+      </c>
+      <c r="AM129">
+        <v>2.4</v>
+      </c>
+      <c r="AN129">
+        <v>2.46</v>
+      </c>
+      <c r="AO129">
+        <v>0.91</v>
+      </c>
+      <c r="AP129">
+        <v>2.5</v>
+      </c>
+      <c r="AQ129">
+        <v>0.83</v>
+      </c>
+      <c r="AR129">
+        <v>2.15</v>
+      </c>
+      <c r="AS129">
+        <v>1.32</v>
+      </c>
+      <c r="AT129">
+        <v>3.47</v>
+      </c>
+      <c r="AU129">
+        <v>8</v>
+      </c>
+      <c r="AV129">
+        <v>2</v>
+      </c>
+      <c r="AW129">
+        <v>7</v>
+      </c>
+      <c r="AX129">
+        <v>3</v>
+      </c>
+      <c r="AY129">
+        <v>15</v>
+      </c>
+      <c r="AZ129">
+        <v>5</v>
+      </c>
+      <c r="BA129">
+        <v>5</v>
+      </c>
+      <c r="BB129">
+        <v>5</v>
+      </c>
+      <c r="BC129">
+        <v>10</v>
+      </c>
+      <c r="BD129">
+        <v>1.37</v>
+      </c>
+      <c r="BE129">
+        <v>9</v>
+      </c>
+      <c r="BF129">
+        <v>3.83</v>
+      </c>
+      <c r="BG129">
+        <v>1.41</v>
+      </c>
+      <c r="BH129">
+        <v>2.6</v>
+      </c>
+      <c r="BI129">
+        <v>1.8</v>
+      </c>
+      <c r="BJ129">
+        <v>2</v>
+      </c>
+      <c r="BK129">
+        <v>2.25</v>
+      </c>
+      <c r="BL129">
+        <v>1.54</v>
+      </c>
+      <c r="BM129">
+        <v>3.08</v>
+      </c>
+      <c r="BN129">
+        <v>1.3</v>
+      </c>
+      <c r="BO129">
+        <v>4</v>
+      </c>
+      <c r="BP129">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="130" spans="1:68">
+      <c r="A130" s="1">
+        <v>129</v>
+      </c>
+      <c r="B130">
+        <v>6441817</v>
+      </c>
+      <c r="C130" t="s">
+        <v>68</v>
+      </c>
+      <c r="D130" t="s">
+        <v>69</v>
+      </c>
+      <c r="E130" s="2">
+        <v>45361.5625</v>
+      </c>
+      <c r="F130">
+        <v>26</v>
+      </c>
+      <c r="G130" t="s">
+        <v>70</v>
+      </c>
+      <c r="H130" t="s">
+        <v>79</v>
+      </c>
+      <c r="I130">
+        <v>2</v>
+      </c>
+      <c r="J130">
+        <v>1</v>
+      </c>
+      <c r="K130">
+        <v>3</v>
+      </c>
+      <c r="L130">
+        <v>5</v>
+      </c>
+      <c r="M130">
+        <v>2</v>
+      </c>
+      <c r="N130">
+        <v>7</v>
+      </c>
+      <c r="O130" t="s">
+        <v>172</v>
+      </c>
+      <c r="P130" t="s">
+        <v>233</v>
+      </c>
+      <c r="Q130">
+        <v>1.62</v>
+      </c>
+      <c r="R130">
+        <v>2.65</v>
+      </c>
+      <c r="S130">
+        <v>8</v>
+      </c>
+      <c r="T130">
+        <v>1.3</v>
+      </c>
+      <c r="U130">
+        <v>3.4</v>
+      </c>
+      <c r="V130">
+        <v>2.31</v>
+      </c>
+      <c r="W130">
+        <v>1.56</v>
+      </c>
+      <c r="X130">
+        <v>5</v>
+      </c>
+      <c r="Y130">
+        <v>1.14</v>
+      </c>
+      <c r="Z130">
+        <v>1.22</v>
+      </c>
+      <c r="AA130">
+        <v>6</v>
+      </c>
+      <c r="AB130">
+        <v>11</v>
+      </c>
+      <c r="AC130">
+        <v>1.02</v>
+      </c>
+      <c r="AD130">
+        <v>12</v>
+      </c>
+      <c r="AE130">
+        <v>1.17</v>
+      </c>
+      <c r="AF130">
+        <v>4.75</v>
+      </c>
+      <c r="AG130">
+        <v>1.57</v>
+      </c>
+      <c r="AH130">
+        <v>2.3</v>
+      </c>
+      <c r="AI130">
+        <v>2.1</v>
+      </c>
+      <c r="AJ130">
+        <v>1.68</v>
+      </c>
+      <c r="AK130">
+        <v>1.02</v>
+      </c>
+      <c r="AL130">
+        <v>1.08</v>
+      </c>
+      <c r="AM130">
+        <v>3.6</v>
+      </c>
+      <c r="AN130">
+        <v>2.23</v>
+      </c>
+      <c r="AO130">
+        <v>0.92</v>
+      </c>
+      <c r="AP130">
+        <v>2.29</v>
+      </c>
+      <c r="AQ130">
+        <v>0.86</v>
+      </c>
+      <c r="AR130">
+        <v>1.9</v>
+      </c>
+      <c r="AS130">
+        <v>1.24</v>
+      </c>
+      <c r="AT130">
+        <v>3.14</v>
+      </c>
+      <c r="AU130">
+        <v>9</v>
+      </c>
+      <c r="AV130">
+        <v>4</v>
+      </c>
+      <c r="AW130">
+        <v>6</v>
+      </c>
+      <c r="AX130">
+        <v>5</v>
+      </c>
+      <c r="AY130">
+        <v>15</v>
+      </c>
+      <c r="AZ130">
+        <v>9</v>
+      </c>
+      <c r="BA130">
+        <v>5</v>
+      </c>
+      <c r="BB130">
+        <v>2</v>
+      </c>
+      <c r="BC130">
+        <v>7</v>
+      </c>
+      <c r="BD130">
+        <v>1.23</v>
+      </c>
+      <c r="BE130">
+        <v>10</v>
+      </c>
+      <c r="BF130">
+        <v>5.15</v>
+      </c>
+      <c r="BG130">
+        <v>1.38</v>
+      </c>
+      <c r="BH130">
+        <v>2.71</v>
+      </c>
+      <c r="BI130">
+        <v>1.7</v>
+      </c>
+      <c r="BJ130">
+        <v>2.03</v>
+      </c>
+      <c r="BK130">
+        <v>2.15</v>
+      </c>
+      <c r="BL130">
+        <v>1.59</v>
+      </c>
+      <c r="BM130">
+        <v>2.91</v>
+      </c>
+      <c r="BN130">
+        <v>1.33</v>
+      </c>
+      <c r="BO130">
+        <v>3.6</v>
+      </c>
+      <c r="BP130">
+        <v>1.24</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="842" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="234">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1077,7 +1077,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP130"/>
+  <dimension ref="A1:BP131"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1826,7 +1826,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AQ4">
         <v>0.86</v>
@@ -2035,7 +2035,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ5">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -3477,7 +3477,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ12">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AR12">
         <v>1.99</v>
@@ -5328,7 +5328,7 @@
         <v>1</v>
       </c>
       <c r="AP21">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AQ21">
         <v>0.75</v>
@@ -7391,7 +7391,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ31">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AR31">
         <v>2.62</v>
@@ -7594,7 +7594,7 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AQ32">
         <v>1.73</v>
@@ -8830,10 +8830,10 @@
         <v>1</v>
       </c>
       <c r="AP38">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AQ38">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AR38">
         <v>1.91</v>
@@ -10893,7 +10893,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ48">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AR48">
         <v>1.31</v>
@@ -11096,7 +11096,7 @@
         <v>0.2</v>
       </c>
       <c r="AP49">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AQ49">
         <v>0.07000000000000001</v>
@@ -13159,7 +13159,7 @@
         <v>0.55</v>
       </c>
       <c r="AQ59">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AR59">
         <v>1.4</v>
@@ -13362,7 +13362,7 @@
         <v>0.83</v>
       </c>
       <c r="AP60">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AQ60">
         <v>0.79</v>
@@ -15010,7 +15010,7 @@
         <v>2</v>
       </c>
       <c r="AP68">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AQ68">
         <v>2</v>
@@ -15628,7 +15628,7 @@
         <v>1</v>
       </c>
       <c r="AP71">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AQ71">
         <v>1.38</v>
@@ -15837,7 +15837,7 @@
         <v>2.25</v>
       </c>
       <c r="AQ72">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AR72">
         <v>1.58</v>
@@ -17279,7 +17279,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ79">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AR79">
         <v>1.21</v>
@@ -17482,7 +17482,7 @@
         <v>1.57</v>
       </c>
       <c r="AP80">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AQ80">
         <v>1.75</v>
@@ -19339,7 +19339,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ89">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AR89">
         <v>1.39</v>
@@ -19954,7 +19954,7 @@
         <v>1</v>
       </c>
       <c r="AP92">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AQ92">
         <v>0.86</v>
@@ -20984,7 +20984,7 @@
         <v>0.1</v>
       </c>
       <c r="AP97">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AQ97">
         <v>0.07000000000000001</v>
@@ -21811,7 +21811,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ101">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AR101">
         <v>1.62</v>
@@ -22220,7 +22220,7 @@
         <v>2</v>
       </c>
       <c r="AP103">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AQ103">
         <v>2</v>
@@ -24486,7 +24486,7 @@
         <v>0.9</v>
       </c>
       <c r="AP114">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AQ114">
         <v>0.75</v>
@@ -24695,7 +24695,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ115">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AR115">
         <v>2.02</v>
@@ -26343,7 +26343,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ123">
-        <v>0.75</v>
+        <v>0.92</v>
       </c>
       <c r="AR123">
         <v>2.21</v>
@@ -26546,7 +26546,7 @@
         <v>1.8</v>
       </c>
       <c r="AP124">
-        <v>1.86</v>
+        <v>1.73</v>
       </c>
       <c r="AQ124">
         <v>1.73</v>
@@ -27861,6 +27861,212 @@
       </c>
       <c r="BP130">
         <v>1.24</v>
+      </c>
+    </row>
+    <row r="131" spans="1:68">
+      <c r="A131" s="1">
+        <v>130</v>
+      </c>
+      <c r="B131">
+        <v>6441819</v>
+      </c>
+      <c r="C131" t="s">
+        <v>68</v>
+      </c>
+      <c r="D131" t="s">
+        <v>69</v>
+      </c>
+      <c r="E131" s="2">
+        <v>45366.54166666666</v>
+      </c>
+      <c r="F131">
+        <v>27</v>
+      </c>
+      <c r="G131" t="s">
+        <v>72</v>
+      </c>
+      <c r="H131" t="s">
+        <v>75</v>
+      </c>
+      <c r="I131">
+        <v>0</v>
+      </c>
+      <c r="J131">
+        <v>1</v>
+      </c>
+      <c r="K131">
+        <v>1</v>
+      </c>
+      <c r="L131">
+        <v>0</v>
+      </c>
+      <c r="M131">
+        <v>1</v>
+      </c>
+      <c r="N131">
+        <v>1</v>
+      </c>
+      <c r="O131" t="s">
+        <v>87</v>
+      </c>
+      <c r="P131" t="s">
+        <v>174</v>
+      </c>
+      <c r="Q131">
+        <v>2.1</v>
+      </c>
+      <c r="R131">
+        <v>2.3</v>
+      </c>
+      <c r="S131">
+        <v>5</v>
+      </c>
+      <c r="T131">
+        <v>1.35</v>
+      </c>
+      <c r="U131">
+        <v>2.95</v>
+      </c>
+      <c r="V131">
+        <v>2.6</v>
+      </c>
+      <c r="W131">
+        <v>1.44</v>
+      </c>
+      <c r="X131">
+        <v>6.45</v>
+      </c>
+      <c r="Y131">
+        <v>1.09</v>
+      </c>
+      <c r="Z131">
+        <v>1.57</v>
+      </c>
+      <c r="AA131">
+        <v>4</v>
+      </c>
+      <c r="AB131">
+        <v>5.5</v>
+      </c>
+      <c r="AC131">
+        <v>1.05</v>
+      </c>
+      <c r="AD131">
+        <v>9</v>
+      </c>
+      <c r="AE131">
+        <v>1.25</v>
+      </c>
+      <c r="AF131">
+        <v>3.75</v>
+      </c>
+      <c r="AG131">
+        <v>1.8</v>
+      </c>
+      <c r="AH131">
+        <v>1.95</v>
+      </c>
+      <c r="AI131">
+        <v>1.85</v>
+      </c>
+      <c r="AJ131">
+        <v>1.9</v>
+      </c>
+      <c r="AK131">
+        <v>1.1</v>
+      </c>
+      <c r="AL131">
+        <v>1.18</v>
+      </c>
+      <c r="AM131">
+        <v>2.35</v>
+      </c>
+      <c r="AN131">
+        <v>1.86</v>
+      </c>
+      <c r="AO131">
+        <v>0.75</v>
+      </c>
+      <c r="AP131">
+        <v>1.73</v>
+      </c>
+      <c r="AQ131">
+        <v>0.92</v>
+      </c>
+      <c r="AR131">
+        <v>1.84</v>
+      </c>
+      <c r="AS131">
+        <v>1.34</v>
+      </c>
+      <c r="AT131">
+        <v>3.18</v>
+      </c>
+      <c r="AU131">
+        <v>4</v>
+      </c>
+      <c r="AV131">
+        <v>4</v>
+      </c>
+      <c r="AW131">
+        <v>5</v>
+      </c>
+      <c r="AX131">
+        <v>4</v>
+      </c>
+      <c r="AY131">
+        <v>9</v>
+      </c>
+      <c r="AZ131">
+        <v>8</v>
+      </c>
+      <c r="BA131">
+        <v>6</v>
+      </c>
+      <c r="BB131">
+        <v>3</v>
+      </c>
+      <c r="BC131">
+        <v>9</v>
+      </c>
+      <c r="BD131">
+        <v>1.45</v>
+      </c>
+      <c r="BE131">
+        <v>8.5</v>
+      </c>
+      <c r="BF131">
+        <v>3.33</v>
+      </c>
+      <c r="BG131">
+        <v>1.32</v>
+      </c>
+      <c r="BH131">
+        <v>3.1</v>
+      </c>
+      <c r="BI131">
+        <v>1.61</v>
+      </c>
+      <c r="BJ131">
+        <v>2.17</v>
+      </c>
+      <c r="BK131">
+        <v>2.07</v>
+      </c>
+      <c r="BL131">
+        <v>1.67</v>
+      </c>
+      <c r="BM131">
+        <v>2.75</v>
+      </c>
+      <c r="BN131">
+        <v>1.4</v>
+      </c>
+      <c r="BO131">
+        <v>3.5</v>
+      </c>
+      <c r="BP131">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="848" uniqueCount="234">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="236">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -535,6 +535,9 @@
     <t>['7', '18', '70', '82', '90+3']</t>
   </si>
   <si>
+    <t>['90+6']</t>
+  </si>
+  <si>
     <t>['74', '90+3']</t>
   </si>
   <si>
@@ -716,6 +719,9 @@
   </si>
   <si>
     <t>['22', '59']</t>
+  </si>
+  <si>
+    <t>['26', '60']</t>
   </si>
 </sst>
 </file>
@@ -1077,7 +1083,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP131"/>
+  <dimension ref="A1:BP134"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1336,7 +1342,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>173</v>
+        <v>174</v>
       </c>
       <c r="Q2">
         <v>2.36</v>
@@ -2160,7 +2166,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q6">
         <v>2.55</v>
@@ -2366,7 +2372,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q7">
         <v>2.64</v>
@@ -2653,7 +2659,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ8">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AR8">
         <v>2.02</v>
@@ -2778,7 +2784,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q9">
         <v>5.85</v>
@@ -2856,7 +2862,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ9">
         <v>1.73</v>
@@ -2984,7 +2990,7 @@
         <v>88</v>
       </c>
       <c r="P10" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -3268,10 +3274,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2.25</v>
+        <v>2.08</v>
       </c>
       <c r="AQ11">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3396,7 +3402,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3602,7 +3608,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q13">
         <v>2.35</v>
@@ -3680,7 +3686,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AQ13">
         <v>0.07000000000000001</v>
@@ -3889,7 +3895,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ14">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AR14">
         <v>1.29</v>
@@ -4426,7 +4432,7 @@
         <v>94</v>
       </c>
       <c r="P17" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q17">
         <v>3.5</v>
@@ -4504,7 +4510,7 @@
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ17">
         <v>0.83</v>
@@ -4710,7 +4716,7 @@
         <v>0.5</v>
       </c>
       <c r="AP18">
-        <v>2.25</v>
+        <v>2.08</v>
       </c>
       <c r="AQ18">
         <v>0.86</v>
@@ -4838,7 +4844,7 @@
         <v>96</v>
       </c>
       <c r="P19" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q19">
         <v>3.1</v>
@@ -4916,7 +4922,7 @@
         <v>0.5</v>
       </c>
       <c r="AP19">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AQ19">
         <v>0.79</v>
@@ -5044,7 +5050,7 @@
         <v>87</v>
       </c>
       <c r="P20" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q20">
         <v>7</v>
@@ -5331,7 +5337,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ21">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AR21">
         <v>2.38</v>
@@ -5456,7 +5462,7 @@
         <v>98</v>
       </c>
       <c r="P22" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q22">
         <v>2.15</v>
@@ -5537,7 +5543,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ22">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AR22">
         <v>2.49</v>
@@ -5662,7 +5668,7 @@
         <v>99</v>
       </c>
       <c r="P23" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q23">
         <v>2.29</v>
@@ -5868,7 +5874,7 @@
         <v>100</v>
       </c>
       <c r="P24" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q24">
         <v>4.5</v>
@@ -6074,7 +6080,7 @@
         <v>101</v>
       </c>
       <c r="P25" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q25">
         <v>3.1</v>
@@ -6358,7 +6364,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ26">
         <v>0.07000000000000001</v>
@@ -6486,7 +6492,7 @@
         <v>102</v>
       </c>
       <c r="P27" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q27">
         <v>2.14</v>
@@ -6567,7 +6573,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ27">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AR27">
         <v>1.7</v>
@@ -6692,7 +6698,7 @@
         <v>87</v>
       </c>
       <c r="P28" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q28">
         <v>3.4</v>
@@ -6770,10 +6776,10 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AQ28">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AR28">
         <v>1.1</v>
@@ -6898,7 +6904,7 @@
         <v>87</v>
       </c>
       <c r="P29" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q29">
         <v>3.5</v>
@@ -6979,7 +6985,7 @@
         <v>0.55</v>
       </c>
       <c r="AQ29">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AR29">
         <v>1.5</v>
@@ -7104,7 +7110,7 @@
         <v>87</v>
       </c>
       <c r="P30" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q30">
         <v>1.67</v>
@@ -7182,7 +7188,7 @@
         <v>0.67</v>
       </c>
       <c r="AP30">
-        <v>2.25</v>
+        <v>2.08</v>
       </c>
       <c r="AQ30">
         <v>0.79</v>
@@ -7310,7 +7316,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q31">
         <v>2</v>
@@ -7516,7 +7522,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q32">
         <v>4.75</v>
@@ -8134,7 +8140,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q35">
         <v>2.75</v>
@@ -8340,7 +8346,7 @@
         <v>108</v>
       </c>
       <c r="P36" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q36">
         <v>4.5</v>
@@ -8752,7 +8758,7 @@
         <v>110</v>
       </c>
       <c r="P38" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q38">
         <v>2.1</v>
@@ -9036,10 +9042,10 @@
         <v>1.33</v>
       </c>
       <c r="AP39">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ39">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AR39">
         <v>1.41</v>
@@ -9242,10 +9248,10 @@
         <v>1</v>
       </c>
       <c r="AP40">
-        <v>2.25</v>
+        <v>2.08</v>
       </c>
       <c r="AQ40">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AR40">
         <v>1.89</v>
@@ -9448,10 +9454,10 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AQ41">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AR41">
         <v>1.05</v>
@@ -9576,7 +9582,7 @@
         <v>112</v>
       </c>
       <c r="P42" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q42">
         <v>8</v>
@@ -9863,7 +9869,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ43">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AR43">
         <v>1.51</v>
@@ -10066,7 +10072,7 @@
         <v>1.25</v>
       </c>
       <c r="AP44">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AQ44">
         <v>0.83</v>
@@ -10194,7 +10200,7 @@
         <v>114</v>
       </c>
       <c r="P45" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q45">
         <v>5.75</v>
@@ -10275,7 +10281,7 @@
         <v>0.55</v>
       </c>
       <c r="AQ45">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AR45">
         <v>1.46</v>
@@ -10478,7 +10484,7 @@
         <v>3</v>
       </c>
       <c r="AP46">
-        <v>2.25</v>
+        <v>2.08</v>
       </c>
       <c r="AQ46">
         <v>1.73</v>
@@ -10606,7 +10612,7 @@
         <v>87</v>
       </c>
       <c r="P47" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q47">
         <v>3.2</v>
@@ -10684,10 +10690,10 @@
         <v>0.75</v>
       </c>
       <c r="AP47">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ47">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AR47">
         <v>1.43</v>
@@ -10812,7 +10818,7 @@
         <v>116</v>
       </c>
       <c r="P48" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q48">
         <v>2.9</v>
@@ -10890,7 +10896,7 @@
         <v>1</v>
       </c>
       <c r="AP48">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AQ48">
         <v>0.92</v>
@@ -11430,7 +11436,7 @@
         <v>119</v>
       </c>
       <c r="P51" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q51">
         <v>2.9</v>
@@ -11511,7 +11517,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ51">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AR51">
         <v>1.71</v>
@@ -12129,7 +12135,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ54">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AR54">
         <v>1.48</v>
@@ -12460,7 +12466,7 @@
         <v>122</v>
       </c>
       <c r="P56" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -12538,10 +12544,10 @@
         <v>1.5</v>
       </c>
       <c r="AP56">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ56">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AR56">
         <v>1.41</v>
@@ -12666,7 +12672,7 @@
         <v>87</v>
       </c>
       <c r="P57" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q57">
         <v>2.25</v>
@@ -12744,7 +12750,7 @@
         <v>1</v>
       </c>
       <c r="AP57">
-        <v>2.25</v>
+        <v>2.08</v>
       </c>
       <c r="AQ57">
         <v>0.83</v>
@@ -12872,7 +12878,7 @@
         <v>87</v>
       </c>
       <c r="P58" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q58">
         <v>5.8</v>
@@ -12950,7 +12956,7 @@
         <v>1.8</v>
       </c>
       <c r="AP58">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AQ58">
         <v>2</v>
@@ -13284,7 +13290,7 @@
         <v>123</v>
       </c>
       <c r="P60" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q60">
         <v>2.1</v>
@@ -13571,7 +13577,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ61">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AR61">
         <v>2.24</v>
@@ -13696,7 +13702,7 @@
         <v>125</v>
       </c>
       <c r="P62" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q62">
         <v>1.68</v>
@@ -13777,7 +13783,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ62">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AR62">
         <v>1.89</v>
@@ -13983,7 +13989,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ63">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AR63">
         <v>1.67</v>
@@ -14392,7 +14398,7 @@
         <v>0.17</v>
       </c>
       <c r="AP65">
-        <v>2.25</v>
+        <v>2.08</v>
       </c>
       <c r="AQ65">
         <v>0.07000000000000001</v>
@@ -14520,7 +14526,7 @@
         <v>129</v>
       </c>
       <c r="P66" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q66">
         <v>6.5</v>
@@ -14804,7 +14810,7 @@
         <v>0.5</v>
       </c>
       <c r="AP67">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ67">
         <v>0.86</v>
@@ -14932,7 +14938,7 @@
         <v>87</v>
       </c>
       <c r="P68" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q68">
         <v>3.1</v>
@@ -15216,10 +15222,10 @@
         <v>1.14</v>
       </c>
       <c r="AP69">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AQ69">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AR69">
         <v>1.4</v>
@@ -15344,7 +15350,7 @@
         <v>87</v>
       </c>
       <c r="P70" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q70">
         <v>3.4</v>
@@ -15550,7 +15556,7 @@
         <v>131</v>
       </c>
       <c r="P71" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q71">
         <v>2.4</v>
@@ -15631,7 +15637,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ71">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AR71">
         <v>1.96</v>
@@ -15834,7 +15840,7 @@
         <v>0.83</v>
       </c>
       <c r="AP72">
-        <v>2.25</v>
+        <v>2.08</v>
       </c>
       <c r="AQ72">
         <v>0.92</v>
@@ -15962,7 +15968,7 @@
         <v>133</v>
       </c>
       <c r="P73" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q73">
         <v>3.3</v>
@@ -16168,7 +16174,7 @@
         <v>134</v>
       </c>
       <c r="P74" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q74">
         <v>2.2</v>
@@ -16374,7 +16380,7 @@
         <v>87</v>
       </c>
       <c r="P75" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q75">
         <v>4.5</v>
@@ -16455,7 +16461,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ75">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AR75">
         <v>1.4</v>
@@ -16580,7 +16586,7 @@
         <v>135</v>
       </c>
       <c r="P76" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q76">
         <v>1.91</v>
@@ -16786,7 +16792,7 @@
         <v>87</v>
       </c>
       <c r="P77" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q77">
         <v>6.5</v>
@@ -16864,7 +16870,7 @@
         <v>2.14</v>
       </c>
       <c r="AP77">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ77">
         <v>2</v>
@@ -17276,7 +17282,7 @@
         <v>0.71</v>
       </c>
       <c r="AP79">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ79">
         <v>0.92</v>
@@ -17485,7 +17491,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ80">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AR80">
         <v>1.97</v>
@@ -17688,10 +17694,10 @@
         <v>1.13</v>
       </c>
       <c r="AP81">
-        <v>2.25</v>
+        <v>2.08</v>
       </c>
       <c r="AQ81">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AR81">
         <v>1.74</v>
@@ -17897,7 +17903,7 @@
         <v>0.55</v>
       </c>
       <c r="AQ82">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AR82">
         <v>1.42</v>
@@ -18022,7 +18028,7 @@
         <v>87</v>
       </c>
       <c r="P83" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q83">
         <v>8</v>
@@ -18100,7 +18106,7 @@
         <v>1.57</v>
       </c>
       <c r="AP83">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AQ83">
         <v>1.73</v>
@@ -18228,7 +18234,7 @@
         <v>139</v>
       </c>
       <c r="P84" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q84">
         <v>5.2</v>
@@ -18846,7 +18852,7 @@
         <v>140</v>
       </c>
       <c r="P87" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q87">
         <v>3.75</v>
@@ -19052,7 +19058,7 @@
         <v>141</v>
       </c>
       <c r="P88" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q88">
         <v>1.73</v>
@@ -19258,7 +19264,7 @@
         <v>142</v>
       </c>
       <c r="P89" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q89">
         <v>2.5</v>
@@ -19876,7 +19882,7 @@
         <v>145</v>
       </c>
       <c r="P92" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q92">
         <v>2.25</v>
@@ -20288,7 +20294,7 @@
         <v>87</v>
       </c>
       <c r="P94" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q94">
         <v>1.71</v>
@@ -20369,7 +20375,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ94">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AR94">
         <v>1.9</v>
@@ -20494,7 +20500,7 @@
         <v>146</v>
       </c>
       <c r="P95" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q95">
         <v>3.6</v>
@@ -20575,7 +20581,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ95">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AR95">
         <v>1.36</v>
@@ -20700,7 +20706,7 @@
         <v>147</v>
       </c>
       <c r="P96" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q96">
         <v>2.6</v>
@@ -21190,7 +21196,7 @@
         <v>1.75</v>
       </c>
       <c r="AP98">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ98">
         <v>1.73</v>
@@ -21318,7 +21324,7 @@
         <v>149</v>
       </c>
       <c r="P99" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q99">
         <v>3.1</v>
@@ -21399,7 +21405,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ99">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AR99">
         <v>1.31</v>
@@ -21524,7 +21530,7 @@
         <v>150</v>
       </c>
       <c r="P100" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q100">
         <v>2.2</v>
@@ -21602,10 +21608,10 @@
         <v>1.67</v>
       </c>
       <c r="AP100">
-        <v>2.25</v>
+        <v>2.08</v>
       </c>
       <c r="AQ100">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AR100">
         <v>1.75</v>
@@ -22014,7 +22020,7 @@
         <v>0.09</v>
       </c>
       <c r="AP102">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AQ102">
         <v>0.07000000000000001</v>
@@ -22142,7 +22148,7 @@
         <v>152</v>
       </c>
       <c r="P103" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q103">
         <v>3.9</v>
@@ -22635,7 +22641,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ105">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AR105">
         <v>1.92</v>
@@ -23044,7 +23050,7 @@
         <v>1</v>
       </c>
       <c r="AP107">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ107">
         <v>0.83</v>
@@ -23172,7 +23178,7 @@
         <v>157</v>
       </c>
       <c r="P108" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q108">
         <v>5</v>
@@ -23456,7 +23462,7 @@
         <v>1.09</v>
       </c>
       <c r="AP109">
-        <v>2.25</v>
+        <v>2.08</v>
       </c>
       <c r="AQ109">
         <v>0.86</v>
@@ -23584,7 +23590,7 @@
         <v>87</v>
       </c>
       <c r="P110" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q110">
         <v>4.75</v>
@@ -23665,7 +23671,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ110">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AR110">
         <v>1.27</v>
@@ -23790,7 +23796,7 @@
         <v>110</v>
       </c>
       <c r="P111" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q111">
         <v>2.6</v>
@@ -23868,7 +23874,7 @@
         <v>0.82</v>
       </c>
       <c r="AP111">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AQ111">
         <v>0.79</v>
@@ -24077,7 +24083,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ112">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AR112">
         <v>2.21</v>
@@ -24202,7 +24208,7 @@
         <v>87</v>
       </c>
       <c r="P113" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q113">
         <v>9</v>
@@ -24489,7 +24495,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ114">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AR114">
         <v>1.84</v>
@@ -24820,7 +24826,7 @@
         <v>162</v>
       </c>
       <c r="P116" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q116">
         <v>2.8</v>
@@ -25026,7 +25032,7 @@
         <v>163</v>
       </c>
       <c r="P117" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q117">
         <v>4.4</v>
@@ -25232,7 +25238,7 @@
         <v>164</v>
       </c>
       <c r="P118" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q118">
         <v>1.95</v>
@@ -25310,7 +25316,7 @@
         <v>0.08</v>
       </c>
       <c r="AP118">
-        <v>1.25</v>
+        <v>1.23</v>
       </c>
       <c r="AQ118">
         <v>0.07000000000000001</v>
@@ -25519,7 +25525,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ119">
-        <v>1.75</v>
+        <v>1.85</v>
       </c>
       <c r="AR119">
         <v>1.95</v>
@@ -25850,7 +25856,7 @@
         <v>166</v>
       </c>
       <c r="P121" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q121">
         <v>3.3</v>
@@ -25928,10 +25934,10 @@
         <v>1.25</v>
       </c>
       <c r="AP121">
-        <v>1.25</v>
+        <v>1.15</v>
       </c>
       <c r="AQ121">
-        <v>1.38</v>
+        <v>1.5</v>
       </c>
       <c r="AR121">
         <v>1.47</v>
@@ -26134,7 +26140,7 @@
         <v>0.83</v>
       </c>
       <c r="AP122">
-        <v>2.25</v>
+        <v>2.08</v>
       </c>
       <c r="AQ122">
         <v>0.79</v>
@@ -26468,7 +26474,7 @@
         <v>113</v>
       </c>
       <c r="P124" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q124">
         <v>4.2</v>
@@ -26755,7 +26761,7 @@
         <v>0.55</v>
       </c>
       <c r="AQ125">
-        <v>0.75</v>
+        <v>0.77</v>
       </c>
       <c r="AR125">
         <v>1.41</v>
@@ -26880,7 +26886,7 @@
         <v>169</v>
       </c>
       <c r="P126" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q126">
         <v>2.6</v>
@@ -27292,7 +27298,7 @@
         <v>87</v>
       </c>
       <c r="P128" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q128">
         <v>6</v>
@@ -27704,7 +27710,7 @@
         <v>172</v>
       </c>
       <c r="P130" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q130">
         <v>1.62</v>
@@ -27910,7 +27916,7 @@
         <v>87</v>
       </c>
       <c r="P131" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q131">
         <v>2.1</v>
@@ -28067,6 +28073,624 @@
       </c>
       <c r="BP131">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="132" spans="1:68">
+      <c r="A132" s="1">
+        <v>131</v>
+      </c>
+      <c r="B132">
+        <v>6441820</v>
+      </c>
+      <c r="C132" t="s">
+        <v>68</v>
+      </c>
+      <c r="D132" t="s">
+        <v>69</v>
+      </c>
+      <c r="E132" s="2">
+        <v>45367.45833333334</v>
+      </c>
+      <c r="F132">
+        <v>27</v>
+      </c>
+      <c r="G132" t="s">
+        <v>79</v>
+      </c>
+      <c r="H132" t="s">
+        <v>71</v>
+      </c>
+      <c r="I132">
+        <v>0</v>
+      </c>
+      <c r="J132">
+        <v>0</v>
+      </c>
+      <c r="K132">
+        <v>0</v>
+      </c>
+      <c r="L132">
+        <v>0</v>
+      </c>
+      <c r="M132">
+        <v>1</v>
+      </c>
+      <c r="N132">
+        <v>1</v>
+      </c>
+      <c r="O132" t="s">
+        <v>87</v>
+      </c>
+      <c r="P132" t="s">
+        <v>89</v>
+      </c>
+      <c r="Q132">
+        <v>5.5</v>
+      </c>
+      <c r="R132">
+        <v>2.25</v>
+      </c>
+      <c r="S132">
+        <v>2.05</v>
+      </c>
+      <c r="T132">
+        <v>1.35</v>
+      </c>
+      <c r="U132">
+        <v>2.95</v>
+      </c>
+      <c r="V132">
+        <v>2.6</v>
+      </c>
+      <c r="W132">
+        <v>1.45</v>
+      </c>
+      <c r="X132">
+        <v>6.75</v>
+      </c>
+      <c r="Y132">
+        <v>1.1</v>
+      </c>
+      <c r="Z132">
+        <v>5.45</v>
+      </c>
+      <c r="AA132">
+        <v>3.97</v>
+      </c>
+      <c r="AB132">
+        <v>1.53</v>
+      </c>
+      <c r="AC132">
+        <v>1.04</v>
+      </c>
+      <c r="AD132">
+        <v>13</v>
+      </c>
+      <c r="AE132">
+        <v>1.24</v>
+      </c>
+      <c r="AF132">
+        <v>3.6</v>
+      </c>
+      <c r="AG132">
+        <v>1.78</v>
+      </c>
+      <c r="AH132">
+        <v>1.95</v>
+      </c>
+      <c r="AI132">
+        <v>1.87</v>
+      </c>
+      <c r="AJ132">
+        <v>1.87</v>
+      </c>
+      <c r="AK132">
+        <v>2.35</v>
+      </c>
+      <c r="AL132">
+        <v>1.19</v>
+      </c>
+      <c r="AM132">
+        <v>1.13</v>
+      </c>
+      <c r="AN132">
+        <v>1.25</v>
+      </c>
+      <c r="AO132">
+        <v>1.75</v>
+      </c>
+      <c r="AP132">
+        <v>1.15</v>
+      </c>
+      <c r="AQ132">
+        <v>1.85</v>
+      </c>
+      <c r="AR132">
+        <v>1.46</v>
+      </c>
+      <c r="AS132">
+        <v>1.42</v>
+      </c>
+      <c r="AT132">
+        <v>2.88</v>
+      </c>
+      <c r="AU132">
+        <v>3</v>
+      </c>
+      <c r="AV132">
+        <v>6</v>
+      </c>
+      <c r="AW132">
+        <v>4</v>
+      </c>
+      <c r="AX132">
+        <v>4</v>
+      </c>
+      <c r="AY132">
+        <v>7</v>
+      </c>
+      <c r="AZ132">
+        <v>10</v>
+      </c>
+      <c r="BA132">
+        <v>3</v>
+      </c>
+      <c r="BB132">
+        <v>7</v>
+      </c>
+      <c r="BC132">
+        <v>10</v>
+      </c>
+      <c r="BD132">
+        <v>3.33</v>
+      </c>
+      <c r="BE132">
+        <v>8.5</v>
+      </c>
+      <c r="BF132">
+        <v>1.45</v>
+      </c>
+      <c r="BG132">
+        <v>1.42</v>
+      </c>
+      <c r="BH132">
+        <v>2.57</v>
+      </c>
+      <c r="BI132">
+        <v>1.82</v>
+      </c>
+      <c r="BJ132">
+        <v>1.98</v>
+      </c>
+      <c r="BK132">
+        <v>2.28</v>
+      </c>
+      <c r="BL132">
+        <v>1.53</v>
+      </c>
+      <c r="BM132">
+        <v>3.14</v>
+      </c>
+      <c r="BN132">
+        <v>1.29</v>
+      </c>
+      <c r="BO132">
+        <v>3.8</v>
+      </c>
+      <c r="BP132">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="133" spans="1:68">
+      <c r="A133" s="1">
+        <v>132</v>
+      </c>
+      <c r="B133">
+        <v>6441822</v>
+      </c>
+      <c r="C133" t="s">
+        <v>68</v>
+      </c>
+      <c r="D133" t="s">
+        <v>69</v>
+      </c>
+      <c r="E133" s="2">
+        <v>45367.54861111111</v>
+      </c>
+      <c r="F133">
+        <v>27</v>
+      </c>
+      <c r="G133" t="s">
+        <v>78</v>
+      </c>
+      <c r="H133" t="s">
+        <v>74</v>
+      </c>
+      <c r="I133">
+        <v>0</v>
+      </c>
+      <c r="J133">
+        <v>1</v>
+      </c>
+      <c r="K133">
+        <v>1</v>
+      </c>
+      <c r="L133">
+        <v>1</v>
+      </c>
+      <c r="M133">
+        <v>2</v>
+      </c>
+      <c r="N133">
+        <v>3</v>
+      </c>
+      <c r="O133" t="s">
+        <v>173</v>
+      </c>
+      <c r="P133" t="s">
+        <v>235</v>
+      </c>
+      <c r="Q133">
+        <v>1.8</v>
+      </c>
+      <c r="R133">
+        <v>2.25</v>
+      </c>
+      <c r="S133">
+        <v>8</v>
+      </c>
+      <c r="T133">
+        <v>1.41</v>
+      </c>
+      <c r="U133">
+        <v>2.78</v>
+      </c>
+      <c r="V133">
+        <v>2.9</v>
+      </c>
+      <c r="W133">
+        <v>1.38</v>
+      </c>
+      <c r="X133">
+        <v>7.5</v>
+      </c>
+      <c r="Y133">
+        <v>1.07</v>
+      </c>
+      <c r="Z133">
+        <v>1.33</v>
+      </c>
+      <c r="AA133">
+        <v>4.33</v>
+      </c>
+      <c r="AB133">
+        <v>8.5</v>
+      </c>
+      <c r="AC133">
+        <v>1.06</v>
+      </c>
+      <c r="AD133">
+        <v>8</v>
+      </c>
+      <c r="AE133">
+        <v>1.3</v>
+      </c>
+      <c r="AF133">
+        <v>3.3</v>
+      </c>
+      <c r="AG133">
+        <v>2</v>
+      </c>
+      <c r="AH133">
+        <v>1.78</v>
+      </c>
+      <c r="AI133">
+        <v>2.35</v>
+      </c>
+      <c r="AJ133">
+        <v>1.55</v>
+      </c>
+      <c r="AK133">
+        <v>1.05</v>
+      </c>
+      <c r="AL133">
+        <v>1.2</v>
+      </c>
+      <c r="AM133">
+        <v>2.9</v>
+      </c>
+      <c r="AN133">
+        <v>2.25</v>
+      </c>
+      <c r="AO133">
+        <v>1.38</v>
+      </c>
+      <c r="AP133">
+        <v>2.08</v>
+      </c>
+      <c r="AQ133">
+        <v>1.5</v>
+      </c>
+      <c r="AR133">
+        <v>1.61</v>
+      </c>
+      <c r="AS133">
+        <v>1.5</v>
+      </c>
+      <c r="AT133">
+        <v>3.11</v>
+      </c>
+      <c r="AU133">
+        <v>4</v>
+      </c>
+      <c r="AV133">
+        <v>6</v>
+      </c>
+      <c r="AW133">
+        <v>4</v>
+      </c>
+      <c r="AX133">
+        <v>7</v>
+      </c>
+      <c r="AY133">
+        <v>8</v>
+      </c>
+      <c r="AZ133">
+        <v>13</v>
+      </c>
+      <c r="BA133">
+        <v>4</v>
+      </c>
+      <c r="BB133">
+        <v>9</v>
+      </c>
+      <c r="BC133">
+        <v>13</v>
+      </c>
+      <c r="BD133">
+        <v>1.18</v>
+      </c>
+      <c r="BE133">
+        <v>11</v>
+      </c>
+      <c r="BF133">
+        <v>6.16</v>
+      </c>
+      <c r="BG133">
+        <v>1.28</v>
+      </c>
+      <c r="BH133">
+        <v>3.2</v>
+      </c>
+      <c r="BI133">
+        <v>1.52</v>
+      </c>
+      <c r="BJ133">
+        <v>2.3</v>
+      </c>
+      <c r="BK133">
+        <v>1.9</v>
+      </c>
+      <c r="BL133">
+        <v>1.8</v>
+      </c>
+      <c r="BM133">
+        <v>2.45</v>
+      </c>
+      <c r="BN133">
+        <v>1.46</v>
+      </c>
+      <c r="BO133">
+        <v>3.34</v>
+      </c>
+      <c r="BP133">
+        <v>1.26</v>
+      </c>
+    </row>
+    <row r="134" spans="1:68">
+      <c r="A134" s="1">
+        <v>133</v>
+      </c>
+      <c r="B134">
+        <v>6441823</v>
+      </c>
+      <c r="C134" t="s">
+        <v>68</v>
+      </c>
+      <c r="D134" t="s">
+        <v>69</v>
+      </c>
+      <c r="E134" s="2">
+        <v>45368.45833333334</v>
+      </c>
+      <c r="F134">
+        <v>27</v>
+      </c>
+      <c r="G134" t="s">
+        <v>76</v>
+      </c>
+      <c r="H134" t="s">
+        <v>73</v>
+      </c>
+      <c r="I134">
+        <v>0</v>
+      </c>
+      <c r="J134">
+        <v>0</v>
+      </c>
+      <c r="K134">
+        <v>0</v>
+      </c>
+      <c r="L134">
+        <v>0</v>
+      </c>
+      <c r="M134">
+        <v>0</v>
+      </c>
+      <c r="N134">
+        <v>0</v>
+      </c>
+      <c r="O134" t="s">
+        <v>87</v>
+      </c>
+      <c r="P134" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q134">
+        <v>2.6</v>
+      </c>
+      <c r="R134">
+        <v>2</v>
+      </c>
+      <c r="S134">
+        <v>4.2</v>
+      </c>
+      <c r="T134">
+        <v>1.47</v>
+      </c>
+      <c r="U134">
+        <v>2.5</v>
+      </c>
+      <c r="V134">
+        <v>3.25</v>
+      </c>
+      <c r="W134">
+        <v>1.3</v>
+      </c>
+      <c r="X134">
+        <v>8.449999999999999</v>
+      </c>
+      <c r="Y134">
+        <v>1.04</v>
+      </c>
+      <c r="Z134">
+        <v>2</v>
+      </c>
+      <c r="AA134">
+        <v>3.3</v>
+      </c>
+      <c r="AB134">
+        <v>3.75</v>
+      </c>
+      <c r="AC134">
+        <v>1.08</v>
+      </c>
+      <c r="AD134">
+        <v>7</v>
+      </c>
+      <c r="AE134">
+        <v>1.4</v>
+      </c>
+      <c r="AF134">
+        <v>2.8</v>
+      </c>
+      <c r="AG134">
+        <v>2.2</v>
+      </c>
+      <c r="AH134">
+        <v>1.62</v>
+      </c>
+      <c r="AI134">
+        <v>1.95</v>
+      </c>
+      <c r="AJ134">
+        <v>1.78</v>
+      </c>
+      <c r="AK134">
+        <v>1.25</v>
+      </c>
+      <c r="AL134">
+        <v>1.25</v>
+      </c>
+      <c r="AM134">
+        <v>1.78</v>
+      </c>
+      <c r="AN134">
+        <v>1.25</v>
+      </c>
+      <c r="AO134">
+        <v>0.75</v>
+      </c>
+      <c r="AP134">
+        <v>1.23</v>
+      </c>
+      <c r="AQ134">
+        <v>0.77</v>
+      </c>
+      <c r="AR134">
+        <v>1.14</v>
+      </c>
+      <c r="AS134">
+        <v>1.29</v>
+      </c>
+      <c r="AT134">
+        <v>2.43</v>
+      </c>
+      <c r="AU134">
+        <v>4</v>
+      </c>
+      <c r="AV134">
+        <v>4</v>
+      </c>
+      <c r="AW134">
+        <v>5</v>
+      </c>
+      <c r="AX134">
+        <v>4</v>
+      </c>
+      <c r="AY134">
+        <v>9</v>
+      </c>
+      <c r="AZ134">
+        <v>8</v>
+      </c>
+      <c r="BA134">
+        <v>8</v>
+      </c>
+      <c r="BB134">
+        <v>1</v>
+      </c>
+      <c r="BC134">
+        <v>9</v>
+      </c>
+      <c r="BD134">
+        <v>1.69</v>
+      </c>
+      <c r="BE134">
+        <v>7.5</v>
+      </c>
+      <c r="BF134">
+        <v>2.66</v>
+      </c>
+      <c r="BG134">
+        <v>1.34</v>
+      </c>
+      <c r="BH134">
+        <v>2.88</v>
+      </c>
+      <c r="BI134">
+        <v>1.8</v>
+      </c>
+      <c r="BJ134">
+        <v>2</v>
+      </c>
+      <c r="BK134">
+        <v>2.09</v>
+      </c>
+      <c r="BL134">
+        <v>1.66</v>
+      </c>
+      <c r="BM134">
+        <v>2.78</v>
+      </c>
+      <c r="BN134">
+        <v>1.36</v>
+      </c>
+      <c r="BO134">
+        <v>3.9</v>
+      </c>
+      <c r="BP134">
+        <v>1.2</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="866" uniqueCount="236">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="237">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -723,6 +723,9 @@
   <si>
     <t>['26', '60']</t>
   </si>
+  <si>
+    <t>['60', '78', '86']</t>
+  </si>
 </sst>
 </file>
 
@@ -1083,7 +1086,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP134"/>
+  <dimension ref="A1:BP135"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2865,7 +2868,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ9">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3068,7 +3071,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AQ10">
         <v>0.83</v>
@@ -5128,7 +5131,7 @@
         <v>3</v>
       </c>
       <c r="AP20">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AQ20">
         <v>2</v>
@@ -6982,7 +6985,7 @@
         <v>0.5</v>
       </c>
       <c r="AP29">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AQ29">
         <v>0.77</v>
@@ -7603,7 +7606,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ32">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AR32">
         <v>2.06</v>
@@ -9660,10 +9663,10 @@
         <v>3</v>
       </c>
       <c r="AP42">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AQ42">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AR42">
         <v>1.73</v>
@@ -10278,7 +10281,7 @@
         <v>1</v>
       </c>
       <c r="AP45">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AQ45">
         <v>1.85</v>
@@ -10487,7 +10490,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ46">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AR46">
         <v>1.9</v>
@@ -11926,7 +11929,7 @@
         <v>0.4</v>
       </c>
       <c r="AP53">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AQ53">
         <v>0.86</v>
@@ -12341,7 +12344,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ55">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AR55">
         <v>1.6</v>
@@ -13162,7 +13165,7 @@
         <v>0.8</v>
       </c>
       <c r="AP59">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AQ59">
         <v>0.92</v>
@@ -14607,7 +14610,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ66">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AR66">
         <v>1.5</v>
@@ -15428,7 +15431,7 @@
         <v>0.71</v>
       </c>
       <c r="AP70">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AQ70">
         <v>0.79</v>
@@ -16049,7 +16052,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ73">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AR73">
         <v>2.26</v>
@@ -17900,7 +17903,7 @@
         <v>1</v>
       </c>
       <c r="AP82">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AQ82">
         <v>1.5</v>
@@ -18109,7 +18112,7 @@
         <v>1.15</v>
       </c>
       <c r="AQ83">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AR83">
         <v>1.43</v>
@@ -21199,7 +21202,7 @@
         <v>1.23</v>
       </c>
       <c r="AQ98">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AR98">
         <v>1.2</v>
@@ -23259,7 +23262,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ108">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AR108">
         <v>1.59</v>
@@ -24286,7 +24289,7 @@
         <v>1.91</v>
       </c>
       <c r="AP113">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AQ113">
         <v>2</v>
@@ -26555,7 +26558,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ124">
-        <v>1.73</v>
+        <v>1.83</v>
       </c>
       <c r="AR124">
         <v>1.86</v>
@@ -26758,7 +26761,7 @@
         <v>0.82</v>
       </c>
       <c r="AP125">
-        <v>0.55</v>
+        <v>0.5</v>
       </c>
       <c r="AQ125">
         <v>0.77</v>
@@ -28633,16 +28636,16 @@
         <v>4</v>
       </c>
       <c r="AW134">
-        <v>5</v>
+        <v>3</v>
       </c>
       <c r="AX134">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="AY134">
-        <v>9</v>
+        <v>7</v>
       </c>
       <c r="AZ134">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="BA134">
         <v>8</v>
@@ -28691,6 +28694,212 @@
       </c>
       <c r="BP134">
         <v>1.2</v>
+      </c>
+    </row>
+    <row r="135" spans="1:68">
+      <c r="A135" s="1">
+        <v>134</v>
+      </c>
+      <c r="B135">
+        <v>6441821</v>
+      </c>
+      <c r="C135" t="s">
+        <v>68</v>
+      </c>
+      <c r="D135" t="s">
+        <v>69</v>
+      </c>
+      <c r="E135" s="2">
+        <v>45368.54861111111</v>
+      </c>
+      <c r="F135">
+        <v>27</v>
+      </c>
+      <c r="G135" t="s">
+        <v>77</v>
+      </c>
+      <c r="H135" t="s">
+        <v>70</v>
+      </c>
+      <c r="I135">
+        <v>0</v>
+      </c>
+      <c r="J135">
+        <v>0</v>
+      </c>
+      <c r="K135">
+        <v>0</v>
+      </c>
+      <c r="L135">
+        <v>0</v>
+      </c>
+      <c r="M135">
+        <v>3</v>
+      </c>
+      <c r="N135">
+        <v>3</v>
+      </c>
+      <c r="O135" t="s">
+        <v>87</v>
+      </c>
+      <c r="P135" t="s">
+        <v>236</v>
+      </c>
+      <c r="Q135">
+        <v>12</v>
+      </c>
+      <c r="R135">
+        <v>2.7</v>
+      </c>
+      <c r="S135">
+        <v>1.5</v>
+      </c>
+      <c r="T135">
+        <v>1.33</v>
+      </c>
+      <c r="U135">
+        <v>3.25</v>
+      </c>
+      <c r="V135">
+        <v>2.38</v>
+      </c>
+      <c r="W135">
+        <v>1.53</v>
+      </c>
+      <c r="X135">
+        <v>5</v>
+      </c>
+      <c r="Y135">
+        <v>1.14</v>
+      </c>
+      <c r="Z135">
+        <v>20</v>
+      </c>
+      <c r="AA135">
+        <v>6.2</v>
+      </c>
+      <c r="AB135">
+        <v>1.14</v>
+      </c>
+      <c r="AC135">
+        <v>1.03</v>
+      </c>
+      <c r="AD135">
+        <v>11</v>
+      </c>
+      <c r="AE135">
+        <v>1.2</v>
+      </c>
+      <c r="AF135">
+        <v>4.33</v>
+      </c>
+      <c r="AG135">
+        <v>1.62</v>
+      </c>
+      <c r="AH135">
+        <v>2.2</v>
+      </c>
+      <c r="AI135">
+        <v>2.62</v>
+      </c>
+      <c r="AJ135">
+        <v>1.44</v>
+      </c>
+      <c r="AK135">
+        <v>5</v>
+      </c>
+      <c r="AL135">
+        <v>1.08</v>
+      </c>
+      <c r="AM135">
+        <v>1.02</v>
+      </c>
+      <c r="AN135">
+        <v>0.55</v>
+      </c>
+      <c r="AO135">
+        <v>1.73</v>
+      </c>
+      <c r="AP135">
+        <v>0.5</v>
+      </c>
+      <c r="AQ135">
+        <v>1.83</v>
+      </c>
+      <c r="AR135">
+        <v>1.39</v>
+      </c>
+      <c r="AS135">
+        <v>1.89</v>
+      </c>
+      <c r="AT135">
+        <v>3.28</v>
+      </c>
+      <c r="AU135">
+        <v>0</v>
+      </c>
+      <c r="AV135">
+        <v>9</v>
+      </c>
+      <c r="AW135">
+        <v>3</v>
+      </c>
+      <c r="AX135">
+        <v>3</v>
+      </c>
+      <c r="AY135">
+        <v>3</v>
+      </c>
+      <c r="AZ135">
+        <v>12</v>
+      </c>
+      <c r="BA135">
+        <v>1</v>
+      </c>
+      <c r="BB135">
+        <v>9</v>
+      </c>
+      <c r="BC135">
+        <v>10</v>
+      </c>
+      <c r="BD135">
+        <v>8.25</v>
+      </c>
+      <c r="BE135">
+        <v>12</v>
+      </c>
+      <c r="BF135">
+        <v>1.11</v>
+      </c>
+      <c r="BG135">
+        <v>1.39</v>
+      </c>
+      <c r="BH135">
+        <v>2.67</v>
+      </c>
+      <c r="BI135">
+        <v>1.72</v>
+      </c>
+      <c r="BJ135">
+        <v>2</v>
+      </c>
+      <c r="BK135">
+        <v>2.19</v>
+      </c>
+      <c r="BL135">
+        <v>1.57</v>
+      </c>
+      <c r="BM135">
+        <v>2.93</v>
+      </c>
+      <c r="BN135">
+        <v>1.33</v>
+      </c>
+      <c r="BO135">
+        <v>3.8</v>
+      </c>
+      <c r="BP135">
+        <v>1.22</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
@@ -28636,16 +28636,16 @@
         <v>4</v>
       </c>
       <c r="AW134">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AX134">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY134">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AZ134">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA134">
         <v>8</v>
@@ -28839,19 +28839,19 @@
         <v>0</v>
       </c>
       <c r="AV135">
-        <v>9</v>
+        <v>16</v>
       </c>
       <c r="AW135">
         <v>3</v>
       </c>
       <c r="AX135">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AY135">
         <v>3</v>
       </c>
       <c r="AZ135">
-        <v>12</v>
+        <v>21</v>
       </c>
       <c r="BA135">
         <v>1</v>

--- a/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="872" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="237">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -1086,7 +1086,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP135"/>
+  <dimension ref="A1:BP137"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2662,7 +2662,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ8">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR8">
         <v>2.02</v>
@@ -2865,7 +2865,7 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AQ9">
         <v>1.83</v>
@@ -3074,7 +3074,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ10">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3689,7 +3689,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AQ13">
         <v>0.07000000000000001</v>
@@ -4513,10 +4513,10 @@
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AQ17">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AR17">
         <v>0.82</v>
@@ -4925,7 +4925,7 @@
         <v>0.5</v>
       </c>
       <c r="AP19">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AQ19">
         <v>0.79</v>
@@ -5546,7 +5546,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ22">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR22">
         <v>2.49</v>
@@ -6164,7 +6164,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ25">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AR25">
         <v>1.89</v>
@@ -6367,7 +6367,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AQ26">
         <v>0.07000000000000001</v>
@@ -6779,10 +6779,10 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AQ28">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR28">
         <v>1.1</v>
@@ -8224,7 +8224,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ35">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AR35">
         <v>2.48</v>
@@ -9045,7 +9045,7 @@
         <v>1.33</v>
       </c>
       <c r="AP39">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AQ39">
         <v>0.77</v>
@@ -9254,7 +9254,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ40">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR40">
         <v>1.89</v>
@@ -9457,7 +9457,7 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AQ41">
         <v>1.85</v>
@@ -10075,10 +10075,10 @@
         <v>1.25</v>
       </c>
       <c r="AP44">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AQ44">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AR44">
         <v>1.11</v>
@@ -10693,10 +10693,10 @@
         <v>0.75</v>
       </c>
       <c r="AP47">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AQ47">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR47">
         <v>1.43</v>
@@ -10899,7 +10899,7 @@
         <v>1</v>
       </c>
       <c r="AP48">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AQ48">
         <v>0.92</v>
@@ -12138,7 +12138,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ54">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR54">
         <v>1.48</v>
@@ -12547,7 +12547,7 @@
         <v>1.5</v>
       </c>
       <c r="AP56">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AQ56">
         <v>1.85</v>
@@ -12756,7 +12756,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ57">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AR57">
         <v>1.76</v>
@@ -12959,7 +12959,7 @@
         <v>1.8</v>
       </c>
       <c r="AP58">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AQ58">
         <v>2</v>
@@ -13786,7 +13786,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ62">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR62">
         <v>1.89</v>
@@ -14198,7 +14198,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ64">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AR64">
         <v>1.49</v>
@@ -14813,7 +14813,7 @@
         <v>0.5</v>
       </c>
       <c r="AP67">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AQ67">
         <v>0.86</v>
@@ -15225,7 +15225,7 @@
         <v>1.14</v>
       </c>
       <c r="AP69">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AQ69">
         <v>0.77</v>
@@ -15640,7 +15640,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ71">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR71">
         <v>1.96</v>
@@ -16670,7 +16670,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ76">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AR76">
         <v>2.04</v>
@@ -16873,7 +16873,7 @@
         <v>2.14</v>
       </c>
       <c r="AP77">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AQ77">
         <v>2</v>
@@ -17285,7 +17285,7 @@
         <v>0.71</v>
       </c>
       <c r="AP79">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AQ79">
         <v>0.92</v>
@@ -17906,7 +17906,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ82">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR82">
         <v>1.42</v>
@@ -18109,7 +18109,7 @@
         <v>1.57</v>
       </c>
       <c r="AP83">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AQ83">
         <v>1.83</v>
@@ -18936,7 +18936,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ87">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AR87">
         <v>1.36</v>
@@ -20378,7 +20378,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ94">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR94">
         <v>1.9</v>
@@ -21199,7 +21199,7 @@
         <v>1.75</v>
       </c>
       <c r="AP98">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AQ98">
         <v>1.83</v>
@@ -21408,7 +21408,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ99">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR99">
         <v>1.31</v>
@@ -22023,7 +22023,7 @@
         <v>0.09</v>
       </c>
       <c r="AP102">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AQ102">
         <v>0.07000000000000001</v>
@@ -23053,10 +23053,10 @@
         <v>1</v>
       </c>
       <c r="AP107">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AQ107">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AR107">
         <v>1.14</v>
@@ -23877,7 +23877,7 @@
         <v>0.82</v>
       </c>
       <c r="AP111">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AQ111">
         <v>0.79</v>
@@ -24086,7 +24086,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ112">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR112">
         <v>2.21</v>
@@ -24910,7 +24910,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ116">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AR116">
         <v>1.58</v>
@@ -25319,7 +25319,7 @@
         <v>0.08</v>
       </c>
       <c r="AP118">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AQ118">
         <v>0.07000000000000001</v>
@@ -25937,10 +25937,10 @@
         <v>1.25</v>
       </c>
       <c r="AP121">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AQ121">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR121">
         <v>1.47</v>
@@ -27588,7 +27588,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ129">
-        <v>0.83</v>
+        <v>1</v>
       </c>
       <c r="AR129">
         <v>2.15</v>
@@ -28203,7 +28203,7 @@
         <v>1.75</v>
       </c>
       <c r="AP132">
-        <v>1.15</v>
+        <v>1.07</v>
       </c>
       <c r="AQ132">
         <v>1.85</v>
@@ -28412,7 +28412,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ133">
-        <v>1.5</v>
+        <v>1.47</v>
       </c>
       <c r="AR133">
         <v>1.61</v>
@@ -28615,7 +28615,7 @@
         <v>0.75</v>
       </c>
       <c r="AP134">
-        <v>1.23</v>
+        <v>1.21</v>
       </c>
       <c r="AQ134">
         <v>0.77</v>
@@ -28900,6 +28900,418 @@
       </c>
       <c r="BP135">
         <v>1.22</v>
+      </c>
+    </row>
+    <row r="136" spans="1:68">
+      <c r="A136" s="1">
+        <v>135</v>
+      </c>
+      <c r="B136">
+        <v>6441825</v>
+      </c>
+      <c r="C136" t="s">
+        <v>68</v>
+      </c>
+      <c r="D136" t="s">
+        <v>69</v>
+      </c>
+      <c r="E136" s="2">
+        <v>45380.49305555555</v>
+      </c>
+      <c r="F136">
+        <v>28</v>
+      </c>
+      <c r="G136" t="s">
+        <v>76</v>
+      </c>
+      <c r="H136" t="s">
+        <v>74</v>
+      </c>
+      <c r="I136">
+        <v>0</v>
+      </c>
+      <c r="J136">
+        <v>0</v>
+      </c>
+      <c r="K136">
+        <v>0</v>
+      </c>
+      <c r="L136">
+        <v>0</v>
+      </c>
+      <c r="M136">
+        <v>0</v>
+      </c>
+      <c r="N136">
+        <v>0</v>
+      </c>
+      <c r="O136" t="s">
+        <v>87</v>
+      </c>
+      <c r="P136" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q136">
+        <v>3.4</v>
+      </c>
+      <c r="R136">
+        <v>2.2</v>
+      </c>
+      <c r="S136">
+        <v>3</v>
+      </c>
+      <c r="T136">
+        <v>1.36</v>
+      </c>
+      <c r="U136">
+        <v>2.85</v>
+      </c>
+      <c r="V136">
+        <v>2.65</v>
+      </c>
+      <c r="W136">
+        <v>1.42</v>
+      </c>
+      <c r="X136">
+        <v>6.45</v>
+      </c>
+      <c r="Y136">
+        <v>1.09</v>
+      </c>
+      <c r="Z136">
+        <v>2.69</v>
+      </c>
+      <c r="AA136">
+        <v>3.15</v>
+      </c>
+      <c r="AB136">
+        <v>2.22</v>
+      </c>
+      <c r="AC136">
+        <v>1.05</v>
+      </c>
+      <c r="AD136">
+        <v>8.5</v>
+      </c>
+      <c r="AE136">
+        <v>1.28</v>
+      </c>
+      <c r="AF136">
+        <v>3.55</v>
+      </c>
+      <c r="AG136">
+        <v>1.76</v>
+      </c>
+      <c r="AH136">
+        <v>1.85</v>
+      </c>
+      <c r="AI136">
+        <v>1.62</v>
+      </c>
+      <c r="AJ136">
+        <v>2.1</v>
+      </c>
+      <c r="AK136">
+        <v>1.55</v>
+      </c>
+      <c r="AL136">
+        <v>1.25</v>
+      </c>
+      <c r="AM136">
+        <v>1.4</v>
+      </c>
+      <c r="AN136">
+        <v>1.23</v>
+      </c>
+      <c r="AO136">
+        <v>1.5</v>
+      </c>
+      <c r="AP136">
+        <v>1.21</v>
+      </c>
+      <c r="AQ136">
+        <v>1.47</v>
+      </c>
+      <c r="AR136">
+        <v>1.17</v>
+      </c>
+      <c r="AS136">
+        <v>1.51</v>
+      </c>
+      <c r="AT136">
+        <v>2.68</v>
+      </c>
+      <c r="AU136">
+        <v>3</v>
+      </c>
+      <c r="AV136">
+        <v>3</v>
+      </c>
+      <c r="AW136">
+        <v>3</v>
+      </c>
+      <c r="AX136">
+        <v>3</v>
+      </c>
+      <c r="AY136">
+        <v>6</v>
+      </c>
+      <c r="AZ136">
+        <v>6</v>
+      </c>
+      <c r="BA136">
+        <v>2</v>
+      </c>
+      <c r="BB136">
+        <v>2</v>
+      </c>
+      <c r="BC136">
+        <v>4</v>
+      </c>
+      <c r="BD136">
+        <v>2.05</v>
+      </c>
+      <c r="BE136">
+        <v>7.5</v>
+      </c>
+      <c r="BF136">
+        <v>2.05</v>
+      </c>
+      <c r="BG136">
+        <v>1.31</v>
+      </c>
+      <c r="BH136">
+        <v>3.15</v>
+      </c>
+      <c r="BI136">
+        <v>1.63</v>
+      </c>
+      <c r="BJ136">
+        <v>2.13</v>
+      </c>
+      <c r="BK136">
+        <v>2.07</v>
+      </c>
+      <c r="BL136">
+        <v>1.67</v>
+      </c>
+      <c r="BM136">
+        <v>2.77</v>
+      </c>
+      <c r="BN136">
+        <v>1.39</v>
+      </c>
+      <c r="BO136">
+        <v>3.7</v>
+      </c>
+      <c r="BP136">
+        <v>1.24</v>
+      </c>
+    </row>
+    <row r="137" spans="1:68">
+      <c r="A137" s="1">
+        <v>136</v>
+      </c>
+      <c r="B137">
+        <v>6441828</v>
+      </c>
+      <c r="C137" t="s">
+        <v>68</v>
+      </c>
+      <c r="D137" t="s">
+        <v>69</v>
+      </c>
+      <c r="E137" s="2">
+        <v>45380.58333333334</v>
+      </c>
+      <c r="F137">
+        <v>28</v>
+      </c>
+      <c r="G137" t="s">
+        <v>79</v>
+      </c>
+      <c r="H137" t="s">
+        <v>72</v>
+      </c>
+      <c r="I137">
+        <v>0</v>
+      </c>
+      <c r="J137">
+        <v>1</v>
+      </c>
+      <c r="K137">
+        <v>1</v>
+      </c>
+      <c r="L137">
+        <v>0</v>
+      </c>
+      <c r="M137">
+        <v>1</v>
+      </c>
+      <c r="N137">
+        <v>1</v>
+      </c>
+      <c r="O137" t="s">
+        <v>87</v>
+      </c>
+      <c r="P137" t="s">
+        <v>184</v>
+      </c>
+      <c r="Q137">
+        <v>3.25</v>
+      </c>
+      <c r="R137">
+        <v>2.2</v>
+      </c>
+      <c r="S137">
+        <v>3.1</v>
+      </c>
+      <c r="T137">
+        <v>1.36</v>
+      </c>
+      <c r="U137">
+        <v>2.9</v>
+      </c>
+      <c r="V137">
+        <v>2.6</v>
+      </c>
+      <c r="W137">
+        <v>1.44</v>
+      </c>
+      <c r="X137">
+        <v>6.35</v>
+      </c>
+      <c r="Y137">
+        <v>1.1</v>
+      </c>
+      <c r="Z137">
+        <v>2.53</v>
+      </c>
+      <c r="AA137">
+        <v>3.23</v>
+      </c>
+      <c r="AB137">
+        <v>2.3</v>
+      </c>
+      <c r="AC137">
+        <v>1.05</v>
+      </c>
+      <c r="AD137">
+        <v>8.5</v>
+      </c>
+      <c r="AE137">
+        <v>1.25</v>
+      </c>
+      <c r="AF137">
+        <v>3.65</v>
+      </c>
+      <c r="AG137">
+        <v>1.72</v>
+      </c>
+      <c r="AH137">
+        <v>1.89</v>
+      </c>
+      <c r="AI137">
+        <v>1.6</v>
+      </c>
+      <c r="AJ137">
+        <v>2.1</v>
+      </c>
+      <c r="AK137">
+        <v>1.62</v>
+      </c>
+      <c r="AL137">
+        <v>1.25</v>
+      </c>
+      <c r="AM137">
+        <v>1.36</v>
+      </c>
+      <c r="AN137">
+        <v>1.15</v>
+      </c>
+      <c r="AO137">
+        <v>0.83</v>
+      </c>
+      <c r="AP137">
+        <v>1.07</v>
+      </c>
+      <c r="AQ137">
+        <v>1</v>
+      </c>
+      <c r="AR137">
+        <v>1.43</v>
+      </c>
+      <c r="AS137">
+        <v>1.28</v>
+      </c>
+      <c r="AT137">
+        <v>2.71</v>
+      </c>
+      <c r="AU137">
+        <v>3</v>
+      </c>
+      <c r="AV137">
+        <v>5</v>
+      </c>
+      <c r="AW137">
+        <v>13</v>
+      </c>
+      <c r="AX137">
+        <v>6</v>
+      </c>
+      <c r="AY137">
+        <v>16</v>
+      </c>
+      <c r="AZ137">
+        <v>11</v>
+      </c>
+      <c r="BA137">
+        <v>6</v>
+      </c>
+      <c r="BB137">
+        <v>3</v>
+      </c>
+      <c r="BC137">
+        <v>9</v>
+      </c>
+      <c r="BD137">
+        <v>2.2</v>
+      </c>
+      <c r="BE137">
+        <v>7.5</v>
+      </c>
+      <c r="BF137">
+        <v>1.91</v>
+      </c>
+      <c r="BG137">
+        <v>1.39</v>
+      </c>
+      <c r="BH137">
+        <v>2.77</v>
+      </c>
+      <c r="BI137">
+        <v>1.73</v>
+      </c>
+      <c r="BJ137">
+        <v>1.99</v>
+      </c>
+      <c r="BK137">
+        <v>2.23</v>
+      </c>
+      <c r="BL137">
+        <v>1.58</v>
+      </c>
+      <c r="BM137">
+        <v>3.05</v>
+      </c>
+      <c r="BN137">
+        <v>1.33</v>
+      </c>
+      <c r="BO137">
+        <v>3.9</v>
+      </c>
+      <c r="BP137">
+        <v>1.21</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="884" uniqueCount="237">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="239">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -538,6 +538,9 @@
     <t>['90+6']</t>
   </si>
   <si>
+    <t>['42', '90']</t>
+  </si>
+  <si>
     <t>['74', '90+3']</t>
   </si>
   <si>
@@ -725,6 +728,9 @@
   </si>
   <si>
     <t>['60', '78', '86']</t>
+  </si>
+  <si>
+    <t>['25', '27', '78', '80']</t>
   </si>
 </sst>
 </file>
@@ -1086,7 +1092,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP137"/>
+  <dimension ref="A1:BP138"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1345,7 +1351,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>174</v>
+        <v>175</v>
       </c>
       <c r="Q2">
         <v>2.36</v>
@@ -2169,7 +2175,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q6">
         <v>2.55</v>
@@ -2375,7 +2381,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q7">
         <v>2.64</v>
@@ -2453,7 +2459,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ7">
         <v>0.86</v>
@@ -2787,7 +2793,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q9">
         <v>5.85</v>
@@ -2993,7 +2999,7 @@
         <v>88</v>
       </c>
       <c r="P10" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -3405,7 +3411,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3611,7 +3617,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q13">
         <v>2.35</v>
@@ -3898,7 +3904,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ14">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AR14">
         <v>1.29</v>
@@ -4307,7 +4313,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ16">
         <v>0.07000000000000001</v>
@@ -4435,7 +4441,7 @@
         <v>94</v>
       </c>
       <c r="P17" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q17">
         <v>3.5</v>
@@ -4847,7 +4853,7 @@
         <v>96</v>
       </c>
       <c r="P19" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q19">
         <v>3.1</v>
@@ -5053,7 +5059,7 @@
         <v>87</v>
       </c>
       <c r="P20" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q20">
         <v>7</v>
@@ -5340,7 +5346,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ21">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AR21">
         <v>2.38</v>
@@ -5465,7 +5471,7 @@
         <v>98</v>
       </c>
       <c r="P22" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q22">
         <v>2.15</v>
@@ -5671,7 +5677,7 @@
         <v>99</v>
       </c>
       <c r="P23" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q23">
         <v>2.29</v>
@@ -5877,7 +5883,7 @@
         <v>100</v>
       </c>
       <c r="P24" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q24">
         <v>4.5</v>
@@ -5955,7 +5961,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ24">
         <v>2</v>
@@ -6083,7 +6089,7 @@
         <v>101</v>
       </c>
       <c r="P25" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q25">
         <v>3.1</v>
@@ -6495,7 +6501,7 @@
         <v>102</v>
       </c>
       <c r="P27" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q27">
         <v>2.14</v>
@@ -6701,7 +6707,7 @@
         <v>87</v>
       </c>
       <c r="P28" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q28">
         <v>3.4</v>
@@ -6907,7 +6913,7 @@
         <v>87</v>
       </c>
       <c r="P29" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q29">
         <v>3.5</v>
@@ -6988,7 +6994,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ29">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AR29">
         <v>1.5</v>
@@ -7113,7 +7119,7 @@
         <v>87</v>
       </c>
       <c r="P30" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q30">
         <v>1.67</v>
@@ -7319,7 +7325,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q31">
         <v>2</v>
@@ -7525,7 +7531,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q32">
         <v>4.75</v>
@@ -8143,7 +8149,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q35">
         <v>2.75</v>
@@ -8349,7 +8355,7 @@
         <v>108</v>
       </c>
       <c r="P36" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q36">
         <v>4.5</v>
@@ -8633,7 +8639,7 @@
         <v>1.25</v>
       </c>
       <c r="AP37">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ37">
         <v>0.79</v>
@@ -8761,7 +8767,7 @@
         <v>110</v>
       </c>
       <c r="P38" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q38">
         <v>2.1</v>
@@ -9048,7 +9054,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ39">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AR39">
         <v>1.41</v>
@@ -9585,7 +9591,7 @@
         <v>112</v>
       </c>
       <c r="P42" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q42">
         <v>8</v>
@@ -9869,10 +9875,10 @@
         <v>1.75</v>
       </c>
       <c r="AP43">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ43">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AR43">
         <v>1.51</v>
@@ -10203,7 +10209,7 @@
         <v>114</v>
       </c>
       <c r="P45" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q45">
         <v>5.75</v>
@@ -10615,7 +10621,7 @@
         <v>87</v>
       </c>
       <c r="P47" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q47">
         <v>3.2</v>
@@ -10821,7 +10827,7 @@
         <v>116</v>
       </c>
       <c r="P48" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q48">
         <v>2.9</v>
@@ -11439,7 +11445,7 @@
         <v>119</v>
       </c>
       <c r="P51" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q51">
         <v>2.9</v>
@@ -11520,7 +11526,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ51">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AR51">
         <v>1.71</v>
@@ -12135,7 +12141,7 @@
         <v>1.2</v>
       </c>
       <c r="AP54">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ54">
         <v>1.47</v>
@@ -12469,7 +12475,7 @@
         <v>122</v>
       </c>
       <c r="P56" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -12675,7 +12681,7 @@
         <v>87</v>
       </c>
       <c r="P57" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q57">
         <v>2.25</v>
@@ -12881,7 +12887,7 @@
         <v>87</v>
       </c>
       <c r="P58" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q58">
         <v>5.8</v>
@@ -13293,7 +13299,7 @@
         <v>123</v>
       </c>
       <c r="P60" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q60">
         <v>2.1</v>
@@ -13580,7 +13586,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ61">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AR61">
         <v>2.24</v>
@@ -13705,7 +13711,7 @@
         <v>125</v>
       </c>
       <c r="P62" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q62">
         <v>1.68</v>
@@ -14529,7 +14535,7 @@
         <v>129</v>
       </c>
       <c r="P66" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q66">
         <v>6.5</v>
@@ -14607,7 +14613,7 @@
         <v>1.8</v>
       </c>
       <c r="AP66">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ66">
         <v>1.83</v>
@@ -14941,7 +14947,7 @@
         <v>87</v>
       </c>
       <c r="P68" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q68">
         <v>3.1</v>
@@ -15228,7 +15234,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ69">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AR69">
         <v>1.4</v>
@@ -15353,7 +15359,7 @@
         <v>87</v>
       </c>
       <c r="P70" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q70">
         <v>3.4</v>
@@ -15559,7 +15565,7 @@
         <v>131</v>
       </c>
       <c r="P71" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q71">
         <v>2.4</v>
@@ -15971,7 +15977,7 @@
         <v>133</v>
       </c>
       <c r="P73" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q73">
         <v>3.3</v>
@@ -16177,7 +16183,7 @@
         <v>134</v>
       </c>
       <c r="P74" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q74">
         <v>2.2</v>
@@ -16383,7 +16389,7 @@
         <v>87</v>
       </c>
       <c r="P75" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q75">
         <v>4.5</v>
@@ -16461,7 +16467,7 @@
         <v>1.33</v>
       </c>
       <c r="AP75">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ75">
         <v>1.85</v>
@@ -16589,7 +16595,7 @@
         <v>135</v>
       </c>
       <c r="P76" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q76">
         <v>1.91</v>
@@ -16795,7 +16801,7 @@
         <v>87</v>
       </c>
       <c r="P77" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q77">
         <v>6.5</v>
@@ -17700,7 +17706,7 @@
         <v>2.08</v>
       </c>
       <c r="AQ81">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AR81">
         <v>1.74</v>
@@ -18031,7 +18037,7 @@
         <v>87</v>
       </c>
       <c r="P83" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q83">
         <v>8</v>
@@ -18237,7 +18243,7 @@
         <v>139</v>
       </c>
       <c r="P84" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q84">
         <v>5.2</v>
@@ -18855,7 +18861,7 @@
         <v>140</v>
       </c>
       <c r="P87" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q87">
         <v>3.75</v>
@@ -18933,7 +18939,7 @@
         <v>1</v>
       </c>
       <c r="AP87">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ87">
         <v>1</v>
@@ -19061,7 +19067,7 @@
         <v>141</v>
       </c>
       <c r="P88" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q88">
         <v>1.73</v>
@@ -19267,7 +19273,7 @@
         <v>142</v>
       </c>
       <c r="P89" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q89">
         <v>2.5</v>
@@ -19885,7 +19891,7 @@
         <v>145</v>
       </c>
       <c r="P92" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q92">
         <v>2.25</v>
@@ -20297,7 +20303,7 @@
         <v>87</v>
       </c>
       <c r="P94" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q94">
         <v>1.71</v>
@@ -20503,7 +20509,7 @@
         <v>146</v>
       </c>
       <c r="P95" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q95">
         <v>3.6</v>
@@ -20709,7 +20715,7 @@
         <v>147</v>
       </c>
       <c r="P96" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q96">
         <v>2.6</v>
@@ -20787,7 +20793,7 @@
         <v>0.9</v>
       </c>
       <c r="AP96">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ96">
         <v>0.86</v>
@@ -21327,7 +21333,7 @@
         <v>149</v>
       </c>
       <c r="P99" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q99">
         <v>3.1</v>
@@ -21533,7 +21539,7 @@
         <v>150</v>
       </c>
       <c r="P100" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q100">
         <v>2.2</v>
@@ -22151,7 +22157,7 @@
         <v>152</v>
       </c>
       <c r="P103" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q103">
         <v>3.9</v>
@@ -22644,7 +22650,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ105">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AR105">
         <v>1.92</v>
@@ -22847,7 +22853,7 @@
         <v>0.08</v>
       </c>
       <c r="AP106">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ106">
         <v>0.07000000000000001</v>
@@ -23181,7 +23187,7 @@
         <v>157</v>
       </c>
       <c r="P108" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q108">
         <v>5</v>
@@ -23593,7 +23599,7 @@
         <v>87</v>
       </c>
       <c r="P110" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q110">
         <v>4.75</v>
@@ -23799,7 +23805,7 @@
         <v>110</v>
       </c>
       <c r="P111" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q111">
         <v>2.6</v>
@@ -24211,7 +24217,7 @@
         <v>87</v>
       </c>
       <c r="P113" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q113">
         <v>9</v>
@@ -24498,7 +24504,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ114">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AR114">
         <v>1.84</v>
@@ -24829,7 +24835,7 @@
         <v>162</v>
       </c>
       <c r="P116" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q116">
         <v>2.8</v>
@@ -25035,7 +25041,7 @@
         <v>163</v>
       </c>
       <c r="P117" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q117">
         <v>4.4</v>
@@ -25113,7 +25119,7 @@
         <v>2</v>
       </c>
       <c r="AP117">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ117">
         <v>2</v>
@@ -25241,7 +25247,7 @@
         <v>164</v>
       </c>
       <c r="P118" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q118">
         <v>1.95</v>
@@ -25859,7 +25865,7 @@
         <v>166</v>
       </c>
       <c r="P121" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q121">
         <v>3.3</v>
@@ -26477,7 +26483,7 @@
         <v>113</v>
       </c>
       <c r="P124" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q124">
         <v>4.2</v>
@@ -26764,7 +26770,7 @@
         <v>0.5</v>
       </c>
       <c r="AQ125">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AR125">
         <v>1.41</v>
@@ -26889,7 +26895,7 @@
         <v>169</v>
       </c>
       <c r="P126" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q126">
         <v>2.6</v>
@@ -26967,7 +26973,7 @@
         <v>0.77</v>
       </c>
       <c r="AP126">
-        <v>1.38</v>
+        <v>1.29</v>
       </c>
       <c r="AQ126">
         <v>0.79</v>
@@ -27301,7 +27307,7 @@
         <v>87</v>
       </c>
       <c r="P128" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q128">
         <v>6</v>
@@ -27713,7 +27719,7 @@
         <v>172</v>
       </c>
       <c r="P130" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q130">
         <v>1.62</v>
@@ -27919,7 +27925,7 @@
         <v>87</v>
       </c>
       <c r="P131" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q131">
         <v>2.1</v>
@@ -28331,7 +28337,7 @@
         <v>173</v>
       </c>
       <c r="P133" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q133">
         <v>1.8</v>
@@ -28618,7 +28624,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ134">
-        <v>0.77</v>
+        <v>0.93</v>
       </c>
       <c r="AR134">
         <v>1.14</v>
@@ -28743,7 +28749,7 @@
         <v>87</v>
       </c>
       <c r="P135" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q135">
         <v>12</v>
@@ -29155,7 +29161,7 @@
         <v>87</v>
       </c>
       <c r="P137" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q137">
         <v>3.25</v>
@@ -29248,22 +29254,22 @@
         <v>2.71</v>
       </c>
       <c r="AU137">
-        <v>3</v>
+        <v>2</v>
       </c>
       <c r="AV137">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="AW137">
-        <v>13</v>
+        <v>8</v>
       </c>
       <c r="AX137">
         <v>6</v>
       </c>
       <c r="AY137">
-        <v>16</v>
+        <v>10</v>
       </c>
       <c r="AZ137">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="BA137">
         <v>6</v>
@@ -29312,6 +29318,212 @@
       </c>
       <c r="BP137">
         <v>1.21</v>
+      </c>
+    </row>
+    <row r="138" spans="1:68">
+      <c r="A138" s="1">
+        <v>137</v>
+      </c>
+      <c r="B138">
+        <v>6441824</v>
+      </c>
+      <c r="C138" t="s">
+        <v>68</v>
+      </c>
+      <c r="D138" t="s">
+        <v>69</v>
+      </c>
+      <c r="E138" s="2">
+        <v>45381.45138888889</v>
+      </c>
+      <c r="F138">
+        <v>28</v>
+      </c>
+      <c r="G138" t="s">
+        <v>75</v>
+      </c>
+      <c r="H138" t="s">
+        <v>73</v>
+      </c>
+      <c r="I138">
+        <v>1</v>
+      </c>
+      <c r="J138">
+        <v>2</v>
+      </c>
+      <c r="K138">
+        <v>3</v>
+      </c>
+      <c r="L138">
+        <v>2</v>
+      </c>
+      <c r="M138">
+        <v>4</v>
+      </c>
+      <c r="N138">
+        <v>6</v>
+      </c>
+      <c r="O138" t="s">
+        <v>174</v>
+      </c>
+      <c r="P138" t="s">
+        <v>238</v>
+      </c>
+      <c r="Q138">
+        <v>3</v>
+      </c>
+      <c r="R138">
+        <v>2.1</v>
+      </c>
+      <c r="S138">
+        <v>3.6</v>
+      </c>
+      <c r="T138">
+        <v>1.4</v>
+      </c>
+      <c r="U138">
+        <v>2.75</v>
+      </c>
+      <c r="V138">
+        <v>2.8</v>
+      </c>
+      <c r="W138">
+        <v>1.38</v>
+      </c>
+      <c r="X138">
+        <v>6.95</v>
+      </c>
+      <c r="Y138">
+        <v>1.07</v>
+      </c>
+      <c r="Z138">
+        <v>2.17</v>
+      </c>
+      <c r="AA138">
+        <v>3.15</v>
+      </c>
+      <c r="AB138">
+        <v>2.76</v>
+      </c>
+      <c r="AC138">
+        <v>1.05</v>
+      </c>
+      <c r="AD138">
+        <v>8.5</v>
+      </c>
+      <c r="AE138">
+        <v>1.3</v>
+      </c>
+      <c r="AF138">
+        <v>3.35</v>
+      </c>
+      <c r="AG138">
+        <v>1.85</v>
+      </c>
+      <c r="AH138">
+        <v>1.76</v>
+      </c>
+      <c r="AI138">
+        <v>1.7</v>
+      </c>
+      <c r="AJ138">
+        <v>1.95</v>
+      </c>
+      <c r="AK138">
+        <v>1.38</v>
+      </c>
+      <c r="AL138">
+        <v>1.25</v>
+      </c>
+      <c r="AM138">
+        <v>1.6</v>
+      </c>
+      <c r="AN138">
+        <v>1.38</v>
+      </c>
+      <c r="AO138">
+        <v>0.77</v>
+      </c>
+      <c r="AP138">
+        <v>1.29</v>
+      </c>
+      <c r="AQ138">
+        <v>0.93</v>
+      </c>
+      <c r="AR138">
+        <v>1.3</v>
+      </c>
+      <c r="AS138">
+        <v>1.27</v>
+      </c>
+      <c r="AT138">
+        <v>2.57</v>
+      </c>
+      <c r="AU138">
+        <v>7</v>
+      </c>
+      <c r="AV138">
+        <v>6</v>
+      </c>
+      <c r="AW138">
+        <v>7</v>
+      </c>
+      <c r="AX138">
+        <v>0</v>
+      </c>
+      <c r="AY138">
+        <v>14</v>
+      </c>
+      <c r="AZ138">
+        <v>6</v>
+      </c>
+      <c r="BA138">
+        <v>9</v>
+      </c>
+      <c r="BB138">
+        <v>2</v>
+      </c>
+      <c r="BC138">
+        <v>11</v>
+      </c>
+      <c r="BD138">
+        <v>1.85</v>
+      </c>
+      <c r="BE138">
+        <v>7.5</v>
+      </c>
+      <c r="BF138">
+        <v>2.33</v>
+      </c>
+      <c r="BG138">
+        <v>1.36</v>
+      </c>
+      <c r="BH138">
+        <v>2.9</v>
+      </c>
+      <c r="BI138">
+        <v>1.67</v>
+      </c>
+      <c r="BJ138">
+        <v>2.07</v>
+      </c>
+      <c r="BK138">
+        <v>2.13</v>
+      </c>
+      <c r="BL138">
+        <v>1.63</v>
+      </c>
+      <c r="BM138">
+        <v>2.9</v>
+      </c>
+      <c r="BN138">
+        <v>1.36</v>
+      </c>
+      <c r="BO138">
+        <v>3.6</v>
+      </c>
+      <c r="BP138">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="890" uniqueCount="239">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="240">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -732,6 +732,9 @@
   <si>
     <t>['25', '27', '78', '80']</t>
   </si>
+  <si>
+    <t>['9', '53', '56']</t>
+  </si>
 </sst>
 </file>
 
@@ -1092,7 +1095,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP138"/>
+  <dimension ref="A1:BP140"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2874,7 +2877,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ9">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3077,7 +3080,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AQ10">
         <v>1</v>
@@ -3283,10 +3286,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AQ11">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -4725,7 +4728,7 @@
         <v>0.5</v>
       </c>
       <c r="AP18">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AQ18">
         <v>0.86</v>
@@ -5137,7 +5140,7 @@
         <v>3</v>
       </c>
       <c r="AP20">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AQ20">
         <v>2</v>
@@ -6582,7 +6585,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ27">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AR27">
         <v>1.7</v>
@@ -6991,7 +6994,7 @@
         <v>0.5</v>
       </c>
       <c r="AP29">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AQ29">
         <v>0.93</v>
@@ -7197,7 +7200,7 @@
         <v>0.67</v>
       </c>
       <c r="AP30">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AQ30">
         <v>0.79</v>
@@ -7612,7 +7615,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ32">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AR32">
         <v>2.06</v>
@@ -9257,7 +9260,7 @@
         <v>1</v>
       </c>
       <c r="AP40">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AQ40">
         <v>1.47</v>
@@ -9466,7 +9469,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ41">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AR41">
         <v>1.05</v>
@@ -9669,10 +9672,10 @@
         <v>3</v>
       </c>
       <c r="AP42">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AQ42">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AR42">
         <v>1.73</v>
@@ -10287,10 +10290,10 @@
         <v>1</v>
       </c>
       <c r="AP45">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AQ45">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AR45">
         <v>1.46</v>
@@ -10493,10 +10496,10 @@
         <v>3</v>
       </c>
       <c r="AP46">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AQ46">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AR46">
         <v>1.9</v>
@@ -11935,7 +11938,7 @@
         <v>0.4</v>
       </c>
       <c r="AP53">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AQ53">
         <v>0.86</v>
@@ -12350,7 +12353,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ55">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AR55">
         <v>1.6</v>
@@ -12556,7 +12559,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ56">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AR56">
         <v>1.41</v>
@@ -12759,7 +12762,7 @@
         <v>1</v>
       </c>
       <c r="AP57">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AQ57">
         <v>1</v>
@@ -13171,7 +13174,7 @@
         <v>0.8</v>
       </c>
       <c r="AP59">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AQ59">
         <v>0.92</v>
@@ -13998,7 +14001,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ63">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AR63">
         <v>1.67</v>
@@ -14407,7 +14410,7 @@
         <v>0.17</v>
       </c>
       <c r="AP65">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AQ65">
         <v>0.07000000000000001</v>
@@ -14616,7 +14619,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ66">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AR66">
         <v>1.5</v>
@@ -15437,7 +15440,7 @@
         <v>0.71</v>
       </c>
       <c r="AP70">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AQ70">
         <v>0.79</v>
@@ -15849,7 +15852,7 @@
         <v>0.83</v>
       </c>
       <c r="AP72">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AQ72">
         <v>0.92</v>
@@ -16058,7 +16061,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ73">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AR73">
         <v>2.26</v>
@@ -16470,7 +16473,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ75">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AR75">
         <v>1.4</v>
@@ -17500,7 +17503,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ80">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AR80">
         <v>1.97</v>
@@ -17703,7 +17706,7 @@
         <v>1.13</v>
       </c>
       <c r="AP81">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AQ81">
         <v>0.93</v>
@@ -17909,7 +17912,7 @@
         <v>1</v>
       </c>
       <c r="AP82">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AQ82">
         <v>1.47</v>
@@ -18118,7 +18121,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ83">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AR83">
         <v>1.43</v>
@@ -20590,7 +20593,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ95">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AR95">
         <v>1.36</v>
@@ -21208,7 +21211,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ98">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AR98">
         <v>1.2</v>
@@ -21617,10 +21620,10 @@
         <v>1.67</v>
       </c>
       <c r="AP100">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AQ100">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AR100">
         <v>1.75</v>
@@ -23268,7 +23271,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ108">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AR108">
         <v>1.59</v>
@@ -23471,7 +23474,7 @@
         <v>1.09</v>
       </c>
       <c r="AP109">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AQ109">
         <v>0.86</v>
@@ -23680,7 +23683,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ110">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AR110">
         <v>1.27</v>
@@ -24295,7 +24298,7 @@
         <v>1.91</v>
       </c>
       <c r="AP113">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AQ113">
         <v>2</v>
@@ -25534,7 +25537,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ119">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AR119">
         <v>1.95</v>
@@ -26149,7 +26152,7 @@
         <v>0.83</v>
       </c>
       <c r="AP122">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AQ122">
         <v>0.79</v>
@@ -26564,7 +26567,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ124">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AR124">
         <v>1.86</v>
@@ -26767,7 +26770,7 @@
         <v>0.82</v>
       </c>
       <c r="AP125">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AQ125">
         <v>0.93</v>
@@ -28212,7 +28215,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ132">
-        <v>1.85</v>
+        <v>1.93</v>
       </c>
       <c r="AR132">
         <v>1.46</v>
@@ -28415,7 +28418,7 @@
         <v>1.38</v>
       </c>
       <c r="AP133">
-        <v>2.08</v>
+        <v>1.93</v>
       </c>
       <c r="AQ133">
         <v>1.47</v>
@@ -28827,10 +28830,10 @@
         <v>1.73</v>
       </c>
       <c r="AP135">
-        <v>0.5</v>
+        <v>0.46</v>
       </c>
       <c r="AQ135">
-        <v>1.83</v>
+        <v>1.92</v>
       </c>
       <c r="AR135">
         <v>1.39</v>
@@ -29254,22 +29257,22 @@
         <v>2.71</v>
       </c>
       <c r="AU137">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AV137">
-        <v>2</v>
+        <v>5</v>
       </c>
       <c r="AW137">
-        <v>8</v>
+        <v>13</v>
       </c>
       <c r="AX137">
         <v>6</v>
       </c>
       <c r="AY137">
-        <v>10</v>
+        <v>16</v>
       </c>
       <c r="AZ137">
-        <v>8</v>
+        <v>11</v>
       </c>
       <c r="BA137">
         <v>6</v>
@@ -29460,22 +29463,22 @@
         <v>2.57</v>
       </c>
       <c r="AU138">
-        <v>7</v>
+        <v>6</v>
       </c>
       <c r="AV138">
         <v>6</v>
       </c>
       <c r="AW138">
+        <v>6</v>
+      </c>
+      <c r="AX138">
+        <v>1</v>
+      </c>
+      <c r="AY138">
+        <v>12</v>
+      </c>
+      <c r="AZ138">
         <v>7</v>
-      </c>
-      <c r="AX138">
-        <v>0</v>
-      </c>
-      <c r="AY138">
-        <v>14</v>
-      </c>
-      <c r="AZ138">
-        <v>6</v>
       </c>
       <c r="BA138">
         <v>9</v>
@@ -29524,6 +29527,418 @@
       </c>
       <c r="BP138">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="139" spans="1:68">
+      <c r="A139" s="1">
+        <v>138</v>
+      </c>
+      <c r="B139">
+        <v>6441827</v>
+      </c>
+      <c r="C139" t="s">
+        <v>68</v>
+      </c>
+      <c r="D139" t="s">
+        <v>69</v>
+      </c>
+      <c r="E139" s="2">
+        <v>45381.54166666666</v>
+      </c>
+      <c r="F139">
+        <v>28</v>
+      </c>
+      <c r="G139" t="s">
+        <v>77</v>
+      </c>
+      <c r="H139" t="s">
+        <v>71</v>
+      </c>
+      <c r="I139">
+        <v>0</v>
+      </c>
+      <c r="J139">
+        <v>1</v>
+      </c>
+      <c r="K139">
+        <v>1</v>
+      </c>
+      <c r="L139">
+        <v>0</v>
+      </c>
+      <c r="M139">
+        <v>3</v>
+      </c>
+      <c r="N139">
+        <v>3</v>
+      </c>
+      <c r="O139" t="s">
+        <v>87</v>
+      </c>
+      <c r="P139" t="s">
+        <v>239</v>
+      </c>
+      <c r="Q139">
+        <v>10</v>
+      </c>
+      <c r="R139">
+        <v>2.63</v>
+      </c>
+      <c r="S139">
+        <v>1.62</v>
+      </c>
+      <c r="T139">
+        <v>1.29</v>
+      </c>
+      <c r="U139">
+        <v>3.25</v>
+      </c>
+      <c r="V139">
+        <v>2.5</v>
+      </c>
+      <c r="W139">
+        <v>1.5</v>
+      </c>
+      <c r="X139">
+        <v>6</v>
+      </c>
+      <c r="Y139">
+        <v>1.11</v>
+      </c>
+      <c r="Z139">
+        <v>9.33</v>
+      </c>
+      <c r="AA139">
+        <v>5.13</v>
+      </c>
+      <c r="AB139">
+        <v>1.17</v>
+      </c>
+      <c r="AC139">
+        <v>1.01</v>
+      </c>
+      <c r="AD139">
+        <v>15</v>
+      </c>
+      <c r="AE139">
+        <v>1.17</v>
+      </c>
+      <c r="AF139">
+        <v>4.5</v>
+      </c>
+      <c r="AG139">
+        <v>1.62</v>
+      </c>
+      <c r="AH139">
+        <v>2.25</v>
+      </c>
+      <c r="AI139">
+        <v>2.1</v>
+      </c>
+      <c r="AJ139">
+        <v>1.7</v>
+      </c>
+      <c r="AK139">
+        <v>4.33</v>
+      </c>
+      <c r="AL139">
+        <v>1.12</v>
+      </c>
+      <c r="AM139">
+        <v>1.05</v>
+      </c>
+      <c r="AN139">
+        <v>0.5</v>
+      </c>
+      <c r="AO139">
+        <v>1.85</v>
+      </c>
+      <c r="AP139">
+        <v>0.46</v>
+      </c>
+      <c r="AQ139">
+        <v>1.93</v>
+      </c>
+      <c r="AR139">
+        <v>1.31</v>
+      </c>
+      <c r="AS139">
+        <v>1.43</v>
+      </c>
+      <c r="AT139">
+        <v>2.74</v>
+      </c>
+      <c r="AU139">
+        <v>5</v>
+      </c>
+      <c r="AV139">
+        <v>8</v>
+      </c>
+      <c r="AW139">
+        <v>1</v>
+      </c>
+      <c r="AX139">
+        <v>11</v>
+      </c>
+      <c r="AY139">
+        <v>6</v>
+      </c>
+      <c r="AZ139">
+        <v>19</v>
+      </c>
+      <c r="BA139">
+        <v>2</v>
+      </c>
+      <c r="BB139">
+        <v>9</v>
+      </c>
+      <c r="BC139">
+        <v>11</v>
+      </c>
+      <c r="BD139">
+        <v>6.16</v>
+      </c>
+      <c r="BE139">
+        <v>11</v>
+      </c>
+      <c r="BF139">
+        <v>1.18</v>
+      </c>
+      <c r="BG139">
+        <v>1.36</v>
+      </c>
+      <c r="BH139">
+        <v>2.9</v>
+      </c>
+      <c r="BI139">
+        <v>1.73</v>
+      </c>
+      <c r="BJ139">
+        <v>1.99</v>
+      </c>
+      <c r="BK139">
+        <v>2.23</v>
+      </c>
+      <c r="BL139">
+        <v>1.58</v>
+      </c>
+      <c r="BM139">
+        <v>3.05</v>
+      </c>
+      <c r="BN139">
+        <v>1.33</v>
+      </c>
+      <c r="BO139">
+        <v>3.8</v>
+      </c>
+      <c r="BP139">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="140" spans="1:68">
+      <c r="A140" s="1">
+        <v>139</v>
+      </c>
+      <c r="B140">
+        <v>6441826</v>
+      </c>
+      <c r="C140" t="s">
+        <v>68</v>
+      </c>
+      <c r="D140" t="s">
+        <v>69</v>
+      </c>
+      <c r="E140" s="2">
+        <v>45381.64583333334</v>
+      </c>
+      <c r="F140">
+        <v>28</v>
+      </c>
+      <c r="G140" t="s">
+        <v>78</v>
+      </c>
+      <c r="H140" t="s">
+        <v>70</v>
+      </c>
+      <c r="I140">
+        <v>0</v>
+      </c>
+      <c r="J140">
+        <v>1</v>
+      </c>
+      <c r="K140">
+        <v>1</v>
+      </c>
+      <c r="L140">
+        <v>0</v>
+      </c>
+      <c r="M140">
+        <v>1</v>
+      </c>
+      <c r="N140">
+        <v>1</v>
+      </c>
+      <c r="O140" t="s">
+        <v>87</v>
+      </c>
+      <c r="P140" t="s">
+        <v>230</v>
+      </c>
+      <c r="Q140">
+        <v>3.2</v>
+      </c>
+      <c r="R140">
+        <v>2.1</v>
+      </c>
+      <c r="S140">
+        <v>3.4</v>
+      </c>
+      <c r="T140">
+        <v>1.4</v>
+      </c>
+      <c r="U140">
+        <v>2.75</v>
+      </c>
+      <c r="V140">
+        <v>2.88</v>
+      </c>
+      <c r="W140">
+        <v>1.36</v>
+      </c>
+      <c r="X140">
+        <v>7.2</v>
+      </c>
+      <c r="Y140">
+        <v>1.08</v>
+      </c>
+      <c r="Z140">
+        <v>2.31</v>
+      </c>
+      <c r="AA140">
+        <v>3.23</v>
+      </c>
+      <c r="AB140">
+        <v>2.51</v>
+      </c>
+      <c r="AC140">
+        <v>1.05</v>
+      </c>
+      <c r="AD140">
+        <v>8.5</v>
+      </c>
+      <c r="AE140">
+        <v>1.3</v>
+      </c>
+      <c r="AF140">
+        <v>3.35</v>
+      </c>
+      <c r="AG140">
+        <v>1.85</v>
+      </c>
+      <c r="AH140">
+        <v>1.76</v>
+      </c>
+      <c r="AI140">
+        <v>1.7</v>
+      </c>
+      <c r="AJ140">
+        <v>1.95</v>
+      </c>
+      <c r="AK140">
+        <v>1.45</v>
+      </c>
+      <c r="AL140">
+        <v>1.25</v>
+      </c>
+      <c r="AM140">
+        <v>1.5</v>
+      </c>
+      <c r="AN140">
+        <v>2.08</v>
+      </c>
+      <c r="AO140">
+        <v>1.83</v>
+      </c>
+      <c r="AP140">
+        <v>1.93</v>
+      </c>
+      <c r="AQ140">
+        <v>1.92</v>
+      </c>
+      <c r="AR140">
+        <v>1.59</v>
+      </c>
+      <c r="AS140">
+        <v>2</v>
+      </c>
+      <c r="AT140">
+        <v>3.59</v>
+      </c>
+      <c r="AU140">
+        <v>3</v>
+      </c>
+      <c r="AV140">
+        <v>3</v>
+      </c>
+      <c r="AW140">
+        <v>7</v>
+      </c>
+      <c r="AX140">
+        <v>5</v>
+      </c>
+      <c r="AY140">
+        <v>10</v>
+      </c>
+      <c r="AZ140">
+        <v>8</v>
+      </c>
+      <c r="BA140">
+        <v>2</v>
+      </c>
+      <c r="BB140">
+        <v>4</v>
+      </c>
+      <c r="BC140">
+        <v>6</v>
+      </c>
+      <c r="BD140">
+        <v>1.95</v>
+      </c>
+      <c r="BE140">
+        <v>7.5</v>
+      </c>
+      <c r="BF140">
+        <v>2.1</v>
+      </c>
+      <c r="BG140">
+        <v>1.46</v>
+      </c>
+      <c r="BH140">
+        <v>2.52</v>
+      </c>
+      <c r="BI140">
+        <v>1.88</v>
+      </c>
+      <c r="BJ140">
+        <v>1.92</v>
+      </c>
+      <c r="BK140">
+        <v>2.45</v>
+      </c>
+      <c r="BL140">
+        <v>1.49</v>
+      </c>
+      <c r="BM140">
+        <v>3.35</v>
+      </c>
+      <c r="BN140">
+        <v>1.28</v>
+      </c>
+      <c r="BO140">
+        <v>4.3</v>
+      </c>
+      <c r="BP140">
+        <v>1.18</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
@@ -29875,22 +29875,22 @@
         <v>3.59</v>
       </c>
       <c r="AU140">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AV140">
         <v>3</v>
       </c>
       <c r="AW140">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="AX140">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AY140">
-        <v>10</v>
+        <v>14</v>
       </c>
       <c r="AZ140">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BA140">
         <v>2</v>

--- a/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="902" uniqueCount="240">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="242">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -541,6 +541,9 @@
     <t>['42', '90']</t>
   </si>
   <si>
+    <t>['11', '79']</t>
+  </si>
+  <si>
     <t>['74', '90+3']</t>
   </si>
   <si>
@@ -734,6 +737,9 @@
   </si>
   <si>
     <t>['9', '53', '56']</t>
+  </si>
+  <si>
+    <t>['35', '56', '59']</t>
   </si>
 </sst>
 </file>
@@ -1095,7 +1101,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP140"/>
+  <dimension ref="A1:BP141"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1354,7 +1360,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>175</v>
+        <v>176</v>
       </c>
       <c r="Q2">
         <v>2.36</v>
@@ -2178,7 +2184,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q6">
         <v>2.55</v>
@@ -2384,7 +2390,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>177</v>
+        <v>178</v>
       </c>
       <c r="Q7">
         <v>2.64</v>
@@ -2796,7 +2802,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q9">
         <v>5.85</v>
@@ -3002,7 +3008,7 @@
         <v>88</v>
       </c>
       <c r="P10" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -3080,10 +3086,10 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AQ10">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3414,7 +3420,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3620,7 +3626,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q13">
         <v>2.35</v>
@@ -4444,7 +4450,7 @@
         <v>94</v>
       </c>
       <c r="P17" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q17">
         <v>3.5</v>
@@ -4525,7 +4531,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ17">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AR17">
         <v>0.82</v>
@@ -4856,7 +4862,7 @@
         <v>96</v>
       </c>
       <c r="P19" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q19">
         <v>3.1</v>
@@ -5062,7 +5068,7 @@
         <v>87</v>
       </c>
       <c r="P20" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q20">
         <v>7</v>
@@ -5140,7 +5146,7 @@
         <v>3</v>
       </c>
       <c r="AP20">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AQ20">
         <v>2</v>
@@ -5474,7 +5480,7 @@
         <v>98</v>
       </c>
       <c r="P22" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q22">
         <v>2.15</v>
@@ -5680,7 +5686,7 @@
         <v>99</v>
       </c>
       <c r="P23" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q23">
         <v>2.29</v>
@@ -5886,7 +5892,7 @@
         <v>100</v>
       </c>
       <c r="P24" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q24">
         <v>4.5</v>
@@ -6092,7 +6098,7 @@
         <v>101</v>
       </c>
       <c r="P25" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q25">
         <v>3.1</v>
@@ -6173,7 +6179,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ25">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AR25">
         <v>1.89</v>
@@ -6504,7 +6510,7 @@
         <v>102</v>
       </c>
       <c r="P27" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q27">
         <v>2.14</v>
@@ -6710,7 +6716,7 @@
         <v>87</v>
       </c>
       <c r="P28" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q28">
         <v>3.4</v>
@@ -6916,7 +6922,7 @@
         <v>87</v>
       </c>
       <c r="P29" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q29">
         <v>3.5</v>
@@ -6994,7 +7000,7 @@
         <v>0.5</v>
       </c>
       <c r="AP29">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AQ29">
         <v>0.93</v>
@@ -7122,7 +7128,7 @@
         <v>87</v>
       </c>
       <c r="P30" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q30">
         <v>1.67</v>
@@ -7328,7 +7334,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q31">
         <v>2</v>
@@ -7534,7 +7540,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q32">
         <v>4.75</v>
@@ -8152,7 +8158,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q35">
         <v>2.75</v>
@@ -8233,7 +8239,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ35">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AR35">
         <v>2.48</v>
@@ -8358,7 +8364,7 @@
         <v>108</v>
       </c>
       <c r="P36" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q36">
         <v>4.5</v>
@@ -8770,7 +8776,7 @@
         <v>110</v>
       </c>
       <c r="P38" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q38">
         <v>2.1</v>
@@ -9594,7 +9600,7 @@
         <v>112</v>
       </c>
       <c r="P42" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q42">
         <v>8</v>
@@ -9672,7 +9678,7 @@
         <v>3</v>
       </c>
       <c r="AP42">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AQ42">
         <v>1.92</v>
@@ -10087,7 +10093,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ44">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AR44">
         <v>1.11</v>
@@ -10212,7 +10218,7 @@
         <v>114</v>
       </c>
       <c r="P45" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q45">
         <v>5.75</v>
@@ -10290,7 +10296,7 @@
         <v>1</v>
       </c>
       <c r="AP45">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AQ45">
         <v>1.93</v>
@@ -10624,7 +10630,7 @@
         <v>87</v>
       </c>
       <c r="P47" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q47">
         <v>3.2</v>
@@ -10830,7 +10836,7 @@
         <v>116</v>
       </c>
       <c r="P48" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q48">
         <v>2.9</v>
@@ -11448,7 +11454,7 @@
         <v>119</v>
       </c>
       <c r="P51" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q51">
         <v>2.9</v>
@@ -11938,7 +11944,7 @@
         <v>0.4</v>
       </c>
       <c r="AP53">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AQ53">
         <v>0.86</v>
@@ -12478,7 +12484,7 @@
         <v>122</v>
       </c>
       <c r="P56" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -12684,7 +12690,7 @@
         <v>87</v>
       </c>
       <c r="P57" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q57">
         <v>2.25</v>
@@ -12765,7 +12771,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ57">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AR57">
         <v>1.76</v>
@@ -12890,7 +12896,7 @@
         <v>87</v>
       </c>
       <c r="P58" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q58">
         <v>5.8</v>
@@ -13174,7 +13180,7 @@
         <v>0.8</v>
       </c>
       <c r="AP59">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AQ59">
         <v>0.92</v>
@@ -13302,7 +13308,7 @@
         <v>123</v>
       </c>
       <c r="P60" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q60">
         <v>2.1</v>
@@ -13714,7 +13720,7 @@
         <v>125</v>
       </c>
       <c r="P62" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q62">
         <v>1.68</v>
@@ -14207,7 +14213,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ64">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AR64">
         <v>1.49</v>
@@ -14538,7 +14544,7 @@
         <v>129</v>
       </c>
       <c r="P66" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q66">
         <v>6.5</v>
@@ -14950,7 +14956,7 @@
         <v>87</v>
       </c>
       <c r="P68" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q68">
         <v>3.1</v>
@@ -15362,7 +15368,7 @@
         <v>87</v>
       </c>
       <c r="P70" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q70">
         <v>3.4</v>
@@ -15440,7 +15446,7 @@
         <v>0.71</v>
       </c>
       <c r="AP70">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AQ70">
         <v>0.79</v>
@@ -15568,7 +15574,7 @@
         <v>131</v>
       </c>
       <c r="P71" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q71">
         <v>2.4</v>
@@ -15980,7 +15986,7 @@
         <v>133</v>
       </c>
       <c r="P73" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q73">
         <v>3.3</v>
@@ -16186,7 +16192,7 @@
         <v>134</v>
       </c>
       <c r="P74" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q74">
         <v>2.2</v>
@@ -16392,7 +16398,7 @@
         <v>87</v>
       </c>
       <c r="P75" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q75">
         <v>4.5</v>
@@ -16598,7 +16604,7 @@
         <v>135</v>
       </c>
       <c r="P76" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q76">
         <v>1.91</v>
@@ -16679,7 +16685,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ76">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AR76">
         <v>2.04</v>
@@ -16804,7 +16810,7 @@
         <v>87</v>
       </c>
       <c r="P77" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q77">
         <v>6.5</v>
@@ -17912,7 +17918,7 @@
         <v>1</v>
       </c>
       <c r="AP82">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AQ82">
         <v>1.47</v>
@@ -18040,7 +18046,7 @@
         <v>87</v>
       </c>
       <c r="P83" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q83">
         <v>8</v>
@@ -18246,7 +18252,7 @@
         <v>139</v>
       </c>
       <c r="P84" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q84">
         <v>5.2</v>
@@ -18864,7 +18870,7 @@
         <v>140</v>
       </c>
       <c r="P87" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q87">
         <v>3.75</v>
@@ -18945,7 +18951,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ87">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AR87">
         <v>1.36</v>
@@ -19070,7 +19076,7 @@
         <v>141</v>
       </c>
       <c r="P88" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q88">
         <v>1.73</v>
@@ -19276,7 +19282,7 @@
         <v>142</v>
       </c>
       <c r="P89" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q89">
         <v>2.5</v>
@@ -19894,7 +19900,7 @@
         <v>145</v>
       </c>
       <c r="P92" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q92">
         <v>2.25</v>
@@ -20306,7 +20312,7 @@
         <v>87</v>
       </c>
       <c r="P94" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q94">
         <v>1.71</v>
@@ -20512,7 +20518,7 @@
         <v>146</v>
       </c>
       <c r="P95" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q95">
         <v>3.6</v>
@@ -20718,7 +20724,7 @@
         <v>147</v>
       </c>
       <c r="P96" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q96">
         <v>2.6</v>
@@ -21336,7 +21342,7 @@
         <v>149</v>
       </c>
       <c r="P99" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q99">
         <v>3.1</v>
@@ -21542,7 +21548,7 @@
         <v>150</v>
       </c>
       <c r="P100" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q100">
         <v>2.2</v>
@@ -22160,7 +22166,7 @@
         <v>152</v>
       </c>
       <c r="P103" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q103">
         <v>3.9</v>
@@ -23065,7 +23071,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ107">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AR107">
         <v>1.14</v>
@@ -23190,7 +23196,7 @@
         <v>157</v>
       </c>
       <c r="P108" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q108">
         <v>5</v>
@@ -23602,7 +23608,7 @@
         <v>87</v>
       </c>
       <c r="P110" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q110">
         <v>4.75</v>
@@ -23808,7 +23814,7 @@
         <v>110</v>
       </c>
       <c r="P111" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q111">
         <v>2.6</v>
@@ -24220,7 +24226,7 @@
         <v>87</v>
       </c>
       <c r="P113" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q113">
         <v>9</v>
@@ -24298,7 +24304,7 @@
         <v>1.91</v>
       </c>
       <c r="AP113">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AQ113">
         <v>2</v>
@@ -24838,7 +24844,7 @@
         <v>162</v>
       </c>
       <c r="P116" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q116">
         <v>2.8</v>
@@ -24919,7 +24925,7 @@
         <v>1.38</v>
       </c>
       <c r="AQ116">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AR116">
         <v>1.58</v>
@@ -25044,7 +25050,7 @@
         <v>163</v>
       </c>
       <c r="P117" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q117">
         <v>4.4</v>
@@ -25250,7 +25256,7 @@
         <v>164</v>
       </c>
       <c r="P118" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q118">
         <v>1.95</v>
@@ -25868,7 +25874,7 @@
         <v>166</v>
       </c>
       <c r="P121" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q121">
         <v>3.3</v>
@@ -26486,7 +26492,7 @@
         <v>113</v>
       </c>
       <c r="P124" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q124">
         <v>4.2</v>
@@ -26770,7 +26776,7 @@
         <v>0.82</v>
       </c>
       <c r="AP125">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AQ125">
         <v>0.93</v>
@@ -26898,7 +26904,7 @@
         <v>169</v>
       </c>
       <c r="P126" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q126">
         <v>2.6</v>
@@ -27310,7 +27316,7 @@
         <v>87</v>
       </c>
       <c r="P128" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q128">
         <v>6</v>
@@ -27597,7 +27603,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ129">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AR129">
         <v>2.15</v>
@@ -27722,7 +27728,7 @@
         <v>172</v>
       </c>
       <c r="P130" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q130">
         <v>1.62</v>
@@ -27928,7 +27934,7 @@
         <v>87</v>
       </c>
       <c r="P131" t="s">
-        <v>176</v>
+        <v>177</v>
       </c>
       <c r="Q131">
         <v>2.1</v>
@@ -28340,7 +28346,7 @@
         <v>173</v>
       </c>
       <c r="P133" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q133">
         <v>1.8</v>
@@ -28752,7 +28758,7 @@
         <v>87</v>
       </c>
       <c r="P135" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q135">
         <v>12</v>
@@ -28830,7 +28836,7 @@
         <v>1.73</v>
       </c>
       <c r="AP135">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AQ135">
         <v>1.92</v>
@@ -29164,7 +29170,7 @@
         <v>87</v>
       </c>
       <c r="P137" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q137">
         <v>3.25</v>
@@ -29245,7 +29251,7 @@
         <v>1.07</v>
       </c>
       <c r="AQ137">
-        <v>1</v>
+        <v>1.14</v>
       </c>
       <c r="AR137">
         <v>1.43</v>
@@ -29370,7 +29376,7 @@
         <v>174</v>
       </c>
       <c r="P138" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q138">
         <v>3</v>
@@ -29576,7 +29582,7 @@
         <v>87</v>
       </c>
       <c r="P139" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q139">
         <v>10</v>
@@ -29654,7 +29660,7 @@
         <v>1.85</v>
       </c>
       <c r="AP139">
-        <v>0.46</v>
+        <v>0.43</v>
       </c>
       <c r="AQ139">
         <v>1.93</v>
@@ -29782,7 +29788,7 @@
         <v>87</v>
       </c>
       <c r="P140" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q140">
         <v>3.2</v>
@@ -29939,6 +29945,212 @@
       </c>
       <c r="BP140">
         <v>1.18</v>
+      </c>
+    </row>
+    <row r="141" spans="1:68">
+      <c r="A141" s="1">
+        <v>140</v>
+      </c>
+      <c r="B141">
+        <v>6441785</v>
+      </c>
+      <c r="C141" t="s">
+        <v>68</v>
+      </c>
+      <c r="D141" t="s">
+        <v>69</v>
+      </c>
+      <c r="E141" s="2">
+        <v>45387.47916666666</v>
+      </c>
+      <c r="F141">
+        <v>29</v>
+      </c>
+      <c r="G141" t="s">
+        <v>77</v>
+      </c>
+      <c r="H141" t="s">
+        <v>72</v>
+      </c>
+      <c r="I141">
+        <v>1</v>
+      </c>
+      <c r="J141">
+        <v>1</v>
+      </c>
+      <c r="K141">
+        <v>2</v>
+      </c>
+      <c r="L141">
+        <v>2</v>
+      </c>
+      <c r="M141">
+        <v>3</v>
+      </c>
+      <c r="N141">
+        <v>5</v>
+      </c>
+      <c r="O141" t="s">
+        <v>175</v>
+      </c>
+      <c r="P141" t="s">
+        <v>241</v>
+      </c>
+      <c r="Q141">
+        <v>1.73</v>
+      </c>
+      <c r="R141">
+        <v>2.6</v>
+      </c>
+      <c r="S141">
+        <v>9</v>
+      </c>
+      <c r="T141">
+        <v>1.36</v>
+      </c>
+      <c r="U141">
+        <v>3</v>
+      </c>
+      <c r="V141">
+        <v>2.62</v>
+      </c>
+      <c r="W141">
+        <v>1.44</v>
+      </c>
+      <c r="X141">
+        <v>6</v>
+      </c>
+      <c r="Y141">
+        <v>1.11</v>
+      </c>
+      <c r="Z141">
+        <v>1.25</v>
+      </c>
+      <c r="AA141">
+        <v>5.25</v>
+      </c>
+      <c r="AB141">
+        <v>10</v>
+      </c>
+      <c r="AC141">
+        <v>1.04</v>
+      </c>
+      <c r="AD141">
+        <v>10</v>
+      </c>
+      <c r="AE141">
+        <v>1.25</v>
+      </c>
+      <c r="AF141">
+        <v>3.75</v>
+      </c>
+      <c r="AG141">
+        <v>1.62</v>
+      </c>
+      <c r="AH141">
+        <v>2.25</v>
+      </c>
+      <c r="AI141">
+        <v>2.05</v>
+      </c>
+      <c r="AJ141">
+        <v>1.7</v>
+      </c>
+      <c r="AK141">
+        <v>2.9</v>
+      </c>
+      <c r="AL141">
+        <v>1.18</v>
+      </c>
+      <c r="AM141">
+        <v>1.06</v>
+      </c>
+      <c r="AN141">
+        <v>0.46</v>
+      </c>
+      <c r="AO141">
+        <v>1</v>
+      </c>
+      <c r="AP141">
+        <v>0.43</v>
+      </c>
+      <c r="AQ141">
+        <v>1.14</v>
+      </c>
+      <c r="AR141">
+        <v>1.29</v>
+      </c>
+      <c r="AS141">
+        <v>1.31</v>
+      </c>
+      <c r="AT141">
+        <v>2.6</v>
+      </c>
+      <c r="AU141">
+        <v>0</v>
+      </c>
+      <c r="AV141">
+        <v>2</v>
+      </c>
+      <c r="AW141">
+        <v>3</v>
+      </c>
+      <c r="AX141">
+        <v>3</v>
+      </c>
+      <c r="AY141">
+        <v>3</v>
+      </c>
+      <c r="AZ141">
+        <v>5</v>
+      </c>
+      <c r="BA141">
+        <v>3</v>
+      </c>
+      <c r="BB141">
+        <v>3</v>
+      </c>
+      <c r="BC141">
+        <v>6</v>
+      </c>
+      <c r="BD141">
+        <v>4.86</v>
+      </c>
+      <c r="BE141">
+        <v>10</v>
+      </c>
+      <c r="BF141">
+        <v>1.26</v>
+      </c>
+      <c r="BG141">
+        <v>1.35</v>
+      </c>
+      <c r="BH141">
+        <v>2.95</v>
+      </c>
+      <c r="BI141">
+        <v>1.67</v>
+      </c>
+      <c r="BJ141">
+        <v>2.07</v>
+      </c>
+      <c r="BK141">
+        <v>2.13</v>
+      </c>
+      <c r="BL141">
+        <v>1.63</v>
+      </c>
+      <c r="BM141">
+        <v>2.9</v>
+      </c>
+      <c r="BN141">
+        <v>1.36</v>
+      </c>
+      <c r="BO141">
+        <v>3.8</v>
+      </c>
+      <c r="BP141">
+        <v>1.22</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="908" uniqueCount="242">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="244">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -741,6 +741,12 @@
   <si>
     <t>['35', '56', '59']</t>
   </si>
+  <si>
+    <t>['73']</t>
+  </si>
+  <si>
+    <t>['52']</t>
+  </si>
 </sst>
 </file>
 
@@ -1101,7 +1107,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP141"/>
+  <dimension ref="A1:BP143"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2059,7 +2065,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ5">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2262,7 +2268,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AQ6">
         <v>0.79</v>
@@ -3498,10 +3504,10 @@
         <v>1</v>
       </c>
       <c r="AP12">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AQ12">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR12">
         <v>1.99</v>
@@ -3704,7 +3710,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ13">
         <v>0.07000000000000001</v>
@@ -4940,7 +4946,7 @@
         <v>0.5</v>
       </c>
       <c r="AP19">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ19">
         <v>0.79</v>
@@ -6176,7 +6182,7 @@
         <v>2</v>
       </c>
       <c r="AP25">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AQ25">
         <v>1.14</v>
@@ -6794,7 +6800,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ28">
         <v>1.47</v>
@@ -7415,7 +7421,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ31">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR31">
         <v>2.62</v>
@@ -7824,7 +7830,7 @@
         <v>0.25</v>
       </c>
       <c r="AP33">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AQ33">
         <v>0.07000000000000001</v>
@@ -8857,7 +8863,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ38">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR38">
         <v>1.91</v>
@@ -9472,7 +9478,7 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ41">
         <v>1.93</v>
@@ -10090,7 +10096,7 @@
         <v>1.25</v>
       </c>
       <c r="AP44">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ44">
         <v>1.14</v>
@@ -10914,10 +10920,10 @@
         <v>1</v>
       </c>
       <c r="AP48">
+        <v>1</v>
+      </c>
+      <c r="AQ48">
         <v>1.07</v>
-      </c>
-      <c r="AQ48">
-        <v>0.92</v>
       </c>
       <c r="AR48">
         <v>1.31</v>
@@ -11532,7 +11538,7 @@
         <v>1.4</v>
       </c>
       <c r="AP51">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AQ51">
         <v>0.93</v>
@@ -12974,7 +12980,7 @@
         <v>1.8</v>
       </c>
       <c r="AP58">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ58">
         <v>2</v>
@@ -13183,7 +13189,7 @@
         <v>0.43</v>
       </c>
       <c r="AQ59">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR59">
         <v>1.4</v>
@@ -14004,7 +14010,7 @@
         <v>1.4</v>
       </c>
       <c r="AP63">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AQ63">
         <v>1.93</v>
@@ -15240,7 +15246,7 @@
         <v>1.14</v>
       </c>
       <c r="AP69">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ69">
         <v>0.93</v>
@@ -15861,7 +15867,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ72">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR72">
         <v>1.58</v>
@@ -16270,7 +16276,7 @@
         <v>0.43</v>
       </c>
       <c r="AP74">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AQ74">
         <v>0.86</v>
@@ -17303,7 +17309,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ79">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR79">
         <v>1.21</v>
@@ -18124,7 +18130,7 @@
         <v>1.57</v>
       </c>
       <c r="AP83">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ83">
         <v>1.92</v>
@@ -18330,7 +18336,7 @@
         <v>2.25</v>
       </c>
       <c r="AP84">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AQ84">
         <v>2</v>
@@ -19363,7 +19369,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ89">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR89">
         <v>1.39</v>
@@ -19566,7 +19572,7 @@
         <v>1</v>
       </c>
       <c r="AP90">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AQ90">
         <v>0.79</v>
@@ -21832,10 +21838,10 @@
         <v>0.89</v>
       </c>
       <c r="AP101">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AQ101">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR101">
         <v>1.62</v>
@@ -22038,7 +22044,7 @@
         <v>0.09</v>
       </c>
       <c r="AP102">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ102">
         <v>0.07000000000000001</v>
@@ -23274,7 +23280,7 @@
         <v>1.89</v>
       </c>
       <c r="AP108">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AQ108">
         <v>1.92</v>
@@ -23892,7 +23898,7 @@
         <v>0.82</v>
       </c>
       <c r="AP111">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ111">
         <v>0.79</v>
@@ -24719,7 +24725,7 @@
         <v>2.29</v>
       </c>
       <c r="AQ115">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR115">
         <v>2.02</v>
@@ -24922,7 +24928,7 @@
         <v>0.9</v>
       </c>
       <c r="AP116">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AQ116">
         <v>1.14</v>
@@ -25952,7 +25958,7 @@
         <v>1.25</v>
       </c>
       <c r="AP121">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ121">
         <v>1.47</v>
@@ -26367,7 +26373,7 @@
         <v>2.5</v>
       </c>
       <c r="AQ123">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR123">
         <v>2.21</v>
@@ -27188,7 +27194,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="AP127">
-        <v>1.38</v>
+        <v>1.36</v>
       </c>
       <c r="AQ127">
         <v>0.07000000000000001</v>
@@ -28015,7 +28021,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ131">
-        <v>0.92</v>
+        <v>1.07</v>
       </c>
       <c r="AR131">
         <v>1.84</v>
@@ -28218,7 +28224,7 @@
         <v>1.75</v>
       </c>
       <c r="AP132">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ132">
         <v>1.93</v>
@@ -29248,7 +29254,7 @@
         <v>0.83</v>
       </c>
       <c r="AP137">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AQ137">
         <v>1.14</v>
@@ -30087,31 +30093,31 @@
         <v>2.6</v>
       </c>
       <c r="AU141">
-        <v>0</v>
+        <v>4</v>
       </c>
       <c r="AV141">
-        <v>2</v>
+        <v>8</v>
       </c>
       <c r="AW141">
-        <v>3</v>
+        <v>9</v>
       </c>
       <c r="AX141">
-        <v>3</v>
+        <v>7</v>
       </c>
       <c r="AY141">
-        <v>3</v>
+        <v>13</v>
       </c>
       <c r="AZ141">
-        <v>5</v>
+        <v>15</v>
       </c>
       <c r="BA141">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="BB141">
         <v>3</v>
       </c>
       <c r="BC141">
-        <v>6</v>
+        <v>9</v>
       </c>
       <c r="BD141">
         <v>4.86</v>
@@ -30151,6 +30157,418 @@
       </c>
       <c r="BP141">
         <v>1.22</v>
+      </c>
+    </row>
+    <row r="142" spans="1:68">
+      <c r="A142" s="1">
+        <v>141</v>
+      </c>
+      <c r="B142">
+        <v>6441833</v>
+      </c>
+      <c r="C142" t="s">
+        <v>68</v>
+      </c>
+      <c r="D142" t="s">
+        <v>69</v>
+      </c>
+      <c r="E142" s="2">
+        <v>45388.49305555555</v>
+      </c>
+      <c r="F142">
+        <v>29</v>
+      </c>
+      <c r="G142" t="s">
+        <v>74</v>
+      </c>
+      <c r="H142" t="s">
+        <v>73</v>
+      </c>
+      <c r="I142">
+        <v>1</v>
+      </c>
+      <c r="J142">
+        <v>0</v>
+      </c>
+      <c r="K142">
+        <v>1</v>
+      </c>
+      <c r="L142">
+        <v>1</v>
+      </c>
+      <c r="M142">
+        <v>1</v>
+      </c>
+      <c r="N142">
+        <v>2</v>
+      </c>
+      <c r="O142" t="s">
+        <v>97</v>
+      </c>
+      <c r="P142" t="s">
+        <v>242</v>
+      </c>
+      <c r="Q142">
+        <v>2.3</v>
+      </c>
+      <c r="R142">
+        <v>2.1</v>
+      </c>
+      <c r="S142">
+        <v>5.5</v>
+      </c>
+      <c r="T142">
+        <v>1.44</v>
+      </c>
+      <c r="U142">
+        <v>2.6</v>
+      </c>
+      <c r="V142">
+        <v>3</v>
+      </c>
+      <c r="W142">
+        <v>1.33</v>
+      </c>
+      <c r="X142">
+        <v>7</v>
+      </c>
+      <c r="Y142">
+        <v>1.07</v>
+      </c>
+      <c r="Z142">
+        <v>1.59</v>
+      </c>
+      <c r="AA142">
+        <v>3.4</v>
+      </c>
+      <c r="AB142">
+        <v>4.59</v>
+      </c>
+      <c r="AC142">
+        <v>1.06</v>
+      </c>
+      <c r="AD142">
+        <v>7.5</v>
+      </c>
+      <c r="AE142">
+        <v>1.36</v>
+      </c>
+      <c r="AF142">
+        <v>2.88</v>
+      </c>
+      <c r="AG142">
+        <v>2.15</v>
+      </c>
+      <c r="AH142">
+        <v>1.67</v>
+      </c>
+      <c r="AI142">
+        <v>2.1</v>
+      </c>
+      <c r="AJ142">
+        <v>1.67</v>
+      </c>
+      <c r="AK142">
+        <v>1.17</v>
+      </c>
+      <c r="AL142">
+        <v>1.3</v>
+      </c>
+      <c r="AM142">
+        <v>2.1</v>
+      </c>
+      <c r="AN142">
+        <v>1.38</v>
+      </c>
+      <c r="AO142">
+        <v>0.93</v>
+      </c>
+      <c r="AP142">
+        <v>1.36</v>
+      </c>
+      <c r="AQ142">
+        <v>0.93</v>
+      </c>
+      <c r="AR142">
+        <v>1.57</v>
+      </c>
+      <c r="AS142">
+        <v>1.27</v>
+      </c>
+      <c r="AT142">
+        <v>2.84</v>
+      </c>
+      <c r="AU142">
+        <v>3</v>
+      </c>
+      <c r="AV142">
+        <v>2</v>
+      </c>
+      <c r="AW142">
+        <v>7</v>
+      </c>
+      <c r="AX142">
+        <v>3</v>
+      </c>
+      <c r="AY142">
+        <v>10</v>
+      </c>
+      <c r="AZ142">
+        <v>5</v>
+      </c>
+      <c r="BA142">
+        <v>8</v>
+      </c>
+      <c r="BB142">
+        <v>2</v>
+      </c>
+      <c r="BC142">
+        <v>10</v>
+      </c>
+      <c r="BD142">
+        <v>1.51</v>
+      </c>
+      <c r="BE142">
+        <v>8.5</v>
+      </c>
+      <c r="BF142">
+        <v>3.16</v>
+      </c>
+      <c r="BG142">
+        <v>1.32</v>
+      </c>
+      <c r="BH142">
+        <v>2.98</v>
+      </c>
+      <c r="BI142">
+        <v>1.59</v>
+      </c>
+      <c r="BJ142">
+        <v>2.16</v>
+      </c>
+      <c r="BK142">
+        <v>2</v>
+      </c>
+      <c r="BL142">
+        <v>1.73</v>
+      </c>
+      <c r="BM142">
+        <v>2.64</v>
+      </c>
+      <c r="BN142">
+        <v>1.4</v>
+      </c>
+      <c r="BO142">
+        <v>3.65</v>
+      </c>
+      <c r="BP142">
+        <v>1.22</v>
+      </c>
+    </row>
+    <row r="143" spans="1:68">
+      <c r="A143" s="1">
+        <v>142</v>
+      </c>
+      <c r="B143">
+        <v>6441829</v>
+      </c>
+      <c r="C143" t="s">
+        <v>68</v>
+      </c>
+      <c r="D143" t="s">
+        <v>69</v>
+      </c>
+      <c r="E143" s="2">
+        <v>45388.58333333334</v>
+      </c>
+      <c r="F143">
+        <v>29</v>
+      </c>
+      <c r="G143" t="s">
+        <v>79</v>
+      </c>
+      <c r="H143" t="s">
+        <v>75</v>
+      </c>
+      <c r="I143">
+        <v>0</v>
+      </c>
+      <c r="J143">
+        <v>0</v>
+      </c>
+      <c r="K143">
+        <v>0</v>
+      </c>
+      <c r="L143">
+        <v>0</v>
+      </c>
+      <c r="M143">
+        <v>1</v>
+      </c>
+      <c r="N143">
+        <v>1</v>
+      </c>
+      <c r="O143" t="s">
+        <v>87</v>
+      </c>
+      <c r="P143" t="s">
+        <v>243</v>
+      </c>
+      <c r="Q143">
+        <v>3</v>
+      </c>
+      <c r="R143">
+        <v>2.1</v>
+      </c>
+      <c r="S143">
+        <v>3.5</v>
+      </c>
+      <c r="T143">
+        <v>1.38</v>
+      </c>
+      <c r="U143">
+        <v>2.8</v>
+      </c>
+      <c r="V143">
+        <v>2.8</v>
+      </c>
+      <c r="W143">
+        <v>1.38</v>
+      </c>
+      <c r="X143">
+        <v>6</v>
+      </c>
+      <c r="Y143">
+        <v>1.09</v>
+      </c>
+      <c r="Z143">
+        <v>2.2</v>
+      </c>
+      <c r="AA143">
+        <v>3.17</v>
+      </c>
+      <c r="AB143">
+        <v>2.7</v>
+      </c>
+      <c r="AC143">
+        <v>1.04</v>
+      </c>
+      <c r="AD143">
+        <v>8.5</v>
+      </c>
+      <c r="AE143">
+        <v>1.29</v>
+      </c>
+      <c r="AF143">
+        <v>3.3</v>
+      </c>
+      <c r="AG143">
+        <v>1.85</v>
+      </c>
+      <c r="AH143">
+        <v>1.76</v>
+      </c>
+      <c r="AI143">
+        <v>1.73</v>
+      </c>
+      <c r="AJ143">
+        <v>2</v>
+      </c>
+      <c r="AK143">
+        <v>1.4</v>
+      </c>
+      <c r="AL143">
+        <v>1.33</v>
+      </c>
+      <c r="AM143">
+        <v>1.57</v>
+      </c>
+      <c r="AN143">
+        <v>1.07</v>
+      </c>
+      <c r="AO143">
+        <v>0.92</v>
+      </c>
+      <c r="AP143">
+        <v>1</v>
+      </c>
+      <c r="AQ143">
+        <v>1.07</v>
+      </c>
+      <c r="AR143">
+        <v>1.45</v>
+      </c>
+      <c r="AS143">
+        <v>1.32</v>
+      </c>
+      <c r="AT143">
+        <v>2.77</v>
+      </c>
+      <c r="AU143">
+        <v>4</v>
+      </c>
+      <c r="AV143">
+        <v>3</v>
+      </c>
+      <c r="AW143">
+        <v>8</v>
+      </c>
+      <c r="AX143">
+        <v>4</v>
+      </c>
+      <c r="AY143">
+        <v>12</v>
+      </c>
+      <c r="AZ143">
+        <v>7</v>
+      </c>
+      <c r="BA143">
+        <v>6</v>
+      </c>
+      <c r="BB143">
+        <v>4</v>
+      </c>
+      <c r="BC143">
+        <v>10</v>
+      </c>
+      <c r="BD143">
+        <v>1.85</v>
+      </c>
+      <c r="BE143">
+        <v>7.5</v>
+      </c>
+      <c r="BF143">
+        <v>2.33</v>
+      </c>
+      <c r="BG143">
+        <v>1.39</v>
+      </c>
+      <c r="BH143">
+        <v>2.75</v>
+      </c>
+      <c r="BI143">
+        <v>1.7</v>
+      </c>
+      <c r="BJ143">
+        <v>2.05</v>
+      </c>
+      <c r="BK143">
+        <v>2.1</v>
+      </c>
+      <c r="BL143">
+        <v>1.65</v>
+      </c>
+      <c r="BM143">
+        <v>2.7</v>
+      </c>
+      <c r="BN143">
+        <v>1.41</v>
+      </c>
+      <c r="BO143">
+        <v>3.7</v>
+      </c>
+      <c r="BP143">
+        <v>1.24</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="920" uniqueCount="244">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="247">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -544,6 +544,12 @@
     <t>['11', '79']</t>
   </si>
   <si>
+    <t>['3', '44', '58', '61']</t>
+  </si>
+  <si>
+    <t>['70']</t>
+  </si>
+  <si>
     <t>['74', '90+3']</t>
   </si>
   <si>
@@ -746,6 +752,9 @@
   </si>
   <si>
     <t>['52']</t>
+  </si>
+  <si>
+    <t>['37']</t>
   </si>
 </sst>
 </file>
@@ -1107,7 +1116,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP143"/>
+  <dimension ref="A1:BP145"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1366,7 +1375,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="Q2">
         <v>2.36</v>
@@ -1444,10 +1453,10 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ2">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1650,7 +1659,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ3">
         <v>0.07000000000000001</v>
@@ -2190,7 +2199,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q6">
         <v>2.55</v>
@@ -2271,7 +2280,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ6">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2396,7 +2405,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="Q7">
         <v>2.64</v>
@@ -2808,7 +2817,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>179</v>
+        <v>181</v>
       </c>
       <c r="Q9">
         <v>5.85</v>
@@ -3014,7 +3023,7 @@
         <v>88</v>
       </c>
       <c r="P10" t="s">
-        <v>180</v>
+        <v>182</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -3426,7 +3435,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3632,7 +3641,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q13">
         <v>2.35</v>
@@ -3916,7 +3925,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ14">
         <v>0.93</v>
@@ -4122,10 +4131,10 @@
         <v>1</v>
       </c>
       <c r="AP15">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ15">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR15">
         <v>2.17</v>
@@ -4456,7 +4465,7 @@
         <v>94</v>
       </c>
       <c r="P17" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q17">
         <v>3.5</v>
@@ -4868,7 +4877,7 @@
         <v>96</v>
       </c>
       <c r="P19" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q19">
         <v>3.1</v>
@@ -4949,7 +4958,7 @@
         <v>1</v>
       </c>
       <c r="AQ19">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR19">
         <v>1.39</v>
@@ -5074,7 +5083,7 @@
         <v>87</v>
       </c>
       <c r="P20" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q20">
         <v>7</v>
@@ -5155,7 +5164,7 @@
         <v>0.43</v>
       </c>
       <c r="AQ20">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AR20">
         <v>1.48</v>
@@ -5486,7 +5495,7 @@
         <v>98</v>
       </c>
       <c r="P22" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q22">
         <v>2.15</v>
@@ -5564,7 +5573,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ22">
         <v>1.47</v>
@@ -5692,7 +5701,7 @@
         <v>99</v>
       </c>
       <c r="P23" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q23">
         <v>2.29</v>
@@ -5898,7 +5907,7 @@
         <v>100</v>
       </c>
       <c r="P24" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q24">
         <v>4.5</v>
@@ -5979,7 +5988,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ24">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AR24">
         <v>1.61</v>
@@ -6104,7 +6113,7 @@
         <v>101</v>
       </c>
       <c r="P25" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q25">
         <v>3.1</v>
@@ -6516,7 +6525,7 @@
         <v>102</v>
       </c>
       <c r="P27" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q27">
         <v>2.14</v>
@@ -6594,7 +6603,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ27">
         <v>1.93</v>
@@ -6722,7 +6731,7 @@
         <v>87</v>
       </c>
       <c r="P28" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q28">
         <v>3.4</v>
@@ -6928,7 +6937,7 @@
         <v>87</v>
       </c>
       <c r="P29" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q29">
         <v>3.5</v>
@@ -7134,7 +7143,7 @@
         <v>87</v>
       </c>
       <c r="P30" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q30">
         <v>1.67</v>
@@ -7215,7 +7224,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ30">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR30">
         <v>2.07</v>
@@ -7340,7 +7349,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q31">
         <v>2</v>
@@ -7418,7 +7427,7 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ31">
         <v>1.07</v>
@@ -7546,7 +7555,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q32">
         <v>4.75</v>
@@ -8036,7 +8045,7 @@
         <v>0.5</v>
       </c>
       <c r="AP34">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ34">
         <v>0.86</v>
@@ -8164,7 +8173,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q35">
         <v>2.75</v>
@@ -8242,7 +8251,7 @@
         <v>1.67</v>
       </c>
       <c r="AP35">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ35">
         <v>1.14</v>
@@ -8370,7 +8379,7 @@
         <v>108</v>
       </c>
       <c r="P36" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q36">
         <v>4.5</v>
@@ -8451,7 +8460,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ36">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AR36">
         <v>1.66</v>
@@ -8657,7 +8666,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ37">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR37">
         <v>1.58</v>
@@ -8782,7 +8791,7 @@
         <v>110</v>
       </c>
       <c r="P38" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q38">
         <v>2.1</v>
@@ -9606,7 +9615,7 @@
         <v>112</v>
       </c>
       <c r="P42" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q42">
         <v>8</v>
@@ -10224,7 +10233,7 @@
         <v>114</v>
       </c>
       <c r="P45" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q45">
         <v>5.75</v>
@@ -10636,7 +10645,7 @@
         <v>87</v>
       </c>
       <c r="P47" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q47">
         <v>3.2</v>
@@ -10842,7 +10851,7 @@
         <v>116</v>
       </c>
       <c r="P48" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q48">
         <v>2.9</v>
@@ -11332,10 +11341,10 @@
         <v>2.25</v>
       </c>
       <c r="AP50">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ50">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AR50">
         <v>2.42</v>
@@ -11460,7 +11469,7 @@
         <v>119</v>
       </c>
       <c r="P51" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q51">
         <v>2.9</v>
@@ -11744,10 +11753,10 @@
         <v>1</v>
       </c>
       <c r="AP52">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ52">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR52">
         <v>1.85</v>
@@ -12490,7 +12499,7 @@
         <v>122</v>
       </c>
       <c r="P56" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -12696,7 +12705,7 @@
         <v>87</v>
       </c>
       <c r="P57" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q57">
         <v>2.25</v>
@@ -12902,7 +12911,7 @@
         <v>87</v>
       </c>
       <c r="P58" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q58">
         <v>5.8</v>
@@ -12983,7 +12992,7 @@
         <v>1</v>
       </c>
       <c r="AQ58">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AR58">
         <v>1.37</v>
@@ -13314,7 +13323,7 @@
         <v>123</v>
       </c>
       <c r="P60" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q60">
         <v>2.1</v>
@@ -13395,7 +13404,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ60">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR60">
         <v>1.99</v>
@@ -13598,7 +13607,7 @@
         <v>1.33</v>
       </c>
       <c r="AP61">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ61">
         <v>0.93</v>
@@ -13726,7 +13735,7 @@
         <v>125</v>
       </c>
       <c r="P62" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q62">
         <v>1.68</v>
@@ -13804,7 +13813,7 @@
         <v>1.17</v>
       </c>
       <c r="AP62">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ62">
         <v>1.47</v>
@@ -14550,7 +14559,7 @@
         <v>129</v>
       </c>
       <c r="P66" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q66">
         <v>6.5</v>
@@ -14962,7 +14971,7 @@
         <v>87</v>
       </c>
       <c r="P68" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q68">
         <v>3.1</v>
@@ -15043,7 +15052,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ68">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AR68">
         <v>2.03</v>
@@ -15374,7 +15383,7 @@
         <v>87</v>
       </c>
       <c r="P70" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q70">
         <v>3.4</v>
@@ -15455,7 +15464,7 @@
         <v>0.43</v>
       </c>
       <c r="AQ70">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR70">
         <v>1.43</v>
@@ -15580,7 +15589,7 @@
         <v>131</v>
       </c>
       <c r="P71" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q71">
         <v>2.4</v>
@@ -15992,7 +16001,7 @@
         <v>133</v>
       </c>
       <c r="P73" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q73">
         <v>3.3</v>
@@ -16070,7 +16079,7 @@
         <v>1.67</v>
       </c>
       <c r="AP73">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ73">
         <v>1.92</v>
@@ -16198,7 +16207,7 @@
         <v>134</v>
       </c>
       <c r="P74" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q74">
         <v>2.2</v>
@@ -16404,7 +16413,7 @@
         <v>87</v>
       </c>
       <c r="P75" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q75">
         <v>4.5</v>
@@ -16610,7 +16619,7 @@
         <v>135</v>
       </c>
       <c r="P76" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q76">
         <v>1.91</v>
@@ -16688,7 +16697,7 @@
         <v>1.14</v>
       </c>
       <c r="AP76">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ76">
         <v>1.14</v>
@@ -16816,7 +16825,7 @@
         <v>87</v>
       </c>
       <c r="P77" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q77">
         <v>6.5</v>
@@ -16897,7 +16906,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ77">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AR77">
         <v>1.28</v>
@@ -18052,7 +18061,7 @@
         <v>87</v>
       </c>
       <c r="P83" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q83">
         <v>8</v>
@@ -18258,7 +18267,7 @@
         <v>139</v>
       </c>
       <c r="P84" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q84">
         <v>5.2</v>
@@ -18339,7 +18348,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ84">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AR84">
         <v>1.62</v>
@@ -18545,7 +18554,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ85">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR85">
         <v>1.52</v>
@@ -18748,7 +18757,7 @@
         <v>0.13</v>
       </c>
       <c r="AP86">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ86">
         <v>0.07000000000000001</v>
@@ -18876,7 +18885,7 @@
         <v>140</v>
       </c>
       <c r="P87" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q87">
         <v>3.75</v>
@@ -19082,7 +19091,7 @@
         <v>141</v>
       </c>
       <c r="P88" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q88">
         <v>1.73</v>
@@ -19160,7 +19169,7 @@
         <v>0.75</v>
       </c>
       <c r="AP88">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ88">
         <v>0.86</v>
@@ -19288,7 +19297,7 @@
         <v>142</v>
       </c>
       <c r="P89" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q89">
         <v>2.5</v>
@@ -19575,7 +19584,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ90">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR90">
         <v>1.58</v>
@@ -19778,7 +19787,7 @@
         <v>0.11</v>
       </c>
       <c r="AP91">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ91">
         <v>0.07000000000000001</v>
@@ -19906,7 +19915,7 @@
         <v>145</v>
       </c>
       <c r="P92" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q92">
         <v>2.25</v>
@@ -20190,10 +20199,10 @@
         <v>2.11</v>
       </c>
       <c r="AP93">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ93">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AR93">
         <v>1.97</v>
@@ -20318,7 +20327,7 @@
         <v>87</v>
       </c>
       <c r="P94" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q94">
         <v>1.71</v>
@@ -20396,7 +20405,7 @@
         <v>1</v>
       </c>
       <c r="AP94">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ94">
         <v>1.47</v>
@@ -20524,7 +20533,7 @@
         <v>146</v>
       </c>
       <c r="P95" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q95">
         <v>3.6</v>
@@ -20730,7 +20739,7 @@
         <v>147</v>
       </c>
       <c r="P96" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q96">
         <v>2.6</v>
@@ -21348,7 +21357,7 @@
         <v>149</v>
       </c>
       <c r="P99" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q99">
         <v>3.1</v>
@@ -21554,7 +21563,7 @@
         <v>150</v>
       </c>
       <c r="P100" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q100">
         <v>2.2</v>
@@ -22172,7 +22181,7 @@
         <v>152</v>
       </c>
       <c r="P103" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q103">
         <v>3.9</v>
@@ -22253,7 +22262,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ103">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AR103">
         <v>1.86</v>
@@ -22456,10 +22465,10 @@
         <v>0.9</v>
       </c>
       <c r="AP104">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ104">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR104">
         <v>2.25</v>
@@ -22662,7 +22671,7 @@
         <v>1</v>
       </c>
       <c r="AP105">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ105">
         <v>0.93</v>
@@ -23202,7 +23211,7 @@
         <v>157</v>
       </c>
       <c r="P108" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q108">
         <v>5</v>
@@ -23614,7 +23623,7 @@
         <v>87</v>
       </c>
       <c r="P110" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q110">
         <v>4.75</v>
@@ -23820,7 +23829,7 @@
         <v>110</v>
       </c>
       <c r="P111" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q111">
         <v>2.6</v>
@@ -23901,7 +23910,7 @@
         <v>1</v>
       </c>
       <c r="AQ111">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR111">
         <v>1.45</v>
@@ -24104,7 +24113,7 @@
         <v>1.36</v>
       </c>
       <c r="AP112">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ112">
         <v>1.47</v>
@@ -24232,7 +24241,7 @@
         <v>87</v>
       </c>
       <c r="P113" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q113">
         <v>9</v>
@@ -24313,7 +24322,7 @@
         <v>0.43</v>
       </c>
       <c r="AQ113">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AR113">
         <v>1.45</v>
@@ -24722,7 +24731,7 @@
         <v>0.9</v>
       </c>
       <c r="AP115">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ115">
         <v>1.07</v>
@@ -24850,7 +24859,7 @@
         <v>162</v>
       </c>
       <c r="P116" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q116">
         <v>2.8</v>
@@ -25056,7 +25065,7 @@
         <v>163</v>
       </c>
       <c r="P117" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q117">
         <v>4.4</v>
@@ -25137,7 +25146,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ117">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AR117">
         <v>1.4</v>
@@ -25262,7 +25271,7 @@
         <v>164</v>
       </c>
       <c r="P118" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q118">
         <v>1.95</v>
@@ -25546,7 +25555,7 @@
         <v>1.91</v>
       </c>
       <c r="AP119">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ119">
         <v>1.93</v>
@@ -25880,7 +25889,7 @@
         <v>166</v>
       </c>
       <c r="P121" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q121">
         <v>3.3</v>
@@ -26167,7 +26176,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ122">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR122">
         <v>1.68</v>
@@ -26370,7 +26379,7 @@
         <v>0.82</v>
       </c>
       <c r="AP123">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ123">
         <v>1.07</v>
@@ -26498,7 +26507,7 @@
         <v>113</v>
       </c>
       <c r="P124" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q124">
         <v>4.2</v>
@@ -26910,7 +26919,7 @@
         <v>169</v>
       </c>
       <c r="P126" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q126">
         <v>2.6</v>
@@ -26991,7 +27000,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ126">
-        <v>0.79</v>
+        <v>0.73</v>
       </c>
       <c r="AR126">
         <v>1.32</v>
@@ -27322,7 +27331,7 @@
         <v>87</v>
       </c>
       <c r="P128" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q128">
         <v>6</v>
@@ -27403,7 +27412,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ128">
-        <v>2</v>
+        <v>1.87</v>
       </c>
       <c r="AR128">
         <v>1.25</v>
@@ -27606,7 +27615,7 @@
         <v>0.91</v>
       </c>
       <c r="AP129">
-        <v>2.5</v>
+        <v>2.53</v>
       </c>
       <c r="AQ129">
         <v>1.14</v>
@@ -27734,7 +27743,7 @@
         <v>172</v>
       </c>
       <c r="P130" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q130">
         <v>1.62</v>
@@ -27812,7 +27821,7 @@
         <v>0.92</v>
       </c>
       <c r="AP130">
-        <v>2.29</v>
+        <v>2.33</v>
       </c>
       <c r="AQ130">
         <v>0.86</v>
@@ -27940,7 +27949,7 @@
         <v>87</v>
       </c>
       <c r="P131" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
       <c r="Q131">
         <v>2.1</v>
@@ -28352,7 +28361,7 @@
         <v>173</v>
       </c>
       <c r="P133" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q133">
         <v>1.8</v>
@@ -28764,7 +28773,7 @@
         <v>87</v>
       </c>
       <c r="P135" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q135">
         <v>12</v>
@@ -29176,7 +29185,7 @@
         <v>87</v>
       </c>
       <c r="P137" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q137">
         <v>3.25</v>
@@ -29382,7 +29391,7 @@
         <v>174</v>
       </c>
       <c r="P138" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q138">
         <v>3</v>
@@ -29588,7 +29597,7 @@
         <v>87</v>
       </c>
       <c r="P139" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q139">
         <v>10</v>
@@ -29794,7 +29803,7 @@
         <v>87</v>
       </c>
       <c r="P140" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q140">
         <v>3.2</v>
@@ -30000,7 +30009,7 @@
         <v>175</v>
       </c>
       <c r="P141" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q141">
         <v>1.73</v>
@@ -30206,7 +30215,7 @@
         <v>97</v>
       </c>
       <c r="P142" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q142">
         <v>2.3</v>
@@ -30302,28 +30311,28 @@
         <v>3</v>
       </c>
       <c r="AV142">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW142">
         <v>7</v>
       </c>
       <c r="AX142">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AY142">
         <v>10</v>
       </c>
       <c r="AZ142">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BA142">
-        <v>8</v>
+        <v>9</v>
       </c>
       <c r="BB142">
         <v>2</v>
       </c>
       <c r="BC142">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD142">
         <v>1.51</v>
@@ -30412,7 +30421,7 @@
         <v>87</v>
       </c>
       <c r="P143" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q143">
         <v>3</v>
@@ -30569,6 +30578,418 @@
       </c>
       <c r="BP143">
         <v>1.24</v>
+      </c>
+    </row>
+    <row r="144" spans="1:68">
+      <c r="A144" s="1">
+        <v>143</v>
+      </c>
+      <c r="B144">
+        <v>6441832</v>
+      </c>
+      <c r="C144" t="s">
+        <v>68</v>
+      </c>
+      <c r="D144" t="s">
+        <v>69</v>
+      </c>
+      <c r="E144" s="2">
+        <v>45389.5</v>
+      </c>
+      <c r="F144">
+        <v>29</v>
+      </c>
+      <c r="G144" t="s">
+        <v>70</v>
+      </c>
+      <c r="H144" t="s">
+        <v>76</v>
+      </c>
+      <c r="I144">
+        <v>2</v>
+      </c>
+      <c r="J144">
+        <v>1</v>
+      </c>
+      <c r="K144">
+        <v>3</v>
+      </c>
+      <c r="L144">
+        <v>4</v>
+      </c>
+      <c r="M144">
+        <v>1</v>
+      </c>
+      <c r="N144">
+        <v>5</v>
+      </c>
+      <c r="O144" t="s">
+        <v>176</v>
+      </c>
+      <c r="P144" t="s">
+        <v>246</v>
+      </c>
+      <c r="Q144">
+        <v>1.67</v>
+      </c>
+      <c r="R144">
+        <v>2.63</v>
+      </c>
+      <c r="S144">
+        <v>9.5</v>
+      </c>
+      <c r="T144">
+        <v>1.3</v>
+      </c>
+      <c r="U144">
+        <v>3.2</v>
+      </c>
+      <c r="V144">
+        <v>2.4</v>
+      </c>
+      <c r="W144">
+        <v>1.5</v>
+      </c>
+      <c r="X144">
+        <v>5.5</v>
+      </c>
+      <c r="Y144">
+        <v>1.11</v>
+      </c>
+      <c r="Z144">
+        <v>1.2</v>
+      </c>
+      <c r="AA144">
+        <v>6.5</v>
+      </c>
+      <c r="AB144">
+        <v>8</v>
+      </c>
+      <c r="AC144">
+        <v>1.02</v>
+      </c>
+      <c r="AD144">
+        <v>10</v>
+      </c>
+      <c r="AE144">
+        <v>1.22</v>
+      </c>
+      <c r="AF144">
+        <v>3.8</v>
+      </c>
+      <c r="AG144">
+        <v>1.7</v>
+      </c>
+      <c r="AH144">
+        <v>2.1</v>
+      </c>
+      <c r="AI144">
+        <v>2.3</v>
+      </c>
+      <c r="AJ144">
+        <v>1.55</v>
+      </c>
+      <c r="AK144">
+        <v>1.05</v>
+      </c>
+      <c r="AL144">
+        <v>1.13</v>
+      </c>
+      <c r="AM144">
+        <v>3.8</v>
+      </c>
+      <c r="AN144">
+        <v>2.29</v>
+      </c>
+      <c r="AO144">
+        <v>0.79</v>
+      </c>
+      <c r="AP144">
+        <v>2.33</v>
+      </c>
+      <c r="AQ144">
+        <v>0.73</v>
+      </c>
+      <c r="AR144">
+        <v>1.92</v>
+      </c>
+      <c r="AS144">
+        <v>1.22</v>
+      </c>
+      <c r="AT144">
+        <v>3.14</v>
+      </c>
+      <c r="AU144">
+        <v>4</v>
+      </c>
+      <c r="AV144">
+        <v>2</v>
+      </c>
+      <c r="AW144">
+        <v>8</v>
+      </c>
+      <c r="AX144">
+        <v>2</v>
+      </c>
+      <c r="AY144">
+        <v>12</v>
+      </c>
+      <c r="AZ144">
+        <v>4</v>
+      </c>
+      <c r="BA144">
+        <v>4</v>
+      </c>
+      <c r="BB144">
+        <v>1</v>
+      </c>
+      <c r="BC144">
+        <v>5</v>
+      </c>
+      <c r="BD144">
+        <v>1.23</v>
+      </c>
+      <c r="BE144">
+        <v>10</v>
+      </c>
+      <c r="BF144">
+        <v>5.15</v>
+      </c>
+      <c r="BG144">
+        <v>1.39</v>
+      </c>
+      <c r="BH144">
+        <v>2.67</v>
+      </c>
+      <c r="BI144">
+        <v>1.73</v>
+      </c>
+      <c r="BJ144">
+        <v>2</v>
+      </c>
+      <c r="BK144">
+        <v>2.19</v>
+      </c>
+      <c r="BL144">
+        <v>1.57</v>
+      </c>
+      <c r="BM144">
+        <v>2.93</v>
+      </c>
+      <c r="BN144">
+        <v>1.33</v>
+      </c>
+      <c r="BO144">
+        <v>3.9</v>
+      </c>
+      <c r="BP144">
+        <v>1.21</v>
+      </c>
+    </row>
+    <row r="145" spans="1:68">
+      <c r="A145" s="1">
+        <v>144</v>
+      </c>
+      <c r="B145">
+        <v>6441831</v>
+      </c>
+      <c r="C145" t="s">
+        <v>68</v>
+      </c>
+      <c r="D145" t="s">
+        <v>69</v>
+      </c>
+      <c r="E145" s="2">
+        <v>45389.60416666666</v>
+      </c>
+      <c r="F145">
+        <v>29</v>
+      </c>
+      <c r="G145" t="s">
+        <v>71</v>
+      </c>
+      <c r="H145" t="s">
+        <v>78</v>
+      </c>
+      <c r="I145">
+        <v>0</v>
+      </c>
+      <c r="J145">
+        <v>0</v>
+      </c>
+      <c r="K145">
+        <v>0</v>
+      </c>
+      <c r="L145">
+        <v>1</v>
+      </c>
+      <c r="M145">
+        <v>0</v>
+      </c>
+      <c r="N145">
+        <v>1</v>
+      </c>
+      <c r="O145" t="s">
+        <v>177</v>
+      </c>
+      <c r="P145" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q145">
+        <v>2.63</v>
+      </c>
+      <c r="R145">
+        <v>2.15</v>
+      </c>
+      <c r="S145">
+        <v>4.5</v>
+      </c>
+      <c r="T145">
+        <v>1.43</v>
+      </c>
+      <c r="U145">
+        <v>2.77</v>
+      </c>
+      <c r="V145">
+        <v>3.17</v>
+      </c>
+      <c r="W145">
+        <v>1.34</v>
+      </c>
+      <c r="X145">
+        <v>8.1</v>
+      </c>
+      <c r="Y145">
+        <v>1.06</v>
+      </c>
+      <c r="Z145">
+        <v>2</v>
+      </c>
+      <c r="AA145">
+        <v>3</v>
+      </c>
+      <c r="AB145">
+        <v>3.8</v>
+      </c>
+      <c r="AC145">
+        <v>1.06</v>
+      </c>
+      <c r="AD145">
+        <v>7.5</v>
+      </c>
+      <c r="AE145">
+        <v>1.33</v>
+      </c>
+      <c r="AF145">
+        <v>3</v>
+      </c>
+      <c r="AG145">
+        <v>2.1</v>
+      </c>
+      <c r="AH145">
+        <v>1.67</v>
+      </c>
+      <c r="AI145">
+        <v>1.88</v>
+      </c>
+      <c r="AJ145">
+        <v>1.88</v>
+      </c>
+      <c r="AK145">
+        <v>1.24</v>
+      </c>
+      <c r="AL145">
+        <v>1.31</v>
+      </c>
+      <c r="AM145">
+        <v>1.77</v>
+      </c>
+      <c r="AN145">
+        <v>2.5</v>
+      </c>
+      <c r="AO145">
+        <v>2</v>
+      </c>
+      <c r="AP145">
+        <v>2.53</v>
+      </c>
+      <c r="AQ145">
+        <v>1.87</v>
+      </c>
+      <c r="AR145">
+        <v>2.14</v>
+      </c>
+      <c r="AS145">
+        <v>1.5</v>
+      </c>
+      <c r="AT145">
+        <v>3.64</v>
+      </c>
+      <c r="AU145">
+        <v>4</v>
+      </c>
+      <c r="AV145">
+        <v>0</v>
+      </c>
+      <c r="AW145">
+        <v>7</v>
+      </c>
+      <c r="AX145">
+        <v>4</v>
+      </c>
+      <c r="AY145">
+        <v>11</v>
+      </c>
+      <c r="AZ145">
+        <v>4</v>
+      </c>
+      <c r="BA145">
+        <v>9</v>
+      </c>
+      <c r="BB145">
+        <v>2</v>
+      </c>
+      <c r="BC145">
+        <v>11</v>
+      </c>
+      <c r="BD145">
+        <v>1.75</v>
+      </c>
+      <c r="BE145">
+        <v>8</v>
+      </c>
+      <c r="BF145">
+        <v>2.52</v>
+      </c>
+      <c r="BG145">
+        <v>1.32</v>
+      </c>
+      <c r="BH145">
+        <v>2.98</v>
+      </c>
+      <c r="BI145">
+        <v>1.63</v>
+      </c>
+      <c r="BJ145">
+        <v>2.22</v>
+      </c>
+      <c r="BK145">
+        <v>2.04</v>
+      </c>
+      <c r="BL145">
+        <v>1.76</v>
+      </c>
+      <c r="BM145">
+        <v>2.64</v>
+      </c>
+      <c r="BN145">
+        <v>1.4</v>
+      </c>
+      <c r="BO145">
+        <v>3.65</v>
+      </c>
+      <c r="BP145">
+        <v>1.22</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
@@ -30514,22 +30514,22 @@
         <v>2.77</v>
       </c>
       <c r="AU143">
+        <v>6</v>
+      </c>
+      <c r="AV143">
         <v>4</v>
       </c>
-      <c r="AV143">
-        <v>3</v>
-      </c>
       <c r="AW143">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX143">
         <v>4</v>
       </c>
       <c r="AY143">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="AZ143">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="BA143">
         <v>6</v>
@@ -30720,22 +30720,22 @@
         <v>3.14</v>
       </c>
       <c r="AU144">
+        <v>7</v>
+      </c>
+      <c r="AV144">
         <v>4</v>
       </c>
-      <c r="AV144">
-        <v>2</v>
-      </c>
       <c r="AW144">
-        <v>8</v>
+        <v>7</v>
       </c>
       <c r="AX144">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="AY144">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AZ144">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="BA144">
         <v>4</v>
@@ -30926,7 +30926,7 @@
         <v>3.64</v>
       </c>
       <c r="AU145">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AV145">
         <v>0</v>
@@ -30938,7 +30938,7 @@
         <v>4</v>
       </c>
       <c r="AY145">
-        <v>11</v>
+        <v>12</v>
       </c>
       <c r="AZ145">
         <v>4</v>

--- a/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="932" uniqueCount="247">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="248">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -756,6 +756,9 @@
   <si>
     <t>['37']</t>
   </si>
+  <si>
+    <t>['57', '63', '90+6']</t>
+  </si>
 </sst>
 </file>
 
@@ -1116,7 +1119,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP145"/>
+  <dimension ref="A1:BP146"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1868,7 +1871,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ4">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2486,7 +2489,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ7">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -3101,7 +3104,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AQ10">
         <v>1.14</v>
@@ -4752,7 +4755,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ18">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AR18">
         <v>1.98</v>
@@ -5161,7 +5164,7 @@
         <v>3</v>
       </c>
       <c r="AP20">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AQ20">
         <v>1.87</v>
@@ -5782,7 +5785,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ23">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AR23">
         <v>1.73</v>
@@ -7015,7 +7018,7 @@
         <v>0.5</v>
       </c>
       <c r="AP29">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AQ29">
         <v>0.93</v>
@@ -8048,7 +8051,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ34">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AR34">
         <v>1.83</v>
@@ -9693,7 +9696,7 @@
         <v>3</v>
       </c>
       <c r="AP42">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AQ42">
         <v>1.92</v>
@@ -10311,7 +10314,7 @@
         <v>1</v>
       </c>
       <c r="AP45">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AQ45">
         <v>1.93</v>
@@ -11959,10 +11962,10 @@
         <v>0.4</v>
       </c>
       <c r="AP53">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AQ53">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AR53">
         <v>1.4</v>
@@ -13195,7 +13198,7 @@
         <v>0.8</v>
       </c>
       <c r="AP59">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AQ59">
         <v>1.07</v>
@@ -14846,7 +14849,7 @@
         <v>1.21</v>
       </c>
       <c r="AQ67">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AR67">
         <v>1.32</v>
@@ -15461,7 +15464,7 @@
         <v>0.71</v>
       </c>
       <c r="AP70">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AQ70">
         <v>0.73</v>
@@ -16288,7 +16291,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ74">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AR74">
         <v>1.5</v>
@@ -17933,7 +17936,7 @@
         <v>1</v>
       </c>
       <c r="AP82">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AQ82">
         <v>1.47</v>
@@ -19172,7 +19175,7 @@
         <v>2.53</v>
       </c>
       <c r="AQ88">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AR88">
         <v>2.24</v>
@@ -19996,7 +19999,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ92">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AR92">
         <v>1.89</v>
@@ -20820,7 +20823,7 @@
         <v>1.29</v>
       </c>
       <c r="AQ96">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AR96">
         <v>1.37</v>
@@ -23498,7 +23501,7 @@
         <v>1.93</v>
       </c>
       <c r="AQ109">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AR109">
         <v>1.66</v>
@@ -24319,7 +24322,7 @@
         <v>1.91</v>
       </c>
       <c r="AP113">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AQ113">
         <v>1.87</v>
@@ -25764,7 +25767,7 @@
         <v>1.5</v>
       </c>
       <c r="AQ120">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AR120">
         <v>1.25</v>
@@ -26791,7 +26794,7 @@
         <v>0.82</v>
       </c>
       <c r="AP125">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AQ125">
         <v>0.93</v>
@@ -27824,7 +27827,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ130">
-        <v>0.86</v>
+        <v>1</v>
       </c>
       <c r="AR130">
         <v>1.9</v>
@@ -28851,7 +28854,7 @@
         <v>1.73</v>
       </c>
       <c r="AP135">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AQ135">
         <v>1.92</v>
@@ -29675,7 +29678,7 @@
         <v>1.85</v>
       </c>
       <c r="AP139">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AQ139">
         <v>1.93</v>
@@ -30087,7 +30090,7 @@
         <v>1</v>
       </c>
       <c r="AP141">
-        <v>0.43</v>
+        <v>0.4</v>
       </c>
       <c r="AQ141">
         <v>1.14</v>
@@ -30990,6 +30993,212 @@
       </c>
       <c r="BP145">
         <v>1.22</v>
+      </c>
+    </row>
+    <row r="146" spans="1:68">
+      <c r="A146" s="1">
+        <v>145</v>
+      </c>
+      <c r="B146">
+        <v>6441838</v>
+      </c>
+      <c r="C146" t="s">
+        <v>68</v>
+      </c>
+      <c r="D146" t="s">
+        <v>69</v>
+      </c>
+      <c r="E146" s="2">
+        <v>45394.5</v>
+      </c>
+      <c r="F146">
+        <v>30</v>
+      </c>
+      <c r="G146" t="s">
+        <v>77</v>
+      </c>
+      <c r="H146" t="s">
+        <v>79</v>
+      </c>
+      <c r="I146">
+        <v>1</v>
+      </c>
+      <c r="J146">
+        <v>0</v>
+      </c>
+      <c r="K146">
+        <v>1</v>
+      </c>
+      <c r="L146">
+        <v>1</v>
+      </c>
+      <c r="M146">
+        <v>3</v>
+      </c>
+      <c r="N146">
+        <v>4</v>
+      </c>
+      <c r="O146" t="s">
+        <v>150</v>
+      </c>
+      <c r="P146" t="s">
+        <v>247</v>
+      </c>
+      <c r="Q146">
+        <v>4.25</v>
+      </c>
+      <c r="R146">
+        <v>2.15</v>
+      </c>
+      <c r="S146">
+        <v>2.45</v>
+      </c>
+      <c r="T146">
+        <v>1.38</v>
+      </c>
+      <c r="U146">
+        <v>2.85</v>
+      </c>
+      <c r="V146">
+        <v>2.7</v>
+      </c>
+      <c r="W146">
+        <v>1.42</v>
+      </c>
+      <c r="X146">
+        <v>7.25</v>
+      </c>
+      <c r="Y146">
+        <v>1.09</v>
+      </c>
+      <c r="Z146">
+        <v>3.6</v>
+      </c>
+      <c r="AA146">
+        <v>3.2</v>
+      </c>
+      <c r="AB146">
+        <v>1.82</v>
+      </c>
+      <c r="AC146">
+        <v>1.05</v>
+      </c>
+      <c r="AD146">
+        <v>11.5</v>
+      </c>
+      <c r="AE146">
+        <v>1.27</v>
+      </c>
+      <c r="AF146">
+        <v>3.5</v>
+      </c>
+      <c r="AG146">
+        <v>1.85</v>
+      </c>
+      <c r="AH146">
+        <v>1.85</v>
+      </c>
+      <c r="AI146">
+        <v>1.72</v>
+      </c>
+      <c r="AJ146">
+        <v>2</v>
+      </c>
+      <c r="AK146">
+        <v>1.82</v>
+      </c>
+      <c r="AL146">
+        <v>1.27</v>
+      </c>
+      <c r="AM146">
+        <v>1.23</v>
+      </c>
+      <c r="AN146">
+        <v>0.43</v>
+      </c>
+      <c r="AO146">
+        <v>0.86</v>
+      </c>
+      <c r="AP146">
+        <v>0.4</v>
+      </c>
+      <c r="AQ146">
+        <v>1</v>
+      </c>
+      <c r="AR146">
+        <v>1.32</v>
+      </c>
+      <c r="AS146">
+        <v>1.25</v>
+      </c>
+      <c r="AT146">
+        <v>2.57</v>
+      </c>
+      <c r="AU146">
+        <v>9</v>
+      </c>
+      <c r="AV146">
+        <v>5</v>
+      </c>
+      <c r="AW146">
+        <v>5</v>
+      </c>
+      <c r="AX146">
+        <v>5</v>
+      </c>
+      <c r="AY146">
+        <v>14</v>
+      </c>
+      <c r="AZ146">
+        <v>10</v>
+      </c>
+      <c r="BA146">
+        <v>6</v>
+      </c>
+      <c r="BB146">
+        <v>7</v>
+      </c>
+      <c r="BC146">
+        <v>13</v>
+      </c>
+      <c r="BD146">
+        <v>2.65</v>
+      </c>
+      <c r="BE146">
+        <v>8</v>
+      </c>
+      <c r="BF146">
+        <v>1.69</v>
+      </c>
+      <c r="BG146">
+        <v>1.37</v>
+      </c>
+      <c r="BH146">
+        <v>2.85</v>
+      </c>
+      <c r="BI146">
+        <v>1.73</v>
+      </c>
+      <c r="BJ146">
+        <v>1.99</v>
+      </c>
+      <c r="BK146">
+        <v>2.23</v>
+      </c>
+      <c r="BL146">
+        <v>1.58</v>
+      </c>
+      <c r="BM146">
+        <v>3.05</v>
+      </c>
+      <c r="BN146">
+        <v>1.33</v>
+      </c>
+      <c r="BO146">
+        <v>3.6</v>
+      </c>
+      <c r="BP146">
+        <v>1.25</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
@@ -31135,22 +31135,22 @@
         <v>2.57</v>
       </c>
       <c r="AU146">
+        <v>7</v>
+      </c>
+      <c r="AV146">
+        <v>3</v>
+      </c>
+      <c r="AW146">
+        <v>3</v>
+      </c>
+      <c r="AX146">
+        <v>6</v>
+      </c>
+      <c r="AY146">
+        <v>10</v>
+      </c>
+      <c r="AZ146">
         <v>9</v>
-      </c>
-      <c r="AV146">
-        <v>5</v>
-      </c>
-      <c r="AW146">
-        <v>5</v>
-      </c>
-      <c r="AX146">
-        <v>5</v>
-      </c>
-      <c r="AY146">
-        <v>14</v>
-      </c>
-      <c r="AZ146">
-        <v>10</v>
       </c>
       <c r="BA146">
         <v>6</v>

--- a/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="938" uniqueCount="248">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="252">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -759,6 +759,18 @@
   <si>
     <t>['57', '63', '90+6']</t>
   </si>
+  <si>
+    <t>['43', '49']</t>
+  </si>
+  <si>
+    <t>['13', '88']</t>
+  </si>
+  <si>
+    <t>['19', '42']</t>
+  </si>
+  <si>
+    <t>['30', '84']</t>
+  </si>
 </sst>
 </file>
 
@@ -1119,7 +1131,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP146"/>
+  <dimension ref="A1:BP150"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2074,7 +2086,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ5">
         <v>1.07</v>
@@ -2486,7 +2498,7 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ7">
         <v>1</v>
@@ -2692,10 +2704,10 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ8">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR8">
         <v>2.02</v>
@@ -2898,10 +2910,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AQ9">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3107,7 +3119,7 @@
         <v>0.4</v>
       </c>
       <c r="AQ10">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3310,10 +3322,10 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AQ11">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -4340,7 +4352,7 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ16">
         <v>0.07000000000000001</v>
@@ -4546,10 +4558,10 @@
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AQ17">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AR17">
         <v>0.82</v>
@@ -4752,7 +4764,7 @@
         <v>0.5</v>
       </c>
       <c r="AP18">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AQ18">
         <v>1</v>
@@ -5579,7 +5591,7 @@
         <v>2.53</v>
       </c>
       <c r="AQ22">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR22">
         <v>2.49</v>
@@ -5782,7 +5794,7 @@
         <v>0.33</v>
       </c>
       <c r="AP23">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ23">
         <v>1</v>
@@ -5988,7 +6000,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ24">
         <v>1.87</v>
@@ -6197,7 +6209,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ25">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AR25">
         <v>1.89</v>
@@ -6400,7 +6412,7 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AQ26">
         <v>0.07000000000000001</v>
@@ -6609,7 +6621,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ27">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR27">
         <v>1.7</v>
@@ -6815,7 +6827,7 @@
         <v>1</v>
       </c>
       <c r="AQ28">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR28">
         <v>1.1</v>
@@ -7224,7 +7236,7 @@
         <v>0.67</v>
       </c>
       <c r="AP30">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AQ30">
         <v>0.73</v>
@@ -7639,7 +7651,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ32">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR32">
         <v>2.06</v>
@@ -8257,7 +8269,7 @@
         <v>2.53</v>
       </c>
       <c r="AQ35">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AR35">
         <v>2.48</v>
@@ -8460,7 +8472,7 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ36">
         <v>1.87</v>
@@ -8666,7 +8678,7 @@
         <v>1.25</v>
       </c>
       <c r="AP37">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ37">
         <v>0.73</v>
@@ -9078,7 +9090,7 @@
         <v>1.33</v>
       </c>
       <c r="AP39">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AQ39">
         <v>0.93</v>
@@ -9284,10 +9296,10 @@
         <v>1</v>
       </c>
       <c r="AP40">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AQ40">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR40">
         <v>1.89</v>
@@ -9493,7 +9505,7 @@
         <v>1</v>
       </c>
       <c r="AQ41">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR41">
         <v>1.05</v>
@@ -9699,7 +9711,7 @@
         <v>0.4</v>
       </c>
       <c r="AQ42">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR42">
         <v>1.73</v>
@@ -9902,7 +9914,7 @@
         <v>1.75</v>
       </c>
       <c r="AP43">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ43">
         <v>0.93</v>
@@ -10111,7 +10123,7 @@
         <v>1</v>
       </c>
       <c r="AQ44">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AR44">
         <v>1.11</v>
@@ -10317,7 +10329,7 @@
         <v>0.4</v>
       </c>
       <c r="AQ45">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR45">
         <v>1.46</v>
@@ -10520,10 +10532,10 @@
         <v>3</v>
       </c>
       <c r="AP46">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AQ46">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR46">
         <v>1.9</v>
@@ -10726,10 +10738,10 @@
         <v>0.75</v>
       </c>
       <c r="AP47">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AQ47">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR47">
         <v>1.43</v>
@@ -12168,10 +12180,10 @@
         <v>1.2</v>
       </c>
       <c r="AP54">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ54">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR54">
         <v>1.48</v>
@@ -12374,10 +12386,10 @@
         <v>2.25</v>
       </c>
       <c r="AP55">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ55">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR55">
         <v>1.6</v>
@@ -12580,10 +12592,10 @@
         <v>1.5</v>
       </c>
       <c r="AP56">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AQ56">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR56">
         <v>1.41</v>
@@ -12786,10 +12798,10 @@
         <v>1</v>
       </c>
       <c r="AP57">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AQ57">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AR57">
         <v>1.76</v>
@@ -13819,7 +13831,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ62">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR62">
         <v>1.89</v>
@@ -14025,7 +14037,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ63">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR63">
         <v>1.67</v>
@@ -14228,10 +14240,10 @@
         <v>1.33</v>
       </c>
       <c r="AP64">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ64">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AR64">
         <v>1.49</v>
@@ -14434,7 +14446,7 @@
         <v>0.17</v>
       </c>
       <c r="AP65">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AQ65">
         <v>0.07000000000000001</v>
@@ -14640,10 +14652,10 @@
         <v>1.8</v>
       </c>
       <c r="AP66">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ66">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR66">
         <v>1.5</v>
@@ -14846,7 +14858,7 @@
         <v>0.5</v>
       </c>
       <c r="AP67">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AQ67">
         <v>1</v>
@@ -15673,7 +15685,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ71">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR71">
         <v>1.96</v>
@@ -15876,7 +15888,7 @@
         <v>0.83</v>
       </c>
       <c r="AP72">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AQ72">
         <v>1.07</v>
@@ -16085,7 +16097,7 @@
         <v>2.53</v>
       </c>
       <c r="AQ73">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR73">
         <v>2.26</v>
@@ -16494,10 +16506,10 @@
         <v>1.33</v>
       </c>
       <c r="AP75">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ75">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR75">
         <v>1.4</v>
@@ -16703,7 +16715,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ76">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AR76">
         <v>2.04</v>
@@ -16906,7 +16918,7 @@
         <v>2.14</v>
       </c>
       <c r="AP77">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AQ77">
         <v>1.87</v>
@@ -17112,7 +17124,7 @@
         <v>0.14</v>
       </c>
       <c r="AP78">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ78">
         <v>0.07000000000000001</v>
@@ -17318,7 +17330,7 @@
         <v>0.71</v>
       </c>
       <c r="AP79">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AQ79">
         <v>1.07</v>
@@ -17527,7 +17539,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ80">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR80">
         <v>1.97</v>
@@ -17730,7 +17742,7 @@
         <v>1.13</v>
       </c>
       <c r="AP81">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AQ81">
         <v>0.93</v>
@@ -17939,7 +17951,7 @@
         <v>0.4</v>
       </c>
       <c r="AQ82">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR82">
         <v>1.42</v>
@@ -18145,7 +18157,7 @@
         <v>1</v>
       </c>
       <c r="AQ83">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR83">
         <v>1.43</v>
@@ -18554,7 +18566,7 @@
         <v>1</v>
       </c>
       <c r="AP85">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ85">
         <v>0.73</v>
@@ -18966,10 +18978,10 @@
         <v>1</v>
       </c>
       <c r="AP87">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ87">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AR87">
         <v>1.36</v>
@@ -19378,7 +19390,7 @@
         <v>0.63</v>
       </c>
       <c r="AP89">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ89">
         <v>1.07</v>
@@ -20411,7 +20423,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ94">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR94">
         <v>1.9</v>
@@ -20614,10 +20626,10 @@
         <v>1.5</v>
       </c>
       <c r="AP95">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ95">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR95">
         <v>1.36</v>
@@ -20820,7 +20832,7 @@
         <v>0.9</v>
       </c>
       <c r="AP96">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ96">
         <v>1</v>
@@ -21232,10 +21244,10 @@
         <v>1.75</v>
       </c>
       <c r="AP98">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AQ98">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR98">
         <v>1.2</v>
@@ -21438,10 +21450,10 @@
         <v>1.2</v>
       </c>
       <c r="AP99">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ99">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR99">
         <v>1.31</v>
@@ -21644,10 +21656,10 @@
         <v>1.67</v>
       </c>
       <c r="AP100">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AQ100">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR100">
         <v>1.75</v>
@@ -22880,7 +22892,7 @@
         <v>0.08</v>
       </c>
       <c r="AP106">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ106">
         <v>0.07000000000000001</v>
@@ -23086,10 +23098,10 @@
         <v>1</v>
       </c>
       <c r="AP107">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AQ107">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AR107">
         <v>1.14</v>
@@ -23295,7 +23307,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ108">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR108">
         <v>1.59</v>
@@ -23498,7 +23510,7 @@
         <v>1.09</v>
       </c>
       <c r="AP109">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AQ109">
         <v>1</v>
@@ -23704,10 +23716,10 @@
         <v>1.8</v>
       </c>
       <c r="AP110">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ110">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR110">
         <v>1.27</v>
@@ -24119,7 +24131,7 @@
         <v>2.53</v>
       </c>
       <c r="AQ112">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR112">
         <v>2.21</v>
@@ -24943,7 +24955,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ116">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AR116">
         <v>1.58</v>
@@ -25146,7 +25158,7 @@
         <v>2</v>
       </c>
       <c r="AP117">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ117">
         <v>1.87</v>
@@ -25352,7 +25364,7 @@
         <v>0.08</v>
       </c>
       <c r="AP118">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AQ118">
         <v>0.07000000000000001</v>
@@ -25561,7 +25573,7 @@
         <v>2.33</v>
       </c>
       <c r="AQ119">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR119">
         <v>1.95</v>
@@ -25764,7 +25776,7 @@
         <v>1</v>
       </c>
       <c r="AP120">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ120">
         <v>1</v>
@@ -25973,7 +25985,7 @@
         <v>1</v>
       </c>
       <c r="AQ121">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR121">
         <v>1.47</v>
@@ -26176,7 +26188,7 @@
         <v>0.83</v>
       </c>
       <c r="AP122">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AQ122">
         <v>0.73</v>
@@ -26591,7 +26603,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ124">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR124">
         <v>1.86</v>
@@ -27000,7 +27012,7 @@
         <v>0.77</v>
       </c>
       <c r="AP126">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ126">
         <v>0.73</v>
@@ -27412,7 +27424,7 @@
         <v>1.92</v>
       </c>
       <c r="AP128">
-        <v>1.5</v>
+        <v>1.4</v>
       </c>
       <c r="AQ128">
         <v>1.87</v>
@@ -27621,7 +27633,7 @@
         <v>2.53</v>
       </c>
       <c r="AQ129">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AR129">
         <v>2.15</v>
@@ -28239,7 +28251,7 @@
         <v>1</v>
       </c>
       <c r="AQ132">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR132">
         <v>1.46</v>
@@ -28442,10 +28454,10 @@
         <v>1.38</v>
       </c>
       <c r="AP133">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AQ133">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR133">
         <v>1.61</v>
@@ -28648,7 +28660,7 @@
         <v>0.75</v>
       </c>
       <c r="AP134">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AQ134">
         <v>0.93</v>
@@ -28857,7 +28869,7 @@
         <v>0.4</v>
       </c>
       <c r="AQ135">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR135">
         <v>1.39</v>
@@ -29060,10 +29072,10 @@
         <v>1.5</v>
       </c>
       <c r="AP136">
-        <v>1.21</v>
+        <v>1.13</v>
       </c>
       <c r="AQ136">
-        <v>1.47</v>
+        <v>1.56</v>
       </c>
       <c r="AR136">
         <v>1.17</v>
@@ -29269,7 +29281,7 @@
         <v>1</v>
       </c>
       <c r="AQ137">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AR137">
         <v>1.43</v>
@@ -29472,7 +29484,7 @@
         <v>0.77</v>
       </c>
       <c r="AP138">
-        <v>1.29</v>
+        <v>1.2</v>
       </c>
       <c r="AQ138">
         <v>0.93</v>
@@ -29681,7 +29693,7 @@
         <v>0.4</v>
       </c>
       <c r="AQ139">
-        <v>1.93</v>
+        <v>2</v>
       </c>
       <c r="AR139">
         <v>1.31</v>
@@ -29884,10 +29896,10 @@
         <v>1.83</v>
       </c>
       <c r="AP140">
-        <v>1.93</v>
+        <v>1.8</v>
       </c>
       <c r="AQ140">
-        <v>1.92</v>
+        <v>2</v>
       </c>
       <c r="AR140">
         <v>1.59</v>
@@ -30093,7 +30105,7 @@
         <v>0.4</v>
       </c>
       <c r="AQ141">
-        <v>1.14</v>
+        <v>1.27</v>
       </c>
       <c r="AR141">
         <v>1.29</v>
@@ -31135,22 +31147,22 @@
         <v>2.57</v>
       </c>
       <c r="AU146">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV146">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AW146">
-        <v>3</v>
+        <v>4</v>
       </c>
       <c r="AX146">
         <v>6</v>
       </c>
       <c r="AY146">
-        <v>10</v>
+        <v>12</v>
       </c>
       <c r="AZ146">
-        <v>9</v>
+        <v>11</v>
       </c>
       <c r="BA146">
         <v>6</v>
@@ -31198,6 +31210,830 @@
         <v>3.6</v>
       </c>
       <c r="BP146">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="147" spans="1:68">
+      <c r="A147" s="1">
+        <v>146</v>
+      </c>
+      <c r="B147">
+        <v>6441834</v>
+      </c>
+      <c r="C147" t="s">
+        <v>68</v>
+      </c>
+      <c r="D147" t="s">
+        <v>69</v>
+      </c>
+      <c r="E147" s="2">
+        <v>45395.49305555555</v>
+      </c>
+      <c r="F147">
+        <v>30</v>
+      </c>
+      <c r="G147" t="s">
+        <v>75</v>
+      </c>
+      <c r="H147" t="s">
+        <v>74</v>
+      </c>
+      <c r="I147">
+        <v>0</v>
+      </c>
+      <c r="J147">
+        <v>1</v>
+      </c>
+      <c r="K147">
+        <v>1</v>
+      </c>
+      <c r="L147">
+        <v>0</v>
+      </c>
+      <c r="M147">
+        <v>2</v>
+      </c>
+      <c r="N147">
+        <v>2</v>
+      </c>
+      <c r="O147" t="s">
+        <v>87</v>
+      </c>
+      <c r="P147" t="s">
+        <v>248</v>
+      </c>
+      <c r="Q147">
+        <v>3.45</v>
+      </c>
+      <c r="R147">
+        <v>2.2</v>
+      </c>
+      <c r="S147">
+        <v>3.1</v>
+      </c>
+      <c r="T147">
+        <v>1.38</v>
+      </c>
+      <c r="U147">
+        <v>2.97</v>
+      </c>
+      <c r="V147">
+        <v>2.91</v>
+      </c>
+      <c r="W147">
+        <v>1.39</v>
+      </c>
+      <c r="X147">
+        <v>7.2</v>
+      </c>
+      <c r="Y147">
+        <v>1.08</v>
+      </c>
+      <c r="Z147">
+        <v>2.76</v>
+      </c>
+      <c r="AA147">
+        <v>3.18</v>
+      </c>
+      <c r="AB147">
+        <v>2.42</v>
+      </c>
+      <c r="AC147">
+        <v>1.05</v>
+      </c>
+      <c r="AD147">
+        <v>11</v>
+      </c>
+      <c r="AE147">
+        <v>1.28</v>
+      </c>
+      <c r="AF147">
+        <v>3.3</v>
+      </c>
+      <c r="AG147">
+        <v>1.9</v>
+      </c>
+      <c r="AH147">
+        <v>1.8</v>
+      </c>
+      <c r="AI147">
+        <v>1.72</v>
+      </c>
+      <c r="AJ147">
+        <v>2.07</v>
+      </c>
+      <c r="AK147">
+        <v>1.52</v>
+      </c>
+      <c r="AL147">
+        <v>1.32</v>
+      </c>
+      <c r="AM147">
+        <v>1.41</v>
+      </c>
+      <c r="AN147">
+        <v>1.29</v>
+      </c>
+      <c r="AO147">
+        <v>1.47</v>
+      </c>
+      <c r="AP147">
+        <v>1.2</v>
+      </c>
+      <c r="AQ147">
+        <v>1.56</v>
+      </c>
+      <c r="AR147">
+        <v>1.33</v>
+      </c>
+      <c r="AS147">
+        <v>1.49</v>
+      </c>
+      <c r="AT147">
+        <v>2.82</v>
+      </c>
+      <c r="AU147">
+        <v>7</v>
+      </c>
+      <c r="AV147">
+        <v>5</v>
+      </c>
+      <c r="AW147">
+        <v>5</v>
+      </c>
+      <c r="AX147">
+        <v>6</v>
+      </c>
+      <c r="AY147">
+        <v>12</v>
+      </c>
+      <c r="AZ147">
+        <v>11</v>
+      </c>
+      <c r="BA147">
+        <v>4</v>
+      </c>
+      <c r="BB147">
+        <v>9</v>
+      </c>
+      <c r="BC147">
+        <v>13</v>
+      </c>
+      <c r="BD147">
+        <v>2</v>
+      </c>
+      <c r="BE147">
+        <v>8</v>
+      </c>
+      <c r="BF147">
+        <v>2.05</v>
+      </c>
+      <c r="BG147">
+        <v>1.22</v>
+      </c>
+      <c r="BH147">
+        <v>3.65</v>
+      </c>
+      <c r="BI147">
+        <v>1.48</v>
+      </c>
+      <c r="BJ147">
+        <v>2.55</v>
+      </c>
+      <c r="BK147">
+        <v>1.82</v>
+      </c>
+      <c r="BL147">
+        <v>1.97</v>
+      </c>
+      <c r="BM147">
+        <v>2</v>
+      </c>
+      <c r="BN147">
+        <v>1.8</v>
+      </c>
+      <c r="BO147">
+        <v>2.93</v>
+      </c>
+      <c r="BP147">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="148" spans="1:68">
+      <c r="A148" s="1">
+        <v>147</v>
+      </c>
+      <c r="B148">
+        <v>6441835</v>
+      </c>
+      <c r="C148" t="s">
+        <v>68</v>
+      </c>
+      <c r="D148" t="s">
+        <v>69</v>
+      </c>
+      <c r="E148" s="2">
+        <v>45395.58333333334</v>
+      </c>
+      <c r="F148">
+        <v>30</v>
+      </c>
+      <c r="G148" t="s">
+        <v>73</v>
+      </c>
+      <c r="H148" t="s">
+        <v>70</v>
+      </c>
+      <c r="I148">
+        <v>0</v>
+      </c>
+      <c r="J148">
+        <v>1</v>
+      </c>
+      <c r="K148">
+        <v>1</v>
+      </c>
+      <c r="L148">
+        <v>0</v>
+      </c>
+      <c r="M148">
+        <v>2</v>
+      </c>
+      <c r="N148">
+        <v>2</v>
+      </c>
+      <c r="O148" t="s">
+        <v>87</v>
+      </c>
+      <c r="P148" t="s">
+        <v>249</v>
+      </c>
+      <c r="Q148">
+        <v>8</v>
+      </c>
+      <c r="R148">
+        <v>2.45</v>
+      </c>
+      <c r="S148">
+        <v>1.7</v>
+      </c>
+      <c r="T148">
+        <v>1.32</v>
+      </c>
+      <c r="U148">
+        <v>3.15</v>
+      </c>
+      <c r="V148">
+        <v>2.45</v>
+      </c>
+      <c r="W148">
+        <v>1.48</v>
+      </c>
+      <c r="X148">
+        <v>6</v>
+      </c>
+      <c r="Y148">
+        <v>1.12</v>
+      </c>
+      <c r="Z148">
+        <v>8</v>
+      </c>
+      <c r="AA148">
+        <v>4.75</v>
+      </c>
+      <c r="AB148">
+        <v>1.3</v>
+      </c>
+      <c r="AC148">
+        <v>1.03</v>
+      </c>
+      <c r="AD148">
+        <v>16</v>
+      </c>
+      <c r="AE148">
+        <v>1.2</v>
+      </c>
+      <c r="AF148">
+        <v>4</v>
+      </c>
+      <c r="AG148">
+        <v>1.68</v>
+      </c>
+      <c r="AH148">
+        <v>2.1</v>
+      </c>
+      <c r="AI148">
+        <v>2</v>
+      </c>
+      <c r="AJ148">
+        <v>1.73</v>
+      </c>
+      <c r="AK148">
+        <v>3.1</v>
+      </c>
+      <c r="AL148">
+        <v>1.17</v>
+      </c>
+      <c r="AM148">
+        <v>1.05</v>
+      </c>
+      <c r="AN148">
+        <v>1.5</v>
+      </c>
+      <c r="AO148">
+        <v>1.92</v>
+      </c>
+      <c r="AP148">
+        <v>1.4</v>
+      </c>
+      <c r="AQ148">
+        <v>2</v>
+      </c>
+      <c r="AR148">
+        <v>1.26</v>
+      </c>
+      <c r="AS148">
+        <v>1.94</v>
+      </c>
+      <c r="AT148">
+        <v>3.2</v>
+      </c>
+      <c r="AU148">
+        <v>2</v>
+      </c>
+      <c r="AV148">
+        <v>5</v>
+      </c>
+      <c r="AW148">
+        <v>3</v>
+      </c>
+      <c r="AX148">
+        <v>5</v>
+      </c>
+      <c r="AY148">
+        <v>5</v>
+      </c>
+      <c r="AZ148">
+        <v>10</v>
+      </c>
+      <c r="BA148">
+        <v>4</v>
+      </c>
+      <c r="BB148">
+        <v>7</v>
+      </c>
+      <c r="BC148">
+        <v>11</v>
+      </c>
+      <c r="BD148">
+        <v>4.88</v>
+      </c>
+      <c r="BE148">
+        <v>9.5</v>
+      </c>
+      <c r="BF148">
+        <v>1.26</v>
+      </c>
+      <c r="BG148">
+        <v>1.45</v>
+      </c>
+      <c r="BH148">
+        <v>2.61</v>
+      </c>
+      <c r="BI148">
+        <v>2</v>
+      </c>
+      <c r="BJ148">
+        <v>1.8</v>
+      </c>
+      <c r="BK148">
+        <v>2.21</v>
+      </c>
+      <c r="BL148">
+        <v>1.63</v>
+      </c>
+      <c r="BM148">
+        <v>3.42</v>
+      </c>
+      <c r="BN148">
+        <v>1.25</v>
+      </c>
+      <c r="BO148">
+        <v>4</v>
+      </c>
+      <c r="BP148">
+        <v>1.2</v>
+      </c>
+    </row>
+    <row r="149" spans="1:68">
+      <c r="A149" s="1">
+        <v>148</v>
+      </c>
+      <c r="B149">
+        <v>6441837</v>
+      </c>
+      <c r="C149" t="s">
+        <v>68</v>
+      </c>
+      <c r="D149" t="s">
+        <v>69</v>
+      </c>
+      <c r="E149" s="2">
+        <v>45396.47916666666</v>
+      </c>
+      <c r="F149">
+        <v>30</v>
+      </c>
+      <c r="G149" t="s">
+        <v>78</v>
+      </c>
+      <c r="H149" t="s">
+        <v>72</v>
+      </c>
+      <c r="I149">
+        <v>1</v>
+      </c>
+      <c r="J149">
+        <v>2</v>
+      </c>
+      <c r="K149">
+        <v>3</v>
+      </c>
+      <c r="L149">
+        <v>1</v>
+      </c>
+      <c r="M149">
+        <v>2</v>
+      </c>
+      <c r="N149">
+        <v>3</v>
+      </c>
+      <c r="O149" t="s">
+        <v>83</v>
+      </c>
+      <c r="P149" t="s">
+        <v>250</v>
+      </c>
+      <c r="Q149">
+        <v>2.1</v>
+      </c>
+      <c r="R149">
+        <v>2.15</v>
+      </c>
+      <c r="S149">
+        <v>6</v>
+      </c>
+      <c r="T149">
+        <v>1.42</v>
+      </c>
+      <c r="U149">
+        <v>2.65</v>
+      </c>
+      <c r="V149">
+        <v>2.9</v>
+      </c>
+      <c r="W149">
+        <v>1.35</v>
+      </c>
+      <c r="X149">
+        <v>8.25</v>
+      </c>
+      <c r="Y149">
+        <v>1.07</v>
+      </c>
+      <c r="Z149">
+        <v>1.52</v>
+      </c>
+      <c r="AA149">
+        <v>3.83</v>
+      </c>
+      <c r="AB149">
+        <v>5.85</v>
+      </c>
+      <c r="AC149">
+        <v>1.05</v>
+      </c>
+      <c r="AD149">
+        <v>10.5</v>
+      </c>
+      <c r="AE149">
+        <v>1.32</v>
+      </c>
+      <c r="AF149">
+        <v>3.1</v>
+      </c>
+      <c r="AG149">
+        <v>2</v>
+      </c>
+      <c r="AH149">
+        <v>1.72</v>
+      </c>
+      <c r="AI149">
+        <v>2.1</v>
+      </c>
+      <c r="AJ149">
+        <v>1.65</v>
+      </c>
+      <c r="AK149">
+        <v>1.12</v>
+      </c>
+      <c r="AL149">
+        <v>1.2</v>
+      </c>
+      <c r="AM149">
+        <v>2.4</v>
+      </c>
+      <c r="AN149">
+        <v>1.93</v>
+      </c>
+      <c r="AO149">
+        <v>1.14</v>
+      </c>
+      <c r="AP149">
+        <v>1.8</v>
+      </c>
+      <c r="AQ149">
+        <v>1.27</v>
+      </c>
+      <c r="AR149">
+        <v>1.6</v>
+      </c>
+      <c r="AS149">
+        <v>1.35</v>
+      </c>
+      <c r="AT149">
+        <v>2.95</v>
+      </c>
+      <c r="AU149">
+        <v>4</v>
+      </c>
+      <c r="AV149">
+        <v>3</v>
+      </c>
+      <c r="AW149">
+        <v>0</v>
+      </c>
+      <c r="AX149">
+        <v>3</v>
+      </c>
+      <c r="AY149">
+        <v>4</v>
+      </c>
+      <c r="AZ149">
+        <v>6</v>
+      </c>
+      <c r="BA149">
+        <v>3</v>
+      </c>
+      <c r="BB149">
+        <v>2</v>
+      </c>
+      <c r="BC149">
+        <v>5</v>
+      </c>
+      <c r="BD149">
+        <v>1.45</v>
+      </c>
+      <c r="BE149">
+        <v>8.5</v>
+      </c>
+      <c r="BF149">
+        <v>3.33</v>
+      </c>
+      <c r="BG149">
+        <v>1.35</v>
+      </c>
+      <c r="BH149">
+        <v>2.84</v>
+      </c>
+      <c r="BI149">
+        <v>1.65</v>
+      </c>
+      <c r="BJ149">
+        <v>2.11</v>
+      </c>
+      <c r="BK149">
+        <v>2.07</v>
+      </c>
+      <c r="BL149">
+        <v>1.64</v>
+      </c>
+      <c r="BM149">
+        <v>2.79</v>
+      </c>
+      <c r="BN149">
+        <v>1.36</v>
+      </c>
+      <c r="BO149">
+        <v>3.6</v>
+      </c>
+      <c r="BP149">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="150" spans="1:68">
+      <c r="A150" s="1">
+        <v>149</v>
+      </c>
+      <c r="B150">
+        <v>6441836</v>
+      </c>
+      <c r="C150" t="s">
+        <v>68</v>
+      </c>
+      <c r="D150" t="s">
+        <v>69</v>
+      </c>
+      <c r="E150" s="2">
+        <v>45396.58333333334</v>
+      </c>
+      <c r="F150">
+        <v>30</v>
+      </c>
+      <c r="G150" t="s">
+        <v>76</v>
+      </c>
+      <c r="H150" t="s">
+        <v>71</v>
+      </c>
+      <c r="I150">
+        <v>0</v>
+      </c>
+      <c r="J150">
+        <v>1</v>
+      </c>
+      <c r="K150">
+        <v>1</v>
+      </c>
+      <c r="L150">
+        <v>0</v>
+      </c>
+      <c r="M150">
+        <v>2</v>
+      </c>
+      <c r="N150">
+        <v>2</v>
+      </c>
+      <c r="O150" t="s">
+        <v>87</v>
+      </c>
+      <c r="P150" t="s">
+        <v>251</v>
+      </c>
+      <c r="Q150">
+        <v>5.85</v>
+      </c>
+      <c r="R150">
+        <v>2.11</v>
+      </c>
+      <c r="S150">
+        <v>2.17</v>
+      </c>
+      <c r="T150">
+        <v>1.44</v>
+      </c>
+      <c r="U150">
+        <v>2.67</v>
+      </c>
+      <c r="V150">
+        <v>3.04</v>
+      </c>
+      <c r="W150">
+        <v>1.35</v>
+      </c>
+      <c r="X150">
+        <v>8</v>
+      </c>
+      <c r="Y150">
+        <v>1.06</v>
+      </c>
+      <c r="Z150">
+        <v>5.45</v>
+      </c>
+      <c r="AA150">
+        <v>3.74</v>
+      </c>
+      <c r="AB150">
+        <v>1.62</v>
+      </c>
+      <c r="AC150">
+        <v>1.03</v>
+      </c>
+      <c r="AD150">
+        <v>8</v>
+      </c>
+      <c r="AE150">
+        <v>1.33</v>
+      </c>
+      <c r="AF150">
+        <v>2.93</v>
+      </c>
+      <c r="AG150">
+        <v>2.11</v>
+      </c>
+      <c r="AH150">
+        <v>1.71</v>
+      </c>
+      <c r="AI150">
+        <v>2.06</v>
+      </c>
+      <c r="AJ150">
+        <v>1.68</v>
+      </c>
+      <c r="AK150">
+        <v>2.23</v>
+      </c>
+      <c r="AL150">
+        <v>1.25</v>
+      </c>
+      <c r="AM150">
+        <v>1.13</v>
+      </c>
+      <c r="AN150">
+        <v>1.21</v>
+      </c>
+      <c r="AO150">
+        <v>1.93</v>
+      </c>
+      <c r="AP150">
+        <v>1.13</v>
+      </c>
+      <c r="AQ150">
+        <v>2</v>
+      </c>
+      <c r="AR150">
+        <v>1.17</v>
+      </c>
+      <c r="AS150">
+        <v>1.49</v>
+      </c>
+      <c r="AT150">
+        <v>2.66</v>
+      </c>
+      <c r="AU150">
+        <v>3</v>
+      </c>
+      <c r="AV150">
+        <v>2</v>
+      </c>
+      <c r="AW150">
+        <v>4</v>
+      </c>
+      <c r="AX150">
+        <v>5</v>
+      </c>
+      <c r="AY150">
+        <v>7</v>
+      </c>
+      <c r="AZ150">
+        <v>7</v>
+      </c>
+      <c r="BA150">
+        <v>3</v>
+      </c>
+      <c r="BB150">
+        <v>2</v>
+      </c>
+      <c r="BC150">
+        <v>5</v>
+      </c>
+      <c r="BD150">
+        <v>3.35</v>
+      </c>
+      <c r="BE150">
+        <v>8</v>
+      </c>
+      <c r="BF150">
+        <v>1.45</v>
+      </c>
+      <c r="BG150">
+        <v>1.38</v>
+      </c>
+      <c r="BH150">
+        <v>2.71</v>
+      </c>
+      <c r="BI150">
+        <v>1.98</v>
+      </c>
+      <c r="BJ150">
+        <v>1.82</v>
+      </c>
+      <c r="BK150">
+        <v>2.14</v>
+      </c>
+      <c r="BL150">
+        <v>1.68</v>
+      </c>
+      <c r="BM150">
+        <v>2.93</v>
+      </c>
+      <c r="BN150">
+        <v>1.33</v>
+      </c>
+      <c r="BO150">
+        <v>3.6</v>
+      </c>
+      <c r="BP150">
         <v>1.25</v>
       </c>
     </row>

--- a/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
@@ -31562,7 +31562,7 @@
         <v>2</v>
       </c>
       <c r="AV148">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="AW148">
         <v>3</v>
@@ -31574,7 +31574,7 @@
         <v>5</v>
       </c>
       <c r="AZ148">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="BA148">
         <v>4</v>
@@ -31765,31 +31765,31 @@
         <v>2.95</v>
       </c>
       <c r="AU149">
-        <v>4</v>
+        <v>7</v>
       </c>
       <c r="AV149">
-        <v>3</v>
+        <v>6</v>
       </c>
       <c r="AW149">
-        <v>0</v>
+        <v>6</v>
       </c>
       <c r="AX149">
-        <v>3</v>
+        <v>5</v>
       </c>
       <c r="AY149">
-        <v>4</v>
+        <v>13</v>
       </c>
       <c r="AZ149">
+        <v>11</v>
+      </c>
+      <c r="BA149">
         <v>6</v>
       </c>
-      <c r="BA149">
-        <v>3</v>
-      </c>
       <c r="BB149">
         <v>2</v>
       </c>
       <c r="BC149">
-        <v>5</v>
+        <v>8</v>
       </c>
       <c r="BD149">
         <v>1.45</v>

--- a/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
@@ -31974,19 +31974,19 @@
         <v>3</v>
       </c>
       <c r="AV150">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="AW150">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX150">
         <v>5</v>
       </c>
       <c r="AY150">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AZ150">
-        <v>7</v>
+        <v>9</v>
       </c>
       <c r="BA150">
         <v>3</v>

--- a/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="962" uniqueCount="252">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="253">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -548,6 +548,9 @@
   </si>
   <si>
     <t>['70']</t>
+  </si>
+  <si>
+    <t>['26', '53']</t>
   </si>
   <si>
     <t>['74', '90+3']</t>
@@ -1131,7 +1134,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP150"/>
+  <dimension ref="A1:BP151"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1390,7 +1393,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>178</v>
+        <v>179</v>
       </c>
       <c r="Q2">
         <v>2.36</v>
@@ -1468,7 +1471,7 @@
         <v>0</v>
       </c>
       <c r="AP2">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ2">
         <v>1.87</v>
@@ -2089,7 +2092,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ5">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -2214,7 +2217,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q6">
         <v>2.55</v>
@@ -2420,7 +2423,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q7">
         <v>2.64</v>
@@ -2832,7 +2835,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q9">
         <v>5.85</v>
@@ -3038,7 +3041,7 @@
         <v>88</v>
       </c>
       <c r="P10" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -3450,7 +3453,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3531,7 +3534,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ12">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR12">
         <v>1.99</v>
@@ -3656,7 +3659,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q13">
         <v>2.35</v>
@@ -3940,7 +3943,7 @@
         <v>0</v>
       </c>
       <c r="AP14">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ14">
         <v>0.93</v>
@@ -4480,7 +4483,7 @@
         <v>94</v>
       </c>
       <c r="P17" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q17">
         <v>3.5</v>
@@ -4892,7 +4895,7 @@
         <v>96</v>
       </c>
       <c r="P19" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q19">
         <v>3.1</v>
@@ -5098,7 +5101,7 @@
         <v>87</v>
       </c>
       <c r="P20" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q20">
         <v>7</v>
@@ -5510,7 +5513,7 @@
         <v>98</v>
       </c>
       <c r="P22" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q22">
         <v>2.15</v>
@@ -5716,7 +5719,7 @@
         <v>99</v>
       </c>
       <c r="P23" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q23">
         <v>2.29</v>
@@ -5922,7 +5925,7 @@
         <v>100</v>
       </c>
       <c r="P24" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q24">
         <v>4.5</v>
@@ -6128,7 +6131,7 @@
         <v>101</v>
       </c>
       <c r="P25" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q25">
         <v>3.1</v>
@@ -6540,7 +6543,7 @@
         <v>102</v>
       </c>
       <c r="P27" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q27">
         <v>2.14</v>
@@ -6618,7 +6621,7 @@
         <v>0</v>
       </c>
       <c r="AP27">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ27">
         <v>2</v>
@@ -6746,7 +6749,7 @@
         <v>87</v>
       </c>
       <c r="P28" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q28">
         <v>3.4</v>
@@ -6952,7 +6955,7 @@
         <v>87</v>
       </c>
       <c r="P29" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q29">
         <v>3.5</v>
@@ -7158,7 +7161,7 @@
         <v>87</v>
       </c>
       <c r="P30" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q30">
         <v>1.67</v>
@@ -7364,7 +7367,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q31">
         <v>2</v>
@@ -7445,7 +7448,7 @@
         <v>2.53</v>
       </c>
       <c r="AQ31">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR31">
         <v>2.62</v>
@@ -7570,7 +7573,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q32">
         <v>4.75</v>
@@ -8060,7 +8063,7 @@
         <v>0.5</v>
       </c>
       <c r="AP34">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ34">
         <v>1</v>
@@ -8188,7 +8191,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q35">
         <v>2.75</v>
@@ -8394,7 +8397,7 @@
         <v>108</v>
       </c>
       <c r="P36" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q36">
         <v>4.5</v>
@@ -8806,7 +8809,7 @@
         <v>110</v>
       </c>
       <c r="P38" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q38">
         <v>2.1</v>
@@ -8887,7 +8890,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ38">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR38">
         <v>1.91</v>
@@ -9630,7 +9633,7 @@
         <v>112</v>
       </c>
       <c r="P42" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q42">
         <v>8</v>
@@ -10248,7 +10251,7 @@
         <v>114</v>
       </c>
       <c r="P45" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q45">
         <v>5.75</v>
@@ -10660,7 +10663,7 @@
         <v>87</v>
       </c>
       <c r="P47" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q47">
         <v>3.2</v>
@@ -10866,7 +10869,7 @@
         <v>116</v>
       </c>
       <c r="P48" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q48">
         <v>2.9</v>
@@ -10947,7 +10950,7 @@
         <v>1</v>
       </c>
       <c r="AQ48">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR48">
         <v>1.31</v>
@@ -11484,7 +11487,7 @@
         <v>119</v>
       </c>
       <c r="P51" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q51">
         <v>2.9</v>
@@ -11768,7 +11771,7 @@
         <v>1</v>
       </c>
       <c r="AP52">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ52">
         <v>0.73</v>
@@ -12514,7 +12517,7 @@
         <v>122</v>
       </c>
       <c r="P56" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -12720,7 +12723,7 @@
         <v>87</v>
       </c>
       <c r="P57" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q57">
         <v>2.25</v>
@@ -12926,7 +12929,7 @@
         <v>87</v>
       </c>
       <c r="P58" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q58">
         <v>5.8</v>
@@ -13213,7 +13216,7 @@
         <v>0.4</v>
       </c>
       <c r="AQ59">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR59">
         <v>1.4</v>
@@ -13338,7 +13341,7 @@
         <v>123</v>
       </c>
       <c r="P60" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q60">
         <v>2.1</v>
@@ -13750,7 +13753,7 @@
         <v>125</v>
       </c>
       <c r="P62" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q62">
         <v>1.68</v>
@@ -13828,7 +13831,7 @@
         <v>1.17</v>
       </c>
       <c r="AP62">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ62">
         <v>1.56</v>
@@ -14574,7 +14577,7 @@
         <v>129</v>
       </c>
       <c r="P66" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q66">
         <v>6.5</v>
@@ -14986,7 +14989,7 @@
         <v>87</v>
       </c>
       <c r="P68" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q68">
         <v>3.1</v>
@@ -15398,7 +15401,7 @@
         <v>87</v>
       </c>
       <c r="P70" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q70">
         <v>3.4</v>
@@ -15604,7 +15607,7 @@
         <v>131</v>
       </c>
       <c r="P71" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q71">
         <v>2.4</v>
@@ -15891,7 +15894,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ72">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR72">
         <v>1.58</v>
@@ -16016,7 +16019,7 @@
         <v>133</v>
       </c>
       <c r="P73" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q73">
         <v>3.3</v>
@@ -16222,7 +16225,7 @@
         <v>134</v>
       </c>
       <c r="P74" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q74">
         <v>2.2</v>
@@ -16428,7 +16431,7 @@
         <v>87</v>
       </c>
       <c r="P75" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q75">
         <v>4.5</v>
@@ -16634,7 +16637,7 @@
         <v>135</v>
       </c>
       <c r="P76" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q76">
         <v>1.91</v>
@@ -16712,7 +16715,7 @@
         <v>1.14</v>
       </c>
       <c r="AP76">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ76">
         <v>1.27</v>
@@ -16840,7 +16843,7 @@
         <v>87</v>
       </c>
       <c r="P77" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q77">
         <v>6.5</v>
@@ -17333,7 +17336,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ79">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR79">
         <v>1.21</v>
@@ -18076,7 +18079,7 @@
         <v>87</v>
       </c>
       <c r="P83" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q83">
         <v>8</v>
@@ -18282,7 +18285,7 @@
         <v>139</v>
       </c>
       <c r="P84" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q84">
         <v>5.2</v>
@@ -18772,7 +18775,7 @@
         <v>0.13</v>
       </c>
       <c r="AP86">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ86">
         <v>0.07000000000000001</v>
@@ -18900,7 +18903,7 @@
         <v>140</v>
       </c>
       <c r="P87" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q87">
         <v>3.75</v>
@@ -19106,7 +19109,7 @@
         <v>141</v>
       </c>
       <c r="P88" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q88">
         <v>1.73</v>
@@ -19312,7 +19315,7 @@
         <v>142</v>
       </c>
       <c r="P89" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q89">
         <v>2.5</v>
@@ -19393,7 +19396,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ89">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR89">
         <v>1.39</v>
@@ -19930,7 +19933,7 @@
         <v>145</v>
       </c>
       <c r="P92" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q92">
         <v>2.25</v>
@@ -20214,7 +20217,7 @@
         <v>2.11</v>
       </c>
       <c r="AP93">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ93">
         <v>1.87</v>
@@ -20342,7 +20345,7 @@
         <v>87</v>
       </c>
       <c r="P94" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q94">
         <v>1.71</v>
@@ -20420,7 +20423,7 @@
         <v>1</v>
       </c>
       <c r="AP94">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ94">
         <v>1.56</v>
@@ -20548,7 +20551,7 @@
         <v>146</v>
       </c>
       <c r="P95" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q95">
         <v>3.6</v>
@@ -20754,7 +20757,7 @@
         <v>147</v>
       </c>
       <c r="P96" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q96">
         <v>2.6</v>
@@ -21372,7 +21375,7 @@
         <v>149</v>
       </c>
       <c r="P99" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q99">
         <v>3.1</v>
@@ -21578,7 +21581,7 @@
         <v>150</v>
       </c>
       <c r="P100" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q100">
         <v>2.2</v>
@@ -21865,7 +21868,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ101">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR101">
         <v>1.62</v>
@@ -22196,7 +22199,7 @@
         <v>152</v>
       </c>
       <c r="P103" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q103">
         <v>3.9</v>
@@ -22686,7 +22689,7 @@
         <v>1</v>
       </c>
       <c r="AP105">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ105">
         <v>0.93</v>
@@ -23226,7 +23229,7 @@
         <v>157</v>
       </c>
       <c r="P108" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q108">
         <v>5</v>
@@ -23638,7 +23641,7 @@
         <v>87</v>
       </c>
       <c r="P110" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q110">
         <v>4.75</v>
@@ -23844,7 +23847,7 @@
         <v>110</v>
       </c>
       <c r="P111" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q111">
         <v>2.6</v>
@@ -24256,7 +24259,7 @@
         <v>87</v>
       </c>
       <c r="P113" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q113">
         <v>9</v>
@@ -24746,10 +24749,10 @@
         <v>0.9</v>
       </c>
       <c r="AP115">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ115">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR115">
         <v>2.02</v>
@@ -24874,7 +24877,7 @@
         <v>162</v>
       </c>
       <c r="P116" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q116">
         <v>2.8</v>
@@ -25080,7 +25083,7 @@
         <v>163</v>
       </c>
       <c r="P117" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q117">
         <v>4.4</v>
@@ -25286,7 +25289,7 @@
         <v>164</v>
       </c>
       <c r="P118" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q118">
         <v>1.95</v>
@@ -25570,7 +25573,7 @@
         <v>1.91</v>
       </c>
       <c r="AP119">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ119">
         <v>2</v>
@@ -25904,7 +25907,7 @@
         <v>166</v>
       </c>
       <c r="P121" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q121">
         <v>3.3</v>
@@ -26397,7 +26400,7 @@
         <v>2.53</v>
       </c>
       <c r="AQ123">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR123">
         <v>2.21</v>
@@ -26522,7 +26525,7 @@
         <v>113</v>
       </c>
       <c r="P124" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q124">
         <v>4.2</v>
@@ -26934,7 +26937,7 @@
         <v>169</v>
       </c>
       <c r="P126" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q126">
         <v>2.6</v>
@@ -27346,7 +27349,7 @@
         <v>87</v>
       </c>
       <c r="P128" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q128">
         <v>6</v>
@@ -27758,7 +27761,7 @@
         <v>172</v>
       </c>
       <c r="P130" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q130">
         <v>1.62</v>
@@ -27836,7 +27839,7 @@
         <v>0.92</v>
       </c>
       <c r="AP130">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ130">
         <v>1</v>
@@ -27964,7 +27967,7 @@
         <v>87</v>
       </c>
       <c r="P131" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q131">
         <v>2.1</v>
@@ -28045,7 +28048,7 @@
         <v>1.73</v>
       </c>
       <c r="AQ131">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR131">
         <v>1.84</v>
@@ -28376,7 +28379,7 @@
         <v>173</v>
       </c>
       <c r="P133" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q133">
         <v>1.8</v>
@@ -28788,7 +28791,7 @@
         <v>87</v>
       </c>
       <c r="P135" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q135">
         <v>12</v>
@@ -29200,7 +29203,7 @@
         <v>87</v>
       </c>
       <c r="P137" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q137">
         <v>3.25</v>
@@ -29406,7 +29409,7 @@
         <v>174</v>
       </c>
       <c r="P138" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q138">
         <v>3</v>
@@ -29612,7 +29615,7 @@
         <v>87</v>
       </c>
       <c r="P139" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q139">
         <v>10</v>
@@ -29818,7 +29821,7 @@
         <v>87</v>
       </c>
       <c r="P140" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q140">
         <v>3.2</v>
@@ -30024,7 +30027,7 @@
         <v>175</v>
       </c>
       <c r="P141" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q141">
         <v>1.73</v>
@@ -30230,7 +30233,7 @@
         <v>97</v>
       </c>
       <c r="P142" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q142">
         <v>2.3</v>
@@ -30436,7 +30439,7 @@
         <v>87</v>
       </c>
       <c r="P143" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q143">
         <v>3</v>
@@ -30517,7 +30520,7 @@
         <v>1</v>
       </c>
       <c r="AQ143">
-        <v>1.07</v>
+        <v>1</v>
       </c>
       <c r="AR143">
         <v>1.45</v>
@@ -30642,7 +30645,7 @@
         <v>176</v>
       </c>
       <c r="P144" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q144">
         <v>1.67</v>
@@ -30720,7 +30723,7 @@
         <v>0.79</v>
       </c>
       <c r="AP144">
-        <v>2.33</v>
+        <v>2.38</v>
       </c>
       <c r="AQ144">
         <v>0.73</v>
@@ -31054,7 +31057,7 @@
         <v>150</v>
       </c>
       <c r="P146" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q146">
         <v>4.25</v>
@@ -31260,7 +31263,7 @@
         <v>87</v>
       </c>
       <c r="P147" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q147">
         <v>3.45</v>
@@ -31466,7 +31469,7 @@
         <v>87</v>
       </c>
       <c r="P148" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q148">
         <v>8</v>
@@ -31672,7 +31675,7 @@
         <v>83</v>
       </c>
       <c r="P149" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q149">
         <v>2.1</v>
@@ -31878,7 +31881,7 @@
         <v>87</v>
       </c>
       <c r="P150" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q150">
         <v>5.85</v>
@@ -32035,6 +32038,212 @@
       </c>
       <c r="BP150">
         <v>1.25</v>
+      </c>
+    </row>
+    <row r="151" spans="1:68">
+      <c r="A151" s="1">
+        <v>150</v>
+      </c>
+      <c r="B151">
+        <v>6441709</v>
+      </c>
+      <c r="C151" t="s">
+        <v>68</v>
+      </c>
+      <c r="D151" t="s">
+        <v>69</v>
+      </c>
+      <c r="E151" s="2">
+        <v>45399.5</v>
+      </c>
+      <c r="F151">
+        <v>5</v>
+      </c>
+      <c r="G151" t="s">
+        <v>70</v>
+      </c>
+      <c r="H151" t="s">
+        <v>75</v>
+      </c>
+      <c r="I151">
+        <v>1</v>
+      </c>
+      <c r="J151">
+        <v>0</v>
+      </c>
+      <c r="K151">
+        <v>1</v>
+      </c>
+      <c r="L151">
+        <v>2</v>
+      </c>
+      <c r="M151">
+        <v>1</v>
+      </c>
+      <c r="N151">
+        <v>3</v>
+      </c>
+      <c r="O151" t="s">
+        <v>178</v>
+      </c>
+      <c r="P151" t="s">
+        <v>152</v>
+      </c>
+      <c r="Q151">
+        <v>1.6</v>
+      </c>
+      <c r="R151">
+        <v>2.7</v>
+      </c>
+      <c r="S151">
+        <v>8</v>
+      </c>
+      <c r="T151">
+        <v>1.25</v>
+      </c>
+      <c r="U151">
+        <v>3.5</v>
+      </c>
+      <c r="V151">
+        <v>2.25</v>
+      </c>
+      <c r="W151">
+        <v>1.57</v>
+      </c>
+      <c r="X151">
+        <v>4.75</v>
+      </c>
+      <c r="Y151">
+        <v>1.15</v>
+      </c>
+      <c r="Z151">
+        <v>1.19</v>
+      </c>
+      <c r="AA151">
+        <v>6.67</v>
+      </c>
+      <c r="AB151">
+        <v>12.58</v>
+      </c>
+      <c r="AC151">
+        <v>1.01</v>
+      </c>
+      <c r="AD151">
+        <v>11</v>
+      </c>
+      <c r="AE151">
+        <v>1.17</v>
+      </c>
+      <c r="AF151">
+        <v>4.8</v>
+      </c>
+      <c r="AG151">
+        <v>1.54</v>
+      </c>
+      <c r="AH151">
+        <v>2.43</v>
+      </c>
+      <c r="AI151">
+        <v>2.1</v>
+      </c>
+      <c r="AJ151">
+        <v>1.6</v>
+      </c>
+      <c r="AK151">
+        <v>1.04</v>
+      </c>
+      <c r="AL151">
+        <v>1.1</v>
+      </c>
+      <c r="AM151">
+        <v>4.33</v>
+      </c>
+      <c r="AN151">
+        <v>2.33</v>
+      </c>
+      <c r="AO151">
+        <v>1.07</v>
+      </c>
+      <c r="AP151">
+        <v>2.38</v>
+      </c>
+      <c r="AQ151">
+        <v>1</v>
+      </c>
+      <c r="AR151">
+        <v>1.94</v>
+      </c>
+      <c r="AS151">
+        <v>1.31</v>
+      </c>
+      <c r="AT151">
+        <v>3.25</v>
+      </c>
+      <c r="AU151">
+        <v>6</v>
+      </c>
+      <c r="AV151">
+        <v>0</v>
+      </c>
+      <c r="AW151">
+        <v>4</v>
+      </c>
+      <c r="AX151">
+        <v>0</v>
+      </c>
+      <c r="AY151">
+        <v>10</v>
+      </c>
+      <c r="AZ151">
+        <v>0</v>
+      </c>
+      <c r="BA151">
+        <v>9</v>
+      </c>
+      <c r="BB151">
+        <v>1</v>
+      </c>
+      <c r="BC151">
+        <v>10</v>
+      </c>
+      <c r="BD151">
+        <v>1.09</v>
+      </c>
+      <c r="BE151">
+        <v>14.5</v>
+      </c>
+      <c r="BF151">
+        <v>8.6</v>
+      </c>
+      <c r="BG151">
+        <v>1.27</v>
+      </c>
+      <c r="BH151">
+        <v>3.28</v>
+      </c>
+      <c r="BI151">
+        <v>1.5</v>
+      </c>
+      <c r="BJ151">
+        <v>2.35</v>
+      </c>
+      <c r="BK151">
+        <v>1.87</v>
+      </c>
+      <c r="BL151">
+        <v>1.83</v>
+      </c>
+      <c r="BM151">
+        <v>2.4</v>
+      </c>
+      <c r="BN151">
+        <v>1.48</v>
+      </c>
+      <c r="BO151">
+        <v>3.2</v>
+      </c>
+      <c r="BP151">
+        <v>1.28</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
@@ -32180,31 +32180,31 @@
         <v>3.25</v>
       </c>
       <c r="AU151">
-        <v>6</v>
+        <v>7</v>
       </c>
       <c r="AV151">
         <v>0</v>
       </c>
       <c r="AW151">
-        <v>4</v>
+        <v>5</v>
       </c>
       <c r="AX151">
         <v>0</v>
       </c>
       <c r="AY151">
+        <v>12</v>
+      </c>
+      <c r="AZ151">
+        <v>0</v>
+      </c>
+      <c r="BA151">
         <v>10</v>
       </c>
-      <c r="AZ151">
-        <v>0</v>
-      </c>
-      <c r="BA151">
-        <v>9</v>
-      </c>
       <c r="BB151">
         <v>1</v>
       </c>
       <c r="BC151">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="BD151">
         <v>1.09</v>

--- a/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
@@ -32180,22 +32180,22 @@
         <v>3.25</v>
       </c>
       <c r="AU151">
-        <v>7</v>
+        <v>8</v>
       </c>
       <c r="AV151">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="AW151">
-        <v>5</v>
+        <v>6</v>
       </c>
       <c r="AX151">
         <v>0</v>
       </c>
       <c r="AY151">
-        <v>12</v>
+        <v>14</v>
       </c>
       <c r="AZ151">
-        <v>0</v>
+        <v>3</v>
       </c>
       <c r="BA151">
         <v>10</v>

--- a/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="968" uniqueCount="253">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="254">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -553,6 +553,9 @@
     <t>['26', '53']</t>
   </si>
   <si>
+    <t>['14']</t>
+  </si>
+  <si>
     <t>['74', '90+3']</t>
   </si>
   <si>
@@ -617,9 +620,6 @@
   </si>
   <si>
     <t>['62']</t>
-  </si>
-  <si>
-    <t>['14']</t>
   </si>
   <si>
     <t>['27', '38', '48', '53', '58']</t>
@@ -773,6 +773,9 @@
   </si>
   <si>
     <t>['30', '84']</t>
+  </si>
+  <si>
+    <t>['39', '51']</t>
   </si>
 </sst>
 </file>
@@ -1134,7 +1137,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP151"/>
+  <dimension ref="A1:BP153"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1393,7 +1396,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>179</v>
+        <v>180</v>
       </c>
       <c r="Q2">
         <v>2.36</v>
@@ -1474,7 +1477,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ2">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AR2">
         <v>0</v>
@@ -1883,7 +1886,7 @@
         <v>0</v>
       </c>
       <c r="AP4">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AQ4">
         <v>1</v>
@@ -2217,7 +2220,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q6">
         <v>2.55</v>
@@ -2298,7 +2301,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ6">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AR6">
         <v>0</v>
@@ -2423,7 +2426,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q7">
         <v>2.64</v>
@@ -2835,7 +2838,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q9">
         <v>5.85</v>
@@ -3041,7 +3044,7 @@
         <v>88</v>
       </c>
       <c r="P10" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -3453,7 +3456,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3659,7 +3662,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q13">
         <v>2.35</v>
@@ -3737,7 +3740,7 @@
         <v>0</v>
       </c>
       <c r="AP13">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ13">
         <v>0.07000000000000001</v>
@@ -4152,7 +4155,7 @@
         <v>2.53</v>
       </c>
       <c r="AQ15">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AR15">
         <v>2.17</v>
@@ -4483,7 +4486,7 @@
         <v>94</v>
       </c>
       <c r="P17" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q17">
         <v>3.5</v>
@@ -4895,7 +4898,7 @@
         <v>96</v>
       </c>
       <c r="P19" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q19">
         <v>3.1</v>
@@ -4973,10 +4976,10 @@
         <v>0.5</v>
       </c>
       <c r="AP19">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ19">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AR19">
         <v>1.39</v>
@@ -5101,7 +5104,7 @@
         <v>87</v>
       </c>
       <c r="P20" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q20">
         <v>7</v>
@@ -5182,7 +5185,7 @@
         <v>0.4</v>
       </c>
       <c r="AQ20">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AR20">
         <v>1.48</v>
@@ -5385,7 +5388,7 @@
         <v>1</v>
       </c>
       <c r="AP21">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AQ21">
         <v>0.93</v>
@@ -5513,7 +5516,7 @@
         <v>98</v>
       </c>
       <c r="P22" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q22">
         <v>2.15</v>
@@ -5719,7 +5722,7 @@
         <v>99</v>
       </c>
       <c r="P23" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q23">
         <v>2.29</v>
@@ -5925,7 +5928,7 @@
         <v>100</v>
       </c>
       <c r="P24" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q24">
         <v>4.5</v>
@@ -6006,7 +6009,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ24">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AR24">
         <v>1.61</v>
@@ -6131,7 +6134,7 @@
         <v>101</v>
       </c>
       <c r="P25" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q25">
         <v>3.1</v>
@@ -6543,7 +6546,7 @@
         <v>102</v>
       </c>
       <c r="P27" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q27">
         <v>2.14</v>
@@ -6749,7 +6752,7 @@
         <v>87</v>
       </c>
       <c r="P28" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q28">
         <v>3.4</v>
@@ -6827,7 +6830,7 @@
         <v>0</v>
       </c>
       <c r="AP28">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ28">
         <v>1.56</v>
@@ -6955,7 +6958,7 @@
         <v>87</v>
       </c>
       <c r="P29" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q29">
         <v>3.5</v>
@@ -7161,7 +7164,7 @@
         <v>87</v>
       </c>
       <c r="P30" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q30">
         <v>1.67</v>
@@ -7242,7 +7245,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ30">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AR30">
         <v>2.07</v>
@@ -7367,7 +7370,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q31">
         <v>2</v>
@@ -7573,7 +7576,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q32">
         <v>4.75</v>
@@ -7651,7 +7654,7 @@
         <v>3</v>
       </c>
       <c r="AP32">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AQ32">
         <v>2</v>
@@ -8191,7 +8194,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q35">
         <v>2.75</v>
@@ -8397,7 +8400,7 @@
         <v>108</v>
       </c>
       <c r="P36" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q36">
         <v>4.5</v>
@@ -8478,7 +8481,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ36">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AR36">
         <v>1.66</v>
@@ -8684,7 +8687,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ37">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AR37">
         <v>1.58</v>
@@ -8809,7 +8812,7 @@
         <v>110</v>
       </c>
       <c r="P38" t="s">
-        <v>201</v>
+        <v>179</v>
       </c>
       <c r="Q38">
         <v>2.1</v>
@@ -8887,7 +8890,7 @@
         <v>1</v>
       </c>
       <c r="AP38">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AQ38">
         <v>1</v>
@@ -9505,7 +9508,7 @@
         <v>0</v>
       </c>
       <c r="AP41">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ41">
         <v>2</v>
@@ -10123,7 +10126,7 @@
         <v>1.25</v>
       </c>
       <c r="AP44">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ44">
         <v>1.27</v>
@@ -10947,7 +10950,7 @@
         <v>1</v>
       </c>
       <c r="AP48">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ48">
         <v>1</v>
@@ -11153,7 +11156,7 @@
         <v>0.2</v>
       </c>
       <c r="AP49">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AQ49">
         <v>0.07000000000000001</v>
@@ -11362,7 +11365,7 @@
         <v>2.53</v>
       </c>
       <c r="AQ50">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AR50">
         <v>2.42</v>
@@ -11774,7 +11777,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ52">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AR52">
         <v>1.85</v>
@@ -13007,10 +13010,10 @@
         <v>1.8</v>
       </c>
       <c r="AP58">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ58">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AR58">
         <v>1.37</v>
@@ -13419,10 +13422,10 @@
         <v>0.83</v>
       </c>
       <c r="AP60">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AQ60">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AR60">
         <v>1.99</v>
@@ -15067,10 +15070,10 @@
         <v>2</v>
       </c>
       <c r="AP68">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AQ68">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AR68">
         <v>2.03</v>
@@ -15273,7 +15276,7 @@
         <v>1.14</v>
       </c>
       <c r="AP69">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ69">
         <v>0.93</v>
@@ -15482,7 +15485,7 @@
         <v>0.4</v>
       </c>
       <c r="AQ70">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AR70">
         <v>1.43</v>
@@ -15685,7 +15688,7 @@
         <v>1</v>
       </c>
       <c r="AP71">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AQ71">
         <v>1.56</v>
@@ -16924,7 +16927,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ77">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AR77">
         <v>1.28</v>
@@ -17539,7 +17542,7 @@
         <v>1.57</v>
       </c>
       <c r="AP80">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AQ80">
         <v>2</v>
@@ -18157,7 +18160,7 @@
         <v>1.57</v>
       </c>
       <c r="AP83">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ83">
         <v>2</v>
@@ -18366,7 +18369,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ84">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AR84">
         <v>1.62</v>
@@ -18572,7 +18575,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ85">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AR85">
         <v>1.52</v>
@@ -19602,7 +19605,7 @@
         <v>1.36</v>
       </c>
       <c r="AQ90">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AR90">
         <v>1.58</v>
@@ -20011,7 +20014,7 @@
         <v>1</v>
       </c>
       <c r="AP92">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AQ92">
         <v>1</v>
@@ -20220,7 +20223,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ93">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AR93">
         <v>1.97</v>
@@ -21041,7 +21044,7 @@
         <v>0.1</v>
       </c>
       <c r="AP97">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AQ97">
         <v>0.07000000000000001</v>
@@ -22071,7 +22074,7 @@
         <v>0.09</v>
       </c>
       <c r="AP102">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ102">
         <v>0.07000000000000001</v>
@@ -22277,10 +22280,10 @@
         <v>2</v>
       </c>
       <c r="AP103">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AQ103">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AR103">
         <v>1.86</v>
@@ -22486,7 +22489,7 @@
         <v>2.53</v>
       </c>
       <c r="AQ104">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AR104">
         <v>2.25</v>
@@ -23925,10 +23928,10 @@
         <v>0.82</v>
       </c>
       <c r="AP111">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ111">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AR111">
         <v>1.45</v>
@@ -24340,7 +24343,7 @@
         <v>0.4</v>
       </c>
       <c r="AQ113">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AR113">
         <v>1.45</v>
@@ -24543,7 +24546,7 @@
         <v>0.9</v>
       </c>
       <c r="AP114">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AQ114">
         <v>0.93</v>
@@ -25164,7 +25167,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ117">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AR117">
         <v>1.4</v>
@@ -25289,7 +25292,7 @@
         <v>164</v>
       </c>
       <c r="P118" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q118">
         <v>1.95</v>
@@ -25985,7 +25988,7 @@
         <v>1.25</v>
       </c>
       <c r="AP121">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ121">
         <v>1.56</v>
@@ -26194,7 +26197,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ122">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AR122">
         <v>1.68</v>
@@ -26603,7 +26606,7 @@
         <v>1.8</v>
       </c>
       <c r="AP124">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AQ124">
         <v>2</v>
@@ -27018,7 +27021,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ126">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AR126">
         <v>1.32</v>
@@ -27430,7 +27433,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ128">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AR128">
         <v>1.25</v>
@@ -27967,7 +27970,7 @@
         <v>87</v>
       </c>
       <c r="P131" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q131">
         <v>2.1</v>
@@ -28045,7 +28048,7 @@
         <v>0.75</v>
       </c>
       <c r="AP131">
-        <v>1.73</v>
+        <v>1.63</v>
       </c>
       <c r="AQ131">
         <v>1</v>
@@ -28251,7 +28254,7 @@
         <v>1.75</v>
       </c>
       <c r="AP132">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ132">
         <v>2</v>
@@ -29203,7 +29206,7 @@
         <v>87</v>
       </c>
       <c r="P137" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q137">
         <v>3.25</v>
@@ -29281,7 +29284,7 @@
         <v>0.83</v>
       </c>
       <c r="AP137">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ137">
         <v>1.27</v>
@@ -30517,7 +30520,7 @@
         <v>0.92</v>
       </c>
       <c r="AP143">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AQ143">
         <v>1</v>
@@ -30726,7 +30729,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ144">
-        <v>0.73</v>
+        <v>0.88</v>
       </c>
       <c r="AR144">
         <v>1.92</v>
@@ -30932,7 +30935,7 @@
         <v>2.53</v>
       </c>
       <c r="AQ145">
-        <v>1.87</v>
+        <v>1.94</v>
       </c>
       <c r="AR145">
         <v>2.14</v>
@@ -32244,6 +32247,418 @@
       </c>
       <c r="BP151">
         <v>1.28</v>
+      </c>
+    </row>
+    <row r="152" spans="1:68">
+      <c r="A152" s="1">
+        <v>151</v>
+      </c>
+      <c r="B152">
+        <v>6441841</v>
+      </c>
+      <c r="C152" t="s">
+        <v>68</v>
+      </c>
+      <c r="D152" t="s">
+        <v>69</v>
+      </c>
+      <c r="E152" s="2">
+        <v>45402.5</v>
+      </c>
+      <c r="F152">
+        <v>31</v>
+      </c>
+      <c r="G152" t="s">
+        <v>72</v>
+      </c>
+      <c r="H152" t="s">
+        <v>76</v>
+      </c>
+      <c r="I152">
+        <v>1</v>
+      </c>
+      <c r="J152">
+        <v>1</v>
+      </c>
+      <c r="K152">
+        <v>2</v>
+      </c>
+      <c r="L152">
+        <v>1</v>
+      </c>
+      <c r="M152">
+        <v>2</v>
+      </c>
+      <c r="N152">
+        <v>3</v>
+      </c>
+      <c r="O152" t="s">
+        <v>179</v>
+      </c>
+      <c r="P152" t="s">
+        <v>253</v>
+      </c>
+      <c r="Q152">
+        <v>2.2</v>
+      </c>
+      <c r="R152">
+        <v>2.1</v>
+      </c>
+      <c r="S152">
+        <v>6.5</v>
+      </c>
+      <c r="T152">
+        <v>1.42</v>
+      </c>
+      <c r="U152">
+        <v>2.78</v>
+      </c>
+      <c r="V152">
+        <v>3.16</v>
+      </c>
+      <c r="W152">
+        <v>1.34</v>
+      </c>
+      <c r="X152">
+        <v>8.1</v>
+      </c>
+      <c r="Y152">
+        <v>1.06</v>
+      </c>
+      <c r="Z152">
+        <v>1.55</v>
+      </c>
+      <c r="AA152">
+        <v>3.71</v>
+      </c>
+      <c r="AB152">
+        <v>5.74</v>
+      </c>
+      <c r="AC152">
+        <v>1.03</v>
+      </c>
+      <c r="AD152">
+        <v>8</v>
+      </c>
+      <c r="AE152">
+        <v>1.35</v>
+      </c>
+      <c r="AF152">
+        <v>3.09</v>
+      </c>
+      <c r="AG152">
+        <v>2.1</v>
+      </c>
+      <c r="AH152">
+        <v>1.7</v>
+      </c>
+      <c r="AI152">
+        <v>2.09</v>
+      </c>
+      <c r="AJ152">
+        <v>1.7</v>
+      </c>
+      <c r="AK152">
+        <v>1.12</v>
+      </c>
+      <c r="AL152">
+        <v>1.25</v>
+      </c>
+      <c r="AM152">
+        <v>2.3</v>
+      </c>
+      <c r="AN152">
+        <v>1.73</v>
+      </c>
+      <c r="AO152">
+        <v>0.73</v>
+      </c>
+      <c r="AP152">
+        <v>1.63</v>
+      </c>
+      <c r="AQ152">
+        <v>0.88</v>
+      </c>
+      <c r="AR152">
+        <v>1.84</v>
+      </c>
+      <c r="AS152">
+        <v>1.21</v>
+      </c>
+      <c r="AT152">
+        <v>3.05</v>
+      </c>
+      <c r="AU152">
+        <v>7</v>
+      </c>
+      <c r="AV152">
+        <v>6</v>
+      </c>
+      <c r="AW152">
+        <v>3</v>
+      </c>
+      <c r="AX152">
+        <v>5</v>
+      </c>
+      <c r="AY152">
+        <v>10</v>
+      </c>
+      <c r="AZ152">
+        <v>11</v>
+      </c>
+      <c r="BA152">
+        <v>4</v>
+      </c>
+      <c r="BB152">
+        <v>2</v>
+      </c>
+      <c r="BC152">
+        <v>6</v>
+      </c>
+      <c r="BD152">
+        <v>1.34</v>
+      </c>
+      <c r="BE152">
+        <v>9</v>
+      </c>
+      <c r="BF152">
+        <v>3.88</v>
+      </c>
+      <c r="BG152">
+        <v>1.31</v>
+      </c>
+      <c r="BH152">
+        <v>3.04</v>
+      </c>
+      <c r="BI152">
+        <v>1.73</v>
+      </c>
+      <c r="BJ152">
+        <v>2</v>
+      </c>
+      <c r="BK152">
+        <v>2.02</v>
+      </c>
+      <c r="BL152">
+        <v>1.78</v>
+      </c>
+      <c r="BM152">
+        <v>2.6</v>
+      </c>
+      <c r="BN152">
+        <v>1.41</v>
+      </c>
+      <c r="BO152">
+        <v>3.56</v>
+      </c>
+      <c r="BP152">
+        <v>1.23</v>
+      </c>
+    </row>
+    <row r="153" spans="1:68">
+      <c r="A153" s="1">
+        <v>152</v>
+      </c>
+      <c r="B153">
+        <v>6441840</v>
+      </c>
+      <c r="C153" t="s">
+        <v>68</v>
+      </c>
+      <c r="D153" t="s">
+        <v>69</v>
+      </c>
+      <c r="E153" s="2">
+        <v>45402.59027777778</v>
+      </c>
+      <c r="F153">
+        <v>31</v>
+      </c>
+      <c r="G153" t="s">
+        <v>79</v>
+      </c>
+      <c r="H153" t="s">
+        <v>78</v>
+      </c>
+      <c r="I153">
+        <v>0</v>
+      </c>
+      <c r="J153">
+        <v>1</v>
+      </c>
+      <c r="K153">
+        <v>1</v>
+      </c>
+      <c r="L153">
+        <v>0</v>
+      </c>
+      <c r="M153">
+        <v>1</v>
+      </c>
+      <c r="N153">
+        <v>1</v>
+      </c>
+      <c r="O153" t="s">
+        <v>87</v>
+      </c>
+      <c r="P153" t="s">
+        <v>181</v>
+      </c>
+      <c r="Q153">
+        <v>5.5</v>
+      </c>
+      <c r="R153">
+        <v>2.25</v>
+      </c>
+      <c r="S153">
+        <v>2.1</v>
+      </c>
+      <c r="T153">
+        <v>1.37</v>
+      </c>
+      <c r="U153">
+        <v>3.02</v>
+      </c>
+      <c r="V153">
+        <v>2.86</v>
+      </c>
+      <c r="W153">
+        <v>1.41</v>
+      </c>
+      <c r="X153">
+        <v>6.9</v>
+      </c>
+      <c r="Y153">
+        <v>1.08</v>
+      </c>
+      <c r="Z153">
+        <v>5.25</v>
+      </c>
+      <c r="AA153">
+        <v>3.88</v>
+      </c>
+      <c r="AB153">
+        <v>1.56</v>
+      </c>
+      <c r="AC153">
+        <v>1.04</v>
+      </c>
+      <c r="AD153">
+        <v>13</v>
+      </c>
+      <c r="AE153">
+        <v>1.25</v>
+      </c>
+      <c r="AF153">
+        <v>3.5</v>
+      </c>
+      <c r="AG153">
+        <v>1.8</v>
+      </c>
+      <c r="AH153">
+        <v>1.9</v>
+      </c>
+      <c r="AI153">
+        <v>1.88</v>
+      </c>
+      <c r="AJ153">
+        <v>1.82</v>
+      </c>
+      <c r="AK153">
+        <v>2.3</v>
+      </c>
+      <c r="AL153">
+        <v>1.2</v>
+      </c>
+      <c r="AM153">
+        <v>1.14</v>
+      </c>
+      <c r="AN153">
+        <v>1</v>
+      </c>
+      <c r="AO153">
+        <v>1.87</v>
+      </c>
+      <c r="AP153">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AQ153">
+        <v>1.94</v>
+      </c>
+      <c r="AR153">
+        <v>1.47</v>
+      </c>
+      <c r="AS153">
+        <v>1.44</v>
+      </c>
+      <c r="AT153">
+        <v>2.91</v>
+      </c>
+      <c r="AU153">
+        <v>5</v>
+      </c>
+      <c r="AV153">
+        <v>5</v>
+      </c>
+      <c r="AW153">
+        <v>5</v>
+      </c>
+      <c r="AX153">
+        <v>8</v>
+      </c>
+      <c r="AY153">
+        <v>10</v>
+      </c>
+      <c r="AZ153">
+        <v>13</v>
+      </c>
+      <c r="BA153">
+        <v>5</v>
+      </c>
+      <c r="BB153">
+        <v>6</v>
+      </c>
+      <c r="BC153">
+        <v>11</v>
+      </c>
+      <c r="BD153">
+        <v>3.16</v>
+      </c>
+      <c r="BE153">
+        <v>8.5</v>
+      </c>
+      <c r="BF153">
+        <v>1.51</v>
+      </c>
+      <c r="BG153">
+        <v>1.27</v>
+      </c>
+      <c r="BH153">
+        <v>3.28</v>
+      </c>
+      <c r="BI153">
+        <v>1.73</v>
+      </c>
+      <c r="BJ153">
+        <v>2</v>
+      </c>
+      <c r="BK153">
+        <v>1.92</v>
+      </c>
+      <c r="BL153">
+        <v>1.88</v>
+      </c>
+      <c r="BM153">
+        <v>2.43</v>
+      </c>
+      <c r="BN153">
+        <v>1.53</v>
+      </c>
+      <c r="BO153">
+        <v>3.28</v>
+      </c>
+      <c r="BP153">
+        <v>1.27</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="980" uniqueCount="254">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="256">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -556,6 +556,9 @@
     <t>['14']</t>
   </si>
   <si>
+    <t>['68', '80', '89']</t>
+  </si>
+  <si>
     <t>['74', '90+3']</t>
   </si>
   <si>
@@ -776,6 +779,9 @@
   </si>
   <si>
     <t>['39', '51']</t>
+  </si>
+  <si>
+    <t>['60']</t>
   </si>
 </sst>
 </file>
@@ -1137,7 +1143,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP153"/>
+  <dimension ref="A1:BP155"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1396,7 +1402,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>180</v>
+        <v>181</v>
       </c>
       <c r="Q2">
         <v>2.36</v>
@@ -1680,7 +1686,7 @@
         <v>0</v>
       </c>
       <c r="AP3">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AQ3">
         <v>0.07000000000000001</v>
@@ -2220,7 +2226,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q6">
         <v>2.55</v>
@@ -2298,7 +2304,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ6">
         <v>0.88</v>
@@ -2426,7 +2432,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>182</v>
+        <v>183</v>
       </c>
       <c r="Q7">
         <v>2.64</v>
@@ -2838,7 +2844,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q9">
         <v>5.85</v>
@@ -2919,7 +2925,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ9">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3044,7 +3050,7 @@
         <v>88</v>
       </c>
       <c r="P10" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -3456,7 +3462,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3534,7 +3540,7 @@
         <v>1</v>
       </c>
       <c r="AP12">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ12">
         <v>1</v>
@@ -3662,7 +3668,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q13">
         <v>2.35</v>
@@ -3949,7 +3955,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ14">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR14">
         <v>1.29</v>
@@ -4152,7 +4158,7 @@
         <v>1</v>
       </c>
       <c r="AP15">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AQ15">
         <v>0.88</v>
@@ -4486,7 +4492,7 @@
         <v>94</v>
       </c>
       <c r="P17" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q17">
         <v>3.5</v>
@@ -4898,7 +4904,7 @@
         <v>96</v>
       </c>
       <c r="P19" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q19">
         <v>3.1</v>
@@ -5104,7 +5110,7 @@
         <v>87</v>
       </c>
       <c r="P20" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q20">
         <v>7</v>
@@ -5391,7 +5397,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ21">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR21">
         <v>2.38</v>
@@ -5516,7 +5522,7 @@
         <v>98</v>
       </c>
       <c r="P22" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q22">
         <v>2.15</v>
@@ -5594,7 +5600,7 @@
         <v>0</v>
       </c>
       <c r="AP22">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AQ22">
         <v>1.56</v>
@@ -5722,7 +5728,7 @@
         <v>99</v>
       </c>
       <c r="P23" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q23">
         <v>2.29</v>
@@ -5928,7 +5934,7 @@
         <v>100</v>
       </c>
       <c r="P24" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q24">
         <v>4.5</v>
@@ -6134,7 +6140,7 @@
         <v>101</v>
       </c>
       <c r="P25" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q25">
         <v>3.1</v>
@@ -6212,7 +6218,7 @@
         <v>2</v>
       </c>
       <c r="AP25">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ25">
         <v>1.27</v>
@@ -6546,7 +6552,7 @@
         <v>102</v>
       </c>
       <c r="P27" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q27">
         <v>2.14</v>
@@ -6752,7 +6758,7 @@
         <v>87</v>
       </c>
       <c r="P28" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q28">
         <v>3.4</v>
@@ -6958,7 +6964,7 @@
         <v>87</v>
       </c>
       <c r="P29" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q29">
         <v>3.5</v>
@@ -7039,7 +7045,7 @@
         <v>0.4</v>
       </c>
       <c r="AQ29">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR29">
         <v>1.5</v>
@@ -7164,7 +7170,7 @@
         <v>87</v>
       </c>
       <c r="P30" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q30">
         <v>1.67</v>
@@ -7370,7 +7376,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q31">
         <v>2</v>
@@ -7448,7 +7454,7 @@
         <v>1</v>
       </c>
       <c r="AP31">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AQ31">
         <v>1</v>
@@ -7576,7 +7582,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q32">
         <v>4.75</v>
@@ -7657,7 +7663,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ32">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AR32">
         <v>2.06</v>
@@ -7860,7 +7866,7 @@
         <v>0.25</v>
       </c>
       <c r="AP33">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ33">
         <v>0.07000000000000001</v>
@@ -8194,7 +8200,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q35">
         <v>2.75</v>
@@ -8272,7 +8278,7 @@
         <v>1.67</v>
       </c>
       <c r="AP35">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AQ35">
         <v>1.27</v>
@@ -8400,7 +8406,7 @@
         <v>108</v>
       </c>
       <c r="P36" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q36">
         <v>4.5</v>
@@ -9099,7 +9105,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ39">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR39">
         <v>1.41</v>
@@ -9636,7 +9642,7 @@
         <v>112</v>
       </c>
       <c r="P42" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q42">
         <v>8</v>
@@ -9717,7 +9723,7 @@
         <v>0.4</v>
       </c>
       <c r="AQ42">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AR42">
         <v>1.73</v>
@@ -9923,7 +9929,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ43">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR43">
         <v>1.51</v>
@@ -10254,7 +10260,7 @@
         <v>114</v>
       </c>
       <c r="P45" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q45">
         <v>5.75</v>
@@ -10541,7 +10547,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ46">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AR46">
         <v>1.9</v>
@@ -10666,7 +10672,7 @@
         <v>87</v>
       </c>
       <c r="P47" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q47">
         <v>3.2</v>
@@ -10872,7 +10878,7 @@
         <v>116</v>
       </c>
       <c r="P48" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q48">
         <v>2.9</v>
@@ -11362,7 +11368,7 @@
         <v>2.25</v>
       </c>
       <c r="AP50">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AQ50">
         <v>1.94</v>
@@ -11490,7 +11496,7 @@
         <v>119</v>
       </c>
       <c r="P51" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q51">
         <v>2.9</v>
@@ -11568,10 +11574,10 @@
         <v>1.4</v>
       </c>
       <c r="AP51">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ51">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR51">
         <v>1.71</v>
@@ -12395,7 +12401,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ55">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AR55">
         <v>1.6</v>
@@ -12520,7 +12526,7 @@
         <v>122</v>
       </c>
       <c r="P56" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -12726,7 +12732,7 @@
         <v>87</v>
       </c>
       <c r="P57" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q57">
         <v>2.25</v>
@@ -12932,7 +12938,7 @@
         <v>87</v>
       </c>
       <c r="P58" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q58">
         <v>5.8</v>
@@ -13344,7 +13350,7 @@
         <v>123</v>
       </c>
       <c r="P60" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q60">
         <v>2.1</v>
@@ -13628,10 +13634,10 @@
         <v>1.33</v>
       </c>
       <c r="AP61">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AQ61">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR61">
         <v>2.24</v>
@@ -13756,7 +13762,7 @@
         <v>125</v>
       </c>
       <c r="P62" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q62">
         <v>1.68</v>
@@ -14040,7 +14046,7 @@
         <v>1.4</v>
       </c>
       <c r="AP63">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ63">
         <v>2</v>
@@ -14580,7 +14586,7 @@
         <v>129</v>
       </c>
       <c r="P66" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q66">
         <v>6.5</v>
@@ -14661,7 +14667,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ66">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AR66">
         <v>1.5</v>
@@ -14992,7 +14998,7 @@
         <v>87</v>
       </c>
       <c r="P68" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q68">
         <v>3.1</v>
@@ -15279,7 +15285,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ69">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR69">
         <v>1.4</v>
@@ -15404,7 +15410,7 @@
         <v>87</v>
       </c>
       <c r="P70" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q70">
         <v>3.4</v>
@@ -15610,7 +15616,7 @@
         <v>131</v>
       </c>
       <c r="P71" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q71">
         <v>2.4</v>
@@ -16022,7 +16028,7 @@
         <v>133</v>
       </c>
       <c r="P73" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q73">
         <v>3.3</v>
@@ -16100,10 +16106,10 @@
         <v>1.67</v>
       </c>
       <c r="AP73">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AQ73">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AR73">
         <v>2.26</v>
@@ -16228,7 +16234,7 @@
         <v>134</v>
       </c>
       <c r="P74" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q74">
         <v>2.2</v>
@@ -16306,7 +16312,7 @@
         <v>0.43</v>
       </c>
       <c r="AP74">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ74">
         <v>1</v>
@@ -16434,7 +16440,7 @@
         <v>87</v>
       </c>
       <c r="P75" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q75">
         <v>4.5</v>
@@ -16640,7 +16646,7 @@
         <v>135</v>
       </c>
       <c r="P76" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q76">
         <v>1.91</v>
@@ -16846,7 +16852,7 @@
         <v>87</v>
       </c>
       <c r="P77" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q77">
         <v>6.5</v>
@@ -17751,7 +17757,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ81">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR81">
         <v>1.74</v>
@@ -18082,7 +18088,7 @@
         <v>87</v>
       </c>
       <c r="P83" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q83">
         <v>8</v>
@@ -18163,7 +18169,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ83">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AR83">
         <v>1.43</v>
@@ -18288,7 +18294,7 @@
         <v>139</v>
       </c>
       <c r="P84" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q84">
         <v>5.2</v>
@@ -18366,7 +18372,7 @@
         <v>2.25</v>
       </c>
       <c r="AP84">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ84">
         <v>1.94</v>
@@ -18906,7 +18912,7 @@
         <v>140</v>
       </c>
       <c r="P87" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q87">
         <v>3.75</v>
@@ -19112,7 +19118,7 @@
         <v>141</v>
       </c>
       <c r="P88" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q88">
         <v>1.73</v>
@@ -19190,7 +19196,7 @@
         <v>0.75</v>
       </c>
       <c r="AP88">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AQ88">
         <v>1</v>
@@ -19318,7 +19324,7 @@
         <v>142</v>
       </c>
       <c r="P89" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q89">
         <v>2.5</v>
@@ -19602,7 +19608,7 @@
         <v>1</v>
       </c>
       <c r="AP90">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ90">
         <v>0.88</v>
@@ -19808,7 +19814,7 @@
         <v>0.11</v>
       </c>
       <c r="AP91">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AQ91">
         <v>0.07000000000000001</v>
@@ -19936,7 +19942,7 @@
         <v>145</v>
       </c>
       <c r="P92" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q92">
         <v>2.25</v>
@@ -20348,7 +20354,7 @@
         <v>87</v>
       </c>
       <c r="P94" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q94">
         <v>1.71</v>
@@ -20554,7 +20560,7 @@
         <v>146</v>
       </c>
       <c r="P95" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q95">
         <v>3.6</v>
@@ -20760,7 +20766,7 @@
         <v>147</v>
       </c>
       <c r="P96" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q96">
         <v>2.6</v>
@@ -21253,7 +21259,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ98">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AR98">
         <v>1.2</v>
@@ -21378,7 +21384,7 @@
         <v>149</v>
       </c>
       <c r="P99" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q99">
         <v>3.1</v>
@@ -21584,7 +21590,7 @@
         <v>150</v>
       </c>
       <c r="P100" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q100">
         <v>2.2</v>
@@ -21868,7 +21874,7 @@
         <v>0.89</v>
       </c>
       <c r="AP101">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ101">
         <v>1</v>
@@ -22202,7 +22208,7 @@
         <v>152</v>
       </c>
       <c r="P103" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q103">
         <v>3.9</v>
@@ -22486,7 +22492,7 @@
         <v>0.9</v>
       </c>
       <c r="AP104">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AQ104">
         <v>0.88</v>
@@ -22695,7 +22701,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ105">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR105">
         <v>1.92</v>
@@ -23232,7 +23238,7 @@
         <v>157</v>
       </c>
       <c r="P108" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q108">
         <v>5</v>
@@ -23310,10 +23316,10 @@
         <v>1.89</v>
       </c>
       <c r="AP108">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ108">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AR108">
         <v>1.59</v>
@@ -23644,7 +23650,7 @@
         <v>87</v>
       </c>
       <c r="P110" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q110">
         <v>4.75</v>
@@ -23850,7 +23856,7 @@
         <v>110</v>
       </c>
       <c r="P111" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q111">
         <v>2.6</v>
@@ -24134,7 +24140,7 @@
         <v>1.36</v>
       </c>
       <c r="AP112">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AQ112">
         <v>1.56</v>
@@ -24262,7 +24268,7 @@
         <v>87</v>
       </c>
       <c r="P113" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q113">
         <v>9</v>
@@ -24549,7 +24555,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ114">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR114">
         <v>1.84</v>
@@ -24880,7 +24886,7 @@
         <v>162</v>
       </c>
       <c r="P116" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q116">
         <v>2.8</v>
@@ -24958,7 +24964,7 @@
         <v>0.9</v>
       </c>
       <c r="AP116">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ116">
         <v>1.27</v>
@@ -25086,7 +25092,7 @@
         <v>163</v>
       </c>
       <c r="P117" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q117">
         <v>4.4</v>
@@ -25292,7 +25298,7 @@
         <v>164</v>
       </c>
       <c r="P118" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q118">
         <v>1.95</v>
@@ -25910,7 +25916,7 @@
         <v>166</v>
       </c>
       <c r="P121" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q121">
         <v>3.3</v>
@@ -26400,7 +26406,7 @@
         <v>0.82</v>
       </c>
       <c r="AP123">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AQ123">
         <v>1</v>
@@ -26528,7 +26534,7 @@
         <v>113</v>
       </c>
       <c r="P124" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q124">
         <v>4.2</v>
@@ -26609,7 +26615,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ124">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AR124">
         <v>1.86</v>
@@ -26815,7 +26821,7 @@
         <v>0.4</v>
       </c>
       <c r="AQ125">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR125">
         <v>1.41</v>
@@ -26940,7 +26946,7 @@
         <v>169</v>
       </c>
       <c r="P126" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q126">
         <v>2.6</v>
@@ -27224,7 +27230,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="AP127">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ127">
         <v>0.07000000000000001</v>
@@ -27352,7 +27358,7 @@
         <v>87</v>
       </c>
       <c r="P128" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q128">
         <v>6</v>
@@ -27636,7 +27642,7 @@
         <v>0.91</v>
       </c>
       <c r="AP129">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AQ129">
         <v>1.27</v>
@@ -27764,7 +27770,7 @@
         <v>172</v>
       </c>
       <c r="P130" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q130">
         <v>1.62</v>
@@ -27970,7 +27976,7 @@
         <v>87</v>
       </c>
       <c r="P131" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q131">
         <v>2.1</v>
@@ -28382,7 +28388,7 @@
         <v>173</v>
       </c>
       <c r="P133" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q133">
         <v>1.8</v>
@@ -28669,7 +28675,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ134">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR134">
         <v>1.14</v>
@@ -28794,7 +28800,7 @@
         <v>87</v>
       </c>
       <c r="P135" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q135">
         <v>12</v>
@@ -28875,7 +28881,7 @@
         <v>0.4</v>
       </c>
       <c r="AQ135">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AR135">
         <v>1.39</v>
@@ -29206,7 +29212,7 @@
         <v>87</v>
       </c>
       <c r="P137" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q137">
         <v>3.25</v>
@@ -29412,7 +29418,7 @@
         <v>174</v>
       </c>
       <c r="P138" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q138">
         <v>3</v>
@@ -29493,7 +29499,7 @@
         <v>1.2</v>
       </c>
       <c r="AQ138">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR138">
         <v>1.3</v>
@@ -29618,7 +29624,7 @@
         <v>87</v>
       </c>
       <c r="P139" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q139">
         <v>10</v>
@@ -29824,7 +29830,7 @@
         <v>87</v>
       </c>
       <c r="P140" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q140">
         <v>3.2</v>
@@ -29905,7 +29911,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ140">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AR140">
         <v>1.59</v>
@@ -30030,7 +30036,7 @@
         <v>175</v>
       </c>
       <c r="P141" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q141">
         <v>1.73</v>
@@ -30236,7 +30242,7 @@
         <v>97</v>
       </c>
       <c r="P142" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q142">
         <v>2.3</v>
@@ -30314,10 +30320,10 @@
         <v>0.93</v>
       </c>
       <c r="AP142">
-        <v>1.36</v>
+        <v>1.27</v>
       </c>
       <c r="AQ142">
-        <v>0.93</v>
+        <v>0.88</v>
       </c>
       <c r="AR142">
         <v>1.57</v>
@@ -30442,7 +30448,7 @@
         <v>87</v>
       </c>
       <c r="P143" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q143">
         <v>3</v>
@@ -30648,7 +30654,7 @@
         <v>176</v>
       </c>
       <c r="P144" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q144">
         <v>1.67</v>
@@ -30932,7 +30938,7 @@
         <v>2</v>
       </c>
       <c r="AP145">
-        <v>2.53</v>
+        <v>2.56</v>
       </c>
       <c r="AQ145">
         <v>1.94</v>
@@ -31060,7 +31066,7 @@
         <v>150</v>
       </c>
       <c r="P146" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q146">
         <v>4.25</v>
@@ -31266,7 +31272,7 @@
         <v>87</v>
       </c>
       <c r="P147" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q147">
         <v>3.45</v>
@@ -31472,7 +31478,7 @@
         <v>87</v>
       </c>
       <c r="P148" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q148">
         <v>8</v>
@@ -31553,7 +31559,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ148">
-        <v>2</v>
+        <v>2.07</v>
       </c>
       <c r="AR148">
         <v>1.26</v>
@@ -31678,7 +31684,7 @@
         <v>83</v>
       </c>
       <c r="P149" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q149">
         <v>2.1</v>
@@ -31884,7 +31890,7 @@
         <v>87</v>
       </c>
       <c r="P150" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q150">
         <v>5.85</v>
@@ -32296,7 +32302,7 @@
         <v>179</v>
       </c>
       <c r="P152" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q152">
         <v>2.2</v>
@@ -32502,7 +32508,7 @@
         <v>87</v>
       </c>
       <c r="P153" t="s">
-        <v>181</v>
+        <v>182</v>
       </c>
       <c r="Q153">
         <v>5.5</v>
@@ -32659,6 +32665,418 @@
       </c>
       <c r="BP153">
         <v>1.27</v>
+      </c>
+    </row>
+    <row r="154" spans="1:68">
+      <c r="A154" s="1">
+        <v>153</v>
+      </c>
+      <c r="B154">
+        <v>6441708</v>
+      </c>
+      <c r="C154" t="s">
+        <v>68</v>
+      </c>
+      <c r="D154" t="s">
+        <v>69</v>
+      </c>
+      <c r="E154" s="2">
+        <v>45403.5</v>
+      </c>
+      <c r="F154">
+        <v>31</v>
+      </c>
+      <c r="G154" t="s">
+        <v>74</v>
+      </c>
+      <c r="H154" t="s">
+        <v>70</v>
+      </c>
+      <c r="I154">
+        <v>0</v>
+      </c>
+      <c r="J154">
+        <v>0</v>
+      </c>
+      <c r="K154">
+        <v>0</v>
+      </c>
+      <c r="L154">
+        <v>0</v>
+      </c>
+      <c r="M154">
+        <v>1</v>
+      </c>
+      <c r="N154">
+        <v>1</v>
+      </c>
+      <c r="O154" t="s">
+        <v>87</v>
+      </c>
+      <c r="P154" t="s">
+        <v>255</v>
+      </c>
+      <c r="Q154">
+        <v>5.43</v>
+      </c>
+      <c r="R154">
+        <v>2.39</v>
+      </c>
+      <c r="S154">
+        <v>2.17</v>
+      </c>
+      <c r="T154">
+        <v>1.3</v>
+      </c>
+      <c r="U154">
+        <v>3.3</v>
+      </c>
+      <c r="V154">
+        <v>2.44</v>
+      </c>
+      <c r="W154">
+        <v>1.52</v>
+      </c>
+      <c r="X154">
+        <v>5.8</v>
+      </c>
+      <c r="Y154">
+        <v>1.12</v>
+      </c>
+      <c r="Z154">
+        <v>5.25</v>
+      </c>
+      <c r="AA154">
+        <v>4.2</v>
+      </c>
+      <c r="AB154">
+        <v>1.63</v>
+      </c>
+      <c r="AC154">
+        <v>1.02</v>
+      </c>
+      <c r="AD154">
+        <v>14.5</v>
+      </c>
+      <c r="AE154">
+        <v>1.2</v>
+      </c>
+      <c r="AF154">
+        <v>4.2</v>
+      </c>
+      <c r="AG154">
+        <v>1.72</v>
+      </c>
+      <c r="AH154">
+        <v>2.12</v>
+      </c>
+      <c r="AI154">
+        <v>1.75</v>
+      </c>
+      <c r="AJ154">
+        <v>2.03</v>
+      </c>
+      <c r="AK154">
+        <v>2.32</v>
+      </c>
+      <c r="AL154">
+        <v>1.23</v>
+      </c>
+      <c r="AM154">
+        <v>1.15</v>
+      </c>
+      <c r="AN154">
+        <v>1.36</v>
+      </c>
+      <c r="AO154">
+        <v>2</v>
+      </c>
+      <c r="AP154">
+        <v>1.27</v>
+      </c>
+      <c r="AQ154">
+        <v>2.07</v>
+      </c>
+      <c r="AR154">
+        <v>1.55</v>
+      </c>
+      <c r="AS154">
+        <v>1.95</v>
+      </c>
+      <c r="AT154">
+        <v>3.5</v>
+      </c>
+      <c r="AU154">
+        <v>5</v>
+      </c>
+      <c r="AV154">
+        <v>8</v>
+      </c>
+      <c r="AW154">
+        <v>10</v>
+      </c>
+      <c r="AX154">
+        <v>11</v>
+      </c>
+      <c r="AY154">
+        <v>15</v>
+      </c>
+      <c r="AZ154">
+        <v>19</v>
+      </c>
+      <c r="BA154">
+        <v>5</v>
+      </c>
+      <c r="BB154">
+        <v>8</v>
+      </c>
+      <c r="BC154">
+        <v>13</v>
+      </c>
+      <c r="BD154">
+        <v>3.83</v>
+      </c>
+      <c r="BE154">
+        <v>9</v>
+      </c>
+      <c r="BF154">
+        <v>1.37</v>
+      </c>
+      <c r="BG154">
+        <v>1.48</v>
+      </c>
+      <c r="BH154">
+        <v>2.59</v>
+      </c>
+      <c r="BI154">
+        <v>1.81</v>
+      </c>
+      <c r="BJ154">
+        <v>1.99</v>
+      </c>
+      <c r="BK154">
+        <v>2.28</v>
+      </c>
+      <c r="BL154">
+        <v>1.62</v>
+      </c>
+      <c r="BM154">
+        <v>2.75</v>
+      </c>
+      <c r="BN154">
+        <v>1.37</v>
+      </c>
+      <c r="BO154">
+        <v>3.4</v>
+      </c>
+      <c r="BP154">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="155" spans="1:68">
+      <c r="A155" s="1">
+        <v>154</v>
+      </c>
+      <c r="B155">
+        <v>6441842</v>
+      </c>
+      <c r="C155" t="s">
+        <v>68</v>
+      </c>
+      <c r="D155" t="s">
+        <v>69</v>
+      </c>
+      <c r="E155" s="2">
+        <v>45403.60416666666</v>
+      </c>
+      <c r="F155">
+        <v>31</v>
+      </c>
+      <c r="G155" t="s">
+        <v>71</v>
+      </c>
+      <c r="H155" t="s">
+        <v>73</v>
+      </c>
+      <c r="I155">
+        <v>0</v>
+      </c>
+      <c r="J155">
+        <v>0</v>
+      </c>
+      <c r="K155">
+        <v>0</v>
+      </c>
+      <c r="L155">
+        <v>3</v>
+      </c>
+      <c r="M155">
+        <v>0</v>
+      </c>
+      <c r="N155">
+        <v>3</v>
+      </c>
+      <c r="O155" t="s">
+        <v>180</v>
+      </c>
+      <c r="P155" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q155">
+        <v>1.63</v>
+      </c>
+      <c r="R155">
+        <v>2.7</v>
+      </c>
+      <c r="S155">
+        <v>8</v>
+      </c>
+      <c r="T155">
+        <v>1.27</v>
+      </c>
+      <c r="U155">
+        <v>3.4</v>
+      </c>
+      <c r="V155">
+        <v>2.3</v>
+      </c>
+      <c r="W155">
+        <v>1.55</v>
+      </c>
+      <c r="X155">
+        <v>5.25</v>
+      </c>
+      <c r="Y155">
+        <v>1.14</v>
+      </c>
+      <c r="Z155">
+        <v>1.22</v>
+      </c>
+      <c r="AA155">
+        <v>6</v>
+      </c>
+      <c r="AB155">
+        <v>12</v>
+      </c>
+      <c r="AC155">
+        <v>1.02</v>
+      </c>
+      <c r="AD155">
+        <v>21</v>
+      </c>
+      <c r="AE155">
+        <v>1.17</v>
+      </c>
+      <c r="AF155">
+        <v>4.5</v>
+      </c>
+      <c r="AG155">
+        <v>1.55</v>
+      </c>
+      <c r="AH155">
+        <v>2.3</v>
+      </c>
+      <c r="AI155">
+        <v>2</v>
+      </c>
+      <c r="AJ155">
+        <v>1.72</v>
+      </c>
+      <c r="AK155">
+        <v>1.01</v>
+      </c>
+      <c r="AL155">
+        <v>1.08</v>
+      </c>
+      <c r="AM155">
+        <v>4</v>
+      </c>
+      <c r="AN155">
+        <v>2.53</v>
+      </c>
+      <c r="AO155">
+        <v>0.93</v>
+      </c>
+      <c r="AP155">
+        <v>2.56</v>
+      </c>
+      <c r="AQ155">
+        <v>0.88</v>
+      </c>
+      <c r="AR155">
+        <v>2.1</v>
+      </c>
+      <c r="AS155">
+        <v>1.26</v>
+      </c>
+      <c r="AT155">
+        <v>3.36</v>
+      </c>
+      <c r="AU155">
+        <v>7</v>
+      </c>
+      <c r="AV155">
+        <v>3</v>
+      </c>
+      <c r="AW155">
+        <v>9</v>
+      </c>
+      <c r="AX155">
+        <v>2</v>
+      </c>
+      <c r="AY155">
+        <v>16</v>
+      </c>
+      <c r="AZ155">
+        <v>5</v>
+      </c>
+      <c r="BA155">
+        <v>7</v>
+      </c>
+      <c r="BB155">
+        <v>1</v>
+      </c>
+      <c r="BC155">
+        <v>8</v>
+      </c>
+      <c r="BD155">
+        <v>1.19</v>
+      </c>
+      <c r="BE155">
+        <v>11</v>
+      </c>
+      <c r="BF155">
+        <v>6.09</v>
+      </c>
+      <c r="BG155">
+        <v>1.31</v>
+      </c>
+      <c r="BH155">
+        <v>3.04</v>
+      </c>
+      <c r="BI155">
+        <v>2</v>
+      </c>
+      <c r="BJ155">
+        <v>1.8</v>
+      </c>
+      <c r="BK155">
+        <v>2.01</v>
+      </c>
+      <c r="BL155">
+        <v>1.79</v>
+      </c>
+      <c r="BM155">
+        <v>2.52</v>
+      </c>
+      <c r="BN155">
+        <v>1.48</v>
+      </c>
+      <c r="BO155">
+        <v>3.56</v>
+      </c>
+      <c r="BP155">
+        <v>1.23</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="992" uniqueCount="256">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="257">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -783,6 +783,9 @@
   <si>
     <t>['60']</t>
   </si>
+  <si>
+    <t>['29', '59']</t>
+  </si>
 </sst>
 </file>
 
@@ -1143,7 +1146,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP155"/>
+  <dimension ref="A1:BP156"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -2101,7 +2104,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ5">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR5">
         <v>0</v>
@@ -3128,7 +3131,7 @@
         <v>0</v>
       </c>
       <c r="AP10">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AQ10">
         <v>1.27</v>
@@ -3543,7 +3546,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ12">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR12">
         <v>1.99</v>
@@ -5188,7 +5191,7 @@
         <v>3</v>
       </c>
       <c r="AP20">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AQ20">
         <v>1.94</v>
@@ -7042,7 +7045,7 @@
         <v>0.5</v>
       </c>
       <c r="AP29">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AQ29">
         <v>0.88</v>
@@ -7457,7 +7460,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ31">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR31">
         <v>2.62</v>
@@ -8899,7 +8902,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ38">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR38">
         <v>1.91</v>
@@ -9720,7 +9723,7 @@
         <v>3</v>
       </c>
       <c r="AP42">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AQ42">
         <v>2.07</v>
@@ -10338,7 +10341,7 @@
         <v>1</v>
       </c>
       <c r="AP45">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AQ45">
         <v>2</v>
@@ -10959,7 +10962,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ48">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR48">
         <v>1.31</v>
@@ -11986,7 +11989,7 @@
         <v>0.4</v>
       </c>
       <c r="AP53">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AQ53">
         <v>1</v>
@@ -13222,10 +13225,10 @@
         <v>0.8</v>
       </c>
       <c r="AP59">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AQ59">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR59">
         <v>1.4</v>
@@ -15488,7 +15491,7 @@
         <v>0.71</v>
       </c>
       <c r="AP70">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AQ70">
         <v>0.88</v>
@@ -15903,7 +15906,7 @@
         <v>1.8</v>
       </c>
       <c r="AQ72">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR72">
         <v>1.58</v>
@@ -17345,7 +17348,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ79">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR79">
         <v>1.21</v>
@@ -17960,7 +17963,7 @@
         <v>1</v>
       </c>
       <c r="AP82">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AQ82">
         <v>1.56</v>
@@ -19405,7 +19408,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ89">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR89">
         <v>1.39</v>
@@ -21877,7 +21880,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ101">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR101">
         <v>1.62</v>
@@ -24346,7 +24349,7 @@
         <v>1.91</v>
       </c>
       <c r="AP113">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AQ113">
         <v>1.94</v>
@@ -24761,7 +24764,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ115">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR115">
         <v>2.02</v>
@@ -26409,7 +26412,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ123">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR123">
         <v>2.21</v>
@@ -26818,7 +26821,7 @@
         <v>0.82</v>
       </c>
       <c r="AP125">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AQ125">
         <v>0.88</v>
@@ -28057,7 +28060,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ131">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR131">
         <v>1.84</v>
@@ -28878,7 +28881,7 @@
         <v>1.73</v>
       </c>
       <c r="AP135">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AQ135">
         <v>2.07</v>
@@ -29702,7 +29705,7 @@
         <v>1.85</v>
       </c>
       <c r="AP139">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AQ139">
         <v>2</v>
@@ -30114,7 +30117,7 @@
         <v>1</v>
       </c>
       <c r="AP141">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AQ141">
         <v>1.27</v>
@@ -30529,7 +30532,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ143">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR143">
         <v>1.45</v>
@@ -31144,7 +31147,7 @@
         <v>0.86</v>
       </c>
       <c r="AP146">
-        <v>0.4</v>
+        <v>0.38</v>
       </c>
       <c r="AQ146">
         <v>1</v>
@@ -32177,7 +32180,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ151">
-        <v>1</v>
+        <v>1.13</v>
       </c>
       <c r="AR151">
         <v>1.94</v>
@@ -33077,6 +33080,212 @@
       </c>
       <c r="BP155">
         <v>1.23</v>
+      </c>
+    </row>
+    <row r="156" spans="1:68">
+      <c r="A156" s="1">
+        <v>155</v>
+      </c>
+      <c r="B156">
+        <v>6441839</v>
+      </c>
+      <c r="C156" t="s">
+        <v>68</v>
+      </c>
+      <c r="D156" t="s">
+        <v>69</v>
+      </c>
+      <c r="E156" s="2">
+        <v>45404.5</v>
+      </c>
+      <c r="F156">
+        <v>31</v>
+      </c>
+      <c r="G156" t="s">
+        <v>77</v>
+      </c>
+      <c r="H156" t="s">
+        <v>75</v>
+      </c>
+      <c r="I156">
+        <v>0</v>
+      </c>
+      <c r="J156">
+        <v>1</v>
+      </c>
+      <c r="K156">
+        <v>1</v>
+      </c>
+      <c r="L156">
+        <v>0</v>
+      </c>
+      <c r="M156">
+        <v>2</v>
+      </c>
+      <c r="N156">
+        <v>2</v>
+      </c>
+      <c r="O156" t="s">
+        <v>87</v>
+      </c>
+      <c r="P156" t="s">
+        <v>256</v>
+      </c>
+      <c r="Q156">
+        <v>4.7</v>
+      </c>
+      <c r="R156">
+        <v>2.15</v>
+      </c>
+      <c r="S156">
+        <v>2.3</v>
+      </c>
+      <c r="T156">
+        <v>1.38</v>
+      </c>
+      <c r="U156">
+        <v>2.8</v>
+      </c>
+      <c r="V156">
+        <v>2.7</v>
+      </c>
+      <c r="W156">
+        <v>1.4</v>
+      </c>
+      <c r="X156">
+        <v>7.25</v>
+      </c>
+      <c r="Y156">
+        <v>1.09</v>
+      </c>
+      <c r="Z156">
+        <v>4.38</v>
+      </c>
+      <c r="AA156">
+        <v>3.59</v>
+      </c>
+      <c r="AB156">
+        <v>1.72</v>
+      </c>
+      <c r="AC156">
+        <v>1.04</v>
+      </c>
+      <c r="AD156">
+        <v>12</v>
+      </c>
+      <c r="AE156">
+        <v>1.27</v>
+      </c>
+      <c r="AF156">
+        <v>3.4</v>
+      </c>
+      <c r="AG156">
+        <v>1.9</v>
+      </c>
+      <c r="AH156">
+        <v>1.9</v>
+      </c>
+      <c r="AI156">
+        <v>1.8</v>
+      </c>
+      <c r="AJ156">
+        <v>1.9</v>
+      </c>
+      <c r="AK156">
+        <v>2</v>
+      </c>
+      <c r="AL156">
+        <v>1.23</v>
+      </c>
+      <c r="AM156">
+        <v>1.19</v>
+      </c>
+      <c r="AN156">
+        <v>0.4</v>
+      </c>
+      <c r="AO156">
+        <v>1</v>
+      </c>
+      <c r="AP156">
+        <v>0.38</v>
+      </c>
+      <c r="AQ156">
+        <v>1.13</v>
+      </c>
+      <c r="AR156">
+        <v>1.35</v>
+      </c>
+      <c r="AS156">
+        <v>1.26</v>
+      </c>
+      <c r="AT156">
+        <v>2.61</v>
+      </c>
+      <c r="AU156">
+        <v>0</v>
+      </c>
+      <c r="AV156">
+        <v>7</v>
+      </c>
+      <c r="AW156">
+        <v>9</v>
+      </c>
+      <c r="AX156">
+        <v>6</v>
+      </c>
+      <c r="AY156">
+        <v>9</v>
+      </c>
+      <c r="AZ156">
+        <v>13</v>
+      </c>
+      <c r="BA156">
+        <v>0</v>
+      </c>
+      <c r="BB156">
+        <v>8</v>
+      </c>
+      <c r="BC156">
+        <v>8</v>
+      </c>
+      <c r="BD156">
+        <v>2.53</v>
+      </c>
+      <c r="BE156">
+        <v>9</v>
+      </c>
+      <c r="BF156">
+        <v>1.67</v>
+      </c>
+      <c r="BG156">
+        <v>1.23</v>
+      </c>
+      <c r="BH156">
+        <v>3.56</v>
+      </c>
+      <c r="BI156">
+        <v>1.5</v>
+      </c>
+      <c r="BJ156">
+        <v>2.5</v>
+      </c>
+      <c r="BK156">
+        <v>1.83</v>
+      </c>
+      <c r="BL156">
+        <v>1.96</v>
+      </c>
+      <c r="BM156">
+        <v>2.29</v>
+      </c>
+      <c r="BN156">
+        <v>1.6</v>
+      </c>
+      <c r="BO156">
+        <v>3.08</v>
+      </c>
+      <c r="BP156">
+        <v>1.3</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="998" uniqueCount="257">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="260">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -559,6 +559,12 @@
     <t>['68', '80', '89']</t>
   </si>
   <si>
+    <t>['6', '15', '34']</t>
+  </si>
+  <si>
+    <t>['4', '26', '53', '59', '71']</t>
+  </si>
+  <si>
     <t>['74', '90+3']</t>
   </si>
   <si>
@@ -785,6 +791,9 @@
   </si>
   <si>
     <t>['29', '59']</t>
+  </si>
+  <si>
+    <t>['46']</t>
   </si>
 </sst>
 </file>
@@ -1146,7 +1155,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP156"/>
+  <dimension ref="A1:BP159"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1405,7 +1414,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>181</v>
+        <v>183</v>
       </c>
       <c r="Q2">
         <v>2.36</v>
@@ -1692,7 +1701,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ3">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AR3">
         <v>0</v>
@@ -1898,7 +1907,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ4">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR4">
         <v>0</v>
@@ -2229,7 +2238,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q6">
         <v>2.55</v>
@@ -2435,7 +2444,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>183</v>
+        <v>185</v>
       </c>
       <c r="Q7">
         <v>2.64</v>
@@ -2513,10 +2522,10 @@
         <v>0</v>
       </c>
       <c r="AP7">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ7">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR7">
         <v>0</v>
@@ -2847,7 +2856,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>184</v>
+        <v>186</v>
       </c>
       <c r="Q9">
         <v>5.85</v>
@@ -2925,10 +2934,10 @@
         <v>0</v>
       </c>
       <c r="AP9">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AQ9">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AR9">
         <v>0</v>
@@ -3053,7 +3062,7 @@
         <v>88</v>
       </c>
       <c r="P10" t="s">
-        <v>185</v>
+        <v>187</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -3337,7 +3346,7 @@
         <v>0</v>
       </c>
       <c r="AP11">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ11">
         <v>2</v>
@@ -3465,7 +3474,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3671,7 +3680,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="Q13">
         <v>2.35</v>
@@ -3752,7 +3761,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ13">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AR13">
         <v>0</v>
@@ -4367,10 +4376,10 @@
         <v>0</v>
       </c>
       <c r="AP16">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ16">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AR16">
         <v>1.69</v>
@@ -4495,7 +4504,7 @@
         <v>94</v>
       </c>
       <c r="P17" t="s">
-        <v>188</v>
+        <v>190</v>
       </c>
       <c r="Q17">
         <v>3.5</v>
@@ -4573,7 +4582,7 @@
         <v>3</v>
       </c>
       <c r="AP17">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AQ17">
         <v>1.27</v>
@@ -4779,10 +4788,10 @@
         <v>0.5</v>
       </c>
       <c r="AP18">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ18">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR18">
         <v>1.98</v>
@@ -4907,7 +4916,7 @@
         <v>96</v>
       </c>
       <c r="P19" t="s">
-        <v>189</v>
+        <v>191</v>
       </c>
       <c r="Q19">
         <v>3.1</v>
@@ -5113,7 +5122,7 @@
         <v>87</v>
       </c>
       <c r="P20" t="s">
-        <v>190</v>
+        <v>192</v>
       </c>
       <c r="Q20">
         <v>7</v>
@@ -5525,7 +5534,7 @@
         <v>98</v>
       </c>
       <c r="P22" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q22">
         <v>2.15</v>
@@ -5731,7 +5740,7 @@
         <v>99</v>
       </c>
       <c r="P23" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="Q23">
         <v>2.29</v>
@@ -5812,7 +5821,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ23">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR23">
         <v>1.73</v>
@@ -5937,7 +5946,7 @@
         <v>100</v>
       </c>
       <c r="P24" t="s">
-        <v>193</v>
+        <v>195</v>
       </c>
       <c r="Q24">
         <v>4.5</v>
@@ -6015,7 +6024,7 @@
         <v>3</v>
       </c>
       <c r="AP24">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ24">
         <v>1.94</v>
@@ -6143,7 +6152,7 @@
         <v>101</v>
       </c>
       <c r="P25" t="s">
-        <v>194</v>
+        <v>196</v>
       </c>
       <c r="Q25">
         <v>3.1</v>
@@ -6427,10 +6436,10 @@
         <v>0</v>
       </c>
       <c r="AP26">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AQ26">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AR26">
         <v>1.3</v>
@@ -6555,7 +6564,7 @@
         <v>102</v>
       </c>
       <c r="P27" t="s">
-        <v>195</v>
+        <v>197</v>
       </c>
       <c r="Q27">
         <v>2.14</v>
@@ -6761,7 +6770,7 @@
         <v>87</v>
       </c>
       <c r="P28" t="s">
-        <v>196</v>
+        <v>198</v>
       </c>
       <c r="Q28">
         <v>3.4</v>
@@ -6967,7 +6976,7 @@
         <v>87</v>
       </c>
       <c r="P29" t="s">
-        <v>197</v>
+        <v>199</v>
       </c>
       <c r="Q29">
         <v>3.5</v>
@@ -7173,7 +7182,7 @@
         <v>87</v>
       </c>
       <c r="P30" t="s">
-        <v>198</v>
+        <v>200</v>
       </c>
       <c r="Q30">
         <v>1.67</v>
@@ -7251,7 +7260,7 @@
         <v>0.67</v>
       </c>
       <c r="AP30">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ30">
         <v>0.88</v>
@@ -7379,7 +7388,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
       <c r="Q31">
         <v>2</v>
@@ -7585,7 +7594,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="Q32">
         <v>4.75</v>
@@ -7666,7 +7675,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ32">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AR32">
         <v>2.06</v>
@@ -7872,7 +7881,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ33">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AR33">
         <v>1.8</v>
@@ -8078,7 +8087,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ34">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR34">
         <v>1.83</v>
@@ -8203,7 +8212,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
       <c r="Q35">
         <v>2.75</v>
@@ -8409,7 +8418,7 @@
         <v>108</v>
       </c>
       <c r="P36" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="Q36">
         <v>4.5</v>
@@ -8693,7 +8702,7 @@
         <v>1.25</v>
       </c>
       <c r="AP37">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ37">
         <v>0.88</v>
@@ -9105,7 +9114,7 @@
         <v>1.33</v>
       </c>
       <c r="AP39">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AQ39">
         <v>0.88</v>
@@ -9311,7 +9320,7 @@
         <v>1</v>
       </c>
       <c r="AP40">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ40">
         <v>1.56</v>
@@ -9645,7 +9654,7 @@
         <v>112</v>
       </c>
       <c r="P42" t="s">
-        <v>203</v>
+        <v>205</v>
       </c>
       <c r="Q42">
         <v>8</v>
@@ -9726,7 +9735,7 @@
         <v>0.38</v>
       </c>
       <c r="AQ42">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AR42">
         <v>1.73</v>
@@ -9929,7 +9938,7 @@
         <v>1.75</v>
       </c>
       <c r="AP43">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ43">
         <v>0.88</v>
@@ -10263,7 +10272,7 @@
         <v>114</v>
       </c>
       <c r="P45" t="s">
-        <v>204</v>
+        <v>206</v>
       </c>
       <c r="Q45">
         <v>5.75</v>
@@ -10547,10 +10556,10 @@
         <v>3</v>
       </c>
       <c r="AP46">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ46">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AR46">
         <v>1.9</v>
@@ -10675,7 +10684,7 @@
         <v>87</v>
       </c>
       <c r="P47" t="s">
-        <v>205</v>
+        <v>207</v>
       </c>
       <c r="Q47">
         <v>3.2</v>
@@ -10753,7 +10762,7 @@
         <v>0.75</v>
       </c>
       <c r="AP47">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AQ47">
         <v>1.56</v>
@@ -10881,7 +10890,7 @@
         <v>116</v>
       </c>
       <c r="P48" t="s">
-        <v>206</v>
+        <v>208</v>
       </c>
       <c r="Q48">
         <v>2.9</v>
@@ -11168,7 +11177,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ49">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AR49">
         <v>1.93</v>
@@ -11499,7 +11508,7 @@
         <v>119</v>
       </c>
       <c r="P51" t="s">
-        <v>207</v>
+        <v>209</v>
       </c>
       <c r="Q51">
         <v>2.9</v>
@@ -11992,7 +12001,7 @@
         <v>0.38</v>
       </c>
       <c r="AQ53">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR53">
         <v>1.4</v>
@@ -12195,7 +12204,7 @@
         <v>1.2</v>
       </c>
       <c r="AP54">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ54">
         <v>1.56</v>
@@ -12404,7 +12413,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ55">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AR55">
         <v>1.6</v>
@@ -12529,7 +12538,7 @@
         <v>122</v>
       </c>
       <c r="P56" t="s">
-        <v>208</v>
+        <v>210</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -12607,7 +12616,7 @@
         <v>1.5</v>
       </c>
       <c r="AP56">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AQ56">
         <v>2</v>
@@ -12735,7 +12744,7 @@
         <v>87</v>
       </c>
       <c r="P57" t="s">
-        <v>209</v>
+        <v>211</v>
       </c>
       <c r="Q57">
         <v>2.25</v>
@@ -12813,7 +12822,7 @@
         <v>1</v>
       </c>
       <c r="AP57">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ57">
         <v>1.27</v>
@@ -12941,7 +12950,7 @@
         <v>87</v>
       </c>
       <c r="P58" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
       <c r="Q58">
         <v>5.8</v>
@@ -13353,7 +13362,7 @@
         <v>123</v>
       </c>
       <c r="P60" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="Q60">
         <v>2.1</v>
@@ -13765,7 +13774,7 @@
         <v>125</v>
       </c>
       <c r="P62" t="s">
-        <v>212</v>
+        <v>214</v>
       </c>
       <c r="Q62">
         <v>1.68</v>
@@ -14461,10 +14470,10 @@
         <v>0.17</v>
       </c>
       <c r="AP65">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ65">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AR65">
         <v>1.7</v>
@@ -14589,7 +14598,7 @@
         <v>129</v>
       </c>
       <c r="P66" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q66">
         <v>6.5</v>
@@ -14667,10 +14676,10 @@
         <v>1.8</v>
       </c>
       <c r="AP66">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ66">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AR66">
         <v>1.5</v>
@@ -14873,10 +14882,10 @@
         <v>0.5</v>
       </c>
       <c r="AP67">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AQ67">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR67">
         <v>1.32</v>
@@ -15001,7 +15010,7 @@
         <v>87</v>
       </c>
       <c r="P68" t="s">
-        <v>214</v>
+        <v>216</v>
       </c>
       <c r="Q68">
         <v>3.1</v>
@@ -15413,7 +15422,7 @@
         <v>87</v>
       </c>
       <c r="P70" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
       <c r="Q70">
         <v>3.4</v>
@@ -15619,7 +15628,7 @@
         <v>131</v>
       </c>
       <c r="P71" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="Q71">
         <v>2.4</v>
@@ -15903,7 +15912,7 @@
         <v>0.83</v>
       </c>
       <c r="AP72">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ72">
         <v>1.13</v>
@@ -16031,7 +16040,7 @@
         <v>133</v>
       </c>
       <c r="P73" t="s">
-        <v>217</v>
+        <v>219</v>
       </c>
       <c r="Q73">
         <v>3.3</v>
@@ -16112,7 +16121,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ73">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AR73">
         <v>2.26</v>
@@ -16237,7 +16246,7 @@
         <v>134</v>
       </c>
       <c r="P74" t="s">
-        <v>218</v>
+        <v>220</v>
       </c>
       <c r="Q74">
         <v>2.2</v>
@@ -16318,7 +16327,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ74">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR74">
         <v>1.5</v>
@@ -16443,7 +16452,7 @@
         <v>87</v>
       </c>
       <c r="P75" t="s">
-        <v>219</v>
+        <v>221</v>
       </c>
       <c r="Q75">
         <v>4.5</v>
@@ -16521,7 +16530,7 @@
         <v>1.33</v>
       </c>
       <c r="AP75">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ75">
         <v>2</v>
@@ -16649,7 +16658,7 @@
         <v>135</v>
       </c>
       <c r="P76" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q76">
         <v>1.91</v>
@@ -16855,7 +16864,7 @@
         <v>87</v>
       </c>
       <c r="P77" t="s">
-        <v>221</v>
+        <v>223</v>
       </c>
       <c r="Q77">
         <v>6.5</v>
@@ -16933,7 +16942,7 @@
         <v>2.14</v>
       </c>
       <c r="AP77">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AQ77">
         <v>1.94</v>
@@ -17142,7 +17151,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ78">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AR78">
         <v>1.49</v>
@@ -17345,7 +17354,7 @@
         <v>0.71</v>
       </c>
       <c r="AP79">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AQ79">
         <v>1.13</v>
@@ -17757,7 +17766,7 @@
         <v>1.13</v>
       </c>
       <c r="AP81">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ81">
         <v>0.88</v>
@@ -18091,7 +18100,7 @@
         <v>87</v>
       </c>
       <c r="P83" t="s">
-        <v>222</v>
+        <v>224</v>
       </c>
       <c r="Q83">
         <v>8</v>
@@ -18172,7 +18181,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ83">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AR83">
         <v>1.43</v>
@@ -18297,7 +18306,7 @@
         <v>139</v>
       </c>
       <c r="P84" t="s">
-        <v>220</v>
+        <v>222</v>
       </c>
       <c r="Q84">
         <v>5.2</v>
@@ -18790,7 +18799,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ86">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AR86">
         <v>2</v>
@@ -18915,7 +18924,7 @@
         <v>140</v>
       </c>
       <c r="P87" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
       <c r="Q87">
         <v>3.75</v>
@@ -18993,7 +19002,7 @@
         <v>1</v>
       </c>
       <c r="AP87">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ87">
         <v>1.27</v>
@@ -19121,7 +19130,7 @@
         <v>141</v>
       </c>
       <c r="P88" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="Q88">
         <v>1.73</v>
@@ -19202,7 +19211,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ88">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR88">
         <v>2.24</v>
@@ -19327,7 +19336,7 @@
         <v>142</v>
       </c>
       <c r="P89" t="s">
-        <v>225</v>
+        <v>227</v>
       </c>
       <c r="Q89">
         <v>2.5</v>
@@ -19820,7 +19829,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ91">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AR91">
         <v>2.23</v>
@@ -19945,7 +19954,7 @@
         <v>145</v>
       </c>
       <c r="P92" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q92">
         <v>2.25</v>
@@ -20026,7 +20035,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ92">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR92">
         <v>1.89</v>
@@ -20357,7 +20366,7 @@
         <v>87</v>
       </c>
       <c r="P94" t="s">
-        <v>227</v>
+        <v>229</v>
       </c>
       <c r="Q94">
         <v>1.71</v>
@@ -20563,7 +20572,7 @@
         <v>146</v>
       </c>
       <c r="P95" t="s">
-        <v>228</v>
+        <v>230</v>
       </c>
       <c r="Q95">
         <v>3.6</v>
@@ -20769,7 +20778,7 @@
         <v>147</v>
       </c>
       <c r="P96" t="s">
-        <v>229</v>
+        <v>231</v>
       </c>
       <c r="Q96">
         <v>2.6</v>
@@ -20847,10 +20856,10 @@
         <v>0.9</v>
       </c>
       <c r="AP96">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ96">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR96">
         <v>1.37</v>
@@ -21056,7 +21065,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ97">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AR97">
         <v>1.88</v>
@@ -21259,10 +21268,10 @@
         <v>1.75</v>
       </c>
       <c r="AP98">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AQ98">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AR98">
         <v>1.2</v>
@@ -21387,7 +21396,7 @@
         <v>149</v>
       </c>
       <c r="P99" t="s">
-        <v>230</v>
+        <v>232</v>
       </c>
       <c r="Q99">
         <v>3.1</v>
@@ -21593,7 +21602,7 @@
         <v>150</v>
       </c>
       <c r="P100" t="s">
-        <v>231</v>
+        <v>233</v>
       </c>
       <c r="Q100">
         <v>2.2</v>
@@ -21671,7 +21680,7 @@
         <v>1.67</v>
       </c>
       <c r="AP100">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ100">
         <v>2</v>
@@ -22086,7 +22095,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ102">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AR102">
         <v>1.38</v>
@@ -22211,7 +22220,7 @@
         <v>152</v>
       </c>
       <c r="P103" t="s">
-        <v>232</v>
+        <v>234</v>
       </c>
       <c r="Q103">
         <v>3.9</v>
@@ -22907,10 +22916,10 @@
         <v>0.08</v>
       </c>
       <c r="AP106">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ106">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AR106">
         <v>1.39</v>
@@ -23113,7 +23122,7 @@
         <v>1</v>
       </c>
       <c r="AP107">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AQ107">
         <v>1.27</v>
@@ -23241,7 +23250,7 @@
         <v>157</v>
       </c>
       <c r="P108" t="s">
-        <v>233</v>
+        <v>235</v>
       </c>
       <c r="Q108">
         <v>5</v>
@@ -23322,7 +23331,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ108">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AR108">
         <v>1.59</v>
@@ -23525,10 +23534,10 @@
         <v>1.09</v>
       </c>
       <c r="AP109">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ109">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR109">
         <v>1.66</v>
@@ -23653,7 +23662,7 @@
         <v>87</v>
       </c>
       <c r="P110" t="s">
-        <v>234</v>
+        <v>236</v>
       </c>
       <c r="Q110">
         <v>4.75</v>
@@ -23859,7 +23868,7 @@
         <v>110</v>
       </c>
       <c r="P111" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q111">
         <v>2.6</v>
@@ -24271,7 +24280,7 @@
         <v>87</v>
       </c>
       <c r="P113" t="s">
-        <v>236</v>
+        <v>238</v>
       </c>
       <c r="Q113">
         <v>9</v>
@@ -24889,7 +24898,7 @@
         <v>162</v>
       </c>
       <c r="P116" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q116">
         <v>2.8</v>
@@ -25095,7 +25104,7 @@
         <v>163</v>
       </c>
       <c r="P117" t="s">
-        <v>226</v>
+        <v>228</v>
       </c>
       <c r="Q117">
         <v>4.4</v>
@@ -25173,7 +25182,7 @@
         <v>2</v>
       </c>
       <c r="AP117">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ117">
         <v>1.94</v>
@@ -25301,7 +25310,7 @@
         <v>164</v>
       </c>
       <c r="P118" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q118">
         <v>1.95</v>
@@ -25379,10 +25388,10 @@
         <v>0.08</v>
       </c>
       <c r="AP118">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AQ118">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AR118">
         <v>1.12</v>
@@ -25794,7 +25803,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ120">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR120">
         <v>1.25</v>
@@ -25919,7 +25928,7 @@
         <v>166</v>
       </c>
       <c r="P121" t="s">
-        <v>237</v>
+        <v>239</v>
       </c>
       <c r="Q121">
         <v>3.3</v>
@@ -26203,7 +26212,7 @@
         <v>0.83</v>
       </c>
       <c r="AP122">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ122">
         <v>0.88</v>
@@ -26537,7 +26546,7 @@
         <v>113</v>
       </c>
       <c r="P124" t="s">
-        <v>213</v>
+        <v>215</v>
       </c>
       <c r="Q124">
         <v>4.2</v>
@@ -26618,7 +26627,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ124">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AR124">
         <v>1.86</v>
@@ -26949,7 +26958,7 @@
         <v>169</v>
       </c>
       <c r="P126" t="s">
-        <v>238</v>
+        <v>240</v>
       </c>
       <c r="Q126">
         <v>2.6</v>
@@ -27027,7 +27036,7 @@
         <v>0.77</v>
       </c>
       <c r="AP126">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ126">
         <v>0.88</v>
@@ -27236,7 +27245,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ127">
-        <v>0.07000000000000001</v>
+        <v>0.06</v>
       </c>
       <c r="AR127">
         <v>1.53</v>
@@ -27361,7 +27370,7 @@
         <v>87</v>
       </c>
       <c r="P128" t="s">
-        <v>239</v>
+        <v>241</v>
       </c>
       <c r="Q128">
         <v>6</v>
@@ -27773,7 +27782,7 @@
         <v>172</v>
       </c>
       <c r="P130" t="s">
-        <v>240</v>
+        <v>242</v>
       </c>
       <c r="Q130">
         <v>1.62</v>
@@ -27854,7 +27863,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ130">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR130">
         <v>1.9</v>
@@ -27979,7 +27988,7 @@
         <v>87</v>
       </c>
       <c r="P131" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q131">
         <v>2.1</v>
@@ -28391,7 +28400,7 @@
         <v>173</v>
       </c>
       <c r="P133" t="s">
-        <v>241</v>
+        <v>243</v>
       </c>
       <c r="Q133">
         <v>1.8</v>
@@ -28469,7 +28478,7 @@
         <v>1.38</v>
       </c>
       <c r="AP133">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ133">
         <v>1.56</v>
@@ -28675,7 +28684,7 @@
         <v>0.75</v>
       </c>
       <c r="AP134">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AQ134">
         <v>0.88</v>
@@ -28803,7 +28812,7 @@
         <v>87</v>
       </c>
       <c r="P135" t="s">
-        <v>242</v>
+        <v>244</v>
       </c>
       <c r="Q135">
         <v>12</v>
@@ -28884,7 +28893,7 @@
         <v>0.38</v>
       </c>
       <c r="AQ135">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AR135">
         <v>1.39</v>
@@ -29087,7 +29096,7 @@
         <v>1.5</v>
       </c>
       <c r="AP136">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AQ136">
         <v>1.56</v>
@@ -29215,7 +29224,7 @@
         <v>87</v>
       </c>
       <c r="P137" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
       <c r="Q137">
         <v>3.25</v>
@@ -29421,7 +29430,7 @@
         <v>174</v>
       </c>
       <c r="P138" t="s">
-        <v>243</v>
+        <v>245</v>
       </c>
       <c r="Q138">
         <v>3</v>
@@ -29499,7 +29508,7 @@
         <v>0.77</v>
       </c>
       <c r="AP138">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ138">
         <v>0.88</v>
@@ -29627,7 +29636,7 @@
         <v>87</v>
       </c>
       <c r="P139" t="s">
-        <v>244</v>
+        <v>246</v>
       </c>
       <c r="Q139">
         <v>10</v>
@@ -29833,7 +29842,7 @@
         <v>87</v>
       </c>
       <c r="P140" t="s">
-        <v>235</v>
+        <v>237</v>
       </c>
       <c r="Q140">
         <v>3.2</v>
@@ -29911,10 +29920,10 @@
         <v>1.83</v>
       </c>
       <c r="AP140">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ140">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AR140">
         <v>1.59</v>
@@ -30039,7 +30048,7 @@
         <v>175</v>
       </c>
       <c r="P141" t="s">
-        <v>245</v>
+        <v>247</v>
       </c>
       <c r="Q141">
         <v>1.73</v>
@@ -30245,7 +30254,7 @@
         <v>97</v>
       </c>
       <c r="P142" t="s">
-        <v>246</v>
+        <v>248</v>
       </c>
       <c r="Q142">
         <v>2.3</v>
@@ -30451,7 +30460,7 @@
         <v>87</v>
       </c>
       <c r="P143" t="s">
-        <v>247</v>
+        <v>249</v>
       </c>
       <c r="Q143">
         <v>3</v>
@@ -30657,7 +30666,7 @@
         <v>176</v>
       </c>
       <c r="P144" t="s">
-        <v>248</v>
+        <v>250</v>
       </c>
       <c r="Q144">
         <v>1.67</v>
@@ -31069,7 +31078,7 @@
         <v>150</v>
       </c>
       <c r="P146" t="s">
-        <v>249</v>
+        <v>251</v>
       </c>
       <c r="Q146">
         <v>4.25</v>
@@ -31150,7 +31159,7 @@
         <v>0.38</v>
       </c>
       <c r="AQ146">
-        <v>1</v>
+        <v>0.9399999999999999</v>
       </c>
       <c r="AR146">
         <v>1.32</v>
@@ -31275,7 +31284,7 @@
         <v>87</v>
       </c>
       <c r="P147" t="s">
-        <v>250</v>
+        <v>252</v>
       </c>
       <c r="Q147">
         <v>3.45</v>
@@ -31353,7 +31362,7 @@
         <v>1.47</v>
       </c>
       <c r="AP147">
-        <v>1.2</v>
+        <v>1.13</v>
       </c>
       <c r="AQ147">
         <v>1.56</v>
@@ -31481,7 +31490,7 @@
         <v>87</v>
       </c>
       <c r="P148" t="s">
-        <v>251</v>
+        <v>253</v>
       </c>
       <c r="Q148">
         <v>8</v>
@@ -31562,7 +31571,7 @@
         <v>1.4</v>
       </c>
       <c r="AQ148">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AR148">
         <v>1.26</v>
@@ -31687,7 +31696,7 @@
         <v>83</v>
       </c>
       <c r="P149" t="s">
-        <v>252</v>
+        <v>254</v>
       </c>
       <c r="Q149">
         <v>2.1</v>
@@ -31765,7 +31774,7 @@
         <v>1.14</v>
       </c>
       <c r="AP149">
-        <v>1.8</v>
+        <v>1.88</v>
       </c>
       <c r="AQ149">
         <v>1.27</v>
@@ -31893,7 +31902,7 @@
         <v>87</v>
       </c>
       <c r="P150" t="s">
-        <v>253</v>
+        <v>255</v>
       </c>
       <c r="Q150">
         <v>5.85</v>
@@ -31971,7 +31980,7 @@
         <v>1.93</v>
       </c>
       <c r="AP150">
-        <v>1.13</v>
+        <v>1.25</v>
       </c>
       <c r="AQ150">
         <v>2</v>
@@ -32305,7 +32314,7 @@
         <v>179</v>
       </c>
       <c r="P152" t="s">
-        <v>254</v>
+        <v>256</v>
       </c>
       <c r="Q152">
         <v>2.2</v>
@@ -32511,7 +32520,7 @@
         <v>87</v>
       </c>
       <c r="P153" t="s">
-        <v>182</v>
+        <v>184</v>
       </c>
       <c r="Q153">
         <v>5.5</v>
@@ -32717,7 +32726,7 @@
         <v>87</v>
       </c>
       <c r="P154" t="s">
-        <v>255</v>
+        <v>257</v>
       </c>
       <c r="Q154">
         <v>5.43</v>
@@ -32798,7 +32807,7 @@
         <v>1.27</v>
       </c>
       <c r="AQ154">
-        <v>2.07</v>
+        <v>2.13</v>
       </c>
       <c r="AR154">
         <v>1.55</v>
@@ -33129,7 +33138,7 @@
         <v>87</v>
       </c>
       <c r="P156" t="s">
-        <v>256</v>
+        <v>258</v>
       </c>
       <c r="Q156">
         <v>4.7</v>
@@ -33286,6 +33295,624 @@
       </c>
       <c r="BP156">
         <v>1.3</v>
+      </c>
+    </row>
+    <row r="157" spans="1:68">
+      <c r="A157" s="1">
+        <v>156</v>
+      </c>
+      <c r="B157">
+        <v>6441847</v>
+      </c>
+      <c r="C157" t="s">
+        <v>68</v>
+      </c>
+      <c r="D157" t="s">
+        <v>69</v>
+      </c>
+      <c r="E157" s="2">
+        <v>45408.54166666666</v>
+      </c>
+      <c r="F157">
+        <v>32</v>
+      </c>
+      <c r="G157" t="s">
+        <v>76</v>
+      </c>
+      <c r="H157" t="s">
+        <v>79</v>
+      </c>
+      <c r="I157">
+        <v>3</v>
+      </c>
+      <c r="J157">
+        <v>0</v>
+      </c>
+      <c r="K157">
+        <v>3</v>
+      </c>
+      <c r="L157">
+        <v>3</v>
+      </c>
+      <c r="M157">
+        <v>0</v>
+      </c>
+      <c r="N157">
+        <v>3</v>
+      </c>
+      <c r="O157" t="s">
+        <v>181</v>
+      </c>
+      <c r="P157" t="s">
+        <v>87</v>
+      </c>
+      <c r="Q157">
+        <v>2.8</v>
+      </c>
+      <c r="R157">
+        <v>1.95</v>
+      </c>
+      <c r="S157">
+        <v>4.33</v>
+      </c>
+      <c r="T157">
+        <v>1.5</v>
+      </c>
+      <c r="U157">
+        <v>2.4</v>
+      </c>
+      <c r="V157">
+        <v>3.2</v>
+      </c>
+      <c r="W157">
+        <v>1.3</v>
+      </c>
+      <c r="X157">
+        <v>8.5</v>
+      </c>
+      <c r="Y157">
+        <v>1.04</v>
+      </c>
+      <c r="Z157">
+        <v>2.11</v>
+      </c>
+      <c r="AA157">
+        <v>3.14</v>
+      </c>
+      <c r="AB157">
+        <v>3.71</v>
+      </c>
+      <c r="AC157">
+        <v>1.07</v>
+      </c>
+      <c r="AD157">
+        <v>7</v>
+      </c>
+      <c r="AE157">
+        <v>1.4</v>
+      </c>
+      <c r="AF157">
+        <v>2.7</v>
+      </c>
+      <c r="AG157">
+        <v>2.2</v>
+      </c>
+      <c r="AH157">
+        <v>1.6</v>
+      </c>
+      <c r="AI157">
+        <v>1.95</v>
+      </c>
+      <c r="AJ157">
+        <v>1.75</v>
+      </c>
+      <c r="AK157">
+        <v>1.3</v>
+      </c>
+      <c r="AL157">
+        <v>1.33</v>
+      </c>
+      <c r="AM157">
+        <v>1.73</v>
+      </c>
+      <c r="AN157">
+        <v>1.13</v>
+      </c>
+      <c r="AO157">
+        <v>1</v>
+      </c>
+      <c r="AP157">
+        <v>1.25</v>
+      </c>
+      <c r="AQ157">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="AR157">
+        <v>1.17</v>
+      </c>
+      <c r="AS157">
+        <v>1.26</v>
+      </c>
+      <c r="AT157">
+        <v>2.43</v>
+      </c>
+      <c r="AU157">
+        <v>6</v>
+      </c>
+      <c r="AV157">
+        <v>4</v>
+      </c>
+      <c r="AW157">
+        <v>5</v>
+      </c>
+      <c r="AX157">
+        <v>5</v>
+      </c>
+      <c r="AY157">
+        <v>11</v>
+      </c>
+      <c r="AZ157">
+        <v>9</v>
+      </c>
+      <c r="BA157">
+        <v>2</v>
+      </c>
+      <c r="BB157">
+        <v>2</v>
+      </c>
+      <c r="BC157">
+        <v>4</v>
+      </c>
+      <c r="BD157">
+        <v>1.75</v>
+      </c>
+      <c r="BE157">
+        <v>7.5</v>
+      </c>
+      <c r="BF157">
+        <v>2.53</v>
+      </c>
+      <c r="BG157">
+        <v>1.41</v>
+      </c>
+      <c r="BH157">
+        <v>2.6</v>
+      </c>
+      <c r="BI157">
+        <v>1.8</v>
+      </c>
+      <c r="BJ157">
+        <v>2</v>
+      </c>
+      <c r="BK157">
+        <v>2.27</v>
+      </c>
+      <c r="BL157">
+        <v>1.53</v>
+      </c>
+      <c r="BM157">
+        <v>3.08</v>
+      </c>
+      <c r="BN157">
+        <v>1.3</v>
+      </c>
+      <c r="BO157">
+        <v>3.4</v>
+      </c>
+      <c r="BP157">
+        <v>1.29</v>
+      </c>
+    </row>
+    <row r="158" spans="1:68">
+      <c r="A158" s="1">
+        <v>157</v>
+      </c>
+      <c r="B158">
+        <v>6441844</v>
+      </c>
+      <c r="C158" t="s">
+        <v>68</v>
+      </c>
+      <c r="D158" t="s">
+        <v>69</v>
+      </c>
+      <c r="E158" s="2">
+        <v>45409.5</v>
+      </c>
+      <c r="F158">
+        <v>32</v>
+      </c>
+      <c r="G158" t="s">
+        <v>75</v>
+      </c>
+      <c r="H158" t="s">
+        <v>70</v>
+      </c>
+      <c r="I158">
+        <v>0</v>
+      </c>
+      <c r="J158">
+        <v>0</v>
+      </c>
+      <c r="K158">
+        <v>0</v>
+      </c>
+      <c r="L158">
+        <v>0</v>
+      </c>
+      <c r="M158">
+        <v>1</v>
+      </c>
+      <c r="N158">
+        <v>1</v>
+      </c>
+      <c r="O158" t="s">
+        <v>87</v>
+      </c>
+      <c r="P158" t="s">
+        <v>259</v>
+      </c>
+      <c r="Q158">
+        <v>8.35</v>
+      </c>
+      <c r="R158">
+        <v>2.5</v>
+      </c>
+      <c r="S158">
+        <v>1.81</v>
+      </c>
+      <c r="T158">
+        <v>1.35</v>
+      </c>
+      <c r="U158">
+        <v>3.12</v>
+      </c>
+      <c r="V158">
+        <v>2.76</v>
+      </c>
+      <c r="W158">
+        <v>1.43</v>
+      </c>
+      <c r="X158">
+        <v>5.8</v>
+      </c>
+      <c r="Y158">
+        <v>1.1</v>
+      </c>
+      <c r="Z158">
+        <v>7.9</v>
+      </c>
+      <c r="AA158">
+        <v>4.62</v>
+      </c>
+      <c r="AB158">
+        <v>1.34</v>
+      </c>
+      <c r="AC158">
+        <v>1.04</v>
+      </c>
+      <c r="AD158">
+        <v>8.5</v>
+      </c>
+      <c r="AE158">
+        <v>1.2</v>
+      </c>
+      <c r="AF158">
+        <v>3.9</v>
+      </c>
+      <c r="AG158">
+        <v>1.72</v>
+      </c>
+      <c r="AH158">
+        <v>1.97</v>
+      </c>
+      <c r="AI158">
+        <v>1.97</v>
+      </c>
+      <c r="AJ158">
+        <v>1.72</v>
+      </c>
+      <c r="AK158">
+        <v>3.05</v>
+      </c>
+      <c r="AL158">
+        <v>1.14</v>
+      </c>
+      <c r="AM158">
+        <v>1.08</v>
+      </c>
+      <c r="AN158">
+        <v>1.2</v>
+      </c>
+      <c r="AO158">
+        <v>2.07</v>
+      </c>
+      <c r="AP158">
+        <v>1.13</v>
+      </c>
+      <c r="AQ158">
+        <v>2.13</v>
+      </c>
+      <c r="AR158">
+        <v>1.36</v>
+      </c>
+      <c r="AS158">
+        <v>1.96</v>
+      </c>
+      <c r="AT158">
+        <v>3.32</v>
+      </c>
+      <c r="AU158">
+        <v>4</v>
+      </c>
+      <c r="AV158">
+        <v>5</v>
+      </c>
+      <c r="AW158">
+        <v>5</v>
+      </c>
+      <c r="AX158">
+        <v>6</v>
+      </c>
+      <c r="AY158">
+        <v>9</v>
+      </c>
+      <c r="AZ158">
+        <v>11</v>
+      </c>
+      <c r="BA158">
+        <v>1</v>
+      </c>
+      <c r="BB158">
+        <v>7</v>
+      </c>
+      <c r="BC158">
+        <v>8</v>
+      </c>
+      <c r="BD158">
+        <v>4.88</v>
+      </c>
+      <c r="BE158">
+        <v>9.5</v>
+      </c>
+      <c r="BF158">
+        <v>1.26</v>
+      </c>
+      <c r="BG158">
+        <v>1.39</v>
+      </c>
+      <c r="BH158">
+        <v>2.67</v>
+      </c>
+      <c r="BI158">
+        <v>1.72</v>
+      </c>
+      <c r="BJ158">
+        <v>2</v>
+      </c>
+      <c r="BK158">
+        <v>2.19</v>
+      </c>
+      <c r="BL158">
+        <v>1.57</v>
+      </c>
+      <c r="BM158">
+        <v>2.93</v>
+      </c>
+      <c r="BN158">
+        <v>1.33</v>
+      </c>
+      <c r="BO158">
+        <v>3</v>
+      </c>
+      <c r="BP158">
+        <v>1.33</v>
+      </c>
+    </row>
+    <row r="159" spans="1:68">
+      <c r="A159" s="1">
+        <v>158</v>
+      </c>
+      <c r="B159">
+        <v>6441848</v>
+      </c>
+      <c r="C159" t="s">
+        <v>68</v>
+      </c>
+      <c r="D159" t="s">
+        <v>69</v>
+      </c>
+      <c r="E159" s="2">
+        <v>45409.59027777778</v>
+      </c>
+      <c r="F159">
+        <v>32</v>
+      </c>
+      <c r="G159" t="s">
+        <v>78</v>
+      </c>
+      <c r="H159" t="s">
+        <v>77</v>
+      </c>
+      <c r="I159">
+        <v>2</v>
+      </c>
+      <c r="J159">
+        <v>1</v>
+      </c>
+      <c r="K159">
+        <v>3</v>
+      </c>
+      <c r="L159">
+        <v>5</v>
+      </c>
+      <c r="M159">
+        <v>1</v>
+      </c>
+      <c r="N159">
+        <v>6</v>
+      </c>
+      <c r="O159" t="s">
+        <v>182</v>
+      </c>
+      <c r="P159" t="s">
+        <v>83</v>
+      </c>
+      <c r="Q159">
+        <v>1.41</v>
+      </c>
+      <c r="R159">
+        <v>3.37</v>
+      </c>
+      <c r="S159">
+        <v>13.75</v>
+      </c>
+      <c r="T159">
+        <v>1.25</v>
+      </c>
+      <c r="U159">
+        <v>3.6</v>
+      </c>
+      <c r="V159">
+        <v>2.08</v>
+      </c>
+      <c r="W159">
+        <v>1.71</v>
+      </c>
+      <c r="X159">
+        <v>4.3</v>
+      </c>
+      <c r="Y159">
+        <v>1.18</v>
+      </c>
+      <c r="Z159">
+        <v>1.1</v>
+      </c>
+      <c r="AA159">
+        <v>8.65</v>
+      </c>
+      <c r="AB159">
+        <v>18.75</v>
+      </c>
+      <c r="AC159">
+        <v>1.01</v>
+      </c>
+      <c r="AD159">
+        <v>27</v>
+      </c>
+      <c r="AE159">
+        <v>1.09</v>
+      </c>
+      <c r="AF159">
+        <v>5.8</v>
+      </c>
+      <c r="AG159">
+        <v>1.37</v>
+      </c>
+      <c r="AH159">
+        <v>2.8</v>
+      </c>
+      <c r="AI159">
+        <v>2.45</v>
+      </c>
+      <c r="AJ159">
+        <v>1.47</v>
+      </c>
+      <c r="AK159">
+        <v>1.02</v>
+      </c>
+      <c r="AL159">
+        <v>1.04</v>
+      </c>
+      <c r="AM159">
+        <v>6.25</v>
+      </c>
+      <c r="AN159">
+        <v>1.8</v>
+      </c>
+      <c r="AO159">
+        <v>0.07000000000000001</v>
+      </c>
+      <c r="AP159">
+        <v>1.88</v>
+      </c>
+      <c r="AQ159">
+        <v>0.06</v>
+      </c>
+      <c r="AR159">
+        <v>1.6</v>
+      </c>
+      <c r="AS159">
+        <v>1.05</v>
+      </c>
+      <c r="AT159">
+        <v>2.65</v>
+      </c>
+      <c r="AU159">
+        <v>11</v>
+      </c>
+      <c r="AV159">
+        <v>2</v>
+      </c>
+      <c r="AW159">
+        <v>12</v>
+      </c>
+      <c r="AX159">
+        <v>6</v>
+      </c>
+      <c r="AY159">
+        <v>23</v>
+      </c>
+      <c r="AZ159">
+        <v>8</v>
+      </c>
+      <c r="BA159">
+        <v>11</v>
+      </c>
+      <c r="BB159">
+        <v>4</v>
+      </c>
+      <c r="BC159">
+        <v>15</v>
+      </c>
+      <c r="BD159">
+        <v>1.14</v>
+      </c>
+      <c r="BE159">
+        <v>11</v>
+      </c>
+      <c r="BF159">
+        <v>7.08</v>
+      </c>
+      <c r="BG159">
+        <v>1.42</v>
+      </c>
+      <c r="BH159">
+        <v>2.57</v>
+      </c>
+      <c r="BI159">
+        <v>1.8</v>
+      </c>
+      <c r="BJ159">
+        <v>2</v>
+      </c>
+      <c r="BK159">
+        <v>2.25</v>
+      </c>
+      <c r="BL159">
+        <v>1.54</v>
+      </c>
+      <c r="BM159">
+        <v>3.04</v>
+      </c>
+      <c r="BN159">
+        <v>1.31</v>
+      </c>
+      <c r="BO159">
+        <v>3.2</v>
+      </c>
+      <c r="BP159">
+        <v>1.28</v>
       </c>
     </row>
   </sheetData>

--- a/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
+++ b/Bases_de_Dados_(2022-2024)/Croatia Prva HNL_20232024.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1016" uniqueCount="260">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1028" uniqueCount="262">
   <si>
     <t>Id_Jogo</t>
   </si>
@@ -565,6 +565,9 @@
     <t>['4', '26', '53', '59', '71']</t>
   </si>
   <si>
+    <t>['37', '43', '90+6']</t>
+  </si>
+  <si>
     <t>['74', '90+3']</t>
   </si>
   <si>
@@ -794,6 +797,9 @@
   </si>
   <si>
     <t>['46']</t>
+  </si>
+  <si>
+    <t>['45+1', '51', '80']</t>
   </si>
 </sst>
 </file>
@@ -1155,7 +1161,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:BP159"/>
+  <dimension ref="A1:BP161"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -1414,7 +1420,7 @@
         <v>80</v>
       </c>
       <c r="P2" t="s">
-        <v>183</v>
+        <v>184</v>
       </c>
       <c r="Q2">
         <v>2.36</v>
@@ -2110,7 +2116,7 @@
         <v>0</v>
       </c>
       <c r="AP5">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ5">
         <v>1.13</v>
@@ -2238,7 +2244,7 @@
         <v>84</v>
       </c>
       <c r="P6" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q6">
         <v>2.55</v>
@@ -2316,7 +2322,7 @@
         <v>0</v>
       </c>
       <c r="AP6">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ6">
         <v>0.88</v>
@@ -2444,7 +2450,7 @@
         <v>85</v>
       </c>
       <c r="P7" t="s">
-        <v>185</v>
+        <v>186</v>
       </c>
       <c r="Q7">
         <v>2.64</v>
@@ -2728,7 +2734,7 @@
         <v>0</v>
       </c>
       <c r="AP8">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ8">
         <v>1.56</v>
@@ -2856,7 +2862,7 @@
         <v>87</v>
       </c>
       <c r="P9" t="s">
-        <v>186</v>
+        <v>187</v>
       </c>
       <c r="Q9">
         <v>5.85</v>
@@ -3062,7 +3068,7 @@
         <v>88</v>
       </c>
       <c r="P10" t="s">
-        <v>187</v>
+        <v>188</v>
       </c>
       <c r="Q10">
         <v>4</v>
@@ -3143,7 +3149,7 @@
         <v>0.38</v>
       </c>
       <c r="AQ10">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR10">
         <v>0</v>
@@ -3349,7 +3355,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ11">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR11">
         <v>0</v>
@@ -3474,7 +3480,7 @@
         <v>90</v>
       </c>
       <c r="P12" t="s">
-        <v>188</v>
+        <v>189</v>
       </c>
       <c r="Q12">
         <v>2.3</v>
@@ -3552,7 +3558,7 @@
         <v>1</v>
       </c>
       <c r="AP12">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ12">
         <v>1.13</v>
@@ -3680,7 +3686,7 @@
         <v>91</v>
       </c>
       <c r="P13" t="s">
-        <v>189</v>
+        <v>190</v>
       </c>
       <c r="Q13">
         <v>2.35</v>
@@ -4504,7 +4510,7 @@
         <v>94</v>
       </c>
       <c r="P17" t="s">
-        <v>190</v>
+        <v>191</v>
       </c>
       <c r="Q17">
         <v>3.5</v>
@@ -4585,7 +4591,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ17">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR17">
         <v>0.82</v>
@@ -4916,7 +4922,7 @@
         <v>96</v>
       </c>
       <c r="P19" t="s">
-        <v>191</v>
+        <v>192</v>
       </c>
       <c r="Q19">
         <v>3.1</v>
@@ -5122,7 +5128,7 @@
         <v>87</v>
       </c>
       <c r="P20" t="s">
-        <v>192</v>
+        <v>193</v>
       </c>
       <c r="Q20">
         <v>7</v>
@@ -5534,7 +5540,7 @@
         <v>98</v>
       </c>
       <c r="P22" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q22">
         <v>2.15</v>
@@ -5740,7 +5746,7 @@
         <v>99</v>
       </c>
       <c r="P23" t="s">
-        <v>194</v>
+        <v>195</v>
       </c>
       <c r="Q23">
         <v>2.29</v>
@@ -5818,7 +5824,7 @@
         <v>0.33</v>
       </c>
       <c r="AP23">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ23">
         <v>0.9399999999999999</v>
@@ -5946,7 +5952,7 @@
         <v>100</v>
       </c>
       <c r="P24" t="s">
-        <v>195</v>
+        <v>196</v>
       </c>
       <c r="Q24">
         <v>4.5</v>
@@ -6152,7 +6158,7 @@
         <v>101</v>
       </c>
       <c r="P25" t="s">
-        <v>196</v>
+        <v>197</v>
       </c>
       <c r="Q25">
         <v>3.1</v>
@@ -6230,10 +6236,10 @@
         <v>2</v>
       </c>
       <c r="AP25">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ25">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR25">
         <v>1.89</v>
@@ -6564,7 +6570,7 @@
         <v>102</v>
       </c>
       <c r="P27" t="s">
-        <v>197</v>
+        <v>198</v>
       </c>
       <c r="Q27">
         <v>2.14</v>
@@ -6645,7 +6651,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ27">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR27">
         <v>1.7</v>
@@ -6770,7 +6776,7 @@
         <v>87</v>
       </c>
       <c r="P28" t="s">
-        <v>198</v>
+        <v>199</v>
       </c>
       <c r="Q28">
         <v>3.4</v>
@@ -6976,7 +6982,7 @@
         <v>87</v>
       </c>
       <c r="P29" t="s">
-        <v>199</v>
+        <v>200</v>
       </c>
       <c r="Q29">
         <v>3.5</v>
@@ -7182,7 +7188,7 @@
         <v>87</v>
       </c>
       <c r="P30" t="s">
-        <v>200</v>
+        <v>201</v>
       </c>
       <c r="Q30">
         <v>1.67</v>
@@ -7388,7 +7394,7 @@
         <v>103</v>
       </c>
       <c r="P31" t="s">
-        <v>201</v>
+        <v>202</v>
       </c>
       <c r="Q31">
         <v>2</v>
@@ -7594,7 +7600,7 @@
         <v>104</v>
       </c>
       <c r="P32" t="s">
-        <v>202</v>
+        <v>203</v>
       </c>
       <c r="Q32">
         <v>4.75</v>
@@ -7878,7 +7884,7 @@
         <v>0.25</v>
       </c>
       <c r="AP33">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ33">
         <v>0.06</v>
@@ -8212,7 +8218,7 @@
         <v>107</v>
       </c>
       <c r="P35" t="s">
-        <v>203</v>
+        <v>204</v>
       </c>
       <c r="Q35">
         <v>2.75</v>
@@ -8293,7 +8299,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ35">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR35">
         <v>2.48</v>
@@ -8418,7 +8424,7 @@
         <v>108</v>
       </c>
       <c r="P36" t="s">
-        <v>204</v>
+        <v>205</v>
       </c>
       <c r="Q36">
         <v>4.5</v>
@@ -8496,7 +8502,7 @@
         <v>3</v>
       </c>
       <c r="AP36">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ36">
         <v>1.94</v>
@@ -9529,7 +9535,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ41">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR41">
         <v>1.05</v>
@@ -9654,7 +9660,7 @@
         <v>112</v>
       </c>
       <c r="P42" t="s">
-        <v>205</v>
+        <v>206</v>
       </c>
       <c r="Q42">
         <v>8</v>
@@ -10147,7 +10153,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ44">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR44">
         <v>1.11</v>
@@ -10272,7 +10278,7 @@
         <v>114</v>
       </c>
       <c r="P45" t="s">
-        <v>206</v>
+        <v>207</v>
       </c>
       <c r="Q45">
         <v>5.75</v>
@@ -10353,7 +10359,7 @@
         <v>0.38</v>
       </c>
       <c r="AQ45">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR45">
         <v>1.46</v>
@@ -10684,7 +10690,7 @@
         <v>87</v>
       </c>
       <c r="P47" t="s">
-        <v>207</v>
+        <v>208</v>
       </c>
       <c r="Q47">
         <v>3.2</v>
@@ -10890,7 +10896,7 @@
         <v>116</v>
       </c>
       <c r="P48" t="s">
-        <v>208</v>
+        <v>209</v>
       </c>
       <c r="Q48">
         <v>2.9</v>
@@ -11508,7 +11514,7 @@
         <v>119</v>
       </c>
       <c r="P51" t="s">
-        <v>209</v>
+        <v>210</v>
       </c>
       <c r="Q51">
         <v>2.9</v>
@@ -11586,7 +11592,7 @@
         <v>1.4</v>
       </c>
       <c r="AP51">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ51">
         <v>0.88</v>
@@ -12410,7 +12416,7 @@
         <v>2.25</v>
       </c>
       <c r="AP55">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ55">
         <v>2.13</v>
@@ -12538,7 +12544,7 @@
         <v>122</v>
       </c>
       <c r="P56" t="s">
-        <v>210</v>
+        <v>211</v>
       </c>
       <c r="Q56">
         <v>5</v>
@@ -12619,7 +12625,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ56">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR56">
         <v>1.41</v>
@@ -12744,7 +12750,7 @@
         <v>87</v>
       </c>
       <c r="P57" t="s">
-        <v>211</v>
+        <v>212</v>
       </c>
       <c r="Q57">
         <v>2.25</v>
@@ -12825,7 +12831,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ57">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR57">
         <v>1.76</v>
@@ -12950,7 +12956,7 @@
         <v>87</v>
       </c>
       <c r="P58" t="s">
-        <v>212</v>
+        <v>213</v>
       </c>
       <c r="Q58">
         <v>5.8</v>
@@ -13362,7 +13368,7 @@
         <v>123</v>
       </c>
       <c r="P60" t="s">
-        <v>213</v>
+        <v>214</v>
       </c>
       <c r="Q60">
         <v>2.1</v>
@@ -13774,7 +13780,7 @@
         <v>125</v>
       </c>
       <c r="P62" t="s">
-        <v>214</v>
+        <v>215</v>
       </c>
       <c r="Q62">
         <v>1.68</v>
@@ -14058,10 +14064,10 @@
         <v>1.4</v>
       </c>
       <c r="AP63">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ63">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR63">
         <v>1.67</v>
@@ -14264,10 +14270,10 @@
         <v>1.33</v>
       </c>
       <c r="AP64">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ64">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR64">
         <v>1.49</v>
@@ -14598,7 +14604,7 @@
         <v>129</v>
       </c>
       <c r="P66" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q66">
         <v>6.5</v>
@@ -15010,7 +15016,7 @@
         <v>87</v>
       </c>
       <c r="P68" t="s">
-        <v>216</v>
+        <v>217</v>
       </c>
       <c r="Q68">
         <v>3.1</v>
@@ -15422,7 +15428,7 @@
         <v>87</v>
       </c>
       <c r="P70" t="s">
-        <v>217</v>
+        <v>218</v>
       </c>
       <c r="Q70">
         <v>3.4</v>
@@ -15628,7 +15634,7 @@
         <v>131</v>
       </c>
       <c r="P71" t="s">
-        <v>218</v>
+        <v>219</v>
       </c>
       <c r="Q71">
         <v>2.4</v>
@@ -16040,7 +16046,7 @@
         <v>133</v>
       </c>
       <c r="P73" t="s">
-        <v>219</v>
+        <v>220</v>
       </c>
       <c r="Q73">
         <v>3.3</v>
@@ -16246,7 +16252,7 @@
         <v>134</v>
       </c>
       <c r="P74" t="s">
-        <v>220</v>
+        <v>221</v>
       </c>
       <c r="Q74">
         <v>2.2</v>
@@ -16324,7 +16330,7 @@
         <v>0.43</v>
       </c>
       <c r="AP74">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ74">
         <v>0.9399999999999999</v>
@@ -16452,7 +16458,7 @@
         <v>87</v>
       </c>
       <c r="P75" t="s">
-        <v>221</v>
+        <v>222</v>
       </c>
       <c r="Q75">
         <v>4.5</v>
@@ -16533,7 +16539,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ75">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR75">
         <v>1.4</v>
@@ -16658,7 +16664,7 @@
         <v>135</v>
       </c>
       <c r="P76" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q76">
         <v>1.91</v>
@@ -16739,7 +16745,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ76">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR76">
         <v>2.04</v>
@@ -16864,7 +16870,7 @@
         <v>87</v>
       </c>
       <c r="P77" t="s">
-        <v>223</v>
+        <v>224</v>
       </c>
       <c r="Q77">
         <v>6.5</v>
@@ -17148,7 +17154,7 @@
         <v>0.14</v>
       </c>
       <c r="AP78">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ78">
         <v>0.06</v>
@@ -17563,7 +17569,7 @@
         <v>1.63</v>
       </c>
       <c r="AQ80">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR80">
         <v>1.97</v>
@@ -18100,7 +18106,7 @@
         <v>87</v>
       </c>
       <c r="P83" t="s">
-        <v>224</v>
+        <v>225</v>
       </c>
       <c r="Q83">
         <v>8</v>
@@ -18306,7 +18312,7 @@
         <v>139</v>
       </c>
       <c r="P84" t="s">
-        <v>222</v>
+        <v>223</v>
       </c>
       <c r="Q84">
         <v>5.2</v>
@@ -18384,7 +18390,7 @@
         <v>2.25</v>
       </c>
       <c r="AP84">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ84">
         <v>1.94</v>
@@ -18590,7 +18596,7 @@
         <v>1</v>
       </c>
       <c r="AP85">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ85">
         <v>0.88</v>
@@ -18924,7 +18930,7 @@
         <v>140</v>
       </c>
       <c r="P87" t="s">
-        <v>225</v>
+        <v>226</v>
       </c>
       <c r="Q87">
         <v>3.75</v>
@@ -19005,7 +19011,7 @@
         <v>1.13</v>
       </c>
       <c r="AQ87">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR87">
         <v>1.36</v>
@@ -19130,7 +19136,7 @@
         <v>141</v>
       </c>
       <c r="P88" t="s">
-        <v>226</v>
+        <v>227</v>
       </c>
       <c r="Q88">
         <v>1.73</v>
@@ -19336,7 +19342,7 @@
         <v>142</v>
       </c>
       <c r="P89" t="s">
-        <v>227</v>
+        <v>228</v>
       </c>
       <c r="Q89">
         <v>2.5</v>
@@ -19414,7 +19420,7 @@
         <v>0.63</v>
       </c>
       <c r="AP89">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ89">
         <v>1.13</v>
@@ -19620,7 +19626,7 @@
         <v>1</v>
       </c>
       <c r="AP90">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ90">
         <v>0.88</v>
@@ -19954,7 +19960,7 @@
         <v>145</v>
       </c>
       <c r="P92" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q92">
         <v>2.25</v>
@@ -20366,7 +20372,7 @@
         <v>87</v>
       </c>
       <c r="P94" t="s">
-        <v>229</v>
+        <v>230</v>
       </c>
       <c r="Q94">
         <v>1.71</v>
@@ -20572,7 +20578,7 @@
         <v>146</v>
       </c>
       <c r="P95" t="s">
-        <v>230</v>
+        <v>231</v>
       </c>
       <c r="Q95">
         <v>3.6</v>
@@ -20650,10 +20656,10 @@
         <v>1.5</v>
       </c>
       <c r="AP95">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ95">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR95">
         <v>1.36</v>
@@ -20778,7 +20784,7 @@
         <v>147</v>
       </c>
       <c r="P96" t="s">
-        <v>231</v>
+        <v>232</v>
       </c>
       <c r="Q96">
         <v>2.6</v>
@@ -21396,7 +21402,7 @@
         <v>149</v>
       </c>
       <c r="P99" t="s">
-        <v>232</v>
+        <v>233</v>
       </c>
       <c r="Q99">
         <v>3.1</v>
@@ -21474,7 +21480,7 @@
         <v>1.2</v>
       </c>
       <c r="AP99">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ99">
         <v>1.56</v>
@@ -21602,7 +21608,7 @@
         <v>150</v>
       </c>
       <c r="P100" t="s">
-        <v>233</v>
+        <v>234</v>
       </c>
       <c r="Q100">
         <v>2.2</v>
@@ -21683,7 +21689,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ100">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR100">
         <v>1.75</v>
@@ -21886,7 +21892,7 @@
         <v>0.89</v>
       </c>
       <c r="AP101">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ101">
         <v>1.13</v>
@@ -22220,7 +22226,7 @@
         <v>152</v>
       </c>
       <c r="P103" t="s">
-        <v>234</v>
+        <v>235</v>
       </c>
       <c r="Q103">
         <v>3.9</v>
@@ -23125,7 +23131,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ107">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR107">
         <v>1.14</v>
@@ -23250,7 +23256,7 @@
         <v>157</v>
       </c>
       <c r="P108" t="s">
-        <v>235</v>
+        <v>236</v>
       </c>
       <c r="Q108">
         <v>5</v>
@@ -23328,7 +23334,7 @@
         <v>1.89</v>
       </c>
       <c r="AP108">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ108">
         <v>2.13</v>
@@ -23662,7 +23668,7 @@
         <v>87</v>
       </c>
       <c r="P110" t="s">
-        <v>236</v>
+        <v>237</v>
       </c>
       <c r="Q110">
         <v>4.75</v>
@@ -23740,10 +23746,10 @@
         <v>1.8</v>
       </c>
       <c r="AP110">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ110">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR110">
         <v>1.27</v>
@@ -23868,7 +23874,7 @@
         <v>110</v>
       </c>
       <c r="P111" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q111">
         <v>2.6</v>
@@ -24280,7 +24286,7 @@
         <v>87</v>
       </c>
       <c r="P113" t="s">
-        <v>238</v>
+        <v>239</v>
       </c>
       <c r="Q113">
         <v>9</v>
@@ -24898,7 +24904,7 @@
         <v>162</v>
       </c>
       <c r="P116" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q116">
         <v>2.8</v>
@@ -24976,10 +24982,10 @@
         <v>0.9</v>
       </c>
       <c r="AP116">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ116">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR116">
         <v>1.58</v>
@@ -25104,7 +25110,7 @@
         <v>163</v>
       </c>
       <c r="P117" t="s">
-        <v>228</v>
+        <v>229</v>
       </c>
       <c r="Q117">
         <v>4.4</v>
@@ -25310,7 +25316,7 @@
         <v>164</v>
       </c>
       <c r="P118" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q118">
         <v>1.95</v>
@@ -25597,7 +25603,7 @@
         <v>2.38</v>
       </c>
       <c r="AQ119">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR119">
         <v>1.95</v>
@@ -25800,7 +25806,7 @@
         <v>1</v>
       </c>
       <c r="AP120">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ120">
         <v>0.9399999999999999</v>
@@ -25928,7 +25934,7 @@
         <v>166</v>
       </c>
       <c r="P121" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="Q121">
         <v>3.3</v>
@@ -26546,7 +26552,7 @@
         <v>113</v>
       </c>
       <c r="P124" t="s">
-        <v>215</v>
+        <v>216</v>
       </c>
       <c r="Q124">
         <v>4.2</v>
@@ -26958,7 +26964,7 @@
         <v>169</v>
       </c>
       <c r="P126" t="s">
-        <v>240</v>
+        <v>241</v>
       </c>
       <c r="Q126">
         <v>2.6</v>
@@ -27242,7 +27248,7 @@
         <v>0.07000000000000001</v>
       </c>
       <c r="AP127">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ127">
         <v>0.06</v>
@@ -27370,7 +27376,7 @@
         <v>87</v>
       </c>
       <c r="P128" t="s">
-        <v>241</v>
+        <v>242</v>
       </c>
       <c r="Q128">
         <v>6</v>
@@ -27448,7 +27454,7 @@
         <v>1.92</v>
       </c>
       <c r="AP128">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ128">
         <v>1.94</v>
@@ -27657,7 +27663,7 @@
         <v>2.56</v>
       </c>
       <c r="AQ129">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR129">
         <v>2.15</v>
@@ -27782,7 +27788,7 @@
         <v>172</v>
       </c>
       <c r="P130" t="s">
-        <v>242</v>
+        <v>243</v>
       </c>
       <c r="Q130">
         <v>1.62</v>
@@ -27988,7 +27994,7 @@
         <v>87</v>
       </c>
       <c r="P131" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q131">
         <v>2.1</v>
@@ -28275,7 +28281,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ132">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR132">
         <v>1.46</v>
@@ -28400,7 +28406,7 @@
         <v>173</v>
       </c>
       <c r="P133" t="s">
-        <v>243</v>
+        <v>244</v>
       </c>
       <c r="Q133">
         <v>1.8</v>
@@ -28812,7 +28818,7 @@
         <v>87</v>
       </c>
       <c r="P135" t="s">
-        <v>244</v>
+        <v>245</v>
       </c>
       <c r="Q135">
         <v>12</v>
@@ -29224,7 +29230,7 @@
         <v>87</v>
       </c>
       <c r="P137" t="s">
-        <v>193</v>
+        <v>194</v>
       </c>
       <c r="Q137">
         <v>3.25</v>
@@ -29305,7 +29311,7 @@
         <v>0.9399999999999999</v>
       </c>
       <c r="AQ137">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR137">
         <v>1.43</v>
@@ -29430,7 +29436,7 @@
         <v>174</v>
       </c>
       <c r="P138" t="s">
-        <v>245</v>
+        <v>246</v>
       </c>
       <c r="Q138">
         <v>3</v>
@@ -29636,7 +29642,7 @@
         <v>87</v>
       </c>
       <c r="P139" t="s">
-        <v>246</v>
+        <v>247</v>
       </c>
       <c r="Q139">
         <v>10</v>
@@ -29717,7 +29723,7 @@
         <v>0.38</v>
       </c>
       <c r="AQ139">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR139">
         <v>1.31</v>
@@ -29842,7 +29848,7 @@
         <v>87</v>
       </c>
       <c r="P140" t="s">
-        <v>237</v>
+        <v>238</v>
       </c>
       <c r="Q140">
         <v>3.2</v>
@@ -30048,7 +30054,7 @@
         <v>175</v>
       </c>
       <c r="P141" t="s">
-        <v>247</v>
+        <v>248</v>
       </c>
       <c r="Q141">
         <v>1.73</v>
@@ -30129,7 +30135,7 @@
         <v>0.38</v>
       </c>
       <c r="AQ141">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR141">
         <v>1.29</v>
@@ -30254,7 +30260,7 @@
         <v>97</v>
       </c>
       <c r="P142" t="s">
-        <v>248</v>
+        <v>249</v>
       </c>
       <c r="Q142">
         <v>2.3</v>
@@ -30332,7 +30338,7 @@
         <v>0.93</v>
       </c>
       <c r="AP142">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ142">
         <v>0.88</v>
@@ -30460,7 +30466,7 @@
         <v>87</v>
       </c>
       <c r="P143" t="s">
-        <v>249</v>
+        <v>250</v>
       </c>
       <c r="Q143">
         <v>3</v>
@@ -30666,7 +30672,7 @@
         <v>176</v>
       </c>
       <c r="P144" t="s">
-        <v>250</v>
+        <v>251</v>
       </c>
       <c r="Q144">
         <v>1.67</v>
@@ -31078,7 +31084,7 @@
         <v>150</v>
       </c>
       <c r="P146" t="s">
-        <v>251</v>
+        <v>252</v>
       </c>
       <c r="Q146">
         <v>4.25</v>
@@ -31284,7 +31290,7 @@
         <v>87</v>
       </c>
       <c r="P147" t="s">
-        <v>252</v>
+        <v>253</v>
       </c>
       <c r="Q147">
         <v>3.45</v>
@@ -31490,7 +31496,7 @@
         <v>87</v>
       </c>
       <c r="P148" t="s">
-        <v>253</v>
+        <v>254</v>
       </c>
       <c r="Q148">
         <v>8</v>
@@ -31568,7 +31574,7 @@
         <v>1.92</v>
       </c>
       <c r="AP148">
-        <v>1.4</v>
+        <v>1.31</v>
       </c>
       <c r="AQ148">
         <v>2.13</v>
@@ -31696,7 +31702,7 @@
         <v>83</v>
       </c>
       <c r="P149" t="s">
-        <v>254</v>
+        <v>255</v>
       </c>
       <c r="Q149">
         <v>2.1</v>
@@ -31777,7 +31783,7 @@
         <v>1.88</v>
       </c>
       <c r="AQ149">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AR149">
         <v>1.6</v>
@@ -31902,7 +31908,7 @@
         <v>87</v>
       </c>
       <c r="P150" t="s">
-        <v>255</v>
+        <v>256</v>
       </c>
       <c r="Q150">
         <v>5.85</v>
@@ -31983,7 +31989,7 @@
         <v>1.25</v>
       </c>
       <c r="AQ150">
-        <v>2</v>
+        <v>1.88</v>
       </c>
       <c r="AR150">
         <v>1.17</v>
@@ -32314,7 +32320,7 @@
         <v>179</v>
       </c>
       <c r="P152" t="s">
-        <v>256</v>
+        <v>257</v>
       </c>
       <c r="Q152">
         <v>2.2</v>
@@ -32520,7 +32526,7 @@
         <v>87</v>
       </c>
       <c r="P153" t="s">
-        <v>184</v>
+        <v>185</v>
       </c>
       <c r="Q153">
         <v>5.5</v>
@@ -32726,7 +32732,7 @@
         <v>87</v>
       </c>
       <c r="P154" t="s">
-        <v>257</v>
+        <v>258</v>
       </c>
       <c r="Q154">
         <v>5.43</v>
@@ -32804,7 +32810,7 @@
         <v>2</v>
       </c>
       <c r="AP154">
-        <v>1.27</v>
+        <v>1.38</v>
       </c>
       <c r="AQ154">
         <v>2.13</v>
@@ -33138,7 +33144,7 @@
         <v>87</v>
       </c>
       <c r="P156" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="Q156">
         <v>4.7</v>
@@ -33550,7 +33556,7 @@
         <v>87</v>
       </c>
       <c r="P158" t="s">
-        <v>259</v>
+        <v>260</v>
       </c>
       <c r="Q158">
         <v>8.35</v>
@@ -33913,6 +33919,418 @@
       </c>
       <c r="BP159">
         <v>1.28</v>
+      </c>
+    </row>
+    <row r="160" spans="1:68">
+      <c r="A160" s="1">
+        <v>159</v>
+      </c>
+      <c r="B160">
+        <v>6441846</v>
+      </c>
+      <c r="C160" t="s">
+        <v>68</v>
+      </c>
+      <c r="D160" t="s">
+        <v>69</v>
+      </c>
+      <c r="E160" s="2">
+        <v>45410.5</v>
+      </c>
+      <c r="F160">
+        <v>32</v>
+      </c>
+      <c r="G160" t="s">
+        <v>73</v>
+      </c>
+      <c r="H160" t="s">
+        <v>72</v>
+      </c>
+      <c r="I160">
+        <v>0</v>
+      </c>
+      <c r="J160">
+        <v>1</v>
+      </c>
+      <c r="K160">
+        <v>1</v>
+      </c>
+      <c r="L160">
+        <v>0</v>
+      </c>
+      <c r="M160">
+        <v>3</v>
+      </c>
+      <c r="N160">
+        <v>3</v>
+      </c>
+      <c r="O160" t="s">
+        <v>87</v>
+      </c>
+      <c r="P160" t="s">
+        <v>261</v>
+      </c>
+      <c r="Q160">
+        <v>4.4</v>
+      </c>
+      <c r="R160">
+        <v>2</v>
+      </c>
+      <c r="S160">
+        <v>2.65</v>
+      </c>
+      <c r="T160">
+        <v>1.47</v>
+      </c>
+      <c r="U160">
+        <v>2.57</v>
+      </c>
+      <c r="V160">
+        <v>3.1</v>
+      </c>
+      <c r="W160">
+        <v>1.34</v>
+      </c>
+      <c r="X160">
+        <v>8.1</v>
+      </c>
+      <c r="Y160">
+        <v>1.06</v>
+      </c>
+      <c r="Z160">
+        <v>3.68</v>
+      </c>
+      <c r="AA160">
+        <v>3.26</v>
+      </c>
+      <c r="AB160">
+        <v>2.04</v>
+      </c>
+      <c r="AC160">
+        <v>1.04</v>
+      </c>
+      <c r="AD160">
+        <v>7.6</v>
+      </c>
+      <c r="AE160">
+        <v>1.34</v>
+      </c>
+      <c r="AF160">
+        <v>2.88</v>
+      </c>
+      <c r="AG160">
+        <v>2.12</v>
+      </c>
+      <c r="AH160">
+        <v>1.7</v>
+      </c>
+      <c r="AI160">
+        <v>1.87</v>
+      </c>
+      <c r="AJ160">
+        <v>1.83</v>
+      </c>
+      <c r="AK160">
+        <v>1.73</v>
+      </c>
+      <c r="AL160">
+        <v>1.32</v>
+      </c>
+      <c r="AM160">
+        <v>1.26</v>
+      </c>
+      <c r="AN160">
+        <v>1.4</v>
+      </c>
+      <c r="AO160">
+        <v>1.27</v>
+      </c>
+      <c r="AP160">
+        <v>1.31</v>
+      </c>
+      <c r="AQ160">
+        <v>1.38</v>
+      </c>
+      <c r="AR160">
+        <v>1.23</v>
+      </c>
+      <c r="AS160">
+        <v>1.36</v>
+      </c>
+      <c r="AT160">
+        <v>2.59</v>
+      </c>
+      <c r="AU160">
+        <v>2</v>
+      </c>
+      <c r="AV160">
+        <v>8</v>
+      </c>
+      <c r="AW160">
+        <v>3</v>
+      </c>
+      <c r="AX160">
+        <v>7</v>
+      </c>
+      <c r="AY160">
+        <v>5</v>
+      </c>
+      <c r="AZ160">
+        <v>15</v>
+      </c>
+      <c r="BA160">
+        <v>2</v>
+      </c>
+      <c r="BB160">
+        <v>4</v>
+      </c>
+      <c r="BC160">
+        <v>6</v>
+      </c>
+      <c r="BD160">
+        <v>2.68</v>
+      </c>
+      <c r="BE160">
+        <v>7.5</v>
+      </c>
+      <c r="BF160">
+        <v>1.64</v>
+      </c>
+      <c r="BG160">
+        <v>1.28</v>
+      </c>
+      <c r="BH160">
+        <v>3.2</v>
+      </c>
+      <c r="BI160">
+        <v>1.82</v>
+      </c>
+      <c r="BJ160">
+        <v>1.98</v>
+      </c>
+      <c r="BK160">
+        <v>1.92</v>
+      </c>
+      <c r="BL160">
+        <v>1.79</v>
+      </c>
+      <c r="BM160">
+        <v>2.48</v>
+      </c>
+      <c r="BN160">
+        <v>1.45</v>
+      </c>
+      <c r="BO160">
+        <v>3.42</v>
+      </c>
+      <c r="BP160">
+        <v>1.25</v>
+      </c>
+    </row>
+    <row r="161" spans="1:68">
+      <c r="A161" s="1">
+        <v>160</v>
+      </c>
+      <c r="B161">
+        <v>6441845</v>
+      </c>
+      <c r="C161" t="s">
+        <v>68</v>
+      </c>
+      <c r="D161" t="s">
+        <v>69</v>
+      </c>
+      <c r="E161" s="2">
+        <v>45410.60416666666</v>
+      </c>
+      <c r="F161">
+        <v>32</v>
+      </c>
+      <c r="G161" t="s">
+        <v>74</v>
+      </c>
+      <c r="H161" t="s">
+        <v>71</v>
+      </c>
+      <c r="I161">
+        <v>2</v>
+      </c>
+      <c r="J161">
+        <v>0</v>
+      </c>
+      <c r="K161">
+        <v>2</v>
+      </c>
+      <c r="L161">
+        <v>3</v>
+      </c>
+      <c r="M161">
+        <v>1</v>
+      </c>
+      <c r="N161">
+        <v>4</v>
+      </c>
+      <c r="O161" t="s">
+        <v>183</v>
+      </c>
+      <c r="P161" t="s">
+        <v>155</v>
+      </c>
+      <c r="Q161">
+        <v>5.5</v>
+      </c>
+      <c r="R161">
+        <v>2.2</v>
+      </c>
+      <c r="S161">
+        <v>2.1</v>
+      </c>
+      <c r="T161">
+        <v>1.35</v>
+      </c>
+      <c r="U161">
+        <v>2.9</v>
+      </c>
+      <c r="V161">
+        <v>2.65</v>
+      </c>
+      <c r="W161">
+        <v>1.42</v>
+      </c>
+      <c r="X161">
+        <v>7</v>
+      </c>
+      <c r="Y161">
+        <v>1.09</v>
+      </c>
+      <c r="Z161">
+        <v>5.5</v>
+      </c>
+      <c r="AA161">
+        <v>4</v>
+      </c>
+      <c r="AB161">
+        <v>1.57</v>
+      </c>
+      <c r="AC161">
+        <v>1.04</v>
+      </c>
+      <c r="AD161">
+        <v>12</v>
+      </c>
+      <c r="AE161">
+        <v>1.25</v>
+      </c>
+      <c r="AF161">
+        <v>3.5</v>
+      </c>
+      <c r="AG161">
+        <v>1.87</v>
+      </c>
+      <c r="AH161">
+        <v>1.94</v>
+      </c>
+      <c r="AI161">
+        <v>1.88</v>
+      </c>
+      <c r="AJ161">
+        <v>1.82</v>
+      </c>
+      <c r="AK161">
+        <v>2.35</v>
+      </c>
+      <c r="AL161">
+        <v>1.18</v>
+      </c>
+      <c r="AM161">
+        <v>1.09</v>
+      </c>
+      <c r="AN161">
+        <v>1.27</v>
+      </c>
+      <c r="AO161">
+        <v>2</v>
+      </c>
+      <c r="AP161">
+        <v>1.38</v>
+      </c>
+      <c r="AQ161">
+        <v>1.88</v>
+      </c>
+      <c r="AR161">
+        <v>1.56</v>
+      </c>
+      <c r="AS161">
+        <v>1.48</v>
+      </c>
+      <c r="AT161">
+        <v>3.04</v>
+      </c>
+      <c r="AU161">
+        <v>7</v>
+      </c>
+      <c r="AV161">
+        <v>5</v>
+      </c>
+      <c r="AW161">
+        <v>4</v>
+      </c>
+      <c r="AX161">
+        <v>10</v>
+      </c>
+      <c r="AY161">
+        <v>11</v>
+      </c>
+      <c r="AZ161">
+        <v>15</v>
+      </c>
+      <c r="BA161">
+        <v>5</v>
+      </c>
+      <c r="BB161">
+        <v>5</v>
+      </c>
+      <c r="BC161">
+        <v>10</v>
+      </c>
+      <c r="BD161">
+        <v>3.59</v>
+      </c>
+      <c r="BE161">
+        <v>8.5</v>
+      </c>
+      <c r="BF161">
+        <v>1.41</v>
+      </c>
+      <c r="BG161">
+        <v>1.29</v>
+      </c>
+      <c r="BH161">
+        <v>3.14</v>
+      </c>
+      <c r="BI161">
+        <v>1.54</v>
+      </c>
+      <c r="BJ161">
+        <v>2.25</v>
+      </c>
+      <c r="BK161">
+        <v>1.94</v>
+      </c>
+      <c r="BL161">
+        <v>1.77</v>
+      </c>
+      <c r="BM161">
+        <v>2.54</v>
+      </c>
+      <c r="BN161">
+        <v>1.43</v>
+      </c>
+      <c r="BO161">
+        <v>3.48</v>
+      </c>
+      <c r="BP161">
+        <v>1.24</v>
       </c>
     </row>
   </sheetData>
